--- a/Advantage Test Cases.xlsx
+++ b/Advantage Test Cases.xlsx
@@ -8,13 +8,14 @@
   </bookViews>
   <sheets>
     <sheet name="Advantage" sheetId="1" r:id="rId1"/>
+    <sheet name="Automation" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1899" uniqueCount="1012">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3790" uniqueCount="1012">
   <si>
     <t>Test Objective</t>
   </si>
@@ -4757,10 +4758,10 @@
     <t>fn_ValidLoginNameAndInvalidPass</t>
   </si>
   <si>
-    <t>Fail</t>
-  </si>
-  <si>
-    <t>Pass</t>
+    <t>fn_ProfileDetails</t>
+  </si>
+  <si>
+    <t>fn_EditProfile</t>
   </si>
 </sst>
 </file>
@@ -5238,8 +5239,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA213"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F8" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5482,9 +5483,7 @@
       <c r="J10" s="8" t="s">
         <v>910</v>
       </c>
-      <c r="K10" t="s">
-        <v>1010</v>
-      </c>
+      <c r="K10"/>
     </row>
     <row r="11" spans="1:12" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
@@ -5515,9 +5514,7 @@
       <c r="J11" s="6" t="s">
         <v>972</v>
       </c>
-      <c r="K11" t="s">
-        <v>1011</v>
-      </c>
+      <c r="K11"/>
     </row>
     <row r="12" spans="1:12" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
@@ -5529,6 +5526,9 @@
       <c r="C12" s="6" t="s">
         <v>18</v>
       </c>
+      <c r="D12" s="8" t="s">
+        <v>1010</v>
+      </c>
       <c r="E12" s="6" t="s">
         <v>19</v>
       </c>
@@ -5543,9 +5543,6 @@
       </c>
       <c r="J12" s="6" t="s">
         <v>972</v>
-      </c>
-      <c r="K12" s="6" t="s">
-        <v>911</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="90" x14ac:dyDescent="0.25">
@@ -5557,6 +5554,9 @@
       </c>
       <c r="C13" s="6" t="s">
         <v>39</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>1011</v>
       </c>
       <c r="E13" s="8" t="s">
         <v>40</v>
@@ -11448,4 +11448,6546 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M208"/>
+  <sheetViews>
+    <sheetView topLeftCell="F5" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.85546875" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="37.5703125" customWidth="1"/>
+    <col min="8" max="8" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="37.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="18" t="s">
+        <v>992</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1008</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" s="1"/>
+    </row>
+    <row r="2" spans="1:13" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>994</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H2" s="17"/>
+      <c r="I2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>972</v>
+      </c>
+      <c r="L2" s="8"/>
+    </row>
+    <row r="3" spans="1:13" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>993</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>972</v>
+      </c>
+      <c r="L3" s="8"/>
+    </row>
+    <row r="4" spans="1:13" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>995</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>972</v>
+      </c>
+      <c r="L4" s="8"/>
+    </row>
+    <row r="5" spans="1:13" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>913</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>915</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>914</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>916</v>
+      </c>
+      <c r="J5" s="20" t="s">
+        <v>990</v>
+      </c>
+      <c r="L5" s="19"/>
+    </row>
+    <row r="6" spans="1:13" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>1006</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>912</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>910</v>
+      </c>
+      <c r="L6" s="8"/>
+    </row>
+    <row r="7" spans="1:13" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
+        <v>1009</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H7" s="2"/>
+      <c r="I7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>972</v>
+      </c>
+      <c r="L7" s="8"/>
+    </row>
+    <row r="8" spans="1:13" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
+        <v>1010</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G8" t="s">
+        <v>21</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>972</v>
+      </c>
+      <c r="K8" s="6"/>
+      <c r="L8" s="8"/>
+    </row>
+    <row r="9" spans="1:13" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="8"/>
+      <c r="B9" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>972</v>
+      </c>
+      <c r="K9" s="6" t="s">
+        <v>911</v>
+      </c>
+      <c r="L9" s="8"/>
+    </row>
+    <row r="10" spans="1:13" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="8"/>
+      <c r="B10" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>972</v>
+      </c>
+      <c r="K10" s="6" t="s">
+        <v>911</v>
+      </c>
+      <c r="L10" s="8"/>
+    </row>
+    <row r="11" spans="1:13" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="8"/>
+      <c r="B11" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>972</v>
+      </c>
+      <c r="K11" s="6" t="s">
+        <v>911</v>
+      </c>
+      <c r="L11" s="8"/>
+    </row>
+    <row r="12" spans="1:13" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
+        <v>996</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="J12" s="6" t="s">
+        <v>972</v>
+      </c>
+      <c r="K12" s="6" t="s">
+        <v>911</v>
+      </c>
+      <c r="L12" s="8"/>
+    </row>
+    <row r="13" spans="1:13" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="8"/>
+      <c r="B13" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="J13" s="6" t="s">
+        <v>972</v>
+      </c>
+      <c r="K13" s="6" t="s">
+        <v>911</v>
+      </c>
+      <c r="L13" s="8"/>
+    </row>
+    <row r="14" spans="1:13" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="8"/>
+      <c r="B14" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="J14" s="6" t="s">
+        <v>972</v>
+      </c>
+      <c r="K14" s="6" t="s">
+        <v>911</v>
+      </c>
+      <c r="L14" s="8"/>
+    </row>
+    <row r="15" spans="1:13" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
+        <v>997</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>918</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>919</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>921</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>920</v>
+      </c>
+      <c r="J15" s="8" t="s">
+        <v>922</v>
+      </c>
+      <c r="K15" s="19" t="s">
+        <v>909</v>
+      </c>
+      <c r="L15" s="8"/>
+    </row>
+    <row r="16" spans="1:13" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="8"/>
+      <c r="B16" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="J16" s="6" t="s">
+        <v>972</v>
+      </c>
+      <c r="K16" s="6" t="s">
+        <v>911</v>
+      </c>
+      <c r="L16" s="8"/>
+    </row>
+    <row r="17" spans="1:12" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="8"/>
+      <c r="B17" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="J17" s="6" t="s">
+        <v>972</v>
+      </c>
+      <c r="K17" s="6" t="s">
+        <v>911</v>
+      </c>
+      <c r="L17" s="8"/>
+    </row>
+    <row r="18" spans="1:12" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="8"/>
+      <c r="B18" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="J18" s="6" t="s">
+        <v>972</v>
+      </c>
+      <c r="K18" s="6" t="s">
+        <v>911</v>
+      </c>
+      <c r="L18" s="8"/>
+    </row>
+    <row r="19" spans="1:12" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="8"/>
+      <c r="B19" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="J19" s="6" t="s">
+        <v>972</v>
+      </c>
+      <c r="K19" s="6" t="s">
+        <v>911</v>
+      </c>
+      <c r="L19" s="8"/>
+    </row>
+    <row r="20" spans="1:12" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="8"/>
+      <c r="B20" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="J20" s="6" t="s">
+        <v>972</v>
+      </c>
+      <c r="K20" s="6" t="s">
+        <v>911</v>
+      </c>
+      <c r="L20" s="8"/>
+    </row>
+    <row r="21" spans="1:12" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="8" t="s">
+        <v>1004</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="J21" s="6" t="s">
+        <v>972</v>
+      </c>
+      <c r="K21" s="6" t="s">
+        <v>911</v>
+      </c>
+      <c r="L21" s="8"/>
+    </row>
+    <row r="22" spans="1:12" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="8"/>
+      <c r="B22" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="J22" s="6" t="s">
+        <v>972</v>
+      </c>
+      <c r="K22" s="6" t="s">
+        <v>911</v>
+      </c>
+      <c r="L22" s="8"/>
+    </row>
+    <row r="23" spans="1:12" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="8"/>
+      <c r="B23" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="J23" s="8" t="s">
+        <v>923</v>
+      </c>
+      <c r="K23" s="6"/>
+      <c r="L23" s="20" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="8"/>
+      <c r="B24" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="J24" s="6" t="s">
+        <v>972</v>
+      </c>
+      <c r="K24" s="6" t="s">
+        <v>911</v>
+      </c>
+      <c r="L24" s="8"/>
+    </row>
+    <row r="25" spans="1:12" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="8"/>
+      <c r="B25" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="J25" s="6" t="s">
+        <v>972</v>
+      </c>
+      <c r="K25" s="6" t="s">
+        <v>911</v>
+      </c>
+      <c r="L25" s="8"/>
+    </row>
+    <row r="26" spans="1:12" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="8"/>
+      <c r="B26" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>924</v>
+      </c>
+      <c r="J26" s="6" t="s">
+        <v>972</v>
+      </c>
+      <c r="K26" s="6" t="s">
+        <v>911</v>
+      </c>
+      <c r="L26" s="8"/>
+    </row>
+    <row r="27" spans="1:12" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="8"/>
+      <c r="B27" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="J27" s="6" t="s">
+        <v>972</v>
+      </c>
+      <c r="K27" s="6" t="s">
+        <v>911</v>
+      </c>
+      <c r="L27" s="8"/>
+    </row>
+    <row r="28" spans="1:12" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="8"/>
+      <c r="B28" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="J28" s="6" t="s">
+        <v>972</v>
+      </c>
+      <c r="K28" s="6" t="s">
+        <v>911</v>
+      </c>
+      <c r="L28" s="8"/>
+    </row>
+    <row r="29" spans="1:12" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="8"/>
+      <c r="B29" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="J29" s="6" t="s">
+        <v>972</v>
+      </c>
+      <c r="K29" s="6" t="s">
+        <v>911</v>
+      </c>
+      <c r="L29" s="8"/>
+    </row>
+    <row r="30" spans="1:12" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="8"/>
+      <c r="B30" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="J30" s="6" t="s">
+        <v>972</v>
+      </c>
+      <c r="K30" s="6" t="s">
+        <v>911</v>
+      </c>
+      <c r="L30" s="8"/>
+    </row>
+    <row r="31" spans="1:12" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="8"/>
+      <c r="B31" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="J31" s="6" t="s">
+        <v>972</v>
+      </c>
+      <c r="K31" s="6" t="s">
+        <v>911</v>
+      </c>
+      <c r="L31" s="8"/>
+    </row>
+    <row r="32" spans="1:12" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="8"/>
+      <c r="B32" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="J32" s="6" t="s">
+        <v>972</v>
+      </c>
+      <c r="K32" s="6" t="s">
+        <v>911</v>
+      </c>
+      <c r="L32" s="8"/>
+    </row>
+    <row r="33" spans="1:12" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="8"/>
+      <c r="B33" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="F33" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="J33" s="6" t="s">
+        <v>972</v>
+      </c>
+      <c r="K33" s="6" t="s">
+        <v>911</v>
+      </c>
+      <c r="L33" s="20" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="8"/>
+      <c r="B34" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="F34" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="J34" s="6" t="s">
+        <v>972</v>
+      </c>
+      <c r="K34" s="6" t="s">
+        <v>911</v>
+      </c>
+      <c r="L34" s="8" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="8"/>
+      <c r="B35" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="E35" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="F35" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="J35" s="6" t="s">
+        <v>972</v>
+      </c>
+      <c r="K35" s="6" t="s">
+        <v>911</v>
+      </c>
+      <c r="L35" s="8"/>
+    </row>
+    <row r="36" spans="1:12" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="8"/>
+      <c r="B36" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="E36" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="F36" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="J36" s="6" t="s">
+        <v>972</v>
+      </c>
+      <c r="K36" s="6" t="s">
+        <v>911</v>
+      </c>
+      <c r="L36" s="8"/>
+    </row>
+    <row r="37" spans="1:12" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="8"/>
+      <c r="B37" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="E37" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="F37" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="J37" s="6" t="s">
+        <v>972</v>
+      </c>
+      <c r="K37" s="6" t="s">
+        <v>911</v>
+      </c>
+      <c r="L37" s="8" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="8"/>
+      <c r="B38" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="E38" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="F38" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="J38" s="6" t="s">
+        <v>972</v>
+      </c>
+      <c r="K38" s="6" t="s">
+        <v>911</v>
+      </c>
+      <c r="L38" s="8"/>
+    </row>
+    <row r="39" spans="1:12" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="8" t="s">
+        <v>998</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="F39" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="H39" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="J39" s="6" t="s">
+        <v>972</v>
+      </c>
+      <c r="K39" s="6" t="s">
+        <v>911</v>
+      </c>
+      <c r="L39" s="8"/>
+    </row>
+    <row r="40" spans="1:12" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="8"/>
+      <c r="B40" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="E40" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="F40" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="J40" s="6" t="s">
+        <v>972</v>
+      </c>
+      <c r="K40" s="6" t="s">
+        <v>911</v>
+      </c>
+      <c r="L40" s="8"/>
+    </row>
+    <row r="41" spans="1:12" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="8"/>
+      <c r="B41" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="E41" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="F41" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="I41" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="J41" s="6" t="s">
+        <v>972</v>
+      </c>
+      <c r="K41" s="6" t="s">
+        <v>911</v>
+      </c>
+      <c r="L41" s="8"/>
+    </row>
+    <row r="42" spans="1:12" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="8"/>
+      <c r="B42" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="D42" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="F42" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="I42" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="J42" s="6"/>
+      <c r="K42" s="19" t="s">
+        <v>909</v>
+      </c>
+      <c r="L42" s="20" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="8"/>
+      <c r="B43" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="D43" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="E43" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="F43" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="I43" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="J43" s="6" t="s">
+        <v>972</v>
+      </c>
+      <c r="K43" s="6" t="s">
+        <v>911</v>
+      </c>
+      <c r="L43" s="8"/>
+    </row>
+    <row r="44" spans="1:12" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="8"/>
+      <c r="B44" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="D44" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="E44" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="F44" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="I44" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="J44" s="6" t="s">
+        <v>972</v>
+      </c>
+      <c r="K44" s="6" t="s">
+        <v>911</v>
+      </c>
+      <c r="L44" s="8"/>
+    </row>
+    <row r="45" spans="1:12" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="8"/>
+      <c r="B45" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="D45" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="E45" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="F45" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="I45" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="J45" s="6" t="s">
+        <v>972</v>
+      </c>
+      <c r="K45" s="6" t="s">
+        <v>911</v>
+      </c>
+      <c r="L45" s="8"/>
+    </row>
+    <row r="46" spans="1:12" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="8"/>
+      <c r="B46" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="D46" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="E46" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="F46" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="I46" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="J46" s="6" t="s">
+        <v>972</v>
+      </c>
+      <c r="K46" s="6" t="s">
+        <v>911</v>
+      </c>
+      <c r="L46" s="20" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="8"/>
+      <c r="B47" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="D47" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="E47" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="F47" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="I47" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="J47" s="6"/>
+      <c r="K47" s="6" t="s">
+        <v>911</v>
+      </c>
+      <c r="L47" s="20" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="8"/>
+      <c r="B48" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="D48" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="E48" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="F48" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="I48" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="J48" s="8" t="s">
+        <v>985</v>
+      </c>
+      <c r="K48" s="6"/>
+      <c r="L48" s="8" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="8"/>
+      <c r="B49" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="D49" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="E49" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="F49" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="I49" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="J49" s="6" t="s">
+        <v>972</v>
+      </c>
+      <c r="K49" s="6" t="s">
+        <v>911</v>
+      </c>
+      <c r="L49" s="8"/>
+    </row>
+    <row r="50" spans="1:12" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="8"/>
+      <c r="B50" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="D50" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="E50" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="F50" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="I50" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="J50" s="6"/>
+      <c r="K50" s="6"/>
+      <c r="L50" s="8" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="8" t="s">
+        <v>1007</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="D51" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="E51" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="F51" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>981</v>
+      </c>
+      <c r="I51" s="2" t="s">
+        <v>982</v>
+      </c>
+      <c r="J51" s="8" t="s">
+        <v>984</v>
+      </c>
+      <c r="K51" s="19" t="s">
+        <v>909</v>
+      </c>
+      <c r="L51" s="20" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="8"/>
+      <c r="B52" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="D52" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="E52" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="F52" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="I52" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="J52" s="6"/>
+      <c r="K52" s="19" t="s">
+        <v>909</v>
+      </c>
+      <c r="L52" s="20" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="8"/>
+      <c r="B53" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="D53" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="E53" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="F53" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="I53" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="J53" s="6" t="s">
+        <v>972</v>
+      </c>
+      <c r="K53" s="6" t="s">
+        <v>911</v>
+      </c>
+      <c r="L53" s="8"/>
+    </row>
+    <row r="54" spans="1:12" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="8"/>
+      <c r="B54" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="D54" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="E54" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="F54" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="I54" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="J54" s="6" t="s">
+        <v>972</v>
+      </c>
+      <c r="K54" s="6" t="s">
+        <v>911</v>
+      </c>
+      <c r="L54" s="8"/>
+    </row>
+    <row r="55" spans="1:12" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="8"/>
+      <c r="B55" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="D55" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="E55" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="F55" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="I55" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="J55" s="6" t="s">
+        <v>972</v>
+      </c>
+      <c r="K55" s="6" t="s">
+        <v>911</v>
+      </c>
+      <c r="L55" s="8"/>
+    </row>
+    <row r="56" spans="1:12" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="8"/>
+      <c r="B56" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="C56" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="D56" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="E56" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="F56" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="I56" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="J56" s="6" t="s">
+        <v>972</v>
+      </c>
+      <c r="K56" s="6" t="s">
+        <v>911</v>
+      </c>
+      <c r="L56" s="8"/>
+    </row>
+    <row r="57" spans="1:12" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="8"/>
+      <c r="B57" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="C57" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="D57" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="E57" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="F57" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="I57" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="J57" s="6" t="s">
+        <v>972</v>
+      </c>
+      <c r="K57" s="6" t="s">
+        <v>911</v>
+      </c>
+      <c r="L57" s="8"/>
+    </row>
+    <row r="58" spans="1:12" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="8"/>
+      <c r="B58" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="D58" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="E58" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="F58" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="I58" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="J58" s="6" t="s">
+        <v>972</v>
+      </c>
+      <c r="K58" s="6" t="s">
+        <v>911</v>
+      </c>
+      <c r="L58" s="8"/>
+    </row>
+    <row r="59" spans="1:12" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="8"/>
+      <c r="B59" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="D59" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="E59" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="F59" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="I59" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="J59" s="6" t="s">
+        <v>972</v>
+      </c>
+      <c r="K59" s="6" t="s">
+        <v>911</v>
+      </c>
+      <c r="L59" s="8"/>
+    </row>
+    <row r="60" spans="1:12" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="8"/>
+      <c r="B60" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="C60" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="D60" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="E60" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="F60" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="I60" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="J60" s="6" t="s">
+        <v>972</v>
+      </c>
+      <c r="K60" s="6" t="s">
+        <v>911</v>
+      </c>
+      <c r="L60" s="8"/>
+    </row>
+    <row r="61" spans="1:12" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="8"/>
+      <c r="B61" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="C61" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="D61" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="E61" s="8" t="s">
+        <v>278</v>
+      </c>
+      <c r="F61" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="I61" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="J61" s="6" t="s">
+        <v>972</v>
+      </c>
+      <c r="K61" s="6" t="s">
+        <v>911</v>
+      </c>
+      <c r="L61" s="8"/>
+    </row>
+    <row r="62" spans="1:12" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="8"/>
+      <c r="B62" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="C62" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="D62" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="E62" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="F62" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="I62" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="J62" s="6" t="s">
+        <v>972</v>
+      </c>
+      <c r="K62" s="6" t="s">
+        <v>911</v>
+      </c>
+      <c r="L62" s="8"/>
+    </row>
+    <row r="63" spans="1:12" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="8"/>
+      <c r="B63" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="C63" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="D63" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="E63" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="F63" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="I63" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="J63" s="6" t="s">
+        <v>972</v>
+      </c>
+      <c r="K63" s="6" t="s">
+        <v>911</v>
+      </c>
+      <c r="L63" s="8"/>
+    </row>
+    <row r="64" spans="1:12" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="8"/>
+      <c r="B64" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="C64" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="D64" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="E64" s="8" t="s">
+        <v>290</v>
+      </c>
+      <c r="F64" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="I64" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="J64" s="6" t="s">
+        <v>972</v>
+      </c>
+      <c r="K64" s="6" t="s">
+        <v>911</v>
+      </c>
+      <c r="L64" s="8"/>
+    </row>
+    <row r="65" spans="1:13" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="8"/>
+      <c r="B65" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="C65" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="D65" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="E65" s="8" t="s">
+        <v>295</v>
+      </c>
+      <c r="F65" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="I65" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="J65" s="6" t="s">
+        <v>972</v>
+      </c>
+      <c r="K65" s="6" t="s">
+        <v>911</v>
+      </c>
+      <c r="L65" s="8"/>
+    </row>
+    <row r="66" spans="1:13" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="8"/>
+      <c r="B66" s="6" t="s">
+        <v>306</v>
+      </c>
+      <c r="C66" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="D66" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="E66" s="8" t="s">
+        <v>301</v>
+      </c>
+      <c r="F66" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="I66" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="J66" s="6" t="s">
+        <v>972</v>
+      </c>
+      <c r="K66" s="6" t="s">
+        <v>911</v>
+      </c>
+      <c r="L66" s="8"/>
+    </row>
+    <row r="67" spans="1:13" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="8"/>
+      <c r="B67" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="C67" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="D67" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="E67" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="F67" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="I67" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="J67" s="6"/>
+      <c r="K67" s="19" t="s">
+        <v>931</v>
+      </c>
+      <c r="L67" s="20" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="8"/>
+      <c r="B68" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="C68" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="D68" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="E68" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="F68" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="I68" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="J68" s="6"/>
+      <c r="K68" s="19" t="s">
+        <v>931</v>
+      </c>
+      <c r="L68" s="20" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="8"/>
+      <c r="B69" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="C69" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="D69" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="E69" s="8" t="s">
+        <v>295</v>
+      </c>
+      <c r="F69" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="I69" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="J69" s="6"/>
+      <c r="K69" s="19" t="s">
+        <v>931</v>
+      </c>
+      <c r="L69" s="20" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="8"/>
+      <c r="B70" s="6" t="s">
+        <v>322</v>
+      </c>
+      <c r="C70" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="D70" s="8" t="s">
+        <v>316</v>
+      </c>
+      <c r="E70" s="8" t="s">
+        <v>315</v>
+      </c>
+      <c r="F70" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="I70" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="J70" s="6"/>
+      <c r="K70" s="21" t="s">
+        <v>911</v>
+      </c>
+      <c r="L70" s="20" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="8"/>
+      <c r="B71" s="6" t="s">
+        <v>324</v>
+      </c>
+      <c r="C71" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="D71" s="8" t="s">
+        <v>316</v>
+      </c>
+      <c r="E71" s="8" t="s">
+        <v>319</v>
+      </c>
+      <c r="F71" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="I71" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="J71" s="21" t="s">
+        <v>972</v>
+      </c>
+      <c r="K71" s="21" t="s">
+        <v>911</v>
+      </c>
+      <c r="L71" s="8"/>
+    </row>
+    <row r="72" spans="1:13" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="8"/>
+      <c r="B72" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="C72" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="D72" s="8" t="s">
+        <v>316</v>
+      </c>
+      <c r="E72" s="8" t="s">
+        <v>323</v>
+      </c>
+      <c r="F72" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>933</v>
+      </c>
+      <c r="I72" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="J72" s="6" t="s">
+        <v>972</v>
+      </c>
+      <c r="K72" s="21" t="s">
+        <v>911</v>
+      </c>
+      <c r="L72" s="8"/>
+    </row>
+    <row r="73" spans="1:13" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="8"/>
+      <c r="B73" s="6" t="s">
+        <v>331</v>
+      </c>
+      <c r="C73" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="D73" s="8" t="s">
+        <v>316</v>
+      </c>
+      <c r="E73" s="8" t="s">
+        <v>327</v>
+      </c>
+      <c r="F73" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="I73" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="J73" s="6" t="s">
+        <v>972</v>
+      </c>
+      <c r="K73" s="21" t="s">
+        <v>911</v>
+      </c>
+      <c r="L73" s="20"/>
+    </row>
+    <row r="74" spans="1:13" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="8"/>
+      <c r="B74" s="6" t="s">
+        <v>335</v>
+      </c>
+      <c r="C74" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="D74" s="8" t="s">
+        <v>330</v>
+      </c>
+      <c r="E74" s="8" t="s">
+        <v>332</v>
+      </c>
+      <c r="F74" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="I74" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="J74" s="6"/>
+      <c r="K74" s="21" t="s">
+        <v>911</v>
+      </c>
+      <c r="L74" s="20" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="8"/>
+      <c r="B75" s="6" t="s">
+        <v>340</v>
+      </c>
+      <c r="C75" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="D75" s="8" t="s">
+        <v>330</v>
+      </c>
+      <c r="E75" s="8" t="s">
+        <v>337</v>
+      </c>
+      <c r="F75" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="I75" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="J75" s="6" t="s">
+        <v>972</v>
+      </c>
+      <c r="K75" s="21" t="s">
+        <v>911</v>
+      </c>
+      <c r="L75" s="8"/>
+    </row>
+    <row r="76" spans="1:13" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="8"/>
+      <c r="B76" s="6" t="s">
+        <v>346</v>
+      </c>
+      <c r="C76" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="D76" s="8" t="s">
+        <v>330</v>
+      </c>
+      <c r="E76" s="6" t="s">
+        <v>339</v>
+      </c>
+      <c r="F76" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="I76" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="J76" s="6"/>
+      <c r="K76" s="6" t="s">
+        <v>911</v>
+      </c>
+      <c r="L76" s="20" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="8"/>
+      <c r="B77" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="C77" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="D77" s="8" t="s">
+        <v>330</v>
+      </c>
+      <c r="E77" s="8" t="s">
+        <v>343</v>
+      </c>
+      <c r="F77" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="I77" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="J77" s="6"/>
+      <c r="K77" s="19" t="s">
+        <v>931</v>
+      </c>
+      <c r="L77" s="20" t="s">
+        <v>977</v>
+      </c>
+      <c r="M77" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="8"/>
+      <c r="B78" s="6" t="s">
+        <v>353</v>
+      </c>
+      <c r="C78" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="D78" s="8" t="s">
+        <v>347</v>
+      </c>
+      <c r="E78" s="8" t="s">
+        <v>349</v>
+      </c>
+      <c r="F78" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="I78" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="J78" s="6"/>
+      <c r="K78" s="6" t="s">
+        <v>911</v>
+      </c>
+      <c r="L78" s="8" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="8"/>
+      <c r="B79" s="6" t="s">
+        <v>356</v>
+      </c>
+      <c r="C79" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="D79" s="8" t="s">
+        <v>347</v>
+      </c>
+      <c r="E79" s="8" t="s">
+        <v>352</v>
+      </c>
+      <c r="F79" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="I79" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="J79" s="6" t="s">
+        <v>972</v>
+      </c>
+      <c r="K79" s="6" t="s">
+        <v>911</v>
+      </c>
+      <c r="L79" s="8"/>
+    </row>
+    <row r="80" spans="1:13" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="8"/>
+      <c r="B80" s="6" t="s">
+        <v>361</v>
+      </c>
+      <c r="C80" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="D80" s="8" t="s">
+        <v>347</v>
+      </c>
+      <c r="E80" s="8" t="s">
+        <v>355</v>
+      </c>
+      <c r="F80" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="I80" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="J80" s="6"/>
+      <c r="K80" s="6"/>
+      <c r="L80" s="8" t="s">
+        <v>938</v>
+      </c>
+      <c r="M80" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="8"/>
+      <c r="B81" s="6" t="s">
+        <v>365</v>
+      </c>
+      <c r="C81" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="D81" s="8" t="s">
+        <v>347</v>
+      </c>
+      <c r="E81" s="8" t="s">
+        <v>360</v>
+      </c>
+      <c r="F81" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="I81" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="J81" s="6"/>
+      <c r="K81" s="19" t="s">
+        <v>909</v>
+      </c>
+      <c r="L81" s="20" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="8"/>
+      <c r="B82" s="6" t="s">
+        <v>369</v>
+      </c>
+      <c r="C82" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="D82" s="8" t="s">
+        <v>347</v>
+      </c>
+      <c r="E82" s="8" t="s">
+        <v>364</v>
+      </c>
+      <c r="F82" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G82" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="I82" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="J82" s="6"/>
+      <c r="K82" s="19" t="s">
+        <v>909</v>
+      </c>
+      <c r="L82" s="20" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="8"/>
+      <c r="B83" s="6" t="s">
+        <v>373</v>
+      </c>
+      <c r="C83" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="D83" s="6" t="s">
+        <v>368</v>
+      </c>
+      <c r="E83" s="8" t="s">
+        <v>370</v>
+      </c>
+      <c r="F83" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="I83" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="J83" s="6"/>
+      <c r="K83" s="19"/>
+      <c r="L83" s="8" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="8"/>
+      <c r="B84" s="6" t="s">
+        <v>378</v>
+      </c>
+      <c r="C84" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="D84" s="6" t="s">
+        <v>368</v>
+      </c>
+      <c r="E84" s="8" t="s">
+        <v>374</v>
+      </c>
+      <c r="F84" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="I84" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="J84" s="6"/>
+      <c r="K84" s="19"/>
+      <c r="L84" s="20" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="8"/>
+      <c r="B85" s="6" t="s">
+        <v>380</v>
+      </c>
+      <c r="C85" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="D85" s="8" t="s">
+        <v>377</v>
+      </c>
+      <c r="E85" s="8" t="s">
+        <v>382</v>
+      </c>
+      <c r="F85" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G85" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="I85" s="2" t="s">
+        <v>888</v>
+      </c>
+      <c r="J85" s="6"/>
+      <c r="K85" s="19"/>
+      <c r="L85" s="8"/>
+    </row>
+    <row r="86" spans="1:12" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="8"/>
+      <c r="B86" s="6" t="s">
+        <v>387</v>
+      </c>
+      <c r="C86" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="D86" s="8" t="s">
+        <v>904</v>
+      </c>
+      <c r="E86" s="8" t="s">
+        <v>890</v>
+      </c>
+      <c r="F86" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G86" s="2" t="s">
+        <v>889</v>
+      </c>
+      <c r="I86" s="2" t="s">
+        <v>892</v>
+      </c>
+      <c r="J86" s="6"/>
+      <c r="K86" s="6"/>
+      <c r="L86" s="8"/>
+    </row>
+    <row r="87" spans="1:12" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="8" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B87" s="6" t="s">
+        <v>391</v>
+      </c>
+      <c r="C87" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="D87" s="8" t="s">
+        <v>893</v>
+      </c>
+      <c r="E87" s="8" t="s">
+        <v>894</v>
+      </c>
+      <c r="F87" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G87" s="2" t="s">
+        <v>895</v>
+      </c>
+      <c r="I87" s="2" t="s">
+        <v>891</v>
+      </c>
+      <c r="J87" s="6"/>
+      <c r="K87" s="6"/>
+      <c r="L87" s="8"/>
+    </row>
+    <row r="88" spans="1:12" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="8"/>
+      <c r="B88" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="C88" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="D88" s="8" t="s">
+        <v>896</v>
+      </c>
+      <c r="E88" s="8" t="s">
+        <v>897</v>
+      </c>
+      <c r="F88" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G88" s="2" t="s">
+        <v>898</v>
+      </c>
+      <c r="I88" s="2" t="s">
+        <v>899</v>
+      </c>
+      <c r="J88" s="6"/>
+      <c r="K88" s="6"/>
+      <c r="L88" s="8"/>
+    </row>
+    <row r="89" spans="1:12" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="8"/>
+      <c r="B89" s="6" t="s">
+        <v>399</v>
+      </c>
+      <c r="C89" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="D89" s="8" t="s">
+        <v>900</v>
+      </c>
+      <c r="E89" s="8" t="s">
+        <v>901</v>
+      </c>
+      <c r="F89" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G89" s="2" t="s">
+        <v>902</v>
+      </c>
+      <c r="I89" s="2" t="s">
+        <v>903</v>
+      </c>
+      <c r="J89" s="6"/>
+      <c r="K89" s="6"/>
+      <c r="L89" s="8"/>
+    </row>
+    <row r="90" spans="1:12" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="8"/>
+      <c r="B90" s="6" t="s">
+        <v>402</v>
+      </c>
+      <c r="C90" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="D90" s="8" t="s">
+        <v>381</v>
+      </c>
+      <c r="E90" s="8" t="s">
+        <v>384</v>
+      </c>
+      <c r="F90" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G90" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="I90" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="J90" s="6" t="s">
+        <v>972</v>
+      </c>
+      <c r="K90" s="6" t="s">
+        <v>911</v>
+      </c>
+      <c r="L90" s="8"/>
+    </row>
+    <row r="91" spans="1:12" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="8"/>
+      <c r="B91" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="C91" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="D91" s="8" t="s">
+        <v>381</v>
+      </c>
+      <c r="E91" s="8" t="s">
+        <v>386</v>
+      </c>
+      <c r="F91" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G91" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="I91" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="J91" s="6" t="s">
+        <v>972</v>
+      </c>
+      <c r="K91" s="6" t="s">
+        <v>911</v>
+      </c>
+      <c r="L91" s="8"/>
+    </row>
+    <row r="92" spans="1:12" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="8"/>
+      <c r="B92" s="6" t="s">
+        <v>410</v>
+      </c>
+      <c r="C92" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="D92" s="8" t="s">
+        <v>381</v>
+      </c>
+      <c r="E92" s="8" t="s">
+        <v>390</v>
+      </c>
+      <c r="F92" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G92" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="I92" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="J92" s="6" t="s">
+        <v>972</v>
+      </c>
+      <c r="K92" s="6" t="s">
+        <v>911</v>
+      </c>
+      <c r="L92" s="8"/>
+    </row>
+    <row r="93" spans="1:12" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="8"/>
+      <c r="B93" s="6" t="s">
+        <v>415</v>
+      </c>
+      <c r="C93" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="D93" s="8" t="s">
+        <v>381</v>
+      </c>
+      <c r="E93" s="8" t="s">
+        <v>394</v>
+      </c>
+      <c r="F93" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G93" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="I93" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="J93" s="6" t="s">
+        <v>972</v>
+      </c>
+      <c r="K93" s="6" t="s">
+        <v>911</v>
+      </c>
+      <c r="L93" s="8"/>
+    </row>
+    <row r="94" spans="1:12" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="8"/>
+      <c r="B94" s="6" t="s">
+        <v>420</v>
+      </c>
+      <c r="C94" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="D94" s="8" t="s">
+        <v>381</v>
+      </c>
+      <c r="E94" s="8" t="s">
+        <v>398</v>
+      </c>
+      <c r="F94" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G94" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="I94" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="J94" s="6" t="s">
+        <v>972</v>
+      </c>
+      <c r="K94" s="6" t="s">
+        <v>911</v>
+      </c>
+      <c r="L94" s="8"/>
+    </row>
+    <row r="95" spans="1:12" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="8"/>
+      <c r="B95" s="6" t="s">
+        <v>421</v>
+      </c>
+      <c r="C95" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="D95" s="8" t="s">
+        <v>381</v>
+      </c>
+      <c r="E95" s="8" t="s">
+        <v>403</v>
+      </c>
+      <c r="F95" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G95" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="I95" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="J95" s="6"/>
+      <c r="K95" s="6" t="s">
+        <v>911</v>
+      </c>
+      <c r="L95" s="8" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="8"/>
+      <c r="B96" s="6" t="s">
+        <v>430</v>
+      </c>
+      <c r="C96" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="D96" s="8" t="s">
+        <v>381</v>
+      </c>
+      <c r="E96" s="8" t="s">
+        <v>407</v>
+      </c>
+      <c r="F96" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G96" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="I96" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="J96" s="6" t="s">
+        <v>972</v>
+      </c>
+      <c r="K96" s="6" t="s">
+        <v>911</v>
+      </c>
+      <c r="L96" s="8"/>
+    </row>
+    <row r="97" spans="1:12" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="8"/>
+      <c r="B97" s="6" t="s">
+        <v>435</v>
+      </c>
+      <c r="C97" s="6" t="s">
+        <v>411</v>
+      </c>
+      <c r="D97" s="6" t="s">
+        <v>414</v>
+      </c>
+      <c r="E97" s="8" t="s">
+        <v>412</v>
+      </c>
+      <c r="F97" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G97" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="I97" s="8" t="s">
+        <v>413</v>
+      </c>
+      <c r="J97" s="6" t="s">
+        <v>972</v>
+      </c>
+      <c r="K97" s="6" t="s">
+        <v>911</v>
+      </c>
+      <c r="L97" s="8"/>
+    </row>
+    <row r="98" spans="1:12" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="8"/>
+      <c r="B98" s="6" t="s">
+        <v>437</v>
+      </c>
+      <c r="C98" s="6" t="s">
+        <v>411</v>
+      </c>
+      <c r="D98" s="6" t="s">
+        <v>414</v>
+      </c>
+      <c r="E98" s="8" t="s">
+        <v>416</v>
+      </c>
+      <c r="F98" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G98" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="I98" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="J98" s="6" t="s">
+        <v>972</v>
+      </c>
+      <c r="K98" s="6" t="s">
+        <v>911</v>
+      </c>
+      <c r="L98" s="8"/>
+    </row>
+    <row r="99" spans="1:12" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="8"/>
+      <c r="B99" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="C99" s="6" t="s">
+        <v>411</v>
+      </c>
+      <c r="D99" s="8" t="s">
+        <v>425</v>
+      </c>
+      <c r="E99" s="8" t="s">
+        <v>424</v>
+      </c>
+      <c r="F99" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G99" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="I99" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="J99" s="6" t="s">
+        <v>972</v>
+      </c>
+      <c r="K99" s="6" t="s">
+        <v>911</v>
+      </c>
+      <c r="L99" s="8"/>
+    </row>
+    <row r="100" spans="1:12" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="8"/>
+      <c r="B100" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="C100" s="6" t="s">
+        <v>411</v>
+      </c>
+      <c r="D100" s="8" t="s">
+        <v>422</v>
+      </c>
+      <c r="E100" s="8" t="s">
+        <v>427</v>
+      </c>
+      <c r="F100" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G100" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="I100" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="J100" s="6" t="s">
+        <v>972</v>
+      </c>
+      <c r="K100" s="6" t="s">
+        <v>911</v>
+      </c>
+      <c r="L100" s="8"/>
+    </row>
+    <row r="101" spans="1:12" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="8"/>
+      <c r="B101" s="6" t="s">
+        <v>450</v>
+      </c>
+      <c r="C101" s="6" t="s">
+        <v>411</v>
+      </c>
+      <c r="D101" s="8" t="s">
+        <v>422</v>
+      </c>
+      <c r="E101" s="8" t="s">
+        <v>429</v>
+      </c>
+      <c r="F101" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G101" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="I101" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="J101" s="6" t="s">
+        <v>972</v>
+      </c>
+      <c r="K101" s="6" t="s">
+        <v>911</v>
+      </c>
+      <c r="L101" s="8"/>
+    </row>
+    <row r="102" spans="1:12" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="8"/>
+      <c r="B102" s="6" t="s">
+        <v>453</v>
+      </c>
+      <c r="C102" s="6" t="s">
+        <v>411</v>
+      </c>
+      <c r="D102" s="8" t="s">
+        <v>422</v>
+      </c>
+      <c r="E102" s="8" t="s">
+        <v>436</v>
+      </c>
+      <c r="F102" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G102" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="I102" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="J102" s="6" t="s">
+        <v>972</v>
+      </c>
+      <c r="K102" s="6" t="s">
+        <v>911</v>
+      </c>
+      <c r="L102" s="8"/>
+    </row>
+    <row r="103" spans="1:12" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="8"/>
+      <c r="B103" s="6" t="s">
+        <v>459</v>
+      </c>
+      <c r="C103" s="6" t="s">
+        <v>411</v>
+      </c>
+      <c r="D103" s="8" t="s">
+        <v>422</v>
+      </c>
+      <c r="E103" s="8" t="s">
+        <v>438</v>
+      </c>
+      <c r="F103" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G103" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="I103" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="J103" s="6"/>
+      <c r="K103" s="6"/>
+      <c r="L103" s="20" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="8"/>
+      <c r="B104" s="6" t="s">
+        <v>463</v>
+      </c>
+      <c r="C104" s="6" t="s">
+        <v>411</v>
+      </c>
+      <c r="D104" s="8" t="s">
+        <v>442</v>
+      </c>
+      <c r="E104" s="6" t="s">
+        <v>443</v>
+      </c>
+      <c r="F104" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G104" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="I104" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="J104" s="6" t="s">
+        <v>972</v>
+      </c>
+      <c r="K104" s="6" t="s">
+        <v>911</v>
+      </c>
+      <c r="L104" s="8"/>
+    </row>
+    <row r="105" spans="1:12" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="8"/>
+      <c r="B105" s="6" t="s">
+        <v>467</v>
+      </c>
+      <c r="C105" s="6" t="s">
+        <v>411</v>
+      </c>
+      <c r="D105" s="8" t="s">
+        <v>442</v>
+      </c>
+      <c r="E105" s="8" t="s">
+        <v>446</v>
+      </c>
+      <c r="F105" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G105" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="I105" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="J105" s="6" t="s">
+        <v>972</v>
+      </c>
+      <c r="K105" s="6" t="s">
+        <v>911</v>
+      </c>
+      <c r="L105" s="8"/>
+    </row>
+    <row r="106" spans="1:12" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="8"/>
+      <c r="B106" s="6" t="s">
+        <v>473</v>
+      </c>
+      <c r="C106" s="6" t="s">
+        <v>411</v>
+      </c>
+      <c r="D106" s="8" t="s">
+        <v>442</v>
+      </c>
+      <c r="E106" s="8" t="s">
+        <v>451</v>
+      </c>
+      <c r="F106" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G106" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="I106" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="J106" s="6" t="s">
+        <v>972</v>
+      </c>
+      <c r="K106" s="6" t="s">
+        <v>911</v>
+      </c>
+      <c r="L106" s="8"/>
+    </row>
+    <row r="107" spans="1:12" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="8"/>
+      <c r="B107" s="6" t="s">
+        <v>479</v>
+      </c>
+      <c r="C107" s="6" t="s">
+        <v>411</v>
+      </c>
+      <c r="D107" s="8" t="s">
+        <v>442</v>
+      </c>
+      <c r="E107" s="8" t="s">
+        <v>455</v>
+      </c>
+      <c r="F107" s="6"/>
+      <c r="G107" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="I107" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="J107" s="6"/>
+      <c r="K107" s="6" t="s">
+        <v>911</v>
+      </c>
+      <c r="L107" s="20" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="8"/>
+      <c r="B108" s="6" t="s">
+        <v>480</v>
+      </c>
+      <c r="C108" s="6" t="s">
+        <v>411</v>
+      </c>
+      <c r="D108" s="8" t="s">
+        <v>458</v>
+      </c>
+      <c r="E108" s="6" t="s">
+        <v>460</v>
+      </c>
+      <c r="F108" s="6"/>
+      <c r="G108" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="I108" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="J108" s="6" t="s">
+        <v>972</v>
+      </c>
+      <c r="K108" s="6" t="s">
+        <v>911</v>
+      </c>
+      <c r="L108" s="8"/>
+    </row>
+    <row r="109" spans="1:12" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="8"/>
+      <c r="B109" s="6" t="s">
+        <v>484</v>
+      </c>
+      <c r="C109" s="6" t="s">
+        <v>411</v>
+      </c>
+      <c r="D109" s="8" t="s">
+        <v>458</v>
+      </c>
+      <c r="E109" s="8" t="s">
+        <v>620</v>
+      </c>
+      <c r="F109" s="6"/>
+      <c r="G109" s="2" t="s">
+        <v>618</v>
+      </c>
+      <c r="I109" s="2" t="s">
+        <v>619</v>
+      </c>
+      <c r="J109" s="6" t="s">
+        <v>972</v>
+      </c>
+      <c r="K109" s="6" t="s">
+        <v>911</v>
+      </c>
+      <c r="L109" s="8"/>
+    </row>
+    <row r="110" spans="1:12" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="8"/>
+      <c r="B110" s="6" t="s">
+        <v>485</v>
+      </c>
+      <c r="C110" s="6" t="s">
+        <v>411</v>
+      </c>
+      <c r="D110" s="8" t="s">
+        <v>458</v>
+      </c>
+      <c r="E110" s="8" t="s">
+        <v>621</v>
+      </c>
+      <c r="F110" s="6"/>
+      <c r="G110" s="2" t="s">
+        <v>622</v>
+      </c>
+      <c r="I110" s="2" t="s">
+        <v>623</v>
+      </c>
+      <c r="J110" s="6" t="s">
+        <v>972</v>
+      </c>
+      <c r="K110" s="6" t="s">
+        <v>911</v>
+      </c>
+      <c r="L110" s="8"/>
+    </row>
+    <row r="111" spans="1:12" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="8"/>
+      <c r="B111" s="6" t="s">
+        <v>494</v>
+      </c>
+      <c r="C111" s="6" t="s">
+        <v>411</v>
+      </c>
+      <c r="D111" s="8" t="s">
+        <v>464</v>
+      </c>
+      <c r="E111" s="8" t="s">
+        <v>465</v>
+      </c>
+      <c r="F111" s="6"/>
+      <c r="G111" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="I111" s="2" t="s">
+        <v>945</v>
+      </c>
+      <c r="J111" s="6" t="s">
+        <v>972</v>
+      </c>
+      <c r="K111" s="6" t="s">
+        <v>911</v>
+      </c>
+      <c r="L111" s="8"/>
+    </row>
+    <row r="112" spans="1:12" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="8"/>
+      <c r="B112" s="6" t="s">
+        <v>499</v>
+      </c>
+      <c r="C112" s="6" t="s">
+        <v>411</v>
+      </c>
+      <c r="D112" s="8" t="s">
+        <v>468</v>
+      </c>
+      <c r="E112" s="8" t="s">
+        <v>471</v>
+      </c>
+      <c r="F112" s="6"/>
+      <c r="G112" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="I112" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="J112" s="6" t="s">
+        <v>972</v>
+      </c>
+      <c r="K112" s="6" t="s">
+        <v>911</v>
+      </c>
+      <c r="L112" s="8"/>
+    </row>
+    <row r="113" spans="1:12" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="8"/>
+      <c r="B113" s="6" t="s">
+        <v>504</v>
+      </c>
+      <c r="C113" s="6" t="s">
+        <v>411</v>
+      </c>
+      <c r="D113" s="8" t="s">
+        <v>472</v>
+      </c>
+      <c r="E113" s="8" t="s">
+        <v>474</v>
+      </c>
+      <c r="F113" s="6"/>
+      <c r="G113" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="I113" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="J113" s="6"/>
+      <c r="K113" s="6" t="s">
+        <v>911</v>
+      </c>
+      <c r="L113" s="8" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="8"/>
+      <c r="B114" s="6" t="s">
+        <v>509</v>
+      </c>
+      <c r="C114" s="6" t="s">
+        <v>411</v>
+      </c>
+      <c r="D114" s="8" t="s">
+        <v>481</v>
+      </c>
+      <c r="E114" s="8" t="s">
+        <v>424</v>
+      </c>
+      <c r="F114" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G114" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="I114" s="2" t="s">
+        <v>947</v>
+      </c>
+      <c r="J114" s="6" t="s">
+        <v>972</v>
+      </c>
+      <c r="K114" s="6" t="s">
+        <v>911</v>
+      </c>
+      <c r="L114" s="8"/>
+    </row>
+    <row r="115" spans="1:12" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="8"/>
+      <c r="B115" s="6" t="s">
+        <v>512</v>
+      </c>
+      <c r="C115" s="6" t="s">
+        <v>411</v>
+      </c>
+      <c r="D115" s="9" t="s">
+        <v>477</v>
+      </c>
+      <c r="E115" s="8" t="s">
+        <v>478</v>
+      </c>
+      <c r="F115" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G115" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="I115" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="J115" s="6" t="s">
+        <v>972</v>
+      </c>
+      <c r="K115" s="6" t="s">
+        <v>911</v>
+      </c>
+      <c r="L115" s="8"/>
+    </row>
+    <row r="116" spans="1:12" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="8"/>
+      <c r="B116" s="6" t="s">
+        <v>516</v>
+      </c>
+      <c r="C116" s="6" t="s">
+        <v>411</v>
+      </c>
+      <c r="D116" s="8" t="s">
+        <v>486</v>
+      </c>
+      <c r="E116" s="8" t="s">
+        <v>487</v>
+      </c>
+      <c r="F116" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G116" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="I116" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="J116" s="6" t="s">
+        <v>972</v>
+      </c>
+      <c r="K116" s="6" t="s">
+        <v>911</v>
+      </c>
+      <c r="L116" s="8"/>
+    </row>
+    <row r="117" spans="1:12" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="8"/>
+      <c r="B117" s="6" t="s">
+        <v>524</v>
+      </c>
+      <c r="C117" s="6" t="s">
+        <v>411</v>
+      </c>
+      <c r="D117" s="8" t="s">
+        <v>490</v>
+      </c>
+      <c r="E117" s="8" t="s">
+        <v>491</v>
+      </c>
+      <c r="F117" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G117" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="I117" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="J117" s="6" t="s">
+        <v>972</v>
+      </c>
+      <c r="K117" s="6" t="s">
+        <v>911</v>
+      </c>
+      <c r="L117" s="8"/>
+    </row>
+    <row r="118" spans="1:12" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="8"/>
+      <c r="B118" s="6" t="s">
+        <v>536</v>
+      </c>
+      <c r="C118" s="6" t="s">
+        <v>411</v>
+      </c>
+      <c r="D118" s="8" t="s">
+        <v>490</v>
+      </c>
+      <c r="E118" s="8" t="s">
+        <v>495</v>
+      </c>
+      <c r="F118" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G118" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="I118" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="J118" s="6" t="s">
+        <v>972</v>
+      </c>
+      <c r="K118" s="6" t="s">
+        <v>911</v>
+      </c>
+      <c r="L118" s="8"/>
+    </row>
+    <row r="119" spans="1:12" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="8" t="s">
+        <v>999</v>
+      </c>
+      <c r="B119" s="6" t="s">
+        <v>537</v>
+      </c>
+      <c r="C119" s="6" t="s">
+        <v>411</v>
+      </c>
+      <c r="D119" s="8" t="s">
+        <v>498</v>
+      </c>
+      <c r="E119" s="8" t="s">
+        <v>500</v>
+      </c>
+      <c r="F119" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G119" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="H119" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="I119" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="J119" s="6"/>
+      <c r="K119" s="8" t="s">
+        <v>911</v>
+      </c>
+      <c r="L119" s="20" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="8"/>
+      <c r="B120" s="6" t="s">
+        <v>538</v>
+      </c>
+      <c r="C120" s="6" t="s">
+        <v>411</v>
+      </c>
+      <c r="D120" s="8" t="s">
+        <v>498</v>
+      </c>
+      <c r="E120" s="8" t="s">
+        <v>505</v>
+      </c>
+      <c r="F120" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G120" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="I120" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="J120" s="6" t="s">
+        <v>972</v>
+      </c>
+      <c r="K120" s="6" t="s">
+        <v>911</v>
+      </c>
+      <c r="L120" s="8"/>
+    </row>
+    <row r="121" spans="1:12" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="8"/>
+      <c r="B121" s="6" t="s">
+        <v>539</v>
+      </c>
+      <c r="C121" s="6" t="s">
+        <v>411</v>
+      </c>
+      <c r="D121" s="8" t="s">
+        <v>498</v>
+      </c>
+      <c r="E121" s="8" t="s">
+        <v>508</v>
+      </c>
+      <c r="F121" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G121" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="H121" s="2"/>
+      <c r="I121" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="J121" s="8" t="s">
+        <v>972</v>
+      </c>
+      <c r="K121" s="8" t="s">
+        <v>911</v>
+      </c>
+      <c r="L121" s="8" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="8"/>
+      <c r="B122" s="6" t="s">
+        <v>541</v>
+      </c>
+      <c r="C122" s="6" t="s">
+        <v>411</v>
+      </c>
+      <c r="D122" s="8" t="s">
+        <v>498</v>
+      </c>
+      <c r="E122" s="8" t="s">
+        <v>513</v>
+      </c>
+      <c r="F122" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G122" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="H122" s="2"/>
+      <c r="I122" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="J122" s="8" t="s">
+        <v>972</v>
+      </c>
+      <c r="K122" s="8" t="s">
+        <v>911</v>
+      </c>
+      <c r="L122" s="8"/>
+    </row>
+    <row r="123" spans="1:12" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="8"/>
+      <c r="B123" s="6" t="s">
+        <v>547</v>
+      </c>
+      <c r="C123" s="6" t="s">
+        <v>411</v>
+      </c>
+      <c r="D123" s="8" t="s">
+        <v>498</v>
+      </c>
+      <c r="E123" s="8" t="s">
+        <v>521</v>
+      </c>
+      <c r="F123" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G123" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="H123" s="2"/>
+      <c r="I123" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="J123" s="6"/>
+      <c r="K123" s="8" t="s">
+        <v>911</v>
+      </c>
+      <c r="L123" s="8" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="8" t="s">
+        <v>999</v>
+      </c>
+      <c r="B124" s="6" t="s">
+        <v>551</v>
+      </c>
+      <c r="C124" s="6" t="s">
+        <v>411</v>
+      </c>
+      <c r="D124" s="8" t="s">
+        <v>517</v>
+      </c>
+      <c r="E124" s="8" t="s">
+        <v>518</v>
+      </c>
+      <c r="F124" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G124" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="H124" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="I124" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="J124" s="6"/>
+      <c r="K124" s="22" t="s">
+        <v>911</v>
+      </c>
+      <c r="L124" s="20" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="8"/>
+      <c r="B125" s="6" t="s">
+        <v>556</v>
+      </c>
+      <c r="C125" s="6" t="s">
+        <v>411</v>
+      </c>
+      <c r="D125" s="8" t="s">
+        <v>517</v>
+      </c>
+      <c r="E125" s="8" t="s">
+        <v>525</v>
+      </c>
+      <c r="F125" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G125" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="I125" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="J125" s="6" t="s">
+        <v>972</v>
+      </c>
+      <c r="K125" s="8" t="s">
+        <v>911</v>
+      </c>
+      <c r="L125" s="8"/>
+    </row>
+    <row r="126" spans="1:12" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="8"/>
+      <c r="B126" s="6" t="s">
+        <v>560</v>
+      </c>
+      <c r="C126" s="6" t="s">
+        <v>411</v>
+      </c>
+      <c r="D126" s="8" t="s">
+        <v>517</v>
+      </c>
+      <c r="E126" s="8" t="s">
+        <v>528</v>
+      </c>
+      <c r="F126" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G126" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="H126" s="2"/>
+      <c r="I126" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="J126" s="8" t="s">
+        <v>972</v>
+      </c>
+      <c r="K126" s="8" t="s">
+        <v>911</v>
+      </c>
+      <c r="L126" s="8"/>
+    </row>
+    <row r="127" spans="1:12" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="8"/>
+      <c r="B127" s="6" t="s">
+        <v>566</v>
+      </c>
+      <c r="C127" s="6" t="s">
+        <v>411</v>
+      </c>
+      <c r="D127" s="8" t="s">
+        <v>517</v>
+      </c>
+      <c r="E127" s="8" t="s">
+        <v>533</v>
+      </c>
+      <c r="F127" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G127" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="H127" s="2"/>
+      <c r="I127" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="J127" s="8" t="s">
+        <v>972</v>
+      </c>
+      <c r="K127" s="8" t="s">
+        <v>911</v>
+      </c>
+      <c r="L127" s="8"/>
+    </row>
+    <row r="128" spans="1:12" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="8"/>
+      <c r="B128" s="6" t="s">
+        <v>569</v>
+      </c>
+      <c r="C128" s="6" t="s">
+        <v>411</v>
+      </c>
+      <c r="D128" s="8" t="s">
+        <v>517</v>
+      </c>
+      <c r="E128" s="8" t="s">
+        <v>521</v>
+      </c>
+      <c r="F128" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G128" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="H128" s="2"/>
+      <c r="I128" s="2" t="s">
+        <v>535</v>
+      </c>
+      <c r="J128" s="8" t="s">
+        <v>972</v>
+      </c>
+      <c r="K128" s="8" t="s">
+        <v>911</v>
+      </c>
+      <c r="L128" s="8"/>
+    </row>
+    <row r="129" spans="1:12" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="8" t="s">
+        <v>999</v>
+      </c>
+      <c r="B129" s="6" t="s">
+        <v>571</v>
+      </c>
+      <c r="C129" s="6" t="s">
+        <v>411</v>
+      </c>
+      <c r="D129" s="8" t="s">
+        <v>540</v>
+      </c>
+      <c r="E129" s="8" t="s">
+        <v>543</v>
+      </c>
+      <c r="F129" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G129" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="H129" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="I129" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="J129" s="6"/>
+      <c r="K129" s="20" t="s">
+        <v>951</v>
+      </c>
+      <c r="L129" s="8"/>
+    </row>
+    <row r="130" spans="1:12" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="8"/>
+      <c r="B130" s="6" t="s">
+        <v>577</v>
+      </c>
+      <c r="C130" s="6" t="s">
+        <v>411</v>
+      </c>
+      <c r="D130" s="8" t="s">
+        <v>540</v>
+      </c>
+      <c r="E130" s="8" t="s">
+        <v>548</v>
+      </c>
+      <c r="F130" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G130" s="2" t="s">
+        <v>549</v>
+      </c>
+      <c r="H130" s="2"/>
+      <c r="I130" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="J130" s="8" t="s">
+        <v>972</v>
+      </c>
+      <c r="K130" s="8" t="s">
+        <v>911</v>
+      </c>
+      <c r="L130" s="8"/>
+    </row>
+    <row r="131" spans="1:12" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A131" s="8"/>
+      <c r="B131" s="6" t="s">
+        <v>580</v>
+      </c>
+      <c r="C131" s="6" t="s">
+        <v>411</v>
+      </c>
+      <c r="D131" s="8" t="s">
+        <v>552</v>
+      </c>
+      <c r="E131" s="8" t="s">
+        <v>553</v>
+      </c>
+      <c r="F131" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G131" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="I131" s="2" t="s">
+        <v>555</v>
+      </c>
+      <c r="J131" s="6" t="s">
+        <v>972</v>
+      </c>
+      <c r="K131" s="8" t="s">
+        <v>911</v>
+      </c>
+      <c r="L131" s="8"/>
+    </row>
+    <row r="132" spans="1:12" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A132" s="8"/>
+      <c r="B132" s="6" t="s">
+        <v>585</v>
+      </c>
+      <c r="C132" s="6" t="s">
+        <v>411</v>
+      </c>
+      <c r="D132" s="8" t="s">
+        <v>552</v>
+      </c>
+      <c r="E132" s="8" t="s">
+        <v>557</v>
+      </c>
+      <c r="F132" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G132" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="I132" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="J132" s="6" t="s">
+        <v>972</v>
+      </c>
+      <c r="K132" s="8" t="s">
+        <v>911</v>
+      </c>
+      <c r="L132" s="8"/>
+    </row>
+    <row r="133" spans="1:12" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="8"/>
+      <c r="B133" s="6" t="s">
+        <v>589</v>
+      </c>
+      <c r="C133" s="6" t="s">
+        <v>411</v>
+      </c>
+      <c r="D133" s="8" t="s">
+        <v>561</v>
+      </c>
+      <c r="E133" s="8" t="s">
+        <v>562</v>
+      </c>
+      <c r="F133" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G133" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="I133" s="2" t="s">
+        <v>564</v>
+      </c>
+      <c r="J133" s="6" t="s">
+        <v>972</v>
+      </c>
+      <c r="K133" s="8" t="s">
+        <v>911</v>
+      </c>
+      <c r="L133" s="8"/>
+    </row>
+    <row r="134" spans="1:12" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A134" s="8"/>
+      <c r="B134" s="6" t="s">
+        <v>592</v>
+      </c>
+      <c r="C134" s="6" t="s">
+        <v>411</v>
+      </c>
+      <c r="D134" s="8" t="s">
+        <v>561</v>
+      </c>
+      <c r="E134" s="8" t="s">
+        <v>565</v>
+      </c>
+      <c r="F134" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G134" s="2" t="s">
+        <v>567</v>
+      </c>
+      <c r="I134" s="2" t="s">
+        <v>952</v>
+      </c>
+      <c r="J134" s="6" t="s">
+        <v>972</v>
+      </c>
+      <c r="K134" s="8" t="s">
+        <v>911</v>
+      </c>
+      <c r="L134" s="8"/>
+    </row>
+    <row r="135" spans="1:12" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A135" s="8"/>
+      <c r="B135" s="6" t="s">
+        <v>599</v>
+      </c>
+      <c r="C135" s="6" t="s">
+        <v>411</v>
+      </c>
+      <c r="D135" s="8" t="s">
+        <v>561</v>
+      </c>
+      <c r="E135" s="8" t="s">
+        <v>568</v>
+      </c>
+      <c r="F135" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G135" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="I135" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="J135" s="6" t="s">
+        <v>972</v>
+      </c>
+      <c r="K135" s="8" t="s">
+        <v>911</v>
+      </c>
+      <c r="L135" s="8"/>
+    </row>
+    <row r="136" spans="1:12" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A136" s="8"/>
+      <c r="B136" s="6" t="s">
+        <v>603</v>
+      </c>
+      <c r="C136" s="6" t="s">
+        <v>411</v>
+      </c>
+      <c r="D136" s="8" t="s">
+        <v>561</v>
+      </c>
+      <c r="E136" s="8" t="s">
+        <v>572</v>
+      </c>
+      <c r="F136" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G136" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="I136" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="J136" s="6" t="s">
+        <v>972</v>
+      </c>
+      <c r="K136" s="8" t="s">
+        <v>911</v>
+      </c>
+      <c r="L136" s="8"/>
+    </row>
+    <row r="137" spans="1:12" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A137" s="8"/>
+      <c r="B137" s="6" t="s">
+        <v>605</v>
+      </c>
+      <c r="C137" s="6" t="s">
+        <v>411</v>
+      </c>
+      <c r="D137" s="8" t="s">
+        <v>561</v>
+      </c>
+      <c r="E137" s="8" t="s">
+        <v>576</v>
+      </c>
+      <c r="F137" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G137" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="I137" s="2" t="s">
+        <v>579</v>
+      </c>
+      <c r="J137" s="6" t="s">
+        <v>972</v>
+      </c>
+      <c r="K137" s="8" t="s">
+        <v>911</v>
+      </c>
+      <c r="L137" s="8"/>
+    </row>
+    <row r="138" spans="1:12" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A138" s="8"/>
+      <c r="B138" s="6" t="s">
+        <v>606</v>
+      </c>
+      <c r="C138" s="6" t="s">
+        <v>411</v>
+      </c>
+      <c r="D138" s="8" t="s">
+        <v>581</v>
+      </c>
+      <c r="E138" s="6" t="s">
+        <v>582</v>
+      </c>
+      <c r="F138" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G138" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="I138" s="2" t="s">
+        <v>584</v>
+      </c>
+      <c r="J138" s="6" t="s">
+        <v>972</v>
+      </c>
+      <c r="K138" s="8" t="s">
+        <v>911</v>
+      </c>
+      <c r="L138" s="8"/>
+    </row>
+    <row r="139" spans="1:12" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A139" s="8"/>
+      <c r="B139" s="6" t="s">
+        <v>607</v>
+      </c>
+      <c r="C139" s="6" t="s">
+        <v>411</v>
+      </c>
+      <c r="D139" s="8" t="s">
+        <v>581</v>
+      </c>
+      <c r="E139" s="8" t="s">
+        <v>625</v>
+      </c>
+      <c r="F139" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G139" s="2" t="s">
+        <v>626</v>
+      </c>
+      <c r="I139" s="2" t="s">
+        <v>627</v>
+      </c>
+      <c r="J139" s="6" t="s">
+        <v>972</v>
+      </c>
+      <c r="K139" s="8" t="s">
+        <v>911</v>
+      </c>
+      <c r="L139" s="8"/>
+    </row>
+    <row r="140" spans="1:12" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A140" s="8"/>
+      <c r="B140" s="6" t="s">
+        <v>608</v>
+      </c>
+      <c r="C140" s="6" t="s">
+        <v>411</v>
+      </c>
+      <c r="D140" s="8" t="s">
+        <v>581</v>
+      </c>
+      <c r="E140" s="8" t="s">
+        <v>628</v>
+      </c>
+      <c r="F140" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G140" s="2" t="s">
+        <v>629</v>
+      </c>
+      <c r="I140" s="2" t="s">
+        <v>630</v>
+      </c>
+      <c r="J140" s="6" t="s">
+        <v>972</v>
+      </c>
+      <c r="K140" s="8" t="s">
+        <v>911</v>
+      </c>
+      <c r="L140" s="8"/>
+    </row>
+    <row r="141" spans="1:12" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A141" s="8"/>
+      <c r="B141" s="6" t="s">
+        <v>624</v>
+      </c>
+      <c r="C141" s="6" t="s">
+        <v>411</v>
+      </c>
+      <c r="D141" s="8" t="s">
+        <v>581</v>
+      </c>
+      <c r="E141" s="8" t="s">
+        <v>586</v>
+      </c>
+      <c r="F141" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G141" s="2" t="s">
+        <v>587</v>
+      </c>
+      <c r="I141" s="2" t="s">
+        <v>588</v>
+      </c>
+      <c r="J141" s="6" t="s">
+        <v>972</v>
+      </c>
+      <c r="K141" s="8" t="s">
+        <v>911</v>
+      </c>
+      <c r="L141" s="8"/>
+    </row>
+    <row r="142" spans="1:12" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A142" s="8"/>
+      <c r="B142" s="6" t="s">
+        <v>631</v>
+      </c>
+      <c r="C142" s="6" t="s">
+        <v>411</v>
+      </c>
+      <c r="D142" s="8" t="s">
+        <v>594</v>
+      </c>
+      <c r="E142" s="8" t="s">
+        <v>593</v>
+      </c>
+      <c r="F142" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G142" s="2" t="s">
+        <v>590</v>
+      </c>
+      <c r="I142" s="2" t="s">
+        <v>591</v>
+      </c>
+      <c r="J142" s="6" t="s">
+        <v>972</v>
+      </c>
+      <c r="K142" s="8" t="s">
+        <v>911</v>
+      </c>
+      <c r="L142" s="8" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="143" spans="1:12" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A143" s="8"/>
+      <c r="B143" s="6" t="s">
+        <v>632</v>
+      </c>
+      <c r="C143" s="6" t="s">
+        <v>411</v>
+      </c>
+      <c r="D143" s="8" t="s">
+        <v>595</v>
+      </c>
+      <c r="E143" s="8" t="s">
+        <v>596</v>
+      </c>
+      <c r="F143" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G143" s="2" t="s">
+        <v>597</v>
+      </c>
+      <c r="I143" s="2" t="s">
+        <v>598</v>
+      </c>
+      <c r="J143" s="6" t="s">
+        <v>972</v>
+      </c>
+      <c r="K143" s="8" t="s">
+        <v>911</v>
+      </c>
+      <c r="L143" s="8"/>
+    </row>
+    <row r="144" spans="1:12" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A144" s="8"/>
+      <c r="B144" s="6" t="s">
+        <v>636</v>
+      </c>
+      <c r="C144" s="6" t="s">
+        <v>411</v>
+      </c>
+      <c r="D144" s="8" t="s">
+        <v>595</v>
+      </c>
+      <c r="E144" s="8" t="s">
+        <v>600</v>
+      </c>
+      <c r="F144" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G144" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="I144" s="2" t="s">
+        <v>602</v>
+      </c>
+      <c r="J144" s="6" t="s">
+        <v>972</v>
+      </c>
+      <c r="K144" s="8" t="s">
+        <v>911</v>
+      </c>
+      <c r="L144" s="8"/>
+    </row>
+    <row r="145" spans="1:12" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A145" s="8"/>
+      <c r="B145" s="6" t="s">
+        <v>637</v>
+      </c>
+      <c r="C145" s="6" t="s">
+        <v>411</v>
+      </c>
+      <c r="D145" s="8" t="s">
+        <v>595</v>
+      </c>
+      <c r="E145" s="8" t="s">
+        <v>604</v>
+      </c>
+      <c r="F145" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G145" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="I145" s="2" t="s">
+        <v>616</v>
+      </c>
+      <c r="J145" s="6" t="s">
+        <v>972</v>
+      </c>
+      <c r="K145" s="8" t="s">
+        <v>911</v>
+      </c>
+      <c r="L145" s="8" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="146" spans="1:12" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A146" s="8"/>
+      <c r="B146" s="6" t="s">
+        <v>644</v>
+      </c>
+      <c r="C146" s="6" t="s">
+        <v>411</v>
+      </c>
+      <c r="D146" s="8" t="s">
+        <v>595</v>
+      </c>
+      <c r="E146" s="8" t="s">
+        <v>609</v>
+      </c>
+      <c r="F146" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G146" s="2" t="s">
+        <v>610</v>
+      </c>
+      <c r="I146" s="2" t="s">
+        <v>611</v>
+      </c>
+      <c r="J146" s="6" t="s">
+        <v>972</v>
+      </c>
+      <c r="K146" s="8" t="s">
+        <v>911</v>
+      </c>
+      <c r="L146" s="8"/>
+    </row>
+    <row r="147" spans="1:12" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A147" s="8"/>
+      <c r="B147" s="6" t="s">
+        <v>648</v>
+      </c>
+      <c r="C147" s="6" t="s">
+        <v>411</v>
+      </c>
+      <c r="D147" s="8" t="s">
+        <v>595</v>
+      </c>
+      <c r="E147" s="8" t="s">
+        <v>612</v>
+      </c>
+      <c r="F147" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G147" s="2" t="s">
+        <v>613</v>
+      </c>
+      <c r="I147" s="2" t="s">
+        <v>614</v>
+      </c>
+      <c r="J147" s="6" t="s">
+        <v>972</v>
+      </c>
+      <c r="K147" s="8" t="s">
+        <v>911</v>
+      </c>
+      <c r="L147" s="8"/>
+    </row>
+    <row r="148" spans="1:12" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A148" s="8"/>
+      <c r="B148" s="6" t="s">
+        <v>652</v>
+      </c>
+      <c r="C148" s="6" t="s">
+        <v>411</v>
+      </c>
+      <c r="D148" s="6" t="s">
+        <v>617</v>
+      </c>
+      <c r="E148" s="6" t="s">
+        <v>635</v>
+      </c>
+      <c r="F148" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G148" s="2" t="s">
+        <v>633</v>
+      </c>
+      <c r="I148" s="2" t="s">
+        <v>634</v>
+      </c>
+      <c r="J148" s="6" t="s">
+        <v>972</v>
+      </c>
+      <c r="K148" s="8" t="s">
+        <v>911</v>
+      </c>
+      <c r="L148" s="8"/>
+    </row>
+    <row r="149" spans="1:12" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A149" s="8"/>
+      <c r="B149" s="6" t="s">
+        <v>656</v>
+      </c>
+      <c r="C149" s="6" t="s">
+        <v>411</v>
+      </c>
+      <c r="D149" s="6" t="s">
+        <v>617</v>
+      </c>
+      <c r="E149" s="8" t="s">
+        <v>638</v>
+      </c>
+      <c r="F149" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G149" s="2" t="s">
+        <v>639</v>
+      </c>
+      <c r="I149" s="2" t="s">
+        <v>640</v>
+      </c>
+      <c r="J149" s="6" t="s">
+        <v>972</v>
+      </c>
+      <c r="K149" s="8" t="s">
+        <v>911</v>
+      </c>
+      <c r="L149" s="8"/>
+    </row>
+    <row r="150" spans="1:12" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A150" s="8"/>
+      <c r="B150" s="6" t="s">
+        <v>660</v>
+      </c>
+      <c r="C150" s="6" t="s">
+        <v>411</v>
+      </c>
+      <c r="D150" s="6" t="s">
+        <v>617</v>
+      </c>
+      <c r="E150" s="6" t="s">
+        <v>641</v>
+      </c>
+      <c r="F150" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G150" s="2" t="s">
+        <v>642</v>
+      </c>
+      <c r="I150" s="2" t="s">
+        <v>643</v>
+      </c>
+      <c r="J150" s="6" t="s">
+        <v>972</v>
+      </c>
+      <c r="K150" s="8" t="s">
+        <v>911</v>
+      </c>
+      <c r="L150" s="8"/>
+    </row>
+    <row r="151" spans="1:12" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A151" s="8"/>
+      <c r="B151" s="6" t="s">
+        <v>664</v>
+      </c>
+      <c r="C151" s="6" t="s">
+        <v>411</v>
+      </c>
+      <c r="D151" s="6" t="s">
+        <v>617</v>
+      </c>
+      <c r="E151" s="8" t="s">
+        <v>645</v>
+      </c>
+      <c r="F151" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G151" s="2" t="s">
+        <v>646</v>
+      </c>
+      <c r="I151" s="2" t="s">
+        <v>647</v>
+      </c>
+      <c r="J151" s="6" t="s">
+        <v>972</v>
+      </c>
+      <c r="K151" s="8" t="s">
+        <v>911</v>
+      </c>
+      <c r="L151" s="8"/>
+    </row>
+    <row r="152" spans="1:12" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A152" s="8"/>
+      <c r="B152" s="6" t="s">
+        <v>670</v>
+      </c>
+      <c r="C152" s="6" t="s">
+        <v>411</v>
+      </c>
+      <c r="D152" s="6" t="s">
+        <v>617</v>
+      </c>
+      <c r="E152" s="8" t="s">
+        <v>649</v>
+      </c>
+      <c r="F152" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G152" s="2" t="s">
+        <v>650</v>
+      </c>
+      <c r="I152" s="2" t="s">
+        <v>651</v>
+      </c>
+      <c r="J152" s="6" t="s">
+        <v>972</v>
+      </c>
+      <c r="K152" s="8" t="s">
+        <v>911</v>
+      </c>
+      <c r="L152" s="8"/>
+    </row>
+    <row r="153" spans="1:12" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A153" s="8"/>
+      <c r="B153" s="6" t="s">
+        <v>674</v>
+      </c>
+      <c r="C153" s="6" t="s">
+        <v>411</v>
+      </c>
+      <c r="D153" s="6" t="s">
+        <v>617</v>
+      </c>
+      <c r="E153" s="8" t="s">
+        <v>653</v>
+      </c>
+      <c r="F153" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G153" s="2" t="s">
+        <v>654</v>
+      </c>
+      <c r="I153" s="2" t="s">
+        <v>655</v>
+      </c>
+      <c r="J153" s="6" t="s">
+        <v>972</v>
+      </c>
+      <c r="K153" s="8" t="s">
+        <v>911</v>
+      </c>
+      <c r="L153" s="8"/>
+    </row>
+    <row r="154" spans="1:12" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A154" s="8"/>
+      <c r="B154" s="6" t="s">
+        <v>678</v>
+      </c>
+      <c r="C154" s="6" t="s">
+        <v>411</v>
+      </c>
+      <c r="D154" s="6" t="s">
+        <v>617</v>
+      </c>
+      <c r="E154" s="8" t="s">
+        <v>657</v>
+      </c>
+      <c r="F154" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G154" s="2" t="s">
+        <v>658</v>
+      </c>
+      <c r="I154" s="2" t="s">
+        <v>659</v>
+      </c>
+      <c r="J154" s="6" t="s">
+        <v>972</v>
+      </c>
+      <c r="K154" s="8" t="s">
+        <v>911</v>
+      </c>
+      <c r="L154" s="8"/>
+    </row>
+    <row r="155" spans="1:12" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A155" s="8"/>
+      <c r="B155" s="6" t="s">
+        <v>682</v>
+      </c>
+      <c r="C155" s="6" t="s">
+        <v>411</v>
+      </c>
+      <c r="D155" s="6" t="s">
+        <v>617</v>
+      </c>
+      <c r="E155" s="8" t="s">
+        <v>661</v>
+      </c>
+      <c r="F155" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G155" s="2" t="s">
+        <v>662</v>
+      </c>
+      <c r="I155" s="2" t="s">
+        <v>663</v>
+      </c>
+      <c r="J155" s="6" t="s">
+        <v>972</v>
+      </c>
+      <c r="K155" s="8" t="s">
+        <v>911</v>
+      </c>
+      <c r="L155" s="8"/>
+    </row>
+    <row r="156" spans="1:12" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A156" s="8" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B156" s="6" t="s">
+        <v>686</v>
+      </c>
+      <c r="C156" s="6" t="s">
+        <v>411</v>
+      </c>
+      <c r="D156" s="6" t="s">
+        <v>665</v>
+      </c>
+      <c r="E156" s="8" t="s">
+        <v>666</v>
+      </c>
+      <c r="F156" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G156" s="2" t="s">
+        <v>668</v>
+      </c>
+      <c r="H156" s="8" t="s">
+        <v>667</v>
+      </c>
+      <c r="I156" s="2" t="s">
+        <v>669</v>
+      </c>
+      <c r="J156" s="6"/>
+      <c r="K156" s="20" t="s">
+        <v>909</v>
+      </c>
+      <c r="L156" s="20" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="157" spans="1:12" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A157" s="8"/>
+      <c r="B157" s="6" t="s">
+        <v>690</v>
+      </c>
+      <c r="C157" s="6" t="s">
+        <v>411</v>
+      </c>
+      <c r="D157" s="6" t="s">
+        <v>665</v>
+      </c>
+      <c r="E157" s="8" t="s">
+        <v>694</v>
+      </c>
+      <c r="F157" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G157" s="2" t="s">
+        <v>695</v>
+      </c>
+      <c r="H157" s="8"/>
+      <c r="I157" s="2" t="s">
+        <v>696</v>
+      </c>
+      <c r="J157" s="6" t="s">
+        <v>972</v>
+      </c>
+      <c r="K157" s="8" t="s">
+        <v>911</v>
+      </c>
+      <c r="L157" s="8"/>
+    </row>
+    <row r="158" spans="1:12" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A158" s="8"/>
+      <c r="B158" s="6" t="s">
+        <v>697</v>
+      </c>
+      <c r="C158" s="6" t="s">
+        <v>411</v>
+      </c>
+      <c r="D158" s="6" t="s">
+        <v>665</v>
+      </c>
+      <c r="E158" s="8" t="s">
+        <v>671</v>
+      </c>
+      <c r="F158" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G158" s="2" t="s">
+        <v>673</v>
+      </c>
+      <c r="I158" s="2" t="s">
+        <v>672</v>
+      </c>
+      <c r="J158" s="6" t="s">
+        <v>972</v>
+      </c>
+      <c r="K158" s="8" t="s">
+        <v>911</v>
+      </c>
+      <c r="L158" s="8" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="159" spans="1:12" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A159" s="8"/>
+      <c r="B159" s="6" t="s">
+        <v>698</v>
+      </c>
+      <c r="C159" s="6" t="s">
+        <v>411</v>
+      </c>
+      <c r="D159" s="6" t="s">
+        <v>665</v>
+      </c>
+      <c r="E159" s="8" t="s">
+        <v>675</v>
+      </c>
+      <c r="F159" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G159" s="2" t="s">
+        <v>676</v>
+      </c>
+      <c r="I159" s="2" t="s">
+        <v>677</v>
+      </c>
+      <c r="J159" s="6" t="s">
+        <v>972</v>
+      </c>
+      <c r="K159" s="8" t="s">
+        <v>911</v>
+      </c>
+      <c r="L159" s="8"/>
+    </row>
+    <row r="160" spans="1:12" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A160" s="8"/>
+      <c r="B160" s="6" t="s">
+        <v>703</v>
+      </c>
+      <c r="C160" s="6" t="s">
+        <v>411</v>
+      </c>
+      <c r="D160" s="6" t="s">
+        <v>665</v>
+      </c>
+      <c r="E160" s="8" t="s">
+        <v>679</v>
+      </c>
+      <c r="F160" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G160" s="2" t="s">
+        <v>680</v>
+      </c>
+      <c r="I160" s="2" t="s">
+        <v>681</v>
+      </c>
+      <c r="J160" s="6" t="s">
+        <v>972</v>
+      </c>
+      <c r="K160" s="8" t="s">
+        <v>911</v>
+      </c>
+      <c r="L160" s="8"/>
+    </row>
+    <row r="161" spans="1:13" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A161" s="8"/>
+      <c r="B161" s="6" t="s">
+        <v>706</v>
+      </c>
+      <c r="C161" s="6" t="s">
+        <v>411</v>
+      </c>
+      <c r="D161" s="6" t="s">
+        <v>665</v>
+      </c>
+      <c r="E161" s="8" t="s">
+        <v>683</v>
+      </c>
+      <c r="F161" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G161" s="2" t="s">
+        <v>684</v>
+      </c>
+      <c r="I161" s="2" t="s">
+        <v>685</v>
+      </c>
+      <c r="J161" s="6" t="s">
+        <v>964</v>
+      </c>
+      <c r="K161" s="8" t="s">
+        <v>911</v>
+      </c>
+      <c r="L161" s="8"/>
+    </row>
+    <row r="162" spans="1:13" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A162" s="8"/>
+      <c r="B162" s="6" t="s">
+        <v>709</v>
+      </c>
+      <c r="C162" s="6" t="s">
+        <v>411</v>
+      </c>
+      <c r="D162" s="6" t="s">
+        <v>665</v>
+      </c>
+      <c r="E162" s="8" t="s">
+        <v>687</v>
+      </c>
+      <c r="F162" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G162" s="2" t="s">
+        <v>688</v>
+      </c>
+      <c r="I162" s="2" t="s">
+        <v>689</v>
+      </c>
+      <c r="J162" s="6" t="s">
+        <v>964</v>
+      </c>
+      <c r="K162" s="8" t="s">
+        <v>911</v>
+      </c>
+      <c r="L162" s="8"/>
+    </row>
+    <row r="163" spans="1:13" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A163" s="8"/>
+      <c r="B163" s="6" t="s">
+        <v>712</v>
+      </c>
+      <c r="C163" s="6" t="s">
+        <v>411</v>
+      </c>
+      <c r="D163" s="6" t="s">
+        <v>665</v>
+      </c>
+      <c r="E163" s="8" t="s">
+        <v>691</v>
+      </c>
+      <c r="F163" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G163" s="2" t="s">
+        <v>692</v>
+      </c>
+      <c r="I163" s="2" t="s">
+        <v>693</v>
+      </c>
+      <c r="J163" s="6" t="s">
+        <v>964</v>
+      </c>
+      <c r="K163" s="8" t="s">
+        <v>911</v>
+      </c>
+      <c r="L163" s="8"/>
+    </row>
+    <row r="164" spans="1:13" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A164" s="8"/>
+      <c r="B164" s="6" t="s">
+        <v>717</v>
+      </c>
+      <c r="C164" s="6" t="s">
+        <v>411</v>
+      </c>
+      <c r="D164" s="6" t="s">
+        <v>699</v>
+      </c>
+      <c r="E164" s="8" t="s">
+        <v>700</v>
+      </c>
+      <c r="F164" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G164" s="2" t="s">
+        <v>701</v>
+      </c>
+      <c r="I164" s="2" t="s">
+        <v>702</v>
+      </c>
+      <c r="J164" s="6"/>
+      <c r="K164" s="6"/>
+      <c r="L164" s="20" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="165" spans="1:13" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A165" s="8"/>
+      <c r="B165" s="6" t="s">
+        <v>721</v>
+      </c>
+      <c r="C165" s="6" t="s">
+        <v>411</v>
+      </c>
+      <c r="D165" s="6" t="s">
+        <v>699</v>
+      </c>
+      <c r="E165" s="8" t="s">
+        <v>704</v>
+      </c>
+      <c r="F165" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G165" s="2" t="s">
+        <v>957</v>
+      </c>
+      <c r="I165" s="2" t="s">
+        <v>705</v>
+      </c>
+      <c r="J165" s="6" t="s">
+        <v>964</v>
+      </c>
+      <c r="K165" s="6" t="s">
+        <v>911</v>
+      </c>
+      <c r="L165" s="8"/>
+    </row>
+    <row r="166" spans="1:13" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A166" s="8"/>
+      <c r="B166" s="6" t="s">
+        <v>725</v>
+      </c>
+      <c r="C166" s="6" t="s">
+        <v>411</v>
+      </c>
+      <c r="D166" s="6" t="s">
+        <v>699</v>
+      </c>
+      <c r="E166" s="8" t="s">
+        <v>707</v>
+      </c>
+      <c r="F166" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G166" s="2" t="s">
+        <v>958</v>
+      </c>
+      <c r="I166" s="2" t="s">
+        <v>708</v>
+      </c>
+      <c r="J166" s="6" t="s">
+        <v>964</v>
+      </c>
+      <c r="K166" s="6" t="s">
+        <v>911</v>
+      </c>
+      <c r="L166" s="8"/>
+    </row>
+    <row r="167" spans="1:13" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A167" s="8"/>
+      <c r="B167" s="6" t="s">
+        <v>729</v>
+      </c>
+      <c r="C167" s="6" t="s">
+        <v>411</v>
+      </c>
+      <c r="D167" s="6" t="s">
+        <v>699</v>
+      </c>
+      <c r="E167" s="8" t="s">
+        <v>710</v>
+      </c>
+      <c r="F167" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G167" s="2" t="s">
+        <v>959</v>
+      </c>
+      <c r="I167" s="2" t="s">
+        <v>711</v>
+      </c>
+      <c r="J167" s="6" t="s">
+        <v>964</v>
+      </c>
+      <c r="K167" s="6" t="s">
+        <v>911</v>
+      </c>
+      <c r="L167" s="8"/>
+    </row>
+    <row r="168" spans="1:13" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A168" s="8"/>
+      <c r="B168" s="6" t="s">
+        <v>734</v>
+      </c>
+      <c r="C168" s="6" t="s">
+        <v>411</v>
+      </c>
+      <c r="D168" s="6" t="s">
+        <v>713</v>
+      </c>
+      <c r="E168" s="8" t="s">
+        <v>714</v>
+      </c>
+      <c r="F168" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G168" s="2" t="s">
+        <v>715</v>
+      </c>
+      <c r="I168" s="2" t="s">
+        <v>716</v>
+      </c>
+      <c r="J168" s="6" t="s">
+        <v>964</v>
+      </c>
+      <c r="K168" s="6"/>
+      <c r="L168" s="20" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="169" spans="1:13" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A169" s="8"/>
+      <c r="B169" s="6" t="s">
+        <v>740</v>
+      </c>
+      <c r="C169" s="6" t="s">
+        <v>411</v>
+      </c>
+      <c r="D169" s="6" t="s">
+        <v>713</v>
+      </c>
+      <c r="E169" s="8" t="s">
+        <v>718</v>
+      </c>
+      <c r="F169" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G169" s="2" t="s">
+        <v>719</v>
+      </c>
+      <c r="I169" s="2" t="s">
+        <v>720</v>
+      </c>
+      <c r="J169" s="6" t="s">
+        <v>964</v>
+      </c>
+      <c r="K169" s="6" t="s">
+        <v>911</v>
+      </c>
+      <c r="L169" s="8"/>
+    </row>
+    <row r="170" spans="1:13" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A170" s="8"/>
+      <c r="B170" s="6" t="s">
+        <v>744</v>
+      </c>
+      <c r="C170" s="6" t="s">
+        <v>411</v>
+      </c>
+      <c r="D170" s="6" t="s">
+        <v>713</v>
+      </c>
+      <c r="E170" s="8" t="s">
+        <v>722</v>
+      </c>
+      <c r="F170" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G170" s="2" t="s">
+        <v>723</v>
+      </c>
+      <c r="I170" s="2" t="s">
+        <v>724</v>
+      </c>
+      <c r="J170" s="6" t="s">
+        <v>964</v>
+      </c>
+      <c r="K170" s="6" t="s">
+        <v>911</v>
+      </c>
+      <c r="L170" s="8"/>
+    </row>
+    <row r="171" spans="1:13" ht="92.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A171" s="8"/>
+      <c r="B171" s="6" t="s">
+        <v>751</v>
+      </c>
+      <c r="C171" s="6" t="s">
+        <v>411</v>
+      </c>
+      <c r="D171" s="6" t="s">
+        <v>713</v>
+      </c>
+      <c r="E171" s="8" t="s">
+        <v>726</v>
+      </c>
+      <c r="F171" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G171" s="2" t="s">
+        <v>727</v>
+      </c>
+      <c r="I171" s="2" t="s">
+        <v>728</v>
+      </c>
+      <c r="J171" s="6" t="s">
+        <v>964</v>
+      </c>
+      <c r="K171" s="6" t="s">
+        <v>911</v>
+      </c>
+      <c r="L171" s="8"/>
+    </row>
+    <row r="172" spans="1:13" ht="92.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A172" s="8"/>
+      <c r="B172" s="6" t="s">
+        <v>752</v>
+      </c>
+      <c r="C172" s="10" t="s">
+        <v>730</v>
+      </c>
+      <c r="D172" s="10" t="s">
+        <v>713</v>
+      </c>
+      <c r="E172" s="10" t="s">
+        <v>731</v>
+      </c>
+      <c r="F172" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G172" s="12" t="s">
+        <v>732</v>
+      </c>
+      <c r="H172" s="11"/>
+      <c r="I172" s="12" t="s">
+        <v>733</v>
+      </c>
+      <c r="J172" s="23" t="s">
+        <v>964</v>
+      </c>
+      <c r="K172" s="23" t="s">
+        <v>911</v>
+      </c>
+      <c r="L172" s="23"/>
+      <c r="M172" s="11"/>
+    </row>
+    <row r="173" spans="1:13" ht="92.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A173" s="8"/>
+      <c r="B173" s="6" t="s">
+        <v>758</v>
+      </c>
+      <c r="C173" s="10" t="s">
+        <v>735</v>
+      </c>
+      <c r="D173" s="10" t="s">
+        <v>735</v>
+      </c>
+      <c r="E173" s="14" t="s">
+        <v>748</v>
+      </c>
+      <c r="F173" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G173" s="13" t="s">
+        <v>750</v>
+      </c>
+      <c r="H173" s="16"/>
+      <c r="I173" s="15" t="s">
+        <v>749</v>
+      </c>
+      <c r="J173" s="24" t="s">
+        <v>964</v>
+      </c>
+      <c r="K173" s="24" t="s">
+        <v>911</v>
+      </c>
+      <c r="L173" s="24"/>
+      <c r="M173" s="16"/>
+    </row>
+    <row r="174" spans="1:13" ht="92.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A174" s="8"/>
+      <c r="B174" s="6" t="s">
+        <v>763</v>
+      </c>
+      <c r="C174" s="10" t="s">
+        <v>735</v>
+      </c>
+      <c r="D174" s="8" t="s">
+        <v>736</v>
+      </c>
+      <c r="E174" s="8" t="s">
+        <v>737</v>
+      </c>
+      <c r="F174" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G174" s="13" t="s">
+        <v>738</v>
+      </c>
+      <c r="I174" s="13" t="s">
+        <v>739</v>
+      </c>
+      <c r="J174" s="6"/>
+      <c r="K174" s="19" t="s">
+        <v>909</v>
+      </c>
+      <c r="L174" s="20" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="175" spans="1:13" ht="92.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A175" s="8"/>
+      <c r="B175" s="6" t="s">
+        <v>767</v>
+      </c>
+      <c r="C175" s="10" t="s">
+        <v>735</v>
+      </c>
+      <c r="D175" s="8" t="s">
+        <v>736</v>
+      </c>
+      <c r="E175" s="8" t="s">
+        <v>741</v>
+      </c>
+      <c r="F175" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G175" s="13" t="s">
+        <v>742</v>
+      </c>
+      <c r="I175" s="13" t="s">
+        <v>743</v>
+      </c>
+      <c r="J175" s="6" t="s">
+        <v>964</v>
+      </c>
+      <c r="K175" s="6" t="s">
+        <v>911</v>
+      </c>
+      <c r="L175" s="8" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="176" spans="1:13" ht="92.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A176" s="8"/>
+      <c r="B176" s="6" t="s">
+        <v>769</v>
+      </c>
+      <c r="C176" s="10" t="s">
+        <v>735</v>
+      </c>
+      <c r="D176" s="8" t="s">
+        <v>736</v>
+      </c>
+      <c r="E176" s="8" t="s">
+        <v>745</v>
+      </c>
+      <c r="F176" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G176" s="13" t="s">
+        <v>746</v>
+      </c>
+      <c r="I176" s="13" t="s">
+        <v>747</v>
+      </c>
+      <c r="J176" s="6"/>
+      <c r="K176" s="19" t="s">
+        <v>909</v>
+      </c>
+      <c r="L176" s="20" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="177" spans="1:12" ht="92.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A177" s="8" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B177" s="6" t="s">
+        <v>772</v>
+      </c>
+      <c r="C177" s="10" t="s">
+        <v>735</v>
+      </c>
+      <c r="D177" s="6" t="s">
+        <v>753</v>
+      </c>
+      <c r="E177" s="8" t="s">
+        <v>754</v>
+      </c>
+      <c r="F177" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G177" s="13" t="s">
+        <v>755</v>
+      </c>
+      <c r="H177" s="2" t="s">
+        <v>756</v>
+      </c>
+      <c r="I177" s="13" t="s">
+        <v>757</v>
+      </c>
+      <c r="J177" s="25" t="s">
+        <v>964</v>
+      </c>
+      <c r="K177" s="25" t="s">
+        <v>911</v>
+      </c>
+      <c r="L177" s="8"/>
+    </row>
+    <row r="178" spans="1:12" ht="92.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A178" s="8" t="s">
+        <v>1002</v>
+      </c>
+      <c r="B178" s="6" t="s">
+        <v>775</v>
+      </c>
+      <c r="C178" s="10" t="s">
+        <v>735</v>
+      </c>
+      <c r="D178" s="6" t="s">
+        <v>753</v>
+      </c>
+      <c r="E178" s="8" t="s">
+        <v>759</v>
+      </c>
+      <c r="F178" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G178" s="13" t="s">
+        <v>761</v>
+      </c>
+      <c r="H178" s="2" t="s">
+        <v>760</v>
+      </c>
+      <c r="I178" s="13" t="s">
+        <v>762</v>
+      </c>
+      <c r="J178" s="25" t="s">
+        <v>964</v>
+      </c>
+      <c r="K178" s="25" t="s">
+        <v>911</v>
+      </c>
+      <c r="L178" s="25" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="179" spans="1:12" ht="92.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A179" s="8"/>
+      <c r="B179" s="6" t="s">
+        <v>780</v>
+      </c>
+      <c r="C179" s="10" t="s">
+        <v>735</v>
+      </c>
+      <c r="D179" s="6" t="s">
+        <v>753</v>
+      </c>
+      <c r="E179" s="8" t="s">
+        <v>764</v>
+      </c>
+      <c r="F179" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G179" s="13" t="s">
+        <v>765</v>
+      </c>
+      <c r="I179" s="2" t="s">
+        <v>766</v>
+      </c>
+      <c r="J179" s="6" t="s">
+        <v>964</v>
+      </c>
+      <c r="K179" s="6" t="s">
+        <v>911</v>
+      </c>
+      <c r="L179" s="8"/>
+    </row>
+    <row r="180" spans="1:12" ht="92.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A180" s="8"/>
+      <c r="B180" s="6" t="s">
+        <v>783</v>
+      </c>
+      <c r="C180" s="10" t="s">
+        <v>735</v>
+      </c>
+      <c r="D180" s="6" t="s">
+        <v>753</v>
+      </c>
+      <c r="E180" s="8" t="s">
+        <v>768</v>
+      </c>
+      <c r="F180" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G180" s="13" t="s">
+        <v>765</v>
+      </c>
+      <c r="I180" s="2" t="s">
+        <v>766</v>
+      </c>
+      <c r="J180" s="6" t="s">
+        <v>964</v>
+      </c>
+      <c r="K180" s="6" t="s">
+        <v>911</v>
+      </c>
+      <c r="L180" s="8"/>
+    </row>
+    <row r="181" spans="1:12" ht="92.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A181" s="8"/>
+      <c r="B181" s="6" t="s">
+        <v>789</v>
+      </c>
+      <c r="C181" s="10" t="s">
+        <v>735</v>
+      </c>
+      <c r="D181" s="6" t="s">
+        <v>753</v>
+      </c>
+      <c r="E181" s="8" t="s">
+        <v>768</v>
+      </c>
+      <c r="F181" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G181" s="13" t="s">
+        <v>770</v>
+      </c>
+      <c r="H181" s="2"/>
+      <c r="I181" s="13" t="s">
+        <v>771</v>
+      </c>
+      <c r="J181" s="25" t="s">
+        <v>964</v>
+      </c>
+      <c r="K181" s="25" t="s">
+        <v>911</v>
+      </c>
+      <c r="L181" s="8"/>
+    </row>
+    <row r="182" spans="1:12" ht="92.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A182" s="8"/>
+      <c r="B182" s="6" t="s">
+        <v>794</v>
+      </c>
+      <c r="C182" s="10" t="s">
+        <v>735</v>
+      </c>
+      <c r="D182" s="6" t="s">
+        <v>753</v>
+      </c>
+      <c r="E182" s="8" t="s">
+        <v>768</v>
+      </c>
+      <c r="F182" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G182" s="13" t="s">
+        <v>773</v>
+      </c>
+      <c r="H182" s="2"/>
+      <c r="I182" s="13" t="s">
+        <v>774</v>
+      </c>
+      <c r="J182" s="25" t="s">
+        <v>964</v>
+      </c>
+      <c r="K182" s="25" t="s">
+        <v>911</v>
+      </c>
+      <c r="L182" s="8"/>
+    </row>
+    <row r="183" spans="1:12" ht="92.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A183" s="8"/>
+      <c r="B183" s="6" t="s">
+        <v>799</v>
+      </c>
+      <c r="C183" s="10" t="s">
+        <v>735</v>
+      </c>
+      <c r="D183" s="6" t="s">
+        <v>753</v>
+      </c>
+      <c r="E183" s="8" t="s">
+        <v>776</v>
+      </c>
+      <c r="F183" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G183" s="2" t="s">
+        <v>777</v>
+      </c>
+      <c r="I183" s="2" t="s">
+        <v>778</v>
+      </c>
+      <c r="J183" s="6" t="s">
+        <v>964</v>
+      </c>
+      <c r="K183" s="25" t="s">
+        <v>911</v>
+      </c>
+      <c r="L183" s="8"/>
+    </row>
+    <row r="184" spans="1:12" ht="92.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A184" s="8"/>
+      <c r="B184" s="6" t="s">
+        <v>804</v>
+      </c>
+      <c r="C184" s="10" t="s">
+        <v>735</v>
+      </c>
+      <c r="D184" s="8" t="s">
+        <v>779</v>
+      </c>
+      <c r="E184" s="6" t="s">
+        <v>786</v>
+      </c>
+      <c r="F184" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G184" s="2" t="s">
+        <v>781</v>
+      </c>
+      <c r="I184" s="2" t="s">
+        <v>782</v>
+      </c>
+      <c r="J184" s="6" t="s">
+        <v>964</v>
+      </c>
+      <c r="K184" s="25" t="s">
+        <v>911</v>
+      </c>
+      <c r="L184" s="8"/>
+    </row>
+    <row r="185" spans="1:12" ht="92.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A185" s="8"/>
+      <c r="B185" s="6" t="s">
+        <v>810</v>
+      </c>
+      <c r="C185" s="10" t="s">
+        <v>735</v>
+      </c>
+      <c r="D185" s="8" t="s">
+        <v>784</v>
+      </c>
+      <c r="E185" s="6" t="s">
+        <v>785</v>
+      </c>
+      <c r="F185" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G185" s="2" t="s">
+        <v>787</v>
+      </c>
+      <c r="I185" s="2" t="s">
+        <v>788</v>
+      </c>
+      <c r="J185" s="6" t="s">
+        <v>964</v>
+      </c>
+      <c r="K185" s="25" t="s">
+        <v>911</v>
+      </c>
+      <c r="L185" s="8"/>
+    </row>
+    <row r="186" spans="1:12" ht="92.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A186" s="8"/>
+      <c r="B186" s="6" t="s">
+        <v>813</v>
+      </c>
+      <c r="C186" s="10" t="s">
+        <v>735</v>
+      </c>
+      <c r="D186" s="8" t="s">
+        <v>790</v>
+      </c>
+      <c r="E186" s="8" t="s">
+        <v>791</v>
+      </c>
+      <c r="F186" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G186" s="2" t="s">
+        <v>792</v>
+      </c>
+      <c r="I186" s="2" t="s">
+        <v>793</v>
+      </c>
+      <c r="J186" s="6"/>
+      <c r="K186" s="26" t="s">
+        <v>909</v>
+      </c>
+      <c r="L186" s="20" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="187" spans="1:12" ht="92.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A187" s="8"/>
+      <c r="B187" s="6" t="s">
+        <v>817</v>
+      </c>
+      <c r="C187" s="10" t="s">
+        <v>735</v>
+      </c>
+      <c r="D187" s="8" t="s">
+        <v>796</v>
+      </c>
+      <c r="E187" s="8" t="s">
+        <v>795</v>
+      </c>
+      <c r="F187" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G187" s="2" t="s">
+        <v>798</v>
+      </c>
+      <c r="I187" s="2" t="s">
+        <v>797</v>
+      </c>
+      <c r="J187" s="6"/>
+      <c r="K187" s="26" t="s">
+        <v>909</v>
+      </c>
+      <c r="L187" s="20" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="188" spans="1:12" ht="92.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A188" s="8"/>
+      <c r="B188" s="6" t="s">
+        <v>819</v>
+      </c>
+      <c r="C188" s="10" t="s">
+        <v>735</v>
+      </c>
+      <c r="D188" s="8" t="s">
+        <v>796</v>
+      </c>
+      <c r="E188" s="8" t="s">
+        <v>800</v>
+      </c>
+      <c r="F188" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G188" s="2" t="s">
+        <v>801</v>
+      </c>
+      <c r="I188" s="2" t="s">
+        <v>803</v>
+      </c>
+      <c r="J188" s="6" t="s">
+        <v>802</v>
+      </c>
+      <c r="K188" s="26" t="s">
+        <v>909</v>
+      </c>
+      <c r="L188" s="20" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="189" spans="1:12" ht="92.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A189" s="8"/>
+      <c r="B189" s="6" t="s">
+        <v>822</v>
+      </c>
+      <c r="C189" s="10" t="s">
+        <v>735</v>
+      </c>
+      <c r="D189" s="8" t="s">
+        <v>805</v>
+      </c>
+      <c r="E189" s="8" t="s">
+        <v>806</v>
+      </c>
+      <c r="F189" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G189" s="2" t="s">
+        <v>807</v>
+      </c>
+      <c r="I189" s="2" t="s">
+        <v>808</v>
+      </c>
+      <c r="J189" s="6" t="s">
+        <v>964</v>
+      </c>
+      <c r="K189" s="27" t="s">
+        <v>911</v>
+      </c>
+      <c r="L189" s="8"/>
+    </row>
+    <row r="190" spans="1:12" ht="92.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A190" s="8"/>
+      <c r="B190" s="6" t="s">
+        <v>825</v>
+      </c>
+      <c r="C190" s="10" t="s">
+        <v>735</v>
+      </c>
+      <c r="D190" s="8" t="s">
+        <v>805</v>
+      </c>
+      <c r="E190" s="8" t="s">
+        <v>809</v>
+      </c>
+      <c r="F190" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G190" s="2" t="s">
+        <v>811</v>
+      </c>
+      <c r="I190" s="2" t="s">
+        <v>812</v>
+      </c>
+      <c r="J190" s="6" t="s">
+        <v>964</v>
+      </c>
+      <c r="K190" s="27" t="s">
+        <v>911</v>
+      </c>
+      <c r="L190" s="8"/>
+    </row>
+    <row r="191" spans="1:12" ht="92.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A191" s="8"/>
+      <c r="B191" s="6" t="s">
+        <v>833</v>
+      </c>
+      <c r="C191" s="10" t="s">
+        <v>735</v>
+      </c>
+      <c r="D191" s="8" t="s">
+        <v>805</v>
+      </c>
+      <c r="E191" s="8" t="s">
+        <v>814</v>
+      </c>
+      <c r="F191" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G191" s="2" t="s">
+        <v>815</v>
+      </c>
+      <c r="I191" s="2" t="s">
+        <v>816</v>
+      </c>
+      <c r="J191" s="6" t="s">
+        <v>964</v>
+      </c>
+      <c r="K191" s="27" t="s">
+        <v>911</v>
+      </c>
+      <c r="L191" s="8"/>
+    </row>
+    <row r="192" spans="1:12" ht="92.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A192" s="8"/>
+      <c r="B192" s="6" t="s">
+        <v>836</v>
+      </c>
+      <c r="C192" s="10" t="s">
+        <v>735</v>
+      </c>
+      <c r="D192" s="8" t="s">
+        <v>805</v>
+      </c>
+      <c r="E192" s="8" t="s">
+        <v>826</v>
+      </c>
+      <c r="F192" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G192" s="2" t="s">
+        <v>829</v>
+      </c>
+      <c r="I192" s="2" t="s">
+        <v>818</v>
+      </c>
+      <c r="J192" s="6" t="s">
+        <v>964</v>
+      </c>
+      <c r="K192" s="27" t="s">
+        <v>911</v>
+      </c>
+      <c r="L192" s="8"/>
+    </row>
+    <row r="193" spans="1:12" ht="92.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A193" s="8"/>
+      <c r="B193" s="6" t="s">
+        <v>841</v>
+      </c>
+      <c r="C193" s="10" t="s">
+        <v>735</v>
+      </c>
+      <c r="D193" s="8" t="s">
+        <v>805</v>
+      </c>
+      <c r="E193" s="8" t="s">
+        <v>820</v>
+      </c>
+      <c r="F193" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G193" s="2" t="s">
+        <v>828</v>
+      </c>
+      <c r="I193" s="2" t="s">
+        <v>821</v>
+      </c>
+      <c r="J193" s="6" t="s">
+        <v>964</v>
+      </c>
+      <c r="K193" s="27" t="s">
+        <v>911</v>
+      </c>
+      <c r="L193" s="8" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="194" spans="1:12" ht="92.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A194" s="8"/>
+      <c r="B194" s="6" t="s">
+        <v>845</v>
+      </c>
+      <c r="C194" s="10" t="s">
+        <v>735</v>
+      </c>
+      <c r="D194" s="8" t="s">
+        <v>805</v>
+      </c>
+      <c r="E194" s="8" t="s">
+        <v>823</v>
+      </c>
+      <c r="F194" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G194" s="2" t="s">
+        <v>827</v>
+      </c>
+      <c r="I194" s="2" t="s">
+        <v>824</v>
+      </c>
+      <c r="J194" s="6" t="s">
+        <v>964</v>
+      </c>
+      <c r="K194" s="27" t="s">
+        <v>911</v>
+      </c>
+      <c r="L194" s="8"/>
+    </row>
+    <row r="195" spans="1:12" ht="92.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A195" s="8"/>
+      <c r="B195" s="6" t="s">
+        <v>849</v>
+      </c>
+      <c r="C195" s="10" t="s">
+        <v>735</v>
+      </c>
+      <c r="D195" s="8" t="s">
+        <v>805</v>
+      </c>
+      <c r="E195" s="8" t="s">
+        <v>830</v>
+      </c>
+      <c r="F195" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G195" s="2" t="s">
+        <v>831</v>
+      </c>
+      <c r="I195" s="2" t="s">
+        <v>832</v>
+      </c>
+      <c r="J195" s="6" t="s">
+        <v>964</v>
+      </c>
+      <c r="K195" s="27" t="s">
+        <v>911</v>
+      </c>
+      <c r="L195" s="8"/>
+    </row>
+    <row r="196" spans="1:12" ht="92.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A196" s="8"/>
+      <c r="B196" s="6" t="s">
+        <v>854</v>
+      </c>
+      <c r="C196" s="10" t="s">
+        <v>735</v>
+      </c>
+      <c r="D196" s="8" t="s">
+        <v>805</v>
+      </c>
+      <c r="E196" s="8" t="s">
+        <v>837</v>
+      </c>
+      <c r="F196" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G196" s="2" t="s">
+        <v>834</v>
+      </c>
+      <c r="I196" s="2" t="s">
+        <v>835</v>
+      </c>
+      <c r="J196" s="6" t="s">
+        <v>964</v>
+      </c>
+      <c r="K196" s="27" t="s">
+        <v>911</v>
+      </c>
+      <c r="L196" s="8"/>
+    </row>
+    <row r="197" spans="1:12" ht="92.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A197" s="8"/>
+      <c r="B197" s="6" t="s">
+        <v>858</v>
+      </c>
+      <c r="C197" s="10" t="s">
+        <v>735</v>
+      </c>
+      <c r="D197" s="8" t="s">
+        <v>805</v>
+      </c>
+      <c r="E197" s="8" t="s">
+        <v>838</v>
+      </c>
+      <c r="F197" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G197" s="2" t="s">
+        <v>839</v>
+      </c>
+      <c r="I197" s="2" t="s">
+        <v>840</v>
+      </c>
+      <c r="J197" s="6" t="s">
+        <v>964</v>
+      </c>
+      <c r="K197" s="27" t="s">
+        <v>911</v>
+      </c>
+      <c r="L197" s="8"/>
+    </row>
+    <row r="198" spans="1:12" ht="92.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A198" s="8"/>
+      <c r="B198" s="6" t="s">
+        <v>861</v>
+      </c>
+      <c r="C198" s="10" t="s">
+        <v>735</v>
+      </c>
+      <c r="D198" s="8" t="s">
+        <v>805</v>
+      </c>
+      <c r="E198" s="8" t="s">
+        <v>842</v>
+      </c>
+      <c r="F198" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G198" s="2" t="s">
+        <v>843</v>
+      </c>
+      <c r="I198" s="2" t="s">
+        <v>844</v>
+      </c>
+      <c r="J198" s="6" t="s">
+        <v>964</v>
+      </c>
+      <c r="K198" s="27" t="s">
+        <v>911</v>
+      </c>
+      <c r="L198" s="8"/>
+    </row>
+    <row r="199" spans="1:12" ht="92.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A199" s="8"/>
+      <c r="B199" s="6" t="s">
+        <v>866</v>
+      </c>
+      <c r="C199" s="10" t="s">
+        <v>735</v>
+      </c>
+      <c r="D199" s="8" t="s">
+        <v>805</v>
+      </c>
+      <c r="E199" s="8" t="s">
+        <v>846</v>
+      </c>
+      <c r="F199" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G199" s="2" t="s">
+        <v>847</v>
+      </c>
+      <c r="I199" s="2" t="s">
+        <v>848</v>
+      </c>
+      <c r="J199" s="6" t="s">
+        <v>853</v>
+      </c>
+      <c r="K199" s="6"/>
+      <c r="L199" s="20" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="200" spans="1:12" ht="92.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A200" s="8"/>
+      <c r="B200" s="6" t="s">
+        <v>870</v>
+      </c>
+      <c r="C200" s="10" t="s">
+        <v>735</v>
+      </c>
+      <c r="D200" s="8" t="s">
+        <v>805</v>
+      </c>
+      <c r="E200" s="8" t="s">
+        <v>850</v>
+      </c>
+      <c r="F200" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G200" s="2" t="s">
+        <v>851</v>
+      </c>
+      <c r="I200" s="2" t="s">
+        <v>852</v>
+      </c>
+      <c r="J200" s="6" t="s">
+        <v>853</v>
+      </c>
+      <c r="K200" s="6"/>
+      <c r="L200" s="20" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="201" spans="1:12" ht="92.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A201" s="8"/>
+      <c r="B201" s="6" t="s">
+        <v>873</v>
+      </c>
+      <c r="C201" s="10" t="s">
+        <v>735</v>
+      </c>
+      <c r="D201" s="8" t="s">
+        <v>805</v>
+      </c>
+      <c r="E201" s="8" t="s">
+        <v>855</v>
+      </c>
+      <c r="F201" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G201" s="2" t="s">
+        <v>856</v>
+      </c>
+      <c r="I201" s="2" t="s">
+        <v>857</v>
+      </c>
+      <c r="J201" s="6" t="s">
+        <v>964</v>
+      </c>
+      <c r="K201" s="27" t="s">
+        <v>911</v>
+      </c>
+      <c r="L201" s="8"/>
+    </row>
+    <row r="202" spans="1:12" ht="92.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A202" s="8"/>
+      <c r="B202" s="6" t="s">
+        <v>878</v>
+      </c>
+      <c r="C202" s="10" t="s">
+        <v>735</v>
+      </c>
+      <c r="D202" s="8" t="s">
+        <v>805</v>
+      </c>
+      <c r="E202" s="8" t="s">
+        <v>862</v>
+      </c>
+      <c r="F202" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G202" s="2" t="s">
+        <v>859</v>
+      </c>
+      <c r="I202" s="2" t="s">
+        <v>860</v>
+      </c>
+      <c r="J202" s="6" t="s">
+        <v>964</v>
+      </c>
+      <c r="K202" s="27" t="s">
+        <v>911</v>
+      </c>
+      <c r="L202" s="8"/>
+    </row>
+    <row r="203" spans="1:12" ht="92.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A203" s="8"/>
+      <c r="B203" s="6" t="s">
+        <v>884</v>
+      </c>
+      <c r="C203" s="10" t="s">
+        <v>735</v>
+      </c>
+      <c r="D203" s="8" t="s">
+        <v>805</v>
+      </c>
+      <c r="E203" s="8" t="s">
+        <v>863</v>
+      </c>
+      <c r="F203" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G203" s="2" t="s">
+        <v>864</v>
+      </c>
+      <c r="I203" s="2" t="s">
+        <v>865</v>
+      </c>
+      <c r="J203" s="6"/>
+      <c r="K203" s="26" t="s">
+        <v>909</v>
+      </c>
+      <c r="L203" s="20" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="204" spans="1:12" ht="92.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A204" s="8"/>
+      <c r="B204" s="6" t="s">
+        <v>905</v>
+      </c>
+      <c r="C204" s="10" t="s">
+        <v>735</v>
+      </c>
+      <c r="D204" s="8" t="s">
+        <v>805</v>
+      </c>
+      <c r="E204" s="8" t="s">
+        <v>867</v>
+      </c>
+      <c r="F204" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G204" s="2" t="s">
+        <v>868</v>
+      </c>
+      <c r="I204" s="2" t="s">
+        <v>869</v>
+      </c>
+      <c r="J204" s="6" t="s">
+        <v>853</v>
+      </c>
+      <c r="K204" s="26" t="s">
+        <v>909</v>
+      </c>
+      <c r="L204" s="20" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="205" spans="1:12" ht="92.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A205" s="8"/>
+      <c r="B205" s="6" t="s">
+        <v>906</v>
+      </c>
+      <c r="C205" s="10" t="s">
+        <v>735</v>
+      </c>
+      <c r="D205" s="8" t="s">
+        <v>805</v>
+      </c>
+      <c r="E205" s="8" t="s">
+        <v>820</v>
+      </c>
+      <c r="F205" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G205" s="2" t="s">
+        <v>871</v>
+      </c>
+      <c r="I205" s="2" t="s">
+        <v>872</v>
+      </c>
+      <c r="J205" s="8" t="s">
+        <v>966</v>
+      </c>
+      <c r="K205" s="20" t="s">
+        <v>909</v>
+      </c>
+      <c r="L205" s="20" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="206" spans="1:12" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A206" s="8"/>
+      <c r="B206" s="6" t="s">
+        <v>907</v>
+      </c>
+      <c r="C206" s="6" t="s">
+        <v>874</v>
+      </c>
+      <c r="D206" s="6" t="s">
+        <v>874</v>
+      </c>
+      <c r="E206" s="8" t="s">
+        <v>879</v>
+      </c>
+      <c r="F206" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G206" s="2" t="s">
+        <v>880</v>
+      </c>
+      <c r="I206" s="2" t="s">
+        <v>881</v>
+      </c>
+      <c r="J206" s="6" t="s">
+        <v>964</v>
+      </c>
+      <c r="K206" s="22" t="s">
+        <v>911</v>
+      </c>
+      <c r="L206" s="8"/>
+    </row>
+    <row r="207" spans="1:12" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A207" s="8"/>
+      <c r="B207" s="6" t="s">
+        <v>908</v>
+      </c>
+      <c r="C207" s="6" t="s">
+        <v>874</v>
+      </c>
+      <c r="D207" s="8" t="s">
+        <v>875</v>
+      </c>
+      <c r="E207" s="8" t="s">
+        <v>876</v>
+      </c>
+      <c r="F207" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G207" s="2" t="s">
+        <v>882</v>
+      </c>
+      <c r="I207" s="2" t="s">
+        <v>883</v>
+      </c>
+      <c r="J207" s="6" t="s">
+        <v>964</v>
+      </c>
+      <c r="K207" s="22" t="s">
+        <v>911</v>
+      </c>
+      <c r="L207" s="8"/>
+    </row>
+    <row r="208" spans="1:12" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A208" s="8"/>
+      <c r="B208" s="6" t="s">
+        <v>917</v>
+      </c>
+      <c r="C208" s="6" t="s">
+        <v>874</v>
+      </c>
+      <c r="D208" s="8" t="s">
+        <v>885</v>
+      </c>
+      <c r="E208" s="8" t="s">
+        <v>886</v>
+      </c>
+      <c r="F208" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G208" s="2" t="s">
+        <v>877</v>
+      </c>
+      <c r="I208" s="2" t="s">
+        <v>887</v>
+      </c>
+      <c r="J208" s="6" t="s">
+        <v>964</v>
+      </c>
+      <c r="K208" s="22" t="s">
+        <v>911</v>
+      </c>
+      <c r="L208" s="8"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Advantage Test Cases.xlsx
+++ b/Advantage Test Cases.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3790" uniqueCount="1012">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3785" uniqueCount="1019">
   <si>
     <t>Test Objective</t>
   </si>
@@ -4762,6 +4762,27 @@
   </si>
   <si>
     <t>fn_EditProfile</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>fn_Validation</t>
+  </si>
+  <si>
+    <t>fn_InvalidEmail</t>
+  </si>
+  <si>
+    <t>fn_InvalidPhone</t>
+  </si>
+  <si>
+    <t>fn_InvalidSecurityAns</t>
+  </si>
+  <si>
+    <t>fn_InvalidSecurityDOB</t>
+  </si>
+  <si>
+    <t>fn_RemoveImg</t>
   </si>
 </sst>
 </file>
@@ -5237,10 +5258,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA213"/>
+  <dimension ref="A1:AA212"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" topLeftCell="F16" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5573,8 +5594,8 @@
       <c r="J13" s="6" t="s">
         <v>972</v>
       </c>
-      <c r="K13" s="6" t="s">
-        <v>911</v>
+      <c r="K13" t="s">
+        <v>1012</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="75" x14ac:dyDescent="0.25">
@@ -5587,6 +5608,9 @@
       <c r="C14" s="6" t="s">
         <v>39</v>
       </c>
+      <c r="D14" s="8" t="s">
+        <v>1013</v>
+      </c>
       <c r="E14" s="8" t="s">
         <v>46</v>
       </c>
@@ -5602,11 +5626,11 @@
       <c r="J14" s="6" t="s">
         <v>972</v>
       </c>
-      <c r="K14" s="6" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K14" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>55</v>
       </c>
@@ -5616,26 +5640,32 @@
       <c r="C15" s="6" t="s">
         <v>39</v>
       </c>
+      <c r="D15" s="8" t="s">
+        <v>1014</v>
+      </c>
       <c r="E15" s="8" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F15" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="I15" s="4" t="s">
-        <v>70</v>
+        <v>73</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>74</v>
       </c>
       <c r="J15" s="6" t="s">
         <v>972</v>
       </c>
-      <c r="K15" s="6" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+      <c r="K15" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>62</v>
       </c>
@@ -5646,28 +5676,25 @@
         <v>39</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>996</v>
+        <v>1015</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="J16" s="6" t="s">
         <v>972</v>
       </c>
-      <c r="K16" s="6" t="s">
-        <v>911</v>
+      <c r="K16" t="s">
+        <v>1012</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="75" x14ac:dyDescent="0.25">
@@ -5680,26 +5707,29 @@
       <c r="C17" s="6" t="s">
         <v>39</v>
       </c>
+      <c r="D17" s="8" t="s">
+        <v>1016</v>
+      </c>
       <c r="E17" s="8" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="F17" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="J17" s="6" t="s">
         <v>972</v>
       </c>
-      <c r="K17" s="6" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+      <c r="K17" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="120" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>83</v>
       </c>
@@ -5709,26 +5739,32 @@
       <c r="C18" s="6" t="s">
         <v>39</v>
       </c>
+      <c r="D18" s="8" t="s">
+        <v>1017</v>
+      </c>
       <c r="E18" s="8" t="s">
-        <v>79</v>
+        <v>918</v>
       </c>
       <c r="F18" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>80</v>
+        <v>919</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>921</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="J18" s="6" t="s">
-        <v>972</v>
-      </c>
-      <c r="K18" s="6" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" ht="120" x14ac:dyDescent="0.25">
+        <v>920</v>
+      </c>
+      <c r="J18" s="8" t="s">
+        <v>922</v>
+      </c>
+      <c r="K18" s="19" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>84</v>
       </c>
@@ -5739,28 +5775,25 @@
         <v>39</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>997</v>
+        <v>1018</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>918</v>
+        <v>50</v>
       </c>
       <c r="F19" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="G19" s="4" t="s">
-        <v>919</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>921</v>
+      <c r="G19" s="2" t="s">
+        <v>51</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>920</v>
-      </c>
-      <c r="J19" s="8" t="s">
-        <v>922</v>
-      </c>
-      <c r="K19" s="19" t="s">
-        <v>909</v>
+        <v>52</v>
+      </c>
+      <c r="J19" s="6" t="s">
+        <v>972</v>
+      </c>
+      <c r="K19" s="6" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5774,16 +5807,16 @@
         <v>39</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>50</v>
+        <v>89</v>
       </c>
       <c r="F20" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>51</v>
+        <v>90</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="J20" s="6" t="s">
         <v>972</v>
@@ -5792,7 +5825,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" ht="120" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>86</v>
       </c>
@@ -5800,19 +5833,19 @@
         <v>42</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>89</v>
+        <v>56</v>
       </c>
       <c r="F21" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>90</v>
+        <v>57</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>91</v>
+        <v>58</v>
       </c>
       <c r="J21" s="6" t="s">
         <v>972</v>
@@ -5823,7 +5856,7 @@
     </row>
     <row r="22" spans="1:12" ht="120" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B22" s="6" t="s">
         <v>42</v>
@@ -5832,16 +5865,16 @@
         <v>54</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F22" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="J22" s="6" t="s">
         <v>972</v>
@@ -5850,9 +5883,9 @@
         <v>911</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="120" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" ht="105" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B23" s="6" t="s">
         <v>42</v>
@@ -5861,16 +5894,16 @@
         <v>54</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="F23" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="J23" s="6" t="s">
         <v>972</v>
@@ -5879,9 +5912,9 @@
         <v>911</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="105" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B24" s="6" t="s">
         <v>42</v>
@@ -5889,17 +5922,20 @@
       <c r="C24" s="6" t="s">
         <v>54</v>
       </c>
+      <c r="D24" s="8" t="s">
+        <v>1004</v>
+      </c>
       <c r="E24" s="8" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F24" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="J24" s="6" t="s">
         <v>972</v>
@@ -5908,30 +5944,27 @@
         <v>911</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" ht="180" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="D25" s="8" t="s">
-        <v>1004</v>
+        <v>93</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="F25" s="6" t="s">
-        <v>38</v>
+        <v>94</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>12</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>66</v>
+        <v>95</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>67</v>
+        <v>96</v>
       </c>
       <c r="J25" s="6" t="s">
         <v>972</v>
@@ -5940,9 +5973,9 @@
         <v>911</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="180" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" ht="210" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="B26" s="6" t="s">
         <v>9</v>
@@ -5951,74 +5984,74 @@
         <v>93</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="F26" s="8" t="s">
         <v>12</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="J26" s="6" t="s">
-        <v>972</v>
-      </c>
-      <c r="K26" s="6" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" ht="210" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+      <c r="J26" s="8" t="s">
+        <v>923</v>
+      </c>
+      <c r="L26" s="20" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>9</v>
+        <v>102</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="E27" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="F27" s="8" t="s">
-        <v>12</v>
+        <v>102</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>38</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="J27" s="8" t="s">
-        <v>923</v>
-      </c>
-      <c r="L27" s="20" t="s">
-        <v>989</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+      <c r="J27" s="6" t="s">
+        <v>972</v>
+      </c>
+      <c r="K27" s="6" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>102</v>
+        <v>42</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="E28" s="6" t="s">
-        <v>103</v>
+        <v>106</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>107</v>
       </c>
       <c r="F28" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="J28" s="6" t="s">
         <v>972</v>
@@ -6027,27 +6060,27 @@
         <v>911</v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" ht="315" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B29" s="6" t="s">
         <v>42</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="F29" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>109</v>
+        <v>924</v>
       </c>
       <c r="J29" s="6" t="s">
         <v>972</v>
@@ -6056,27 +6089,27 @@
         <v>911</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="315" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="B30" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C30" s="6" t="s">
-        <v>111</v>
+      <c r="C30" s="8" t="s">
+        <v>116</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
       <c r="F30" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>924</v>
+        <v>118</v>
       </c>
       <c r="J30" s="6" t="s">
         <v>972</v>
@@ -6085,27 +6118,27 @@
         <v>911</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>42</v>
+        <v>120</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="F31" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="J31" s="6" t="s">
         <v>972</v>
@@ -6114,27 +6147,27 @@
         <v>911</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="B32" s="6" t="s">
         <v>120</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F32" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="J32" s="6" t="s">
         <v>972</v>
@@ -6143,27 +6176,27 @@
         <v>911</v>
       </c>
     </row>
-    <row r="33" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="B33" s="6" t="s">
         <v>120</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="F33" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="J33" s="6" t="s">
         <v>972</v>
@@ -6172,27 +6205,27 @@
         <v>911</v>
       </c>
     </row>
-    <row r="34" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="B34" s="6" t="s">
         <v>120</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="E34" s="8" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="F34" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="J34" s="6" t="s">
         <v>972</v>
@@ -6203,25 +6236,25 @@
     </row>
     <row r="35" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="B35" s="6" t="s">
         <v>120</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="F35" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="J35" s="6" t="s">
         <v>972</v>
@@ -6230,27 +6263,27 @@
         <v>911</v>
       </c>
     </row>
-    <row r="36" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="B36" s="6" t="s">
         <v>120</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="E36" s="8" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="F36" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="J36" s="6" t="s">
         <v>972</v>
@@ -6258,28 +6291,31 @@
       <c r="K36" s="6" t="s">
         <v>911</v>
       </c>
-    </row>
-    <row r="37" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+      <c r="L36" s="20" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" ht="120" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>120</v>
+        <v>154</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="E37" s="8" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="F37" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="J37" s="6" t="s">
         <v>972</v>
@@ -6287,31 +6323,31 @@
       <c r="K37" s="6" t="s">
         <v>911</v>
       </c>
-      <c r="L37" s="20" t="s">
-        <v>988</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" ht="120" x14ac:dyDescent="0.25">
+      <c r="L37" s="8" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" ht="180" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B38" s="6" t="s">
         <v>154</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="E38" s="8" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="F38" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="J38" s="6" t="s">
         <v>972</v>
@@ -6319,13 +6355,10 @@
       <c r="K38" s="6" t="s">
         <v>911</v>
       </c>
-      <c r="L38" s="8" t="s">
-        <v>987</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" ht="180" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:12" ht="195" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="B39" s="6" t="s">
         <v>154</v>
@@ -6334,16 +6367,16 @@
         <v>160</v>
       </c>
       <c r="E39" s="8" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F39" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="J39" s="6" t="s">
         <v>972</v>
@@ -6352,27 +6385,27 @@
         <v>911</v>
       </c>
     </row>
-    <row r="40" spans="1:12" ht="195" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" ht="120" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="B40" s="6" t="s">
         <v>154</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="E40" s="8" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="F40" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="J40" s="6" t="s">
         <v>972</v>
@@ -6380,28 +6413,31 @@
       <c r="K40" s="6" t="s">
         <v>911</v>
       </c>
-    </row>
-    <row r="41" spans="1:12" ht="120" x14ac:dyDescent="0.25">
+      <c r="L40" s="8" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="B41" s="6" t="s">
-        <v>154</v>
+        <v>184</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>174</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="E41" s="8" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="F41" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="J41" s="6" t="s">
         <v>972</v>
@@ -6409,31 +6445,34 @@
       <c r="K41" s="6" t="s">
         <v>911</v>
       </c>
-      <c r="L41" s="8" t="s">
-        <v>986</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:12" ht="270" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="B42" s="8" t="s">
         <v>174</v>
       </c>
-      <c r="C42" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="E42" s="8" t="s">
-        <v>176</v>
+      <c r="C42" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="D42" s="8" t="s">
+        <v>998</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>181</v>
       </c>
       <c r="F42" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>177</v>
+        <v>182</v>
+      </c>
+      <c r="H42" s="8" t="s">
+        <v>196</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="J42" s="6" t="s">
         <v>972</v>
@@ -6442,9 +6481,9 @@
         <v>911</v>
       </c>
     </row>
-    <row r="43" spans="1:12" ht="270" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="B43" s="8" t="s">
         <v>174</v>
@@ -6452,23 +6491,17 @@
       <c r="C43" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="D43" s="8" t="s">
-        <v>998</v>
-      </c>
-      <c r="E43" s="6" t="s">
-        <v>181</v>
+      <c r="E43" s="8" t="s">
+        <v>185</v>
       </c>
       <c r="F43" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="H43" s="8" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="J43" s="6" t="s">
         <v>972</v>
@@ -6477,9 +6510,9 @@
         <v>911</v>
       </c>
     </row>
-    <row r="44" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" ht="105" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B44" s="8" t="s">
         <v>174</v>
@@ -6488,16 +6521,16 @@
         <v>180</v>
       </c>
       <c r="E44" s="8" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="F44" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="J44" s="6" t="s">
         <v>972</v>
@@ -6506,38 +6539,38 @@
         <v>911</v>
       </c>
     </row>
-    <row r="45" spans="1:12" ht="105" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" ht="120" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="B45" s="8" t="s">
         <v>174</v>
       </c>
-      <c r="C45" s="6" t="s">
-        <v>180</v>
-      </c>
-      <c r="E45" s="8" t="s">
-        <v>191</v>
+      <c r="C45" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="E45" s="6" t="s">
+        <v>190</v>
       </c>
       <c r="F45" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="J45" s="6" t="s">
-        <v>972</v>
-      </c>
-      <c r="K45" s="6" t="s">
-        <v>911</v>
+        <v>198</v>
+      </c>
+      <c r="K45" s="19" t="s">
+        <v>909</v>
+      </c>
+      <c r="L45" s="20" t="s">
+        <v>926</v>
       </c>
     </row>
     <row r="46" spans="1:12" ht="120" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="B46" s="8" t="s">
         <v>174</v>
@@ -6545,46 +6578,46 @@
       <c r="C46" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="E46" s="6" t="s">
-        <v>190</v>
+      <c r="E46" s="8" t="s">
+        <v>199</v>
       </c>
       <c r="F46" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="K46" s="19" t="s">
-        <v>909</v>
-      </c>
-      <c r="L46" s="20" t="s">
-        <v>926</v>
+        <v>201</v>
+      </c>
+      <c r="J46" s="6" t="s">
+        <v>972</v>
+      </c>
+      <c r="K46" s="6" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="47" spans="1:12" ht="120" x14ac:dyDescent="0.25">
       <c r="A47" s="6" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="B47" s="8" t="s">
         <v>174</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>189</v>
-      </c>
-      <c r="E47" s="8" t="s">
-        <v>199</v>
+        <v>203</v>
+      </c>
+      <c r="E47" s="6" t="s">
+        <v>204</v>
       </c>
       <c r="F47" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="J47" s="6" t="s">
         <v>972</v>
@@ -6593,27 +6626,27 @@
         <v>911</v>
       </c>
     </row>
-    <row r="48" spans="1:12" ht="120" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A48" s="6" t="s">
-        <v>213</v>
-      </c>
-      <c r="B48" s="8" t="s">
-        <v>174</v>
+        <v>215</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>208</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>203</v>
-      </c>
-      <c r="E48" s="6" t="s">
-        <v>204</v>
+        <v>209</v>
+      </c>
+      <c r="E48" s="8" t="s">
+        <v>210</v>
       </c>
       <c r="F48" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="J48" s="6" t="s">
         <v>972</v>
@@ -6622,9 +6655,9 @@
         <v>911</v>
       </c>
     </row>
-    <row r="49" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A49" s="6" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="B49" s="6" t="s">
         <v>208</v>
@@ -6633,16 +6666,16 @@
         <v>209</v>
       </c>
       <c r="E49" s="8" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="F49" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="J49" s="6" t="s">
         <v>972</v>
@@ -6650,10 +6683,13 @@
       <c r="K49" s="6" t="s">
         <v>911</v>
       </c>
-    </row>
-    <row r="50" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+      <c r="L49" s="20" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="B50" s="6" t="s">
         <v>208</v>
@@ -6662,178 +6698,175 @@
         <v>209</v>
       </c>
       <c r="E50" s="8" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="F50" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="J50" s="6" t="s">
-        <v>972</v>
+        <v>232</v>
       </c>
       <c r="K50" s="6" t="s">
         <v>911</v>
       </c>
       <c r="L50" s="20" t="s">
-        <v>927</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A51" s="6" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="B51" s="6" t="s">
         <v>208</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>209</v>
+        <v>221</v>
       </c>
       <c r="E51" s="8" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="F51" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="K51" s="6" t="s">
-        <v>911</v>
-      </c>
-      <c r="L51" s="20" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+        <v>233</v>
+      </c>
+      <c r="J51" s="8" t="s">
+        <v>985</v>
+      </c>
+      <c r="L51" s="8" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" ht="105" x14ac:dyDescent="0.25">
       <c r="A52" s="6" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="B52" s="6" t="s">
         <v>208</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="E52" s="8" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="F52" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="J52" s="8" t="s">
-        <v>985</v>
-      </c>
-      <c r="L52" s="8" t="s">
-        <v>928</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" ht="105" x14ac:dyDescent="0.25">
+        <v>234</v>
+      </c>
+      <c r="J52" s="6" t="s">
+        <v>972</v>
+      </c>
+      <c r="K52" s="6" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A53" s="6" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B53" s="6" t="s">
         <v>208</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="E53" s="8" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="F53" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="J53" s="6" t="s">
-        <v>972</v>
-      </c>
-      <c r="K53" s="6" t="s">
-        <v>911</v>
+        <v>235</v>
+      </c>
+      <c r="L53" s="8" t="s">
+        <v>929</v>
       </c>
     </row>
     <row r="54" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A54" s="6" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="B54" s="6" t="s">
         <v>208</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>230</v>
+        <v>237</v>
+      </c>
+      <c r="D54" s="8" t="s">
+        <v>1007</v>
       </c>
       <c r="E54" s="8" t="s">
-        <v>229</v>
+        <v>239</v>
       </c>
       <c r="F54" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>231</v>
+        <v>981</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="L54" s="8" t="s">
-        <v>929</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+        <v>982</v>
+      </c>
+      <c r="J54" s="8" t="s">
+        <v>984</v>
+      </c>
+      <c r="K54" s="19" t="s">
+        <v>909</v>
+      </c>
+      <c r="L54" s="20" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" ht="285" x14ac:dyDescent="0.25">
       <c r="A55" s="6" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="B55" s="6" t="s">
         <v>208</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>237</v>
-      </c>
-      <c r="D55" s="8" t="s">
-        <v>1007</v>
+        <v>240</v>
       </c>
       <c r="E55" s="8" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="F55" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>981</v>
+        <v>243</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>982</v>
-      </c>
-      <c r="J55" s="8" t="s">
-        <v>984</v>
+        <v>244</v>
       </c>
       <c r="K55" s="19" t="s">
         <v>909</v>
       </c>
       <c r="L55" s="20" t="s">
-        <v>983</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12" ht="285" x14ac:dyDescent="0.25">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A56" s="6" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="B56" s="6" t="s">
         <v>208</v>
@@ -6842,27 +6875,27 @@
         <v>240</v>
       </c>
       <c r="E56" s="8" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="F56" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="K56" s="19" t="s">
-        <v>909</v>
-      </c>
-      <c r="L56" s="20" t="s">
-        <v>930</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+        <v>247</v>
+      </c>
+      <c r="J56" s="6" t="s">
+        <v>972</v>
+      </c>
+      <c r="K56" s="6" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" ht="105" x14ac:dyDescent="0.25">
       <c r="A57" s="6" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B57" s="6" t="s">
         <v>208</v>
@@ -6870,17 +6903,17 @@
       <c r="C57" s="8" t="s">
         <v>240</v>
       </c>
-      <c r="E57" s="8" t="s">
-        <v>245</v>
+      <c r="E57" s="6" t="s">
+        <v>270</v>
       </c>
       <c r="F57" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>246</v>
+        <v>269</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>247</v>
+        <v>271</v>
       </c>
       <c r="J57" s="6" t="s">
         <v>972</v>
@@ -6889,9 +6922,9 @@
         <v>911</v>
       </c>
     </row>
-    <row r="58" spans="1:12" ht="105" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A58" s="6" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B58" s="6" t="s">
         <v>208</v>
@@ -6900,16 +6933,16 @@
         <v>240</v>
       </c>
       <c r="E58" s="6" t="s">
-        <v>270</v>
+        <v>249</v>
       </c>
       <c r="F58" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>269</v>
+        <v>250</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>271</v>
+        <v>252</v>
       </c>
       <c r="J58" s="6" t="s">
         <v>972</v>
@@ -6920,7 +6953,7 @@
     </row>
     <row r="59" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A59" s="6" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="B59" s="6" t="s">
         <v>208</v>
@@ -6929,16 +6962,16 @@
         <v>240</v>
       </c>
       <c r="E59" s="6" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="F59" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="J59" s="6" t="s">
         <v>972</v>
@@ -6949,7 +6982,7 @@
     </row>
     <row r="60" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A60" s="6" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="B60" s="6" t="s">
         <v>208</v>
@@ -6958,16 +6991,16 @@
         <v>240</v>
       </c>
       <c r="E60" s="6" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="F60" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="I60" s="2" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="J60" s="6" t="s">
         <v>972</v>
@@ -6978,7 +7011,7 @@
     </row>
     <row r="61" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A61" s="6" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="B61" s="6" t="s">
         <v>208</v>
@@ -6986,17 +7019,17 @@
       <c r="C61" s="8" t="s">
         <v>240</v>
       </c>
-      <c r="E61" s="6" t="s">
-        <v>258</v>
+      <c r="E61" s="8" t="s">
+        <v>263</v>
       </c>
       <c r="F61" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="I61" s="2" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="J61" s="6" t="s">
         <v>972</v>
@@ -7005,9 +7038,9 @@
         <v>911</v>
       </c>
     </row>
-    <row r="62" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A62" s="6" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="B62" s="6" t="s">
         <v>208</v>
@@ -7016,16 +7049,16 @@
         <v>240</v>
       </c>
       <c r="E62" s="8" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="F62" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="I62" s="2" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="J62" s="6" t="s">
         <v>972</v>
@@ -7036,7 +7069,7 @@
     </row>
     <row r="63" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A63" s="6" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="B63" s="6" t="s">
         <v>208</v>
@@ -7045,16 +7078,16 @@
         <v>240</v>
       </c>
       <c r="E63" s="8" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="F63" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="I63" s="2" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="J63" s="6" t="s">
         <v>972</v>
@@ -7063,27 +7096,27 @@
         <v>911</v>
       </c>
     </row>
-    <row r="64" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A64" s="6" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="C64" s="8" t="s">
-        <v>240</v>
+        <v>277</v>
+      </c>
+      <c r="C64" s="6" t="s">
+        <v>277</v>
       </c>
       <c r="E64" s="8" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="F64" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="I64" s="2" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="J64" s="6" t="s">
         <v>972</v>
@@ -7092,27 +7125,27 @@
         <v>911</v>
       </c>
     </row>
-    <row r="65" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:15" ht="180" x14ac:dyDescent="0.25">
       <c r="A65" s="6" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="B65" s="6" t="s">
         <v>277</v>
       </c>
-      <c r="C65" s="6" t="s">
-        <v>277</v>
+      <c r="C65" s="8" t="s">
+        <v>298</v>
       </c>
       <c r="E65" s="8" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="F65" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="I65" s="2" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="J65" s="6" t="s">
         <v>972</v>
@@ -7121,9 +7154,9 @@
         <v>911</v>
       </c>
     </row>
-    <row r="66" spans="1:15" ht="180" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:15" ht="255" x14ac:dyDescent="0.25">
       <c r="A66" s="6" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="B66" s="6" t="s">
         <v>277</v>
@@ -7132,16 +7165,16 @@
         <v>298</v>
       </c>
       <c r="E66" s="8" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="F66" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>282</v>
+        <v>291</v>
       </c>
       <c r="I66" s="2" t="s">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="J66" s="6" t="s">
         <v>972</v>
@@ -7150,9 +7183,9 @@
         <v>911</v>
       </c>
     </row>
-    <row r="67" spans="1:15" ht="255" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:15" ht="285" x14ac:dyDescent="0.25">
       <c r="A67" s="6" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B67" s="6" t="s">
         <v>277</v>
@@ -7161,16 +7194,16 @@
         <v>298</v>
       </c>
       <c r="E67" s="8" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="F67" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="I67" s="2" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="J67" s="6" t="s">
         <v>972</v>
@@ -7179,9 +7212,9 @@
         <v>911</v>
       </c>
     </row>
-    <row r="68" spans="1:15" ht="285" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:15" ht="315" x14ac:dyDescent="0.25">
       <c r="A68" s="6" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="B68" s="6" t="s">
         <v>277</v>
@@ -7190,16 +7223,16 @@
         <v>298</v>
       </c>
       <c r="E68" s="8" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="F68" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>288</v>
+        <v>296</v>
       </c>
       <c r="I68" s="2" t="s">
-        <v>289</v>
+        <v>297</v>
       </c>
       <c r="J68" s="6" t="s">
         <v>972</v>
@@ -7208,27 +7241,27 @@
         <v>911</v>
       </c>
     </row>
-    <row r="69" spans="1:15" ht="315" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:15" ht="180" x14ac:dyDescent="0.25">
       <c r="A69" s="6" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="B69" s="6" t="s">
         <v>277</v>
       </c>
       <c r="C69" s="8" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="E69" s="8" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="F69" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="I69" s="2" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="J69" s="6" t="s">
         <v>972</v>
@@ -7237,9 +7270,9 @@
         <v>911</v>
       </c>
     </row>
-    <row r="70" spans="1:15" ht="180" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:15" ht="270" x14ac:dyDescent="0.25">
       <c r="A70" s="6" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B70" s="6" t="s">
         <v>277</v>
@@ -7248,27 +7281,27 @@
         <v>299</v>
       </c>
       <c r="E70" s="8" t="s">
-        <v>301</v>
+        <v>286</v>
       </c>
       <c r="F70" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="I70" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="J70" s="6" t="s">
-        <v>972</v>
-      </c>
-      <c r="K70" s="6" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="71" spans="1:15" ht="270" x14ac:dyDescent="0.25">
+        <v>305</v>
+      </c>
+      <c r="K70" s="19" t="s">
+        <v>931</v>
+      </c>
+      <c r="L70" s="20" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" ht="300" x14ac:dyDescent="0.25">
       <c r="A71" s="6" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="B71" s="6" t="s">
         <v>277</v>
@@ -7277,16 +7310,16 @@
         <v>299</v>
       </c>
       <c r="E71" s="8" t="s">
-        <v>286</v>
+        <v>308</v>
       </c>
       <c r="F71" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="I71" s="2" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="K71" s="19" t="s">
         <v>931</v>
@@ -7295,9 +7328,9 @@
         <v>979</v>
       </c>
     </row>
-    <row r="72" spans="1:15" ht="300" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:15" ht="360" x14ac:dyDescent="0.25">
       <c r="A72" s="6" t="s">
-        <v>311</v>
+        <v>318</v>
       </c>
       <c r="B72" s="6" t="s">
         <v>277</v>
@@ -7306,16 +7339,16 @@
         <v>299</v>
       </c>
       <c r="E72" s="8" t="s">
-        <v>308</v>
+        <v>295</v>
       </c>
       <c r="F72" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="I72" s="2" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="K72" s="19" t="s">
         <v>931</v>
@@ -7324,38 +7357,38 @@
         <v>979</v>
       </c>
     </row>
-    <row r="73" spans="1:15" ht="360" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:15" ht="105" x14ac:dyDescent="0.25">
       <c r="A73" s="6" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="B73" s="6" t="s">
         <v>277</v>
       </c>
       <c r="C73" s="8" t="s">
-        <v>299</v>
+        <v>316</v>
       </c>
       <c r="E73" s="8" t="s">
-        <v>295</v>
+        <v>315</v>
       </c>
       <c r="F73" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="I73" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="K73" s="19" t="s">
-        <v>931</v>
+        <v>317</v>
+      </c>
+      <c r="K73" s="21" t="s">
+        <v>911</v>
       </c>
       <c r="L73" s="20" t="s">
-        <v>979</v>
-      </c>
-    </row>
-    <row r="74" spans="1:15" ht="105" x14ac:dyDescent="0.25">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" ht="180" x14ac:dyDescent="0.25">
       <c r="A74" s="6" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="B74" s="6" t="s">
         <v>277</v>
@@ -7364,27 +7397,27 @@
         <v>316</v>
       </c>
       <c r="E74" s="8" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="F74" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="I74" s="2" t="s">
-        <v>317</v>
+        <v>321</v>
+      </c>
+      <c r="J74" s="21" t="s">
+        <v>972</v>
       </c>
       <c r="K74" s="21" t="s">
         <v>911</v>
       </c>
-      <c r="L74" s="20" t="s">
-        <v>932</v>
-      </c>
-    </row>
-    <row r="75" spans="1:15" ht="180" x14ac:dyDescent="0.25">
+    </row>
+    <row r="75" spans="1:15" ht="225" x14ac:dyDescent="0.25">
       <c r="A75" s="6" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="B75" s="6" t="s">
         <v>277</v>
@@ -7393,27 +7426,27 @@
         <v>316</v>
       </c>
       <c r="E75" s="8" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="F75" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>320</v>
+        <v>933</v>
       </c>
       <c r="I75" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="J75" s="21" t="s">
+        <v>325</v>
+      </c>
+      <c r="J75" s="6" t="s">
         <v>972</v>
       </c>
       <c r="K75" s="21" t="s">
         <v>911</v>
       </c>
     </row>
-    <row r="76" spans="1:15" ht="225" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:15" ht="300" x14ac:dyDescent="0.25">
       <c r="A76" s="6" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="B76" s="6" t="s">
         <v>277</v>
@@ -7422,16 +7455,16 @@
         <v>316</v>
       </c>
       <c r="E76" s="8" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="F76" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>933</v>
+        <v>328</v>
       </c>
       <c r="I76" s="2" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="J76" s="6" t="s">
         <v>972</v>
@@ -7439,43 +7472,43 @@
       <c r="K76" s="21" t="s">
         <v>911</v>
       </c>
-    </row>
-    <row r="77" spans="1:15" ht="300" x14ac:dyDescent="0.25">
+      <c r="L76" s="20"/>
+      <c r="O76" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" ht="135" x14ac:dyDescent="0.25">
       <c r="A77" s="6" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="B77" s="6" t="s">
         <v>277</v>
       </c>
       <c r="C77" s="8" t="s">
-        <v>316</v>
+        <v>330</v>
       </c>
       <c r="E77" s="8" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="F77" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="I77" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="J77" s="6" t="s">
-        <v>972</v>
+        <v>334</v>
       </c>
       <c r="K77" s="21" t="s">
         <v>911</v>
       </c>
-      <c r="L77" s="20"/>
-      <c r="O77" t="s">
-        <v>934</v>
-      </c>
-    </row>
-    <row r="78" spans="1:15" ht="135" x14ac:dyDescent="0.25">
+      <c r="L77" s="20" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" ht="180" x14ac:dyDescent="0.25">
       <c r="A78" s="6" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="B78" s="6" t="s">
         <v>277</v>
@@ -7484,27 +7517,27 @@
         <v>330</v>
       </c>
       <c r="E78" s="8" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="F78" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="I78" s="2" t="s">
-        <v>334</v>
+        <v>338</v>
+      </c>
+      <c r="J78" s="6" t="s">
+        <v>972</v>
       </c>
       <c r="K78" s="21" t="s">
         <v>911</v>
       </c>
-      <c r="L78" s="20" t="s">
-        <v>978</v>
-      </c>
-    </row>
-    <row r="79" spans="1:15" ht="180" x14ac:dyDescent="0.25">
+    </row>
+    <row r="79" spans="1:15" ht="195" x14ac:dyDescent="0.25">
       <c r="A79" s="6" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="B79" s="6" t="s">
         <v>277</v>
@@ -7512,28 +7545,28 @@
       <c r="C79" s="8" t="s">
         <v>330</v>
       </c>
-      <c r="E79" s="8" t="s">
-        <v>337</v>
+      <c r="E79" s="6" t="s">
+        <v>339</v>
       </c>
       <c r="F79" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="I79" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="J79" s="6" t="s">
-        <v>972</v>
-      </c>
-      <c r="K79" s="21" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="80" spans="1:15" ht="195" x14ac:dyDescent="0.25">
+        <v>342</v>
+      </c>
+      <c r="K79" s="6" t="s">
+        <v>911</v>
+      </c>
+      <c r="L79" s="20" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" ht="285" x14ac:dyDescent="0.25">
       <c r="A80" s="6" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="B80" s="6" t="s">
         <v>277</v>
@@ -7541,60 +7574,60 @@
       <c r="C80" s="8" t="s">
         <v>330</v>
       </c>
-      <c r="E80" s="6" t="s">
-        <v>339</v>
+      <c r="E80" s="8" t="s">
+        <v>343</v>
       </c>
       <c r="F80" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="I80" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="K80" s="6" t="s">
-        <v>911</v>
+        <v>345</v>
+      </c>
+      <c r="K80" s="19" t="s">
+        <v>931</v>
       </c>
       <c r="L80" s="20" t="s">
-        <v>936</v>
-      </c>
-    </row>
-    <row r="81" spans="1:13" ht="285" x14ac:dyDescent="0.25">
+        <v>977</v>
+      </c>
+      <c r="M80" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" ht="105" x14ac:dyDescent="0.25">
       <c r="A81" s="6" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="B81" s="6" t="s">
         <v>277</v>
       </c>
       <c r="C81" s="8" t="s">
-        <v>330</v>
+        <v>347</v>
       </c>
       <c r="E81" s="8" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="F81" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="I81" s="2" t="s">
-        <v>345</v>
-      </c>
-      <c r="K81" s="19" t="s">
-        <v>931</v>
-      </c>
-      <c r="L81" s="20" t="s">
-        <v>977</v>
-      </c>
-      <c r="M81" t="s">
-        <v>935</v>
-      </c>
-    </row>
-    <row r="82" spans="1:13" ht="105" x14ac:dyDescent="0.25">
+        <v>351</v>
+      </c>
+      <c r="K81" s="6" t="s">
+        <v>911</v>
+      </c>
+      <c r="L81" s="8" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" ht="165" x14ac:dyDescent="0.25">
       <c r="A82" s="6" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="B82" s="6" t="s">
         <v>277</v>
@@ -7603,27 +7636,27 @@
         <v>347</v>
       </c>
       <c r="E82" s="8" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="F82" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="I82" s="2" t="s">
-        <v>351</v>
+        <v>358</v>
+      </c>
+      <c r="J82" s="6" t="s">
+        <v>972</v>
       </c>
       <c r="K82" s="6" t="s">
         <v>911</v>
       </c>
-      <c r="L82" s="8" t="s">
-        <v>937</v>
-      </c>
-    </row>
-    <row r="83" spans="1:13" ht="165" x14ac:dyDescent="0.25">
+    </row>
+    <row r="83" spans="1:13" ht="195" x14ac:dyDescent="0.25">
       <c r="A83" s="6" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="B83" s="6" t="s">
         <v>277</v>
@@ -7632,27 +7665,27 @@
         <v>347</v>
       </c>
       <c r="E83" s="8" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="F83" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="I83" s="2" t="s">
-        <v>358</v>
-      </c>
-      <c r="J83" s="6" t="s">
-        <v>972</v>
-      </c>
-      <c r="K83" s="6" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="84" spans="1:13" ht="195" x14ac:dyDescent="0.25">
+        <v>359</v>
+      </c>
+      <c r="L83" s="8" t="s">
+        <v>938</v>
+      </c>
+      <c r="M83" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" ht="240" x14ac:dyDescent="0.25">
       <c r="A84" s="6" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="B84" s="6" t="s">
         <v>277</v>
@@ -7661,27 +7694,27 @@
         <v>347</v>
       </c>
       <c r="E84" s="8" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="F84" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="I84" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="L84" s="8" t="s">
-        <v>938</v>
-      </c>
-      <c r="M84" t="s">
-        <v>939</v>
-      </c>
-    </row>
-    <row r="85" spans="1:13" ht="240" x14ac:dyDescent="0.25">
+        <v>363</v>
+      </c>
+      <c r="K84" s="19" t="s">
+        <v>909</v>
+      </c>
+      <c r="L84" s="20" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" ht="270" x14ac:dyDescent="0.25">
       <c r="A85" s="6" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="B85" s="6" t="s">
         <v>277</v>
@@ -7690,56 +7723,54 @@
         <v>347</v>
       </c>
       <c r="E85" s="8" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="F85" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="I85" s="2" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="K85" s="19" t="s">
         <v>909</v>
       </c>
       <c r="L85" s="20" t="s">
-        <v>941</v>
-      </c>
-    </row>
-    <row r="86" spans="1:13" ht="270" x14ac:dyDescent="0.25">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" ht="90" x14ac:dyDescent="0.25">
       <c r="A86" s="6" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="B86" s="6" t="s">
         <v>277</v>
       </c>
-      <c r="C86" s="8" t="s">
-        <v>347</v>
+      <c r="C86" s="6" t="s">
+        <v>368</v>
       </c>
       <c r="E86" s="8" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="F86" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="I86" s="2" t="s">
-        <v>367</v>
-      </c>
-      <c r="K86" s="19" t="s">
-        <v>909</v>
-      </c>
-      <c r="L86" s="20" t="s">
-        <v>940</v>
-      </c>
-    </row>
-    <row r="87" spans="1:13" ht="90" x14ac:dyDescent="0.25">
+        <v>372</v>
+      </c>
+      <c r="K86" s="19"/>
+      <c r="L86" s="8" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" ht="105" x14ac:dyDescent="0.25">
       <c r="A87" s="6" t="s">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="B87" s="6" t="s">
         <v>277</v>
@@ -7748,171 +7779,173 @@
         <v>368</v>
       </c>
       <c r="E87" s="8" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="F87" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="I87" s="2" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="K87" s="19"/>
-      <c r="L87" s="8" t="s">
-        <v>943</v>
+      <c r="L87" s="20" t="s">
+        <v>942</v>
       </c>
     </row>
     <row r="88" spans="1:13" ht="105" x14ac:dyDescent="0.25">
       <c r="A88" s="6" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="B88" s="6" t="s">
         <v>277</v>
       </c>
-      <c r="C88" s="6" t="s">
-        <v>368</v>
+      <c r="C88" s="8" t="s">
+        <v>377</v>
       </c>
       <c r="E88" s="8" t="s">
-        <v>374</v>
+        <v>382</v>
       </c>
       <c r="F88" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="I88" s="2" t="s">
-        <v>376</v>
+        <v>888</v>
       </c>
       <c r="K88" s="19"/>
-      <c r="L88" s="20" t="s">
-        <v>942</v>
-      </c>
-    </row>
-    <row r="89" spans="1:13" ht="105" x14ac:dyDescent="0.25">
+    </row>
+    <row r="89" spans="1:13" ht="360" x14ac:dyDescent="0.25">
       <c r="A89" s="6" t="s">
-        <v>380</v>
+        <v>387</v>
       </c>
       <c r="B89" s="6" t="s">
         <v>277</v>
       </c>
       <c r="C89" s="8" t="s">
-        <v>377</v>
+        <v>904</v>
       </c>
       <c r="E89" s="8" t="s">
-        <v>382</v>
+        <v>890</v>
       </c>
       <c r="F89" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>379</v>
+        <v>889</v>
       </c>
       <c r="I89" s="2" t="s">
-        <v>888</v>
-      </c>
-      <c r="K89" s="19"/>
-    </row>
-    <row r="90" spans="1:13" ht="360" x14ac:dyDescent="0.25">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" ht="255" x14ac:dyDescent="0.25">
       <c r="A90" s="6" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="B90" s="6" t="s">
         <v>277</v>
       </c>
       <c r="C90" s="8" t="s">
-        <v>904</v>
+        <v>893</v>
+      </c>
+      <c r="D90" s="8" t="s">
+        <v>1005</v>
       </c>
       <c r="E90" s="8" t="s">
-        <v>890</v>
+        <v>894</v>
       </c>
       <c r="F90" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>889</v>
+        <v>895</v>
       </c>
       <c r="I90" s="2" t="s">
-        <v>892</v>
-      </c>
-    </row>
-    <row r="91" spans="1:13" ht="255" x14ac:dyDescent="0.25">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" ht="180" x14ac:dyDescent="0.25">
       <c r="A91" s="6" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="B91" s="6" t="s">
         <v>277</v>
       </c>
       <c r="C91" s="8" t="s">
-        <v>893</v>
-      </c>
-      <c r="D91" s="8" t="s">
-        <v>1005</v>
+        <v>896</v>
       </c>
       <c r="E91" s="8" t="s">
-        <v>894</v>
+        <v>897</v>
       </c>
       <c r="F91" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>895</v>
+        <v>898</v>
       </c>
       <c r="I91" s="2" t="s">
-        <v>891</v>
-      </c>
-    </row>
-    <row r="92" spans="1:13" ht="180" x14ac:dyDescent="0.25">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A92" s="6" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="B92" s="6" t="s">
         <v>277</v>
       </c>
       <c r="C92" s="8" t="s">
-        <v>896</v>
+        <v>900</v>
       </c>
       <c r="E92" s="8" t="s">
-        <v>897</v>
+        <v>901</v>
       </c>
       <c r="F92" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>898</v>
+        <v>902</v>
       </c>
       <c r="I92" s="2" t="s">
-        <v>899</v>
-      </c>
-    </row>
-    <row r="93" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" ht="90" x14ac:dyDescent="0.25">
       <c r="A93" s="6" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="B93" s="6" t="s">
         <v>277</v>
       </c>
       <c r="C93" s="8" t="s">
-        <v>900</v>
+        <v>381</v>
       </c>
       <c r="E93" s="8" t="s">
-        <v>901</v>
+        <v>384</v>
       </c>
       <c r="F93" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>902</v>
+        <v>383</v>
       </c>
       <c r="I93" s="2" t="s">
-        <v>903</v>
-      </c>
-    </row>
-    <row r="94" spans="1:13" ht="90" x14ac:dyDescent="0.25">
+        <v>385</v>
+      </c>
+      <c r="J93" s="6" t="s">
+        <v>972</v>
+      </c>
+      <c r="K93" s="6" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" ht="150" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="B94" s="6" t="s">
         <v>277</v>
@@ -7921,16 +7954,16 @@
         <v>381</v>
       </c>
       <c r="E94" s="8" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="F94" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="I94" s="2" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="J94" s="6" t="s">
         <v>972</v>
@@ -7939,9 +7972,9 @@
         <v>911</v>
       </c>
     </row>
-    <row r="95" spans="1:13" ht="150" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:13" ht="180" x14ac:dyDescent="0.25">
       <c r="A95" s="6" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="B95" s="6" t="s">
         <v>277</v>
@@ -7950,16 +7983,16 @@
         <v>381</v>
       </c>
       <c r="E95" s="8" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="F95" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="I95" s="2" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="J95" s="6" t="s">
         <v>972</v>
@@ -7968,9 +8001,9 @@
         <v>911</v>
       </c>
     </row>
-    <row r="96" spans="1:13" ht="180" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:13" ht="225" x14ac:dyDescent="0.25">
       <c r="A96" s="6" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="B96" s="6" t="s">
         <v>277</v>
@@ -7979,16 +8012,16 @@
         <v>381</v>
       </c>
       <c r="E96" s="8" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="F96" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="I96" s="2" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="J96" s="6" t="s">
         <v>972</v>
@@ -7997,9 +8030,9 @@
         <v>911</v>
       </c>
     </row>
-    <row r="97" spans="1:12" ht="225" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:12" ht="270" x14ac:dyDescent="0.25">
       <c r="A97" s="6" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="B97" s="6" t="s">
         <v>277</v>
@@ -8008,16 +8041,16 @@
         <v>381</v>
       </c>
       <c r="E97" s="8" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="F97" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>395</v>
+        <v>400</v>
       </c>
       <c r="I97" s="2" t="s">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="J97" s="6" t="s">
         <v>972</v>
@@ -8026,9 +8059,9 @@
         <v>911</v>
       </c>
     </row>
-    <row r="98" spans="1:12" ht="270" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:12" ht="300" x14ac:dyDescent="0.25">
       <c r="A98" s="6" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B98" s="6" t="s">
         <v>277</v>
@@ -8037,27 +8070,27 @@
         <v>381</v>
       </c>
       <c r="E98" s="8" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="F98" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="I98" s="2" t="s">
-        <v>401</v>
-      </c>
-      <c r="J98" s="6" t="s">
-        <v>972</v>
+        <v>405</v>
       </c>
       <c r="K98" s="6" t="s">
         <v>911</v>
       </c>
-    </row>
-    <row r="99" spans="1:12" ht="300" x14ac:dyDescent="0.25">
+      <c r="L98" s="8" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" ht="345" x14ac:dyDescent="0.25">
       <c r="A99" s="6" t="s">
-        <v>421</v>
+        <v>430</v>
       </c>
       <c r="B99" s="6" t="s">
         <v>277</v>
@@ -8066,45 +8099,45 @@
         <v>381</v>
       </c>
       <c r="E99" s="8" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="F99" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="I99" s="2" t="s">
-        <v>405</v>
+        <v>409</v>
+      </c>
+      <c r="J99" s="6" t="s">
+        <v>972</v>
       </c>
       <c r="K99" s="6" t="s">
         <v>911</v>
       </c>
-      <c r="L99" s="8" t="s">
-        <v>976</v>
-      </c>
-    </row>
-    <row r="100" spans="1:12" ht="345" x14ac:dyDescent="0.25">
+    </row>
+    <row r="100" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A100" s="6" t="s">
-        <v>430</v>
+        <v>435</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>277</v>
-      </c>
-      <c r="C100" s="8" t="s">
-        <v>381</v>
+        <v>411</v>
+      </c>
+      <c r="C100" s="6" t="s">
+        <v>414</v>
       </c>
       <c r="E100" s="8" t="s">
-        <v>407</v>
+        <v>412</v>
       </c>
       <c r="F100" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>408</v>
-      </c>
-      <c r="I100" s="2" t="s">
-        <v>409</v>
+        <v>417</v>
+      </c>
+      <c r="I100" s="8" t="s">
+        <v>413</v>
       </c>
       <c r="J100" s="6" t="s">
         <v>972</v>
@@ -8113,9 +8146,9 @@
         <v>911</v>
       </c>
     </row>
-    <row r="101" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A101" s="6" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="B101" s="6" t="s">
         <v>411</v>
@@ -8124,16 +8157,16 @@
         <v>414</v>
       </c>
       <c r="E101" s="8" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="F101" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="I101" s="8" t="s">
-        <v>413</v>
+        <v>418</v>
+      </c>
+      <c r="I101" s="2" t="s">
+        <v>419</v>
       </c>
       <c r="J101" s="6" t="s">
         <v>972</v>
@@ -8142,18 +8175,18 @@
         <v>911</v>
       </c>
     </row>
-    <row r="102" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A102" s="6" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="B102" s="6" t="s">
         <v>411</v>
       </c>
-      <c r="C102" s="6" t="s">
-        <v>414</v>
+      <c r="C102" s="8" t="s">
+        <v>425</v>
       </c>
       <c r="E102" s="8" t="s">
-        <v>416</v>
+        <v>424</v>
       </c>
       <c r="F102" s="6" t="s">
         <v>38</v>
@@ -8162,7 +8195,7 @@
         <v>418</v>
       </c>
       <c r="I102" s="2" t="s">
-        <v>419</v>
+        <v>426</v>
       </c>
       <c r="J102" s="6" t="s">
         <v>972</v>
@@ -8171,27 +8204,27 @@
         <v>911</v>
       </c>
     </row>
-    <row r="103" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:12" ht="105" x14ac:dyDescent="0.25">
       <c r="A103" s="6" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="B103" s="6" t="s">
         <v>411</v>
       </c>
       <c r="C103" s="8" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="E103" s="8" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="F103" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>418</v>
+        <v>423</v>
       </c>
       <c r="I103" s="2" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="J103" s="6" t="s">
         <v>972</v>
@@ -8200,9 +8233,9 @@
         <v>911</v>
       </c>
     </row>
-    <row r="104" spans="1:12" ht="105" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:12" ht="135" x14ac:dyDescent="0.25">
       <c r="A104" s="6" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="B104" s="6" t="s">
         <v>411</v>
@@ -8211,16 +8244,16 @@
         <v>422</v>
       </c>
       <c r="E104" s="8" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="F104" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>423</v>
+        <v>431</v>
       </c>
       <c r="I104" s="2" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="J104" s="6" t="s">
         <v>972</v>
@@ -8229,9 +8262,9 @@
         <v>911</v>
       </c>
     </row>
-    <row r="105" spans="1:12" ht="135" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:12" ht="195" x14ac:dyDescent="0.25">
       <c r="A105" s="6" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="B105" s="6" t="s">
         <v>411</v>
@@ -8240,16 +8273,16 @@
         <v>422</v>
       </c>
       <c r="E105" s="8" t="s">
-        <v>429</v>
+        <v>436</v>
       </c>
       <c r="F105" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="I105" s="2" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="J105" s="6" t="s">
         <v>972</v>
@@ -8258,9 +8291,9 @@
         <v>911</v>
       </c>
     </row>
-    <row r="106" spans="1:12" ht="195" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:12" ht="210" x14ac:dyDescent="0.25">
       <c r="A106" s="6" t="s">
-        <v>453</v>
+        <v>459</v>
       </c>
       <c r="B106" s="6" t="s">
         <v>411</v>
@@ -8269,53 +8302,53 @@
         <v>422</v>
       </c>
       <c r="E106" s="8" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="F106" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>433</v>
+        <v>439</v>
       </c>
       <c r="I106" s="2" t="s">
-        <v>434</v>
-      </c>
-      <c r="J106" s="6" t="s">
-        <v>972</v>
-      </c>
-      <c r="K106" s="6" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="107" spans="1:12" ht="210" x14ac:dyDescent="0.25">
+        <v>440</v>
+      </c>
+      <c r="L106" s="20" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" ht="195" x14ac:dyDescent="0.25">
       <c r="A107" s="6" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="B107" s="6" t="s">
         <v>411</v>
       </c>
       <c r="C107" s="8" t="s">
-        <v>422</v>
-      </c>
-      <c r="E107" s="8" t="s">
-        <v>438</v>
+        <v>442</v>
+      </c>
+      <c r="E107" s="6" t="s">
+        <v>443</v>
       </c>
       <c r="F107" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
       <c r="I107" s="2" t="s">
-        <v>440</v>
-      </c>
-      <c r="L107" s="20" t="s">
-        <v>944</v>
-      </c>
-    </row>
-    <row r="108" spans="1:12" ht="195" x14ac:dyDescent="0.25">
+        <v>445</v>
+      </c>
+      <c r="J107" s="6" t="s">
+        <v>972</v>
+      </c>
+      <c r="K107" s="6" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" ht="210" x14ac:dyDescent="0.25">
       <c r="A108" s="6" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="B108" s="6" t="s">
         <v>411</v>
@@ -8323,17 +8356,17 @@
       <c r="C108" s="8" t="s">
         <v>442</v>
       </c>
-      <c r="E108" s="6" t="s">
-        <v>443</v>
+      <c r="E108" s="8" t="s">
+        <v>446</v>
       </c>
       <c r="F108" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="I108" s="2" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="J108" s="6" t="s">
         <v>972</v>
@@ -8344,7 +8377,7 @@
     </row>
     <row r="109" spans="1:12" ht="210" x14ac:dyDescent="0.25">
       <c r="A109" s="6" t="s">
-        <v>467</v>
+        <v>473</v>
       </c>
       <c r="B109" s="6" t="s">
         <v>411</v>
@@ -8353,16 +8386,16 @@
         <v>442</v>
       </c>
       <c r="E109" s="8" t="s">
-        <v>446</v>
+        <v>451</v>
       </c>
       <c r="F109" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="I109" s="2" t="s">
-        <v>449</v>
+        <v>454</v>
       </c>
       <c r="J109" s="6" t="s">
         <v>972</v>
@@ -8373,7 +8406,7 @@
     </row>
     <row r="110" spans="1:12" ht="210" x14ac:dyDescent="0.25">
       <c r="A110" s="6" t="s">
-        <v>473</v>
+        <v>479</v>
       </c>
       <c r="B110" s="6" t="s">
         <v>411</v>
@@ -8382,53 +8415,50 @@
         <v>442</v>
       </c>
       <c r="E110" s="8" t="s">
-        <v>451</v>
-      </c>
-      <c r="F110" s="6" t="s">
-        <v>38</v>
+        <v>455</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="I110" s="2" t="s">
-        <v>454</v>
-      </c>
-      <c r="J110" s="6" t="s">
-        <v>972</v>
+        <v>457</v>
       </c>
       <c r="K110" s="6" t="s">
         <v>911</v>
       </c>
-    </row>
-    <row r="111" spans="1:12" ht="210" x14ac:dyDescent="0.25">
+      <c r="L110" s="20" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" ht="150" x14ac:dyDescent="0.25">
       <c r="A111" s="6" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B111" s="6" t="s">
         <v>411</v>
       </c>
       <c r="C111" s="8" t="s">
-        <v>442</v>
-      </c>
-      <c r="E111" s="8" t="s">
-        <v>455</v>
+        <v>458</v>
+      </c>
+      <c r="E111" s="6" t="s">
+        <v>460</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>456</v>
+        <v>461</v>
       </c>
       <c r="I111" s="2" t="s">
-        <v>457</v>
+        <v>462</v>
+      </c>
+      <c r="J111" s="6" t="s">
+        <v>972</v>
       </c>
       <c r="K111" s="6" t="s">
         <v>911</v>
       </c>
-      <c r="L111" s="20" t="s">
-        <v>975</v>
-      </c>
-    </row>
-    <row r="112" spans="1:12" ht="150" x14ac:dyDescent="0.25">
+    </row>
+    <row r="112" spans="1:12" ht="135" x14ac:dyDescent="0.25">
       <c r="A112" s="6" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="B112" s="6" t="s">
         <v>411</v>
@@ -8436,14 +8466,14 @@
       <c r="C112" s="8" t="s">
         <v>458</v>
       </c>
-      <c r="E112" s="6" t="s">
-        <v>460</v>
+      <c r="E112" s="8" t="s">
+        <v>620</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>461</v>
+        <v>618</v>
       </c>
       <c r="I112" s="2" t="s">
-        <v>462</v>
+        <v>619</v>
       </c>
       <c r="J112" s="6" t="s">
         <v>972</v>
@@ -8454,7 +8484,7 @@
     </row>
     <row r="113" spans="1:12" ht="135" x14ac:dyDescent="0.25">
       <c r="A113" s="6" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B113" s="6" t="s">
         <v>411</v>
@@ -8463,13 +8493,13 @@
         <v>458</v>
       </c>
       <c r="E113" s="8" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>618</v>
+        <v>622</v>
       </c>
       <c r="I113" s="2" t="s">
-        <v>619</v>
+        <v>623</v>
       </c>
       <c r="J113" s="6" t="s">
         <v>972</v>
@@ -8478,24 +8508,24 @@
         <v>911</v>
       </c>
     </row>
-    <row r="114" spans="1:12" ht="135" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:12" ht="150" x14ac:dyDescent="0.25">
       <c r="A114" s="6" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
       <c r="B114" s="6" t="s">
         <v>411</v>
       </c>
       <c r="C114" s="8" t="s">
-        <v>458</v>
+        <v>464</v>
       </c>
       <c r="E114" s="8" t="s">
-        <v>621</v>
+        <v>465</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>622</v>
+        <v>466</v>
       </c>
       <c r="I114" s="2" t="s">
-        <v>623</v>
+        <v>945</v>
       </c>
       <c r="J114" s="6" t="s">
         <v>972</v>
@@ -8506,22 +8536,22 @@
     </row>
     <row r="115" spans="1:12" ht="150" x14ac:dyDescent="0.25">
       <c r="A115" s="6" t="s">
-        <v>494</v>
+        <v>499</v>
       </c>
       <c r="B115" s="6" t="s">
         <v>411</v>
       </c>
       <c r="C115" s="8" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="E115" s="8" t="s">
-        <v>465</v>
+        <v>471</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="I115" s="2" t="s">
-        <v>945</v>
+        <v>470</v>
       </c>
       <c r="J115" s="6" t="s">
         <v>972</v>
@@ -8530,79 +8560,82 @@
         <v>911</v>
       </c>
     </row>
-    <row r="116" spans="1:12" ht="150" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:12" ht="210" x14ac:dyDescent="0.25">
       <c r="A116" s="6" t="s">
-        <v>499</v>
+        <v>504</v>
       </c>
       <c r="B116" s="6" t="s">
         <v>411</v>
       </c>
       <c r="C116" s="8" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="E116" s="8" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>469</v>
+        <v>475</v>
       </c>
       <c r="I116" s="2" t="s">
-        <v>470</v>
-      </c>
-      <c r="J116" s="6" t="s">
-        <v>972</v>
+        <v>476</v>
       </c>
       <c r="K116" s="6" t="s">
         <v>911</v>
       </c>
-    </row>
-    <row r="117" spans="1:12" ht="210" x14ac:dyDescent="0.25">
+      <c r="L116" s="8" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A117" s="6" t="s">
-        <v>504</v>
+        <v>509</v>
       </c>
       <c r="B117" s="6" t="s">
         <v>411</v>
       </c>
       <c r="C117" s="8" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
       <c r="E117" s="8" t="s">
-        <v>474</v>
+        <v>424</v>
+      </c>
+      <c r="F117" s="6" t="s">
+        <v>38</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>475</v>
+        <v>418</v>
       </c>
       <c r="I117" s="2" t="s">
-        <v>476</v>
+        <v>947</v>
+      </c>
+      <c r="J117" s="6" t="s">
+        <v>972</v>
       </c>
       <c r="K117" s="6" t="s">
         <v>911</v>
       </c>
-      <c r="L117" s="8" t="s">
-        <v>946</v>
-      </c>
-    </row>
-    <row r="118" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+    </row>
+    <row r="118" spans="1:12" ht="150" x14ac:dyDescent="0.25">
       <c r="A118" s="6" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="B118" s="6" t="s">
         <v>411</v>
       </c>
-      <c r="C118" s="8" t="s">
-        <v>481</v>
+      <c r="C118" s="9" t="s">
+        <v>477</v>
       </c>
       <c r="E118" s="8" t="s">
-        <v>424</v>
+        <v>478</v>
       </c>
       <c r="F118" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>418</v>
+        <v>482</v>
       </c>
       <c r="I118" s="2" t="s">
-        <v>947</v>
+        <v>483</v>
       </c>
       <c r="J118" s="6" t="s">
         <v>972</v>
@@ -8611,27 +8644,27 @@
         <v>911</v>
       </c>
     </row>
-    <row r="119" spans="1:12" ht="150" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:12" ht="165" x14ac:dyDescent="0.25">
       <c r="A119" s="6" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="B119" s="6" t="s">
         <v>411</v>
       </c>
-      <c r="C119" s="9" t="s">
-        <v>477</v>
+      <c r="C119" s="8" t="s">
+        <v>486</v>
       </c>
       <c r="E119" s="8" t="s">
-        <v>478</v>
+        <v>487</v>
       </c>
       <c r="F119" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>482</v>
+        <v>488</v>
       </c>
       <c r="I119" s="2" t="s">
-        <v>483</v>
+        <v>489</v>
       </c>
       <c r="J119" s="6" t="s">
         <v>972</v>
@@ -8640,27 +8673,27 @@
         <v>911</v>
       </c>
     </row>
-    <row r="120" spans="1:12" ht="165" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:12" ht="135" x14ac:dyDescent="0.25">
       <c r="A120" s="6" t="s">
-        <v>516</v>
+        <v>524</v>
       </c>
       <c r="B120" s="6" t="s">
         <v>411</v>
       </c>
       <c r="C120" s="8" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="E120" s="8" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="F120" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="I120" s="2" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="J120" s="6" t="s">
         <v>972</v>
@@ -8669,9 +8702,9 @@
         <v>911</v>
       </c>
     </row>
-    <row r="121" spans="1:12" ht="135" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:12" ht="150" x14ac:dyDescent="0.25">
       <c r="A121" s="6" t="s">
-        <v>524</v>
+        <v>536</v>
       </c>
       <c r="B121" s="6" t="s">
         <v>411</v>
@@ -8680,16 +8713,16 @@
         <v>490</v>
       </c>
       <c r="E121" s="8" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="F121" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="I121" s="2" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="J121" s="6" t="s">
         <v>972</v>
@@ -8698,38 +8731,44 @@
         <v>911</v>
       </c>
     </row>
-    <row r="122" spans="1:12" ht="150" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:12" ht="315" x14ac:dyDescent="0.25">
       <c r="A122" s="6" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="B122" s="6" t="s">
         <v>411</v>
       </c>
       <c r="C122" s="8" t="s">
-        <v>490</v>
+        <v>498</v>
+      </c>
+      <c r="D122" s="8" t="s">
+        <v>999</v>
       </c>
       <c r="E122" s="8" t="s">
-        <v>495</v>
+        <v>500</v>
       </c>
       <c r="F122" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>496</v>
+        <v>501</v>
+      </c>
+      <c r="H122" s="2" t="s">
+        <v>503</v>
       </c>
       <c r="I122" s="2" t="s">
-        <v>497</v>
-      </c>
-      <c r="J122" s="6" t="s">
-        <v>972</v>
-      </c>
-      <c r="K122" s="6" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="123" spans="1:12" ht="315" x14ac:dyDescent="0.25">
+        <v>502</v>
+      </c>
+      <c r="K122" s="8" t="s">
+        <v>911</v>
+      </c>
+      <c r="L122" s="20" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A123" s="6" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="B123" s="6" t="s">
         <v>411</v>
@@ -8737,34 +8776,28 @@
       <c r="C123" s="8" t="s">
         <v>498</v>
       </c>
-      <c r="D123" s="8" t="s">
-        <v>999</v>
-      </c>
       <c r="E123" s="8" t="s">
-        <v>500</v>
+        <v>505</v>
       </c>
       <c r="F123" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>501</v>
-      </c>
-      <c r="H123" s="2" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="I123" s="2" t="s">
-        <v>502</v>
-      </c>
-      <c r="K123" s="8" t="s">
-        <v>911</v>
-      </c>
-      <c r="L123" s="20" t="s">
-        <v>948</v>
-      </c>
-    </row>
-    <row r="124" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+        <v>507</v>
+      </c>
+      <c r="J123" s="6" t="s">
+        <v>972</v>
+      </c>
+      <c r="K123" s="6" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12" ht="270" x14ac:dyDescent="0.25">
       <c r="A124" s="6" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="B124" s="6" t="s">
         <v>411</v>
@@ -8773,27 +8806,31 @@
         <v>498</v>
       </c>
       <c r="E124" s="8" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="F124" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>506</v>
-      </c>
+        <v>510</v>
+      </c>
+      <c r="H124" s="2"/>
       <c r="I124" s="2" t="s">
-        <v>507</v>
-      </c>
-      <c r="J124" s="6" t="s">
-        <v>972</v>
-      </c>
-      <c r="K124" s="6" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="125" spans="1:12" ht="270" x14ac:dyDescent="0.25">
+        <v>511</v>
+      </c>
+      <c r="J124" s="8" t="s">
+        <v>972</v>
+      </c>
+      <c r="K124" s="8" t="s">
+        <v>911</v>
+      </c>
+      <c r="L124" s="8" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12" ht="345" x14ac:dyDescent="0.25">
       <c r="A125" s="6" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="B125" s="6" t="s">
         <v>411</v>
@@ -8802,31 +8839,28 @@
         <v>498</v>
       </c>
       <c r="E125" s="8" t="s">
-        <v>508</v>
+        <v>513</v>
       </c>
       <c r="F125" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="H125" s="2"/>
       <c r="I125" s="2" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="J125" s="8" t="s">
         <v>972</v>
       </c>
       <c r="K125" s="8" t="s">
         <v>911</v>
-      </c>
-      <c r="L125" s="8" t="s">
-        <v>974</v>
       </c>
     </row>
     <row r="126" spans="1:12" ht="345" x14ac:dyDescent="0.25">
       <c r="A126" s="6" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
       <c r="B126" s="6" t="s">
         <v>411</v>
@@ -8835,58 +8869,63 @@
         <v>498</v>
       </c>
       <c r="E126" s="8" t="s">
-        <v>513</v>
+        <v>521</v>
       </c>
       <c r="F126" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>514</v>
+        <v>522</v>
       </c>
       <c r="H126" s="2"/>
       <c r="I126" s="2" t="s">
-        <v>515</v>
-      </c>
-      <c r="J126" s="8" t="s">
-        <v>972</v>
+        <v>523</v>
       </c>
       <c r="K126" s="8" t="s">
         <v>911</v>
       </c>
-    </row>
-    <row r="127" spans="1:12" ht="345" x14ac:dyDescent="0.25">
+      <c r="L126" s="8" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12" ht="360" x14ac:dyDescent="0.25">
       <c r="A127" s="6" t="s">
-        <v>547</v>
+        <v>551</v>
       </c>
       <c r="B127" s="6" t="s">
         <v>411</v>
       </c>
       <c r="C127" s="8" t="s">
-        <v>498</v>
+        <v>517</v>
+      </c>
+      <c r="D127" s="8" t="s">
+        <v>999</v>
       </c>
       <c r="E127" s="8" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="F127" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>522</v>
-      </c>
-      <c r="H127" s="2"/>
+        <v>531</v>
+      </c>
+      <c r="H127" s="2" t="s">
+        <v>542</v>
+      </c>
       <c r="I127" s="2" t="s">
-        <v>523</v>
-      </c>
-      <c r="K127" s="8" t="s">
-        <v>911</v>
-      </c>
-      <c r="L127" s="8" t="s">
-        <v>949</v>
-      </c>
-    </row>
-    <row r="128" spans="1:12" ht="360" x14ac:dyDescent="0.25">
+        <v>532</v>
+      </c>
+      <c r="K127" s="22" t="s">
+        <v>911</v>
+      </c>
+      <c r="L127" s="20" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A128" s="6" t="s">
-        <v>551</v>
+        <v>556</v>
       </c>
       <c r="B128" s="6" t="s">
         <v>411</v>
@@ -8894,34 +8933,28 @@
       <c r="C128" s="8" t="s">
         <v>517</v>
       </c>
-      <c r="D128" s="8" t="s">
-        <v>999</v>
-      </c>
       <c r="E128" s="8" t="s">
-        <v>518</v>
+        <v>525</v>
       </c>
       <c r="F128" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>531</v>
-      </c>
-      <c r="H128" s="2" t="s">
-        <v>542</v>
+        <v>526</v>
       </c>
       <c r="I128" s="2" t="s">
-        <v>532</v>
-      </c>
-      <c r="K128" s="22" t="s">
-        <v>911</v>
-      </c>
-      <c r="L128" s="20" t="s">
-        <v>950</v>
-      </c>
-    </row>
-    <row r="129" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+        <v>527</v>
+      </c>
+      <c r="J128" s="6" t="s">
+        <v>972</v>
+      </c>
+      <c r="K128" s="8" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" ht="255" x14ac:dyDescent="0.25">
       <c r="A129" s="6" t="s">
-        <v>556</v>
+        <v>560</v>
       </c>
       <c r="B129" s="6" t="s">
         <v>411</v>
@@ -8930,27 +8963,28 @@
         <v>517</v>
       </c>
       <c r="E129" s="8" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="F129" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>526</v>
-      </c>
+        <v>529</v>
+      </c>
+      <c r="H129" s="2"/>
       <c r="I129" s="2" t="s">
-        <v>527</v>
-      </c>
-      <c r="J129" s="6" t="s">
+        <v>530</v>
+      </c>
+      <c r="J129" s="8" t="s">
         <v>972</v>
       </c>
       <c r="K129" s="8" t="s">
         <v>911</v>
       </c>
     </row>
-    <row r="130" spans="1:11" ht="255" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" ht="375" x14ac:dyDescent="0.25">
       <c r="A130" s="6" t="s">
-        <v>560</v>
+        <v>566</v>
       </c>
       <c r="B130" s="6" t="s">
         <v>411</v>
@@ -8959,17 +8993,17 @@
         <v>517</v>
       </c>
       <c r="E130" s="8" t="s">
-        <v>528</v>
+        <v>533</v>
       </c>
       <c r="F130" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>529</v>
+        <v>519</v>
       </c>
       <c r="H130" s="2"/>
       <c r="I130" s="2" t="s">
-        <v>530</v>
+        <v>520</v>
       </c>
       <c r="J130" s="8" t="s">
         <v>972</v>
@@ -8978,9 +9012,9 @@
         <v>911</v>
       </c>
     </row>
-    <row r="131" spans="1:11" ht="375" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" ht="360" x14ac:dyDescent="0.25">
       <c r="A131" s="6" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
       <c r="B131" s="6" t="s">
         <v>411</v>
@@ -8989,17 +9023,17 @@
         <v>517</v>
       </c>
       <c r="E131" s="8" t="s">
-        <v>533</v>
+        <v>521</v>
       </c>
       <c r="F131" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>519</v>
+        <v>534</v>
       </c>
       <c r="H131" s="2"/>
       <c r="I131" s="2" t="s">
-        <v>520</v>
+        <v>535</v>
       </c>
       <c r="J131" s="8" t="s">
         <v>972</v>
@@ -9008,39 +9042,41 @@
         <v>911</v>
       </c>
     </row>
-    <row r="132" spans="1:11" ht="360" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" ht="375" x14ac:dyDescent="0.25">
       <c r="A132" s="6" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="B132" s="6" t="s">
         <v>411</v>
       </c>
       <c r="C132" s="8" t="s">
-        <v>517</v>
+        <v>540</v>
+      </c>
+      <c r="D132" s="8" t="s">
+        <v>999</v>
       </c>
       <c r="E132" s="8" t="s">
-        <v>521</v>
+        <v>543</v>
       </c>
       <c r="F132" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>534</v>
-      </c>
-      <c r="H132" s="2"/>
+        <v>545</v>
+      </c>
+      <c r="H132" s="2" t="s">
+        <v>544</v>
+      </c>
       <c r="I132" s="2" t="s">
-        <v>535</v>
-      </c>
-      <c r="J132" s="8" t="s">
-        <v>972</v>
-      </c>
-      <c r="K132" s="8" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="133" spans="1:11" ht="375" x14ac:dyDescent="0.25">
+        <v>546</v>
+      </c>
+      <c r="K132" s="20" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11" ht="330" x14ac:dyDescent="0.25">
       <c r="A133" s="6" t="s">
-        <v>571</v>
+        <v>577</v>
       </c>
       <c r="B133" s="6" t="s">
         <v>411</v>
@@ -9048,52 +9084,49 @@
       <c r="C133" s="8" t="s">
         <v>540</v>
       </c>
-      <c r="D133" s="8" t="s">
-        <v>999</v>
-      </c>
       <c r="E133" s="8" t="s">
-        <v>543</v>
+        <v>548</v>
       </c>
       <c r="F133" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>545</v>
-      </c>
-      <c r="H133" s="2" t="s">
-        <v>544</v>
-      </c>
+        <v>549</v>
+      </c>
+      <c r="H133" s="2"/>
       <c r="I133" s="2" t="s">
-        <v>546</v>
-      </c>
-      <c r="K133" s="20" t="s">
-        <v>951</v>
-      </c>
-    </row>
-    <row r="134" spans="1:11" ht="330" x14ac:dyDescent="0.25">
+        <v>550</v>
+      </c>
+      <c r="J133" s="8" t="s">
+        <v>972</v>
+      </c>
+      <c r="K133" s="8" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" ht="165" x14ac:dyDescent="0.25">
       <c r="A134" s="6" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="B134" s="6" t="s">
         <v>411</v>
       </c>
       <c r="C134" s="8" t="s">
-        <v>540</v>
+        <v>552</v>
       </c>
       <c r="E134" s="8" t="s">
-        <v>548</v>
+        <v>553</v>
       </c>
       <c r="F134" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>549</v>
-      </c>
-      <c r="H134" s="2"/>
+        <v>554</v>
+      </c>
       <c r="I134" s="2" t="s">
-        <v>550</v>
-      </c>
-      <c r="J134" s="8" t="s">
+        <v>555</v>
+      </c>
+      <c r="J134" s="6" t="s">
         <v>972</v>
       </c>
       <c r="K134" s="8" t="s">
@@ -9102,7 +9135,7 @@
     </row>
     <row r="135" spans="1:11" ht="165" x14ac:dyDescent="0.25">
       <c r="A135" s="6" t="s">
-        <v>580</v>
+        <v>585</v>
       </c>
       <c r="B135" s="6" t="s">
         <v>411</v>
@@ -9111,16 +9144,16 @@
         <v>552</v>
       </c>
       <c r="E135" s="8" t="s">
-        <v>553</v>
+        <v>557</v>
       </c>
       <c r="F135" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>554</v>
+        <v>558</v>
       </c>
       <c r="I135" s="2" t="s">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="J135" s="6" t="s">
         <v>972</v>
@@ -9129,27 +9162,27 @@
         <v>911</v>
       </c>
     </row>
-    <row r="136" spans="1:11" ht="165" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" ht="150" x14ac:dyDescent="0.25">
       <c r="A136" s="6" t="s">
-        <v>585</v>
+        <v>589</v>
       </c>
       <c r="B136" s="6" t="s">
         <v>411</v>
       </c>
       <c r="C136" s="8" t="s">
-        <v>552</v>
+        <v>561</v>
       </c>
       <c r="E136" s="8" t="s">
-        <v>557</v>
+        <v>562</v>
       </c>
       <c r="F136" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>558</v>
+        <v>563</v>
       </c>
       <c r="I136" s="2" t="s">
-        <v>559</v>
+        <v>564</v>
       </c>
       <c r="J136" s="6" t="s">
         <v>972</v>
@@ -9158,9 +9191,9 @@
         <v>911</v>
       </c>
     </row>
-    <row r="137" spans="1:11" ht="150" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" ht="195" x14ac:dyDescent="0.25">
       <c r="A137" s="6" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
       <c r="B137" s="6" t="s">
         <v>411</v>
@@ -9169,16 +9202,16 @@
         <v>561</v>
       </c>
       <c r="E137" s="8" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
       <c r="F137" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>563</v>
+        <v>567</v>
       </c>
       <c r="I137" s="2" t="s">
-        <v>564</v>
+        <v>952</v>
       </c>
       <c r="J137" s="6" t="s">
         <v>972</v>
@@ -9189,7 +9222,7 @@
     </row>
     <row r="138" spans="1:11" ht="195" x14ac:dyDescent="0.25">
       <c r="A138" s="6" t="s">
-        <v>592</v>
+        <v>599</v>
       </c>
       <c r="B138" s="6" t="s">
         <v>411</v>
@@ -9198,16 +9231,16 @@
         <v>561</v>
       </c>
       <c r="E138" s="8" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
       <c r="F138" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
       <c r="I138" s="2" t="s">
-        <v>952</v>
+        <v>575</v>
       </c>
       <c r="J138" s="6" t="s">
         <v>972</v>
@@ -9216,9 +9249,9 @@
         <v>911</v>
       </c>
     </row>
-    <row r="139" spans="1:11" ht="195" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" ht="225" x14ac:dyDescent="0.25">
       <c r="A139" s="6" t="s">
-        <v>599</v>
+        <v>603</v>
       </c>
       <c r="B139" s="6" t="s">
         <v>411</v>
@@ -9227,16 +9260,16 @@
         <v>561</v>
       </c>
       <c r="E139" s="8" t="s">
-        <v>568</v>
+        <v>572</v>
       </c>
       <c r="F139" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
       <c r="I139" s="2" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="J139" s="6" t="s">
         <v>972</v>
@@ -9247,7 +9280,7 @@
     </row>
     <row r="140" spans="1:11" ht="225" x14ac:dyDescent="0.25">
       <c r="A140" s="6" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="B140" s="6" t="s">
         <v>411</v>
@@ -9256,16 +9289,16 @@
         <v>561</v>
       </c>
       <c r="E140" s="8" t="s">
-        <v>572</v>
+        <v>576</v>
       </c>
       <c r="F140" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>573</v>
+        <v>578</v>
       </c>
       <c r="I140" s="2" t="s">
-        <v>574</v>
+        <v>579</v>
       </c>
       <c r="J140" s="6" t="s">
         <v>972</v>
@@ -9274,27 +9307,27 @@
         <v>911</v>
       </c>
     </row>
-    <row r="141" spans="1:11" ht="225" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" ht="120" x14ac:dyDescent="0.25">
       <c r="A141" s="6" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="B141" s="6" t="s">
         <v>411</v>
       </c>
       <c r="C141" s="8" t="s">
-        <v>561</v>
-      </c>
-      <c r="E141" s="8" t="s">
-        <v>576</v>
+        <v>581</v>
+      </c>
+      <c r="E141" s="6" t="s">
+        <v>582</v>
       </c>
       <c r="F141" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>578</v>
+        <v>583</v>
       </c>
       <c r="I141" s="2" t="s">
-        <v>579</v>
+        <v>584</v>
       </c>
       <c r="J141" s="6" t="s">
         <v>972</v>
@@ -9303,9 +9336,9 @@
         <v>911</v>
       </c>
     </row>
-    <row r="142" spans="1:11" ht="120" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" ht="150" x14ac:dyDescent="0.25">
       <c r="A142" s="6" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="B142" s="6" t="s">
         <v>411</v>
@@ -9313,17 +9346,17 @@
       <c r="C142" s="8" t="s">
         <v>581</v>
       </c>
-      <c r="E142" s="6" t="s">
-        <v>582</v>
+      <c r="E142" s="8" t="s">
+        <v>625</v>
       </c>
       <c r="F142" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>583</v>
+        <v>626</v>
       </c>
       <c r="I142" s="2" t="s">
-        <v>584</v>
+        <v>627</v>
       </c>
       <c r="J142" s="6" t="s">
         <v>972</v>
@@ -9334,7 +9367,7 @@
     </row>
     <row r="143" spans="1:11" ht="150" x14ac:dyDescent="0.25">
       <c r="A143" s="6" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="B143" s="6" t="s">
         <v>411</v>
@@ -9343,16 +9376,16 @@
         <v>581</v>
       </c>
       <c r="E143" s="8" t="s">
-        <v>625</v>
+        <v>628</v>
       </c>
       <c r="F143" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>626</v>
+        <v>629</v>
       </c>
       <c r="I143" s="2" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="J143" s="6" t="s">
         <v>972</v>
@@ -9363,7 +9396,7 @@
     </row>
     <row r="144" spans="1:11" ht="150" x14ac:dyDescent="0.25">
       <c r="A144" s="6" t="s">
-        <v>608</v>
+        <v>624</v>
       </c>
       <c r="B144" s="6" t="s">
         <v>411</v>
@@ -9372,16 +9405,16 @@
         <v>581</v>
       </c>
       <c r="E144" s="8" t="s">
-        <v>628</v>
+        <v>586</v>
       </c>
       <c r="F144" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>629</v>
+        <v>587</v>
       </c>
       <c r="I144" s="2" t="s">
-        <v>630</v>
+        <v>588</v>
       </c>
       <c r="J144" s="6" t="s">
         <v>972</v>
@@ -9390,27 +9423,27 @@
         <v>911</v>
       </c>
     </row>
-    <row r="145" spans="1:12" ht="150" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:12" ht="195" x14ac:dyDescent="0.25">
       <c r="A145" s="6" t="s">
-        <v>624</v>
+        <v>631</v>
       </c>
       <c r="B145" s="6" t="s">
         <v>411</v>
       </c>
       <c r="C145" s="8" t="s">
-        <v>581</v>
+        <v>594</v>
       </c>
       <c r="E145" s="8" t="s">
-        <v>586</v>
+        <v>593</v>
       </c>
       <c r="F145" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>587</v>
+        <v>590</v>
       </c>
       <c r="I145" s="2" t="s">
-        <v>588</v>
+        <v>591</v>
       </c>
       <c r="J145" s="6" t="s">
         <v>972</v>
@@ -9418,28 +9451,31 @@
       <c r="K145" s="8" t="s">
         <v>911</v>
       </c>
-    </row>
-    <row r="146" spans="1:12" ht="195" x14ac:dyDescent="0.25">
+      <c r="L145" s="8" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="146" spans="1:12" ht="180" x14ac:dyDescent="0.25">
       <c r="A146" s="6" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="B146" s="6" t="s">
         <v>411</v>
       </c>
       <c r="C146" s="8" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="E146" s="8" t="s">
-        <v>593</v>
+        <v>596</v>
       </c>
       <c r="F146" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>590</v>
+        <v>597</v>
       </c>
       <c r="I146" s="2" t="s">
-        <v>591</v>
+        <v>598</v>
       </c>
       <c r="J146" s="6" t="s">
         <v>972</v>
@@ -9447,13 +9483,10 @@
       <c r="K146" s="8" t="s">
         <v>911</v>
       </c>
-      <c r="L146" s="8" t="s">
-        <v>973</v>
-      </c>
-    </row>
-    <row r="147" spans="1:12" ht="180" x14ac:dyDescent="0.25">
+    </row>
+    <row r="147" spans="1:12" ht="165" x14ac:dyDescent="0.25">
       <c r="A147" s="6" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
       <c r="B147" s="6" t="s">
         <v>411</v>
@@ -9462,16 +9495,16 @@
         <v>595</v>
       </c>
       <c r="E147" s="8" t="s">
-        <v>596</v>
+        <v>600</v>
       </c>
       <c r="F147" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>597</v>
+        <v>601</v>
       </c>
       <c r="I147" s="2" t="s">
-        <v>598</v>
+        <v>602</v>
       </c>
       <c r="J147" s="6" t="s">
         <v>972</v>
@@ -9480,9 +9513,9 @@
         <v>911</v>
       </c>
     </row>
-    <row r="148" spans="1:12" ht="165" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:12" ht="330" x14ac:dyDescent="0.25">
       <c r="A148" s="6" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="B148" s="6" t="s">
         <v>411</v>
@@ -9491,16 +9524,16 @@
         <v>595</v>
       </c>
       <c r="E148" s="8" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
       <c r="F148" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>601</v>
+        <v>615</v>
       </c>
       <c r="I148" s="2" t="s">
-        <v>602</v>
+        <v>616</v>
       </c>
       <c r="J148" s="6" t="s">
         <v>972</v>
@@ -9508,10 +9541,13 @@
       <c r="K148" s="8" t="s">
         <v>911</v>
       </c>
-    </row>
-    <row r="149" spans="1:12" ht="330" x14ac:dyDescent="0.25">
+      <c r="L148" s="8" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="149" spans="1:12" ht="240" x14ac:dyDescent="0.25">
       <c r="A149" s="6" t="s">
-        <v>637</v>
+        <v>644</v>
       </c>
       <c r="B149" s="6" t="s">
         <v>411</v>
@@ -9520,16 +9556,16 @@
         <v>595</v>
       </c>
       <c r="E149" s="8" t="s">
-        <v>604</v>
+        <v>609</v>
       </c>
       <c r="F149" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="I149" s="2" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
       <c r="J149" s="6" t="s">
         <v>972</v>
@@ -9537,13 +9573,10 @@
       <c r="K149" s="8" t="s">
         <v>911</v>
       </c>
-      <c r="L149" s="8" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="150" spans="1:12" ht="240" x14ac:dyDescent="0.25">
+    </row>
+    <row r="150" spans="1:12" ht="165" x14ac:dyDescent="0.25">
       <c r="A150" s="6" t="s">
-        <v>644</v>
+        <v>648</v>
       </c>
       <c r="B150" s="6" t="s">
         <v>411</v>
@@ -9552,16 +9585,16 @@
         <v>595</v>
       </c>
       <c r="E150" s="8" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
       <c r="F150" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>610</v>
+        <v>613</v>
       </c>
       <c r="I150" s="2" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
       <c r="J150" s="6" t="s">
         <v>972</v>
@@ -9570,27 +9603,27 @@
         <v>911</v>
       </c>
     </row>
-    <row r="151" spans="1:12" ht="165" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:12" ht="120" x14ac:dyDescent="0.25">
       <c r="A151" s="6" t="s">
-        <v>648</v>
+        <v>652</v>
       </c>
       <c r="B151" s="6" t="s">
         <v>411</v>
       </c>
-      <c r="C151" s="8" t="s">
-        <v>595</v>
-      </c>
-      <c r="E151" s="8" t="s">
-        <v>612</v>
+      <c r="C151" s="6" t="s">
+        <v>617</v>
+      </c>
+      <c r="E151" s="6" t="s">
+        <v>635</v>
       </c>
       <c r="F151" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>613</v>
+        <v>633</v>
       </c>
       <c r="I151" s="2" t="s">
-        <v>614</v>
+        <v>634</v>
       </c>
       <c r="J151" s="6" t="s">
         <v>972</v>
@@ -9599,9 +9632,9 @@
         <v>911</v>
       </c>
     </row>
-    <row r="152" spans="1:12" ht="120" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:12" ht="150" x14ac:dyDescent="0.25">
       <c r="A152" s="6" t="s">
-        <v>652</v>
+        <v>656</v>
       </c>
       <c r="B152" s="6" t="s">
         <v>411</v>
@@ -9609,17 +9642,17 @@
       <c r="C152" s="6" t="s">
         <v>617</v>
       </c>
-      <c r="E152" s="6" t="s">
-        <v>635</v>
+      <c r="E152" s="8" t="s">
+        <v>638</v>
       </c>
       <c r="F152" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>633</v>
+        <v>639</v>
       </c>
       <c r="I152" s="2" t="s">
-        <v>634</v>
+        <v>640</v>
       </c>
       <c r="J152" s="6" t="s">
         <v>972</v>
@@ -9630,7 +9663,7 @@
     </row>
     <row r="153" spans="1:12" ht="150" x14ac:dyDescent="0.25">
       <c r="A153" s="6" t="s">
-        <v>656</v>
+        <v>660</v>
       </c>
       <c r="B153" s="6" t="s">
         <v>411</v>
@@ -9638,17 +9671,17 @@
       <c r="C153" s="6" t="s">
         <v>617</v>
       </c>
-      <c r="E153" s="8" t="s">
-        <v>638</v>
+      <c r="E153" s="6" t="s">
+        <v>641</v>
       </c>
       <c r="F153" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>639</v>
+        <v>642</v>
       </c>
       <c r="I153" s="2" t="s">
-        <v>640</v>
+        <v>643</v>
       </c>
       <c r="J153" s="6" t="s">
         <v>972</v>
@@ -9659,7 +9692,7 @@
     </row>
     <row r="154" spans="1:12" ht="150" x14ac:dyDescent="0.25">
       <c r="A154" s="6" t="s">
-        <v>660</v>
+        <v>664</v>
       </c>
       <c r="B154" s="6" t="s">
         <v>411</v>
@@ -9667,17 +9700,17 @@
       <c r="C154" s="6" t="s">
         <v>617</v>
       </c>
-      <c r="E154" s="6" t="s">
-        <v>641</v>
+      <c r="E154" s="8" t="s">
+        <v>645</v>
       </c>
       <c r="F154" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>642</v>
+        <v>646</v>
       </c>
       <c r="I154" s="2" t="s">
-        <v>643</v>
+        <v>647</v>
       </c>
       <c r="J154" s="6" t="s">
         <v>972</v>
@@ -9686,9 +9719,9 @@
         <v>911</v>
       </c>
     </row>
-    <row r="155" spans="1:12" ht="150" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:12" ht="135" x14ac:dyDescent="0.25">
       <c r="A155" s="6" t="s">
-        <v>664</v>
+        <v>670</v>
       </c>
       <c r="B155" s="6" t="s">
         <v>411</v>
@@ -9697,16 +9730,16 @@
         <v>617</v>
       </c>
       <c r="E155" s="8" t="s">
-        <v>645</v>
+        <v>649</v>
       </c>
       <c r="F155" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>646</v>
+        <v>650</v>
       </c>
       <c r="I155" s="2" t="s">
-        <v>647</v>
+        <v>651</v>
       </c>
       <c r="J155" s="6" t="s">
         <v>972</v>
@@ -9715,9 +9748,9 @@
         <v>911</v>
       </c>
     </row>
-    <row r="156" spans="1:12" ht="135" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:12" ht="150" x14ac:dyDescent="0.25">
       <c r="A156" s="6" t="s">
-        <v>670</v>
+        <v>674</v>
       </c>
       <c r="B156" s="6" t="s">
         <v>411</v>
@@ -9726,16 +9759,16 @@
         <v>617</v>
       </c>
       <c r="E156" s="8" t="s">
-        <v>649</v>
+        <v>653</v>
       </c>
       <c r="F156" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>650</v>
+        <v>654</v>
       </c>
       <c r="I156" s="2" t="s">
-        <v>651</v>
+        <v>655</v>
       </c>
       <c r="J156" s="6" t="s">
         <v>972</v>
@@ -9746,7 +9779,7 @@
     </row>
     <row r="157" spans="1:12" ht="150" x14ac:dyDescent="0.25">
       <c r="A157" s="6" t="s">
-        <v>674</v>
+        <v>678</v>
       </c>
       <c r="B157" s="6" t="s">
         <v>411</v>
@@ -9755,16 +9788,16 @@
         <v>617</v>
       </c>
       <c r="E157" s="8" t="s">
-        <v>653</v>
+        <v>657</v>
       </c>
       <c r="F157" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>654</v>
+        <v>658</v>
       </c>
       <c r="I157" s="2" t="s">
-        <v>655</v>
+        <v>659</v>
       </c>
       <c r="J157" s="6" t="s">
         <v>972</v>
@@ -9775,7 +9808,7 @@
     </row>
     <row r="158" spans="1:12" ht="150" x14ac:dyDescent="0.25">
       <c r="A158" s="6" t="s">
-        <v>678</v>
+        <v>682</v>
       </c>
       <c r="B158" s="6" t="s">
         <v>411</v>
@@ -9784,16 +9817,16 @@
         <v>617</v>
       </c>
       <c r="E158" s="8" t="s">
-        <v>657</v>
+        <v>661</v>
       </c>
       <c r="F158" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>658</v>
+        <v>662</v>
       </c>
       <c r="I158" s="2" t="s">
-        <v>659</v>
+        <v>663</v>
       </c>
       <c r="J158" s="6" t="s">
         <v>972</v>
@@ -9802,38 +9835,44 @@
         <v>911</v>
       </c>
     </row>
-    <row r="159" spans="1:12" ht="150" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A159" s="6" t="s">
-        <v>682</v>
+        <v>686</v>
       </c>
       <c r="B159" s="6" t="s">
         <v>411</v>
       </c>
       <c r="C159" s="6" t="s">
-        <v>617</v>
+        <v>665</v>
+      </c>
+      <c r="D159" s="8" t="s">
+        <v>1000</v>
       </c>
       <c r="E159" s="8" t="s">
-        <v>661</v>
+        <v>666</v>
       </c>
       <c r="F159" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>662</v>
+        <v>668</v>
+      </c>
+      <c r="H159" s="8" t="s">
+        <v>667</v>
       </c>
       <c r="I159" s="2" t="s">
-        <v>663</v>
-      </c>
-      <c r="J159" s="6" t="s">
-        <v>972</v>
-      </c>
-      <c r="K159" s="8" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="160" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
+        <v>669</v>
+      </c>
+      <c r="K159" s="20" t="s">
+        <v>909</v>
+      </c>
+      <c r="L159" s="20" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="160" spans="1:12" ht="195" x14ac:dyDescent="0.25">
       <c r="A160" s="6" t="s">
-        <v>686</v>
+        <v>690</v>
       </c>
       <c r="B160" s="6" t="s">
         <v>411</v>
@@ -9841,34 +9880,29 @@
       <c r="C160" s="6" t="s">
         <v>665</v>
       </c>
-      <c r="D160" s="8" t="s">
-        <v>1000</v>
-      </c>
       <c r="E160" s="8" t="s">
-        <v>666</v>
+        <v>694</v>
       </c>
       <c r="F160" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>668</v>
-      </c>
-      <c r="H160" s="8" t="s">
-        <v>667</v>
-      </c>
+        <v>695</v>
+      </c>
+      <c r="H160" s="8"/>
       <c r="I160" s="2" t="s">
-        <v>669</v>
-      </c>
-      <c r="K160" s="20" t="s">
-        <v>909</v>
-      </c>
-      <c r="L160" s="20" t="s">
-        <v>954</v>
-      </c>
-    </row>
-    <row r="161" spans="1:27" ht="195" x14ac:dyDescent="0.25">
+        <v>696</v>
+      </c>
+      <c r="J160" s="6" t="s">
+        <v>972</v>
+      </c>
+      <c r="K160" s="8" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="161" spans="1:27" ht="240" x14ac:dyDescent="0.25">
       <c r="A161" s="6" t="s">
-        <v>690</v>
+        <v>697</v>
       </c>
       <c r="B161" s="6" t="s">
         <v>411</v>
@@ -9877,17 +9911,16 @@
         <v>665</v>
       </c>
       <c r="E161" s="8" t="s">
-        <v>694</v>
+        <v>671</v>
       </c>
       <c r="F161" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>695</v>
-      </c>
-      <c r="H161" s="8"/>
+        <v>673</v>
+      </c>
       <c r="I161" s="2" t="s">
-        <v>696</v>
+        <v>672</v>
       </c>
       <c r="J161" s="6" t="s">
         <v>972</v>
@@ -9895,10 +9928,13 @@
       <c r="K161" s="8" t="s">
         <v>911</v>
       </c>
-    </row>
-    <row r="162" spans="1:27" ht="240" x14ac:dyDescent="0.25">
+      <c r="L161" s="8" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="162" spans="1:27" ht="165" x14ac:dyDescent="0.25">
       <c r="A162" s="6" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="B162" s="6" t="s">
         <v>411</v>
@@ -9907,30 +9943,27 @@
         <v>665</v>
       </c>
       <c r="E162" s="8" t="s">
-        <v>671</v>
+        <v>675</v>
       </c>
       <c r="F162" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>673</v>
+        <v>676</v>
       </c>
       <c r="I162" s="2" t="s">
-        <v>672</v>
+        <v>677</v>
       </c>
       <c r="J162" s="6" t="s">
         <v>972</v>
       </c>
       <c r="K162" s="8" t="s">
         <v>911</v>
-      </c>
-      <c r="L162" s="8" t="s">
-        <v>955</v>
       </c>
     </row>
     <row r="163" spans="1:27" ht="165" x14ac:dyDescent="0.25">
       <c r="A163" s="6" t="s">
-        <v>698</v>
+        <v>703</v>
       </c>
       <c r="B163" s="6" t="s">
         <v>411</v>
@@ -9939,16 +9972,16 @@
         <v>665</v>
       </c>
       <c r="E163" s="8" t="s">
-        <v>675</v>
+        <v>679</v>
       </c>
       <c r="F163" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>676</v>
+        <v>680</v>
       </c>
       <c r="I163" s="2" t="s">
-        <v>677</v>
+        <v>681</v>
       </c>
       <c r="J163" s="6" t="s">
         <v>972</v>
@@ -9957,9 +9990,9 @@
         <v>911</v>
       </c>
     </row>
-    <row r="164" spans="1:27" ht="165" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:27" ht="315" x14ac:dyDescent="0.25">
       <c r="A164" s="6" t="s">
-        <v>703</v>
+        <v>706</v>
       </c>
       <c r="B164" s="6" t="s">
         <v>411</v>
@@ -9968,27 +10001,27 @@
         <v>665</v>
       </c>
       <c r="E164" s="8" t="s">
-        <v>679</v>
+        <v>683</v>
       </c>
       <c r="F164" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>680</v>
+        <v>684</v>
       </c>
       <c r="I164" s="2" t="s">
-        <v>681</v>
+        <v>685</v>
       </c>
       <c r="J164" s="6" t="s">
-        <v>972</v>
+        <v>964</v>
       </c>
       <c r="K164" s="8" t="s">
         <v>911</v>
       </c>
     </row>
-    <row r="165" spans="1:27" ht="315" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:27" ht="285" x14ac:dyDescent="0.25">
       <c r="A165" s="6" t="s">
-        <v>706</v>
+        <v>709</v>
       </c>
       <c r="B165" s="6" t="s">
         <v>411</v>
@@ -9997,16 +10030,16 @@
         <v>665</v>
       </c>
       <c r="E165" s="8" t="s">
-        <v>683</v>
+        <v>687</v>
       </c>
       <c r="F165" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>684</v>
+        <v>688</v>
       </c>
       <c r="I165" s="2" t="s">
-        <v>685</v>
+        <v>689</v>
       </c>
       <c r="J165" s="6" t="s">
         <v>964</v>
@@ -10015,9 +10048,9 @@
         <v>911</v>
       </c>
     </row>
-    <row r="166" spans="1:27" ht="285" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:27" ht="315" x14ac:dyDescent="0.25">
       <c r="A166" s="6" t="s">
-        <v>709</v>
+        <v>712</v>
       </c>
       <c r="B166" s="6" t="s">
         <v>411</v>
@@ -10026,16 +10059,16 @@
         <v>665</v>
       </c>
       <c r="E166" s="8" t="s">
-        <v>687</v>
+        <v>691</v>
       </c>
       <c r="F166" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>688</v>
+        <v>692</v>
       </c>
       <c r="I166" s="2" t="s">
-        <v>689</v>
+        <v>693</v>
       </c>
       <c r="J166" s="6" t="s">
         <v>964</v>
@@ -10044,38 +10077,35 @@
         <v>911</v>
       </c>
     </row>
-    <row r="167" spans="1:27" ht="315" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:27" ht="150" x14ac:dyDescent="0.25">
       <c r="A167" s="6" t="s">
-        <v>712</v>
+        <v>717</v>
       </c>
       <c r="B167" s="6" t="s">
         <v>411</v>
       </c>
       <c r="C167" s="6" t="s">
-        <v>665</v>
+        <v>699</v>
       </c>
       <c r="E167" s="8" t="s">
-        <v>691</v>
+        <v>700</v>
       </c>
       <c r="F167" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>692</v>
+        <v>701</v>
       </c>
       <c r="I167" s="2" t="s">
-        <v>693</v>
-      </c>
-      <c r="J167" s="6" t="s">
-        <v>964</v>
-      </c>
-      <c r="K167" s="8" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="168" spans="1:27" ht="150" x14ac:dyDescent="0.25">
+        <v>702</v>
+      </c>
+      <c r="L167" s="20" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="168" spans="1:27" ht="180" x14ac:dyDescent="0.25">
       <c r="A168" s="6" t="s">
-        <v>717</v>
+        <v>721</v>
       </c>
       <c r="B168" s="6" t="s">
         <v>411</v>
@@ -10084,24 +10114,27 @@
         <v>699</v>
       </c>
       <c r="E168" s="8" t="s">
-        <v>700</v>
+        <v>704</v>
       </c>
       <c r="F168" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>701</v>
+        <v>957</v>
       </c>
       <c r="I168" s="2" t="s">
-        <v>702</v>
-      </c>
-      <c r="L168" s="20" t="s">
-        <v>956</v>
+        <v>705</v>
+      </c>
+      <c r="J168" s="6" t="s">
+        <v>964</v>
+      </c>
+      <c r="K168" s="6" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="169" spans="1:27" ht="180" x14ac:dyDescent="0.25">
       <c r="A169" s="6" t="s">
-        <v>721</v>
+        <v>725</v>
       </c>
       <c r="B169" s="6" t="s">
         <v>411</v>
@@ -10110,16 +10143,16 @@
         <v>699</v>
       </c>
       <c r="E169" s="8" t="s">
-        <v>704</v>
+        <v>707</v>
       </c>
       <c r="F169" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="I169" s="2" t="s">
-        <v>705</v>
+        <v>708</v>
       </c>
       <c r="J169" s="6" t="s">
         <v>964</v>
@@ -10128,9 +10161,9 @@
         <v>911</v>
       </c>
     </row>
-    <row r="170" spans="1:27" ht="180" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:27" ht="225" x14ac:dyDescent="0.25">
       <c r="A170" s="6" t="s">
-        <v>725</v>
+        <v>729</v>
       </c>
       <c r="B170" s="6" t="s">
         <v>411</v>
@@ -10139,16 +10172,16 @@
         <v>699</v>
       </c>
       <c r="E170" s="8" t="s">
-        <v>707</v>
+        <v>710</v>
       </c>
       <c r="F170" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="I170" s="2" t="s">
-        <v>708</v>
+        <v>711</v>
       </c>
       <c r="J170" s="6" t="s">
         <v>964</v>
@@ -10159,36 +10192,36 @@
     </row>
     <row r="171" spans="1:27" ht="225" x14ac:dyDescent="0.25">
       <c r="A171" s="6" t="s">
-        <v>729</v>
+        <v>734</v>
       </c>
       <c r="B171" s="6" t="s">
         <v>411</v>
       </c>
       <c r="C171" s="6" t="s">
-        <v>699</v>
+        <v>713</v>
       </c>
       <c r="E171" s="8" t="s">
-        <v>710</v>
+        <v>714</v>
       </c>
       <c r="F171" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>959</v>
+        <v>715</v>
       </c>
       <c r="I171" s="2" t="s">
-        <v>711</v>
+        <v>716</v>
       </c>
       <c r="J171" s="6" t="s">
         <v>964</v>
       </c>
-      <c r="K171" s="6" t="s">
-        <v>911</v>
+      <c r="L171" s="20" t="s">
+        <v>971</v>
       </c>
     </row>
     <row r="172" spans="1:27" ht="225" x14ac:dyDescent="0.25">
       <c r="A172" s="6" t="s">
-        <v>734</v>
+        <v>740</v>
       </c>
       <c r="B172" s="6" t="s">
         <v>411</v>
@@ -10197,27 +10230,27 @@
         <v>713</v>
       </c>
       <c r="E172" s="8" t="s">
-        <v>714</v>
+        <v>718</v>
       </c>
       <c r="F172" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>715</v>
+        <v>719</v>
       </c>
       <c r="I172" s="2" t="s">
-        <v>716</v>
+        <v>720</v>
       </c>
       <c r="J172" s="6" t="s">
         <v>964</v>
       </c>
-      <c r="L172" s="20" t="s">
-        <v>971</v>
-      </c>
-    </row>
-    <row r="173" spans="1:27" ht="225" x14ac:dyDescent="0.25">
+      <c r="K172" s="6" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="173" spans="1:27" ht="270" x14ac:dyDescent="0.25">
       <c r="A173" s="6" t="s">
-        <v>740</v>
+        <v>744</v>
       </c>
       <c r="B173" s="6" t="s">
         <v>411</v>
@@ -10226,16 +10259,16 @@
         <v>713</v>
       </c>
       <c r="E173" s="8" t="s">
-        <v>718</v>
+        <v>722</v>
       </c>
       <c r="F173" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G173" s="2" t="s">
-        <v>719</v>
+        <v>723</v>
       </c>
       <c r="I173" s="2" t="s">
-        <v>720</v>
+        <v>724</v>
       </c>
       <c r="J173" s="6" t="s">
         <v>964</v>
@@ -10244,9 +10277,9 @@
         <v>911</v>
       </c>
     </row>
-    <row r="174" spans="1:27" ht="270" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:27" ht="285.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A174" s="6" t="s">
-        <v>744</v>
+        <v>751</v>
       </c>
       <c r="B174" s="6" t="s">
         <v>411</v>
@@ -10255,16 +10288,16 @@
         <v>713</v>
       </c>
       <c r="E174" s="8" t="s">
-        <v>722</v>
+        <v>726</v>
       </c>
       <c r="F174" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>723</v>
+        <v>727</v>
       </c>
       <c r="I174" s="2" t="s">
-        <v>724</v>
+        <v>728</v>
       </c>
       <c r="J174" s="6" t="s">
         <v>964</v>
@@ -10273,130 +10306,130 @@
         <v>911</v>
       </c>
     </row>
-    <row r="175" spans="1:27" ht="285.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:27" ht="195.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A175" s="6" t="s">
-        <v>751</v>
-      </c>
-      <c r="B175" s="6" t="s">
-        <v>411</v>
-      </c>
-      <c r="C175" s="6" t="s">
+        <v>752</v>
+      </c>
+      <c r="B175" s="10" t="s">
+        <v>730</v>
+      </c>
+      <c r="C175" s="10" t="s">
         <v>713</v>
       </c>
-      <c r="E175" s="8" t="s">
-        <v>726</v>
+      <c r="E175" s="10" t="s">
+        <v>731</v>
       </c>
       <c r="F175" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="G175" s="2" t="s">
-        <v>727</v>
-      </c>
-      <c r="I175" s="2" t="s">
-        <v>728</v>
-      </c>
-      <c r="J175" s="6" t="s">
+      <c r="G175" s="12" t="s">
+        <v>732</v>
+      </c>
+      <c r="H175" s="11"/>
+      <c r="I175" s="12" t="s">
+        <v>733</v>
+      </c>
+      <c r="J175" s="23" t="s">
         <v>964</v>
       </c>
-      <c r="K175" s="6" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="176" spans="1:27" ht="195.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K175" s="23" t="s">
+        <v>911</v>
+      </c>
+      <c r="L175" s="23"/>
+      <c r="M175" s="11"/>
+      <c r="N175" s="11"/>
+      <c r="O175" s="11"/>
+      <c r="P175" s="11"/>
+      <c r="Q175" s="11"/>
+      <c r="R175" s="11"/>
+      <c r="S175" s="11"/>
+      <c r="T175" s="11"/>
+      <c r="U175" s="11"/>
+      <c r="V175" s="11"/>
+      <c r="W175" s="11"/>
+      <c r="X175" s="11"/>
+      <c r="Y175" s="11"/>
+      <c r="Z175" s="11"/>
+      <c r="AA175" s="11"/>
+    </row>
+    <row r="176" spans="1:27" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A176" s="6" t="s">
-        <v>752</v>
+        <v>758</v>
       </c>
       <c r="B176" s="10" t="s">
-        <v>730</v>
+        <v>735</v>
       </c>
       <c r="C176" s="10" t="s">
-        <v>713</v>
-      </c>
-      <c r="E176" s="10" t="s">
-        <v>731</v>
+        <v>735</v>
+      </c>
+      <c r="E176" s="14" t="s">
+        <v>748</v>
       </c>
       <c r="F176" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="G176" s="12" t="s">
-        <v>732</v>
-      </c>
-      <c r="H176" s="11"/>
-      <c r="I176" s="12" t="s">
-        <v>733</v>
-      </c>
-      <c r="J176" s="23" t="s">
+      <c r="G176" s="13" t="s">
+        <v>750</v>
+      </c>
+      <c r="H176" s="16"/>
+      <c r="I176" s="15" t="s">
+        <v>749</v>
+      </c>
+      <c r="J176" s="24" t="s">
         <v>964</v>
       </c>
-      <c r="K176" s="23" t="s">
-        <v>911</v>
-      </c>
-      <c r="L176" s="23"/>
-      <c r="M176" s="11"/>
-      <c r="N176" s="11"/>
-      <c r="O176" s="11"/>
-      <c r="P176" s="11"/>
-      <c r="Q176" s="11"/>
-      <c r="R176" s="11"/>
-      <c r="S176" s="11"/>
-      <c r="T176" s="11"/>
-      <c r="U176" s="11"/>
-      <c r="V176" s="11"/>
-      <c r="W176" s="11"/>
-      <c r="X176" s="11"/>
-      <c r="Y176" s="11"/>
-      <c r="Z176" s="11"/>
-      <c r="AA176" s="11"/>
-    </row>
-    <row r="177" spans="1:27" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K176" s="24" t="s">
+        <v>911</v>
+      </c>
+      <c r="L176" s="24"/>
+      <c r="M176" s="16"/>
+      <c r="N176" s="16"/>
+      <c r="O176" s="16"/>
+      <c r="P176" s="16"/>
+      <c r="Q176" s="16"/>
+      <c r="R176" s="16"/>
+      <c r="S176" s="16"/>
+      <c r="T176" s="16"/>
+      <c r="U176" s="16"/>
+      <c r="V176" s="16"/>
+      <c r="W176" s="16"/>
+      <c r="X176" s="16"/>
+      <c r="Y176" s="16"/>
+      <c r="Z176" s="16"/>
+      <c r="AA176" s="16"/>
+    </row>
+    <row r="177" spans="1:12" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A177" s="6" t="s">
-        <v>758</v>
+        <v>763</v>
       </c>
       <c r="B177" s="10" t="s">
         <v>735</v>
       </c>
-      <c r="C177" s="10" t="s">
-        <v>735</v>
-      </c>
-      <c r="E177" s="14" t="s">
-        <v>748</v>
+      <c r="C177" s="8" t="s">
+        <v>736</v>
+      </c>
+      <c r="E177" s="8" t="s">
+        <v>737</v>
       </c>
       <c r="F177" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G177" s="13" t="s">
-        <v>750</v>
-      </c>
-      <c r="H177" s="16"/>
-      <c r="I177" s="15" t="s">
-        <v>749</v>
-      </c>
-      <c r="J177" s="24" t="s">
-        <v>964</v>
-      </c>
-      <c r="K177" s="24" t="s">
-        <v>911</v>
-      </c>
-      <c r="L177" s="24"/>
-      <c r="M177" s="16"/>
-      <c r="N177" s="16"/>
-      <c r="O177" s="16"/>
-      <c r="P177" s="16"/>
-      <c r="Q177" s="16"/>
-      <c r="R177" s="16"/>
-      <c r="S177" s="16"/>
-      <c r="T177" s="16"/>
-      <c r="U177" s="16"/>
-      <c r="V177" s="16"/>
-      <c r="W177" s="16"/>
-      <c r="X177" s="16"/>
-      <c r="Y177" s="16"/>
-      <c r="Z177" s="16"/>
-      <c r="AA177" s="16"/>
-    </row>
-    <row r="178" spans="1:27" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>738</v>
+      </c>
+      <c r="I177" s="13" t="s">
+        <v>739</v>
+      </c>
+      <c r="K177" s="19" t="s">
+        <v>909</v>
+      </c>
+      <c r="L177" s="20" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="178" spans="1:12" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A178" s="6" t="s">
-        <v>763</v>
+        <v>767</v>
       </c>
       <c r="B178" s="10" t="s">
         <v>735</v>
@@ -10405,27 +10438,30 @@
         <v>736</v>
       </c>
       <c r="E178" s="8" t="s">
-        <v>737</v>
+        <v>741</v>
       </c>
       <c r="F178" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G178" s="13" t="s">
-        <v>738</v>
+        <v>742</v>
       </c>
       <c r="I178" s="13" t="s">
-        <v>739</v>
-      </c>
-      <c r="K178" s="19" t="s">
-        <v>909</v>
-      </c>
-      <c r="L178" s="20" t="s">
-        <v>970</v>
-      </c>
-    </row>
-    <row r="179" spans="1:27" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>743</v>
+      </c>
+      <c r="J178" s="6" t="s">
+        <v>964</v>
+      </c>
+      <c r="K178" s="6" t="s">
+        <v>911</v>
+      </c>
+      <c r="L178" s="8" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="179" spans="1:12" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A179" s="6" t="s">
-        <v>767</v>
+        <v>769</v>
       </c>
       <c r="B179" s="10" t="s">
         <v>735</v>
@@ -10434,59 +10470,62 @@
         <v>736</v>
       </c>
       <c r="E179" s="8" t="s">
-        <v>741</v>
+        <v>745</v>
       </c>
       <c r="F179" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G179" s="13" t="s">
-        <v>742</v>
+        <v>746</v>
       </c>
       <c r="I179" s="13" t="s">
-        <v>743</v>
-      </c>
-      <c r="J179" s="6" t="s">
-        <v>964</v>
-      </c>
-      <c r="K179" s="6" t="s">
-        <v>911</v>
-      </c>
-      <c r="L179" s="8" t="s">
-        <v>969</v>
-      </c>
-    </row>
-    <row r="180" spans="1:27" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>747</v>
+      </c>
+      <c r="K179" s="19" t="s">
+        <v>909</v>
+      </c>
+      <c r="L179" s="20" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="180" spans="1:12" ht="165.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A180" s="6" t="s">
-        <v>769</v>
+        <v>772</v>
       </c>
       <c r="B180" s="10" t="s">
         <v>735</v>
       </c>
-      <c r="C180" s="8" t="s">
-        <v>736</v>
+      <c r="C180" s="6" t="s">
+        <v>753</v>
+      </c>
+      <c r="D180" s="8" t="s">
+        <v>1001</v>
       </c>
       <c r="E180" s="8" t="s">
-        <v>745</v>
+        <v>754</v>
       </c>
       <c r="F180" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G180" s="13" t="s">
-        <v>746</v>
+        <v>755</v>
+      </c>
+      <c r="H180" s="2" t="s">
+        <v>756</v>
       </c>
       <c r="I180" s="13" t="s">
-        <v>747</v>
-      </c>
-      <c r="K180" s="19" t="s">
-        <v>909</v>
-      </c>
-      <c r="L180" s="20" t="s">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="181" spans="1:27" ht="165.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>757</v>
+      </c>
+      <c r="J180" s="25" t="s">
+        <v>964</v>
+      </c>
+      <c r="K180" s="25" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="181" spans="1:12" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A181" s="6" t="s">
-        <v>772</v>
+        <v>775</v>
       </c>
       <c r="B181" s="10" t="s">
         <v>735</v>
@@ -10495,22 +10534,22 @@
         <v>753</v>
       </c>
       <c r="D181" s="8" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="E181" s="8" t="s">
-        <v>754</v>
+        <v>759</v>
       </c>
       <c r="F181" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G181" s="13" t="s">
-        <v>755</v>
+        <v>761</v>
       </c>
       <c r="H181" s="2" t="s">
-        <v>756</v>
+        <v>760</v>
       </c>
       <c r="I181" s="13" t="s">
-        <v>757</v>
+        <v>762</v>
       </c>
       <c r="J181" s="25" t="s">
         <v>964</v>
@@ -10518,10 +10557,13 @@
       <c r="K181" s="25" t="s">
         <v>911</v>
       </c>
-    </row>
-    <row r="182" spans="1:27" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L181" s="25" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="182" spans="1:12" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A182" s="6" t="s">
-        <v>775</v>
+        <v>780</v>
       </c>
       <c r="B182" s="10" t="s">
         <v>735</v>
@@ -10529,37 +10571,28 @@
       <c r="C182" s="6" t="s">
         <v>753</v>
       </c>
-      <c r="D182" s="8" t="s">
-        <v>1002</v>
-      </c>
       <c r="E182" s="8" t="s">
-        <v>759</v>
+        <v>764</v>
       </c>
       <c r="F182" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G182" s="13" t="s">
-        <v>761</v>
-      </c>
-      <c r="H182" s="2" t="s">
-        <v>760</v>
-      </c>
-      <c r="I182" s="13" t="s">
-        <v>762</v>
-      </c>
-      <c r="J182" s="25" t="s">
+        <v>765</v>
+      </c>
+      <c r="I182" s="2" t="s">
+        <v>766</v>
+      </c>
+      <c r="J182" s="6" t="s">
         <v>964</v>
       </c>
-      <c r="K182" s="25" t="s">
-        <v>911</v>
-      </c>
-      <c r="L182" s="25" t="s">
-        <v>968</v>
-      </c>
-    </row>
-    <row r="183" spans="1:27" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K182" s="6" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="183" spans="1:12" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A183" s="6" t="s">
-        <v>780</v>
+        <v>783</v>
       </c>
       <c r="B183" s="10" t="s">
         <v>735</v>
@@ -10568,7 +10601,7 @@
         <v>753</v>
       </c>
       <c r="E183" s="8" t="s">
-        <v>764</v>
+        <v>768</v>
       </c>
       <c r="F183" s="6" t="s">
         <v>38</v>
@@ -10586,9 +10619,9 @@
         <v>911</v>
       </c>
     </row>
-    <row r="184" spans="1:27" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:12" ht="165.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A184" s="6" t="s">
-        <v>783</v>
+        <v>789</v>
       </c>
       <c r="B184" s="10" t="s">
         <v>735</v>
@@ -10603,21 +10636,22 @@
         <v>38</v>
       </c>
       <c r="G184" s="13" t="s">
-        <v>765</v>
-      </c>
-      <c r="I184" s="2" t="s">
-        <v>766</v>
-      </c>
-      <c r="J184" s="6" t="s">
+        <v>770</v>
+      </c>
+      <c r="H184" s="2"/>
+      <c r="I184" s="13" t="s">
+        <v>771</v>
+      </c>
+      <c r="J184" s="25" t="s">
         <v>964</v>
       </c>
-      <c r="K184" s="6" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="185" spans="1:27" ht="165.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K184" s="25" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="185" spans="1:12" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A185" s="6" t="s">
-        <v>789</v>
+        <v>794</v>
       </c>
       <c r="B185" s="10" t="s">
         <v>735</v>
@@ -10632,11 +10666,11 @@
         <v>38</v>
       </c>
       <c r="G185" s="13" t="s">
-        <v>770</v>
+        <v>773</v>
       </c>
       <c r="H185" s="2"/>
       <c r="I185" s="13" t="s">
-        <v>771</v>
+        <v>774</v>
       </c>
       <c r="J185" s="25" t="s">
         <v>964</v>
@@ -10645,9 +10679,9 @@
         <v>911</v>
       </c>
     </row>
-    <row r="186" spans="1:27" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:12" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A186" s="6" t="s">
-        <v>794</v>
+        <v>799</v>
       </c>
       <c r="B186" s="10" t="s">
         <v>735</v>
@@ -10656,46 +10690,45 @@
         <v>753</v>
       </c>
       <c r="E186" s="8" t="s">
-        <v>768</v>
+        <v>776</v>
       </c>
       <c r="F186" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="G186" s="13" t="s">
-        <v>773</v>
-      </c>
-      <c r="H186" s="2"/>
-      <c r="I186" s="13" t="s">
-        <v>774</v>
-      </c>
-      <c r="J186" s="25" t="s">
+      <c r="G186" s="2" t="s">
+        <v>777</v>
+      </c>
+      <c r="I186" s="2" t="s">
+        <v>778</v>
+      </c>
+      <c r="J186" s="6" t="s">
         <v>964</v>
       </c>
       <c r="K186" s="25" t="s">
         <v>911</v>
       </c>
     </row>
-    <row r="187" spans="1:27" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:12" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A187" s="6" t="s">
-        <v>799</v>
+        <v>804</v>
       </c>
       <c r="B187" s="10" t="s">
         <v>735</v>
       </c>
-      <c r="C187" s="6" t="s">
-        <v>753</v>
-      </c>
-      <c r="E187" s="8" t="s">
-        <v>776</v>
+      <c r="C187" s="8" t="s">
+        <v>779</v>
+      </c>
+      <c r="E187" s="6" t="s">
+        <v>786</v>
       </c>
       <c r="F187" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G187" s="2" t="s">
-        <v>777</v>
+        <v>781</v>
       </c>
       <c r="I187" s="2" t="s">
-        <v>778</v>
+        <v>782</v>
       </c>
       <c r="J187" s="6" t="s">
         <v>964</v>
@@ -10704,27 +10737,27 @@
         <v>911</v>
       </c>
     </row>
-    <row r="188" spans="1:27" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:12" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A188" s="6" t="s">
-        <v>804</v>
+        <v>810</v>
       </c>
       <c r="B188" s="10" t="s">
         <v>735</v>
       </c>
       <c r="C188" s="8" t="s">
-        <v>779</v>
+        <v>784</v>
       </c>
       <c r="E188" s="6" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="F188" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G188" s="2" t="s">
-        <v>781</v>
+        <v>787</v>
       </c>
       <c r="I188" s="2" t="s">
-        <v>782</v>
+        <v>788</v>
       </c>
       <c r="J188" s="6" t="s">
         <v>964</v>
@@ -10733,56 +10766,56 @@
         <v>911</v>
       </c>
     </row>
-    <row r="189" spans="1:27" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:12" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A189" s="6" t="s">
-        <v>810</v>
+        <v>813</v>
       </c>
       <c r="B189" s="10" t="s">
         <v>735</v>
       </c>
       <c r="C189" s="8" t="s">
-        <v>784</v>
-      </c>
-      <c r="E189" s="6" t="s">
-        <v>785</v>
+        <v>790</v>
+      </c>
+      <c r="E189" s="8" t="s">
+        <v>791</v>
       </c>
       <c r="F189" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G189" s="2" t="s">
-        <v>787</v>
+        <v>792</v>
       </c>
       <c r="I189" s="2" t="s">
-        <v>788</v>
-      </c>
-      <c r="J189" s="6" t="s">
-        <v>964</v>
-      </c>
-      <c r="K189" s="25" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="190" spans="1:27" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>793</v>
+      </c>
+      <c r="K189" s="26" t="s">
+        <v>909</v>
+      </c>
+      <c r="L189" s="20" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="190" spans="1:12" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A190" s="6" t="s">
-        <v>813</v>
+        <v>817</v>
       </c>
       <c r="B190" s="10" t="s">
         <v>735</v>
       </c>
       <c r="C190" s="8" t="s">
-        <v>790</v>
+        <v>796</v>
       </c>
       <c r="E190" s="8" t="s">
-        <v>791</v>
+        <v>795</v>
       </c>
       <c r="F190" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G190" s="2" t="s">
-        <v>792</v>
+        <v>798</v>
       </c>
       <c r="I190" s="2" t="s">
-        <v>793</v>
+        <v>797</v>
       </c>
       <c r="K190" s="26" t="s">
         <v>909</v>
@@ -10791,9 +10824,9 @@
         <v>961</v>
       </c>
     </row>
-    <row r="191" spans="1:27" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:12" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A191" s="6" t="s">
-        <v>817</v>
+        <v>819</v>
       </c>
       <c r="B191" s="10" t="s">
         <v>735</v>
@@ -10802,16 +10835,19 @@
         <v>796</v>
       </c>
       <c r="E191" s="8" t="s">
-        <v>795</v>
+        <v>800</v>
       </c>
       <c r="F191" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G191" s="2" t="s">
-        <v>798</v>
+        <v>801</v>
       </c>
       <c r="I191" s="2" t="s">
-        <v>797</v>
+        <v>803</v>
+      </c>
+      <c r="J191" s="6" t="s">
+        <v>802</v>
       </c>
       <c r="K191" s="26" t="s">
         <v>909</v>
@@ -10820,41 +10856,38 @@
         <v>961</v>
       </c>
     </row>
-    <row r="192" spans="1:27" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A192" s="6" t="s">
-        <v>819</v>
+        <v>822</v>
       </c>
       <c r="B192" s="10" t="s">
         <v>735</v>
       </c>
       <c r="C192" s="8" t="s">
-        <v>796</v>
+        <v>805</v>
       </c>
       <c r="E192" s="8" t="s">
-        <v>800</v>
+        <v>806</v>
       </c>
       <c r="F192" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G192" s="2" t="s">
-        <v>801</v>
+        <v>807</v>
       </c>
       <c r="I192" s="2" t="s">
-        <v>803</v>
+        <v>808</v>
       </c>
       <c r="J192" s="6" t="s">
-        <v>802</v>
-      </c>
-      <c r="K192" s="26" t="s">
-        <v>909</v>
-      </c>
-      <c r="L192" s="20" t="s">
-        <v>961</v>
+        <v>964</v>
+      </c>
+      <c r="K192" s="27" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="193" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A193" s="6" t="s">
-        <v>822</v>
+        <v>825</v>
       </c>
       <c r="B193" s="10" t="s">
         <v>735</v>
@@ -10863,16 +10896,16 @@
         <v>805</v>
       </c>
       <c r="E193" s="8" t="s">
-        <v>806</v>
+        <v>809</v>
       </c>
       <c r="F193" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G193" s="2" t="s">
-        <v>807</v>
+        <v>811</v>
       </c>
       <c r="I193" s="2" t="s">
-        <v>808</v>
+        <v>812</v>
       </c>
       <c r="J193" s="6" t="s">
         <v>964</v>
@@ -10881,9 +10914,9 @@
         <v>911</v>
       </c>
     </row>
-    <row r="194" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:12" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A194" s="6" t="s">
-        <v>825</v>
+        <v>833</v>
       </c>
       <c r="B194" s="10" t="s">
         <v>735</v>
@@ -10892,16 +10925,16 @@
         <v>805</v>
       </c>
       <c r="E194" s="8" t="s">
-        <v>809</v>
+        <v>814</v>
       </c>
       <c r="F194" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G194" s="2" t="s">
-        <v>811</v>
+        <v>815</v>
       </c>
       <c r="I194" s="2" t="s">
-        <v>812</v>
+        <v>816</v>
       </c>
       <c r="J194" s="6" t="s">
         <v>964</v>
@@ -10910,9 +10943,9 @@
         <v>911</v>
       </c>
     </row>
-    <row r="195" spans="1:12" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:12" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A195" s="6" t="s">
-        <v>833</v>
+        <v>836</v>
       </c>
       <c r="B195" s="10" t="s">
         <v>735</v>
@@ -10921,16 +10954,16 @@
         <v>805</v>
       </c>
       <c r="E195" s="8" t="s">
-        <v>814</v>
+        <v>826</v>
       </c>
       <c r="F195" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G195" s="2" t="s">
-        <v>815</v>
+        <v>829</v>
       </c>
       <c r="I195" s="2" t="s">
-        <v>816</v>
+        <v>818</v>
       </c>
       <c r="J195" s="6" t="s">
         <v>964</v>
@@ -10939,9 +10972,9 @@
         <v>911</v>
       </c>
     </row>
-    <row r="196" spans="1:12" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:12" ht="165.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A196" s="6" t="s">
-        <v>836</v>
+        <v>841</v>
       </c>
       <c r="B196" s="10" t="s">
         <v>735</v>
@@ -10950,16 +10983,16 @@
         <v>805</v>
       </c>
       <c r="E196" s="8" t="s">
-        <v>826</v>
+        <v>820</v>
       </c>
       <c r="F196" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G196" s="2" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="I196" s="2" t="s">
-        <v>818</v>
+        <v>821</v>
       </c>
       <c r="J196" s="6" t="s">
         <v>964</v>
@@ -10967,10 +11000,13 @@
       <c r="K196" s="27" t="s">
         <v>911</v>
       </c>
+      <c r="L196" s="8" t="s">
+        <v>962</v>
+      </c>
     </row>
     <row r="197" spans="1:12" ht="165.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A197" s="6" t="s">
-        <v>841</v>
+        <v>845</v>
       </c>
       <c r="B197" s="10" t="s">
         <v>735</v>
@@ -10979,16 +11015,16 @@
         <v>805</v>
       </c>
       <c r="E197" s="8" t="s">
-        <v>820</v>
+        <v>823</v>
       </c>
       <c r="F197" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G197" s="2" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="I197" s="2" t="s">
-        <v>821</v>
+        <v>824</v>
       </c>
       <c r="J197" s="6" t="s">
         <v>964</v>
@@ -10996,13 +11032,10 @@
       <c r="K197" s="27" t="s">
         <v>911</v>
       </c>
-      <c r="L197" s="8" t="s">
-        <v>962</v>
-      </c>
-    </row>
-    <row r="198" spans="1:12" ht="165.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="198" spans="1:12" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A198" s="6" t="s">
-        <v>845</v>
+        <v>849</v>
       </c>
       <c r="B198" s="10" t="s">
         <v>735</v>
@@ -11011,16 +11044,16 @@
         <v>805</v>
       </c>
       <c r="E198" s="8" t="s">
-        <v>823</v>
+        <v>830</v>
       </c>
       <c r="F198" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G198" s="2" t="s">
-        <v>827</v>
+        <v>831</v>
       </c>
       <c r="I198" s="2" t="s">
-        <v>824</v>
+        <v>832</v>
       </c>
       <c r="J198" s="6" t="s">
         <v>964</v>
@@ -11029,9 +11062,9 @@
         <v>911</v>
       </c>
     </row>
-    <row r="199" spans="1:12" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:12" ht="180.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A199" s="6" t="s">
-        <v>849</v>
+        <v>854</v>
       </c>
       <c r="B199" s="10" t="s">
         <v>735</v>
@@ -11040,16 +11073,16 @@
         <v>805</v>
       </c>
       <c r="E199" s="8" t="s">
-        <v>830</v>
+        <v>837</v>
       </c>
       <c r="F199" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G199" s="2" t="s">
-        <v>831</v>
+        <v>834</v>
       </c>
       <c r="I199" s="2" t="s">
-        <v>832</v>
+        <v>835</v>
       </c>
       <c r="J199" s="6" t="s">
         <v>964</v>
@@ -11058,9 +11091,9 @@
         <v>911</v>
       </c>
     </row>
-    <row r="200" spans="1:12" ht="180.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:12" ht="210.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A200" s="6" t="s">
-        <v>854</v>
+        <v>858</v>
       </c>
       <c r="B200" s="10" t="s">
         <v>735</v>
@@ -11069,16 +11102,16 @@
         <v>805</v>
       </c>
       <c r="E200" s="8" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="F200" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G200" s="2" t="s">
-        <v>834</v>
+        <v>839</v>
       </c>
       <c r="I200" s="2" t="s">
-        <v>835</v>
+        <v>840</v>
       </c>
       <c r="J200" s="6" t="s">
         <v>964</v>
@@ -11087,9 +11120,9 @@
         <v>911</v>
       </c>
     </row>
-    <row r="201" spans="1:12" ht="210.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:12" ht="195.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A201" s="6" t="s">
-        <v>858</v>
+        <v>861</v>
       </c>
       <c r="B201" s="10" t="s">
         <v>735</v>
@@ -11098,16 +11131,16 @@
         <v>805</v>
       </c>
       <c r="E201" s="8" t="s">
-        <v>838</v>
+        <v>842</v>
       </c>
       <c r="F201" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G201" s="2" t="s">
-        <v>839</v>
+        <v>843</v>
       </c>
       <c r="I201" s="2" t="s">
-        <v>840</v>
+        <v>844</v>
       </c>
       <c r="J201" s="6" t="s">
         <v>964</v>
@@ -11116,9 +11149,9 @@
         <v>911</v>
       </c>
     </row>
-    <row r="202" spans="1:12" ht="195.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:12" ht="225.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A202" s="6" t="s">
-        <v>861</v>
+        <v>866</v>
       </c>
       <c r="B202" s="10" t="s">
         <v>735</v>
@@ -11127,27 +11160,27 @@
         <v>805</v>
       </c>
       <c r="E202" s="8" t="s">
-        <v>842</v>
+        <v>846</v>
       </c>
       <c r="F202" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G202" s="2" t="s">
-        <v>843</v>
+        <v>847</v>
       </c>
       <c r="I202" s="2" t="s">
-        <v>844</v>
+        <v>848</v>
       </c>
       <c r="J202" s="6" t="s">
-        <v>964</v>
-      </c>
-      <c r="K202" s="27" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="203" spans="1:12" ht="225.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>853</v>
+      </c>
+      <c r="L202" s="20" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="203" spans="1:12" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A203" s="6" t="s">
-        <v>866</v>
+        <v>870</v>
       </c>
       <c r="B203" s="10" t="s">
         <v>735</v>
@@ -11156,16 +11189,16 @@
         <v>805</v>
       </c>
       <c r="E203" s="8" t="s">
-        <v>846</v>
+        <v>850</v>
       </c>
       <c r="F203" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G203" s="2" t="s">
-        <v>847</v>
+        <v>851</v>
       </c>
       <c r="I203" s="2" t="s">
-        <v>848</v>
+        <v>852</v>
       </c>
       <c r="J203" s="6" t="s">
         <v>853</v>
@@ -11176,7 +11209,7 @@
     </row>
     <row r="204" spans="1:12" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A204" s="6" t="s">
-        <v>870</v>
+        <v>873</v>
       </c>
       <c r="B204" s="10" t="s">
         <v>735</v>
@@ -11185,27 +11218,27 @@
         <v>805</v>
       </c>
       <c r="E204" s="8" t="s">
-        <v>850</v>
+        <v>855</v>
       </c>
       <c r="F204" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G204" s="2" t="s">
-        <v>851</v>
+        <v>856</v>
       </c>
       <c r="I204" s="2" t="s">
-        <v>852</v>
+        <v>857</v>
       </c>
       <c r="J204" s="6" t="s">
-        <v>853</v>
-      </c>
-      <c r="L204" s="20" t="s">
-        <v>963</v>
-      </c>
-    </row>
-    <row r="205" spans="1:12" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>964</v>
+      </c>
+      <c r="K204" s="27" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="205" spans="1:12" ht="165.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A205" s="6" t="s">
-        <v>873</v>
+        <v>878</v>
       </c>
       <c r="B205" s="10" t="s">
         <v>735</v>
@@ -11214,16 +11247,16 @@
         <v>805</v>
       </c>
       <c r="E205" s="8" t="s">
-        <v>855</v>
+        <v>862</v>
       </c>
       <c r="F205" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G205" s="2" t="s">
-        <v>856</v>
+        <v>859</v>
       </c>
       <c r="I205" s="2" t="s">
-        <v>857</v>
+        <v>860</v>
       </c>
       <c r="J205" s="6" t="s">
         <v>964</v>
@@ -11232,9 +11265,9 @@
         <v>911</v>
       </c>
     </row>
-    <row r="206" spans="1:12" ht="165.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:12" ht="225.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A206" s="6" t="s">
-        <v>878</v>
+        <v>884</v>
       </c>
       <c r="B206" s="10" t="s">
         <v>735</v>
@@ -11243,27 +11276,27 @@
         <v>805</v>
       </c>
       <c r="E206" s="8" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="F206" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G206" s="2" t="s">
-        <v>859</v>
+        <v>864</v>
       </c>
       <c r="I206" s="2" t="s">
-        <v>860</v>
-      </c>
-      <c r="J206" s="6" t="s">
-        <v>964</v>
-      </c>
-      <c r="K206" s="27" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="207" spans="1:12" ht="225.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>865</v>
+      </c>
+      <c r="K206" s="26" t="s">
+        <v>909</v>
+      </c>
+      <c r="L206" s="20" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="207" spans="1:12" ht="240.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A207" s="6" t="s">
-        <v>884</v>
+        <v>905</v>
       </c>
       <c r="B207" s="10" t="s">
         <v>735</v>
@@ -11272,16 +11305,19 @@
         <v>805</v>
       </c>
       <c r="E207" s="8" t="s">
-        <v>863</v>
+        <v>867</v>
       </c>
       <c r="F207" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G207" s="2" t="s">
-        <v>864</v>
+        <v>868</v>
       </c>
       <c r="I207" s="2" t="s">
-        <v>865</v>
+        <v>869</v>
+      </c>
+      <c r="J207" s="6" t="s">
+        <v>853</v>
       </c>
       <c r="K207" s="26" t="s">
         <v>909</v>
@@ -11290,9 +11326,9 @@
         <v>965</v>
       </c>
     </row>
-    <row r="208" spans="1:12" ht="240.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:12" ht="165.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A208" s="6" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="B208" s="10" t="s">
         <v>735</v>
@@ -11301,80 +11337,77 @@
         <v>805</v>
       </c>
       <c r="E208" s="8" t="s">
-        <v>867</v>
+        <v>820</v>
       </c>
       <c r="F208" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G208" s="2" t="s">
-        <v>868</v>
+        <v>871</v>
       </c>
       <c r="I208" s="2" t="s">
-        <v>869</v>
-      </c>
-      <c r="J208" s="6" t="s">
-        <v>853</v>
-      </c>
-      <c r="K208" s="26" t="s">
+        <v>872</v>
+      </c>
+      <c r="J208" s="8" t="s">
+        <v>966</v>
+      </c>
+      <c r="K208" s="20" t="s">
         <v>909</v>
       </c>
       <c r="L208" s="20" t="s">
-        <v>965</v>
-      </c>
-    </row>
-    <row r="209" spans="1:12" ht="165.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="209" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A209" s="6" t="s">
-        <v>906</v>
-      </c>
-      <c r="B209" s="10" t="s">
-        <v>735</v>
-      </c>
-      <c r="C209" s="8" t="s">
-        <v>805</v>
+        <v>907</v>
+      </c>
+      <c r="B209" s="6" t="s">
+        <v>874</v>
+      </c>
+      <c r="C209" s="6" t="s">
+        <v>874</v>
       </c>
       <c r="E209" s="8" t="s">
-        <v>820</v>
+        <v>879</v>
       </c>
       <c r="F209" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G209" s="2" t="s">
-        <v>871</v>
+        <v>880</v>
       </c>
       <c r="I209" s="2" t="s">
-        <v>872</v>
-      </c>
-      <c r="J209" s="8" t="s">
-        <v>966</v>
-      </c>
-      <c r="K209" s="20" t="s">
-        <v>909</v>
-      </c>
-      <c r="L209" s="20" t="s">
-        <v>967</v>
-      </c>
-    </row>
-    <row r="210" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+        <v>881</v>
+      </c>
+      <c r="J209" s="6" t="s">
+        <v>964</v>
+      </c>
+      <c r="K209" s="22" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="210" spans="1:11" ht="180" x14ac:dyDescent="0.25">
       <c r="A210" s="6" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="B210" s="6" t="s">
         <v>874</v>
       </c>
-      <c r="C210" s="6" t="s">
-        <v>874</v>
+      <c r="C210" s="8" t="s">
+        <v>875</v>
       </c>
       <c r="E210" s="8" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
       <c r="F210" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G210" s="2" t="s">
-        <v>880</v>
+        <v>882</v>
       </c>
       <c r="I210" s="2" t="s">
-        <v>881</v>
+        <v>883</v>
       </c>
       <c r="J210" s="6" t="s">
         <v>964</v>
@@ -11383,27 +11416,27 @@
         <v>911</v>
       </c>
     </row>
-    <row r="211" spans="1:12" ht="180" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A211" s="6" t="s">
-        <v>908</v>
+        <v>917</v>
       </c>
       <c r="B211" s="6" t="s">
         <v>874</v>
       </c>
       <c r="C211" s="8" t="s">
-        <v>875</v>
+        <v>885</v>
       </c>
       <c r="E211" s="8" t="s">
-        <v>876</v>
+        <v>886</v>
       </c>
       <c r="F211" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G211" s="2" t="s">
-        <v>882</v>
+        <v>877</v>
       </c>
       <c r="I211" s="2" t="s">
-        <v>883</v>
+        <v>887</v>
       </c>
       <c r="J211" s="6" t="s">
         <v>964</v>
@@ -11412,37 +11445,8 @@
         <v>911</v>
       </c>
     </row>
-    <row r="212" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A212" s="6" t="s">
-        <v>917</v>
-      </c>
-      <c r="B212" s="6" t="s">
-        <v>874</v>
-      </c>
-      <c r="C212" s="8" t="s">
-        <v>885</v>
-      </c>
-      <c r="E212" s="8" t="s">
-        <v>886</v>
-      </c>
-      <c r="F212" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="G212" s="2" t="s">
-        <v>877</v>
-      </c>
-      <c r="I212" s="2" t="s">
-        <v>887</v>
-      </c>
-      <c r="J212" s="6" t="s">
-        <v>964</v>
-      </c>
-      <c r="K212" s="22" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="213" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E213" s="8"/>
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E212" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11460,17 +11464,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.85546875" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" customWidth="1"/>
-    <col min="3" max="3" width="16.85546875" customWidth="1"/>
-    <col min="4" max="4" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="31.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="29" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="37.5703125" customWidth="1"/>
-    <col min="8" max="8" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="37.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.85546875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11.28515625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="16.85546875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="17.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="31.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="29" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="37.5703125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="26.140625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="37.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="12.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="19.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">

--- a/Advantage Test Cases.xlsx
+++ b/Advantage Test Cases.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3785" uniqueCount="1019">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3790" uniqueCount="1025">
   <si>
     <t>Test Objective</t>
   </si>
@@ -4784,12 +4784,31 @@
   <si>
     <t>fn_RemoveImg</t>
   </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>fn_CancelProfilePage</t>
+  </si>
+  <si>
+    <t>fn_ChangePassword</t>
+  </si>
+  <si>
+    <t>fn_ChangeCurrentPassword</t>
+  </si>
+  <si>
+    <t>fn_ValidationPassword</t>
+  </si>
+  <si>
+    <t>fh_CancelChangePassword</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5260,24 +5279,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA212"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F16" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.140625" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="18.42578125" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="16.5703125" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="16.5703125" style="8" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="31.85546875" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="33.5703125" style="6" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="42.7109375" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="25.28515625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="41.140625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="26" style="6" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="11.42578125" style="6" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="24.28515625" style="8" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="6" width="12.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="6" width="18.42578125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="6" width="16.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="8" width="16.5703125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="6" width="31.85546875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="6" width="33.5703125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="42.7109375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="25.28515625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="41.140625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="6" width="26.0" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="6" width="11.42578125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="8" width="24.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -5760,8 +5779,8 @@
       <c r="J18" s="8" t="s">
         <v>922</v>
       </c>
-      <c r="K18" s="19" t="s">
-        <v>909</v>
+      <c r="K18" t="s">
+        <v>1019</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5792,8 +5811,8 @@
       <c r="J19" s="6" t="s">
         <v>972</v>
       </c>
-      <c r="K19" s="6" t="s">
-        <v>911</v>
+      <c r="K19" t="s">
+        <v>1012</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5806,6 +5825,9 @@
       <c r="C20" s="6" t="s">
         <v>39</v>
       </c>
+      <c r="D20" s="8" t="s">
+        <v>1020</v>
+      </c>
       <c r="E20" s="8" t="s">
         <v>89</v>
       </c>
@@ -5821,8 +5843,8 @@
       <c r="J20" s="6" t="s">
         <v>972</v>
       </c>
-      <c r="K20" s="6" t="s">
-        <v>911</v>
+      <c r="K20" t="s">
+        <v>1012</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="120" x14ac:dyDescent="0.25">
@@ -5835,6 +5857,9 @@
       <c r="C21" s="6" t="s">
         <v>54</v>
       </c>
+      <c r="D21" s="8" t="s">
+        <v>1021</v>
+      </c>
       <c r="E21" s="8" t="s">
         <v>56</v>
       </c>
@@ -5850,13 +5875,13 @@
       <c r="J21" s="6" t="s">
         <v>972</v>
       </c>
-      <c r="K21" s="6" t="s">
-        <v>911</v>
+      <c r="K21" t="s">
+        <v>1012</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="120" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B22" s="6" t="s">
         <v>42</v>
@@ -5864,6 +5889,9 @@
       <c r="C22" s="6" t="s">
         <v>54</v>
       </c>
+      <c r="D22" s="8" t="s">
+        <v>1022</v>
+      </c>
       <c r="E22" s="8" t="s">
         <v>59</v>
       </c>
@@ -5879,13 +5907,13 @@
       <c r="J22" s="6" t="s">
         <v>972</v>
       </c>
-      <c r="K22" s="6" t="s">
-        <v>911</v>
+      <c r="K22" t="s">
+        <v>1012</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="105" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B23" s="6" t="s">
         <v>42</v>
@@ -5893,6 +5921,9 @@
       <c r="C23" s="6" t="s">
         <v>54</v>
       </c>
+      <c r="D23" s="8" t="s">
+        <v>1023</v>
+      </c>
       <c r="E23" s="8" t="s">
         <v>63</v>
       </c>
@@ -5908,13 +5939,13 @@
       <c r="J23" s="6" t="s">
         <v>972</v>
       </c>
-      <c r="K23" s="6" t="s">
-        <v>911</v>
+      <c r="K23" t="s">
+        <v>1012</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B24" s="6" t="s">
         <v>42</v>
@@ -5923,7 +5954,7 @@
         <v>54</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>1004</v>
+        <v>1024</v>
       </c>
       <c r="E24" s="8" t="s">
         <v>65</v>
@@ -5940,13 +5971,13 @@
       <c r="J24" s="6" t="s">
         <v>972</v>
       </c>
-      <c r="K24" s="6" t="s">
-        <v>911</v>
+      <c r="K24" t="s">
+        <v>1012</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="180" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B25" s="6" t="s">
         <v>9</v>
@@ -5975,7 +6006,7 @@
     </row>
     <row r="26" spans="1:12" ht="210" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="B26" s="6" t="s">
         <v>9</v>
@@ -6004,7 +6035,7 @@
     </row>
     <row r="27" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B27" s="6" t="s">
         <v>102</v>
@@ -6033,7 +6064,7 @@
     </row>
     <row r="28" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B28" s="6" t="s">
         <v>42</v>
@@ -6062,7 +6093,7 @@
     </row>
     <row r="29" spans="1:12" ht="315" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B29" s="6" t="s">
         <v>42</v>
@@ -6091,7 +6122,7 @@
     </row>
     <row r="30" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="B30" s="6" t="s">
         <v>42</v>
@@ -6120,7 +6151,7 @@
     </row>
     <row r="31" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="B31" s="6" t="s">
         <v>120</v>
@@ -6149,7 +6180,7 @@
     </row>
     <row r="32" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="B32" s="6" t="s">
         <v>120</v>
@@ -6178,7 +6209,7 @@
     </row>
     <row r="33" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="B33" s="6" t="s">
         <v>120</v>
@@ -6207,7 +6238,7 @@
     </row>
     <row r="34" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="B34" s="6" t="s">
         <v>120</v>
@@ -6236,7 +6267,7 @@
     </row>
     <row r="35" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="B35" s="6" t="s">
         <v>120</v>
@@ -6265,7 +6296,7 @@
     </row>
     <row r="36" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B36" s="6" t="s">
         <v>120</v>
@@ -6297,7 +6328,7 @@
     </row>
     <row r="37" spans="1:12" ht="120" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="B37" s="6" t="s">
         <v>154</v>
@@ -6329,7 +6360,7 @@
     </row>
     <row r="38" spans="1:12" ht="180" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B38" s="6" t="s">
         <v>154</v>
@@ -6358,7 +6389,7 @@
     </row>
     <row r="39" spans="1:12" ht="195" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="B39" s="6" t="s">
         <v>154</v>
@@ -6387,7 +6418,7 @@
     </row>
     <row r="40" spans="1:12" ht="120" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="B40" s="6" t="s">
         <v>154</v>
@@ -6419,7 +6450,7 @@
     </row>
     <row r="41" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="B41" s="8" t="s">
         <v>174</v>
@@ -6448,7 +6479,7 @@
     </row>
     <row r="42" spans="1:12" ht="270" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B42" s="8" t="s">
         <v>174</v>
@@ -6483,7 +6514,7 @@
     </row>
     <row r="43" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="B43" s="8" t="s">
         <v>174</v>
@@ -6512,7 +6543,7 @@
     </row>
     <row r="44" spans="1:12" ht="105" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B44" s="8" t="s">
         <v>174</v>
@@ -6541,7 +6572,7 @@
     </row>
     <row r="45" spans="1:12" ht="120" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="B45" s="8" t="s">
         <v>174</v>
@@ -6570,7 +6601,7 @@
     </row>
     <row r="46" spans="1:12" ht="120" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="B46" s="8" t="s">
         <v>174</v>
@@ -6599,7 +6630,7 @@
     </row>
     <row r="47" spans="1:12" ht="120" x14ac:dyDescent="0.25">
       <c r="A47" s="6" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="B47" s="8" t="s">
         <v>174</v>
@@ -6628,7 +6659,7 @@
     </row>
     <row r="48" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A48" s="6" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B48" s="6" t="s">
         <v>208</v>
@@ -6657,7 +6688,7 @@
     </row>
     <row r="49" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A49" s="6" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="B49" s="6" t="s">
         <v>208</v>
@@ -6689,7 +6720,7 @@
     </row>
     <row r="50" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="B50" s="6" t="s">
         <v>208</v>
@@ -6718,7 +6749,7 @@
     </row>
     <row r="51" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A51" s="6" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="B51" s="6" t="s">
         <v>208</v>
@@ -6747,7 +6778,7 @@
     </row>
     <row r="52" spans="1:12" ht="105" x14ac:dyDescent="0.25">
       <c r="A52" s="6" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="B52" s="6" t="s">
         <v>208</v>
@@ -6776,7 +6807,7 @@
     </row>
     <row r="53" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A53" s="6" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B53" s="6" t="s">
         <v>208</v>
@@ -6802,7 +6833,7 @@
     </row>
     <row r="54" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A54" s="6" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B54" s="6" t="s">
         <v>208</v>
@@ -6837,7 +6868,7 @@
     </row>
     <row r="55" spans="1:12" ht="285" x14ac:dyDescent="0.25">
       <c r="A55" s="6" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="B55" s="6" t="s">
         <v>208</v>
@@ -6866,7 +6897,7 @@
     </row>
     <row r="56" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A56" s="6" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="B56" s="6" t="s">
         <v>208</v>
@@ -6895,7 +6926,7 @@
     </row>
     <row r="57" spans="1:12" ht="105" x14ac:dyDescent="0.25">
       <c r="A57" s="6" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B57" s="6" t="s">
         <v>208</v>
@@ -6924,7 +6955,7 @@
     </row>
     <row r="58" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A58" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B58" s="6" t="s">
         <v>208</v>
@@ -6953,7 +6984,7 @@
     </row>
     <row r="59" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A59" s="6" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="B59" s="6" t="s">
         <v>208</v>
@@ -6982,7 +7013,7 @@
     </row>
     <row r="60" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A60" s="6" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="B60" s="6" t="s">
         <v>208</v>
@@ -7011,7 +7042,7 @@
     </row>
     <row r="61" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A61" s="6" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="B61" s="6" t="s">
         <v>208</v>
@@ -7040,7 +7071,7 @@
     </row>
     <row r="62" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A62" s="6" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="B62" s="6" t="s">
         <v>208</v>
@@ -7069,7 +7100,7 @@
     </row>
     <row r="63" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A63" s="6" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="B63" s="6" t="s">
         <v>208</v>
@@ -7098,7 +7129,7 @@
     </row>
     <row r="64" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A64" s="6" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="B64" s="6" t="s">
         <v>277</v>
@@ -7127,7 +7158,7 @@
     </row>
     <row r="65" spans="1:15" ht="180" x14ac:dyDescent="0.25">
       <c r="A65" s="6" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B65" s="6" t="s">
         <v>277</v>
@@ -7156,7 +7187,7 @@
     </row>
     <row r="66" spans="1:15" ht="255" x14ac:dyDescent="0.25">
       <c r="A66" s="6" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="B66" s="6" t="s">
         <v>277</v>
@@ -7185,7 +7216,7 @@
     </row>
     <row r="67" spans="1:15" ht="285" x14ac:dyDescent="0.25">
       <c r="A67" s="6" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B67" s="6" t="s">
         <v>277</v>
@@ -7214,7 +7245,7 @@
     </row>
     <row r="68" spans="1:15" ht="315" x14ac:dyDescent="0.25">
       <c r="A68" s="6" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="B68" s="6" t="s">
         <v>277</v>
@@ -7243,7 +7274,7 @@
     </row>
     <row r="69" spans="1:15" ht="180" x14ac:dyDescent="0.25">
       <c r="A69" s="6" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="B69" s="6" t="s">
         <v>277</v>
@@ -7272,7 +7303,7 @@
     </row>
     <row r="70" spans="1:15" ht="270" x14ac:dyDescent="0.25">
       <c r="A70" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B70" s="6" t="s">
         <v>277</v>
@@ -7301,7 +7332,7 @@
     </row>
     <row r="71" spans="1:15" ht="300" x14ac:dyDescent="0.25">
       <c r="A71" s="6" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="B71" s="6" t="s">
         <v>277</v>
@@ -7330,7 +7361,7 @@
     </row>
     <row r="72" spans="1:15" ht="360" x14ac:dyDescent="0.25">
       <c r="A72" s="6" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="B72" s="6" t="s">
         <v>277</v>
@@ -7359,7 +7390,7 @@
     </row>
     <row r="73" spans="1:15" ht="105" x14ac:dyDescent="0.25">
       <c r="A73" s="6" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="B73" s="6" t="s">
         <v>277</v>
@@ -7388,7 +7419,7 @@
     </row>
     <row r="74" spans="1:15" ht="180" x14ac:dyDescent="0.25">
       <c r="A74" s="6" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B74" s="6" t="s">
         <v>277</v>
@@ -7417,7 +7448,7 @@
     </row>
     <row r="75" spans="1:15" ht="225" x14ac:dyDescent="0.25">
       <c r="A75" s="6" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B75" s="6" t="s">
         <v>277</v>
@@ -7446,7 +7477,7 @@
     </row>
     <row r="76" spans="1:15" ht="300" x14ac:dyDescent="0.25">
       <c r="A76" s="6" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="B76" s="6" t="s">
         <v>277</v>
@@ -7479,7 +7510,7 @@
     </row>
     <row r="77" spans="1:15" ht="135" x14ac:dyDescent="0.25">
       <c r="A77" s="6" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="B77" s="6" t="s">
         <v>277</v>
@@ -7508,7 +7539,7 @@
     </row>
     <row r="78" spans="1:15" ht="180" x14ac:dyDescent="0.25">
       <c r="A78" s="6" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="B78" s="6" t="s">
         <v>277</v>
@@ -7537,7 +7568,7 @@
     </row>
     <row r="79" spans="1:15" ht="195" x14ac:dyDescent="0.25">
       <c r="A79" s="6" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="B79" s="6" t="s">
         <v>277</v>
@@ -7566,7 +7597,7 @@
     </row>
     <row r="80" spans="1:15" ht="285" x14ac:dyDescent="0.25">
       <c r="A80" s="6" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B80" s="6" t="s">
         <v>277</v>
@@ -7598,7 +7629,7 @@
     </row>
     <row r="81" spans="1:13" ht="105" x14ac:dyDescent="0.25">
       <c r="A81" s="6" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="B81" s="6" t="s">
         <v>277</v>
@@ -7627,7 +7658,7 @@
     </row>
     <row r="82" spans="1:13" ht="165" x14ac:dyDescent="0.25">
       <c r="A82" s="6" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="B82" s="6" t="s">
         <v>277</v>
@@ -7656,7 +7687,7 @@
     </row>
     <row r="83" spans="1:13" ht="195" x14ac:dyDescent="0.25">
       <c r="A83" s="6" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="B83" s="6" t="s">
         <v>277</v>
@@ -7685,7 +7716,7 @@
     </row>
     <row r="84" spans="1:13" ht="240" x14ac:dyDescent="0.25">
       <c r="A84" s="6" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="B84" s="6" t="s">
         <v>277</v>
@@ -7714,7 +7745,7 @@
     </row>
     <row r="85" spans="1:13" ht="270" x14ac:dyDescent="0.25">
       <c r="A85" s="6" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="B85" s="6" t="s">
         <v>277</v>
@@ -7743,7 +7774,7 @@
     </row>
     <row r="86" spans="1:13" ht="90" x14ac:dyDescent="0.25">
       <c r="A86" s="6" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="B86" s="6" t="s">
         <v>277</v>
@@ -7770,7 +7801,7 @@
     </row>
     <row r="87" spans="1:13" ht="105" x14ac:dyDescent="0.25">
       <c r="A87" s="6" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="B87" s="6" t="s">
         <v>277</v>
@@ -7797,7 +7828,7 @@
     </row>
     <row r="88" spans="1:13" ht="105" x14ac:dyDescent="0.25">
       <c r="A88" s="6" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B88" s="6" t="s">
         <v>277</v>
@@ -7821,7 +7852,7 @@
     </row>
     <row r="89" spans="1:13" ht="360" x14ac:dyDescent="0.25">
       <c r="A89" s="6" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="B89" s="6" t="s">
         <v>277</v>
@@ -11464,17 +11495,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.85546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11.28515625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="16.85546875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="17.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="31.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="29" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="37.5703125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="26.140625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="37.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="12.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="19.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="20.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="16.85546875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="17.5703125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="31.85546875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="29.0" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="37.5703125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="26.140625" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="37.5703125" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="12.5703125" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="19.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">

--- a/Advantage Test Cases.xlsx
+++ b/Advantage Test Cases.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3790" uniqueCount="1025">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3805" uniqueCount="1033">
   <si>
     <t>Test Objective</t>
   </si>
@@ -4800,7 +4800,46 @@
     <t>fn_ValidationPassword</t>
   </si>
   <si>
-    <t>fh_CancelChangePassword</t>
+    <t>fn_CancelChangePassword</t>
+  </si>
+  <si>
+    <t>fn_ForgotPassword</t>
+  </si>
+  <si>
+    <t>fn_ValidationForgotPassFields</t>
+  </si>
+  <si>
+    <t>1. Go to left hand side of the header
+2. Go to right hand side of the header</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Go to Sign In screen
+2. Click Forgot password?
+3. Don't enter Login Name and keep all details valid then click Continue
+4. Don't select Security Question and keep all details valid then click Continue
+5. Don't enter Security Answer and keep all details valid then click Continue
+6. Enter and select all details correct then click Continue
+7. In new screen keep New Password and Confirm Password empty then click Update
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Sign In page should come
+2. Forgot Password page should come
+3. Alert to enter valid Login name should come
+4. Alert to select valid Security question should come
+5. Alert to enter valid Security answer should come
+6. New Screen of Forgot Password should be opened
+7. Alert to enter New password and Confirm password should come 
+</t>
+  </si>
+  <si>
+    <t>fn_InvalidValidationForgotPassFields</t>
+  </si>
+  <si>
+    <t>If fill login name invalid as t2 or abc and keep security question &amp; answer valid then click Continue, validation should come for invalid login name instead of security question/answer</t>
+  </si>
+  <si>
+    <t>fn_SignOut</t>
   </si>
 </sst>
 </file>
@@ -5277,10 +5316,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA212"/>
+  <dimension ref="A1:AA213"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" topLeftCell="F27" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5985,6 +6024,9 @@
       <c r="C25" s="6" t="s">
         <v>93</v>
       </c>
+      <c r="D25" s="8" t="s">
+        <v>1025</v>
+      </c>
       <c r="E25" s="8" t="s">
         <v>94</v>
       </c>
@@ -6000,11 +6042,11 @@
       <c r="J25" s="6" t="s">
         <v>972</v>
       </c>
-      <c r="K25" s="6" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" ht="210" x14ac:dyDescent="0.25">
+      <c r="K25" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="195" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
         <v>101</v>
       </c>
@@ -6014,6 +6056,9 @@
       <c r="C26" s="6" t="s">
         <v>93</v>
       </c>
+      <c r="D26" s="8" t="s">
+        <v>1026</v>
+      </c>
       <c r="E26" s="8" t="s">
         <v>98</v>
       </c>
@@ -6021,77 +6066,89 @@
         <v>12</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>99</v>
+        <v>1028</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>100</v>
+        <v>1029</v>
       </c>
       <c r="J26" s="8" t="s">
         <v>923</v>
       </c>
+      <c r="K26" t="s">
+        <v>1012</v>
+      </c>
       <c r="L26" s="20" t="s">
         <v>989</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" ht="210" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
         <v>113</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>102</v>
+        <v>9</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="E27" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="F27" s="6" t="s">
-        <v>38</v>
+        <v>93</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>1030</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>12</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="J27" s="6" t="s">
-        <v>972</v>
-      </c>
-      <c r="K27" s="6" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+      <c r="J27" s="8" t="s">
+        <v>923</v>
+      </c>
+      <c r="K27" t="s">
+        <v>1012</v>
+      </c>
+      <c r="L27" s="20" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
         <v>114</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>42</v>
+        <v>102</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="E28" s="8" t="s">
-        <v>107</v>
+        <v>102</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>1032</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>103</v>
       </c>
       <c r="F28" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="J28" s="6" t="s">
         <v>972</v>
       </c>
-      <c r="K28" s="6" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" ht="315" x14ac:dyDescent="0.25">
+      <c r="K28" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
         <v>115</v>
       </c>
@@ -6099,19 +6156,19 @@
         <v>42</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F29" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>112</v>
+        <v>1027</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>924</v>
+        <v>109</v>
       </c>
       <c r="J29" s="6" t="s">
         <v>972</v>
@@ -6120,27 +6177,27 @@
         <v>911</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" ht="315" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
         <v>119</v>
       </c>
       <c r="B30" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C30" s="8" t="s">
-        <v>116</v>
+      <c r="C30" s="6" t="s">
+        <v>111</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="F30" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>118</v>
+        <v>924</v>
       </c>
       <c r="J30" s="6" t="s">
         <v>972</v>
@@ -6149,27 +6206,27 @@
         <v>911</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
         <v>125</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>120</v>
+        <v>42</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="F31" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="J31" s="6" t="s">
         <v>972</v>
@@ -6178,7 +6235,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
         <v>131</v>
       </c>
@@ -6186,19 +6243,19 @@
         <v>120</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F32" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="J32" s="6" t="s">
         <v>972</v>
@@ -6207,7 +6264,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="33" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
         <v>136</v>
       </c>
@@ -6215,19 +6272,19 @@
         <v>120</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F33" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="J33" s="6" t="s">
         <v>972</v>
@@ -6236,7 +6293,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="34" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
         <v>143</v>
       </c>
@@ -6244,19 +6301,19 @@
         <v>120</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="E34" s="8" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="F34" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="J34" s="6" t="s">
         <v>972</v>
@@ -6273,19 +6330,19 @@
         <v>120</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="F35" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="J35" s="6" t="s">
         <v>972</v>
@@ -6294,7 +6351,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="36" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
         <v>153</v>
       </c>
@@ -6302,19 +6359,19 @@
         <v>120</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="E36" s="8" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="F36" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="J36" s="6" t="s">
         <v>972</v>
@@ -6322,31 +6379,28 @@
       <c r="K36" s="6" t="s">
         <v>911</v>
       </c>
-      <c r="L36" s="20" t="s">
-        <v>988</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" ht="120" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
         <v>157</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>154</v>
+        <v>120</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="E37" s="8" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="F37" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="J37" s="6" t="s">
         <v>972</v>
@@ -6354,11 +6408,11 @@
       <c r="K37" s="6" t="s">
         <v>911</v>
       </c>
-      <c r="L37" s="8" t="s">
-        <v>987</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" ht="180" x14ac:dyDescent="0.25">
+      <c r="L37" s="20" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" ht="120" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
         <v>163</v>
       </c>
@@ -6366,19 +6420,19 @@
         <v>154</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="E38" s="8" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="F38" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="J38" s="6" t="s">
         <v>972</v>
@@ -6386,8 +6440,11 @@
       <c r="K38" s="6" t="s">
         <v>911</v>
       </c>
-    </row>
-    <row r="39" spans="1:12" ht="195" x14ac:dyDescent="0.25">
+      <c r="L38" s="8" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" ht="180" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
         <v>165</v>
       </c>
@@ -6398,16 +6455,16 @@
         <v>160</v>
       </c>
       <c r="E39" s="8" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="F39" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="J39" s="6" t="s">
         <v>972</v>
@@ -6416,7 +6473,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="40" spans="1:12" ht="120" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" ht="195" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
         <v>173</v>
       </c>
@@ -6424,19 +6481,19 @@
         <v>154</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="E40" s="8" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="F40" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="J40" s="6" t="s">
         <v>972</v>
@@ -6444,31 +6501,28 @@
       <c r="K40" s="6" t="s">
         <v>911</v>
       </c>
-      <c r="L40" s="8" t="s">
-        <v>986</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:12" ht="120" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="B41" s="8" t="s">
-        <v>174</v>
+      <c r="B41" s="6" t="s">
+        <v>154</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="E41" s="8" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="F41" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="J41" s="6" t="s">
         <v>972</v>
@@ -6476,34 +6530,31 @@
       <c r="K41" s="6" t="s">
         <v>911</v>
       </c>
-    </row>
-    <row r="42" spans="1:12" ht="270" x14ac:dyDescent="0.25">
+      <c r="L41" s="8" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
         <v>184</v>
       </c>
       <c r="B42" s="8" t="s">
         <v>174</v>
       </c>
-      <c r="C42" s="6" t="s">
-        <v>180</v>
-      </c>
-      <c r="D42" s="8" t="s">
-        <v>998</v>
-      </c>
-      <c r="E42" s="6" t="s">
-        <v>181</v>
+      <c r="C42" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="E42" s="8" t="s">
+        <v>176</v>
       </c>
       <c r="F42" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="H42" s="8" t="s">
-        <v>196</v>
+        <v>177</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="J42" s="6" t="s">
         <v>972</v>
@@ -6512,7 +6563,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="43" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" ht="270" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
         <v>188</v>
       </c>
@@ -6522,17 +6573,23 @@
       <c r="C43" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="E43" s="8" t="s">
-        <v>185</v>
+      <c r="D43" s="8" t="s">
+        <v>998</v>
+      </c>
+      <c r="E43" s="6" t="s">
+        <v>181</v>
       </c>
       <c r="F43" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>186</v>
+        <v>182</v>
+      </c>
+      <c r="H43" s="8" t="s">
+        <v>196</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="J43" s="6" t="s">
         <v>972</v>
@@ -6541,7 +6598,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="44" spans="1:12" ht="105" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
         <v>194</v>
       </c>
@@ -6552,16 +6609,16 @@
         <v>180</v>
       </c>
       <c r="E44" s="8" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="F44" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="J44" s="6" t="s">
         <v>972</v>
@@ -6570,33 +6627,33 @@
         <v>911</v>
       </c>
     </row>
-    <row r="45" spans="1:12" ht="120" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" ht="105" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
         <v>195</v>
       </c>
       <c r="B45" s="8" t="s">
         <v>174</v>
       </c>
-      <c r="C45" s="8" t="s">
-        <v>189</v>
-      </c>
-      <c r="E45" s="6" t="s">
-        <v>190</v>
+      <c r="C45" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="E45" s="8" t="s">
+        <v>191</v>
       </c>
       <c r="F45" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="K45" s="19" t="s">
-        <v>909</v>
-      </c>
-      <c r="L45" s="20" t="s">
-        <v>926</v>
+        <v>193</v>
+      </c>
+      <c r="J45" s="6" t="s">
+        <v>972</v>
+      </c>
+      <c r="K45" s="6" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="46" spans="1:12" ht="120" x14ac:dyDescent="0.25">
@@ -6609,23 +6666,23 @@
       <c r="C46" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="E46" s="8" t="s">
-        <v>199</v>
+      <c r="E46" s="6" t="s">
+        <v>190</v>
       </c>
       <c r="F46" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="J46" s="6" t="s">
-        <v>972</v>
-      </c>
-      <c r="K46" s="6" t="s">
-        <v>911</v>
+        <v>198</v>
+      </c>
+      <c r="K46" s="19" t="s">
+        <v>909</v>
+      </c>
+      <c r="L46" s="20" t="s">
+        <v>926</v>
       </c>
     </row>
     <row r="47" spans="1:12" ht="120" x14ac:dyDescent="0.25">
@@ -6636,19 +6693,19 @@
         <v>174</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>203</v>
-      </c>
-      <c r="E47" s="6" t="s">
-        <v>204</v>
+        <v>189</v>
+      </c>
+      <c r="E47" s="8" t="s">
+        <v>199</v>
       </c>
       <c r="F47" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="J47" s="6" t="s">
         <v>972</v>
@@ -6657,27 +6714,27 @@
         <v>911</v>
       </c>
     </row>
-    <row r="48" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" ht="120" x14ac:dyDescent="0.25">
       <c r="A48" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="B48" s="6" t="s">
-        <v>208</v>
+      <c r="B48" s="8" t="s">
+        <v>174</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>209</v>
-      </c>
-      <c r="E48" s="8" t="s">
-        <v>210</v>
+        <v>203</v>
+      </c>
+      <c r="E48" s="6" t="s">
+        <v>204</v>
       </c>
       <c r="F48" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="J48" s="6" t="s">
         <v>972</v>
@@ -6686,7 +6743,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="49" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A49" s="6" t="s">
         <v>215</v>
       </c>
@@ -6697,16 +6754,16 @@
         <v>209</v>
       </c>
       <c r="E49" s="8" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="F49" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="J49" s="6" t="s">
         <v>972</v>
@@ -6714,11 +6771,8 @@
       <c r="K49" s="6" t="s">
         <v>911</v>
       </c>
-      <c r="L49" s="20" t="s">
-        <v>927</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
         <v>220</v>
       </c>
@@ -6729,25 +6783,28 @@
         <v>209</v>
       </c>
       <c r="E50" s="8" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="F50" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>232</v>
+        <v>217</v>
+      </c>
+      <c r="J50" s="6" t="s">
+        <v>972</v>
       </c>
       <c r="K50" s="6" t="s">
         <v>911</v>
       </c>
       <c r="L50" s="20" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A51" s="6" t="s">
         <v>224</v>
       </c>
@@ -6755,28 +6812,28 @@
         <v>208</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="E51" s="8" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="F51" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="J51" s="8" t="s">
-        <v>985</v>
-      </c>
-      <c r="L51" s="8" t="s">
-        <v>928</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12" ht="105" x14ac:dyDescent="0.25">
+        <v>232</v>
+      </c>
+      <c r="K51" s="6" t="s">
+        <v>911</v>
+      </c>
+      <c r="L51" s="20" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A52" s="6" t="s">
         <v>228</v>
       </c>
@@ -6784,28 +6841,28 @@
         <v>208</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="E52" s="8" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="F52" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="J52" s="6" t="s">
-        <v>972</v>
-      </c>
-      <c r="K52" s="6" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+        <v>233</v>
+      </c>
+      <c r="J52" s="8" t="s">
+        <v>985</v>
+      </c>
+      <c r="L52" s="8" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" ht="105" x14ac:dyDescent="0.25">
       <c r="A53" s="6" t="s">
         <v>236</v>
       </c>
@@ -6813,22 +6870,25 @@
         <v>208</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="E53" s="8" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F53" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="L53" s="8" t="s">
-        <v>929</v>
+        <v>234</v>
+      </c>
+      <c r="J53" s="6" t="s">
+        <v>972</v>
+      </c>
+      <c r="K53" s="6" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="54" spans="1:12" ht="90" x14ac:dyDescent="0.25">
@@ -6839,34 +6899,25 @@
         <v>208</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>237</v>
-      </c>
-      <c r="D54" s="8" t="s">
-        <v>1007</v>
+        <v>230</v>
       </c>
       <c r="E54" s="8" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="F54" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>981</v>
+        <v>231</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>982</v>
-      </c>
-      <c r="J54" s="8" t="s">
-        <v>984</v>
-      </c>
-      <c r="K54" s="19" t="s">
-        <v>909</v>
-      </c>
-      <c r="L54" s="20" t="s">
-        <v>983</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12" ht="285" x14ac:dyDescent="0.25">
+        <v>235</v>
+      </c>
+      <c r="L54" s="8" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A55" s="6" t="s">
         <v>241</v>
       </c>
@@ -6874,28 +6925,34 @@
         <v>208</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>240</v>
+        <v>237</v>
+      </c>
+      <c r="D55" s="8" t="s">
+        <v>1007</v>
       </c>
       <c r="E55" s="8" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="F55" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>243</v>
+        <v>981</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>244</v>
+        <v>982</v>
+      </c>
+      <c r="J55" s="8" t="s">
+        <v>984</v>
       </c>
       <c r="K55" s="19" t="s">
         <v>909</v>
       </c>
       <c r="L55" s="20" t="s">
-        <v>930</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" ht="285" x14ac:dyDescent="0.25">
       <c r="A56" s="6" t="s">
         <v>248</v>
       </c>
@@ -6906,25 +6963,25 @@
         <v>240</v>
       </c>
       <c r="E56" s="8" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F56" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="J56" s="6" t="s">
-        <v>972</v>
-      </c>
-      <c r="K56" s="6" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12" ht="105" x14ac:dyDescent="0.25">
+        <v>244</v>
+      </c>
+      <c r="K56" s="19" t="s">
+        <v>909</v>
+      </c>
+      <c r="L56" s="20" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A57" s="6" t="s">
         <v>255</v>
       </c>
@@ -6934,17 +6991,17 @@
       <c r="C57" s="8" t="s">
         <v>240</v>
       </c>
-      <c r="E57" s="6" t="s">
-        <v>270</v>
+      <c r="E57" s="8" t="s">
+        <v>245</v>
       </c>
       <c r="F57" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>269</v>
+        <v>246</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>271</v>
+        <v>247</v>
       </c>
       <c r="J57" s="6" t="s">
         <v>972</v>
@@ -6953,7 +7010,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="58" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12" ht="105" x14ac:dyDescent="0.25">
       <c r="A58" s="6" t="s">
         <v>256</v>
       </c>
@@ -6964,16 +7021,16 @@
         <v>240</v>
       </c>
       <c r="E58" s="6" t="s">
-        <v>249</v>
+        <v>270</v>
       </c>
       <c r="F58" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>250</v>
+        <v>269</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>252</v>
+        <v>271</v>
       </c>
       <c r="J58" s="6" t="s">
         <v>972</v>
@@ -6993,16 +7050,16 @@
         <v>240</v>
       </c>
       <c r="E59" s="6" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="F59" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="J59" s="6" t="s">
         <v>972</v>
@@ -7022,16 +7079,16 @@
         <v>240</v>
       </c>
       <c r="E60" s="6" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="F60" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="I60" s="2" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="J60" s="6" t="s">
         <v>972</v>
@@ -7050,17 +7107,17 @@
       <c r="C61" s="8" t="s">
         <v>240</v>
       </c>
-      <c r="E61" s="8" t="s">
-        <v>263</v>
+      <c r="E61" s="6" t="s">
+        <v>258</v>
       </c>
       <c r="F61" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="I61" s="2" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="J61" s="6" t="s">
         <v>972</v>
@@ -7069,7 +7126,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="62" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A62" s="6" t="s">
         <v>272</v>
       </c>
@@ -7080,16 +7137,16 @@
         <v>240</v>
       </c>
       <c r="E62" s="8" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="F62" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="I62" s="2" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="J62" s="6" t="s">
         <v>972</v>
@@ -7109,16 +7166,16 @@
         <v>240</v>
       </c>
       <c r="E63" s="8" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="F63" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="I63" s="2" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="J63" s="6" t="s">
         <v>972</v>
@@ -7127,27 +7184,27 @@
         <v>911</v>
       </c>
     </row>
-    <row r="64" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A64" s="6" t="s">
         <v>281</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>277</v>
-      </c>
-      <c r="C64" s="6" t="s">
-        <v>277</v>
+        <v>208</v>
+      </c>
+      <c r="C64" s="8" t="s">
+        <v>240</v>
       </c>
       <c r="E64" s="8" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="F64" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="I64" s="2" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="J64" s="6" t="s">
         <v>972</v>
@@ -7156,27 +7213,27 @@
         <v>911</v>
       </c>
     </row>
-    <row r="65" spans="1:15" ht="180" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A65" s="6" t="s">
         <v>285</v>
       </c>
       <c r="B65" s="6" t="s">
         <v>277</v>
       </c>
-      <c r="C65" s="8" t="s">
-        <v>298</v>
+      <c r="C65" s="6" t="s">
+        <v>277</v>
       </c>
       <c r="E65" s="8" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="F65" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="I65" s="2" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="J65" s="6" t="s">
         <v>972</v>
@@ -7185,7 +7242,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="66" spans="1:15" ht="255" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:15" ht="180" x14ac:dyDescent="0.25">
       <c r="A66" s="6" t="s">
         <v>287</v>
       </c>
@@ -7196,16 +7253,16 @@
         <v>298</v>
       </c>
       <c r="E66" s="8" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="F66" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="I66" s="2" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="J66" s="6" t="s">
         <v>972</v>
@@ -7214,7 +7271,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="67" spans="1:15" ht="285" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:15" ht="255" x14ac:dyDescent="0.25">
       <c r="A67" s="6" t="s">
         <v>293</v>
       </c>
@@ -7225,16 +7282,16 @@
         <v>298</v>
       </c>
       <c r="E67" s="8" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="F67" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="I67" s="2" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="J67" s="6" t="s">
         <v>972</v>
@@ -7243,7 +7300,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="68" spans="1:15" ht="315" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:15" ht="285" x14ac:dyDescent="0.25">
       <c r="A68" s="6" t="s">
         <v>294</v>
       </c>
@@ -7254,16 +7311,16 @@
         <v>298</v>
       </c>
       <c r="E68" s="8" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="F68" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="I68" s="2" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="J68" s="6" t="s">
         <v>972</v>
@@ -7272,7 +7329,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="69" spans="1:15" ht="180" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:15" ht="315" x14ac:dyDescent="0.25">
       <c r="A69" s="6" t="s">
         <v>300</v>
       </c>
@@ -7280,19 +7337,19 @@
         <v>277</v>
       </c>
       <c r="C69" s="8" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E69" s="8" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="F69" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="I69" s="2" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="J69" s="6" t="s">
         <v>972</v>
@@ -7301,7 +7358,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="70" spans="1:15" ht="270" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:15" ht="180" x14ac:dyDescent="0.25">
       <c r="A70" s="6" t="s">
         <v>306</v>
       </c>
@@ -7312,25 +7369,25 @@
         <v>299</v>
       </c>
       <c r="E70" s="8" t="s">
-        <v>286</v>
+        <v>301</v>
       </c>
       <c r="F70" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="I70" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="K70" s="19" t="s">
-        <v>931</v>
-      </c>
-      <c r="L70" s="20" t="s">
-        <v>979</v>
-      </c>
-    </row>
-    <row r="71" spans="1:15" ht="300" x14ac:dyDescent="0.25">
+        <v>303</v>
+      </c>
+      <c r="J70" s="6" t="s">
+        <v>972</v>
+      </c>
+      <c r="K70" s="6" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" ht="270" x14ac:dyDescent="0.25">
       <c r="A71" s="6" t="s">
         <v>307</v>
       </c>
@@ -7341,16 +7398,16 @@
         <v>299</v>
       </c>
       <c r="E71" s="8" t="s">
-        <v>308</v>
+        <v>286</v>
       </c>
       <c r="F71" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="I71" s="2" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="K71" s="19" t="s">
         <v>931</v>
@@ -7359,7 +7416,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="72" spans="1:15" ht="360" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:15" ht="300" x14ac:dyDescent="0.25">
       <c r="A72" s="6" t="s">
         <v>311</v>
       </c>
@@ -7370,16 +7427,16 @@
         <v>299</v>
       </c>
       <c r="E72" s="8" t="s">
-        <v>295</v>
+        <v>308</v>
       </c>
       <c r="F72" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="I72" s="2" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="K72" s="19" t="s">
         <v>931</v>
@@ -7388,7 +7445,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="73" spans="1:15" ht="105" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:15" ht="360" x14ac:dyDescent="0.25">
       <c r="A73" s="6" t="s">
         <v>318</v>
       </c>
@@ -7396,28 +7453,28 @@
         <v>277</v>
       </c>
       <c r="C73" s="8" t="s">
-        <v>316</v>
+        <v>299</v>
       </c>
       <c r="E73" s="8" t="s">
-        <v>315</v>
+        <v>295</v>
       </c>
       <c r="F73" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="I73" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="K73" s="21" t="s">
-        <v>911</v>
+        <v>313</v>
+      </c>
+      <c r="K73" s="19" t="s">
+        <v>931</v>
       </c>
       <c r="L73" s="20" t="s">
-        <v>932</v>
-      </c>
-    </row>
-    <row r="74" spans="1:15" ht="180" x14ac:dyDescent="0.25">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" ht="105" x14ac:dyDescent="0.25">
       <c r="A74" s="6" t="s">
         <v>322</v>
       </c>
@@ -7428,25 +7485,25 @@
         <v>316</v>
       </c>
       <c r="E74" s="8" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="F74" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="I74" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="J74" s="21" t="s">
-        <v>972</v>
+        <v>317</v>
       </c>
       <c r="K74" s="21" t="s">
         <v>911</v>
       </c>
-    </row>
-    <row r="75" spans="1:15" ht="225" x14ac:dyDescent="0.25">
+      <c r="L74" s="20" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15" ht="180" x14ac:dyDescent="0.25">
       <c r="A75" s="6" t="s">
         <v>324</v>
       </c>
@@ -7457,25 +7514,25 @@
         <v>316</v>
       </c>
       <c r="E75" s="8" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="F75" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>933</v>
+        <v>320</v>
       </c>
       <c r="I75" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="J75" s="6" t="s">
+        <v>321</v>
+      </c>
+      <c r="J75" s="21" t="s">
         <v>972</v>
       </c>
       <c r="K75" s="21" t="s">
         <v>911</v>
       </c>
     </row>
-    <row r="76" spans="1:15" ht="300" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:15" ht="225" x14ac:dyDescent="0.25">
       <c r="A76" s="6" t="s">
         <v>326</v>
       </c>
@@ -7486,16 +7543,16 @@
         <v>316</v>
       </c>
       <c r="E76" s="8" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="F76" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>328</v>
+        <v>933</v>
       </c>
       <c r="I76" s="2" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="J76" s="6" t="s">
         <v>972</v>
@@ -7503,12 +7560,8 @@
       <c r="K76" s="21" t="s">
         <v>911</v>
       </c>
-      <c r="L76" s="20"/>
-      <c r="O76" t="s">
-        <v>934</v>
-      </c>
-    </row>
-    <row r="77" spans="1:15" ht="135" x14ac:dyDescent="0.25">
+    </row>
+    <row r="77" spans="1:15" ht="300" x14ac:dyDescent="0.25">
       <c r="A77" s="6" t="s">
         <v>331</v>
       </c>
@@ -7516,28 +7569,32 @@
         <v>277</v>
       </c>
       <c r="C77" s="8" t="s">
-        <v>330</v>
+        <v>316</v>
       </c>
       <c r="E77" s="8" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="F77" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="I77" s="2" t="s">
-        <v>334</v>
+        <v>329</v>
+      </c>
+      <c r="J77" s="6" t="s">
+        <v>972</v>
       </c>
       <c r="K77" s="21" t="s">
         <v>911</v>
       </c>
-      <c r="L77" s="20" t="s">
-        <v>978</v>
-      </c>
-    </row>
-    <row r="78" spans="1:15" ht="180" x14ac:dyDescent="0.25">
+      <c r="L77" s="20"/>
+      <c r="O77" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" ht="135" x14ac:dyDescent="0.25">
       <c r="A78" s="6" t="s">
         <v>335</v>
       </c>
@@ -7548,25 +7605,25 @@
         <v>330</v>
       </c>
       <c r="E78" s="8" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="F78" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="I78" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="J78" s="6" t="s">
-        <v>972</v>
+        <v>334</v>
       </c>
       <c r="K78" s="21" t="s">
         <v>911</v>
       </c>
-    </row>
-    <row r="79" spans="1:15" ht="195" x14ac:dyDescent="0.25">
+      <c r="L78" s="20" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15" ht="180" x14ac:dyDescent="0.25">
       <c r="A79" s="6" t="s">
         <v>340</v>
       </c>
@@ -7576,26 +7633,26 @@
       <c r="C79" s="8" t="s">
         <v>330</v>
       </c>
-      <c r="E79" s="6" t="s">
-        <v>339</v>
+      <c r="E79" s="8" t="s">
+        <v>337</v>
       </c>
       <c r="F79" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="I79" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="K79" s="6" t="s">
-        <v>911</v>
-      </c>
-      <c r="L79" s="20" t="s">
-        <v>936</v>
-      </c>
-    </row>
-    <row r="80" spans="1:15" ht="285" x14ac:dyDescent="0.25">
+        <v>338</v>
+      </c>
+      <c r="J79" s="6" t="s">
+        <v>972</v>
+      </c>
+      <c r="K79" s="21" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" ht="195" x14ac:dyDescent="0.25">
       <c r="A80" s="6" t="s">
         <v>346</v>
       </c>
@@ -7605,29 +7662,26 @@
       <c r="C80" s="8" t="s">
         <v>330</v>
       </c>
-      <c r="E80" s="8" t="s">
-        <v>343</v>
+      <c r="E80" s="6" t="s">
+        <v>339</v>
       </c>
       <c r="F80" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="I80" s="2" t="s">
-        <v>345</v>
-      </c>
-      <c r="K80" s="19" t="s">
-        <v>931</v>
+        <v>342</v>
+      </c>
+      <c r="K80" s="6" t="s">
+        <v>911</v>
       </c>
       <c r="L80" s="20" t="s">
-        <v>977</v>
-      </c>
-      <c r="M80" t="s">
-        <v>935</v>
-      </c>
-    </row>
-    <row r="81" spans="1:13" ht="105" x14ac:dyDescent="0.25">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" ht="285" x14ac:dyDescent="0.25">
       <c r="A81" s="6" t="s">
         <v>348</v>
       </c>
@@ -7635,28 +7689,31 @@
         <v>277</v>
       </c>
       <c r="C81" s="8" t="s">
-        <v>347</v>
+        <v>330</v>
       </c>
       <c r="E81" s="8" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="F81" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="I81" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="K81" s="6" t="s">
-        <v>911</v>
-      </c>
-      <c r="L81" s="8" t="s">
-        <v>937</v>
-      </c>
-    </row>
-    <row r="82" spans="1:13" ht="165" x14ac:dyDescent="0.25">
+        <v>345</v>
+      </c>
+      <c r="K81" s="19" t="s">
+        <v>931</v>
+      </c>
+      <c r="L81" s="20" t="s">
+        <v>977</v>
+      </c>
+      <c r="M81" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" ht="105" x14ac:dyDescent="0.25">
       <c r="A82" s="6" t="s">
         <v>353</v>
       </c>
@@ -7667,25 +7724,25 @@
         <v>347</v>
       </c>
       <c r="E82" s="8" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="F82" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="I82" s="2" t="s">
-        <v>358</v>
-      </c>
-      <c r="J82" s="6" t="s">
-        <v>972</v>
+        <v>351</v>
       </c>
       <c r="K82" s="6" t="s">
         <v>911</v>
       </c>
-    </row>
-    <row r="83" spans="1:13" ht="195" x14ac:dyDescent="0.25">
+      <c r="L82" s="8" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" ht="165" x14ac:dyDescent="0.25">
       <c r="A83" s="6" t="s">
         <v>356</v>
       </c>
@@ -7696,25 +7753,25 @@
         <v>347</v>
       </c>
       <c r="E83" s="8" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="F83" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="I83" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="L83" s="8" t="s">
-        <v>938</v>
-      </c>
-      <c r="M83" t="s">
-        <v>939</v>
-      </c>
-    </row>
-    <row r="84" spans="1:13" ht="240" x14ac:dyDescent="0.25">
+        <v>358</v>
+      </c>
+      <c r="J83" s="6" t="s">
+        <v>972</v>
+      </c>
+      <c r="K83" s="6" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" ht="195" x14ac:dyDescent="0.25">
       <c r="A84" s="6" t="s">
         <v>361</v>
       </c>
@@ -7725,25 +7782,25 @@
         <v>347</v>
       </c>
       <c r="E84" s="8" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="F84" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="I84" s="2" t="s">
-        <v>363</v>
-      </c>
-      <c r="K84" s="19" t="s">
-        <v>909</v>
-      </c>
-      <c r="L84" s="20" t="s">
-        <v>941</v>
-      </c>
-    </row>
-    <row r="85" spans="1:13" ht="270" x14ac:dyDescent="0.25">
+        <v>359</v>
+      </c>
+      <c r="L84" s="8" t="s">
+        <v>938</v>
+      </c>
+      <c r="M84" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" ht="240" x14ac:dyDescent="0.25">
       <c r="A85" s="6" t="s">
         <v>365</v>
       </c>
@@ -7754,52 +7811,54 @@
         <v>347</v>
       </c>
       <c r="E85" s="8" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="F85" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="I85" s="2" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="K85" s="19" t="s">
         <v>909</v>
       </c>
       <c r="L85" s="20" t="s">
-        <v>940</v>
-      </c>
-    </row>
-    <row r="86" spans="1:13" ht="90" x14ac:dyDescent="0.25">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" ht="270" x14ac:dyDescent="0.25">
       <c r="A86" s="6" t="s">
         <v>369</v>
       </c>
       <c r="B86" s="6" t="s">
         <v>277</v>
       </c>
-      <c r="C86" s="6" t="s">
-        <v>368</v>
+      <c r="C86" s="8" t="s">
+        <v>347</v>
       </c>
       <c r="E86" s="8" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="F86" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="I86" s="2" t="s">
-        <v>372</v>
-      </c>
-      <c r="K86" s="19"/>
-      <c r="L86" s="8" t="s">
-        <v>943</v>
-      </c>
-    </row>
-    <row r="87" spans="1:13" ht="105" x14ac:dyDescent="0.25">
+        <v>367</v>
+      </c>
+      <c r="K86" s="19" t="s">
+        <v>909</v>
+      </c>
+      <c r="L86" s="20" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" ht="90" x14ac:dyDescent="0.25">
       <c r="A87" s="6" t="s">
         <v>373</v>
       </c>
@@ -7810,20 +7869,20 @@
         <v>368</v>
       </c>
       <c r="E87" s="8" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="F87" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="I87" s="2" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="K87" s="19"/>
-      <c r="L87" s="20" t="s">
-        <v>942</v>
+      <c r="L87" s="8" t="s">
+        <v>943</v>
       </c>
     </row>
     <row r="88" spans="1:13" ht="105" x14ac:dyDescent="0.25">
@@ -7833,24 +7892,27 @@
       <c r="B88" s="6" t="s">
         <v>277</v>
       </c>
-      <c r="C88" s="8" t="s">
-        <v>377</v>
+      <c r="C88" s="6" t="s">
+        <v>368</v>
       </c>
       <c r="E88" s="8" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="F88" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="I88" s="2" t="s">
-        <v>888</v>
+        <v>376</v>
       </c>
       <c r="K88" s="19"/>
-    </row>
-    <row r="89" spans="1:13" ht="360" x14ac:dyDescent="0.25">
+      <c r="L88" s="20" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" ht="105" x14ac:dyDescent="0.25">
       <c r="A89" s="6" t="s">
         <v>380</v>
       </c>
@@ -7858,125 +7920,120 @@
         <v>277</v>
       </c>
       <c r="C89" s="8" t="s">
-        <v>904</v>
+        <v>377</v>
       </c>
       <c r="E89" s="8" t="s">
-        <v>890</v>
+        <v>382</v>
       </c>
       <c r="F89" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>889</v>
+        <v>379</v>
       </c>
       <c r="I89" s="2" t="s">
-        <v>892</v>
-      </c>
-    </row>
-    <row r="90" spans="1:13" ht="255" x14ac:dyDescent="0.25">
+        <v>888</v>
+      </c>
+      <c r="K89" s="19"/>
+    </row>
+    <row r="90" spans="1:13" ht="360" x14ac:dyDescent="0.25">
       <c r="A90" s="6" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="B90" s="6" t="s">
         <v>277</v>
       </c>
       <c r="C90" s="8" t="s">
-        <v>893</v>
-      </c>
-      <c r="D90" s="8" t="s">
-        <v>1005</v>
+        <v>904</v>
       </c>
       <c r="E90" s="8" t="s">
-        <v>894</v>
+        <v>890</v>
       </c>
       <c r="F90" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>895</v>
+        <v>889</v>
       </c>
       <c r="I90" s="2" t="s">
-        <v>891</v>
-      </c>
-    </row>
-    <row r="91" spans="1:13" ht="180" x14ac:dyDescent="0.25">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" ht="255" x14ac:dyDescent="0.25">
       <c r="A91" s="6" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="B91" s="6" t="s">
         <v>277</v>
       </c>
       <c r="C91" s="8" t="s">
-        <v>896</v>
+        <v>893</v>
+      </c>
+      <c r="D91" s="8" t="s">
+        <v>1005</v>
       </c>
       <c r="E91" s="8" t="s">
-        <v>897</v>
+        <v>894</v>
       </c>
       <c r="F91" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>898</v>
+        <v>895</v>
       </c>
       <c r="I91" s="2" t="s">
-        <v>899</v>
-      </c>
-    </row>
-    <row r="92" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" ht="180" x14ac:dyDescent="0.25">
       <c r="A92" s="6" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B92" s="6" t="s">
         <v>277</v>
       </c>
       <c r="C92" s="8" t="s">
-        <v>900</v>
+        <v>896</v>
       </c>
       <c r="E92" s="8" t="s">
-        <v>901</v>
+        <v>897</v>
       </c>
       <c r="F92" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>902</v>
+        <v>898</v>
       </c>
       <c r="I92" s="2" t="s">
-        <v>903</v>
-      </c>
-    </row>
-    <row r="93" spans="1:13" ht="90" x14ac:dyDescent="0.25">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A93" s="6" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="B93" s="6" t="s">
         <v>277</v>
       </c>
       <c r="C93" s="8" t="s">
-        <v>381</v>
+        <v>900</v>
       </c>
       <c r="E93" s="8" t="s">
-        <v>384</v>
+        <v>901</v>
       </c>
       <c r="F93" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>383</v>
+        <v>902</v>
       </c>
       <c r="I93" s="2" t="s">
-        <v>385</v>
-      </c>
-      <c r="J93" s="6" t="s">
-        <v>972</v>
-      </c>
-      <c r="K93" s="6" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="94" spans="1:13" ht="150" x14ac:dyDescent="0.25">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" ht="90" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="B94" s="6" t="s">
         <v>277</v>
@@ -7985,16 +8042,16 @@
         <v>381</v>
       </c>
       <c r="E94" s="8" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="F94" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="I94" s="2" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="J94" s="6" t="s">
         <v>972</v>
@@ -8003,9 +8060,9 @@
         <v>911</v>
       </c>
     </row>
-    <row r="95" spans="1:13" ht="180" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:13" ht="150" x14ac:dyDescent="0.25">
       <c r="A95" s="6" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="B95" s="6" t="s">
         <v>277</v>
@@ -8014,16 +8071,16 @@
         <v>381</v>
       </c>
       <c r="E95" s="8" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="F95" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="I95" s="2" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="J95" s="6" t="s">
         <v>972</v>
@@ -8032,9 +8089,9 @@
         <v>911</v>
       </c>
     </row>
-    <row r="96" spans="1:13" ht="225" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:13" ht="180" x14ac:dyDescent="0.25">
       <c r="A96" s="6" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="B96" s="6" t="s">
         <v>277</v>
@@ -8043,16 +8100,16 @@
         <v>381</v>
       </c>
       <c r="E96" s="8" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="F96" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="I96" s="2" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="J96" s="6" t="s">
         <v>972</v>
@@ -8061,9 +8118,9 @@
         <v>911</v>
       </c>
     </row>
-    <row r="97" spans="1:12" ht="270" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:12" ht="225" x14ac:dyDescent="0.25">
       <c r="A97" s="6" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="B97" s="6" t="s">
         <v>277</v>
@@ -8072,16 +8129,16 @@
         <v>381</v>
       </c>
       <c r="E97" s="8" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="F97" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="I97" s="2" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="J97" s="6" t="s">
         <v>972</v>
@@ -8090,9 +8147,9 @@
         <v>911</v>
       </c>
     </row>
-    <row r="98" spans="1:12" ht="300" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:12" ht="270" x14ac:dyDescent="0.25">
       <c r="A98" s="6" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B98" s="6" t="s">
         <v>277</v>
@@ -8101,27 +8158,27 @@
         <v>381</v>
       </c>
       <c r="E98" s="8" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="F98" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="I98" s="2" t="s">
-        <v>405</v>
+        <v>401</v>
+      </c>
+      <c r="J98" s="6" t="s">
+        <v>972</v>
       </c>
       <c r="K98" s="6" t="s">
         <v>911</v>
       </c>
-      <c r="L98" s="8" t="s">
-        <v>976</v>
-      </c>
-    </row>
-    <row r="99" spans="1:12" ht="345" x14ac:dyDescent="0.25">
+    </row>
+    <row r="99" spans="1:12" ht="300" x14ac:dyDescent="0.25">
       <c r="A99" s="6" t="s">
-        <v>430</v>
+        <v>421</v>
       </c>
       <c r="B99" s="6" t="s">
         <v>277</v>
@@ -8130,56 +8187,56 @@
         <v>381</v>
       </c>
       <c r="E99" s="8" t="s">
+        <v>403</v>
+      </c>
+      <c r="F99" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G99" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="I99" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="K99" s="6" t="s">
+        <v>911</v>
+      </c>
+      <c r="L99" s="8" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" ht="345" x14ac:dyDescent="0.25">
+      <c r="A100" s="6" t="s">
+        <v>430</v>
+      </c>
+      <c r="B100" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="C100" s="8" t="s">
+        <v>381</v>
+      </c>
+      <c r="E100" s="8" t="s">
         <v>407</v>
       </c>
-      <c r="F99" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="G99" s="2" t="s">
+      <c r="F100" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G100" s="2" t="s">
         <v>408</v>
       </c>
-      <c r="I99" s="2" t="s">
+      <c r="I100" s="2" t="s">
         <v>409</v>
       </c>
-      <c r="J99" s="6" t="s">
-        <v>972</v>
-      </c>
-      <c r="K99" s="6" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="100" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A100" s="6" t="s">
+      <c r="J100" s="6" t="s">
+        <v>972</v>
+      </c>
+      <c r="K100" s="6" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A101" s="6" t="s">
         <v>435</v>
-      </c>
-      <c r="B100" s="6" t="s">
-        <v>411</v>
-      </c>
-      <c r="C100" s="6" t="s">
-        <v>414</v>
-      </c>
-      <c r="E100" s="8" t="s">
-        <v>412</v>
-      </c>
-      <c r="F100" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="G100" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="I100" s="8" t="s">
-        <v>413</v>
-      </c>
-      <c r="J100" s="6" t="s">
-        <v>972</v>
-      </c>
-      <c r="K100" s="6" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="101" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="A101" s="6" t="s">
-        <v>437</v>
       </c>
       <c r="B101" s="6" t="s">
         <v>411</v>
@@ -8188,16 +8245,16 @@
         <v>414</v>
       </c>
       <c r="E101" s="8" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="F101" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>418</v>
-      </c>
-      <c r="I101" s="2" t="s">
-        <v>419</v>
+        <v>417</v>
+      </c>
+      <c r="I101" s="8" t="s">
+        <v>413</v>
       </c>
       <c r="J101" s="6" t="s">
         <v>972</v>
@@ -8206,18 +8263,18 @@
         <v>911</v>
       </c>
     </row>
-    <row r="102" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A102" s="6" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="B102" s="6" t="s">
         <v>411</v>
       </c>
-      <c r="C102" s="8" t="s">
-        <v>425</v>
+      <c r="C102" s="6" t="s">
+        <v>414</v>
       </c>
       <c r="E102" s="8" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="F102" s="6" t="s">
         <v>38</v>
@@ -8226,7 +8283,7 @@
         <v>418</v>
       </c>
       <c r="I102" s="2" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="J102" s="6" t="s">
         <v>972</v>
@@ -8235,27 +8292,27 @@
         <v>911</v>
       </c>
     </row>
-    <row r="103" spans="1:12" ht="105" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A103" s="6" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="B103" s="6" t="s">
         <v>411</v>
       </c>
       <c r="C103" s="8" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="E103" s="8" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="F103" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="I103" s="2" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="J103" s="6" t="s">
         <v>972</v>
@@ -8264,9 +8321,9 @@
         <v>911</v>
       </c>
     </row>
-    <row r="104" spans="1:12" ht="135" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:12" ht="105" x14ac:dyDescent="0.25">
       <c r="A104" s="6" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="B104" s="6" t="s">
         <v>411</v>
@@ -8275,16 +8332,16 @@
         <v>422</v>
       </c>
       <c r="E104" s="8" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="F104" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="I104" s="2" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="J104" s="6" t="s">
         <v>972</v>
@@ -8293,9 +8350,9 @@
         <v>911</v>
       </c>
     </row>
-    <row r="105" spans="1:12" ht="195" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:12" ht="135" x14ac:dyDescent="0.25">
       <c r="A105" s="6" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="B105" s="6" t="s">
         <v>411</v>
@@ -8304,16 +8361,16 @@
         <v>422</v>
       </c>
       <c r="E105" s="8" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="F105" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="I105" s="2" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="J105" s="6" t="s">
         <v>972</v>
@@ -8322,9 +8379,9 @@
         <v>911</v>
       </c>
     </row>
-    <row r="106" spans="1:12" ht="210" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:12" ht="195" x14ac:dyDescent="0.25">
       <c r="A106" s="6" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="B106" s="6" t="s">
         <v>411</v>
@@ -8333,53 +8390,53 @@
         <v>422</v>
       </c>
       <c r="E106" s="8" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="F106" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="I106" s="2" t="s">
-        <v>440</v>
-      </c>
-      <c r="L106" s="20" t="s">
-        <v>944</v>
-      </c>
-    </row>
-    <row r="107" spans="1:12" ht="195" x14ac:dyDescent="0.25">
+        <v>434</v>
+      </c>
+      <c r="J106" s="6" t="s">
+        <v>972</v>
+      </c>
+      <c r="K106" s="6" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" ht="210" x14ac:dyDescent="0.25">
       <c r="A107" s="6" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="B107" s="6" t="s">
         <v>411</v>
       </c>
       <c r="C107" s="8" t="s">
-        <v>442</v>
-      </c>
-      <c r="E107" s="6" t="s">
-        <v>443</v>
+        <v>422</v>
+      </c>
+      <c r="E107" s="8" t="s">
+        <v>438</v>
       </c>
       <c r="F107" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="I107" s="2" t="s">
-        <v>445</v>
-      </c>
-      <c r="J107" s="6" t="s">
-        <v>972</v>
-      </c>
-      <c r="K107" s="6" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="108" spans="1:12" ht="210" x14ac:dyDescent="0.25">
+        <v>440</v>
+      </c>
+      <c r="L107" s="20" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" ht="195" x14ac:dyDescent="0.25">
       <c r="A108" s="6" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="B108" s="6" t="s">
         <v>411</v>
@@ -8387,17 +8444,17 @@
       <c r="C108" s="8" t="s">
         <v>442</v>
       </c>
-      <c r="E108" s="8" t="s">
-        <v>446</v>
+      <c r="E108" s="6" t="s">
+        <v>443</v>
       </c>
       <c r="F108" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="I108" s="2" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="J108" s="6" t="s">
         <v>972</v>
@@ -8408,7 +8465,7 @@
     </row>
     <row r="109" spans="1:12" ht="210" x14ac:dyDescent="0.25">
       <c r="A109" s="6" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="B109" s="6" t="s">
         <v>411</v>
@@ -8417,16 +8474,16 @@
         <v>442</v>
       </c>
       <c r="E109" s="8" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="F109" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="I109" s="2" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="J109" s="6" t="s">
         <v>972</v>
@@ -8437,7 +8494,7 @@
     </row>
     <row r="110" spans="1:12" ht="210" x14ac:dyDescent="0.25">
       <c r="A110" s="6" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="B110" s="6" t="s">
         <v>411</v>
@@ -8446,50 +8503,53 @@
         <v>442</v>
       </c>
       <c r="E110" s="8" t="s">
-        <v>455</v>
+        <v>451</v>
+      </c>
+      <c r="F110" s="6" t="s">
+        <v>38</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="I110" s="2" t="s">
-        <v>457</v>
+        <v>454</v>
+      </c>
+      <c r="J110" s="6" t="s">
+        <v>972</v>
       </c>
       <c r="K110" s="6" t="s">
         <v>911</v>
       </c>
-      <c r="L110" s="20" t="s">
-        <v>975</v>
-      </c>
-    </row>
-    <row r="111" spans="1:12" ht="150" x14ac:dyDescent="0.25">
+    </row>
+    <row r="111" spans="1:12" ht="210" x14ac:dyDescent="0.25">
       <c r="A111" s="6" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B111" s="6" t="s">
         <v>411</v>
       </c>
       <c r="C111" s="8" t="s">
-        <v>458</v>
-      </c>
-      <c r="E111" s="6" t="s">
-        <v>460</v>
+        <v>442</v>
+      </c>
+      <c r="E111" s="8" t="s">
+        <v>455</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="I111" s="2" t="s">
-        <v>462</v>
-      </c>
-      <c r="J111" s="6" t="s">
-        <v>972</v>
+        <v>457</v>
       </c>
       <c r="K111" s="6" t="s">
         <v>911</v>
       </c>
-    </row>
-    <row r="112" spans="1:12" ht="135" x14ac:dyDescent="0.25">
+      <c r="L111" s="20" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" ht="150" x14ac:dyDescent="0.25">
       <c r="A112" s="6" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="B112" s="6" t="s">
         <v>411</v>
@@ -8497,14 +8557,14 @@
       <c r="C112" s="8" t="s">
         <v>458</v>
       </c>
-      <c r="E112" s="8" t="s">
-        <v>620</v>
+      <c r="E112" s="6" t="s">
+        <v>460</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>618</v>
+        <v>461</v>
       </c>
       <c r="I112" s="2" t="s">
-        <v>619</v>
+        <v>462</v>
       </c>
       <c r="J112" s="6" t="s">
         <v>972</v>
@@ -8515,7 +8575,7 @@
     </row>
     <row r="113" spans="1:12" ht="135" x14ac:dyDescent="0.25">
       <c r="A113" s="6" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B113" s="6" t="s">
         <v>411</v>
@@ -8524,13 +8584,13 @@
         <v>458</v>
       </c>
       <c r="E113" s="8" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="I113" s="2" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="J113" s="6" t="s">
         <v>972</v>
@@ -8539,24 +8599,24 @@
         <v>911</v>
       </c>
     </row>
-    <row r="114" spans="1:12" ht="150" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:12" ht="135" x14ac:dyDescent="0.25">
       <c r="A114" s="6" t="s">
-        <v>494</v>
+        <v>485</v>
       </c>
       <c r="B114" s="6" t="s">
         <v>411</v>
       </c>
       <c r="C114" s="8" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="E114" s="8" t="s">
-        <v>465</v>
+        <v>621</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>466</v>
+        <v>622</v>
       </c>
       <c r="I114" s="2" t="s">
-        <v>945</v>
+        <v>623</v>
       </c>
       <c r="J114" s="6" t="s">
         <v>972</v>
@@ -8567,22 +8627,22 @@
     </row>
     <row r="115" spans="1:12" ht="150" x14ac:dyDescent="0.25">
       <c r="A115" s="6" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="B115" s="6" t="s">
         <v>411</v>
       </c>
       <c r="C115" s="8" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="E115" s="8" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="I115" s="2" t="s">
-        <v>470</v>
+        <v>945</v>
       </c>
       <c r="J115" s="6" t="s">
         <v>972</v>
@@ -8591,82 +8651,79 @@
         <v>911</v>
       </c>
     </row>
-    <row r="116" spans="1:12" ht="210" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:12" ht="150" x14ac:dyDescent="0.25">
       <c r="A116" s="6" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="B116" s="6" t="s">
         <v>411</v>
       </c>
       <c r="C116" s="8" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="E116" s="8" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="I116" s="2" t="s">
-        <v>476</v>
+        <v>470</v>
+      </c>
+      <c r="J116" s="6" t="s">
+        <v>972</v>
       </c>
       <c r="K116" s="6" t="s">
         <v>911</v>
       </c>
-      <c r="L116" s="8" t="s">
-        <v>946</v>
-      </c>
-    </row>
-    <row r="117" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+    </row>
+    <row r="117" spans="1:12" ht="210" x14ac:dyDescent="0.25">
       <c r="A117" s="6" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="B117" s="6" t="s">
         <v>411</v>
       </c>
       <c r="C117" s="8" t="s">
-        <v>481</v>
+        <v>472</v>
       </c>
       <c r="E117" s="8" t="s">
-        <v>424</v>
-      </c>
-      <c r="F117" s="6" t="s">
-        <v>38</v>
+        <v>474</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>418</v>
+        <v>475</v>
       </c>
       <c r="I117" s="2" t="s">
-        <v>947</v>
-      </c>
-      <c r="J117" s="6" t="s">
-        <v>972</v>
+        <v>476</v>
       </c>
       <c r="K117" s="6" t="s">
         <v>911</v>
       </c>
-    </row>
-    <row r="118" spans="1:12" ht="150" x14ac:dyDescent="0.25">
+      <c r="L117" s="8" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A118" s="6" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="B118" s="6" t="s">
         <v>411</v>
       </c>
-      <c r="C118" s="9" t="s">
-        <v>477</v>
+      <c r="C118" s="8" t="s">
+        <v>481</v>
       </c>
       <c r="E118" s="8" t="s">
-        <v>478</v>
+        <v>424</v>
       </c>
       <c r="F118" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>482</v>
+        <v>418</v>
       </c>
       <c r="I118" s="2" t="s">
-        <v>483</v>
+        <v>947</v>
       </c>
       <c r="J118" s="6" t="s">
         <v>972</v>
@@ -8675,27 +8732,27 @@
         <v>911</v>
       </c>
     </row>
-    <row r="119" spans="1:12" ht="165" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:12" ht="150" x14ac:dyDescent="0.25">
       <c r="A119" s="6" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="B119" s="6" t="s">
         <v>411</v>
       </c>
-      <c r="C119" s="8" t="s">
-        <v>486</v>
+      <c r="C119" s="9" t="s">
+        <v>477</v>
       </c>
       <c r="E119" s="8" t="s">
-        <v>487</v>
+        <v>478</v>
       </c>
       <c r="F119" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="I119" s="2" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="J119" s="6" t="s">
         <v>972</v>
@@ -8704,27 +8761,27 @@
         <v>911</v>
       </c>
     </row>
-    <row r="120" spans="1:12" ht="135" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:12" ht="165" x14ac:dyDescent="0.25">
       <c r="A120" s="6" t="s">
-        <v>524</v>
+        <v>516</v>
       </c>
       <c r="B120" s="6" t="s">
         <v>411</v>
       </c>
       <c r="C120" s="8" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="E120" s="8" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="F120" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="I120" s="2" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="J120" s="6" t="s">
         <v>972</v>
@@ -8733,9 +8790,9 @@
         <v>911</v>
       </c>
     </row>
-    <row r="121" spans="1:12" ht="150" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:12" ht="135" x14ac:dyDescent="0.25">
       <c r="A121" s="6" t="s">
-        <v>536</v>
+        <v>524</v>
       </c>
       <c r="B121" s="6" t="s">
         <v>411</v>
@@ -8744,16 +8801,16 @@
         <v>490</v>
       </c>
       <c r="E121" s="8" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="F121" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="I121" s="2" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="J121" s="6" t="s">
         <v>972</v>
@@ -8762,44 +8819,38 @@
         <v>911</v>
       </c>
     </row>
-    <row r="122" spans="1:12" ht="315" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:12" ht="150" x14ac:dyDescent="0.25">
       <c r="A122" s="6" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B122" s="6" t="s">
         <v>411</v>
       </c>
       <c r="C122" s="8" t="s">
-        <v>498</v>
-      </c>
-      <c r="D122" s="8" t="s">
-        <v>999</v>
+        <v>490</v>
       </c>
       <c r="E122" s="8" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="F122" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>501</v>
-      </c>
-      <c r="H122" s="2" t="s">
-        <v>503</v>
+        <v>496</v>
       </c>
       <c r="I122" s="2" t="s">
-        <v>502</v>
-      </c>
-      <c r="K122" s="8" t="s">
-        <v>911</v>
-      </c>
-      <c r="L122" s="20" t="s">
-        <v>948</v>
-      </c>
-    </row>
-    <row r="123" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+        <v>497</v>
+      </c>
+      <c r="J122" s="6" t="s">
+        <v>972</v>
+      </c>
+      <c r="K122" s="6" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12" ht="315" x14ac:dyDescent="0.25">
       <c r="A123" s="6" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B123" s="6" t="s">
         <v>411</v>
@@ -8807,28 +8858,34 @@
       <c r="C123" s="8" t="s">
         <v>498</v>
       </c>
+      <c r="D123" s="8" t="s">
+        <v>999</v>
+      </c>
       <c r="E123" s="8" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="F123" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>506</v>
+        <v>501</v>
+      </c>
+      <c r="H123" s="2" t="s">
+        <v>503</v>
       </c>
       <c r="I123" s="2" t="s">
-        <v>507</v>
-      </c>
-      <c r="J123" s="6" t="s">
-        <v>972</v>
-      </c>
-      <c r="K123" s="6" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="124" spans="1:12" ht="270" x14ac:dyDescent="0.25">
+        <v>502</v>
+      </c>
+      <c r="K123" s="8" t="s">
+        <v>911</v>
+      </c>
+      <c r="L123" s="20" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A124" s="6" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B124" s="6" t="s">
         <v>411</v>
@@ -8837,31 +8894,27 @@
         <v>498</v>
       </c>
       <c r="E124" s="8" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="F124" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>510</v>
-      </c>
-      <c r="H124" s="2"/>
+        <v>506</v>
+      </c>
       <c r="I124" s="2" t="s">
-        <v>511</v>
-      </c>
-      <c r="J124" s="8" t="s">
-        <v>972</v>
-      </c>
-      <c r="K124" s="8" t="s">
-        <v>911</v>
-      </c>
-      <c r="L124" s="8" t="s">
-        <v>974</v>
-      </c>
-    </row>
-    <row r="125" spans="1:12" ht="345" x14ac:dyDescent="0.25">
+        <v>507</v>
+      </c>
+      <c r="J124" s="6" t="s">
+        <v>972</v>
+      </c>
+      <c r="K124" s="6" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12" ht="270" x14ac:dyDescent="0.25">
       <c r="A125" s="6" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="B125" s="6" t="s">
         <v>411</v>
@@ -8870,28 +8923,31 @@
         <v>498</v>
       </c>
       <c r="E125" s="8" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="F125" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="H125" s="2"/>
       <c r="I125" s="2" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="J125" s="8" t="s">
         <v>972</v>
       </c>
       <c r="K125" s="8" t="s">
         <v>911</v>
+      </c>
+      <c r="L125" s="8" t="s">
+        <v>974</v>
       </c>
     </row>
     <row r="126" spans="1:12" ht="345" x14ac:dyDescent="0.25">
       <c r="A126" s="6" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
       <c r="B126" s="6" t="s">
         <v>411</v>
@@ -8900,63 +8956,58 @@
         <v>498</v>
       </c>
       <c r="E126" s="8" t="s">
-        <v>521</v>
+        <v>513</v>
       </c>
       <c r="F126" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>522</v>
+        <v>514</v>
       </c>
       <c r="H126" s="2"/>
       <c r="I126" s="2" t="s">
-        <v>523</v>
+        <v>515</v>
+      </c>
+      <c r="J126" s="8" t="s">
+        <v>972</v>
       </c>
       <c r="K126" s="8" t="s">
         <v>911</v>
       </c>
-      <c r="L126" s="8" t="s">
-        <v>949</v>
-      </c>
-    </row>
-    <row r="127" spans="1:12" ht="360" x14ac:dyDescent="0.25">
+    </row>
+    <row r="127" spans="1:12" ht="345" x14ac:dyDescent="0.25">
       <c r="A127" s="6" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="B127" s="6" t="s">
         <v>411</v>
       </c>
       <c r="C127" s="8" t="s">
-        <v>517</v>
-      </c>
-      <c r="D127" s="8" t="s">
-        <v>999</v>
+        <v>498</v>
       </c>
       <c r="E127" s="8" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="F127" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>531</v>
-      </c>
-      <c r="H127" s="2" t="s">
-        <v>542</v>
-      </c>
+        <v>522</v>
+      </c>
+      <c r="H127" s="2"/>
       <c r="I127" s="2" t="s">
-        <v>532</v>
-      </c>
-      <c r="K127" s="22" t="s">
-        <v>911</v>
-      </c>
-      <c r="L127" s="20" t="s">
-        <v>950</v>
-      </c>
-    </row>
-    <row r="128" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+        <v>523</v>
+      </c>
+      <c r="K127" s="8" t="s">
+        <v>911</v>
+      </c>
+      <c r="L127" s="8" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12" ht="360" x14ac:dyDescent="0.25">
       <c r="A128" s="6" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="B128" s="6" t="s">
         <v>411</v>
@@ -8964,28 +9015,34 @@
       <c r="C128" s="8" t="s">
         <v>517</v>
       </c>
+      <c r="D128" s="8" t="s">
+        <v>999</v>
+      </c>
       <c r="E128" s="8" t="s">
-        <v>525</v>
+        <v>518</v>
       </c>
       <c r="F128" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>526</v>
+        <v>531</v>
+      </c>
+      <c r="H128" s="2" t="s">
+        <v>542</v>
       </c>
       <c r="I128" s="2" t="s">
-        <v>527</v>
-      </c>
-      <c r="J128" s="6" t="s">
-        <v>972</v>
-      </c>
-      <c r="K128" s="8" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="129" spans="1:11" ht="255" x14ac:dyDescent="0.25">
+        <v>532</v>
+      </c>
+      <c r="K128" s="22" t="s">
+        <v>911</v>
+      </c>
+      <c r="L128" s="20" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A129" s="6" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="B129" s="6" t="s">
         <v>411</v>
@@ -8994,28 +9051,27 @@
         <v>517</v>
       </c>
       <c r="E129" s="8" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="F129" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>529</v>
-      </c>
-      <c r="H129" s="2"/>
+        <v>526</v>
+      </c>
       <c r="I129" s="2" t="s">
-        <v>530</v>
-      </c>
-      <c r="J129" s="8" t="s">
+        <v>527</v>
+      </c>
+      <c r="J129" s="6" t="s">
         <v>972</v>
       </c>
       <c r="K129" s="8" t="s">
         <v>911</v>
       </c>
     </row>
-    <row r="130" spans="1:11" ht="375" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" ht="255" x14ac:dyDescent="0.25">
       <c r="A130" s="6" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="B130" s="6" t="s">
         <v>411</v>
@@ -9024,17 +9080,17 @@
         <v>517</v>
       </c>
       <c r="E130" s="8" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="F130" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>519</v>
+        <v>529</v>
       </c>
       <c r="H130" s="2"/>
       <c r="I130" s="2" t="s">
-        <v>520</v>
+        <v>530</v>
       </c>
       <c r="J130" s="8" t="s">
         <v>972</v>
@@ -9043,9 +9099,9 @@
         <v>911</v>
       </c>
     </row>
-    <row r="131" spans="1:11" ht="360" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" ht="375" x14ac:dyDescent="0.25">
       <c r="A131" s="6" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="B131" s="6" t="s">
         <v>411</v>
@@ -9054,17 +9110,17 @@
         <v>517</v>
       </c>
       <c r="E131" s="8" t="s">
-        <v>521</v>
+        <v>533</v>
       </c>
       <c r="F131" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>534</v>
+        <v>519</v>
       </c>
       <c r="H131" s="2"/>
       <c r="I131" s="2" t="s">
-        <v>535</v>
+        <v>520</v>
       </c>
       <c r="J131" s="8" t="s">
         <v>972</v>
@@ -9073,41 +9129,39 @@
         <v>911</v>
       </c>
     </row>
-    <row r="132" spans="1:11" ht="375" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" ht="360" x14ac:dyDescent="0.25">
       <c r="A132" s="6" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="B132" s="6" t="s">
         <v>411</v>
       </c>
       <c r="C132" s="8" t="s">
-        <v>540</v>
-      </c>
-      <c r="D132" s="8" t="s">
-        <v>999</v>
+        <v>517</v>
       </c>
       <c r="E132" s="8" t="s">
-        <v>543</v>
+        <v>521</v>
       </c>
       <c r="F132" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>545</v>
-      </c>
-      <c r="H132" s="2" t="s">
-        <v>544</v>
-      </c>
+        <v>534</v>
+      </c>
+      <c r="H132" s="2"/>
       <c r="I132" s="2" t="s">
-        <v>546</v>
-      </c>
-      <c r="K132" s="20" t="s">
-        <v>951</v>
-      </c>
-    </row>
-    <row r="133" spans="1:11" ht="330" x14ac:dyDescent="0.25">
+        <v>535</v>
+      </c>
+      <c r="J132" s="8" t="s">
+        <v>972</v>
+      </c>
+      <c r="K132" s="8" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11" ht="375" x14ac:dyDescent="0.25">
       <c r="A133" s="6" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
       <c r="B133" s="6" t="s">
         <v>411</v>
@@ -9115,49 +9169,52 @@
       <c r="C133" s="8" t="s">
         <v>540</v>
       </c>
+      <c r="D133" s="8" t="s">
+        <v>999</v>
+      </c>
       <c r="E133" s="8" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="F133" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>549</v>
-      </c>
-      <c r="H133" s="2"/>
+        <v>545</v>
+      </c>
+      <c r="H133" s="2" t="s">
+        <v>544</v>
+      </c>
       <c r="I133" s="2" t="s">
-        <v>550</v>
-      </c>
-      <c r="J133" s="8" t="s">
-        <v>972</v>
-      </c>
-      <c r="K133" s="8" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="134" spans="1:11" ht="165" x14ac:dyDescent="0.25">
+        <v>546</v>
+      </c>
+      <c r="K133" s="20" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" ht="330" x14ac:dyDescent="0.25">
       <c r="A134" s="6" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="B134" s="6" t="s">
         <v>411</v>
       </c>
       <c r="C134" s="8" t="s">
-        <v>552</v>
+        <v>540</v>
       </c>
       <c r="E134" s="8" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="F134" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>554</v>
-      </c>
+        <v>549</v>
+      </c>
+      <c r="H134" s="2"/>
       <c r="I134" s="2" t="s">
-        <v>555</v>
-      </c>
-      <c r="J134" s="6" t="s">
+        <v>550</v>
+      </c>
+      <c r="J134" s="8" t="s">
         <v>972</v>
       </c>
       <c r="K134" s="8" t="s">
@@ -9166,7 +9223,7 @@
     </row>
     <row r="135" spans="1:11" ht="165" x14ac:dyDescent="0.25">
       <c r="A135" s="6" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
       <c r="B135" s="6" t="s">
         <v>411</v>
@@ -9175,16 +9232,16 @@
         <v>552</v>
       </c>
       <c r="E135" s="8" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="F135" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="I135" s="2" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="J135" s="6" t="s">
         <v>972</v>
@@ -9193,27 +9250,27 @@
         <v>911</v>
       </c>
     </row>
-    <row r="136" spans="1:11" ht="150" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" ht="165" x14ac:dyDescent="0.25">
       <c r="A136" s="6" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="B136" s="6" t="s">
         <v>411</v>
       </c>
       <c r="C136" s="8" t="s">
-        <v>561</v>
+        <v>552</v>
       </c>
       <c r="E136" s="8" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="F136" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="I136" s="2" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="J136" s="6" t="s">
         <v>972</v>
@@ -9222,9 +9279,9 @@
         <v>911</v>
       </c>
     </row>
-    <row r="137" spans="1:11" ht="195" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" ht="150" x14ac:dyDescent="0.25">
       <c r="A137" s="6" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="B137" s="6" t="s">
         <v>411</v>
@@ -9233,16 +9290,16 @@
         <v>561</v>
       </c>
       <c r="E137" s="8" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="F137" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="I137" s="2" t="s">
-        <v>952</v>
+        <v>564</v>
       </c>
       <c r="J137" s="6" t="s">
         <v>972</v>
@@ -9253,7 +9310,7 @@
     </row>
     <row r="138" spans="1:11" ht="195" x14ac:dyDescent="0.25">
       <c r="A138" s="6" t="s">
-        <v>599</v>
+        <v>592</v>
       </c>
       <c r="B138" s="6" t="s">
         <v>411</v>
@@ -9262,16 +9319,16 @@
         <v>561</v>
       </c>
       <c r="E138" s="8" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="F138" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="I138" s="2" t="s">
-        <v>575</v>
+        <v>952</v>
       </c>
       <c r="J138" s="6" t="s">
         <v>972</v>
@@ -9280,9 +9337,9 @@
         <v>911</v>
       </c>
     </row>
-    <row r="139" spans="1:11" ht="225" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" ht="195" x14ac:dyDescent="0.25">
       <c r="A139" s="6" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="B139" s="6" t="s">
         <v>411</v>
@@ -9291,16 +9348,16 @@
         <v>561</v>
       </c>
       <c r="E139" s="8" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="F139" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="I139" s="2" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="J139" s="6" t="s">
         <v>972</v>
@@ -9311,7 +9368,7 @@
     </row>
     <row r="140" spans="1:11" ht="225" x14ac:dyDescent="0.25">
       <c r="A140" s="6" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="B140" s="6" t="s">
         <v>411</v>
@@ -9320,16 +9377,16 @@
         <v>561</v>
       </c>
       <c r="E140" s="8" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="F140" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="I140" s="2" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="J140" s="6" t="s">
         <v>972</v>
@@ -9338,27 +9395,27 @@
         <v>911</v>
       </c>
     </row>
-    <row r="141" spans="1:11" ht="120" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" ht="225" x14ac:dyDescent="0.25">
       <c r="A141" s="6" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B141" s="6" t="s">
         <v>411</v>
       </c>
       <c r="C141" s="8" t="s">
-        <v>581</v>
-      </c>
-      <c r="E141" s="6" t="s">
-        <v>582</v>
+        <v>561</v>
+      </c>
+      <c r="E141" s="8" t="s">
+        <v>576</v>
       </c>
       <c r="F141" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="I141" s="2" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="J141" s="6" t="s">
         <v>972</v>
@@ -9367,9 +9424,9 @@
         <v>911</v>
       </c>
     </row>
-    <row r="142" spans="1:11" ht="150" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" ht="120" x14ac:dyDescent="0.25">
       <c r="A142" s="6" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B142" s="6" t="s">
         <v>411</v>
@@ -9377,17 +9434,17 @@
       <c r="C142" s="8" t="s">
         <v>581</v>
       </c>
-      <c r="E142" s="8" t="s">
-        <v>625</v>
+      <c r="E142" s="6" t="s">
+        <v>582</v>
       </c>
       <c r="F142" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>626</v>
+        <v>583</v>
       </c>
       <c r="I142" s="2" t="s">
-        <v>627</v>
+        <v>584</v>
       </c>
       <c r="J142" s="6" t="s">
         <v>972</v>
@@ -9398,7 +9455,7 @@
     </row>
     <row r="143" spans="1:11" ht="150" x14ac:dyDescent="0.25">
       <c r="A143" s="6" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B143" s="6" t="s">
         <v>411</v>
@@ -9407,16 +9464,16 @@
         <v>581</v>
       </c>
       <c r="E143" s="8" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="F143" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="I143" s="2" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="J143" s="6" t="s">
         <v>972</v>
@@ -9427,7 +9484,7 @@
     </row>
     <row r="144" spans="1:11" ht="150" x14ac:dyDescent="0.25">
       <c r="A144" s="6" t="s">
-        <v>624</v>
+        <v>608</v>
       </c>
       <c r="B144" s="6" t="s">
         <v>411</v>
@@ -9436,16 +9493,16 @@
         <v>581</v>
       </c>
       <c r="E144" s="8" t="s">
-        <v>586</v>
+        <v>628</v>
       </c>
       <c r="F144" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>587</v>
+        <v>629</v>
       </c>
       <c r="I144" s="2" t="s">
-        <v>588</v>
+        <v>630</v>
       </c>
       <c r="J144" s="6" t="s">
         <v>972</v>
@@ -9454,27 +9511,27 @@
         <v>911</v>
       </c>
     </row>
-    <row r="145" spans="1:12" ht="195" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:12" ht="150" x14ac:dyDescent="0.25">
       <c r="A145" s="6" t="s">
-        <v>631</v>
+        <v>624</v>
       </c>
       <c r="B145" s="6" t="s">
         <v>411</v>
       </c>
       <c r="C145" s="8" t="s">
-        <v>594</v>
+        <v>581</v>
       </c>
       <c r="E145" s="8" t="s">
-        <v>593</v>
+        <v>586</v>
       </c>
       <c r="F145" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="I145" s="2" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="J145" s="6" t="s">
         <v>972</v>
@@ -9482,31 +9539,28 @@
       <c r="K145" s="8" t="s">
         <v>911</v>
       </c>
-      <c r="L145" s="8" t="s">
-        <v>973</v>
-      </c>
-    </row>
-    <row r="146" spans="1:12" ht="180" x14ac:dyDescent="0.25">
+    </row>
+    <row r="146" spans="1:12" ht="195" x14ac:dyDescent="0.25">
       <c r="A146" s="6" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B146" s="6" t="s">
         <v>411</v>
       </c>
       <c r="C146" s="8" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="E146" s="8" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="F146" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>597</v>
+        <v>590</v>
       </c>
       <c r="I146" s="2" t="s">
-        <v>598</v>
+        <v>591</v>
       </c>
       <c r="J146" s="6" t="s">
         <v>972</v>
@@ -9514,10 +9568,13 @@
       <c r="K146" s="8" t="s">
         <v>911</v>
       </c>
-    </row>
-    <row r="147" spans="1:12" ht="165" x14ac:dyDescent="0.25">
+      <c r="L146" s="8" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="147" spans="1:12" ht="180" x14ac:dyDescent="0.25">
       <c r="A147" s="6" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="B147" s="6" t="s">
         <v>411</v>
@@ -9526,16 +9583,16 @@
         <v>595</v>
       </c>
       <c r="E147" s="8" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="F147" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="I147" s="2" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="J147" s="6" t="s">
         <v>972</v>
@@ -9544,9 +9601,9 @@
         <v>911</v>
       </c>
     </row>
-    <row r="148" spans="1:12" ht="330" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:12" ht="165" x14ac:dyDescent="0.25">
       <c r="A148" s="6" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B148" s="6" t="s">
         <v>411</v>
@@ -9555,16 +9612,16 @@
         <v>595</v>
       </c>
       <c r="E148" s="8" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="F148" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>615</v>
+        <v>601</v>
       </c>
       <c r="I148" s="2" t="s">
-        <v>616</v>
+        <v>602</v>
       </c>
       <c r="J148" s="6" t="s">
         <v>972</v>
@@ -9572,13 +9629,10 @@
       <c r="K148" s="8" t="s">
         <v>911</v>
       </c>
-      <c r="L148" s="8" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="149" spans="1:12" ht="240" x14ac:dyDescent="0.25">
+    </row>
+    <row r="149" spans="1:12" ht="330" x14ac:dyDescent="0.25">
       <c r="A149" s="6" t="s">
-        <v>644</v>
+        <v>637</v>
       </c>
       <c r="B149" s="6" t="s">
         <v>411</v>
@@ -9587,16 +9641,16 @@
         <v>595</v>
       </c>
       <c r="E149" s="8" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
       <c r="F149" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>610</v>
+        <v>615</v>
       </c>
       <c r="I149" s="2" t="s">
-        <v>611</v>
+        <v>616</v>
       </c>
       <c r="J149" s="6" t="s">
         <v>972</v>
@@ -9604,10 +9658,13 @@
       <c r="K149" s="8" t="s">
         <v>911</v>
       </c>
-    </row>
-    <row r="150" spans="1:12" ht="165" x14ac:dyDescent="0.25">
+      <c r="L149" s="8" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="150" spans="1:12" ht="240" x14ac:dyDescent="0.25">
       <c r="A150" s="6" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="B150" s="6" t="s">
         <v>411</v>
@@ -9616,16 +9673,16 @@
         <v>595</v>
       </c>
       <c r="E150" s="8" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="F150" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="I150" s="2" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="J150" s="6" t="s">
         <v>972</v>
@@ -9634,27 +9691,27 @@
         <v>911</v>
       </c>
     </row>
-    <row r="151" spans="1:12" ht="120" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:12" ht="165" x14ac:dyDescent="0.25">
       <c r="A151" s="6" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="B151" s="6" t="s">
         <v>411</v>
       </c>
-      <c r="C151" s="6" t="s">
-        <v>617</v>
-      </c>
-      <c r="E151" s="6" t="s">
-        <v>635</v>
+      <c r="C151" s="8" t="s">
+        <v>595</v>
+      </c>
+      <c r="E151" s="8" t="s">
+        <v>612</v>
       </c>
       <c r="F151" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>633</v>
+        <v>613</v>
       </c>
       <c r="I151" s="2" t="s">
-        <v>634</v>
+        <v>614</v>
       </c>
       <c r="J151" s="6" t="s">
         <v>972</v>
@@ -9663,9 +9720,9 @@
         <v>911</v>
       </c>
     </row>
-    <row r="152" spans="1:12" ht="150" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:12" ht="120" x14ac:dyDescent="0.25">
       <c r="A152" s="6" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="B152" s="6" t="s">
         <v>411</v>
@@ -9673,17 +9730,17 @@
       <c r="C152" s="6" t="s">
         <v>617</v>
       </c>
-      <c r="E152" s="8" t="s">
-        <v>638</v>
+      <c r="E152" s="6" t="s">
+        <v>635</v>
       </c>
       <c r="F152" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>639</v>
+        <v>633</v>
       </c>
       <c r="I152" s="2" t="s">
-        <v>640</v>
+        <v>634</v>
       </c>
       <c r="J152" s="6" t="s">
         <v>972</v>
@@ -9694,7 +9751,7 @@
     </row>
     <row r="153" spans="1:12" ht="150" x14ac:dyDescent="0.25">
       <c r="A153" s="6" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="B153" s="6" t="s">
         <v>411</v>
@@ -9702,17 +9759,17 @@
       <c r="C153" s="6" t="s">
         <v>617</v>
       </c>
-      <c r="E153" s="6" t="s">
-        <v>641</v>
+      <c r="E153" s="8" t="s">
+        <v>638</v>
       </c>
       <c r="F153" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="I153" s="2" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="J153" s="6" t="s">
         <v>972</v>
@@ -9723,7 +9780,7 @@
     </row>
     <row r="154" spans="1:12" ht="150" x14ac:dyDescent="0.25">
       <c r="A154" s="6" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="B154" s="6" t="s">
         <v>411</v>
@@ -9731,17 +9788,17 @@
       <c r="C154" s="6" t="s">
         <v>617</v>
       </c>
-      <c r="E154" s="8" t="s">
-        <v>645</v>
+      <c r="E154" s="6" t="s">
+        <v>641</v>
       </c>
       <c r="F154" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="I154" s="2" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="J154" s="6" t="s">
         <v>972</v>
@@ -9750,9 +9807,9 @@
         <v>911</v>
       </c>
     </row>
-    <row r="155" spans="1:12" ht="135" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:12" ht="150" x14ac:dyDescent="0.25">
       <c r="A155" s="6" t="s">
-        <v>670</v>
+        <v>664</v>
       </c>
       <c r="B155" s="6" t="s">
         <v>411</v>
@@ -9761,16 +9818,16 @@
         <v>617</v>
       </c>
       <c r="E155" s="8" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="F155" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="I155" s="2" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="J155" s="6" t="s">
         <v>972</v>
@@ -9779,9 +9836,9 @@
         <v>911</v>
       </c>
     </row>
-    <row r="156" spans="1:12" ht="150" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:12" ht="135" x14ac:dyDescent="0.25">
       <c r="A156" s="6" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="B156" s="6" t="s">
         <v>411</v>
@@ -9790,16 +9847,16 @@
         <v>617</v>
       </c>
       <c r="E156" s="8" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="F156" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="I156" s="2" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="J156" s="6" t="s">
         <v>972</v>
@@ -9810,7 +9867,7 @@
     </row>
     <row r="157" spans="1:12" ht="150" x14ac:dyDescent="0.25">
       <c r="A157" s="6" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="B157" s="6" t="s">
         <v>411</v>
@@ -9819,16 +9876,16 @@
         <v>617</v>
       </c>
       <c r="E157" s="8" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="F157" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="I157" s="2" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="J157" s="6" t="s">
         <v>972</v>
@@ -9839,7 +9896,7 @@
     </row>
     <row r="158" spans="1:12" ht="150" x14ac:dyDescent="0.25">
       <c r="A158" s="6" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="B158" s="6" t="s">
         <v>411</v>
@@ -9848,16 +9905,16 @@
         <v>617</v>
       </c>
       <c r="E158" s="8" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="F158" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="I158" s="2" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="J158" s="6" t="s">
         <v>972</v>
@@ -9866,44 +9923,38 @@
         <v>911</v>
       </c>
     </row>
-    <row r="159" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:12" ht="150" x14ac:dyDescent="0.25">
       <c r="A159" s="6" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="B159" s="6" t="s">
         <v>411</v>
       </c>
       <c r="C159" s="6" t="s">
-        <v>665</v>
-      </c>
-      <c r="D159" s="8" t="s">
-        <v>1000</v>
+        <v>617</v>
       </c>
       <c r="E159" s="8" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="F159" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>668</v>
-      </c>
-      <c r="H159" s="8" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="I159" s="2" t="s">
-        <v>669</v>
-      </c>
-      <c r="K159" s="20" t="s">
-        <v>909</v>
-      </c>
-      <c r="L159" s="20" t="s">
-        <v>954</v>
-      </c>
-    </row>
-    <row r="160" spans="1:12" ht="195" x14ac:dyDescent="0.25">
+        <v>663</v>
+      </c>
+      <c r="J159" s="6" t="s">
+        <v>972</v>
+      </c>
+      <c r="K159" s="8" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="160" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A160" s="6" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="B160" s="6" t="s">
         <v>411</v>
@@ -9911,29 +9962,34 @@
       <c r="C160" s="6" t="s">
         <v>665</v>
       </c>
+      <c r="D160" s="8" t="s">
+        <v>1000</v>
+      </c>
       <c r="E160" s="8" t="s">
-        <v>694</v>
+        <v>666</v>
       </c>
       <c r="F160" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>695</v>
-      </c>
-      <c r="H160" s="8"/>
+        <v>668</v>
+      </c>
+      <c r="H160" s="8" t="s">
+        <v>667</v>
+      </c>
       <c r="I160" s="2" t="s">
-        <v>696</v>
-      </c>
-      <c r="J160" s="6" t="s">
-        <v>972</v>
-      </c>
-      <c r="K160" s="8" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="161" spans="1:27" ht="240" x14ac:dyDescent="0.25">
+        <v>669</v>
+      </c>
+      <c r="K160" s="20" t="s">
+        <v>909</v>
+      </c>
+      <c r="L160" s="20" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="161" spans="1:27" ht="195" x14ac:dyDescent="0.25">
       <c r="A161" s="6" t="s">
-        <v>697</v>
+        <v>690</v>
       </c>
       <c r="B161" s="6" t="s">
         <v>411</v>
@@ -9942,16 +9998,17 @@
         <v>665</v>
       </c>
       <c r="E161" s="8" t="s">
-        <v>671</v>
+        <v>694</v>
       </c>
       <c r="F161" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>673</v>
-      </c>
+        <v>695</v>
+      </c>
+      <c r="H161" s="8"/>
       <c r="I161" s="2" t="s">
-        <v>672</v>
+        <v>696</v>
       </c>
       <c r="J161" s="6" t="s">
         <v>972</v>
@@ -9959,13 +10016,10 @@
       <c r="K161" s="8" t="s">
         <v>911</v>
       </c>
-      <c r="L161" s="8" t="s">
-        <v>955</v>
-      </c>
-    </row>
-    <row r="162" spans="1:27" ht="165" x14ac:dyDescent="0.25">
+    </row>
+    <row r="162" spans="1:27" ht="240" x14ac:dyDescent="0.25">
       <c r="A162" s="6" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="B162" s="6" t="s">
         <v>411</v>
@@ -9974,27 +10028,30 @@
         <v>665</v>
       </c>
       <c r="E162" s="8" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="F162" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="I162" s="2" t="s">
-        <v>677</v>
+        <v>672</v>
       </c>
       <c r="J162" s="6" t="s">
         <v>972</v>
       </c>
       <c r="K162" s="8" t="s">
         <v>911</v>
+      </c>
+      <c r="L162" s="8" t="s">
+        <v>955</v>
       </c>
     </row>
     <row r="163" spans="1:27" ht="165" x14ac:dyDescent="0.25">
       <c r="A163" s="6" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
       <c r="B163" s="6" t="s">
         <v>411</v>
@@ -10003,16 +10060,16 @@
         <v>665</v>
       </c>
       <c r="E163" s="8" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="F163" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="I163" s="2" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="J163" s="6" t="s">
         <v>972</v>
@@ -10021,9 +10078,9 @@
         <v>911</v>
       </c>
     </row>
-    <row r="164" spans="1:27" ht="315" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:27" ht="165" x14ac:dyDescent="0.25">
       <c r="A164" s="6" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="B164" s="6" t="s">
         <v>411</v>
@@ -10032,27 +10089,27 @@
         <v>665</v>
       </c>
       <c r="E164" s="8" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="F164" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="I164" s="2" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="J164" s="6" t="s">
-        <v>964</v>
+        <v>972</v>
       </c>
       <c r="K164" s="8" t="s">
         <v>911</v>
       </c>
     </row>
-    <row r="165" spans="1:27" ht="285" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:27" ht="315" x14ac:dyDescent="0.25">
       <c r="A165" s="6" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="B165" s="6" t="s">
         <v>411</v>
@@ -10061,16 +10118,16 @@
         <v>665</v>
       </c>
       <c r="E165" s="8" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="F165" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="I165" s="2" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="J165" s="6" t="s">
         <v>964</v>
@@ -10079,9 +10136,9 @@
         <v>911</v>
       </c>
     </row>
-    <row r="166" spans="1:27" ht="315" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:27" ht="285" x14ac:dyDescent="0.25">
       <c r="A166" s="6" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="B166" s="6" t="s">
         <v>411</v>
@@ -10090,16 +10147,16 @@
         <v>665</v>
       </c>
       <c r="E166" s="8" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="F166" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="I166" s="2" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="J166" s="6" t="s">
         <v>964</v>
@@ -10108,35 +10165,38 @@
         <v>911</v>
       </c>
     </row>
-    <row r="167" spans="1:27" ht="150" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:27" ht="315" x14ac:dyDescent="0.25">
       <c r="A167" s="6" t="s">
-        <v>717</v>
+        <v>712</v>
       </c>
       <c r="B167" s="6" t="s">
         <v>411</v>
       </c>
       <c r="C167" s="6" t="s">
-        <v>699</v>
+        <v>665</v>
       </c>
       <c r="E167" s="8" t="s">
-        <v>700</v>
+        <v>691</v>
       </c>
       <c r="F167" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>701</v>
+        <v>692</v>
       </c>
       <c r="I167" s="2" t="s">
-        <v>702</v>
-      </c>
-      <c r="L167" s="20" t="s">
-        <v>956</v>
-      </c>
-    </row>
-    <row r="168" spans="1:27" ht="180" x14ac:dyDescent="0.25">
+        <v>693</v>
+      </c>
+      <c r="J167" s="6" t="s">
+        <v>964</v>
+      </c>
+      <c r="K167" s="8" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="168" spans="1:27" ht="150" x14ac:dyDescent="0.25">
       <c r="A168" s="6" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="B168" s="6" t="s">
         <v>411</v>
@@ -10145,27 +10205,24 @@
         <v>699</v>
       </c>
       <c r="E168" s="8" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
       <c r="F168" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>957</v>
+        <v>701</v>
       </c>
       <c r="I168" s="2" t="s">
-        <v>705</v>
-      </c>
-      <c r="J168" s="6" t="s">
-        <v>964</v>
-      </c>
-      <c r="K168" s="6" t="s">
-        <v>911</v>
+        <v>702</v>
+      </c>
+      <c r="L168" s="20" t="s">
+        <v>956</v>
       </c>
     </row>
     <row r="169" spans="1:27" ht="180" x14ac:dyDescent="0.25">
       <c r="A169" s="6" t="s">
-        <v>725</v>
+        <v>721</v>
       </c>
       <c r="B169" s="6" t="s">
         <v>411</v>
@@ -10174,16 +10231,16 @@
         <v>699</v>
       </c>
       <c r="E169" s="8" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="F169" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="I169" s="2" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="J169" s="6" t="s">
         <v>964</v>
@@ -10192,9 +10249,9 @@
         <v>911</v>
       </c>
     </row>
-    <row r="170" spans="1:27" ht="225" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:27" ht="180" x14ac:dyDescent="0.25">
       <c r="A170" s="6" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="B170" s="6" t="s">
         <v>411</v>
@@ -10203,16 +10260,16 @@
         <v>699</v>
       </c>
       <c r="E170" s="8" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="F170" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="I170" s="2" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="J170" s="6" t="s">
         <v>964</v>
@@ -10223,36 +10280,36 @@
     </row>
     <row r="171" spans="1:27" ht="225" x14ac:dyDescent="0.25">
       <c r="A171" s="6" t="s">
-        <v>734</v>
+        <v>729</v>
       </c>
       <c r="B171" s="6" t="s">
         <v>411</v>
       </c>
       <c r="C171" s="6" t="s">
-        <v>713</v>
+        <v>699</v>
       </c>
       <c r="E171" s="8" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="F171" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>715</v>
+        <v>959</v>
       </c>
       <c r="I171" s="2" t="s">
-        <v>716</v>
+        <v>711</v>
       </c>
       <c r="J171" s="6" t="s">
         <v>964</v>
       </c>
-      <c r="L171" s="20" t="s">
-        <v>971</v>
+      <c r="K171" s="6" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="172" spans="1:27" ht="225" x14ac:dyDescent="0.25">
       <c r="A172" s="6" t="s">
-        <v>740</v>
+        <v>734</v>
       </c>
       <c r="B172" s="6" t="s">
         <v>411</v>
@@ -10261,27 +10318,27 @@
         <v>713</v>
       </c>
       <c r="E172" s="8" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="F172" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="I172" s="2" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
       <c r="J172" s="6" t="s">
         <v>964</v>
       </c>
-      <c r="K172" s="6" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="173" spans="1:27" ht="270" x14ac:dyDescent="0.25">
+      <c r="L172" s="20" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="173" spans="1:27" ht="225" x14ac:dyDescent="0.25">
       <c r="A173" s="6" t="s">
-        <v>744</v>
+        <v>740</v>
       </c>
       <c r="B173" s="6" t="s">
         <v>411</v>
@@ -10290,16 +10347,16 @@
         <v>713</v>
       </c>
       <c r="E173" s="8" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="F173" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G173" s="2" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="I173" s="2" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
       <c r="J173" s="6" t="s">
         <v>964</v>
@@ -10308,9 +10365,9 @@
         <v>911</v>
       </c>
     </row>
-    <row r="174" spans="1:27" ht="285.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:27" ht="270" x14ac:dyDescent="0.25">
       <c r="A174" s="6" t="s">
-        <v>751</v>
+        <v>744</v>
       </c>
       <c r="B174" s="6" t="s">
         <v>411</v>
@@ -10319,16 +10376,16 @@
         <v>713</v>
       </c>
       <c r="E174" s="8" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
       <c r="F174" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
       <c r="I174" s="2" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
       <c r="J174" s="6" t="s">
         <v>964</v>
@@ -10337,130 +10394,130 @@
         <v>911</v>
       </c>
     </row>
-    <row r="175" spans="1:27" ht="195.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:27" ht="285.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A175" s="6" t="s">
+        <v>751</v>
+      </c>
+      <c r="B175" s="6" t="s">
+        <v>411</v>
+      </c>
+      <c r="C175" s="6" t="s">
+        <v>713</v>
+      </c>
+      <c r="E175" s="8" t="s">
+        <v>726</v>
+      </c>
+      <c r="F175" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G175" s="2" t="s">
+        <v>727</v>
+      </c>
+      <c r="I175" s="2" t="s">
+        <v>728</v>
+      </c>
+      <c r="J175" s="6" t="s">
+        <v>964</v>
+      </c>
+      <c r="K175" s="6" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="176" spans="1:27" ht="195.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A176" s="6" t="s">
         <v>752</v>
       </c>
-      <c r="B175" s="10" t="s">
+      <c r="B176" s="10" t="s">
         <v>730</v>
       </c>
-      <c r="C175" s="10" t="s">
+      <c r="C176" s="10" t="s">
         <v>713</v>
       </c>
-      <c r="E175" s="10" t="s">
+      <c r="E176" s="10" t="s">
         <v>731</v>
       </c>
-      <c r="F175" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="G175" s="12" t="s">
+      <c r="F176" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G176" s="12" t="s">
         <v>732</v>
       </c>
-      <c r="H175" s="11"/>
-      <c r="I175" s="12" t="s">
+      <c r="H176" s="11"/>
+      <c r="I176" s="12" t="s">
         <v>733</v>
       </c>
-      <c r="J175" s="23" t="s">
+      <c r="J176" s="23" t="s">
         <v>964</v>
       </c>
-      <c r="K175" s="23" t="s">
-        <v>911</v>
-      </c>
-      <c r="L175" s="23"/>
-      <c r="M175" s="11"/>
-      <c r="N175" s="11"/>
-      <c r="O175" s="11"/>
-      <c r="P175" s="11"/>
-      <c r="Q175" s="11"/>
-      <c r="R175" s="11"/>
-      <c r="S175" s="11"/>
-      <c r="T175" s="11"/>
-      <c r="U175" s="11"/>
-      <c r="V175" s="11"/>
-      <c r="W175" s="11"/>
-      <c r="X175" s="11"/>
-      <c r="Y175" s="11"/>
-      <c r="Z175" s="11"/>
-      <c r="AA175" s="11"/>
-    </row>
-    <row r="176" spans="1:27" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A176" s="6" t="s">
+      <c r="K176" s="23" t="s">
+        <v>911</v>
+      </c>
+      <c r="L176" s="23"/>
+      <c r="M176" s="11"/>
+      <c r="N176" s="11"/>
+      <c r="O176" s="11"/>
+      <c r="P176" s="11"/>
+      <c r="Q176" s="11"/>
+      <c r="R176" s="11"/>
+      <c r="S176" s="11"/>
+      <c r="T176" s="11"/>
+      <c r="U176" s="11"/>
+      <c r="V176" s="11"/>
+      <c r="W176" s="11"/>
+      <c r="X176" s="11"/>
+      <c r="Y176" s="11"/>
+      <c r="Z176" s="11"/>
+      <c r="AA176" s="11"/>
+    </row>
+    <row r="177" spans="1:27" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A177" s="6" t="s">
         <v>758</v>
-      </c>
-      <c r="B176" s="10" t="s">
-        <v>735</v>
-      </c>
-      <c r="C176" s="10" t="s">
-        <v>735</v>
-      </c>
-      <c r="E176" s="14" t="s">
-        <v>748</v>
-      </c>
-      <c r="F176" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="G176" s="13" t="s">
-        <v>750</v>
-      </c>
-      <c r="H176" s="16"/>
-      <c r="I176" s="15" t="s">
-        <v>749</v>
-      </c>
-      <c r="J176" s="24" t="s">
-        <v>964</v>
-      </c>
-      <c r="K176" s="24" t="s">
-        <v>911</v>
-      </c>
-      <c r="L176" s="24"/>
-      <c r="M176" s="16"/>
-      <c r="N176" s="16"/>
-      <c r="O176" s="16"/>
-      <c r="P176" s="16"/>
-      <c r="Q176" s="16"/>
-      <c r="R176" s="16"/>
-      <c r="S176" s="16"/>
-      <c r="T176" s="16"/>
-      <c r="U176" s="16"/>
-      <c r="V176" s="16"/>
-      <c r="W176" s="16"/>
-      <c r="X176" s="16"/>
-      <c r="Y176" s="16"/>
-      <c r="Z176" s="16"/>
-      <c r="AA176" s="16"/>
-    </row>
-    <row r="177" spans="1:12" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A177" s="6" t="s">
-        <v>763</v>
       </c>
       <c r="B177" s="10" t="s">
         <v>735</v>
       </c>
-      <c r="C177" s="8" t="s">
-        <v>736</v>
-      </c>
-      <c r="E177" s="8" t="s">
-        <v>737</v>
+      <c r="C177" s="10" t="s">
+        <v>735</v>
+      </c>
+      <c r="E177" s="14" t="s">
+        <v>748</v>
       </c>
       <c r="F177" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G177" s="13" t="s">
-        <v>738</v>
-      </c>
-      <c r="I177" s="13" t="s">
-        <v>739</v>
-      </c>
-      <c r="K177" s="19" t="s">
-        <v>909</v>
-      </c>
-      <c r="L177" s="20" t="s">
-        <v>970</v>
-      </c>
-    </row>
-    <row r="178" spans="1:12" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>750</v>
+      </c>
+      <c r="H177" s="16"/>
+      <c r="I177" s="15" t="s">
+        <v>749</v>
+      </c>
+      <c r="J177" s="24" t="s">
+        <v>964</v>
+      </c>
+      <c r="K177" s="24" t="s">
+        <v>911</v>
+      </c>
+      <c r="L177" s="24"/>
+      <c r="M177" s="16"/>
+      <c r="N177" s="16"/>
+      <c r="O177" s="16"/>
+      <c r="P177" s="16"/>
+      <c r="Q177" s="16"/>
+      <c r="R177" s="16"/>
+      <c r="S177" s="16"/>
+      <c r="T177" s="16"/>
+      <c r="U177" s="16"/>
+      <c r="V177" s="16"/>
+      <c r="W177" s="16"/>
+      <c r="X177" s="16"/>
+      <c r="Y177" s="16"/>
+      <c r="Z177" s="16"/>
+      <c r="AA177" s="16"/>
+    </row>
+    <row r="178" spans="1:27" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A178" s="6" t="s">
-        <v>767</v>
+        <v>763</v>
       </c>
       <c r="B178" s="10" t="s">
         <v>735</v>
@@ -10469,30 +10526,27 @@
         <v>736</v>
       </c>
       <c r="E178" s="8" t="s">
-        <v>741</v>
+        <v>737</v>
       </c>
       <c r="F178" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G178" s="13" t="s">
-        <v>742</v>
+        <v>738</v>
       </c>
       <c r="I178" s="13" t="s">
-        <v>743</v>
-      </c>
-      <c r="J178" s="6" t="s">
-        <v>964</v>
-      </c>
-      <c r="K178" s="6" t="s">
-        <v>911</v>
-      </c>
-      <c r="L178" s="8" t="s">
-        <v>969</v>
-      </c>
-    </row>
-    <row r="179" spans="1:12" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>739</v>
+      </c>
+      <c r="K178" s="19" t="s">
+        <v>909</v>
+      </c>
+      <c r="L178" s="20" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="179" spans="1:27" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A179" s="6" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="B179" s="10" t="s">
         <v>735</v>
@@ -10501,62 +10555,59 @@
         <v>736</v>
       </c>
       <c r="E179" s="8" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
       <c r="F179" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G179" s="13" t="s">
-        <v>746</v>
+        <v>742</v>
       </c>
       <c r="I179" s="13" t="s">
-        <v>747</v>
-      </c>
-      <c r="K179" s="19" t="s">
-        <v>909</v>
-      </c>
-      <c r="L179" s="20" t="s">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="180" spans="1:12" ht="165.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>743</v>
+      </c>
+      <c r="J179" s="6" t="s">
+        <v>964</v>
+      </c>
+      <c r="K179" s="6" t="s">
+        <v>911</v>
+      </c>
+      <c r="L179" s="8" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="180" spans="1:27" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A180" s="6" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
       <c r="B180" s="10" t="s">
         <v>735</v>
       </c>
-      <c r="C180" s="6" t="s">
-        <v>753</v>
-      </c>
-      <c r="D180" s="8" t="s">
-        <v>1001</v>
+      <c r="C180" s="8" t="s">
+        <v>736</v>
       </c>
       <c r="E180" s="8" t="s">
-        <v>754</v>
+        <v>745</v>
       </c>
       <c r="F180" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G180" s="13" t="s">
-        <v>755</v>
-      </c>
-      <c r="H180" s="2" t="s">
-        <v>756</v>
+        <v>746</v>
       </c>
       <c r="I180" s="13" t="s">
-        <v>757</v>
-      </c>
-      <c r="J180" s="25" t="s">
-        <v>964</v>
-      </c>
-      <c r="K180" s="25" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="181" spans="1:12" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>747</v>
+      </c>
+      <c r="K180" s="19" t="s">
+        <v>909</v>
+      </c>
+      <c r="L180" s="20" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="181" spans="1:27" ht="165.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A181" s="6" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="B181" s="10" t="s">
         <v>735</v>
@@ -10565,22 +10616,22 @@
         <v>753</v>
       </c>
       <c r="D181" s="8" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="E181" s="8" t="s">
-        <v>759</v>
+        <v>754</v>
       </c>
       <c r="F181" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G181" s="13" t="s">
-        <v>761</v>
+        <v>755</v>
       </c>
       <c r="H181" s="2" t="s">
-        <v>760</v>
+        <v>756</v>
       </c>
       <c r="I181" s="13" t="s">
-        <v>762</v>
+        <v>757</v>
       </c>
       <c r="J181" s="25" t="s">
         <v>964</v>
@@ -10588,13 +10639,10 @@
       <c r="K181" s="25" t="s">
         <v>911</v>
       </c>
-      <c r="L181" s="25" t="s">
-        <v>968</v>
-      </c>
-    </row>
-    <row r="182" spans="1:12" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="182" spans="1:27" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A182" s="6" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="B182" s="10" t="s">
         <v>735</v>
@@ -10602,28 +10650,37 @@
       <c r="C182" s="6" t="s">
         <v>753</v>
       </c>
+      <c r="D182" s="8" t="s">
+        <v>1002</v>
+      </c>
       <c r="E182" s="8" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
       <c r="F182" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G182" s="13" t="s">
-        <v>765</v>
-      </c>
-      <c r="I182" s="2" t="s">
-        <v>766</v>
-      </c>
-      <c r="J182" s="6" t="s">
+        <v>761</v>
+      </c>
+      <c r="H182" s="2" t="s">
+        <v>760</v>
+      </c>
+      <c r="I182" s="13" t="s">
+        <v>762</v>
+      </c>
+      <c r="J182" s="25" t="s">
         <v>964</v>
       </c>
-      <c r="K182" s="6" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="183" spans="1:12" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K182" s="25" t="s">
+        <v>911</v>
+      </c>
+      <c r="L182" s="25" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="183" spans="1:27" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A183" s="6" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="B183" s="10" t="s">
         <v>735</v>
@@ -10632,7 +10689,7 @@
         <v>753</v>
       </c>
       <c r="E183" s="8" t="s">
-        <v>768</v>
+        <v>764</v>
       </c>
       <c r="F183" s="6" t="s">
         <v>38</v>
@@ -10650,9 +10707,9 @@
         <v>911</v>
       </c>
     </row>
-    <row r="184" spans="1:12" ht="165.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:27" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A184" s="6" t="s">
-        <v>789</v>
+        <v>783</v>
       </c>
       <c r="B184" s="10" t="s">
         <v>735</v>
@@ -10667,22 +10724,21 @@
         <v>38</v>
       </c>
       <c r="G184" s="13" t="s">
-        <v>770</v>
-      </c>
-      <c r="H184" s="2"/>
-      <c r="I184" s="13" t="s">
-        <v>771</v>
-      </c>
-      <c r="J184" s="25" t="s">
+        <v>765</v>
+      </c>
+      <c r="I184" s="2" t="s">
+        <v>766</v>
+      </c>
+      <c r="J184" s="6" t="s">
         <v>964</v>
       </c>
-      <c r="K184" s="25" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="185" spans="1:12" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K184" s="6" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="185" spans="1:27" ht="165.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A185" s="6" t="s">
-        <v>794</v>
+        <v>789</v>
       </c>
       <c r="B185" s="10" t="s">
         <v>735</v>
@@ -10697,11 +10753,11 @@
         <v>38</v>
       </c>
       <c r="G185" s="13" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
       <c r="H185" s="2"/>
       <c r="I185" s="13" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="J185" s="25" t="s">
         <v>964</v>
@@ -10710,9 +10766,9 @@
         <v>911</v>
       </c>
     </row>
-    <row r="186" spans="1:12" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:27" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A186" s="6" t="s">
-        <v>799</v>
+        <v>794</v>
       </c>
       <c r="B186" s="10" t="s">
         <v>735</v>
@@ -10721,45 +10777,46 @@
         <v>753</v>
       </c>
       <c r="E186" s="8" t="s">
-        <v>776</v>
+        <v>768</v>
       </c>
       <c r="F186" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="G186" s="2" t="s">
-        <v>777</v>
-      </c>
-      <c r="I186" s="2" t="s">
-        <v>778</v>
-      </c>
-      <c r="J186" s="6" t="s">
+      <c r="G186" s="13" t="s">
+        <v>773</v>
+      </c>
+      <c r="H186" s="2"/>
+      <c r="I186" s="13" t="s">
+        <v>774</v>
+      </c>
+      <c r="J186" s="25" t="s">
         <v>964</v>
       </c>
       <c r="K186" s="25" t="s">
         <v>911</v>
       </c>
     </row>
-    <row r="187" spans="1:12" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:27" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A187" s="6" t="s">
-        <v>804</v>
+        <v>799</v>
       </c>
       <c r="B187" s="10" t="s">
         <v>735</v>
       </c>
-      <c r="C187" s="8" t="s">
-        <v>779</v>
-      </c>
-      <c r="E187" s="6" t="s">
-        <v>786</v>
+      <c r="C187" s="6" t="s">
+        <v>753</v>
+      </c>
+      <c r="E187" s="8" t="s">
+        <v>776</v>
       </c>
       <c r="F187" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G187" s="2" t="s">
-        <v>781</v>
+        <v>777</v>
       </c>
       <c r="I187" s="2" t="s">
-        <v>782</v>
+        <v>778</v>
       </c>
       <c r="J187" s="6" t="s">
         <v>964</v>
@@ -10768,27 +10825,27 @@
         <v>911</v>
       </c>
     </row>
-    <row r="188" spans="1:12" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:27" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A188" s="6" t="s">
-        <v>810</v>
+        <v>804</v>
       </c>
       <c r="B188" s="10" t="s">
         <v>735</v>
       </c>
       <c r="C188" s="8" t="s">
-        <v>784</v>
+        <v>779</v>
       </c>
       <c r="E188" s="6" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="F188" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G188" s="2" t="s">
-        <v>787</v>
+        <v>781</v>
       </c>
       <c r="I188" s="2" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="J188" s="6" t="s">
         <v>964</v>
@@ -10797,56 +10854,56 @@
         <v>911</v>
       </c>
     </row>
-    <row r="189" spans="1:12" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:27" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A189" s="6" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="B189" s="10" t="s">
         <v>735</v>
       </c>
       <c r="C189" s="8" t="s">
-        <v>790</v>
-      </c>
-      <c r="E189" s="8" t="s">
-        <v>791</v>
+        <v>784</v>
+      </c>
+      <c r="E189" s="6" t="s">
+        <v>785</v>
       </c>
       <c r="F189" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G189" s="2" t="s">
-        <v>792</v>
+        <v>787</v>
       </c>
       <c r="I189" s="2" t="s">
-        <v>793</v>
-      </c>
-      <c r="K189" s="26" t="s">
-        <v>909</v>
-      </c>
-      <c r="L189" s="20" t="s">
-        <v>961</v>
-      </c>
-    </row>
-    <row r="190" spans="1:12" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>788</v>
+      </c>
+      <c r="J189" s="6" t="s">
+        <v>964</v>
+      </c>
+      <c r="K189" s="25" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="190" spans="1:27" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A190" s="6" t="s">
-        <v>817</v>
+        <v>813</v>
       </c>
       <c r="B190" s="10" t="s">
         <v>735</v>
       </c>
       <c r="C190" s="8" t="s">
-        <v>796</v>
+        <v>790</v>
       </c>
       <c r="E190" s="8" t="s">
-        <v>795</v>
+        <v>791</v>
       </c>
       <c r="F190" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G190" s="2" t="s">
-        <v>798</v>
+        <v>792</v>
       </c>
       <c r="I190" s="2" t="s">
-        <v>797</v>
+        <v>793</v>
       </c>
       <c r="K190" s="26" t="s">
         <v>909</v>
@@ -10855,9 +10912,9 @@
         <v>961</v>
       </c>
     </row>
-    <row r="191" spans="1:12" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:27" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A191" s="6" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="B191" s="10" t="s">
         <v>735</v>
@@ -10866,19 +10923,16 @@
         <v>796</v>
       </c>
       <c r="E191" s="8" t="s">
-        <v>800</v>
+        <v>795</v>
       </c>
       <c r="F191" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G191" s="2" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
       <c r="I191" s="2" t="s">
-        <v>803</v>
-      </c>
-      <c r="J191" s="6" t="s">
-        <v>802</v>
+        <v>797</v>
       </c>
       <c r="K191" s="26" t="s">
         <v>909</v>
@@ -10887,38 +10941,41 @@
         <v>961</v>
       </c>
     </row>
-    <row r="192" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:27" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A192" s="6" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
       <c r="B192" s="10" t="s">
         <v>735</v>
       </c>
       <c r="C192" s="8" t="s">
-        <v>805</v>
+        <v>796</v>
       </c>
       <c r="E192" s="8" t="s">
-        <v>806</v>
+        <v>800</v>
       </c>
       <c r="F192" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G192" s="2" t="s">
-        <v>807</v>
+        <v>801</v>
       </c>
       <c r="I192" s="2" t="s">
-        <v>808</v>
+        <v>803</v>
       </c>
       <c r="J192" s="6" t="s">
-        <v>964</v>
-      </c>
-      <c r="K192" s="27" t="s">
-        <v>911</v>
+        <v>802</v>
+      </c>
+      <c r="K192" s="26" t="s">
+        <v>909</v>
+      </c>
+      <c r="L192" s="20" t="s">
+        <v>961</v>
       </c>
     </row>
     <row r="193" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A193" s="6" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
       <c r="B193" s="10" t="s">
         <v>735</v>
@@ -10927,16 +10984,16 @@
         <v>805</v>
       </c>
       <c r="E193" s="8" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="F193" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G193" s="2" t="s">
-        <v>811</v>
+        <v>807</v>
       </c>
       <c r="I193" s="2" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
       <c r="J193" s="6" t="s">
         <v>964</v>
@@ -10945,9 +11002,9 @@
         <v>911</v>
       </c>
     </row>
-    <row r="194" spans="1:12" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A194" s="6" t="s">
-        <v>833</v>
+        <v>825</v>
       </c>
       <c r="B194" s="10" t="s">
         <v>735</v>
@@ -10956,16 +11013,16 @@
         <v>805</v>
       </c>
       <c r="E194" s="8" t="s">
-        <v>814</v>
+        <v>809</v>
       </c>
       <c r="F194" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G194" s="2" t="s">
-        <v>815</v>
+        <v>811</v>
       </c>
       <c r="I194" s="2" t="s">
-        <v>816</v>
+        <v>812</v>
       </c>
       <c r="J194" s="6" t="s">
         <v>964</v>
@@ -10974,9 +11031,9 @@
         <v>911</v>
       </c>
     </row>
-    <row r="195" spans="1:12" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:12" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A195" s="6" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
       <c r="B195" s="10" t="s">
         <v>735</v>
@@ -10985,16 +11042,16 @@
         <v>805</v>
       </c>
       <c r="E195" s="8" t="s">
-        <v>826</v>
+        <v>814</v>
       </c>
       <c r="F195" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G195" s="2" t="s">
-        <v>829</v>
+        <v>815</v>
       </c>
       <c r="I195" s="2" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="J195" s="6" t="s">
         <v>964</v>
@@ -11003,9 +11060,9 @@
         <v>911</v>
       </c>
     </row>
-    <row r="196" spans="1:12" ht="165.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:12" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A196" s="6" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="B196" s="10" t="s">
         <v>735</v>
@@ -11014,16 +11071,16 @@
         <v>805</v>
       </c>
       <c r="E196" s="8" t="s">
-        <v>820</v>
+        <v>826</v>
       </c>
       <c r="F196" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G196" s="2" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="I196" s="2" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
       <c r="J196" s="6" t="s">
         <v>964</v>
@@ -11031,13 +11088,10 @@
       <c r="K196" s="27" t="s">
         <v>911</v>
       </c>
-      <c r="L196" s="8" t="s">
-        <v>962</v>
-      </c>
     </row>
     <row r="197" spans="1:12" ht="165.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A197" s="6" t="s">
-        <v>845</v>
+        <v>841</v>
       </c>
       <c r="B197" s="10" t="s">
         <v>735</v>
@@ -11046,16 +11100,16 @@
         <v>805</v>
       </c>
       <c r="E197" s="8" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
       <c r="F197" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G197" s="2" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="I197" s="2" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="J197" s="6" t="s">
         <v>964</v>
@@ -11063,10 +11117,13 @@
       <c r="K197" s="27" t="s">
         <v>911</v>
       </c>
-    </row>
-    <row r="198" spans="1:12" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L197" s="8" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="198" spans="1:12" ht="165.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A198" s="6" t="s">
-        <v>849</v>
+        <v>845</v>
       </c>
       <c r="B198" s="10" t="s">
         <v>735</v>
@@ -11075,16 +11132,16 @@
         <v>805</v>
       </c>
       <c r="E198" s="8" t="s">
-        <v>830</v>
+        <v>823</v>
       </c>
       <c r="F198" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G198" s="2" t="s">
-        <v>831</v>
+        <v>827</v>
       </c>
       <c r="I198" s="2" t="s">
-        <v>832</v>
+        <v>824</v>
       </c>
       <c r="J198" s="6" t="s">
         <v>964</v>
@@ -11093,9 +11150,9 @@
         <v>911</v>
       </c>
     </row>
-    <row r="199" spans="1:12" ht="180.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:12" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A199" s="6" t="s">
-        <v>854</v>
+        <v>849</v>
       </c>
       <c r="B199" s="10" t="s">
         <v>735</v>
@@ -11104,16 +11161,16 @@
         <v>805</v>
       </c>
       <c r="E199" s="8" t="s">
-        <v>837</v>
+        <v>830</v>
       </c>
       <c r="F199" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G199" s="2" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="I199" s="2" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
       <c r="J199" s="6" t="s">
         <v>964</v>
@@ -11122,9 +11179,9 @@
         <v>911</v>
       </c>
     </row>
-    <row r="200" spans="1:12" ht="210.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:12" ht="180.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A200" s="6" t="s">
-        <v>858</v>
+        <v>854</v>
       </c>
       <c r="B200" s="10" t="s">
         <v>735</v>
@@ -11133,16 +11190,16 @@
         <v>805</v>
       </c>
       <c r="E200" s="8" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="F200" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G200" s="2" t="s">
-        <v>839</v>
+        <v>834</v>
       </c>
       <c r="I200" s="2" t="s">
-        <v>840</v>
+        <v>835</v>
       </c>
       <c r="J200" s="6" t="s">
         <v>964</v>
@@ -11151,9 +11208,9 @@
         <v>911</v>
       </c>
     </row>
-    <row r="201" spans="1:12" ht="195.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:12" ht="210.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A201" s="6" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="B201" s="10" t="s">
         <v>735</v>
@@ -11162,16 +11219,16 @@
         <v>805</v>
       </c>
       <c r="E201" s="8" t="s">
-        <v>842</v>
+        <v>838</v>
       </c>
       <c r="F201" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G201" s="2" t="s">
-        <v>843</v>
+        <v>839</v>
       </c>
       <c r="I201" s="2" t="s">
-        <v>844</v>
+        <v>840</v>
       </c>
       <c r="J201" s="6" t="s">
         <v>964</v>
@@ -11180,9 +11237,9 @@
         <v>911</v>
       </c>
     </row>
-    <row r="202" spans="1:12" ht="225.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:12" ht="195.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A202" s="6" t="s">
-        <v>866</v>
+        <v>861</v>
       </c>
       <c r="B202" s="10" t="s">
         <v>735</v>
@@ -11191,27 +11248,27 @@
         <v>805</v>
       </c>
       <c r="E202" s="8" t="s">
-        <v>846</v>
+        <v>842</v>
       </c>
       <c r="F202" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G202" s="2" t="s">
-        <v>847</v>
+        <v>843</v>
       </c>
       <c r="I202" s="2" t="s">
-        <v>848</v>
+        <v>844</v>
       </c>
       <c r="J202" s="6" t="s">
-        <v>853</v>
-      </c>
-      <c r="L202" s="20" t="s">
-        <v>963</v>
-      </c>
-    </row>
-    <row r="203" spans="1:12" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>964</v>
+      </c>
+      <c r="K202" s="27" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="203" spans="1:12" ht="225.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A203" s="6" t="s">
-        <v>870</v>
+        <v>866</v>
       </c>
       <c r="B203" s="10" t="s">
         <v>735</v>
@@ -11220,16 +11277,16 @@
         <v>805</v>
       </c>
       <c r="E203" s="8" t="s">
-        <v>850</v>
+        <v>846</v>
       </c>
       <c r="F203" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G203" s="2" t="s">
-        <v>851</v>
+        <v>847</v>
       </c>
       <c r="I203" s="2" t="s">
-        <v>852</v>
+        <v>848</v>
       </c>
       <c r="J203" s="6" t="s">
         <v>853</v>
@@ -11240,7 +11297,7 @@
     </row>
     <row r="204" spans="1:12" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A204" s="6" t="s">
-        <v>873</v>
+        <v>870</v>
       </c>
       <c r="B204" s="10" t="s">
         <v>735</v>
@@ -11249,27 +11306,27 @@
         <v>805</v>
       </c>
       <c r="E204" s="8" t="s">
-        <v>855</v>
+        <v>850</v>
       </c>
       <c r="F204" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G204" s="2" t="s">
-        <v>856</v>
+        <v>851</v>
       </c>
       <c r="I204" s="2" t="s">
-        <v>857</v>
+        <v>852</v>
       </c>
       <c r="J204" s="6" t="s">
-        <v>964</v>
-      </c>
-      <c r="K204" s="27" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="205" spans="1:12" ht="165.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>853</v>
+      </c>
+      <c r="L204" s="20" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="205" spans="1:12" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A205" s="6" t="s">
-        <v>878</v>
+        <v>873</v>
       </c>
       <c r="B205" s="10" t="s">
         <v>735</v>
@@ -11278,16 +11335,16 @@
         <v>805</v>
       </c>
       <c r="E205" s="8" t="s">
-        <v>862</v>
+        <v>855</v>
       </c>
       <c r="F205" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G205" s="2" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="I205" s="2" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="J205" s="6" t="s">
         <v>964</v>
@@ -11296,9 +11353,9 @@
         <v>911</v>
       </c>
     </row>
-    <row r="206" spans="1:12" ht="225.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:12" ht="165.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A206" s="6" t="s">
-        <v>884</v>
+        <v>878</v>
       </c>
       <c r="B206" s="10" t="s">
         <v>735</v>
@@ -11307,27 +11364,27 @@
         <v>805</v>
       </c>
       <c r="E206" s="8" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="F206" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G206" s="2" t="s">
-        <v>864</v>
+        <v>859</v>
       </c>
       <c r="I206" s="2" t="s">
-        <v>865</v>
-      </c>
-      <c r="K206" s="26" t="s">
-        <v>909</v>
-      </c>
-      <c r="L206" s="20" t="s">
-        <v>965</v>
-      </c>
-    </row>
-    <row r="207" spans="1:12" ht="240.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>860</v>
+      </c>
+      <c r="J206" s="6" t="s">
+        <v>964</v>
+      </c>
+      <c r="K206" s="27" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="207" spans="1:12" ht="225.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A207" s="6" t="s">
-        <v>905</v>
+        <v>884</v>
       </c>
       <c r="B207" s="10" t="s">
         <v>735</v>
@@ -11336,19 +11393,16 @@
         <v>805</v>
       </c>
       <c r="E207" s="8" t="s">
-        <v>867</v>
+        <v>863</v>
       </c>
       <c r="F207" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G207" s="2" t="s">
-        <v>868</v>
+        <v>864</v>
       </c>
       <c r="I207" s="2" t="s">
-        <v>869</v>
-      </c>
-      <c r="J207" s="6" t="s">
-        <v>853</v>
+        <v>865</v>
       </c>
       <c r="K207" s="26" t="s">
         <v>909</v>
@@ -11357,9 +11411,9 @@
         <v>965</v>
       </c>
     </row>
-    <row r="208" spans="1:12" ht="165.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:12" ht="240.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A208" s="6" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="B208" s="10" t="s">
         <v>735</v>
@@ -11368,77 +11422,80 @@
         <v>805</v>
       </c>
       <c r="E208" s="8" t="s">
+        <v>867</v>
+      </c>
+      <c r="F208" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G208" s="2" t="s">
+        <v>868</v>
+      </c>
+      <c r="I208" s="2" t="s">
+        <v>869</v>
+      </c>
+      <c r="J208" s="6" t="s">
+        <v>853</v>
+      </c>
+      <c r="K208" s="26" t="s">
+        <v>909</v>
+      </c>
+      <c r="L208" s="20" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="209" spans="1:12" ht="165.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A209" s="6" t="s">
+        <v>906</v>
+      </c>
+      <c r="B209" s="10" t="s">
+        <v>735</v>
+      </c>
+      <c r="C209" s="8" t="s">
+        <v>805</v>
+      </c>
+      <c r="E209" s="8" t="s">
         <v>820</v>
       </c>
-      <c r="F208" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="G208" s="2" t="s">
+      <c r="F209" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G209" s="2" t="s">
         <v>871</v>
       </c>
-      <c r="I208" s="2" t="s">
+      <c r="I209" s="2" t="s">
         <v>872</v>
       </c>
-      <c r="J208" s="8" t="s">
+      <c r="J209" s="8" t="s">
         <v>966</v>
       </c>
-      <c r="K208" s="20" t="s">
+      <c r="K209" s="20" t="s">
         <v>909</v>
       </c>
-      <c r="L208" s="20" t="s">
+      <c r="L209" s="20" t="s">
         <v>967</v>
       </c>
     </row>
-    <row r="209" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A209" s="6" t="s">
+    <row r="210" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A210" s="6" t="s">
         <v>907</v>
-      </c>
-      <c r="B209" s="6" t="s">
-        <v>874</v>
-      </c>
-      <c r="C209" s="6" t="s">
-        <v>874</v>
-      </c>
-      <c r="E209" s="8" t="s">
-        <v>879</v>
-      </c>
-      <c r="F209" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="G209" s="2" t="s">
-        <v>880</v>
-      </c>
-      <c r="I209" s="2" t="s">
-        <v>881</v>
-      </c>
-      <c r="J209" s="6" t="s">
-        <v>964</v>
-      </c>
-      <c r="K209" s="22" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="210" spans="1:11" ht="180" x14ac:dyDescent="0.25">
-      <c r="A210" s="6" t="s">
-        <v>908</v>
       </c>
       <c r="B210" s="6" t="s">
         <v>874</v>
       </c>
-      <c r="C210" s="8" t="s">
-        <v>875</v>
+      <c r="C210" s="6" t="s">
+        <v>874</v>
       </c>
       <c r="E210" s="8" t="s">
-        <v>876</v>
+        <v>879</v>
       </c>
       <c r="F210" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G210" s="2" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="I210" s="2" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="J210" s="6" t="s">
         <v>964</v>
@@ -11447,27 +11504,27 @@
         <v>911</v>
       </c>
     </row>
-    <row r="211" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:12" ht="180" x14ac:dyDescent="0.25">
       <c r="A211" s="6" t="s">
-        <v>917</v>
+        <v>908</v>
       </c>
       <c r="B211" s="6" t="s">
         <v>874</v>
       </c>
       <c r="C211" s="8" t="s">
-        <v>885</v>
+        <v>875</v>
       </c>
       <c r="E211" s="8" t="s">
-        <v>886</v>
+        <v>876</v>
       </c>
       <c r="F211" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G211" s="2" t="s">
-        <v>877</v>
+        <v>882</v>
       </c>
       <c r="I211" s="2" t="s">
-        <v>887</v>
+        <v>883</v>
       </c>
       <c r="J211" s="6" t="s">
         <v>964</v>
@@ -11476,8 +11533,37 @@
         <v>911</v>
       </c>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E212" s="8"/>
+    <row r="212" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A212" s="6" t="s">
+        <v>917</v>
+      </c>
+      <c r="B212" s="6" t="s">
+        <v>874</v>
+      </c>
+      <c r="C212" s="8" t="s">
+        <v>885</v>
+      </c>
+      <c r="E212" s="8" t="s">
+        <v>886</v>
+      </c>
+      <c r="F212" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G212" s="2" t="s">
+        <v>877</v>
+      </c>
+      <c r="I212" s="2" t="s">
+        <v>887</v>
+      </c>
+      <c r="J212" s="6" t="s">
+        <v>964</v>
+      </c>
+      <c r="K212" s="22" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="213" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E213" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Advantage Test Cases.xlsx
+++ b/Advantage Test Cases.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3805" uniqueCount="1033">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3804" uniqueCount="1034">
   <si>
     <t>Test Objective</t>
   </si>
@@ -4841,13 +4841,16 @@
   <si>
     <t>fn_SignOut</t>
   </si>
+  <si>
+    <t>1.  School logo should be visible 
+2.  Quick links Home, Bookmarks, My Class, Notifications, Reports, Marks Entry and My Profile should be visible</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5318,24 +5321,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA213"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F27" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" topLeftCell="F28" workbookViewId="0">
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="6" width="12.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="6" width="18.42578125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="6" width="16.5703125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="8" width="16.5703125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="6" width="31.85546875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="6" width="33.5703125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="42.7109375" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="25.28515625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="41.140625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" style="6" width="26.0" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" style="6" width="11.42578125" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" style="8" width="24.28515625" collapsed="true"/>
+    <col min="1" max="1" width="12.140625" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="18.42578125" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="16.5703125" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="16.5703125" style="8" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="31.85546875" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="33.5703125" style="6" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="42.7109375" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="25.28515625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="41.140625" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="26" style="6" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="11.42578125" style="6" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="24.28515625" style="8" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -6168,7 +6171,7 @@
         <v>1027</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>109</v>
+        <v>1033</v>
       </c>
       <c r="J29" s="6" t="s">
         <v>972</v>
@@ -11581,17 +11584,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="20.85546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="11.28515625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="16.85546875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="17.5703125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="31.85546875" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="29.0" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="37.5703125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="26.140625" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="37.5703125" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="12.5703125" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="19.7109375" collapsed="true"/>
+    <col min="1" max="1" width="20.85546875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11.28515625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="16.85546875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="17.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="31.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="29" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="37.5703125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="26.140625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="37.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="12.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="19.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">

--- a/Advantage Test Cases.xlsx
+++ b/Advantage Test Cases.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3804" uniqueCount="1034">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3808" uniqueCount="1037">
   <si>
     <t>Test Objective</t>
   </si>
@@ -4845,12 +4845,22 @@
     <t>1.  School logo should be visible 
 2.  Quick links Home, Bookmarks, My Class, Notifications, Reports, Marks Entry and My Profile should be visible</t>
   </si>
+  <si>
+    <t>fn_HeaderDashboard</t>
+  </si>
+  <si>
+    <t>fn_FooterDashboard</t>
+  </si>
+  <si>
+    <t>fn_VisibilitySubjectandCalendar</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5321,24 +5331,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA213"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F28" workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.140625" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="18.42578125" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="16.5703125" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="16.5703125" style="8" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="31.85546875" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="33.5703125" style="6" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="42.7109375" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="25.28515625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="41.140625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="26" style="6" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="11.42578125" style="6" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="24.28515625" style="8" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="6" width="12.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="6" width="18.42578125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="6" width="16.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="8" width="16.5703125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="6" width="31.85546875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="6" width="33.5703125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="42.7109375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="25.28515625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="41.140625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="6" width="26.0" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="6" width="11.42578125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="8" width="24.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -6161,6 +6171,9 @@
       <c r="C29" s="6" t="s">
         <v>106</v>
       </c>
+      <c r="D29" s="8" t="s">
+        <v>1034</v>
+      </c>
       <c r="E29" s="8" t="s">
         <v>107</v>
       </c>
@@ -6176,8 +6189,8 @@
       <c r="J29" s="6" t="s">
         <v>972</v>
       </c>
-      <c r="K29" s="6" t="s">
-        <v>911</v>
+      <c r="K29" t="s">
+        <v>1012</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="315" x14ac:dyDescent="0.25">
@@ -6190,6 +6203,9 @@
       <c r="C30" s="6" t="s">
         <v>111</v>
       </c>
+      <c r="D30" s="8" t="s">
+        <v>1035</v>
+      </c>
       <c r="E30" s="8" t="s">
         <v>110</v>
       </c>
@@ -6205,8 +6221,8 @@
       <c r="J30" s="6" t="s">
         <v>972</v>
       </c>
-      <c r="K30" s="6" t="s">
-        <v>911</v>
+      <c r="K30" t="s">
+        <v>1012</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -6219,6 +6235,9 @@
       <c r="C31" s="8" t="s">
         <v>116</v>
       </c>
+      <c r="D31" s="8" t="s">
+        <v>1036</v>
+      </c>
       <c r="E31" s="8" t="s">
         <v>122</v>
       </c>
@@ -6234,8 +6253,8 @@
       <c r="J31" s="6" t="s">
         <v>972</v>
       </c>
-      <c r="K31" s="6" t="s">
-        <v>911</v>
+      <c r="K31" t="s">
+        <v>1012</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="45" x14ac:dyDescent="0.25">
@@ -11584,17 +11603,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.85546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11.28515625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="16.85546875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="17.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="31.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="29" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="37.5703125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="26.140625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="37.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="12.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="19.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="20.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="16.85546875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="17.5703125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="31.85546875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="29.0" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="37.5703125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="26.140625" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="37.5703125" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="12.5703125" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="19.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">

--- a/Advantage Test Cases.xlsx
+++ b/Advantage Test Cases.xlsx
@@ -9,13 +9,14 @@
   <sheets>
     <sheet name="Advantage" sheetId="1" r:id="rId1"/>
     <sheet name="Automation" sheetId="2" r:id="rId2"/>
+    <sheet name="Estimation" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3808" uniqueCount="1037">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3820" uniqueCount="1049">
   <si>
     <t>Test Objective</t>
   </si>
@@ -4853,6 +4854,42 @@
   </si>
   <si>
     <t>fn_VisibilitySubjectandCalendar</t>
+  </si>
+  <si>
+    <t>Till 31 jan</t>
+  </si>
+  <si>
+    <t>fn_ViewBookmarkedresources</t>
+  </si>
+  <si>
+    <t>fn_SearchBookmark</t>
+  </si>
+  <si>
+    <t>fn_PlayBookmarkedOneByOne</t>
+  </si>
+  <si>
+    <t>fn_IndividualBookmarked</t>
+  </si>
+  <si>
+    <t>fn_PreviewContent</t>
+  </si>
+  <si>
+    <t>fn_RemoveBookmarked</t>
+  </si>
+  <si>
+    <t>fn_ViewStudentsDetail</t>
+  </si>
+  <si>
+    <t>fn_WlcmLtrToAnAdmission</t>
+  </si>
+  <si>
+    <t>fn_WlcmLtrMorethanOneAdmission</t>
+  </si>
+  <si>
+    <t>fn_TempPassword</t>
+  </si>
+  <si>
+    <t>fn_ViewDetailsofGroup</t>
   </si>
 </sst>
 </file>
@@ -5331,8 +5368,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA213"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6267,6 +6304,9 @@
       <c r="C32" s="8" t="s">
         <v>121</v>
       </c>
+      <c r="D32" s="8" t="s">
+        <v>1038</v>
+      </c>
       <c r="E32" s="8" t="s">
         <v>127</v>
       </c>
@@ -6282,8 +6322,8 @@
       <c r="J32" s="6" t="s">
         <v>972</v>
       </c>
-      <c r="K32" s="6" t="s">
-        <v>911</v>
+      <c r="K32" t="s">
+        <v>1012</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="90" x14ac:dyDescent="0.25">
@@ -6296,6 +6336,9 @@
       <c r="C33" s="8" t="s">
         <v>126</v>
       </c>
+      <c r="D33" s="8" t="s">
+        <v>1039</v>
+      </c>
       <c r="E33" s="8" t="s">
         <v>128</v>
       </c>
@@ -6311,8 +6354,8 @@
       <c r="J33" s="6" t="s">
         <v>972</v>
       </c>
-      <c r="K33" s="6" t="s">
-        <v>911</v>
+      <c r="K33" t="s">
+        <v>1012</v>
       </c>
     </row>
     <row r="34" spans="1:12" ht="75" x14ac:dyDescent="0.25">
@@ -6325,6 +6368,9 @@
       <c r="C34" s="8" t="s">
         <v>133</v>
       </c>
+      <c r="D34" s="8" t="s">
+        <v>1040</v>
+      </c>
       <c r="E34" s="8" t="s">
         <v>132</v>
       </c>
@@ -6340,8 +6386,8 @@
       <c r="J34" s="6" t="s">
         <v>972</v>
       </c>
-      <c r="K34" s="6" t="s">
-        <v>911</v>
+      <c r="K34" t="s">
+        <v>1012</v>
       </c>
     </row>
     <row r="35" spans="1:12" ht="90" x14ac:dyDescent="0.25">
@@ -6354,6 +6400,9 @@
       <c r="C35" s="8" t="s">
         <v>137</v>
       </c>
+      <c r="D35" s="8" t="s">
+        <v>1041</v>
+      </c>
       <c r="E35" s="8" t="s">
         <v>140</v>
       </c>
@@ -6369,8 +6418,8 @@
       <c r="J35" s="6" t="s">
         <v>972</v>
       </c>
-      <c r="K35" s="6" t="s">
-        <v>911</v>
+      <c r="K35" t="s">
+        <v>1012</v>
       </c>
     </row>
     <row r="36" spans="1:12" ht="90" x14ac:dyDescent="0.25">
@@ -6383,6 +6432,9 @@
       <c r="C36" s="8" t="s">
         <v>144</v>
       </c>
+      <c r="D36" s="8" t="s">
+        <v>1042</v>
+      </c>
       <c r="E36" s="8" t="s">
         <v>145</v>
       </c>
@@ -6398,8 +6450,8 @@
       <c r="J36" s="6" t="s">
         <v>972</v>
       </c>
-      <c r="K36" s="6" t="s">
-        <v>911</v>
+      <c r="K36" t="s">
+        <v>1012</v>
       </c>
     </row>
     <row r="37" spans="1:12" ht="75" x14ac:dyDescent="0.25">
@@ -6412,6 +6464,9 @@
       <c r="C37" s="8" t="s">
         <v>149</v>
       </c>
+      <c r="D37" s="8" t="s">
+        <v>1043</v>
+      </c>
       <c r="E37" s="8" t="s">
         <v>150</v>
       </c>
@@ -6427,8 +6482,8 @@
       <c r="J37" s="6" t="s">
         <v>972</v>
       </c>
-      <c r="K37" s="6" t="s">
-        <v>911</v>
+      <c r="K37" t="s">
+        <v>1012</v>
       </c>
       <c r="L37" s="20" t="s">
         <v>988</v>
@@ -6444,6 +6499,9 @@
       <c r="C38" s="8" t="s">
         <v>155</v>
       </c>
+      <c r="D38" s="8" t="s">
+        <v>1044</v>
+      </c>
       <c r="E38" s="8" t="s">
         <v>156</v>
       </c>
@@ -6459,8 +6517,8 @@
       <c r="J38" s="6" t="s">
         <v>972</v>
       </c>
-      <c r="K38" s="6" t="s">
-        <v>911</v>
+      <c r="K38" t="s">
+        <v>1012</v>
       </c>
       <c r="L38" s="8" t="s">
         <v>987</v>
@@ -6476,6 +6534,9 @@
       <c r="C39" s="8" t="s">
         <v>160</v>
       </c>
+      <c r="D39" s="8" t="s">
+        <v>1045</v>
+      </c>
       <c r="E39" s="8" t="s">
         <v>166</v>
       </c>
@@ -6491,8 +6552,8 @@
       <c r="J39" s="6" t="s">
         <v>972</v>
       </c>
-      <c r="K39" s="6" t="s">
-        <v>911</v>
+      <c r="K39" t="s">
+        <v>1012</v>
       </c>
     </row>
     <row r="40" spans="1:12" ht="195" x14ac:dyDescent="0.25">
@@ -6505,6 +6566,9 @@
       <c r="C40" s="8" t="s">
         <v>160</v>
       </c>
+      <c r="D40" s="8" t="s">
+        <v>1046</v>
+      </c>
       <c r="E40" s="8" t="s">
         <v>164</v>
       </c>
@@ -6520,8 +6584,8 @@
       <c r="J40" s="6" t="s">
         <v>972</v>
       </c>
-      <c r="K40" s="6" t="s">
-        <v>911</v>
+      <c r="K40" t="s">
+        <v>1012</v>
       </c>
     </row>
     <row r="41" spans="1:12" ht="120" x14ac:dyDescent="0.25">
@@ -6534,6 +6598,9 @@
       <c r="C41" s="8" t="s">
         <v>169</v>
       </c>
+      <c r="D41" s="8" t="s">
+        <v>1047</v>
+      </c>
       <c r="E41" s="8" t="s">
         <v>170</v>
       </c>
@@ -6549,8 +6616,8 @@
       <c r="J41" s="6" t="s">
         <v>972</v>
       </c>
-      <c r="K41" s="6" t="s">
-        <v>911</v>
+      <c r="K41" t="s">
+        <v>1012</v>
       </c>
       <c r="L41" s="8" t="s">
         <v>986</v>
@@ -6566,6 +6633,9 @@
       <c r="C42" s="8" t="s">
         <v>175</v>
       </c>
+      <c r="D42" s="8" t="s">
+        <v>1048</v>
+      </c>
       <c r="E42" s="8" t="s">
         <v>176</v>
       </c>
@@ -6581,8 +6651,8 @@
       <c r="J42" s="6" t="s">
         <v>972</v>
       </c>
-      <c r="K42" s="6" t="s">
-        <v>911</v>
+      <c r="K42" t="s">
+        <v>1012</v>
       </c>
     </row>
     <row r="43" spans="1:12" ht="270" x14ac:dyDescent="0.25">
@@ -11597,8 +11667,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M208"/>
   <sheetViews>
-    <sheetView topLeftCell="F5" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+    <sheetView topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18133,4 +18203,22 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Advantage Test Cases.xlsx
+++ b/Advantage Test Cases.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3820" uniqueCount="1049">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3832" uniqueCount="1063">
   <si>
     <t>Test Objective</t>
   </si>
@@ -4891,13 +4891,54 @@
   <si>
     <t>fn_ViewDetailsofGroup</t>
   </si>
+  <si>
+    <t>fn_CreateNewGroup</t>
+  </si>
+  <si>
+    <t>fn_ValidationGrpNameField</t>
+  </si>
+  <si>
+    <t>fn_CancelCreateGrpPage</t>
+  </si>
+  <si>
+    <t>fn_EditGroup</t>
+  </si>
+  <si>
+    <t>fn_CancelEditGrpPage</t>
+  </si>
+  <si>
+    <t>fn_DeleteGroup</t>
+  </si>
+  <si>
+    <t>fn_ViewNotificationDetails</t>
+  </si>
+  <si>
+    <t>Clicking on descriptions for subject, from, importance and date &amp; time, page is moving on for long time and nothing happens</t>
+  </si>
+  <si>
+    <t>not reported</t>
+  </si>
+  <si>
+    <t>fn_ViewNotificationBetweenSpecifiedDates</t>
+  </si>
+  <si>
+    <t>fn_SelectDateGreaterThanCurrentDate</t>
+  </si>
+  <si>
+    <t>fn_DeleteNotification</t>
+  </si>
+  <si>
+    <t>Once select checkbox and click on delete button then click 'No' from popup, now again click delete without selecting any checkbox, it should show msg to select a notification</t>
+  </si>
+  <si>
+    <t>fn_ClearFilterResult</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5368,24 +5409,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA213"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+    <sheetView tabSelected="1" topLeftCell="A210" workbookViewId="0">
+      <selection activeCell="A211" sqref="A211"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="6" width="12.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="6" width="18.42578125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="6" width="16.5703125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="8" width="16.5703125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="6" width="31.85546875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="6" width="33.5703125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="42.7109375" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="25.28515625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="41.140625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" style="6" width="26.0" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" style="6" width="11.42578125" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" style="8" width="24.28515625" collapsed="true"/>
+    <col min="1" max="1" width="12.140625" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="18.42578125" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="16.5703125" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="16.5703125" style="8" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="31.85546875" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="33.5703125" style="6" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="42.7109375" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="25.28515625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="41.140625" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="26" style="6" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="11.42578125" style="6" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="52.7109375" style="8" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="14.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -6666,7 +6708,7 @@
         <v>180</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>998</v>
+        <v>1049</v>
       </c>
       <c r="E43" s="6" t="s">
         <v>181</v>
@@ -6686,8 +6728,8 @@
       <c r="J43" s="6" t="s">
         <v>972</v>
       </c>
-      <c r="K43" s="6" t="s">
-        <v>911</v>
+      <c r="K43" t="s">
+        <v>1012</v>
       </c>
     </row>
     <row r="44" spans="1:12" ht="90" x14ac:dyDescent="0.25">
@@ -6700,6 +6742,9 @@
       <c r="C44" s="6" t="s">
         <v>180</v>
       </c>
+      <c r="D44" s="8" t="s">
+        <v>1050</v>
+      </c>
       <c r="E44" s="8" t="s">
         <v>185</v>
       </c>
@@ -6715,8 +6760,8 @@
       <c r="J44" s="6" t="s">
         <v>972</v>
       </c>
-      <c r="K44" s="6" t="s">
-        <v>911</v>
+      <c r="K44" t="s">
+        <v>1012</v>
       </c>
     </row>
     <row r="45" spans="1:12" ht="105" x14ac:dyDescent="0.25">
@@ -6729,6 +6774,9 @@
       <c r="C45" s="6" t="s">
         <v>180</v>
       </c>
+      <c r="D45" s="8" t="s">
+        <v>1051</v>
+      </c>
       <c r="E45" s="8" t="s">
         <v>191</v>
       </c>
@@ -6744,8 +6792,8 @@
       <c r="J45" s="6" t="s">
         <v>972</v>
       </c>
-      <c r="K45" s="6" t="s">
-        <v>911</v>
+      <c r="K45" t="s">
+        <v>1012</v>
       </c>
     </row>
     <row r="46" spans="1:12" ht="120" x14ac:dyDescent="0.25">
@@ -6758,6 +6806,9 @@
       <c r="C46" s="8" t="s">
         <v>189</v>
       </c>
+      <c r="D46" s="8" t="s">
+        <v>1052</v>
+      </c>
       <c r="E46" s="6" t="s">
         <v>190</v>
       </c>
@@ -6770,8 +6821,8 @@
       <c r="I46" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="K46" s="19" t="s">
-        <v>909</v>
+      <c r="K46" t="s">
+        <v>1012</v>
       </c>
       <c r="L46" s="20" t="s">
         <v>926</v>
@@ -6787,6 +6838,9 @@
       <c r="C47" s="8" t="s">
         <v>189</v>
       </c>
+      <c r="D47" s="8" t="s">
+        <v>1053</v>
+      </c>
       <c r="E47" s="8" t="s">
         <v>199</v>
       </c>
@@ -6802,8 +6856,8 @@
       <c r="J47" s="6" t="s">
         <v>972</v>
       </c>
-      <c r="K47" s="6" t="s">
-        <v>911</v>
+      <c r="K47" t="s">
+        <v>1012</v>
       </c>
     </row>
     <row r="48" spans="1:12" ht="120" x14ac:dyDescent="0.25">
@@ -6816,6 +6870,9 @@
       <c r="C48" s="8" t="s">
         <v>203</v>
       </c>
+      <c r="D48" s="8" t="s">
+        <v>1054</v>
+      </c>
       <c r="E48" s="6" t="s">
         <v>204</v>
       </c>
@@ -6831,11 +6888,11 @@
       <c r="J48" s="6" t="s">
         <v>972</v>
       </c>
-      <c r="K48" s="6" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="K48" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A49" s="6" t="s">
         <v>215</v>
       </c>
@@ -6845,6 +6902,9 @@
       <c r="C49" s="8" t="s">
         <v>209</v>
       </c>
+      <c r="D49" s="8" t="s">
+        <v>1055</v>
+      </c>
       <c r="E49" s="8" t="s">
         <v>210</v>
       </c>
@@ -6860,11 +6920,17 @@
       <c r="J49" s="6" t="s">
         <v>972</v>
       </c>
-      <c r="K49" s="6" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+      <c r="K49" t="s">
+        <v>1012</v>
+      </c>
+      <c r="L49" s="20" t="s">
+        <v>1056</v>
+      </c>
+      <c r="M49" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
         <v>220</v>
       </c>
@@ -6874,6 +6940,9 @@
       <c r="C50" s="8" t="s">
         <v>209</v>
       </c>
+      <c r="D50" s="8" t="s">
+        <v>1058</v>
+      </c>
       <c r="E50" s="8" t="s">
         <v>214</v>
       </c>
@@ -6889,14 +6958,14 @@
       <c r="J50" s="6" t="s">
         <v>972</v>
       </c>
-      <c r="K50" s="6" t="s">
-        <v>911</v>
+      <c r="K50" t="s">
+        <v>1012</v>
       </c>
       <c r="L50" s="20" t="s">
         <v>927</v>
       </c>
     </row>
-    <row r="51" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A51" s="6" t="s">
         <v>224</v>
       </c>
@@ -6906,6 +6975,9 @@
       <c r="C51" s="8" t="s">
         <v>209</v>
       </c>
+      <c r="D51" s="8" t="s">
+        <v>1059</v>
+      </c>
       <c r="E51" s="8" t="s">
         <v>218</v>
       </c>
@@ -6925,7 +6997,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="52" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" ht="285" x14ac:dyDescent="0.25">
       <c r="A52" s="6" t="s">
         <v>228</v>
       </c>
@@ -6933,28 +7005,28 @@
         <v>208</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>221</v>
+        <v>240</v>
       </c>
       <c r="E52" s="8" t="s">
-        <v>222</v>
+        <v>242</v>
       </c>
       <c r="F52" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>223</v>
+        <v>243</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="J52" s="8" t="s">
-        <v>985</v>
-      </c>
-      <c r="L52" s="8" t="s">
-        <v>928</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" ht="105" x14ac:dyDescent="0.25">
+        <v>244</v>
+      </c>
+      <c r="K52" s="19" t="s">
+        <v>909</v>
+      </c>
+      <c r="L52" s="20" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" ht="90" x14ac:dyDescent="0.25">
       <c r="A53" s="6" t="s">
         <v>236</v>
       </c>
@@ -6962,28 +7034,25 @@
         <v>208</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="E53" s="8" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="F53" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="J53" s="6" t="s">
-        <v>972</v>
-      </c>
-      <c r="K53" s="6" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+        <v>235</v>
+      </c>
+      <c r="L53" s="8" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="A54" s="6" t="s">
         <v>238</v>
       </c>
@@ -6991,25 +7060,34 @@
         <v>208</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>230</v>
+        <v>221</v>
+      </c>
+      <c r="D54" s="8" t="s">
+        <v>1060</v>
       </c>
       <c r="E54" s="8" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="F54" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="L54" s="8" t="s">
-        <v>929</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+        <v>233</v>
+      </c>
+      <c r="J54" s="8" t="s">
+        <v>985</v>
+      </c>
+      <c r="L54" s="20" t="s">
+        <v>1061</v>
+      </c>
+      <c r="M54" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" ht="105" x14ac:dyDescent="0.25">
       <c r="A55" s="6" t="s">
         <v>241</v>
       </c>
@@ -7017,34 +7095,31 @@
         <v>208</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>1007</v>
+        <v>1062</v>
       </c>
       <c r="E55" s="8" t="s">
-        <v>239</v>
+        <v>226</v>
       </c>
       <c r="F55" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>981</v>
+        <v>227</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>982</v>
-      </c>
-      <c r="J55" s="8" t="s">
-        <v>984</v>
-      </c>
-      <c r="K55" s="19" t="s">
-        <v>909</v>
-      </c>
-      <c r="L55" s="20" t="s">
-        <v>983</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12" ht="285" x14ac:dyDescent="0.25">
+        <v>234</v>
+      </c>
+      <c r="J55" s="6" t="s">
+        <v>972</v>
+      </c>
+      <c r="K55" s="6" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" ht="90" x14ac:dyDescent="0.25">
       <c r="A56" s="6" t="s">
         <v>248</v>
       </c>
@@ -7052,28 +7127,34 @@
         <v>208</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>240</v>
+        <v>237</v>
+      </c>
+      <c r="D56" s="8" t="s">
+        <v>1007</v>
       </c>
       <c r="E56" s="8" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="F56" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>243</v>
+        <v>981</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>244</v>
+        <v>982</v>
+      </c>
+      <c r="J56" s="8" t="s">
+        <v>984</v>
       </c>
       <c r="K56" s="19" t="s">
         <v>909</v>
       </c>
       <c r="L56" s="20" t="s">
-        <v>930</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" ht="90" x14ac:dyDescent="0.25">
       <c r="A57" s="6" t="s">
         <v>255</v>
       </c>
@@ -7102,7 +7183,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="58" spans="1:12" ht="105" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:13" ht="105" x14ac:dyDescent="0.25">
       <c r="A58" s="6" t="s">
         <v>256</v>
       </c>
@@ -7131,7 +7212,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="59" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13" ht="90" x14ac:dyDescent="0.25">
       <c r="A59" s="6" t="s">
         <v>257</v>
       </c>
@@ -7160,7 +7241,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="60" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13" ht="90" x14ac:dyDescent="0.25">
       <c r="A60" s="6" t="s">
         <v>261</v>
       </c>
@@ -7189,7 +7270,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="61" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13" ht="90" x14ac:dyDescent="0.25">
       <c r="A61" s="6" t="s">
         <v>265</v>
       </c>
@@ -7218,7 +7299,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="62" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13" ht="90" x14ac:dyDescent="0.25">
       <c r="A62" s="6" t="s">
         <v>272</v>
       </c>
@@ -7247,7 +7328,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="63" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="A63" s="6" t="s">
         <v>276</v>
       </c>
@@ -7276,7 +7357,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="64" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="A64" s="6" t="s">
         <v>281</v>
       </c>
@@ -10607,7 +10688,7 @@
       <c r="Z177" s="16"/>
       <c r="AA177" s="16"/>
     </row>
-    <row r="178" spans="1:27" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:27" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A178" s="6" t="s">
         <v>763</v>
       </c>
@@ -11673,17 +11754,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="20.85546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="11.28515625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="16.85546875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="17.5703125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="31.85546875" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="29.0" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="37.5703125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="26.140625" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="37.5703125" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="12.5703125" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="19.7109375" collapsed="true"/>
+    <col min="1" max="1" width="20.85546875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11.28515625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="16.85546875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="17.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="31.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="29" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="37.5703125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="26.140625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="37.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="12.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="19.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">

--- a/Advantage Test Cases.xlsx
+++ b/Advantage Test Cases.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3832" uniqueCount="1063">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3837" uniqueCount="1070">
   <si>
     <t>Test Objective</t>
   </si>
@@ -4932,6 +4932,28 @@
   </si>
   <si>
     <t>fn_ClearFilterResult</t>
+  </si>
+  <si>
+    <t>fn_CreateNotification</t>
+  </si>
+  <si>
+    <t>fn_ViewUserNotification</t>
+  </si>
+  <si>
+    <t>fn_ViewSystemNotification</t>
+  </si>
+  <si>
+    <t>1. Page is moving for long time and nothing happens
+2.After coming back 'Manage Assignment' page is opened instead of 'Notifications' page</t>
+  </si>
+  <si>
+    <t>fn_ValidationMandatoryfields</t>
+  </si>
+  <si>
+    <t>Either message field should be shown mandatory or no validation should come for same field</t>
+  </si>
+  <si>
+    <t>fn_SelectUserCategory</t>
   </si>
 </sst>
 </file>
@@ -5409,8 +5431,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA213"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A210" workbookViewId="0">
-      <selection activeCell="A211" sqref="A211"/>
+    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="D59" sqref="D59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7007,6 +7029,9 @@
       <c r="C52" s="8" t="s">
         <v>240</v>
       </c>
+      <c r="D52" s="8" t="s">
+        <v>1063</v>
+      </c>
       <c r="E52" s="8" t="s">
         <v>242</v>
       </c>
@@ -7036,6 +7061,9 @@
       <c r="C53" s="8" t="s">
         <v>230</v>
       </c>
+      <c r="D53" s="8" t="s">
+        <v>1064</v>
+      </c>
       <c r="E53" s="8" t="s">
         <v>229</v>
       </c>
@@ -7130,7 +7158,7 @@
         <v>237</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>1007</v>
+        <v>1065</v>
       </c>
       <c r="E56" s="8" t="s">
         <v>239</v>
@@ -7151,7 +7179,7 @@
         <v>909</v>
       </c>
       <c r="L56" s="20" t="s">
-        <v>983</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="57" spans="1:13" ht="90" x14ac:dyDescent="0.25">
@@ -7164,6 +7192,9 @@
       <c r="C57" s="8" t="s">
         <v>240</v>
       </c>
+      <c r="D57" s="8" t="s">
+        <v>1067</v>
+      </c>
       <c r="E57" s="8" t="s">
         <v>245</v>
       </c>
@@ -7181,6 +7212,9 @@
       </c>
       <c r="K57" s="6" t="s">
         <v>911</v>
+      </c>
+      <c r="L57" s="20" t="s">
+        <v>1068</v>
       </c>
     </row>
     <row r="58" spans="1:13" ht="105" x14ac:dyDescent="0.25">
@@ -7192,6 +7226,9 @@
       </c>
       <c r="C58" s="8" t="s">
         <v>240</v>
+      </c>
+      <c r="D58" s="8" t="s">
+        <v>1069</v>
       </c>
       <c r="E58" s="6" t="s">
         <v>270</v>

--- a/Advantage Test Cases.xlsx
+++ b/Advantage Test Cases.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3837" uniqueCount="1070">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3845" uniqueCount="1077">
   <si>
     <t>Test Objective</t>
   </si>
@@ -4954,6 +4954,30 @@
   </si>
   <si>
     <t>fn_SelectUserCategory</t>
+  </si>
+  <si>
+    <t>1. Click Notifications tab on dashboard
+2. Click on the Create button in the right pane of the Notification page
+3. Click on Select user button
+4. Type user name in search box and click search icon to search particular user</t>
+  </si>
+  <si>
+    <t>fn_SearchUsername</t>
+  </si>
+  <si>
+    <t>fn_SelectAllUsers</t>
+  </si>
+  <si>
+    <t>fn_SortingUsers</t>
+  </si>
+  <si>
+    <t>fn_Pagination</t>
+  </si>
+  <si>
+    <t>fn_CloseUsernameWindow</t>
+  </si>
+  <si>
+    <t>fn_CancelCreatePage</t>
   </si>
 </sst>
 </file>
@@ -5431,8 +5455,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA213"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
-      <selection activeCell="D59" sqref="D59"/>
+    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
+      <selection activeCell="D65" sqref="D65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7012,8 +7036,8 @@
       <c r="I51" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="K51" s="6" t="s">
-        <v>911</v>
+      <c r="K51" t="s">
+        <v>1012</v>
       </c>
       <c r="L51" s="20" t="s">
         <v>980</v>
@@ -7076,6 +7100,9 @@
       <c r="I53" s="2" t="s">
         <v>235</v>
       </c>
+      <c r="K53" t="s">
+        <v>1012</v>
+      </c>
       <c r="L53" s="8" t="s">
         <v>929</v>
       </c>
@@ -7108,6 +7135,9 @@
       <c r="J54" s="8" t="s">
         <v>985</v>
       </c>
+      <c r="K54" t="s">
+        <v>1012</v>
+      </c>
       <c r="L54" s="20" t="s">
         <v>1061</v>
       </c>
@@ -7143,8 +7173,8 @@
       <c r="J55" s="6" t="s">
         <v>972</v>
       </c>
-      <c r="K55" s="6" t="s">
-        <v>911</v>
+      <c r="K55" t="s">
+        <v>1012</v>
       </c>
     </row>
     <row r="56" spans="1:13" ht="90" x14ac:dyDescent="0.25">
@@ -7210,8 +7240,8 @@
       <c r="J57" s="6" t="s">
         <v>972</v>
       </c>
-      <c r="K57" s="6" t="s">
-        <v>911</v>
+      <c r="K57" t="s">
+        <v>1012</v>
       </c>
       <c r="L57" s="20" t="s">
         <v>1068</v>
@@ -7245,8 +7275,8 @@
       <c r="J58" s="6" t="s">
         <v>972</v>
       </c>
-      <c r="K58" s="6" t="s">
-        <v>911</v>
+      <c r="K58" t="s">
+        <v>1012</v>
       </c>
     </row>
     <row r="59" spans="1:13" ht="90" x14ac:dyDescent="0.25">
@@ -7259,6 +7289,9 @@
       <c r="C59" s="8" t="s">
         <v>240</v>
       </c>
+      <c r="D59" s="8" t="s">
+        <v>1071</v>
+      </c>
       <c r="E59" s="6" t="s">
         <v>249</v>
       </c>
@@ -7266,7 +7299,7 @@
         <v>38</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>250</v>
+        <v>1070</v>
       </c>
       <c r="I59" s="2" t="s">
         <v>252</v>
@@ -7274,8 +7307,8 @@
       <c r="J59" s="6" t="s">
         <v>972</v>
       </c>
-      <c r="K59" s="6" t="s">
-        <v>911</v>
+      <c r="K59" t="s">
+        <v>1012</v>
       </c>
     </row>
     <row r="60" spans="1:13" ht="90" x14ac:dyDescent="0.25">
@@ -7288,6 +7321,9 @@
       <c r="C60" s="8" t="s">
         <v>240</v>
       </c>
+      <c r="D60" s="8" t="s">
+        <v>1072</v>
+      </c>
       <c r="E60" s="6" t="s">
         <v>254</v>
       </c>
@@ -7303,8 +7339,8 @@
       <c r="J60" s="6" t="s">
         <v>972</v>
       </c>
-      <c r="K60" s="6" t="s">
-        <v>911</v>
+      <c r="K60" t="s">
+        <v>1012</v>
       </c>
     </row>
     <row r="61" spans="1:13" ht="90" x14ac:dyDescent="0.25">
@@ -7317,6 +7353,9 @@
       <c r="C61" s="8" t="s">
         <v>240</v>
       </c>
+      <c r="D61" s="8" t="s">
+        <v>1073</v>
+      </c>
       <c r="E61" s="6" t="s">
         <v>258</v>
       </c>
@@ -7332,8 +7371,8 @@
       <c r="J61" s="6" t="s">
         <v>972</v>
       </c>
-      <c r="K61" s="6" t="s">
-        <v>911</v>
+      <c r="K61" t="s">
+        <v>1012</v>
       </c>
     </row>
     <row r="62" spans="1:13" ht="90" x14ac:dyDescent="0.25">
@@ -7346,6 +7385,9 @@
       <c r="C62" s="8" t="s">
         <v>240</v>
       </c>
+      <c r="D62" s="8" t="s">
+        <v>1074</v>
+      </c>
       <c r="E62" s="8" t="s">
         <v>263</v>
       </c>
@@ -7361,8 +7403,8 @@
       <c r="J62" s="6" t="s">
         <v>972</v>
       </c>
-      <c r="K62" s="6" t="s">
-        <v>911</v>
+      <c r="K62" t="s">
+        <v>1012</v>
       </c>
     </row>
     <row r="63" spans="1:13" ht="75" x14ac:dyDescent="0.25">
@@ -7375,6 +7417,9 @@
       <c r="C63" s="8" t="s">
         <v>240</v>
       </c>
+      <c r="D63" s="8" t="s">
+        <v>1075</v>
+      </c>
       <c r="E63" s="8" t="s">
         <v>266</v>
       </c>
@@ -7404,6 +7449,9 @@
       <c r="C64" s="8" t="s">
         <v>240</v>
       </c>
+      <c r="D64" s="8" t="s">
+        <v>1076</v>
+      </c>
       <c r="E64" s="8" t="s">
         <v>273</v>
       </c>
@@ -7419,8 +7467,8 @@
       <c r="J64" s="6" t="s">
         <v>972</v>
       </c>
-      <c r="K64" s="6" t="s">
-        <v>911</v>
+      <c r="K64" t="s">
+        <v>1012</v>
       </c>
     </row>
     <row r="65" spans="1:15" ht="30" x14ac:dyDescent="0.25">

--- a/Advantage Test Cases.xlsx
+++ b/Advantage Test Cases.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3845" uniqueCount="1077">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3849" uniqueCount="1081">
   <si>
     <t>Test Objective</t>
   </si>
@@ -4978,6 +4978,18 @@
   </si>
   <si>
     <t>fn_CancelCreatePage</t>
+  </si>
+  <si>
+    <t>fn_NavigateReportPage</t>
+  </si>
+  <si>
+    <t>fn_LandingSectionwiseAssessmentReports</t>
+  </si>
+  <si>
+    <t>fn_ViewSectionwisedetailedreports</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Query: Some reports have no navigate icon and some are having  </t>
   </si>
 </sst>
 </file>
@@ -5455,8 +5467,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA213"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
-      <selection activeCell="D65" sqref="D65"/>
+    <sheetView tabSelected="1" topLeftCell="F67" workbookViewId="0">
+      <selection activeCell="I67" sqref="I67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7435,8 +7447,8 @@
       <c r="J63" s="6" t="s">
         <v>972</v>
       </c>
-      <c r="K63" s="6" t="s">
-        <v>911</v>
+      <c r="K63" t="s">
+        <v>1012</v>
       </c>
     </row>
     <row r="64" spans="1:13" ht="75" x14ac:dyDescent="0.25">
@@ -7481,6 +7493,9 @@
       <c r="C65" s="6" t="s">
         <v>277</v>
       </c>
+      <c r="D65" s="8" t="s">
+        <v>1077</v>
+      </c>
       <c r="E65" s="8" t="s">
         <v>278</v>
       </c>
@@ -7496,8 +7511,8 @@
       <c r="J65" s="6" t="s">
         <v>972</v>
       </c>
-      <c r="K65" s="6" t="s">
-        <v>911</v>
+      <c r="K65" t="s">
+        <v>1012</v>
       </c>
     </row>
     <row r="66" spans="1:15" ht="180" x14ac:dyDescent="0.25">
@@ -7510,6 +7525,9 @@
       <c r="C66" s="8" t="s">
         <v>298</v>
       </c>
+      <c r="D66" s="8" t="s">
+        <v>1078</v>
+      </c>
       <c r="E66" s="8" t="s">
         <v>283</v>
       </c>
@@ -7525,8 +7543,8 @@
       <c r="J66" s="6" t="s">
         <v>972</v>
       </c>
-      <c r="K66" s="6" t="s">
-        <v>911</v>
+      <c r="K66" t="s">
+        <v>1012</v>
       </c>
     </row>
     <row r="67" spans="1:15" ht="255" x14ac:dyDescent="0.25">
@@ -7539,6 +7557,9 @@
       <c r="C67" s="8" t="s">
         <v>298</v>
       </c>
+      <c r="D67" s="8" t="s">
+        <v>1079</v>
+      </c>
       <c r="E67" s="8" t="s">
         <v>286</v>
       </c>
@@ -7556,6 +7577,9 @@
       </c>
       <c r="K67" s="6" t="s">
         <v>911</v>
+      </c>
+      <c r="L67" s="20" t="s">
+        <v>1080</v>
       </c>
     </row>
     <row r="68" spans="1:15" ht="285" x14ac:dyDescent="0.25">

--- a/Advantage Test Cases.xlsx
+++ b/Advantage Test Cases.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3849" uniqueCount="1081">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3856" uniqueCount="1086">
   <si>
     <t>Test Objective</t>
   </si>
@@ -4991,12 +4991,28 @@
   <si>
     <t xml:space="preserve">Query: Some reports have no navigate icon and some are having  </t>
   </si>
+  <si>
+    <t>fn_ViewAssessmentReports</t>
+  </si>
+  <si>
+    <t>fn_SubjectwiseDetailedReportofStudent</t>
+  </si>
+  <si>
+    <t>fn_LandingSectionwiseLearningReports</t>
+  </si>
+  <si>
+    <t>fn_ViewSectionwiseDetailedLearningReports</t>
+  </si>
+  <si>
+    <t>fn_ViewAveragePerformanceofaLessonPlanandActivitywisePerformance</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5467,25 +5483,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA213"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F67" workbookViewId="0">
-      <selection activeCell="I67" sqref="I67"/>
+    <sheetView tabSelected="1" topLeftCell="A72" workbookViewId="0">
+      <selection activeCell="E72" sqref="E72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.140625" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="18.42578125" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="16.5703125" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="16.5703125" style="8" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="31.85546875" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="33.5703125" style="6" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="42.7109375" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="25.28515625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="41.140625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="26" style="6" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="11.42578125" style="6" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="52.7109375" style="8" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="14.28515625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="6" width="12.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="6" width="18.42578125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="6" width="16.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="8" width="16.5703125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="6" width="31.85546875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="6" width="33.5703125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="42.7109375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="25.28515625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="41.140625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="6" width="26.0" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="6" width="11.42578125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="8" width="52.7109375" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="14.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -7575,8 +7591,8 @@
       <c r="J67" s="6" t="s">
         <v>972</v>
       </c>
-      <c r="K67" s="6" t="s">
-        <v>911</v>
+      <c r="K67" t="s">
+        <v>1012</v>
       </c>
       <c r="L67" s="20" t="s">
         <v>1080</v>
@@ -7592,6 +7608,9 @@
       <c r="C68" s="8" t="s">
         <v>298</v>
       </c>
+      <c r="D68" s="8" t="s">
+        <v>1081</v>
+      </c>
       <c r="E68" s="8" t="s">
         <v>290</v>
       </c>
@@ -7607,8 +7626,8 @@
       <c r="J68" s="6" t="s">
         <v>972</v>
       </c>
-      <c r="K68" s="6" t="s">
-        <v>911</v>
+      <c r="K68" t="s">
+        <v>1012</v>
       </c>
     </row>
     <row r="69" spans="1:15" ht="315" x14ac:dyDescent="0.25">
@@ -7621,6 +7640,9 @@
       <c r="C69" s="8" t="s">
         <v>298</v>
       </c>
+      <c r="D69" s="8" t="s">
+        <v>1082</v>
+      </c>
       <c r="E69" s="8" t="s">
         <v>295</v>
       </c>
@@ -7650,6 +7672,9 @@
       <c r="C70" s="8" t="s">
         <v>299</v>
       </c>
+      <c r="D70" s="8" t="s">
+        <v>1083</v>
+      </c>
       <c r="E70" s="8" t="s">
         <v>301</v>
       </c>
@@ -7665,8 +7690,8 @@
       <c r="J70" s="6" t="s">
         <v>972</v>
       </c>
-      <c r="K70" s="6" t="s">
-        <v>911</v>
+      <c r="K70" t="s">
+        <v>1012</v>
       </c>
     </row>
     <row r="71" spans="1:15" ht="270" x14ac:dyDescent="0.25">
@@ -7679,6 +7704,9 @@
       <c r="C71" s="8" t="s">
         <v>299</v>
       </c>
+      <c r="D71" s="8" t="s">
+        <v>1084</v>
+      </c>
       <c r="E71" s="8" t="s">
         <v>286</v>
       </c>
@@ -7707,6 +7735,9 @@
       </c>
       <c r="C72" s="8" t="s">
         <v>299</v>
+      </c>
+      <c r="D72" s="8" t="s">
+        <v>1085</v>
       </c>
       <c r="E72" s="8" t="s">
         <v>308</v>
@@ -11863,17 +11894,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.85546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11.28515625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="16.85546875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="17.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="31.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="29" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="37.5703125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="26.140625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="37.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="12.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="19.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="20.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="16.85546875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="17.5703125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="31.85546875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="29.0" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="37.5703125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="26.140625" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="37.5703125" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="12.5703125" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="19.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">

--- a/Advantage Test Cases.xlsx
+++ b/Advantage Test Cases.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3856" uniqueCount="1086">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3858" uniqueCount="1091">
   <si>
     <t>Test Objective</t>
   </si>
@@ -5006,13 +5006,28 @@
   <si>
     <t>fn_ViewAveragePerformanceofaLessonPlanandActivitywisePerformance</t>
   </si>
+  <si>
+    <t>fn_ViewSubjectwiseDetailedReportofRespectiveStudent</t>
+  </si>
+  <si>
+    <t>1.Sectionwise detailed reports not showing navigate arrow
+2. No learning report available</t>
+  </si>
+  <si>
+    <t>fn_ViewTrackingReport</t>
+  </si>
+  <si>
+    <t>fn_ViewTrackingLearningReport</t>
+  </si>
+  <si>
+    <t>fn_ViewAvrgPerformanceofLessonandActivitywisePerformance</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5483,25 +5498,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA213"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A72" workbookViewId="0">
-      <selection activeCell="E72" sqref="E72"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="D76" sqref="D76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="6" width="12.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="6" width="18.42578125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="6" width="16.5703125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="8" width="16.5703125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="6" width="31.85546875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="6" width="33.5703125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="42.7109375" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="25.28515625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="41.140625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" style="6" width="26.0" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" style="6" width="11.42578125" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" style="8" width="52.7109375" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="1" max="1" width="12.140625" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="18.42578125" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="16.5703125" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="16.5703125" style="8" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="31.85546875" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="33.5703125" style="6" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="42.7109375" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="25.28515625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="41.140625" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="26" style="6" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="11.42578125" style="6" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="52.7109375" style="8" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="14.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -7658,8 +7673,8 @@
       <c r="J69" s="6" t="s">
         <v>972</v>
       </c>
-      <c r="K69" s="6" t="s">
-        <v>911</v>
+      <c r="K69" t="s">
+        <v>1012</v>
       </c>
     </row>
     <row r="70" spans="1:15" ht="180" x14ac:dyDescent="0.25">
@@ -7768,6 +7783,9 @@
       <c r="C73" s="8" t="s">
         <v>299</v>
       </c>
+      <c r="D73" s="8" t="s">
+        <v>1086</v>
+      </c>
       <c r="E73" s="8" t="s">
         <v>295</v>
       </c>
@@ -7784,7 +7802,7 @@
         <v>931</v>
       </c>
       <c r="L73" s="20" t="s">
-        <v>979</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="74" spans="1:15" ht="105" x14ac:dyDescent="0.25">
@@ -7797,6 +7815,9 @@
       <c r="C74" s="8" t="s">
         <v>316</v>
       </c>
+      <c r="D74" s="8" t="s">
+        <v>1088</v>
+      </c>
       <c r="E74" s="8" t="s">
         <v>315</v>
       </c>
@@ -7809,8 +7830,8 @@
       <c r="I74" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="K74" s="21" t="s">
-        <v>911</v>
+      <c r="K74" t="s">
+        <v>1012</v>
       </c>
       <c r="L74" s="20" t="s">
         <v>932</v>
@@ -7826,6 +7847,9 @@
       <c r="C75" s="8" t="s">
         <v>316</v>
       </c>
+      <c r="D75" s="8" t="s">
+        <v>1089</v>
+      </c>
       <c r="E75" s="8" t="s">
         <v>319</v>
       </c>
@@ -7854,6 +7878,9 @@
       </c>
       <c r="C76" s="8" t="s">
         <v>316</v>
+      </c>
+      <c r="D76" s="8" t="s">
+        <v>1090</v>
       </c>
       <c r="E76" s="8" t="s">
         <v>323</v>
@@ -11894,17 +11921,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="20.85546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="11.28515625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="16.85546875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="17.5703125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="31.85546875" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="29.0" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="37.5703125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="26.140625" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="37.5703125" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="12.5703125" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="19.7109375" collapsed="true"/>
+    <col min="1" max="1" width="20.85546875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11.28515625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="16.85546875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="17.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="31.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="29" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="37.5703125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="26.140625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="37.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="12.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="19.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">

--- a/Advantage Test Cases.xlsx
+++ b/Advantage Test Cases.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3858" uniqueCount="1091">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3860" uniqueCount="1094">
   <si>
     <t>Test Objective</t>
   </si>
@@ -5021,6 +5021,21 @@
   </si>
   <si>
     <t>fn_ViewAvrgPerformanceofLessonandActivitywisePerformance</t>
+  </si>
+  <si>
+    <t>1. Click Reports tab on dashboard
+2. Click on Menu icon and select Tracking  Reports
+3. Click View Learning Reports under Tracking Reports on the left pane
+4. Click on View Details link corresponding to a Subject
+5. Click on Lesson Plan Name link
+6. Click on Activity Name tab
+7. Click on the View details link corresponding to the student’s name</t>
+  </si>
+  <si>
+    <t>fn_ViewSubjectwiseDetailedReportofRespectiveStudentLearning</t>
+  </si>
+  <si>
+    <t>Query: where from can we add activities to learning report</t>
   </si>
 </sst>
 </file>
@@ -5498,8 +5513,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA213"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="D76" sqref="D76"/>
+    <sheetView tabSelected="1" topLeftCell="A78" workbookViewId="0">
+      <selection activeCell="D78" sqref="D78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7911,6 +7926,9 @@
       <c r="C77" s="8" t="s">
         <v>316</v>
       </c>
+      <c r="D77" s="8" t="s">
+        <v>1092</v>
+      </c>
       <c r="E77" s="8" t="s">
         <v>327</v>
       </c>
@@ -7918,7 +7936,7 @@
         <v>38</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>328</v>
+        <v>1091</v>
       </c>
       <c r="I77" s="2" t="s">
         <v>329</v>
@@ -7929,7 +7947,9 @@
       <c r="K77" s="21" t="s">
         <v>911</v>
       </c>
-      <c r="L77" s="20"/>
+      <c r="L77" s="20" t="s">
+        <v>1093</v>
+      </c>
       <c r="O77" t="s">
         <v>934</v>
       </c>

--- a/Advantage Test Cases.xlsx
+++ b/Advantage Test Cases.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3860" uniqueCount="1094">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3863" uniqueCount="1097">
   <si>
     <t>Test Objective</t>
   </si>
@@ -5036,6 +5036,15 @@
   </si>
   <si>
     <t>Query: where from can we add activities to learning report</t>
+  </si>
+  <si>
+    <t>fn_ViewNumberofVisitsandTimeSpentonDevices</t>
+  </si>
+  <si>
+    <t>fn_ViewNumberofVisitsandTimeSpentonAllRolls</t>
+  </si>
+  <si>
+    <t>fn_PrintUsageReport</t>
   </si>
 </sst>
 </file>
@@ -5513,8 +5522,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA213"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A78" workbookViewId="0">
-      <selection activeCell="D78" sqref="D78"/>
+    <sheetView tabSelected="1" topLeftCell="B80" workbookViewId="0">
+      <selection activeCell="D80" sqref="D80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7880,8 +7889,8 @@
       <c r="J75" s="21" t="s">
         <v>972</v>
       </c>
-      <c r="K75" s="21" t="s">
-        <v>911</v>
+      <c r="K75" t="s">
+        <v>1012</v>
       </c>
     </row>
     <row r="76" spans="1:15" ht="225" x14ac:dyDescent="0.25">
@@ -7912,8 +7921,8 @@
       <c r="J76" s="6" t="s">
         <v>972</v>
       </c>
-      <c r="K76" s="21" t="s">
-        <v>911</v>
+      <c r="K76" t="s">
+        <v>1012</v>
       </c>
     </row>
     <row r="77" spans="1:15" ht="300" x14ac:dyDescent="0.25">
@@ -7964,6 +7973,9 @@
       <c r="C78" s="8" t="s">
         <v>330</v>
       </c>
+      <c r="D78" s="8" t="s">
+        <v>1094</v>
+      </c>
       <c r="E78" s="8" t="s">
         <v>332</v>
       </c>
@@ -7993,6 +8005,9 @@
       <c r="C79" s="8" t="s">
         <v>330</v>
       </c>
+      <c r="D79" s="8" t="s">
+        <v>1095</v>
+      </c>
       <c r="E79" s="8" t="s">
         <v>337</v>
       </c>
@@ -8021,6 +8036,9 @@
       </c>
       <c r="C80" s="8" t="s">
         <v>330</v>
+      </c>
+      <c r="D80" s="8" t="s">
+        <v>1096</v>
       </c>
       <c r="E80" s="6" t="s">
         <v>339</v>

--- a/Advantage Test Cases.xlsx
+++ b/Advantage Test Cases.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3863" uniqueCount="1097">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3864" uniqueCount="1098">
   <si>
     <t>Test Objective</t>
   </si>
@@ -5045,6 +5045,9 @@
   </si>
   <si>
     <t>fn_PrintUsageReport</t>
+  </si>
+  <si>
+    <t>fn_ViewSectionwiseUsageReport</t>
   </si>
 </sst>
 </file>
@@ -5522,8 +5525,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA213"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B80" workbookViewId="0">
-      <selection activeCell="D80" sqref="D80"/>
+    <sheetView tabSelected="1" topLeftCell="B81" workbookViewId="0">
+      <selection activeCell="D81" sqref="D81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8068,6 +8071,9 @@
       </c>
       <c r="C81" s="8" t="s">
         <v>330</v>
+      </c>
+      <c r="D81" s="8" t="s">
+        <v>1097</v>
       </c>
       <c r="E81" s="8" t="s">
         <v>343</v>

--- a/Advantage Test Cases.xlsx
+++ b/Advantage Test Cases.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3864" uniqueCount="1098">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3969" uniqueCount="1196">
   <si>
     <t>Test Objective</t>
   </si>
@@ -5048,6 +5048,300 @@
   </si>
   <si>
     <t>fn_ViewSectionwiseUsageReport</t>
+  </si>
+  <si>
+    <t>fn_ViewOverallandSubjectwisePerformanceofStudent</t>
+  </si>
+  <si>
+    <t>fL_ViewlessonsfortheplannedofView</t>
+  </si>
+  <si>
+    <t>fl_MarktolessonasmarkofMark</t>
+  </si>
+  <si>
+    <t>fA_ViewviewDueForAssignmentsofView</t>
+  </si>
+  <si>
+    <t>fA_AddRemarkforstudent'sFeedbackofView</t>
+  </si>
+  <si>
+    <t>fn_ViewofLessonwiseoverview</t>
+  </si>
+  <si>
+    <t>fn_PreviewofPreviewLesson</t>
+  </si>
+  <si>
+    <t>fn_ViewofTeachingresources</t>
+  </si>
+  <si>
+    <t>fn_ViewofLessonPlan</t>
+  </si>
+  <si>
+    <t>fn_ViewofRecommendedLesson</t>
+  </si>
+  <si>
+    <t>fn_ViewofMyLessons</t>
+  </si>
+  <si>
+    <t>fn_FunctionalityofPlanLessons</t>
+  </si>
+  <si>
+    <t>fn_FunctionalityToDeleteofMyLessons)</t>
+  </si>
+  <si>
+    <t>fi_FunctionalityofLearningResource</t>
+  </si>
+  <si>
+    <t>fi_FunctionalityofLearningResources</t>
+  </si>
+  <si>
+    <t>fi_FunctionalityToofLearningResources</t>
+  </si>
+  <si>
+    <t>fi_FunctionalityofPlayContent</t>
+  </si>
+  <si>
+    <t>fi_ValidationsForMandatoryFieldsOnSaveAssessmentWindowofAssessmentGeneration</t>
+  </si>
+  <si>
+    <t>f-_FunctionalityofEditsection</t>
+  </si>
+  <si>
+    <t>f-_FunctionalityofDeletesection</t>
+  </si>
+  <si>
+    <t>f-_FunctionalityToSearchSpecificQuestionWithAdvancedofQuestionBank</t>
+  </si>
+  <si>
+    <t>f-_FunctionalityToSearchSpecificQuestionFromLeftofQuestionBank</t>
+  </si>
+  <si>
+    <t>f-_FunctionalityToTryoutAofQuestionBank</t>
+  </si>
+  <si>
+    <t>f-_FunctionalityToDeleteTestofNobutton</t>
+  </si>
+  <si>
+    <t>f-_TeacherIsNotAbleofRecommendedtests</t>
+  </si>
+  <si>
+    <t>fv_ValidationToofTimefields</t>
+  </si>
+  <si>
+    <t>fP_ViewofPlannedLessons</t>
+  </si>
+  <si>
+    <t>fe_ManageAssignmentIsofCalendarsection</t>
+  </si>
+  <si>
+    <t>fn_ViewAverageScoreofSelectedSubject</t>
+  </si>
+  <si>
+    <t>fl_FunctionalityofClassperformances</t>
+  </si>
+  <si>
+    <t>fl_FunctionalityToofWisePerformance</t>
+  </si>
+  <si>
+    <t>fl_FunctionalityToCalculateofByActivity</t>
+  </si>
+  <si>
+    <t>fc_ViewChapterWiseofWiseperformance</t>
+  </si>
+  <si>
+    <t>fc_ViewAllTheLessonsUnderTheParticularSubjectAndTheNameOfTheActivitiesThatAreTaggedofRespectivelessons</t>
+  </si>
+  <si>
+    <t>fc_ViewTheAverageofThelesson</t>
+  </si>
+  <si>
+    <t>fc_ViewDetailsAboutTheSubmissionOfTheofBystudents</t>
+  </si>
+  <si>
+    <t>fc_ViewOverallPerformanceAndSubjectWiseofThestudent</t>
+  </si>
+  <si>
+    <t>fc_ViewActivityWisePerformanceOfTheStudentofParticularlesson</t>
+  </si>
+  <si>
+    <t>f-_ViewRespectiveSubjectsAndRecentActivitiesofAclass</t>
+  </si>
+  <si>
+    <t>f-_ViewTheRespectiveChaptersAndLessonPlansLearningResourcesofAndTest</t>
+  </si>
+  <si>
+    <t>fn_OfofOftext</t>
+  </si>
+  <si>
+    <t>fn_ViewofThelessons</t>
+  </si>
+  <si>
+    <t>fn_ViewTheUsageofThelesson</t>
+  </si>
+  <si>
+    <t>fn_ViewTheChapterofForchapter</t>
+  </si>
+  <si>
+    <t>fn_ViewAllTheAssetsAssociatedofLearningresource</t>
+  </si>
+  <si>
+    <t>fn_FunctionalityToAssignofThestudents</t>
+  </si>
+  <si>
+    <t>fi_OfofOftext</t>
+  </si>
+  <si>
+    <t>fi_FunctionalityToCreateofSelectingchapter</t>
+  </si>
+  <si>
+    <t>fi_FunctionalityofAnotherresources</t>
+  </si>
+  <si>
+    <t>fi_ForMandatoryFieldsOnofPopupwindow</t>
+  </si>
+  <si>
+    <t>fi_FunctionalityofOtherresources</t>
+  </si>
+  <si>
+    <t>fi_FunctionalityToTagMetadataofUploadedlink</t>
+  </si>
+  <si>
+    <t>fi_ValidationsForMandatoryFieldsofPopupwindow</t>
+  </si>
+  <si>
+    <t>fi_FunctionalityToDeleteLearningResourcesByClickingOn'No'InConfirmationPopupofTotalnumber</t>
+  </si>
+  <si>
+    <t>fi_FunctionalityToofPlayedresource</t>
+  </si>
+  <si>
+    <t>fi_FunctionalityToofLearningresource</t>
+  </si>
+  <si>
+    <t>fi_FunctionalityToRemoveofLearningresource</t>
+  </si>
+  <si>
+    <t>fi_FunctionalityToofLessonplayer</t>
+  </si>
+  <si>
+    <t>fi_ViewofAllquestions</t>
+  </si>
+  <si>
+    <t>fi_ViewofRecommendedquestions</t>
+  </si>
+  <si>
+    <t>fi_ViewofCreatedquestions</t>
+  </si>
+  <si>
+    <t>fi_PreviewofRespectivequestion</t>
+  </si>
+  <si>
+    <t>fi_ValidationForMandatoryFieldsofAssessmentwindow</t>
+  </si>
+  <si>
+    <t>fi_CancelofAssessmentwindow</t>
+  </si>
+  <si>
+    <t>f-_ForofMandatoryfield</t>
+  </si>
+  <si>
+    <t>f-_FunctionalityofDeletetest</t>
+  </si>
+  <si>
+    <t>f-_FunctionalityToAssignofAGroup</t>
+  </si>
+  <si>
+    <t>f-_FunctionalityToAssignTestToAFutureDateofToindividuals</t>
+  </si>
+  <si>
+    <t>f-_FunctionalityToAssignTestToAFutureDateAndofAGroup</t>
+  </si>
+  <si>
+    <t>f-_StartTimeCannotBeLessThanCurrentTimeToAssignTestToAofAndtime</t>
+  </si>
+  <si>
+    <t>fd_VisibilityofOndashboard</t>
+  </si>
+  <si>
+    <t>fv_ValidationsofMandatoryfields</t>
+  </si>
+  <si>
+    <t>fv_CancelofEventpopup</t>
+  </si>
+  <si>
+    <t>ft_ViewofLessonplan</t>
+  </si>
+  <si>
+    <t>fe_ViewAllTheLessonPlansofYouTeacher)</t>
+  </si>
+  <si>
+    <t>fe_ViewAllTheofSpecifieddates</t>
+  </si>
+  <si>
+    <t>fe_ViewAllTheActivitiesOfLearningofSpecifieddates</t>
+  </si>
+  <si>
+    <t>fe_ViewTheofStudent'slearning</t>
+  </si>
+  <si>
+    <t>fe_ViewAllTheTestsWithinofDaterange</t>
+  </si>
+  <si>
+    <t>fe_ViewofSubmissiondetails</t>
+  </si>
+  <si>
+    <t>fe_SaveRemarkFeedbackForTheofTestactivity)</t>
+  </si>
+  <si>
+    <t>fe_ViewofTestreport</t>
+  </si>
+  <si>
+    <t>fe_ViewAllTheAssignmentsWithinofDaterange</t>
+  </si>
+  <si>
+    <t>f _MarksEntryLinkofInheader</t>
+  </si>
+  <si>
+    <t>f _FunctionalityToGradeStudentsOnReadingSkillsWritingSkillsSpeakingSkillsAndListeningSkillsAndAlsoToEnterTheMarksScoredInofTermtest</t>
+  </si>
+  <si>
+    <t>f _MarksEntryFeatureIsEnabledOnlyofClassteacher</t>
+  </si>
+  <si>
+    <t>fn_DisplayPracticeTestDetails</t>
+  </si>
+  <si>
+    <t>fn_BookmarkTheResource</t>
+  </si>
+  <si>
+    <t>fi_ForMandatoryFieldsOnAddLinkPopupWindow</t>
+  </si>
+  <si>
+    <t>fi_FunctionalityOfAssessmentGenerationCorrespondingToTheQuestions</t>
+  </si>
+  <si>
+    <t>f-_TeacherIsNotAllowedToRemoveTheTestAfterSubmissionFromTheStudent</t>
+  </si>
+  <si>
+    <t>fL_ViewLessonsPlannedForTheWeek</t>
+  </si>
+  <si>
+    <t>fe_ViewTheStudentResourceMarkingReport</t>
+  </si>
+  <si>
+    <t>fe_EvaluateTheRespectiveTest</t>
+  </si>
+  <si>
+    <t>fe_UploadingWorksheet</t>
+  </si>
+  <si>
+    <t>fn_ViewOverallPerformanceandStudentSubmissionStatusReport</t>
+  </si>
+  <si>
+    <t>fn_ViewTheQuestionAnswerChoicestudentAnswerandrightReport</t>
+  </si>
+  <si>
+    <t>fi_FunctionalityToTagmetadataTotheuploadedSubjec</t>
   </si>
 </sst>
 </file>
@@ -5525,8 +5819,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA213"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B81" workbookViewId="0">
-      <selection activeCell="D81" sqref="D81"/>
+    <sheetView tabSelected="1" topLeftCell="E86" workbookViewId="0">
+      <selection activeCell="I86" sqref="I86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7956,8 +8250,8 @@
       <c r="J77" s="6" t="s">
         <v>972</v>
       </c>
-      <c r="K77" s="21" t="s">
-        <v>911</v>
+      <c r="K77" t="s">
+        <v>1012</v>
       </c>
       <c r="L77" s="20" t="s">
         <v>1093</v>
@@ -7991,8 +8285,8 @@
       <c r="I78" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="K78" s="21" t="s">
-        <v>911</v>
+      <c r="K78" t="s">
+        <v>1012</v>
       </c>
       <c r="L78" s="20" t="s">
         <v>978</v>
@@ -8026,8 +8320,8 @@
       <c r="J79" s="6" t="s">
         <v>972</v>
       </c>
-      <c r="K79" s="21" t="s">
-        <v>911</v>
+      <c r="K79" t="s">
+        <v>1012</v>
       </c>
     </row>
     <row r="80" spans="1:15" ht="195" x14ac:dyDescent="0.25">
@@ -8055,8 +8349,8 @@
       <c r="I80" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="K80" s="6" t="s">
-        <v>911</v>
+      <c r="K80" t="s">
+        <v>1012</v>
       </c>
       <c r="L80" s="20" t="s">
         <v>936</v>
@@ -8087,8 +8381,8 @@
       <c r="I81" s="2" t="s">
         <v>345</v>
       </c>
-      <c r="K81" s="19" t="s">
-        <v>931</v>
+      <c r="K81" t="s">
+        <v>1012</v>
       </c>
       <c r="L81" s="20" t="s">
         <v>977</v>
@@ -8107,6 +8401,9 @@
       <c r="C82" s="8" t="s">
         <v>347</v>
       </c>
+      <c r="D82" s="8" t="s">
+        <v>1098</v>
+      </c>
       <c r="E82" s="8" t="s">
         <v>349</v>
       </c>
@@ -8119,8 +8416,8 @@
       <c r="I82" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="K82" s="6" t="s">
-        <v>911</v>
+      <c r="K82" t="s">
+        <v>1012</v>
       </c>
       <c r="L82" s="8" t="s">
         <v>937</v>
@@ -8136,6 +8433,9 @@
       <c r="C83" s="8" t="s">
         <v>347</v>
       </c>
+      <c r="D83" s="8" t="s">
+        <v>1126</v>
+      </c>
       <c r="E83" s="8" t="s">
         <v>352</v>
       </c>
@@ -8151,8 +8451,8 @@
       <c r="J83" s="6" t="s">
         <v>972</v>
       </c>
-      <c r="K83" s="6" t="s">
-        <v>911</v>
+      <c r="K83" t="s">
+        <v>1012</v>
       </c>
     </row>
     <row r="84" spans="1:13" ht="195" x14ac:dyDescent="0.25">
@@ -8165,6 +8465,9 @@
       <c r="C84" s="8" t="s">
         <v>347</v>
       </c>
+      <c r="D84" s="8" t="s">
+        <v>1184</v>
+      </c>
       <c r="E84" s="8" t="s">
         <v>355</v>
       </c>
@@ -8194,6 +8497,9 @@
       <c r="C85" s="8" t="s">
         <v>347</v>
       </c>
+      <c r="D85" s="8" t="s">
+        <v>1193</v>
+      </c>
       <c r="E85" s="8" t="s">
         <v>360</v>
       </c>
@@ -8223,6 +8529,9 @@
       <c r="C86" s="8" t="s">
         <v>347</v>
       </c>
+      <c r="D86" s="8" t="s">
+        <v>1194</v>
+      </c>
       <c r="E86" s="8" t="s">
         <v>364</v>
       </c>
@@ -8306,6 +8615,9 @@
       <c r="C89" s="8" t="s">
         <v>377</v>
       </c>
+      <c r="D89" s="8" t="s">
+        <v>1103</v>
+      </c>
       <c r="E89" s="8" t="s">
         <v>382</v>
       </c>
@@ -8330,6 +8642,9 @@
       <c r="C90" s="8" t="s">
         <v>904</v>
       </c>
+      <c r="D90" s="8" t="s">
+        <v>1127</v>
+      </c>
       <c r="E90" s="8" t="s">
         <v>890</v>
       </c>
@@ -8379,6 +8694,9 @@
       <c r="C92" s="8" t="s">
         <v>896</v>
       </c>
+      <c r="D92" s="8" t="s">
+        <v>1128</v>
+      </c>
       <c r="E92" s="8" t="s">
         <v>897</v>
       </c>
@@ -8402,6 +8720,9 @@
       <c r="C93" s="8" t="s">
         <v>900</v>
       </c>
+      <c r="D93" s="8" t="s">
+        <v>1129</v>
+      </c>
       <c r="E93" s="8" t="s">
         <v>901</v>
       </c>
@@ -8425,6 +8746,9 @@
       <c r="C94" s="8" t="s">
         <v>381</v>
       </c>
+      <c r="D94" s="8" t="s">
+        <v>1130</v>
+      </c>
       <c r="E94" s="8" t="s">
         <v>384</v>
       </c>
@@ -8454,6 +8778,9 @@
       <c r="C95" s="8" t="s">
         <v>381</v>
       </c>
+      <c r="D95" s="8" t="s">
+        <v>1131</v>
+      </c>
       <c r="E95" s="8" t="s">
         <v>386</v>
       </c>
@@ -8483,6 +8810,9 @@
       <c r="C96" s="8" t="s">
         <v>381</v>
       </c>
+      <c r="D96" s="8" t="s">
+        <v>1132</v>
+      </c>
       <c r="E96" s="8" t="s">
         <v>390</v>
       </c>
@@ -8512,6 +8842,9 @@
       <c r="C97" s="8" t="s">
         <v>381</v>
       </c>
+      <c r="D97" s="8" t="s">
+        <v>1133</v>
+      </c>
       <c r="E97" s="8" t="s">
         <v>394</v>
       </c>
@@ -8541,6 +8874,9 @@
       <c r="C98" s="8" t="s">
         <v>381</v>
       </c>
+      <c r="D98" s="8" t="s">
+        <v>1134</v>
+      </c>
       <c r="E98" s="8" t="s">
         <v>398</v>
       </c>
@@ -8599,6 +8935,9 @@
       <c r="C100" s="8" t="s">
         <v>381</v>
       </c>
+      <c r="D100" s="8" t="s">
+        <v>1135</v>
+      </c>
       <c r="E100" s="8" t="s">
         <v>407</v>
       </c>
@@ -8618,7 +8957,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="101" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A101" s="6" t="s">
         <v>435</v>
       </c>
@@ -8628,6 +8967,9 @@
       <c r="C101" s="6" t="s">
         <v>414</v>
       </c>
+      <c r="D101" s="8" t="s">
+        <v>1136</v>
+      </c>
       <c r="E101" s="8" t="s">
         <v>412</v>
       </c>
@@ -8647,7 +8989,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="102" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A102" s="6" t="s">
         <v>437</v>
       </c>
@@ -8656,6 +8998,9 @@
       </c>
       <c r="C102" s="6" t="s">
         <v>414</v>
+      </c>
+      <c r="D102" s="8" t="s">
+        <v>1137</v>
       </c>
       <c r="E102" s="8" t="s">
         <v>416</v>
@@ -8686,6 +9031,9 @@
       <c r="C103" s="8" t="s">
         <v>425</v>
       </c>
+      <c r="D103" s="8" t="s">
+        <v>1138</v>
+      </c>
       <c r="E103" s="8" t="s">
         <v>424</v>
       </c>
@@ -8715,6 +9063,9 @@
       <c r="C104" s="8" t="s">
         <v>422</v>
       </c>
+      <c r="D104" s="8" t="s">
+        <v>1139</v>
+      </c>
       <c r="E104" s="8" t="s">
         <v>427</v>
       </c>
@@ -8744,6 +9095,9 @@
       <c r="C105" s="8" t="s">
         <v>422</v>
       </c>
+      <c r="D105" s="8" t="s">
+        <v>1140</v>
+      </c>
       <c r="E105" s="8" t="s">
         <v>429</v>
       </c>
@@ -8773,6 +9127,9 @@
       <c r="C106" s="8" t="s">
         <v>422</v>
       </c>
+      <c r="D106" s="8" t="s">
+        <v>1141</v>
+      </c>
       <c r="E106" s="8" t="s">
         <v>436</v>
       </c>
@@ -8828,6 +9185,9 @@
       <c r="C108" s="8" t="s">
         <v>442</v>
       </c>
+      <c r="D108" s="8" t="s">
+        <v>1104</v>
+      </c>
       <c r="E108" s="6" t="s">
         <v>443</v>
       </c>
@@ -8857,6 +9217,9 @@
       <c r="C109" s="8" t="s">
         <v>442</v>
       </c>
+      <c r="D109" s="8" t="s">
+        <v>1142</v>
+      </c>
       <c r="E109" s="8" t="s">
         <v>446</v>
       </c>
@@ -8886,6 +9249,9 @@
       <c r="C110" s="8" t="s">
         <v>442</v>
       </c>
+      <c r="D110" s="8" t="s">
+        <v>1105</v>
+      </c>
       <c r="E110" s="8" t="s">
         <v>451</v>
       </c>
@@ -8915,6 +9281,9 @@
       <c r="C111" s="8" t="s">
         <v>442</v>
       </c>
+      <c r="D111" s="8" t="s">
+        <v>1185</v>
+      </c>
       <c r="E111" s="8" t="s">
         <v>455</v>
       </c>
@@ -8941,6 +9310,9 @@
       <c r="C112" s="8" t="s">
         <v>458</v>
       </c>
+      <c r="D112" s="8" t="s">
+        <v>1106</v>
+      </c>
       <c r="E112" s="6" t="s">
         <v>460</v>
       </c>
@@ -8967,6 +9339,9 @@
       <c r="C113" s="8" t="s">
         <v>458</v>
       </c>
+      <c r="D113" s="8" t="s">
+        <v>1107</v>
+      </c>
       <c r="E113" s="8" t="s">
         <v>620</v>
       </c>
@@ -8993,6 +9368,9 @@
       <c r="C114" s="8" t="s">
         <v>458</v>
       </c>
+      <c r="D114" s="8" t="s">
+        <v>1108</v>
+      </c>
       <c r="E114" s="8" t="s">
         <v>621</v>
       </c>
@@ -9019,6 +9397,9 @@
       <c r="C115" s="8" t="s">
         <v>464</v>
       </c>
+      <c r="D115" s="8" t="s">
+        <v>1109</v>
+      </c>
       <c r="E115" s="8" t="s">
         <v>465</v>
       </c>
@@ -9045,6 +9426,9 @@
       <c r="C116" s="8" t="s">
         <v>468</v>
       </c>
+      <c r="D116" s="8" t="s">
+        <v>1110</v>
+      </c>
       <c r="E116" s="8" t="s">
         <v>471</v>
       </c>
@@ -9071,6 +9455,9 @@
       <c r="C117" s="8" t="s">
         <v>472</v>
       </c>
+      <c r="D117" s="8" t="s">
+        <v>1143</v>
+      </c>
       <c r="E117" s="8" t="s">
         <v>474</v>
       </c>
@@ -9097,6 +9484,9 @@
       <c r="C118" s="8" t="s">
         <v>481</v>
       </c>
+      <c r="D118" s="8" t="s">
+        <v>1144</v>
+      </c>
       <c r="E118" s="8" t="s">
         <v>424</v>
       </c>
@@ -9126,6 +9516,9 @@
       <c r="C119" s="9" t="s">
         <v>477</v>
       </c>
+      <c r="D119" s="8" t="s">
+        <v>1111</v>
+      </c>
       <c r="E119" s="8" t="s">
         <v>478</v>
       </c>
@@ -9155,6 +9548,9 @@
       <c r="C120" s="8" t="s">
         <v>486</v>
       </c>
+      <c r="D120" s="8" t="s">
+        <v>1112</v>
+      </c>
       <c r="E120" s="8" t="s">
         <v>487</v>
       </c>
@@ -9184,6 +9580,9 @@
       <c r="C121" s="8" t="s">
         <v>490</v>
       </c>
+      <c r="D121" s="8" t="s">
+        <v>1112</v>
+      </c>
       <c r="E121" s="8" t="s">
         <v>491</v>
       </c>
@@ -9213,6 +9612,9 @@
       <c r="C122" s="8" t="s">
         <v>490</v>
       </c>
+      <c r="D122" s="8" t="s">
+        <v>1113</v>
+      </c>
       <c r="E122" s="8" t="s">
         <v>495</v>
       </c>
@@ -9277,6 +9679,9 @@
       <c r="C124" s="8" t="s">
         <v>498</v>
       </c>
+      <c r="D124" s="8" t="s">
+        <v>1145</v>
+      </c>
       <c r="E124" s="8" t="s">
         <v>505</v>
       </c>
@@ -9306,6 +9711,9 @@
       <c r="C125" s="8" t="s">
         <v>498</v>
       </c>
+      <c r="D125" s="8" t="s">
+        <v>1186</v>
+      </c>
       <c r="E125" s="8" t="s">
         <v>508</v>
       </c>
@@ -9339,6 +9747,9 @@
       <c r="C126" s="8" t="s">
         <v>498</v>
       </c>
+      <c r="D126" s="8" t="s">
+        <v>1146</v>
+      </c>
       <c r="E126" s="8" t="s">
         <v>513</v>
       </c>
@@ -9369,6 +9780,9 @@
       <c r="C127" s="8" t="s">
         <v>498</v>
       </c>
+      <c r="D127" s="8" t="s">
+        <v>1195</v>
+      </c>
       <c r="E127" s="8" t="s">
         <v>521</v>
       </c>
@@ -9434,6 +9848,9 @@
       <c r="C129" s="8" t="s">
         <v>517</v>
       </c>
+      <c r="D129" s="8" t="s">
+        <v>1145</v>
+      </c>
       <c r="E129" s="8" t="s">
         <v>525</v>
       </c>
@@ -9463,6 +9880,9 @@
       <c r="C130" s="8" t="s">
         <v>517</v>
       </c>
+      <c r="D130" s="8" t="s">
+        <v>1147</v>
+      </c>
       <c r="E130" s="8" t="s">
         <v>528</v>
       </c>
@@ -9493,6 +9913,9 @@
       <c r="C131" s="8" t="s">
         <v>517</v>
       </c>
+      <c r="D131" s="8" t="s">
+        <v>1148</v>
+      </c>
       <c r="E131" s="8" t="s">
         <v>533</v>
       </c>
@@ -9523,6 +9946,9 @@
       <c r="C132" s="8" t="s">
         <v>517</v>
       </c>
+      <c r="D132" s="8" t="s">
+        <v>1149</v>
+      </c>
       <c r="E132" s="8" t="s">
         <v>521</v>
       </c>
@@ -9585,6 +10011,9 @@
       <c r="C134" s="8" t="s">
         <v>540</v>
       </c>
+      <c r="D134" s="8" t="s">
+        <v>1150</v>
+      </c>
       <c r="E134" s="8" t="s">
         <v>548</v>
       </c>
@@ -9615,6 +10044,9 @@
       <c r="C135" s="8" t="s">
         <v>552</v>
       </c>
+      <c r="D135" s="8" t="s">
+        <v>1112</v>
+      </c>
       <c r="E135" s="8" t="s">
         <v>553</v>
       </c>
@@ -9644,6 +10076,9 @@
       <c r="C136" s="8" t="s">
         <v>552</v>
       </c>
+      <c r="D136" s="8" t="s">
+        <v>1151</v>
+      </c>
       <c r="E136" s="8" t="s">
         <v>557</v>
       </c>
@@ -9673,6 +10108,9 @@
       <c r="C137" s="8" t="s">
         <v>561</v>
       </c>
+      <c r="D137" s="8" t="s">
+        <v>1114</v>
+      </c>
       <c r="E137" s="8" t="s">
         <v>562</v>
       </c>
@@ -9702,6 +10140,9 @@
       <c r="C138" s="8" t="s">
         <v>561</v>
       </c>
+      <c r="D138" s="8" t="s">
+        <v>1152</v>
+      </c>
       <c r="E138" s="8" t="s">
         <v>565</v>
       </c>
@@ -9731,6 +10172,9 @@
       <c r="C139" s="8" t="s">
         <v>561</v>
       </c>
+      <c r="D139" s="8" t="s">
+        <v>1153</v>
+      </c>
       <c r="E139" s="8" t="s">
         <v>568</v>
       </c>
@@ -9760,6 +10204,9 @@
       <c r="C140" s="8" t="s">
         <v>561</v>
       </c>
+      <c r="D140" s="8" t="s">
+        <v>1154</v>
+      </c>
       <c r="E140" s="8" t="s">
         <v>572</v>
       </c>
@@ -9789,6 +10236,9 @@
       <c r="C141" s="8" t="s">
         <v>561</v>
       </c>
+      <c r="D141" s="8" t="s">
+        <v>1155</v>
+      </c>
       <c r="E141" s="8" t="s">
         <v>576</v>
       </c>
@@ -9818,6 +10268,9 @@
       <c r="C142" s="8" t="s">
         <v>581</v>
       </c>
+      <c r="D142" s="8" t="s">
+        <v>1156</v>
+      </c>
       <c r="E142" s="6" t="s">
         <v>582</v>
       </c>
@@ -9847,6 +10300,9 @@
       <c r="C143" s="8" t="s">
         <v>581</v>
       </c>
+      <c r="D143" s="8" t="s">
+        <v>1157</v>
+      </c>
       <c r="E143" s="8" t="s">
         <v>625</v>
       </c>
@@ -9876,6 +10332,9 @@
       <c r="C144" s="8" t="s">
         <v>581</v>
       </c>
+      <c r="D144" s="8" t="s">
+        <v>1158</v>
+      </c>
       <c r="E144" s="8" t="s">
         <v>628</v>
       </c>
@@ -9905,6 +10364,9 @@
       <c r="C145" s="8" t="s">
         <v>581</v>
       </c>
+      <c r="D145" s="8" t="s">
+        <v>1159</v>
+      </c>
       <c r="E145" s="8" t="s">
         <v>586</v>
       </c>
@@ -9934,6 +10396,9 @@
       <c r="C146" s="8" t="s">
         <v>594</v>
       </c>
+      <c r="D146" s="8" t="s">
+        <v>1187</v>
+      </c>
       <c r="E146" s="8" t="s">
         <v>593</v>
       </c>
@@ -9966,6 +10431,9 @@
       <c r="C147" s="8" t="s">
         <v>595</v>
       </c>
+      <c r="D147" s="8" t="s">
+        <v>1160</v>
+      </c>
       <c r="E147" s="8" t="s">
         <v>596</v>
       </c>
@@ -9995,6 +10463,9 @@
       <c r="C148" s="8" t="s">
         <v>595</v>
       </c>
+      <c r="D148" s="8" t="s">
+        <v>1161</v>
+      </c>
       <c r="E148" s="8" t="s">
         <v>600</v>
       </c>
@@ -10056,6 +10527,9 @@
       <c r="C150" s="8" t="s">
         <v>595</v>
       </c>
+      <c r="D150" s="8" t="s">
+        <v>1115</v>
+      </c>
       <c r="E150" s="8" t="s">
         <v>609</v>
       </c>
@@ -10085,6 +10559,9 @@
       <c r="C151" s="8" t="s">
         <v>595</v>
       </c>
+      <c r="D151" s="8" t="s">
+        <v>1161</v>
+      </c>
       <c r="E151" s="8" t="s">
         <v>612</v>
       </c>
@@ -10381,6 +10858,9 @@
       <c r="C161" s="6" t="s">
         <v>665</v>
       </c>
+      <c r="D161" s="8" t="s">
+        <v>1162</v>
+      </c>
       <c r="E161" s="8" t="s">
         <v>694</v>
       </c>
@@ -10443,6 +10923,9 @@
       <c r="C163" s="6" t="s">
         <v>665</v>
       </c>
+      <c r="D163" s="8" t="s">
+        <v>1116</v>
+      </c>
       <c r="E163" s="8" t="s">
         <v>675</v>
       </c>
@@ -10472,6 +10955,9 @@
       <c r="C164" s="6" t="s">
         <v>665</v>
       </c>
+      <c r="D164" s="8" t="s">
+        <v>1117</v>
+      </c>
       <c r="E164" s="8" t="s">
         <v>679</v>
       </c>
@@ -10501,6 +10987,9 @@
       <c r="C165" s="6" t="s">
         <v>665</v>
       </c>
+      <c r="D165" s="8" t="s">
+        <v>1118</v>
+      </c>
       <c r="E165" s="8" t="s">
         <v>683</v>
       </c>
@@ -10530,6 +11019,9 @@
       <c r="C166" s="6" t="s">
         <v>665</v>
       </c>
+      <c r="D166" s="8" t="s">
+        <v>1119</v>
+      </c>
       <c r="E166" s="8" t="s">
         <v>687</v>
       </c>
@@ -10559,6 +11051,9 @@
       <c r="C167" s="6" t="s">
         <v>665</v>
       </c>
+      <c r="D167" s="8" t="s">
+        <v>1120</v>
+      </c>
       <c r="E167" s="8" t="s">
         <v>691</v>
       </c>
@@ -10588,6 +11083,9 @@
       <c r="C168" s="6" t="s">
         <v>699</v>
       </c>
+      <c r="D168" s="8" t="s">
+        <v>1188</v>
+      </c>
       <c r="E168" s="8" t="s">
         <v>700</v>
       </c>
@@ -10614,6 +11112,9 @@
       <c r="C169" s="6" t="s">
         <v>699</v>
       </c>
+      <c r="D169" s="8" t="s">
+        <v>1163</v>
+      </c>
       <c r="E169" s="8" t="s">
         <v>704</v>
       </c>
@@ -10643,6 +11144,9 @@
       <c r="C170" s="6" t="s">
         <v>699</v>
       </c>
+      <c r="D170" s="8" t="s">
+        <v>1121</v>
+      </c>
       <c r="E170" s="8" t="s">
         <v>707</v>
       </c>
@@ -10672,6 +11176,9 @@
       <c r="C171" s="6" t="s">
         <v>699</v>
       </c>
+      <c r="D171" s="8" t="s">
+        <v>1122</v>
+      </c>
       <c r="E171" s="8" t="s">
         <v>710</v>
       </c>
@@ -10730,6 +11237,9 @@
       <c r="C173" s="6" t="s">
         <v>713</v>
       </c>
+      <c r="D173" s="8" t="s">
+        <v>1164</v>
+      </c>
       <c r="E173" s="8" t="s">
         <v>718</v>
       </c>
@@ -10759,6 +11269,9 @@
       <c r="C174" s="6" t="s">
         <v>713</v>
       </c>
+      <c r="D174" s="8" t="s">
+        <v>1165</v>
+      </c>
       <c r="E174" s="8" t="s">
         <v>722</v>
       </c>
@@ -10788,6 +11301,9 @@
       <c r="C175" s="6" t="s">
         <v>713</v>
       </c>
+      <c r="D175" s="8" t="s">
+        <v>1166</v>
+      </c>
       <c r="E175" s="8" t="s">
         <v>726</v>
       </c>
@@ -10816,6 +11332,9 @@
       </c>
       <c r="C176" s="10" t="s">
         <v>713</v>
+      </c>
+      <c r="D176" s="8" t="s">
+        <v>1167</v>
       </c>
       <c r="E176" s="10" t="s">
         <v>731</v>
@@ -10863,6 +11382,9 @@
       <c r="C177" s="10" t="s">
         <v>735</v>
       </c>
+      <c r="D177" s="8" t="s">
+        <v>1168</v>
+      </c>
       <c r="E177" s="14" t="s">
         <v>748</v>
       </c>
@@ -10938,6 +11460,9 @@
       <c r="C179" s="8" t="s">
         <v>736</v>
       </c>
+      <c r="D179" s="8" t="s">
+        <v>1189</v>
+      </c>
       <c r="E179" s="8" t="s">
         <v>741</v>
       </c>
@@ -10970,6 +11495,9 @@
       <c r="C180" s="8" t="s">
         <v>736</v>
       </c>
+      <c r="D180" s="8" t="s">
+        <v>1099</v>
+      </c>
       <c r="E180" s="8" t="s">
         <v>745</v>
       </c>
@@ -11072,6 +11600,9 @@
       <c r="C183" s="6" t="s">
         <v>753</v>
       </c>
+      <c r="D183" s="8" t="s">
+        <v>1169</v>
+      </c>
       <c r="E183" s="8" t="s">
         <v>764</v>
       </c>
@@ -11101,6 +11632,9 @@
       <c r="C184" s="6" t="s">
         <v>753</v>
       </c>
+      <c r="D184" s="8" t="s">
+        <v>1123</v>
+      </c>
       <c r="E184" s="8" t="s">
         <v>768</v>
       </c>
@@ -11130,6 +11664,9 @@
       <c r="C185" s="6" t="s">
         <v>753</v>
       </c>
+      <c r="D185" s="8" t="s">
+        <v>1123</v>
+      </c>
       <c r="E185" s="8" t="s">
         <v>768</v>
       </c>
@@ -11160,6 +11697,9 @@
       <c r="C186" s="6" t="s">
         <v>753</v>
       </c>
+      <c r="D186" s="8" t="s">
+        <v>1123</v>
+      </c>
       <c r="E186" s="8" t="s">
         <v>768</v>
       </c>
@@ -11190,6 +11730,9 @@
       <c r="C187" s="6" t="s">
         <v>753</v>
       </c>
+      <c r="D187" s="8" t="s">
+        <v>1170</v>
+      </c>
       <c r="E187" s="8" t="s">
         <v>776</v>
       </c>
@@ -11219,6 +11762,9 @@
       <c r="C188" s="8" t="s">
         <v>779</v>
       </c>
+      <c r="D188" s="8" t="s">
+        <v>1124</v>
+      </c>
       <c r="E188" s="6" t="s">
         <v>786</v>
       </c>
@@ -11248,6 +11794,9 @@
       <c r="C189" s="8" t="s">
         <v>784</v>
       </c>
+      <c r="D189" s="8" t="s">
+        <v>1171</v>
+      </c>
       <c r="E189" s="6" t="s">
         <v>785</v>
       </c>
@@ -11277,6 +11826,9 @@
       <c r="C190" s="8" t="s">
         <v>790</v>
       </c>
+      <c r="D190" s="8" t="s">
+        <v>1100</v>
+      </c>
       <c r="E190" s="8" t="s">
         <v>791</v>
       </c>
@@ -11306,6 +11858,9 @@
       <c r="C191" s="8" t="s">
         <v>796</v>
       </c>
+      <c r="D191" s="8" t="s">
+        <v>1101</v>
+      </c>
       <c r="E191" s="8" t="s">
         <v>795</v>
       </c>
@@ -11335,6 +11890,9 @@
       <c r="C192" s="8" t="s">
         <v>796</v>
       </c>
+      <c r="D192" s="8" t="s">
+        <v>1102</v>
+      </c>
       <c r="E192" s="8" t="s">
         <v>800</v>
       </c>
@@ -11357,7 +11915,7 @@
         <v>961</v>
       </c>
     </row>
-    <row r="193" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:12" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A193" s="6" t="s">
         <v>822</v>
       </c>
@@ -11367,6 +11925,9 @@
       <c r="C193" s="8" t="s">
         <v>805</v>
       </c>
+      <c r="D193" s="8" t="s">
+        <v>1125</v>
+      </c>
       <c r="E193" s="8" t="s">
         <v>806</v>
       </c>
@@ -11386,7 +11947,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="194" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:12" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A194" s="6" t="s">
         <v>825</v>
       </c>
@@ -11395,6 +11956,9 @@
       </c>
       <c r="C194" s="8" t="s">
         <v>805</v>
+      </c>
+      <c r="D194" s="8" t="s">
+        <v>1172</v>
       </c>
       <c r="E194" s="8" t="s">
         <v>809</v>
@@ -11425,6 +11989,9 @@
       <c r="C195" s="8" t="s">
         <v>805</v>
       </c>
+      <c r="D195" s="8" t="s">
+        <v>1173</v>
+      </c>
       <c r="E195" s="8" t="s">
         <v>814</v>
       </c>
@@ -11454,6 +12021,9 @@
       <c r="C196" s="8" t="s">
         <v>805</v>
       </c>
+      <c r="D196" s="8" t="s">
+        <v>1174</v>
+      </c>
       <c r="E196" s="8" t="s">
         <v>826</v>
       </c>
@@ -11483,6 +12053,9 @@
       <c r="C197" s="8" t="s">
         <v>805</v>
       </c>
+      <c r="D197" s="8" t="s">
+        <v>1190</v>
+      </c>
       <c r="E197" s="8" t="s">
         <v>820</v>
       </c>
@@ -11515,6 +12088,9 @@
       <c r="C198" s="8" t="s">
         <v>805</v>
       </c>
+      <c r="D198" s="8" t="s">
+        <v>1175</v>
+      </c>
       <c r="E198" s="8" t="s">
         <v>823</v>
       </c>
@@ -11544,6 +12120,9 @@
       <c r="C199" s="8" t="s">
         <v>805</v>
       </c>
+      <c r="D199" s="8" t="s">
+        <v>1176</v>
+      </c>
       <c r="E199" s="8" t="s">
         <v>830</v>
       </c>
@@ -11573,6 +12152,9 @@
       <c r="C200" s="8" t="s">
         <v>805</v>
       </c>
+      <c r="D200" s="8" t="s">
+        <v>1177</v>
+      </c>
       <c r="E200" s="8" t="s">
         <v>837</v>
       </c>
@@ -11602,6 +12184,9 @@
       <c r="C201" s="8" t="s">
         <v>805</v>
       </c>
+      <c r="D201" s="8" t="s">
+        <v>1178</v>
+      </c>
       <c r="E201" s="8" t="s">
         <v>838</v>
       </c>
@@ -11631,6 +12216,9 @@
       <c r="C202" s="8" t="s">
         <v>805</v>
       </c>
+      <c r="D202" s="8" t="s">
+        <v>1179</v>
+      </c>
       <c r="E202" s="8" t="s">
         <v>842</v>
       </c>
@@ -11660,6 +12248,9 @@
       <c r="C203" s="8" t="s">
         <v>805</v>
       </c>
+      <c r="D203" s="8" t="s">
+        <v>1191</v>
+      </c>
       <c r="E203" s="8" t="s">
         <v>846</v>
       </c>
@@ -11689,6 +12280,9 @@
       <c r="C204" s="8" t="s">
         <v>805</v>
       </c>
+      <c r="D204" s="8" t="s">
+        <v>1192</v>
+      </c>
       <c r="E204" s="8" t="s">
         <v>850</v>
       </c>
@@ -11718,6 +12312,9 @@
       <c r="C205" s="8" t="s">
         <v>805</v>
       </c>
+      <c r="D205" s="8" t="s">
+        <v>1180</v>
+      </c>
       <c r="E205" s="8" t="s">
         <v>855</v>
       </c>
@@ -11747,6 +12344,9 @@
       <c r="C206" s="8" t="s">
         <v>805</v>
       </c>
+      <c r="D206" s="8" t="s">
+        <v>1177</v>
+      </c>
       <c r="E206" s="8" t="s">
         <v>862</v>
       </c>
@@ -11859,7 +12459,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="210" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A210" s="6" t="s">
         <v>907</v>
       </c>
@@ -11868,6 +12468,9 @@
       </c>
       <c r="C210" s="6" t="s">
         <v>874</v>
+      </c>
+      <c r="D210" s="8" t="s">
+        <v>1181</v>
       </c>
       <c r="E210" s="8" t="s">
         <v>879</v>
@@ -11898,6 +12501,9 @@
       <c r="C211" s="8" t="s">
         <v>875</v>
       </c>
+      <c r="D211" s="8" t="s">
+        <v>1182</v>
+      </c>
       <c r="E211" s="8" t="s">
         <v>876</v>
       </c>
@@ -11917,7 +12523,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="212" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A212" s="6" t="s">
         <v>917</v>
       </c>
@@ -11926,6 +12532,9 @@
       </c>
       <c r="C212" s="8" t="s">
         <v>885</v>
+      </c>
+      <c r="D212" s="8" t="s">
+        <v>1183</v>
       </c>
       <c r="E212" s="8" t="s">
         <v>886</v>

--- a/Advantage Test Cases.xlsx
+++ b/Advantage Test Cases.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3969" uniqueCount="1196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3948" uniqueCount="1196">
   <si>
     <t>Test Objective</t>
   </si>
@@ -5065,9 +5065,6 @@
     <t>fA_AddRemarkforstudent'sFeedbackofView</t>
   </si>
   <si>
-    <t>fn_ViewofLessonwiseoverview</t>
-  </si>
-  <si>
     <t>fn_PreviewofPreviewLesson</t>
   </si>
   <si>
@@ -5137,33 +5134,6 @@
     <t>fn_ViewAverageScoreofSelectedSubject</t>
   </si>
   <si>
-    <t>fl_FunctionalityofClassperformances</t>
-  </si>
-  <si>
-    <t>fl_FunctionalityToofWisePerformance</t>
-  </si>
-  <si>
-    <t>fl_FunctionalityToCalculateofByActivity</t>
-  </si>
-  <si>
-    <t>fc_ViewChapterWiseofWiseperformance</t>
-  </si>
-  <si>
-    <t>fc_ViewAllTheLessonsUnderTheParticularSubjectAndTheNameOfTheActivitiesThatAreTaggedofRespectivelessons</t>
-  </si>
-  <si>
-    <t>fc_ViewTheAverageofThelesson</t>
-  </si>
-  <si>
-    <t>fc_ViewDetailsAboutTheSubmissionOfTheofBystudents</t>
-  </si>
-  <si>
-    <t>fc_ViewOverallPerformanceAndSubjectWiseofThestudent</t>
-  </si>
-  <si>
-    <t>fc_ViewActivityWisePerformanceOfTheStudentofParticularlesson</t>
-  </si>
-  <si>
     <t>f-_ViewRespectiveSubjectsAndRecentActivitiesofAclass</t>
   </si>
   <si>
@@ -5342,13 +5312,44 @@
   </si>
   <si>
     <t>fi_FunctionalityToTagmetadataTotheuploadedSubjec</t>
+  </si>
+  <si>
+    <t>fn_ViewMarkSheetofSelectedStudent</t>
+  </si>
+  <si>
+    <t>fn_PrintMarkSheet</t>
+  </si>
+  <si>
+    <t>fn_ViewLessonwiseoverview</t>
+  </si>
+  <si>
+    <t>fn_ViewChapterwiseandLessonwiseperformance</t>
+  </si>
+  <si>
+    <t>fn_ViewLessonsandActivitiesThatAreTaggedofRespectivelessons</t>
+  </si>
+  <si>
+    <t>fn_ViewTheAverageofThelesson</t>
+  </si>
+  <si>
+    <t>fn_ViewDetailsAboutSubmissionofparticularActivityBystudent</t>
+  </si>
+  <si>
+    <t>fn_ViewOverallPerformanceAndSubjectWisePerformance</t>
+  </si>
+  <si>
+    <t>fn_ViewLessonwisePerformancebytheStudent</t>
+  </si>
+  <si>
+    <t>fn_ViewActivityWisePerformanceOfTheStudentofParticularlesson</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5817,27 +5818,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA213"/>
+  <dimension ref="A1:AA209"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E86" workbookViewId="0">
-      <selection activeCell="I86" sqref="I86"/>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="B97" sqref="B97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.140625" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="18.42578125" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="16.5703125" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="16.5703125" style="8" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="31.85546875" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="33.5703125" style="6" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="42.7109375" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="25.28515625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="41.140625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="26" style="6" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="11.42578125" style="6" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="52.7109375" style="8" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="14.28515625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="6" width="12.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="6" width="18.42578125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="6" width="16.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="8" width="16.5703125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="6" width="31.85546875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="6" width="33.5703125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="42.7109375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="25.28515625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="41.140625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="6" width="26.0" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="6" width="11.42578125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="8" width="52.7109375" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="14.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -8434,7 +8435,7 @@
         <v>347</v>
       </c>
       <c r="D83" s="8" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="E83" s="8" t="s">
         <v>352</v>
@@ -8466,7 +8467,7 @@
         <v>347</v>
       </c>
       <c r="D84" s="8" t="s">
-        <v>1184</v>
+        <v>1174</v>
       </c>
       <c r="E84" s="8" t="s">
         <v>355</v>
@@ -8498,7 +8499,7 @@
         <v>347</v>
       </c>
       <c r="D85" s="8" t="s">
-        <v>1193</v>
+        <v>1183</v>
       </c>
       <c r="E85" s="8" t="s">
         <v>360</v>
@@ -8530,7 +8531,7 @@
         <v>347</v>
       </c>
       <c r="D86" s="8" t="s">
-        <v>1194</v>
+        <v>1184</v>
       </c>
       <c r="E86" s="8" t="s">
         <v>364</v>
@@ -8561,6 +8562,9 @@
       <c r="C87" s="6" t="s">
         <v>368</v>
       </c>
+      <c r="D87" s="8" t="s">
+        <v>1186</v>
+      </c>
       <c r="E87" s="8" t="s">
         <v>370</v>
       </c>
@@ -8573,7 +8577,9 @@
       <c r="I87" s="2" t="s">
         <v>372</v>
       </c>
-      <c r="K87" s="19"/>
+      <c r="K87" t="s">
+        <v>1012</v>
+      </c>
       <c r="L87" s="8" t="s">
         <v>943</v>
       </c>
@@ -8588,6 +8594,9 @@
       <c r="C88" s="6" t="s">
         <v>368</v>
       </c>
+      <c r="D88" s="8" t="s">
+        <v>1187</v>
+      </c>
       <c r="E88" s="8" t="s">
         <v>374</v>
       </c>
@@ -8616,7 +8625,7 @@
         <v>377</v>
       </c>
       <c r="D89" s="8" t="s">
-        <v>1103</v>
+        <v>1188</v>
       </c>
       <c r="E89" s="8" t="s">
         <v>382</v>
@@ -8630,9 +8639,11 @@
       <c r="I89" s="2" t="s">
         <v>888</v>
       </c>
-      <c r="K89" s="19"/>
-    </row>
-    <row r="90" spans="1:13" ht="360" x14ac:dyDescent="0.25">
+      <c r="K89" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" ht="90" x14ac:dyDescent="0.25">
       <c r="A90" s="6" t="s">
         <v>387</v>
       </c>
@@ -8640,25 +8651,31 @@
         <v>277</v>
       </c>
       <c r="C90" s="8" t="s">
-        <v>904</v>
+        <v>381</v>
       </c>
       <c r="D90" s="8" t="s">
-        <v>1127</v>
+        <v>1189</v>
       </c>
       <c r="E90" s="8" t="s">
-        <v>890</v>
+        <v>384</v>
       </c>
       <c r="F90" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>889</v>
+        <v>383</v>
       </c>
       <c r="I90" s="2" t="s">
-        <v>892</v>
-      </c>
-    </row>
-    <row r="91" spans="1:13" ht="255" x14ac:dyDescent="0.25">
+        <v>385</v>
+      </c>
+      <c r="J90" s="6" t="s">
+        <v>972</v>
+      </c>
+      <c r="K90" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" ht="150" x14ac:dyDescent="0.25">
       <c r="A91" s="6" t="s">
         <v>391</v>
       </c>
@@ -8666,22 +8683,28 @@
         <v>277</v>
       </c>
       <c r="C91" s="8" t="s">
-        <v>893</v>
+        <v>381</v>
       </c>
       <c r="D91" s="8" t="s">
-        <v>1005</v>
+        <v>1190</v>
       </c>
       <c r="E91" s="8" t="s">
-        <v>894</v>
+        <v>386</v>
       </c>
       <c r="F91" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>895</v>
+        <v>388</v>
       </c>
       <c r="I91" s="2" t="s">
-        <v>891</v>
+        <v>389</v>
+      </c>
+      <c r="J91" s="6" t="s">
+        <v>972</v>
+      </c>
+      <c r="K91" t="s">
+        <v>1012</v>
       </c>
     </row>
     <row r="92" spans="1:13" ht="180" x14ac:dyDescent="0.25">
@@ -8692,25 +8715,31 @@
         <v>277</v>
       </c>
       <c r="C92" s="8" t="s">
-        <v>896</v>
+        <v>381</v>
       </c>
       <c r="D92" s="8" t="s">
-        <v>1128</v>
+        <v>1191</v>
       </c>
       <c r="E92" s="8" t="s">
-        <v>897</v>
+        <v>390</v>
       </c>
       <c r="F92" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>898</v>
+        <v>392</v>
       </c>
       <c r="I92" s="2" t="s">
-        <v>899</v>
-      </c>
-    </row>
-    <row r="93" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+        <v>393</v>
+      </c>
+      <c r="J92" s="6" t="s">
+        <v>972</v>
+      </c>
+      <c r="K92" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" ht="225" x14ac:dyDescent="0.25">
       <c r="A93" s="6" t="s">
         <v>399</v>
       </c>
@@ -8718,25 +8747,31 @@
         <v>277</v>
       </c>
       <c r="C93" s="8" t="s">
-        <v>900</v>
+        <v>381</v>
       </c>
       <c r="D93" s="8" t="s">
-        <v>1129</v>
+        <v>1192</v>
       </c>
       <c r="E93" s="8" t="s">
-        <v>901</v>
+        <v>394</v>
       </c>
       <c r="F93" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>902</v>
+        <v>395</v>
       </c>
       <c r="I93" s="2" t="s">
-        <v>903</v>
-      </c>
-    </row>
-    <row r="94" spans="1:13" ht="90" x14ac:dyDescent="0.25">
+        <v>396</v>
+      </c>
+      <c r="J93" s="6" t="s">
+        <v>972</v>
+      </c>
+      <c r="K93" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" ht="270" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
         <v>402</v>
       </c>
@@ -8747,28 +8782,28 @@
         <v>381</v>
       </c>
       <c r="D94" s="8" t="s">
-        <v>1130</v>
+        <v>1193</v>
       </c>
       <c r="E94" s="8" t="s">
-        <v>384</v>
+        <v>398</v>
       </c>
       <c r="F94" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>383</v>
+        <v>400</v>
       </c>
       <c r="I94" s="2" t="s">
-        <v>385</v>
+        <v>401</v>
       </c>
       <c r="J94" s="6" t="s">
         <v>972</v>
       </c>
-      <c r="K94" s="6" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="95" spans="1:13" ht="150" x14ac:dyDescent="0.25">
+      <c r="K94" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" ht="300" x14ac:dyDescent="0.25">
       <c r="A95" s="6" t="s">
         <v>406</v>
       </c>
@@ -8779,28 +8814,28 @@
         <v>381</v>
       </c>
       <c r="D95" s="8" t="s">
-        <v>1131</v>
+        <v>1194</v>
       </c>
       <c r="E95" s="8" t="s">
-        <v>386</v>
+        <v>403</v>
       </c>
       <c r="F95" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>388</v>
+        <v>404</v>
       </c>
       <c r="I95" s="2" t="s">
-        <v>389</v>
-      </c>
-      <c r="J95" s="6" t="s">
-        <v>972</v>
+        <v>405</v>
       </c>
       <c r="K95" s="6" t="s">
         <v>911</v>
       </c>
-    </row>
-    <row r="96" spans="1:13" ht="180" x14ac:dyDescent="0.25">
+      <c r="L95" s="8" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" ht="345" x14ac:dyDescent="0.25">
       <c r="A96" s="6" t="s">
         <v>410</v>
       </c>
@@ -8811,19 +8846,19 @@
         <v>381</v>
       </c>
       <c r="D96" s="8" t="s">
-        <v>1132</v>
+        <v>1195</v>
       </c>
       <c r="E96" s="8" t="s">
-        <v>390</v>
+        <v>407</v>
       </c>
       <c r="F96" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>392</v>
+        <v>408</v>
       </c>
       <c r="I96" s="2" t="s">
-        <v>393</v>
+        <v>409</v>
       </c>
       <c r="J96" s="6" t="s">
         <v>972</v>
@@ -8832,30 +8867,30 @@
         <v>911</v>
       </c>
     </row>
-    <row r="97" spans="1:12" ht="225" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A97" s="6" t="s">
         <v>415</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>277</v>
-      </c>
-      <c r="C97" s="8" t="s">
-        <v>381</v>
+        <v>411</v>
+      </c>
+      <c r="C97" s="6" t="s">
+        <v>414</v>
       </c>
       <c r="D97" s="8" t="s">
-        <v>1133</v>
+        <v>1126</v>
       </c>
       <c r="E97" s="8" t="s">
-        <v>394</v>
+        <v>412</v>
       </c>
       <c r="F97" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>395</v>
-      </c>
-      <c r="I97" s="2" t="s">
-        <v>396</v>
+        <v>417</v>
+      </c>
+      <c r="I97" s="8" t="s">
+        <v>413</v>
       </c>
       <c r="J97" s="6" t="s">
         <v>972</v>
@@ -8864,30 +8899,30 @@
         <v>911</v>
       </c>
     </row>
-    <row r="98" spans="1:12" ht="270" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A98" s="6" t="s">
         <v>420</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>277</v>
-      </c>
-      <c r="C98" s="8" t="s">
-        <v>381</v>
+        <v>411</v>
+      </c>
+      <c r="C98" s="6" t="s">
+        <v>414</v>
       </c>
       <c r="D98" s="8" t="s">
-        <v>1134</v>
+        <v>1127</v>
       </c>
       <c r="E98" s="8" t="s">
-        <v>398</v>
+        <v>416</v>
       </c>
       <c r="F98" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>400</v>
+        <v>418</v>
       </c>
       <c r="I98" s="2" t="s">
-        <v>401</v>
+        <v>419</v>
       </c>
       <c r="J98" s="6" t="s">
         <v>972</v>
@@ -8896,59 +8931,62 @@
         <v>911</v>
       </c>
     </row>
-    <row r="99" spans="1:12" ht="300" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A99" s="6" t="s">
         <v>421</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>277</v>
+        <v>411</v>
       </c>
       <c r="C99" s="8" t="s">
-        <v>381</v>
+        <v>425</v>
+      </c>
+      <c r="D99" s="8" t="s">
+        <v>1128</v>
       </c>
       <c r="E99" s="8" t="s">
-        <v>403</v>
+        <v>424</v>
       </c>
       <c r="F99" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>404</v>
+        <v>418</v>
       </c>
       <c r="I99" s="2" t="s">
-        <v>405</v>
+        <v>426</v>
+      </c>
+      <c r="J99" s="6" t="s">
+        <v>972</v>
       </c>
       <c r="K99" s="6" t="s">
         <v>911</v>
       </c>
-      <c r="L99" s="8" t="s">
-        <v>976</v>
-      </c>
-    </row>
-    <row r="100" spans="1:12" ht="345" x14ac:dyDescent="0.25">
+    </row>
+    <row r="100" spans="1:12" ht="105" x14ac:dyDescent="0.25">
       <c r="A100" s="6" t="s">
         <v>430</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>277</v>
+        <v>411</v>
       </c>
       <c r="C100" s="8" t="s">
-        <v>381</v>
+        <v>422</v>
       </c>
       <c r="D100" s="8" t="s">
-        <v>1135</v>
+        <v>1129</v>
       </c>
       <c r="E100" s="8" t="s">
-        <v>407</v>
+        <v>427</v>
       </c>
       <c r="F100" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>408</v>
+        <v>423</v>
       </c>
       <c r="I100" s="2" t="s">
-        <v>409</v>
+        <v>428</v>
       </c>
       <c r="J100" s="6" t="s">
         <v>972</v>
@@ -8957,30 +8995,30 @@
         <v>911</v>
       </c>
     </row>
-    <row r="101" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:12" ht="135" x14ac:dyDescent="0.25">
       <c r="A101" s="6" t="s">
         <v>435</v>
       </c>
       <c r="B101" s="6" t="s">
         <v>411</v>
       </c>
-      <c r="C101" s="6" t="s">
-        <v>414</v>
+      <c r="C101" s="8" t="s">
+        <v>422</v>
       </c>
       <c r="D101" s="8" t="s">
-        <v>1136</v>
+        <v>1130</v>
       </c>
       <c r="E101" s="8" t="s">
-        <v>412</v>
+        <v>429</v>
       </c>
       <c r="F101" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="I101" s="8" t="s">
-        <v>413</v>
+        <v>431</v>
+      </c>
+      <c r="I101" s="2" t="s">
+        <v>432</v>
       </c>
       <c r="J101" s="6" t="s">
         <v>972</v>
@@ -8989,30 +9027,30 @@
         <v>911</v>
       </c>
     </row>
-    <row r="102" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:12" ht="195" x14ac:dyDescent="0.25">
       <c r="A102" s="6" t="s">
         <v>437</v>
       </c>
       <c r="B102" s="6" t="s">
         <v>411</v>
       </c>
-      <c r="C102" s="6" t="s">
-        <v>414</v>
+      <c r="C102" s="8" t="s">
+        <v>422</v>
       </c>
       <c r="D102" s="8" t="s">
-        <v>1137</v>
+        <v>1131</v>
       </c>
       <c r="E102" s="8" t="s">
-        <v>416</v>
+        <v>436</v>
       </c>
       <c r="F102" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>418</v>
+        <v>433</v>
       </c>
       <c r="I102" s="2" t="s">
-        <v>419</v>
+        <v>434</v>
       </c>
       <c r="J102" s="6" t="s">
         <v>972</v>
@@ -9021,7 +9059,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="103" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:12" ht="210" x14ac:dyDescent="0.25">
       <c r="A103" s="6" t="s">
         <v>441</v>
       </c>
@@ -9029,31 +9067,25 @@
         <v>411</v>
       </c>
       <c r="C103" s="8" t="s">
-        <v>425</v>
-      </c>
-      <c r="D103" s="8" t="s">
-        <v>1138</v>
+        <v>422</v>
       </c>
       <c r="E103" s="8" t="s">
-        <v>424</v>
+        <v>438</v>
       </c>
       <c r="F103" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>418</v>
+        <v>439</v>
       </c>
       <c r="I103" s="2" t="s">
-        <v>426</v>
-      </c>
-      <c r="J103" s="6" t="s">
-        <v>972</v>
-      </c>
-      <c r="K103" s="6" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="104" spans="1:12" ht="105" x14ac:dyDescent="0.25">
+        <v>440</v>
+      </c>
+      <c r="L103" s="20" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" ht="195" x14ac:dyDescent="0.25">
       <c r="A104" s="6" t="s">
         <v>447</v>
       </c>
@@ -9061,22 +9093,22 @@
         <v>411</v>
       </c>
       <c r="C104" s="8" t="s">
-        <v>422</v>
+        <v>442</v>
       </c>
       <c r="D104" s="8" t="s">
-        <v>1139</v>
-      </c>
-      <c r="E104" s="8" t="s">
-        <v>427</v>
+        <v>1103</v>
+      </c>
+      <c r="E104" s="6" t="s">
+        <v>443</v>
       </c>
       <c r="F104" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>423</v>
+        <v>444</v>
       </c>
       <c r="I104" s="2" t="s">
-        <v>428</v>
+        <v>445</v>
       </c>
       <c r="J104" s="6" t="s">
         <v>972</v>
@@ -9085,7 +9117,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="105" spans="1:12" ht="135" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:12" ht="210" x14ac:dyDescent="0.25">
       <c r="A105" s="6" t="s">
         <v>450</v>
       </c>
@@ -9093,22 +9125,22 @@
         <v>411</v>
       </c>
       <c r="C105" s="8" t="s">
-        <v>422</v>
+        <v>442</v>
       </c>
       <c r="D105" s="8" t="s">
-        <v>1140</v>
+        <v>1132</v>
       </c>
       <c r="E105" s="8" t="s">
-        <v>429</v>
+        <v>446</v>
       </c>
       <c r="F105" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>431</v>
+        <v>448</v>
       </c>
       <c r="I105" s="2" t="s">
-        <v>432</v>
+        <v>449</v>
       </c>
       <c r="J105" s="6" t="s">
         <v>972</v>
@@ -9117,7 +9149,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="106" spans="1:12" ht="195" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:12" ht="210" x14ac:dyDescent="0.25">
       <c r="A106" s="6" t="s">
         <v>453</v>
       </c>
@@ -9125,22 +9157,22 @@
         <v>411</v>
       </c>
       <c r="C106" s="8" t="s">
-        <v>422</v>
+        <v>442</v>
       </c>
       <c r="D106" s="8" t="s">
-        <v>1141</v>
+        <v>1104</v>
       </c>
       <c r="E106" s="8" t="s">
-        <v>436</v>
+        <v>451</v>
       </c>
       <c r="F106" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>433</v>
+        <v>452</v>
       </c>
       <c r="I106" s="2" t="s">
-        <v>434</v>
+        <v>454</v>
       </c>
       <c r="J106" s="6" t="s">
         <v>972</v>
@@ -9157,25 +9189,28 @@
         <v>411</v>
       </c>
       <c r="C107" s="8" t="s">
-        <v>422</v>
+        <v>442</v>
+      </c>
+      <c r="D107" s="8" t="s">
+        <v>1175</v>
       </c>
       <c r="E107" s="8" t="s">
-        <v>438</v>
-      </c>
-      <c r="F107" s="6" t="s">
-        <v>38</v>
+        <v>455</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>439</v>
+        <v>456</v>
       </c>
       <c r="I107" s="2" t="s">
-        <v>440</v>
+        <v>457</v>
+      </c>
+      <c r="K107" s="6" t="s">
+        <v>911</v>
       </c>
       <c r="L107" s="20" t="s">
-        <v>944</v>
-      </c>
-    </row>
-    <row r="108" spans="1:12" ht="195" x14ac:dyDescent="0.25">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" ht="150" x14ac:dyDescent="0.25">
       <c r="A108" s="6" t="s">
         <v>463</v>
       </c>
@@ -9183,22 +9218,19 @@
         <v>411</v>
       </c>
       <c r="C108" s="8" t="s">
-        <v>442</v>
+        <v>458</v>
       </c>
       <c r="D108" s="8" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="E108" s="6" t="s">
-        <v>443</v>
-      </c>
-      <c r="F108" s="6" t="s">
-        <v>38</v>
+        <v>460</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>444</v>
+        <v>461</v>
       </c>
       <c r="I108" s="2" t="s">
-        <v>445</v>
+        <v>462</v>
       </c>
       <c r="J108" s="6" t="s">
         <v>972</v>
@@ -9207,7 +9239,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="109" spans="1:12" ht="210" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:12" ht="135" x14ac:dyDescent="0.25">
       <c r="A109" s="6" t="s">
         <v>467</v>
       </c>
@@ -9215,22 +9247,19 @@
         <v>411</v>
       </c>
       <c r="C109" s="8" t="s">
-        <v>442</v>
+        <v>458</v>
       </c>
       <c r="D109" s="8" t="s">
-        <v>1142</v>
+        <v>1106</v>
       </c>
       <c r="E109" s="8" t="s">
-        <v>446</v>
-      </c>
-      <c r="F109" s="6" t="s">
-        <v>38</v>
+        <v>620</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>448</v>
+        <v>618</v>
       </c>
       <c r="I109" s="2" t="s">
-        <v>449</v>
+        <v>619</v>
       </c>
       <c r="J109" s="6" t="s">
         <v>972</v>
@@ -9239,7 +9268,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="110" spans="1:12" ht="210" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:12" ht="135" x14ac:dyDescent="0.25">
       <c r="A110" s="6" t="s">
         <v>473</v>
       </c>
@@ -9247,22 +9276,19 @@
         <v>411</v>
       </c>
       <c r="C110" s="8" t="s">
-        <v>442</v>
+        <v>458</v>
       </c>
       <c r="D110" s="8" t="s">
-        <v>1105</v>
+        <v>1107</v>
       </c>
       <c r="E110" s="8" t="s">
-        <v>451</v>
-      </c>
-      <c r="F110" s="6" t="s">
-        <v>38</v>
+        <v>621</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>452</v>
+        <v>622</v>
       </c>
       <c r="I110" s="2" t="s">
-        <v>454</v>
+        <v>623</v>
       </c>
       <c r="J110" s="6" t="s">
         <v>972</v>
@@ -9271,7 +9297,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="111" spans="1:12" ht="210" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:12" ht="150" x14ac:dyDescent="0.25">
       <c r="A111" s="6" t="s">
         <v>479</v>
       </c>
@@ -9279,25 +9305,25 @@
         <v>411</v>
       </c>
       <c r="C111" s="8" t="s">
-        <v>442</v>
+        <v>464</v>
       </c>
       <c r="D111" s="8" t="s">
-        <v>1185</v>
+        <v>1108</v>
       </c>
       <c r="E111" s="8" t="s">
-        <v>455</v>
+        <v>465</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
       <c r="I111" s="2" t="s">
-        <v>457</v>
+        <v>945</v>
+      </c>
+      <c r="J111" s="6" t="s">
+        <v>972</v>
       </c>
       <c r="K111" s="6" t="s">
         <v>911</v>
-      </c>
-      <c r="L111" s="20" t="s">
-        <v>975</v>
       </c>
     </row>
     <row r="112" spans="1:12" ht="150" x14ac:dyDescent="0.25">
@@ -9308,19 +9334,19 @@
         <v>411</v>
       </c>
       <c r="C112" s="8" t="s">
-        <v>458</v>
+        <v>468</v>
       </c>
       <c r="D112" s="8" t="s">
-        <v>1106</v>
-      </c>
-      <c r="E112" s="6" t="s">
-        <v>460</v>
+        <v>1109</v>
+      </c>
+      <c r="E112" s="8" t="s">
+        <v>471</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>461</v>
+        <v>469</v>
       </c>
       <c r="I112" s="2" t="s">
-        <v>462</v>
+        <v>470</v>
       </c>
       <c r="J112" s="6" t="s">
         <v>972</v>
@@ -9329,7 +9355,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="113" spans="1:12" ht="135" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:12" ht="210" x14ac:dyDescent="0.25">
       <c r="A113" s="6" t="s">
         <v>484</v>
       </c>
@@ -9337,28 +9363,28 @@
         <v>411</v>
       </c>
       <c r="C113" s="8" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
       <c r="D113" s="8" t="s">
-        <v>1107</v>
+        <v>1133</v>
       </c>
       <c r="E113" s="8" t="s">
-        <v>620</v>
+        <v>474</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>618</v>
+        <v>475</v>
       </c>
       <c r="I113" s="2" t="s">
-        <v>619</v>
-      </c>
-      <c r="J113" s="6" t="s">
-        <v>972</v>
+        <v>476</v>
       </c>
       <c r="K113" s="6" t="s">
         <v>911</v>
       </c>
-    </row>
-    <row r="114" spans="1:12" ht="135" x14ac:dyDescent="0.25">
+      <c r="L113" s="8" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A114" s="6" t="s">
         <v>485</v>
       </c>
@@ -9366,19 +9392,22 @@
         <v>411</v>
       </c>
       <c r="C114" s="8" t="s">
-        <v>458</v>
+        <v>481</v>
       </c>
       <c r="D114" s="8" t="s">
-        <v>1108</v>
+        <v>1134</v>
       </c>
       <c r="E114" s="8" t="s">
-        <v>621</v>
+        <v>424</v>
+      </c>
+      <c r="F114" s="6" t="s">
+        <v>38</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>622</v>
+        <v>418</v>
       </c>
       <c r="I114" s="2" t="s">
-        <v>623</v>
+        <v>947</v>
       </c>
       <c r="J114" s="6" t="s">
         <v>972</v>
@@ -9394,20 +9423,23 @@
       <c r="B115" s="6" t="s">
         <v>411</v>
       </c>
-      <c r="C115" s="8" t="s">
-        <v>464</v>
+      <c r="C115" s="9" t="s">
+        <v>477</v>
       </c>
       <c r="D115" s="8" t="s">
-        <v>1109</v>
+        <v>1110</v>
       </c>
       <c r="E115" s="8" t="s">
-        <v>465</v>
+        <v>478</v>
+      </c>
+      <c r="F115" s="6" t="s">
+        <v>38</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>466</v>
+        <v>482</v>
       </c>
       <c r="I115" s="2" t="s">
-        <v>945</v>
+        <v>483</v>
       </c>
       <c r="J115" s="6" t="s">
         <v>972</v>
@@ -9416,7 +9448,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="116" spans="1:12" ht="150" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:12" ht="165" x14ac:dyDescent="0.25">
       <c r="A116" s="6" t="s">
         <v>499</v>
       </c>
@@ -9424,19 +9456,22 @@
         <v>411</v>
       </c>
       <c r="C116" s="8" t="s">
-        <v>468</v>
+        <v>486</v>
       </c>
       <c r="D116" s="8" t="s">
-        <v>1110</v>
+        <v>1111</v>
       </c>
       <c r="E116" s="8" t="s">
-        <v>471</v>
+        <v>487</v>
+      </c>
+      <c r="F116" s="6" t="s">
+        <v>38</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>469</v>
+        <v>488</v>
       </c>
       <c r="I116" s="2" t="s">
-        <v>470</v>
+        <v>489</v>
       </c>
       <c r="J116" s="6" t="s">
         <v>972</v>
@@ -9445,7 +9480,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="117" spans="1:12" ht="210" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:12" ht="135" x14ac:dyDescent="0.25">
       <c r="A117" s="6" t="s">
         <v>504</v>
       </c>
@@ -9453,28 +9488,31 @@
         <v>411</v>
       </c>
       <c r="C117" s="8" t="s">
-        <v>472</v>
+        <v>490</v>
       </c>
       <c r="D117" s="8" t="s">
-        <v>1143</v>
+        <v>1111</v>
       </c>
       <c r="E117" s="8" t="s">
-        <v>474</v>
+        <v>491</v>
+      </c>
+      <c r="F117" s="6" t="s">
+        <v>38</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>475</v>
+        <v>492</v>
       </c>
       <c r="I117" s="2" t="s">
-        <v>476</v>
+        <v>493</v>
+      </c>
+      <c r="J117" s="6" t="s">
+        <v>972</v>
       </c>
       <c r="K117" s="6" t="s">
         <v>911</v>
       </c>
-      <c r="L117" s="8" t="s">
-        <v>946</v>
-      </c>
-    </row>
-    <row r="118" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+    </row>
+    <row r="118" spans="1:12" ht="150" x14ac:dyDescent="0.25">
       <c r="A118" s="6" t="s">
         <v>509</v>
       </c>
@@ -9482,22 +9520,22 @@
         <v>411</v>
       </c>
       <c r="C118" s="8" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
       <c r="D118" s="8" t="s">
-        <v>1144</v>
+        <v>1112</v>
       </c>
       <c r="E118" s="8" t="s">
-        <v>424</v>
+        <v>495</v>
       </c>
       <c r="F118" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>418</v>
+        <v>496</v>
       </c>
       <c r="I118" s="2" t="s">
-        <v>947</v>
+        <v>497</v>
       </c>
       <c r="J118" s="6" t="s">
         <v>972</v>
@@ -9506,39 +9544,42 @@
         <v>911</v>
       </c>
     </row>
-    <row r="119" spans="1:12" ht="150" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:12" ht="315" x14ac:dyDescent="0.25">
       <c r="A119" s="6" t="s">
         <v>512</v>
       </c>
       <c r="B119" s="6" t="s">
         <v>411</v>
       </c>
-      <c r="C119" s="9" t="s">
-        <v>477</v>
+      <c r="C119" s="8" t="s">
+        <v>498</v>
       </c>
       <c r="D119" s="8" t="s">
-        <v>1111</v>
+        <v>999</v>
       </c>
       <c r="E119" s="8" t="s">
-        <v>478</v>
+        <v>500</v>
       </c>
       <c r="F119" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>482</v>
+        <v>501</v>
+      </c>
+      <c r="H119" s="2" t="s">
+        <v>503</v>
       </c>
       <c r="I119" s="2" t="s">
-        <v>483</v>
-      </c>
-      <c r="J119" s="6" t="s">
-        <v>972</v>
-      </c>
-      <c r="K119" s="6" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="120" spans="1:12" ht="165" x14ac:dyDescent="0.25">
+        <v>502</v>
+      </c>
+      <c r="K119" s="8" t="s">
+        <v>911</v>
+      </c>
+      <c r="L119" s="20" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A120" s="6" t="s">
         <v>516</v>
       </c>
@@ -9546,22 +9587,22 @@
         <v>411</v>
       </c>
       <c r="C120" s="8" t="s">
-        <v>486</v>
+        <v>498</v>
       </c>
       <c r="D120" s="8" t="s">
-        <v>1112</v>
+        <v>1135</v>
       </c>
       <c r="E120" s="8" t="s">
-        <v>487</v>
+        <v>505</v>
       </c>
       <c r="F120" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>488</v>
+        <v>506</v>
       </c>
       <c r="I120" s="2" t="s">
-        <v>489</v>
+        <v>507</v>
       </c>
       <c r="J120" s="6" t="s">
         <v>972</v>
@@ -9570,7 +9611,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="121" spans="1:12" ht="135" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:12" ht="270" x14ac:dyDescent="0.25">
       <c r="A121" s="6" t="s">
         <v>524</v>
       </c>
@@ -9578,31 +9619,35 @@
         <v>411</v>
       </c>
       <c r="C121" s="8" t="s">
-        <v>490</v>
+        <v>498</v>
       </c>
       <c r="D121" s="8" t="s">
-        <v>1112</v>
+        <v>1176</v>
       </c>
       <c r="E121" s="8" t="s">
-        <v>491</v>
+        <v>508</v>
       </c>
       <c r="F121" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>492</v>
-      </c>
+        <v>510</v>
+      </c>
+      <c r="H121" s="2"/>
       <c r="I121" s="2" t="s">
-        <v>493</v>
-      </c>
-      <c r="J121" s="6" t="s">
-        <v>972</v>
-      </c>
-      <c r="K121" s="6" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="122" spans="1:12" ht="150" x14ac:dyDescent="0.25">
+        <v>511</v>
+      </c>
+      <c r="J121" s="8" t="s">
+        <v>972</v>
+      </c>
+      <c r="K121" s="8" t="s">
+        <v>911</v>
+      </c>
+      <c r="L121" s="8" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12" ht="345" x14ac:dyDescent="0.25">
       <c r="A122" s="6" t="s">
         <v>536</v>
       </c>
@@ -9610,31 +9655,32 @@
         <v>411</v>
       </c>
       <c r="C122" s="8" t="s">
-        <v>490</v>
+        <v>498</v>
       </c>
       <c r="D122" s="8" t="s">
-        <v>1113</v>
+        <v>1136</v>
       </c>
       <c r="E122" s="8" t="s">
-        <v>495</v>
+        <v>513</v>
       </c>
       <c r="F122" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>496</v>
-      </c>
+        <v>514</v>
+      </c>
+      <c r="H122" s="2"/>
       <c r="I122" s="2" t="s">
-        <v>497</v>
-      </c>
-      <c r="J122" s="6" t="s">
-        <v>972</v>
-      </c>
-      <c r="K122" s="6" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="123" spans="1:12" ht="315" x14ac:dyDescent="0.25">
+        <v>515</v>
+      </c>
+      <c r="J122" s="8" t="s">
+        <v>972</v>
+      </c>
+      <c r="K122" s="8" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12" ht="345" x14ac:dyDescent="0.25">
       <c r="A123" s="6" t="s">
         <v>537</v>
       </c>
@@ -9645,31 +9691,29 @@
         <v>498</v>
       </c>
       <c r="D123" s="8" t="s">
-        <v>999</v>
+        <v>1185</v>
       </c>
       <c r="E123" s="8" t="s">
-        <v>500</v>
+        <v>521</v>
       </c>
       <c r="F123" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>501</v>
-      </c>
-      <c r="H123" s="2" t="s">
-        <v>503</v>
-      </c>
+        <v>522</v>
+      </c>
+      <c r="H123" s="2"/>
       <c r="I123" s="2" t="s">
-        <v>502</v>
+        <v>523</v>
       </c>
       <c r="K123" s="8" t="s">
         <v>911</v>
       </c>
-      <c r="L123" s="20" t="s">
-        <v>948</v>
-      </c>
-    </row>
-    <row r="124" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+      <c r="L123" s="8" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12" ht="360" x14ac:dyDescent="0.25">
       <c r="A124" s="6" t="s">
         <v>538</v>
       </c>
@@ -9677,31 +9721,34 @@
         <v>411</v>
       </c>
       <c r="C124" s="8" t="s">
-        <v>498</v>
+        <v>517</v>
       </c>
       <c r="D124" s="8" t="s">
-        <v>1145</v>
+        <v>999</v>
       </c>
       <c r="E124" s="8" t="s">
-        <v>505</v>
+        <v>518</v>
       </c>
       <c r="F124" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>506</v>
+        <v>531</v>
+      </c>
+      <c r="H124" s="2" t="s">
+        <v>542</v>
       </c>
       <c r="I124" s="2" t="s">
-        <v>507</v>
-      </c>
-      <c r="J124" s="6" t="s">
-        <v>972</v>
-      </c>
-      <c r="K124" s="6" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="125" spans="1:12" ht="270" x14ac:dyDescent="0.25">
+        <v>532</v>
+      </c>
+      <c r="K124" s="22" t="s">
+        <v>911</v>
+      </c>
+      <c r="L124" s="20" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A125" s="6" t="s">
         <v>539</v>
       </c>
@@ -9709,35 +9756,31 @@
         <v>411</v>
       </c>
       <c r="C125" s="8" t="s">
-        <v>498</v>
+        <v>517</v>
       </c>
       <c r="D125" s="8" t="s">
-        <v>1186</v>
+        <v>1135</v>
       </c>
       <c r="E125" s="8" t="s">
-        <v>508</v>
+        <v>525</v>
       </c>
       <c r="F125" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>510</v>
-      </c>
-      <c r="H125" s="2"/>
+        <v>526</v>
+      </c>
       <c r="I125" s="2" t="s">
-        <v>511</v>
-      </c>
-      <c r="J125" s="8" t="s">
+        <v>527</v>
+      </c>
+      <c r="J125" s="6" t="s">
         <v>972</v>
       </c>
       <c r="K125" s="8" t="s">
         <v>911</v>
       </c>
-      <c r="L125" s="8" t="s">
-        <v>974</v>
-      </c>
-    </row>
-    <row r="126" spans="1:12" ht="345" x14ac:dyDescent="0.25">
+    </row>
+    <row r="126" spans="1:12" ht="255" x14ac:dyDescent="0.25">
       <c r="A126" s="6" t="s">
         <v>541</v>
       </c>
@@ -9745,23 +9788,23 @@
         <v>411</v>
       </c>
       <c r="C126" s="8" t="s">
-        <v>498</v>
+        <v>517</v>
       </c>
       <c r="D126" s="8" t="s">
-        <v>1146</v>
+        <v>1137</v>
       </c>
       <c r="E126" s="8" t="s">
-        <v>513</v>
+        <v>528</v>
       </c>
       <c r="F126" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>514</v>
+        <v>529</v>
       </c>
       <c r="H126" s="2"/>
       <c r="I126" s="2" t="s">
-        <v>515</v>
+        <v>530</v>
       </c>
       <c r="J126" s="8" t="s">
         <v>972</v>
@@ -9770,7 +9813,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="127" spans="1:12" ht="345" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:12" ht="375" x14ac:dyDescent="0.25">
       <c r="A127" s="6" t="s">
         <v>547</v>
       </c>
@@ -9778,29 +9821,29 @@
         <v>411</v>
       </c>
       <c r="C127" s="8" t="s">
-        <v>498</v>
+        <v>517</v>
       </c>
       <c r="D127" s="8" t="s">
-        <v>1195</v>
+        <v>1138</v>
       </c>
       <c r="E127" s="8" t="s">
-        <v>521</v>
+        <v>533</v>
       </c>
       <c r="F127" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="H127" s="2"/>
       <c r="I127" s="2" t="s">
-        <v>523</v>
+        <v>520</v>
+      </c>
+      <c r="J127" s="8" t="s">
+        <v>972</v>
       </c>
       <c r="K127" s="8" t="s">
         <v>911</v>
-      </c>
-      <c r="L127" s="8" t="s">
-        <v>949</v>
       </c>
     </row>
     <row r="128" spans="1:12" ht="360" x14ac:dyDescent="0.25">
@@ -9814,31 +9857,29 @@
         <v>517</v>
       </c>
       <c r="D128" s="8" t="s">
-        <v>999</v>
+        <v>1139</v>
       </c>
       <c r="E128" s="8" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="F128" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>531</v>
-      </c>
-      <c r="H128" s="2" t="s">
-        <v>542</v>
-      </c>
+        <v>534</v>
+      </c>
+      <c r="H128" s="2"/>
       <c r="I128" s="2" t="s">
-        <v>532</v>
-      </c>
-      <c r="K128" s="22" t="s">
-        <v>911</v>
-      </c>
-      <c r="L128" s="20" t="s">
-        <v>950</v>
-      </c>
-    </row>
-    <row r="129" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+        <v>535</v>
+      </c>
+      <c r="J128" s="8" t="s">
+        <v>972</v>
+      </c>
+      <c r="K128" s="8" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12" ht="375" x14ac:dyDescent="0.25">
       <c r="A129" s="6" t="s">
         <v>556</v>
       </c>
@@ -9846,31 +9887,31 @@
         <v>411</v>
       </c>
       <c r="C129" s="8" t="s">
-        <v>517</v>
+        <v>540</v>
       </c>
       <c r="D129" s="8" t="s">
-        <v>1145</v>
+        <v>999</v>
       </c>
       <c r="E129" s="8" t="s">
-        <v>525</v>
+        <v>543</v>
       </c>
       <c r="F129" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>526</v>
+        <v>545</v>
+      </c>
+      <c r="H129" s="2" t="s">
+        <v>544</v>
       </c>
       <c r="I129" s="2" t="s">
-        <v>527</v>
-      </c>
-      <c r="J129" s="6" t="s">
-        <v>972</v>
-      </c>
-      <c r="K129" s="8" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="130" spans="1:11" ht="255" x14ac:dyDescent="0.25">
+        <v>546</v>
+      </c>
+      <c r="K129" s="20" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="130" spans="1:12" ht="330" x14ac:dyDescent="0.25">
       <c r="A130" s="6" t="s">
         <v>560</v>
       </c>
@@ -9878,23 +9919,23 @@
         <v>411</v>
       </c>
       <c r="C130" s="8" t="s">
-        <v>517</v>
+        <v>540</v>
       </c>
       <c r="D130" s="8" t="s">
-        <v>1147</v>
+        <v>1140</v>
       </c>
       <c r="E130" s="8" t="s">
-        <v>528</v>
+        <v>548</v>
       </c>
       <c r="F130" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>529</v>
+        <v>549</v>
       </c>
       <c r="H130" s="2"/>
       <c r="I130" s="2" t="s">
-        <v>530</v>
+        <v>550</v>
       </c>
       <c r="J130" s="8" t="s">
         <v>972</v>
@@ -9903,7 +9944,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="131" spans="1:11" ht="375" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:12" ht="165" x14ac:dyDescent="0.25">
       <c r="A131" s="6" t="s">
         <v>566</v>
       </c>
@@ -9911,32 +9952,31 @@
         <v>411</v>
       </c>
       <c r="C131" s="8" t="s">
-        <v>517</v>
+        <v>552</v>
       </c>
       <c r="D131" s="8" t="s">
-        <v>1148</v>
+        <v>1111</v>
       </c>
       <c r="E131" s="8" t="s">
-        <v>533</v>
+        <v>553</v>
       </c>
       <c r="F131" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>519</v>
-      </c>
-      <c r="H131" s="2"/>
+        <v>554</v>
+      </c>
       <c r="I131" s="2" t="s">
-        <v>520</v>
-      </c>
-      <c r="J131" s="8" t="s">
+        <v>555</v>
+      </c>
+      <c r="J131" s="6" t="s">
         <v>972</v>
       </c>
       <c r="K131" s="8" t="s">
         <v>911</v>
       </c>
     </row>
-    <row r="132" spans="1:11" ht="360" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:12" ht="165" x14ac:dyDescent="0.25">
       <c r="A132" s="6" t="s">
         <v>569</v>
       </c>
@@ -9944,32 +9984,31 @@
         <v>411</v>
       </c>
       <c r="C132" s="8" t="s">
-        <v>517</v>
+        <v>552</v>
       </c>
       <c r="D132" s="8" t="s">
-        <v>1149</v>
+        <v>1141</v>
       </c>
       <c r="E132" s="8" t="s">
-        <v>521</v>
+        <v>557</v>
       </c>
       <c r="F132" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>534</v>
-      </c>
-      <c r="H132" s="2"/>
+        <v>558</v>
+      </c>
       <c r="I132" s="2" t="s">
-        <v>535</v>
-      </c>
-      <c r="J132" s="8" t="s">
+        <v>559</v>
+      </c>
+      <c r="J132" s="6" t="s">
         <v>972</v>
       </c>
       <c r="K132" s="8" t="s">
         <v>911</v>
       </c>
     </row>
-    <row r="133" spans="1:11" ht="375" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:12" ht="150" x14ac:dyDescent="0.25">
       <c r="A133" s="6" t="s">
         <v>571</v>
       </c>
@@ -9977,31 +10016,31 @@
         <v>411</v>
       </c>
       <c r="C133" s="8" t="s">
-        <v>540</v>
+        <v>561</v>
       </c>
       <c r="D133" s="8" t="s">
-        <v>999</v>
+        <v>1113</v>
       </c>
       <c r="E133" s="8" t="s">
-        <v>543</v>
+        <v>562</v>
       </c>
       <c r="F133" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>545</v>
-      </c>
-      <c r="H133" s="2" t="s">
-        <v>544</v>
+        <v>563</v>
       </c>
       <c r="I133" s="2" t="s">
-        <v>546</v>
-      </c>
-      <c r="K133" s="20" t="s">
-        <v>951</v>
-      </c>
-    </row>
-    <row r="134" spans="1:11" ht="330" x14ac:dyDescent="0.25">
+        <v>564</v>
+      </c>
+      <c r="J133" s="6" t="s">
+        <v>972</v>
+      </c>
+      <c r="K133" s="8" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="134" spans="1:12" ht="195" x14ac:dyDescent="0.25">
       <c r="A134" s="6" t="s">
         <v>577</v>
       </c>
@@ -10009,32 +10048,31 @@
         <v>411</v>
       </c>
       <c r="C134" s="8" t="s">
-        <v>540</v>
+        <v>561</v>
       </c>
       <c r="D134" s="8" t="s">
-        <v>1150</v>
+        <v>1142</v>
       </c>
       <c r="E134" s="8" t="s">
-        <v>548</v>
+        <v>565</v>
       </c>
       <c r="F134" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>549</v>
-      </c>
-      <c r="H134" s="2"/>
+        <v>567</v>
+      </c>
       <c r="I134" s="2" t="s">
-        <v>550</v>
-      </c>
-      <c r="J134" s="8" t="s">
+        <v>952</v>
+      </c>
+      <c r="J134" s="6" t="s">
         <v>972</v>
       </c>
       <c r="K134" s="8" t="s">
         <v>911</v>
       </c>
     </row>
-    <row r="135" spans="1:11" ht="165" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:12" ht="195" x14ac:dyDescent="0.25">
       <c r="A135" s="6" t="s">
         <v>580</v>
       </c>
@@ -10042,22 +10080,22 @@
         <v>411</v>
       </c>
       <c r="C135" s="8" t="s">
-        <v>552</v>
+        <v>561</v>
       </c>
       <c r="D135" s="8" t="s">
-        <v>1112</v>
+        <v>1143</v>
       </c>
       <c r="E135" s="8" t="s">
-        <v>553</v>
+        <v>568</v>
       </c>
       <c r="F135" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>554</v>
+        <v>570</v>
       </c>
       <c r="I135" s="2" t="s">
-        <v>555</v>
+        <v>575</v>
       </c>
       <c r="J135" s="6" t="s">
         <v>972</v>
@@ -10066,7 +10104,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="136" spans="1:11" ht="165" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:12" ht="225" x14ac:dyDescent="0.25">
       <c r="A136" s="6" t="s">
         <v>585</v>
       </c>
@@ -10074,22 +10112,22 @@
         <v>411</v>
       </c>
       <c r="C136" s="8" t="s">
-        <v>552</v>
+        <v>561</v>
       </c>
       <c r="D136" s="8" t="s">
-        <v>1151</v>
+        <v>1144</v>
       </c>
       <c r="E136" s="8" t="s">
-        <v>557</v>
+        <v>572</v>
       </c>
       <c r="F136" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>558</v>
+        <v>573</v>
       </c>
       <c r="I136" s="2" t="s">
-        <v>559</v>
+        <v>574</v>
       </c>
       <c r="J136" s="6" t="s">
         <v>972</v>
@@ -10098,7 +10136,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="137" spans="1:11" ht="150" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:12" ht="225" x14ac:dyDescent="0.25">
       <c r="A137" s="6" t="s">
         <v>589</v>
       </c>
@@ -10109,19 +10147,19 @@
         <v>561</v>
       </c>
       <c r="D137" s="8" t="s">
-        <v>1114</v>
+        <v>1145</v>
       </c>
       <c r="E137" s="8" t="s">
-        <v>562</v>
+        <v>576</v>
       </c>
       <c r="F137" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>563</v>
+        <v>578</v>
       </c>
       <c r="I137" s="2" t="s">
-        <v>564</v>
+        <v>579</v>
       </c>
       <c r="J137" s="6" t="s">
         <v>972</v>
@@ -10130,7 +10168,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="138" spans="1:11" ht="195" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:12" ht="120" x14ac:dyDescent="0.25">
       <c r="A138" s="6" t="s">
         <v>592</v>
       </c>
@@ -10138,22 +10176,22 @@
         <v>411</v>
       </c>
       <c r="C138" s="8" t="s">
-        <v>561</v>
+        <v>581</v>
       </c>
       <c r="D138" s="8" t="s">
-        <v>1152</v>
-      </c>
-      <c r="E138" s="8" t="s">
-        <v>565</v>
+        <v>1146</v>
+      </c>
+      <c r="E138" s="6" t="s">
+        <v>582</v>
       </c>
       <c r="F138" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>567</v>
+        <v>583</v>
       </c>
       <c r="I138" s="2" t="s">
-        <v>952</v>
+        <v>584</v>
       </c>
       <c r="J138" s="6" t="s">
         <v>972</v>
@@ -10162,7 +10200,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="139" spans="1:11" ht="195" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:12" ht="150" x14ac:dyDescent="0.25">
       <c r="A139" s="6" t="s">
         <v>599</v>
       </c>
@@ -10170,22 +10208,22 @@
         <v>411</v>
       </c>
       <c r="C139" s="8" t="s">
-        <v>561</v>
+        <v>581</v>
       </c>
       <c r="D139" s="8" t="s">
-        <v>1153</v>
+        <v>1147</v>
       </c>
       <c r="E139" s="8" t="s">
-        <v>568</v>
+        <v>625</v>
       </c>
       <c r="F139" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>570</v>
+        <v>626</v>
       </c>
       <c r="I139" s="2" t="s">
-        <v>575</v>
+        <v>627</v>
       </c>
       <c r="J139" s="6" t="s">
         <v>972</v>
@@ -10194,7 +10232,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="140" spans="1:11" ht="225" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:12" ht="150" x14ac:dyDescent="0.25">
       <c r="A140" s="6" t="s">
         <v>603</v>
       </c>
@@ -10202,22 +10240,22 @@
         <v>411</v>
       </c>
       <c r="C140" s="8" t="s">
-        <v>561</v>
+        <v>581</v>
       </c>
       <c r="D140" s="8" t="s">
-        <v>1154</v>
+        <v>1148</v>
       </c>
       <c r="E140" s="8" t="s">
-        <v>572</v>
+        <v>628</v>
       </c>
       <c r="F140" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>573</v>
+        <v>629</v>
       </c>
       <c r="I140" s="2" t="s">
-        <v>574</v>
+        <v>630</v>
       </c>
       <c r="J140" s="6" t="s">
         <v>972</v>
@@ -10226,7 +10264,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="141" spans="1:11" ht="225" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:12" ht="150" x14ac:dyDescent="0.25">
       <c r="A141" s="6" t="s">
         <v>605</v>
       </c>
@@ -10234,22 +10272,22 @@
         <v>411</v>
       </c>
       <c r="C141" s="8" t="s">
-        <v>561</v>
+        <v>581</v>
       </c>
       <c r="D141" s="8" t="s">
-        <v>1155</v>
+        <v>1149</v>
       </c>
       <c r="E141" s="8" t="s">
-        <v>576</v>
+        <v>586</v>
       </c>
       <c r="F141" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>578</v>
+        <v>587</v>
       </c>
       <c r="I141" s="2" t="s">
-        <v>579</v>
+        <v>588</v>
       </c>
       <c r="J141" s="6" t="s">
         <v>972</v>
@@ -10258,7 +10296,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="142" spans="1:11" ht="120" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:12" ht="195" x14ac:dyDescent="0.25">
       <c r="A142" s="6" t="s">
         <v>606</v>
       </c>
@@ -10266,22 +10304,22 @@
         <v>411</v>
       </c>
       <c r="C142" s="8" t="s">
-        <v>581</v>
+        <v>594</v>
       </c>
       <c r="D142" s="8" t="s">
-        <v>1156</v>
-      </c>
-      <c r="E142" s="6" t="s">
-        <v>582</v>
+        <v>1177</v>
+      </c>
+      <c r="E142" s="8" t="s">
+        <v>593</v>
       </c>
       <c r="F142" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>583</v>
+        <v>590</v>
       </c>
       <c r="I142" s="2" t="s">
-        <v>584</v>
+        <v>591</v>
       </c>
       <c r="J142" s="6" t="s">
         <v>972</v>
@@ -10289,8 +10327,11 @@
       <c r="K142" s="8" t="s">
         <v>911</v>
       </c>
-    </row>
-    <row r="143" spans="1:11" ht="150" x14ac:dyDescent="0.25">
+      <c r="L142" s="8" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="143" spans="1:12" ht="180" x14ac:dyDescent="0.25">
       <c r="A143" s="6" t="s">
         <v>607</v>
       </c>
@@ -10298,22 +10339,22 @@
         <v>411</v>
       </c>
       <c r="C143" s="8" t="s">
-        <v>581</v>
+        <v>595</v>
       </c>
       <c r="D143" s="8" t="s">
-        <v>1157</v>
+        <v>1150</v>
       </c>
       <c r="E143" s="8" t="s">
-        <v>625</v>
+        <v>596</v>
       </c>
       <c r="F143" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>626</v>
+        <v>597</v>
       </c>
       <c r="I143" s="2" t="s">
-        <v>627</v>
+        <v>598</v>
       </c>
       <c r="J143" s="6" t="s">
         <v>972</v>
@@ -10322,7 +10363,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="144" spans="1:11" ht="150" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:12" ht="165" x14ac:dyDescent="0.25">
       <c r="A144" s="6" t="s">
         <v>608</v>
       </c>
@@ -10330,22 +10371,22 @@
         <v>411</v>
       </c>
       <c r="C144" s="8" t="s">
-        <v>581</v>
+        <v>595</v>
       </c>
       <c r="D144" s="8" t="s">
-        <v>1158</v>
+        <v>1151</v>
       </c>
       <c r="E144" s="8" t="s">
-        <v>628</v>
+        <v>600</v>
       </c>
       <c r="F144" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>629</v>
+        <v>601</v>
       </c>
       <c r="I144" s="2" t="s">
-        <v>630</v>
+        <v>602</v>
       </c>
       <c r="J144" s="6" t="s">
         <v>972</v>
@@ -10354,7 +10395,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="145" spans="1:12" ht="150" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:12" ht="330" x14ac:dyDescent="0.25">
       <c r="A145" s="6" t="s">
         <v>624</v>
       </c>
@@ -10362,22 +10403,19 @@
         <v>411</v>
       </c>
       <c r="C145" s="8" t="s">
-        <v>581</v>
-      </c>
-      <c r="D145" s="8" t="s">
-        <v>1159</v>
+        <v>595</v>
       </c>
       <c r="E145" s="8" t="s">
-        <v>586</v>
+        <v>604</v>
       </c>
       <c r="F145" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>587</v>
+        <v>615</v>
       </c>
       <c r="I145" s="2" t="s">
-        <v>588</v>
+        <v>616</v>
       </c>
       <c r="J145" s="6" t="s">
         <v>972</v>
@@ -10385,8 +10423,11 @@
       <c r="K145" s="8" t="s">
         <v>911</v>
       </c>
-    </row>
-    <row r="146" spans="1:12" ht="195" x14ac:dyDescent="0.25">
+      <c r="L145" s="8" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="146" spans="1:12" ht="240" x14ac:dyDescent="0.25">
       <c r="A146" s="6" t="s">
         <v>631</v>
       </c>
@@ -10394,22 +10435,22 @@
         <v>411</v>
       </c>
       <c r="C146" s="8" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="D146" s="8" t="s">
-        <v>1187</v>
+        <v>1114</v>
       </c>
       <c r="E146" s="8" t="s">
-        <v>593</v>
+        <v>609</v>
       </c>
       <c r="F146" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>590</v>
+        <v>610</v>
       </c>
       <c r="I146" s="2" t="s">
-        <v>591</v>
+        <v>611</v>
       </c>
       <c r="J146" s="6" t="s">
         <v>972</v>
@@ -10417,11 +10458,8 @@
       <c r="K146" s="8" t="s">
         <v>911</v>
       </c>
-      <c r="L146" s="8" t="s">
-        <v>973</v>
-      </c>
-    </row>
-    <row r="147" spans="1:12" ht="180" x14ac:dyDescent="0.25">
+    </row>
+    <row r="147" spans="1:12" ht="165" x14ac:dyDescent="0.25">
       <c r="A147" s="6" t="s">
         <v>632</v>
       </c>
@@ -10432,19 +10470,19 @@
         <v>595</v>
       </c>
       <c r="D147" s="8" t="s">
-        <v>1160</v>
+        <v>1151</v>
       </c>
       <c r="E147" s="8" t="s">
-        <v>596</v>
+        <v>612</v>
       </c>
       <c r="F147" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>597</v>
+        <v>613</v>
       </c>
       <c r="I147" s="2" t="s">
-        <v>598</v>
+        <v>614</v>
       </c>
       <c r="J147" s="6" t="s">
         <v>972</v>
@@ -10453,30 +10491,27 @@
         <v>911</v>
       </c>
     </row>
-    <row r="148" spans="1:12" ht="165" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:12" ht="120" x14ac:dyDescent="0.25">
       <c r="A148" s="6" t="s">
         <v>636</v>
       </c>
       <c r="B148" s="6" t="s">
         <v>411</v>
       </c>
-      <c r="C148" s="8" t="s">
-        <v>595</v>
-      </c>
-      <c r="D148" s="8" t="s">
-        <v>1161</v>
-      </c>
-      <c r="E148" s="8" t="s">
-        <v>600</v>
+      <c r="C148" s="6" t="s">
+        <v>617</v>
+      </c>
+      <c r="E148" s="6" t="s">
+        <v>635</v>
       </c>
       <c r="F148" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>601</v>
+        <v>633</v>
       </c>
       <c r="I148" s="2" t="s">
-        <v>602</v>
+        <v>634</v>
       </c>
       <c r="J148" s="6" t="s">
         <v>972</v>
@@ -10485,27 +10520,27 @@
         <v>911</v>
       </c>
     </row>
-    <row r="149" spans="1:12" ht="330" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:12" ht="150" x14ac:dyDescent="0.25">
       <c r="A149" s="6" t="s">
         <v>637</v>
       </c>
       <c r="B149" s="6" t="s">
         <v>411</v>
       </c>
-      <c r="C149" s="8" t="s">
-        <v>595</v>
+      <c r="C149" s="6" t="s">
+        <v>617</v>
       </c>
       <c r="E149" s="8" t="s">
-        <v>604</v>
+        <v>638</v>
       </c>
       <c r="F149" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>615</v>
+        <v>639</v>
       </c>
       <c r="I149" s="2" t="s">
-        <v>616</v>
+        <v>640</v>
       </c>
       <c r="J149" s="6" t="s">
         <v>972</v>
@@ -10513,34 +10548,28 @@
       <c r="K149" s="8" t="s">
         <v>911</v>
       </c>
-      <c r="L149" s="8" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="150" spans="1:12" ht="240" x14ac:dyDescent="0.25">
+    </row>
+    <row r="150" spans="1:12" ht="150" x14ac:dyDescent="0.25">
       <c r="A150" s="6" t="s">
         <v>644</v>
       </c>
       <c r="B150" s="6" t="s">
         <v>411</v>
       </c>
-      <c r="C150" s="8" t="s">
-        <v>595</v>
-      </c>
-      <c r="D150" s="8" t="s">
-        <v>1115</v>
-      </c>
-      <c r="E150" s="8" t="s">
-        <v>609</v>
+      <c r="C150" s="6" t="s">
+        <v>617</v>
+      </c>
+      <c r="E150" s="6" t="s">
+        <v>641</v>
       </c>
       <c r="F150" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>610</v>
+        <v>642</v>
       </c>
       <c r="I150" s="2" t="s">
-        <v>611</v>
+        <v>643</v>
       </c>
       <c r="J150" s="6" t="s">
         <v>972</v>
@@ -10549,30 +10578,27 @@
         <v>911</v>
       </c>
     </row>
-    <row r="151" spans="1:12" ht="165" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:12" ht="150" x14ac:dyDescent="0.25">
       <c r="A151" s="6" t="s">
         <v>648</v>
       </c>
       <c r="B151" s="6" t="s">
         <v>411</v>
       </c>
-      <c r="C151" s="8" t="s">
-        <v>595</v>
-      </c>
-      <c r="D151" s="8" t="s">
-        <v>1161</v>
+      <c r="C151" s="6" t="s">
+        <v>617</v>
       </c>
       <c r="E151" s="8" t="s">
-        <v>612</v>
+        <v>645</v>
       </c>
       <c r="F151" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>613</v>
+        <v>646</v>
       </c>
       <c r="I151" s="2" t="s">
-        <v>614</v>
+        <v>647</v>
       </c>
       <c r="J151" s="6" t="s">
         <v>972</v>
@@ -10581,7 +10607,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="152" spans="1:12" ht="120" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:12" ht="135" x14ac:dyDescent="0.25">
       <c r="A152" s="6" t="s">
         <v>652</v>
       </c>
@@ -10591,17 +10617,17 @@
       <c r="C152" s="6" t="s">
         <v>617</v>
       </c>
-      <c r="E152" s="6" t="s">
-        <v>635</v>
+      <c r="E152" s="8" t="s">
+        <v>649</v>
       </c>
       <c r="F152" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>633</v>
+        <v>650</v>
       </c>
       <c r="I152" s="2" t="s">
-        <v>634</v>
+        <v>651</v>
       </c>
       <c r="J152" s="6" t="s">
         <v>972</v>
@@ -10621,16 +10647,16 @@
         <v>617</v>
       </c>
       <c r="E153" s="8" t="s">
-        <v>638</v>
+        <v>653</v>
       </c>
       <c r="F153" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>639</v>
+        <v>654</v>
       </c>
       <c r="I153" s="2" t="s">
-        <v>640</v>
+        <v>655</v>
       </c>
       <c r="J153" s="6" t="s">
         <v>972</v>
@@ -10649,17 +10675,17 @@
       <c r="C154" s="6" t="s">
         <v>617</v>
       </c>
-      <c r="E154" s="6" t="s">
-        <v>641</v>
+      <c r="E154" s="8" t="s">
+        <v>657</v>
       </c>
       <c r="F154" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>642</v>
+        <v>658</v>
       </c>
       <c r="I154" s="2" t="s">
-        <v>643</v>
+        <v>659</v>
       </c>
       <c r="J154" s="6" t="s">
         <v>972</v>
@@ -10679,16 +10705,16 @@
         <v>617</v>
       </c>
       <c r="E155" s="8" t="s">
-        <v>645</v>
+        <v>661</v>
       </c>
       <c r="F155" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>646</v>
+        <v>662</v>
       </c>
       <c r="I155" s="2" t="s">
-        <v>647</v>
+        <v>663</v>
       </c>
       <c r="J155" s="6" t="s">
         <v>972</v>
@@ -10697,7 +10723,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="156" spans="1:12" ht="135" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A156" s="6" t="s">
         <v>670</v>
       </c>
@@ -10705,28 +10731,34 @@
         <v>411</v>
       </c>
       <c r="C156" s="6" t="s">
-        <v>617</v>
+        <v>665</v>
+      </c>
+      <c r="D156" s="8" t="s">
+        <v>1000</v>
       </c>
       <c r="E156" s="8" t="s">
-        <v>649</v>
+        <v>666</v>
       </c>
       <c r="F156" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>650</v>
+        <v>668</v>
+      </c>
+      <c r="H156" s="8" t="s">
+        <v>667</v>
       </c>
       <c r="I156" s="2" t="s">
-        <v>651</v>
-      </c>
-      <c r="J156" s="6" t="s">
-        <v>972</v>
-      </c>
-      <c r="K156" s="8" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="157" spans="1:12" ht="150" x14ac:dyDescent="0.25">
+        <v>669</v>
+      </c>
+      <c r="K156" s="20" t="s">
+        <v>909</v>
+      </c>
+      <c r="L156" s="20" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="157" spans="1:12" ht="195" x14ac:dyDescent="0.25">
       <c r="A157" s="6" t="s">
         <v>674</v>
       </c>
@@ -10734,19 +10766,23 @@
         <v>411</v>
       </c>
       <c r="C157" s="6" t="s">
-        <v>617</v>
+        <v>665</v>
+      </c>
+      <c r="D157" s="8" t="s">
+        <v>1152</v>
       </c>
       <c r="E157" s="8" t="s">
-        <v>653</v>
+        <v>694</v>
       </c>
       <c r="F157" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>654</v>
-      </c>
+        <v>695</v>
+      </c>
+      <c r="H157" s="8"/>
       <c r="I157" s="2" t="s">
-        <v>655</v>
+        <v>696</v>
       </c>
       <c r="J157" s="6" t="s">
         <v>972</v>
@@ -10755,7 +10791,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="158" spans="1:12" ht="150" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:12" ht="240" x14ac:dyDescent="0.25">
       <c r="A158" s="6" t="s">
         <v>678</v>
       </c>
@@ -10763,19 +10799,19 @@
         <v>411</v>
       </c>
       <c r="C158" s="6" t="s">
-        <v>617</v>
+        <v>665</v>
       </c>
       <c r="E158" s="8" t="s">
-        <v>657</v>
+        <v>671</v>
       </c>
       <c r="F158" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>658</v>
+        <v>673</v>
       </c>
       <c r="I158" s="2" t="s">
-        <v>659</v>
+        <v>672</v>
       </c>
       <c r="J158" s="6" t="s">
         <v>972</v>
@@ -10783,8 +10819,11 @@
       <c r="K158" s="8" t="s">
         <v>911</v>
       </c>
-    </row>
-    <row r="159" spans="1:12" ht="150" x14ac:dyDescent="0.25">
+      <c r="L158" s="8" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="159" spans="1:12" ht="165" x14ac:dyDescent="0.25">
       <c r="A159" s="6" t="s">
         <v>682</v>
       </c>
@@ -10792,19 +10831,22 @@
         <v>411</v>
       </c>
       <c r="C159" s="6" t="s">
-        <v>617</v>
+        <v>665</v>
+      </c>
+      <c r="D159" s="8" t="s">
+        <v>1115</v>
       </c>
       <c r="E159" s="8" t="s">
-        <v>661</v>
+        <v>675</v>
       </c>
       <c r="F159" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>662</v>
+        <v>676</v>
       </c>
       <c r="I159" s="2" t="s">
-        <v>663</v>
+        <v>677</v>
       </c>
       <c r="J159" s="6" t="s">
         <v>972</v>
@@ -10813,7 +10855,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="160" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:12" ht="165" x14ac:dyDescent="0.25">
       <c r="A160" s="6" t="s">
         <v>686</v>
       </c>
@@ -10824,31 +10866,28 @@
         <v>665</v>
       </c>
       <c r="D160" s="8" t="s">
-        <v>1000</v>
+        <v>1116</v>
       </c>
       <c r="E160" s="8" t="s">
-        <v>666</v>
+        <v>679</v>
       </c>
       <c r="F160" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>668</v>
-      </c>
-      <c r="H160" s="8" t="s">
-        <v>667</v>
+        <v>680</v>
       </c>
       <c r="I160" s="2" t="s">
-        <v>669</v>
-      </c>
-      <c r="K160" s="20" t="s">
-        <v>909</v>
-      </c>
-      <c r="L160" s="20" t="s">
-        <v>954</v>
-      </c>
-    </row>
-    <row r="161" spans="1:27" ht="195" x14ac:dyDescent="0.25">
+        <v>681</v>
+      </c>
+      <c r="J160" s="6" t="s">
+        <v>972</v>
+      </c>
+      <c r="K160" s="8" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="161" spans="1:27" ht="315" x14ac:dyDescent="0.25">
       <c r="A161" s="6" t="s">
         <v>690</v>
       </c>
@@ -10859,29 +10898,28 @@
         <v>665</v>
       </c>
       <c r="D161" s="8" t="s">
-        <v>1162</v>
+        <v>1117</v>
       </c>
       <c r="E161" s="8" t="s">
-        <v>694</v>
+        <v>683</v>
       </c>
       <c r="F161" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>695</v>
-      </c>
-      <c r="H161" s="8"/>
+        <v>684</v>
+      </c>
       <c r="I161" s="2" t="s">
-        <v>696</v>
+        <v>685</v>
       </c>
       <c r="J161" s="6" t="s">
-        <v>972</v>
+        <v>964</v>
       </c>
       <c r="K161" s="8" t="s">
         <v>911</v>
       </c>
     </row>
-    <row r="162" spans="1:27" ht="240" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:27" ht="285" x14ac:dyDescent="0.25">
       <c r="A162" s="6" t="s">
         <v>697</v>
       </c>
@@ -10891,29 +10929,29 @@
       <c r="C162" s="6" t="s">
         <v>665</v>
       </c>
+      <c r="D162" s="8" t="s">
+        <v>1118</v>
+      </c>
       <c r="E162" s="8" t="s">
-        <v>671</v>
+        <v>687</v>
       </c>
       <c r="F162" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>673</v>
+        <v>688</v>
       </c>
       <c r="I162" s="2" t="s">
-        <v>672</v>
+        <v>689</v>
       </c>
       <c r="J162" s="6" t="s">
-        <v>972</v>
+        <v>964</v>
       </c>
       <c r="K162" s="8" t="s">
         <v>911</v>
       </c>
-      <c r="L162" s="8" t="s">
-        <v>955</v>
-      </c>
-    </row>
-    <row r="163" spans="1:27" ht="165" x14ac:dyDescent="0.25">
+    </row>
+    <row r="163" spans="1:27" ht="315" x14ac:dyDescent="0.25">
       <c r="A163" s="6" t="s">
         <v>698</v>
       </c>
@@ -10924,28 +10962,28 @@
         <v>665</v>
       </c>
       <c r="D163" s="8" t="s">
-        <v>1116</v>
+        <v>1119</v>
       </c>
       <c r="E163" s="8" t="s">
-        <v>675</v>
+        <v>691</v>
       </c>
       <c r="F163" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>676</v>
+        <v>692</v>
       </c>
       <c r="I163" s="2" t="s">
-        <v>677</v>
+        <v>693</v>
       </c>
       <c r="J163" s="6" t="s">
-        <v>972</v>
+        <v>964</v>
       </c>
       <c r="K163" s="8" t="s">
         <v>911</v>
       </c>
     </row>
-    <row r="164" spans="1:27" ht="165" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:27" ht="150" x14ac:dyDescent="0.25">
       <c r="A164" s="6" t="s">
         <v>703</v>
       </c>
@@ -10953,31 +10991,28 @@
         <v>411</v>
       </c>
       <c r="C164" s="6" t="s">
-        <v>665</v>
+        <v>699</v>
       </c>
       <c r="D164" s="8" t="s">
-        <v>1117</v>
+        <v>1178</v>
       </c>
       <c r="E164" s="8" t="s">
-        <v>679</v>
+        <v>700</v>
       </c>
       <c r="F164" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>680</v>
+        <v>701</v>
       </c>
       <c r="I164" s="2" t="s">
-        <v>681</v>
-      </c>
-      <c r="J164" s="6" t="s">
-        <v>972</v>
-      </c>
-      <c r="K164" s="8" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="165" spans="1:27" ht="315" x14ac:dyDescent="0.25">
+        <v>702</v>
+      </c>
+      <c r="L164" s="20" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="165" spans="1:27" ht="180" x14ac:dyDescent="0.25">
       <c r="A165" s="6" t="s">
         <v>706</v>
       </c>
@@ -10985,31 +11020,31 @@
         <v>411</v>
       </c>
       <c r="C165" s="6" t="s">
-        <v>665</v>
+        <v>699</v>
       </c>
       <c r="D165" s="8" t="s">
-        <v>1118</v>
+        <v>1153</v>
       </c>
       <c r="E165" s="8" t="s">
-        <v>683</v>
+        <v>704</v>
       </c>
       <c r="F165" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>684</v>
+        <v>957</v>
       </c>
       <c r="I165" s="2" t="s">
-        <v>685</v>
+        <v>705</v>
       </c>
       <c r="J165" s="6" t="s">
         <v>964</v>
       </c>
-      <c r="K165" s="8" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="166" spans="1:27" ht="285" x14ac:dyDescent="0.25">
+      <c r="K165" s="6" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="166" spans="1:27" ht="180" x14ac:dyDescent="0.25">
       <c r="A166" s="6" t="s">
         <v>709</v>
       </c>
@@ -11017,31 +11052,31 @@
         <v>411</v>
       </c>
       <c r="C166" s="6" t="s">
-        <v>665</v>
+        <v>699</v>
       </c>
       <c r="D166" s="8" t="s">
-        <v>1119</v>
+        <v>1120</v>
       </c>
       <c r="E166" s="8" t="s">
-        <v>687</v>
+        <v>707</v>
       </c>
       <c r="F166" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>688</v>
+        <v>958</v>
       </c>
       <c r="I166" s="2" t="s">
-        <v>689</v>
+        <v>708</v>
       </c>
       <c r="J166" s="6" t="s">
         <v>964</v>
       </c>
-      <c r="K166" s="8" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="167" spans="1:27" ht="315" x14ac:dyDescent="0.25">
+      <c r="K166" s="6" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="167" spans="1:27" ht="225" x14ac:dyDescent="0.25">
       <c r="A167" s="6" t="s">
         <v>712</v>
       </c>
@@ -11049,31 +11084,31 @@
         <v>411</v>
       </c>
       <c r="C167" s="6" t="s">
-        <v>665</v>
+        <v>699</v>
       </c>
       <c r="D167" s="8" t="s">
-        <v>1120</v>
+        <v>1121</v>
       </c>
       <c r="E167" s="8" t="s">
-        <v>691</v>
+        <v>710</v>
       </c>
       <c r="F167" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>692</v>
+        <v>959</v>
       </c>
       <c r="I167" s="2" t="s">
-        <v>693</v>
+        <v>711</v>
       </c>
       <c r="J167" s="6" t="s">
         <v>964</v>
       </c>
-      <c r="K167" s="8" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="168" spans="1:27" ht="150" x14ac:dyDescent="0.25">
+      <c r="K167" s="6" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="168" spans="1:27" ht="225" x14ac:dyDescent="0.25">
       <c r="A168" s="6" t="s">
         <v>717</v>
       </c>
@@ -11081,28 +11116,28 @@
         <v>411</v>
       </c>
       <c r="C168" s="6" t="s">
-        <v>699</v>
-      </c>
-      <c r="D168" s="8" t="s">
-        <v>1188</v>
+        <v>713</v>
       </c>
       <c r="E168" s="8" t="s">
-        <v>700</v>
+        <v>714</v>
       </c>
       <c r="F168" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>701</v>
+        <v>715</v>
       </c>
       <c r="I168" s="2" t="s">
-        <v>702</v>
+        <v>716</v>
+      </c>
+      <c r="J168" s="6" t="s">
+        <v>964</v>
       </c>
       <c r="L168" s="20" t="s">
-        <v>956</v>
-      </c>
-    </row>
-    <row r="169" spans="1:27" ht="180" x14ac:dyDescent="0.25">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="169" spans="1:27" ht="225" x14ac:dyDescent="0.25">
       <c r="A169" s="6" t="s">
         <v>721</v>
       </c>
@@ -11110,22 +11145,22 @@
         <v>411</v>
       </c>
       <c r="C169" s="6" t="s">
-        <v>699</v>
+        <v>713</v>
       </c>
       <c r="D169" s="8" t="s">
-        <v>1163</v>
+        <v>1154</v>
       </c>
       <c r="E169" s="8" t="s">
-        <v>704</v>
+        <v>718</v>
       </c>
       <c r="F169" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>957</v>
+        <v>719</v>
       </c>
       <c r="I169" s="2" t="s">
-        <v>705</v>
+        <v>720</v>
       </c>
       <c r="J169" s="6" t="s">
         <v>964</v>
@@ -11134,7 +11169,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="170" spans="1:27" ht="180" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:27" ht="270" x14ac:dyDescent="0.25">
       <c r="A170" s="6" t="s">
         <v>725</v>
       </c>
@@ -11142,22 +11177,22 @@
         <v>411</v>
       </c>
       <c r="C170" s="6" t="s">
-        <v>699</v>
+        <v>713</v>
       </c>
       <c r="D170" s="8" t="s">
-        <v>1121</v>
+        <v>1155</v>
       </c>
       <c r="E170" s="8" t="s">
-        <v>707</v>
+        <v>722</v>
       </c>
       <c r="F170" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>958</v>
+        <v>723</v>
       </c>
       <c r="I170" s="2" t="s">
-        <v>708</v>
+        <v>724</v>
       </c>
       <c r="J170" s="6" t="s">
         <v>964</v>
@@ -11166,7 +11201,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="171" spans="1:27" ht="225" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:27" ht="285.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A171" s="6" t="s">
         <v>729</v>
       </c>
@@ -11174,22 +11209,22 @@
         <v>411</v>
       </c>
       <c r="C171" s="6" t="s">
-        <v>699</v>
+        <v>713</v>
       </c>
       <c r="D171" s="8" t="s">
-        <v>1122</v>
+        <v>1156</v>
       </c>
       <c r="E171" s="8" t="s">
-        <v>710</v>
+        <v>726</v>
       </c>
       <c r="F171" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>959</v>
+        <v>727</v>
       </c>
       <c r="I171" s="2" t="s">
-        <v>711</v>
+        <v>728</v>
       </c>
       <c r="J171" s="6" t="s">
         <v>964</v>
@@ -11198,123 +11233,157 @@
         <v>911</v>
       </c>
     </row>
-    <row r="172" spans="1:27" ht="225" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:27" ht="195.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A172" s="6" t="s">
         <v>734</v>
       </c>
-      <c r="B172" s="6" t="s">
-        <v>411</v>
-      </c>
-      <c r="C172" s="6" t="s">
+      <c r="B172" s="10" t="s">
+        <v>730</v>
+      </c>
+      <c r="C172" s="10" t="s">
         <v>713</v>
       </c>
-      <c r="E172" s="8" t="s">
-        <v>714</v>
+      <c r="D172" s="8" t="s">
+        <v>1157</v>
+      </c>
+      <c r="E172" s="10" t="s">
+        <v>731</v>
       </c>
       <c r="F172" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="G172" s="2" t="s">
-        <v>715</v>
-      </c>
-      <c r="I172" s="2" t="s">
-        <v>716</v>
-      </c>
-      <c r="J172" s="6" t="s">
+      <c r="G172" s="12" t="s">
+        <v>732</v>
+      </c>
+      <c r="H172" s="11"/>
+      <c r="I172" s="12" t="s">
+        <v>733</v>
+      </c>
+      <c r="J172" s="23" t="s">
         <v>964</v>
       </c>
-      <c r="L172" s="20" t="s">
-        <v>971</v>
-      </c>
-    </row>
-    <row r="173" spans="1:27" ht="225" x14ac:dyDescent="0.25">
+      <c r="K172" s="23" t="s">
+        <v>911</v>
+      </c>
+      <c r="L172" s="23"/>
+      <c r="M172" s="11"/>
+      <c r="N172" s="11"/>
+      <c r="O172" s="11"/>
+      <c r="P172" s="11"/>
+      <c r="Q172" s="11"/>
+      <c r="R172" s="11"/>
+      <c r="S172" s="11"/>
+      <c r="T172" s="11"/>
+      <c r="U172" s="11"/>
+      <c r="V172" s="11"/>
+      <c r="W172" s="11"/>
+      <c r="X172" s="11"/>
+      <c r="Y172" s="11"/>
+      <c r="Z172" s="11"/>
+      <c r="AA172" s="11"/>
+    </row>
+    <row r="173" spans="1:27" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A173" s="6" t="s">
         <v>740</v>
       </c>
-      <c r="B173" s="6" t="s">
-        <v>411</v>
-      </c>
-      <c r="C173" s="6" t="s">
-        <v>713</v>
+      <c r="B173" s="10" t="s">
+        <v>735</v>
+      </c>
+      <c r="C173" s="10" t="s">
+        <v>735</v>
       </c>
       <c r="D173" s="8" t="s">
-        <v>1164</v>
-      </c>
-      <c r="E173" s="8" t="s">
-        <v>718</v>
+        <v>1158</v>
+      </c>
+      <c r="E173" s="14" t="s">
+        <v>748</v>
       </c>
       <c r="F173" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="G173" s="2" t="s">
-        <v>719</v>
-      </c>
-      <c r="I173" s="2" t="s">
-        <v>720</v>
-      </c>
-      <c r="J173" s="6" t="s">
+      <c r="G173" s="13" t="s">
+        <v>750</v>
+      </c>
+      <c r="H173" s="16"/>
+      <c r="I173" s="15" t="s">
+        <v>749</v>
+      </c>
+      <c r="J173" s="24" t="s">
         <v>964</v>
       </c>
-      <c r="K173" s="6" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="174" spans="1:27" ht="270" x14ac:dyDescent="0.25">
+      <c r="K173" s="24" t="s">
+        <v>911</v>
+      </c>
+      <c r="L173" s="24"/>
+      <c r="M173" s="16"/>
+      <c r="N173" s="16"/>
+      <c r="O173" s="16"/>
+      <c r="P173" s="16"/>
+      <c r="Q173" s="16"/>
+      <c r="R173" s="16"/>
+      <c r="S173" s="16"/>
+      <c r="T173" s="16"/>
+      <c r="U173" s="16"/>
+      <c r="V173" s="16"/>
+      <c r="W173" s="16"/>
+      <c r="X173" s="16"/>
+      <c r="Y173" s="16"/>
+      <c r="Z173" s="16"/>
+      <c r="AA173" s="16"/>
+    </row>
+    <row r="174" spans="1:27" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A174" s="6" t="s">
         <v>744</v>
       </c>
-      <c r="B174" s="6" t="s">
-        <v>411</v>
-      </c>
-      <c r="C174" s="6" t="s">
-        <v>713</v>
-      </c>
-      <c r="D174" s="8" t="s">
-        <v>1165</v>
+      <c r="B174" s="10" t="s">
+        <v>735</v>
+      </c>
+      <c r="C174" s="8" t="s">
+        <v>736</v>
       </c>
       <c r="E174" s="8" t="s">
-        <v>722</v>
+        <v>737</v>
       </c>
       <c r="F174" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="G174" s="2" t="s">
-        <v>723</v>
-      </c>
-      <c r="I174" s="2" t="s">
-        <v>724</v>
-      </c>
-      <c r="J174" s="6" t="s">
-        <v>964</v>
-      </c>
-      <c r="K174" s="6" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="175" spans="1:27" ht="285.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G174" s="13" t="s">
+        <v>738</v>
+      </c>
+      <c r="I174" s="13" t="s">
+        <v>739</v>
+      </c>
+      <c r="K174" s="19" t="s">
+        <v>909</v>
+      </c>
+      <c r="L174" s="20" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="175" spans="1:27" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A175" s="6" t="s">
         <v>751</v>
       </c>
-      <c r="B175" s="6" t="s">
-        <v>411</v>
-      </c>
-      <c r="C175" s="6" t="s">
-        <v>713</v>
+      <c r="B175" s="10" t="s">
+        <v>735</v>
+      </c>
+      <c r="C175" s="8" t="s">
+        <v>736</v>
       </c>
       <c r="D175" s="8" t="s">
-        <v>1166</v>
+        <v>1179</v>
       </c>
       <c r="E175" s="8" t="s">
-        <v>726</v>
+        <v>741</v>
       </c>
       <c r="F175" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="G175" s="2" t="s">
-        <v>727</v>
-      </c>
-      <c r="I175" s="2" t="s">
-        <v>728</v>
+      <c r="G175" s="13" t="s">
+        <v>742</v>
+      </c>
+      <c r="I175" s="13" t="s">
+        <v>743</v>
       </c>
       <c r="J175" s="6" t="s">
         <v>964</v>
@@ -11322,158 +11391,139 @@
       <c r="K175" s="6" t="s">
         <v>911</v>
       </c>
-    </row>
-    <row r="176" spans="1:27" ht="195.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L175" s="8" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="176" spans="1:27" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A176" s="6" t="s">
         <v>752</v>
       </c>
       <c r="B176" s="10" t="s">
-        <v>730</v>
-      </c>
-      <c r="C176" s="10" t="s">
-        <v>713</v>
+        <v>735</v>
+      </c>
+      <c r="C176" s="8" t="s">
+        <v>736</v>
       </c>
       <c r="D176" s="8" t="s">
-        <v>1167</v>
-      </c>
-      <c r="E176" s="10" t="s">
-        <v>731</v>
+        <v>1099</v>
+      </c>
+      <c r="E176" s="8" t="s">
+        <v>745</v>
       </c>
       <c r="F176" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="G176" s="12" t="s">
-        <v>732</v>
-      </c>
-      <c r="H176" s="11"/>
-      <c r="I176" s="12" t="s">
-        <v>733</v>
-      </c>
-      <c r="J176" s="23" t="s">
-        <v>964</v>
-      </c>
-      <c r="K176" s="23" t="s">
-        <v>911</v>
-      </c>
-      <c r="L176" s="23"/>
-      <c r="M176" s="11"/>
-      <c r="N176" s="11"/>
-      <c r="O176" s="11"/>
-      <c r="P176" s="11"/>
-      <c r="Q176" s="11"/>
-      <c r="R176" s="11"/>
-      <c r="S176" s="11"/>
-      <c r="T176" s="11"/>
-      <c r="U176" s="11"/>
-      <c r="V176" s="11"/>
-      <c r="W176" s="11"/>
-      <c r="X176" s="11"/>
-      <c r="Y176" s="11"/>
-      <c r="Z176" s="11"/>
-      <c r="AA176" s="11"/>
-    </row>
-    <row r="177" spans="1:27" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G176" s="13" t="s">
+        <v>746</v>
+      </c>
+      <c r="I176" s="13" t="s">
+        <v>747</v>
+      </c>
+      <c r="K176" s="19" t="s">
+        <v>909</v>
+      </c>
+      <c r="L176" s="20" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="177" spans="1:12" ht="165.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A177" s="6" t="s">
         <v>758</v>
       </c>
       <c r="B177" s="10" t="s">
         <v>735</v>
       </c>
-      <c r="C177" s="10" t="s">
-        <v>735</v>
+      <c r="C177" s="6" t="s">
+        <v>753</v>
       </c>
       <c r="D177" s="8" t="s">
-        <v>1168</v>
-      </c>
-      <c r="E177" s="14" t="s">
-        <v>748</v>
+        <v>1001</v>
+      </c>
+      <c r="E177" s="8" t="s">
+        <v>754</v>
       </c>
       <c r="F177" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G177" s="13" t="s">
-        <v>750</v>
-      </c>
-      <c r="H177" s="16"/>
-      <c r="I177" s="15" t="s">
-        <v>749</v>
-      </c>
-      <c r="J177" s="24" t="s">
+        <v>755</v>
+      </c>
+      <c r="H177" s="2" t="s">
+        <v>756</v>
+      </c>
+      <c r="I177" s="13" t="s">
+        <v>757</v>
+      </c>
+      <c r="J177" s="25" t="s">
         <v>964</v>
       </c>
-      <c r="K177" s="24" t="s">
-        <v>911</v>
-      </c>
-      <c r="L177" s="24"/>
-      <c r="M177" s="16"/>
-      <c r="N177" s="16"/>
-      <c r="O177" s="16"/>
-      <c r="P177" s="16"/>
-      <c r="Q177" s="16"/>
-      <c r="R177" s="16"/>
-      <c r="S177" s="16"/>
-      <c r="T177" s="16"/>
-      <c r="U177" s="16"/>
-      <c r="V177" s="16"/>
-      <c r="W177" s="16"/>
-      <c r="X177" s="16"/>
-      <c r="Y177" s="16"/>
-      <c r="Z177" s="16"/>
-      <c r="AA177" s="16"/>
-    </row>
-    <row r="178" spans="1:27" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K177" s="25" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="178" spans="1:12" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A178" s="6" t="s">
         <v>763</v>
       </c>
       <c r="B178" s="10" t="s">
         <v>735</v>
       </c>
-      <c r="C178" s="8" t="s">
-        <v>736</v>
+      <c r="C178" s="6" t="s">
+        <v>753</v>
+      </c>
+      <c r="D178" s="8" t="s">
+        <v>1002</v>
       </c>
       <c r="E178" s="8" t="s">
-        <v>737</v>
+        <v>759</v>
       </c>
       <c r="F178" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G178" s="13" t="s">
-        <v>738</v>
+        <v>761</v>
+      </c>
+      <c r="H178" s="2" t="s">
+        <v>760</v>
       </c>
       <c r="I178" s="13" t="s">
-        <v>739</v>
-      </c>
-      <c r="K178" s="19" t="s">
-        <v>909</v>
-      </c>
-      <c r="L178" s="20" t="s">
-        <v>970</v>
-      </c>
-    </row>
-    <row r="179" spans="1:27" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>762</v>
+      </c>
+      <c r="J178" s="25" t="s">
+        <v>964</v>
+      </c>
+      <c r="K178" s="25" t="s">
+        <v>911</v>
+      </c>
+      <c r="L178" s="25" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="179" spans="1:12" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A179" s="6" t="s">
         <v>767</v>
       </c>
       <c r="B179" s="10" t="s">
         <v>735</v>
       </c>
-      <c r="C179" s="8" t="s">
-        <v>736</v>
+      <c r="C179" s="6" t="s">
+        <v>753</v>
       </c>
       <c r="D179" s="8" t="s">
-        <v>1189</v>
+        <v>1159</v>
       </c>
       <c r="E179" s="8" t="s">
-        <v>741</v>
+        <v>764</v>
       </c>
       <c r="F179" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G179" s="13" t="s">
-        <v>742</v>
-      </c>
-      <c r="I179" s="13" t="s">
-        <v>743</v>
+        <v>765</v>
+      </c>
+      <c r="I179" s="2" t="s">
+        <v>766</v>
       </c>
       <c r="J179" s="6" t="s">
         <v>964</v>
@@ -11481,43 +11531,40 @@
       <c r="K179" s="6" t="s">
         <v>911</v>
       </c>
-      <c r="L179" s="8" t="s">
-        <v>969</v>
-      </c>
-    </row>
-    <row r="180" spans="1:27" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="180" spans="1:12" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A180" s="6" t="s">
         <v>769</v>
       </c>
       <c r="B180" s="10" t="s">
         <v>735</v>
       </c>
-      <c r="C180" s="8" t="s">
-        <v>736</v>
+      <c r="C180" s="6" t="s">
+        <v>753</v>
       </c>
       <c r="D180" s="8" t="s">
-        <v>1099</v>
+        <v>1122</v>
       </c>
       <c r="E180" s="8" t="s">
-        <v>745</v>
+        <v>768</v>
       </c>
       <c r="F180" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G180" s="13" t="s">
-        <v>746</v>
-      </c>
-      <c r="I180" s="13" t="s">
-        <v>747</v>
-      </c>
-      <c r="K180" s="19" t="s">
-        <v>909</v>
-      </c>
-      <c r="L180" s="20" t="s">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="181" spans="1:27" ht="165.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>765</v>
+      </c>
+      <c r="I180" s="2" t="s">
+        <v>766</v>
+      </c>
+      <c r="J180" s="6" t="s">
+        <v>964</v>
+      </c>
+      <c r="K180" s="6" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="181" spans="1:12" ht="165.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A181" s="6" t="s">
         <v>772</v>
       </c>
@@ -11528,22 +11575,20 @@
         <v>753</v>
       </c>
       <c r="D181" s="8" t="s">
-        <v>1001</v>
+        <v>1122</v>
       </c>
       <c r="E181" s="8" t="s">
-        <v>754</v>
+        <v>768</v>
       </c>
       <c r="F181" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G181" s="13" t="s">
-        <v>755</v>
-      </c>
-      <c r="H181" s="2" t="s">
-        <v>756</v>
-      </c>
+        <v>770</v>
+      </c>
+      <c r="H181" s="2"/>
       <c r="I181" s="13" t="s">
-        <v>757</v>
+        <v>771</v>
       </c>
       <c r="J181" s="25" t="s">
         <v>964</v>
@@ -11552,7 +11597,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="182" spans="1:27" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:12" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A182" s="6" t="s">
         <v>775</v>
       </c>
@@ -11563,22 +11608,20 @@
         <v>753</v>
       </c>
       <c r="D182" s="8" t="s">
-        <v>1002</v>
+        <v>1122</v>
       </c>
       <c r="E182" s="8" t="s">
-        <v>759</v>
+        <v>768</v>
       </c>
       <c r="F182" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G182" s="13" t="s">
-        <v>761</v>
-      </c>
-      <c r="H182" s="2" t="s">
-        <v>760</v>
-      </c>
+        <v>773</v>
+      </c>
+      <c r="H182" s="2"/>
       <c r="I182" s="13" t="s">
-        <v>762</v>
+        <v>774</v>
       </c>
       <c r="J182" s="25" t="s">
         <v>964</v>
@@ -11586,11 +11629,8 @@
       <c r="K182" s="25" t="s">
         <v>911</v>
       </c>
-      <c r="L182" s="25" t="s">
-        <v>968</v>
-      </c>
-    </row>
-    <row r="183" spans="1:27" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="183" spans="1:12" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A183" s="6" t="s">
         <v>780</v>
       </c>
@@ -11601,158 +11641,156 @@
         <v>753</v>
       </c>
       <c r="D183" s="8" t="s">
-        <v>1169</v>
+        <v>1160</v>
       </c>
       <c r="E183" s="8" t="s">
-        <v>764</v>
+        <v>776</v>
       </c>
       <c r="F183" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="G183" s="13" t="s">
-        <v>765</v>
+      <c r="G183" s="2" t="s">
+        <v>777</v>
       </c>
       <c r="I183" s="2" t="s">
-        <v>766</v>
+        <v>778</v>
       </c>
       <c r="J183" s="6" t="s">
         <v>964</v>
       </c>
-      <c r="K183" s="6" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="184" spans="1:27" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K183" s="25" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="184" spans="1:12" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A184" s="6" t="s">
         <v>783</v>
       </c>
       <c r="B184" s="10" t="s">
         <v>735</v>
       </c>
-      <c r="C184" s="6" t="s">
-        <v>753</v>
+      <c r="C184" s="8" t="s">
+        <v>779</v>
       </c>
       <c r="D184" s="8" t="s">
         <v>1123</v>
       </c>
-      <c r="E184" s="8" t="s">
-        <v>768</v>
+      <c r="E184" s="6" t="s">
+        <v>786</v>
       </c>
       <c r="F184" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="G184" s="13" t="s">
-        <v>765</v>
+      <c r="G184" s="2" t="s">
+        <v>781</v>
       </c>
       <c r="I184" s="2" t="s">
-        <v>766</v>
+        <v>782</v>
       </c>
       <c r="J184" s="6" t="s">
         <v>964</v>
       </c>
-      <c r="K184" s="6" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="185" spans="1:27" ht="165.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K184" s="25" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="185" spans="1:12" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A185" s="6" t="s">
         <v>789</v>
       </c>
       <c r="B185" s="10" t="s">
         <v>735</v>
       </c>
-      <c r="C185" s="6" t="s">
-        <v>753</v>
+      <c r="C185" s="8" t="s">
+        <v>784</v>
       </c>
       <c r="D185" s="8" t="s">
-        <v>1123</v>
-      </c>
-      <c r="E185" s="8" t="s">
-        <v>768</v>
+        <v>1161</v>
+      </c>
+      <c r="E185" s="6" t="s">
+        <v>785</v>
       </c>
       <c r="F185" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="G185" s="13" t="s">
-        <v>770</v>
-      </c>
-      <c r="H185" s="2"/>
-      <c r="I185" s="13" t="s">
-        <v>771</v>
-      </c>
-      <c r="J185" s="25" t="s">
+      <c r="G185" s="2" t="s">
+        <v>787</v>
+      </c>
+      <c r="I185" s="2" t="s">
+        <v>788</v>
+      </c>
+      <c r="J185" s="6" t="s">
         <v>964</v>
       </c>
       <c r="K185" s="25" t="s">
         <v>911</v>
       </c>
     </row>
-    <row r="186" spans="1:27" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:12" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A186" s="6" t="s">
         <v>794</v>
       </c>
       <c r="B186" s="10" t="s">
         <v>735</v>
       </c>
-      <c r="C186" s="6" t="s">
-        <v>753</v>
+      <c r="C186" s="8" t="s">
+        <v>790</v>
       </c>
       <c r="D186" s="8" t="s">
-        <v>1123</v>
+        <v>1100</v>
       </c>
       <c r="E186" s="8" t="s">
-        <v>768</v>
+        <v>791</v>
       </c>
       <c r="F186" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="G186" s="13" t="s">
-        <v>773</v>
-      </c>
-      <c r="H186" s="2"/>
-      <c r="I186" s="13" t="s">
-        <v>774</v>
-      </c>
-      <c r="J186" s="25" t="s">
-        <v>964</v>
-      </c>
-      <c r="K186" s="25" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="187" spans="1:27" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G186" s="2" t="s">
+        <v>792</v>
+      </c>
+      <c r="I186" s="2" t="s">
+        <v>793</v>
+      </c>
+      <c r="K186" s="26" t="s">
+        <v>909</v>
+      </c>
+      <c r="L186" s="20" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="187" spans="1:12" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A187" s="6" t="s">
         <v>799</v>
       </c>
       <c r="B187" s="10" t="s">
         <v>735</v>
       </c>
-      <c r="C187" s="6" t="s">
-        <v>753</v>
+      <c r="C187" s="8" t="s">
+        <v>796</v>
       </c>
       <c r="D187" s="8" t="s">
-        <v>1170</v>
+        <v>1101</v>
       </c>
       <c r="E187" s="8" t="s">
-        <v>776</v>
+        <v>795</v>
       </c>
       <c r="F187" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G187" s="2" t="s">
-        <v>777</v>
+        <v>798</v>
       </c>
       <c r="I187" s="2" t="s">
-        <v>778</v>
-      </c>
-      <c r="J187" s="6" t="s">
-        <v>964</v>
-      </c>
-      <c r="K187" s="25" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="188" spans="1:27" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>797</v>
+      </c>
+      <c r="K187" s="26" t="s">
+        <v>909</v>
+      </c>
+      <c r="L187" s="20" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="188" spans="1:12" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A188" s="6" t="s">
         <v>804</v>
       </c>
@@ -11760,31 +11798,34 @@
         <v>735</v>
       </c>
       <c r="C188" s="8" t="s">
-        <v>779</v>
+        <v>796</v>
       </c>
       <c r="D188" s="8" t="s">
-        <v>1124</v>
-      </c>
-      <c r="E188" s="6" t="s">
-        <v>786</v>
+        <v>1102</v>
+      </c>
+      <c r="E188" s="8" t="s">
+        <v>800</v>
       </c>
       <c r="F188" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G188" s="2" t="s">
-        <v>781</v>
+        <v>801</v>
       </c>
       <c r="I188" s="2" t="s">
-        <v>782</v>
+        <v>803</v>
       </c>
       <c r="J188" s="6" t="s">
-        <v>964</v>
-      </c>
-      <c r="K188" s="25" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="189" spans="1:27" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>802</v>
+      </c>
+      <c r="K188" s="26" t="s">
+        <v>909</v>
+      </c>
+      <c r="L188" s="20" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="189" spans="1:12" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A189" s="6" t="s">
         <v>810</v>
       </c>
@@ -11792,31 +11833,31 @@
         <v>735</v>
       </c>
       <c r="C189" s="8" t="s">
-        <v>784</v>
+        <v>805</v>
       </c>
       <c r="D189" s="8" t="s">
-        <v>1171</v>
-      </c>
-      <c r="E189" s="6" t="s">
-        <v>785</v>
+        <v>1124</v>
+      </c>
+      <c r="E189" s="8" t="s">
+        <v>806</v>
       </c>
       <c r="F189" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G189" s="2" t="s">
-        <v>787</v>
+        <v>807</v>
       </c>
       <c r="I189" s="2" t="s">
-        <v>788</v>
+        <v>808</v>
       </c>
       <c r="J189" s="6" t="s">
         <v>964</v>
       </c>
-      <c r="K189" s="25" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="190" spans="1:27" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K189" s="27" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="190" spans="1:12" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A190" s="6" t="s">
         <v>813</v>
       </c>
@@ -11824,31 +11865,31 @@
         <v>735</v>
       </c>
       <c r="C190" s="8" t="s">
-        <v>790</v>
+        <v>805</v>
       </c>
       <c r="D190" s="8" t="s">
-        <v>1100</v>
+        <v>1162</v>
       </c>
       <c r="E190" s="8" t="s">
-        <v>791</v>
+        <v>809</v>
       </c>
       <c r="F190" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G190" s="2" t="s">
-        <v>792</v>
+        <v>811</v>
       </c>
       <c r="I190" s="2" t="s">
-        <v>793</v>
-      </c>
-      <c r="K190" s="26" t="s">
-        <v>909</v>
-      </c>
-      <c r="L190" s="20" t="s">
-        <v>961</v>
-      </c>
-    </row>
-    <row r="191" spans="1:27" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>812</v>
+      </c>
+      <c r="J190" s="6" t="s">
+        <v>964</v>
+      </c>
+      <c r="K190" s="27" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="191" spans="1:12" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A191" s="6" t="s">
         <v>817</v>
       </c>
@@ -11856,31 +11897,31 @@
         <v>735</v>
       </c>
       <c r="C191" s="8" t="s">
-        <v>796</v>
+        <v>805</v>
       </c>
       <c r="D191" s="8" t="s">
-        <v>1101</v>
+        <v>1163</v>
       </c>
       <c r="E191" s="8" t="s">
-        <v>795</v>
+        <v>814</v>
       </c>
       <c r="F191" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G191" s="2" t="s">
-        <v>798</v>
+        <v>815</v>
       </c>
       <c r="I191" s="2" t="s">
-        <v>797</v>
-      </c>
-      <c r="K191" s="26" t="s">
-        <v>909</v>
-      </c>
-      <c r="L191" s="20" t="s">
-        <v>961</v>
-      </c>
-    </row>
-    <row r="192" spans="1:27" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>816</v>
+      </c>
+      <c r="J191" s="6" t="s">
+        <v>964</v>
+      </c>
+      <c r="K191" s="27" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="192" spans="1:12" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A192" s="6" t="s">
         <v>819</v>
       </c>
@@ -11888,34 +11929,31 @@
         <v>735</v>
       </c>
       <c r="C192" s="8" t="s">
-        <v>796</v>
+        <v>805</v>
       </c>
       <c r="D192" s="8" t="s">
-        <v>1102</v>
+        <v>1164</v>
       </c>
       <c r="E192" s="8" t="s">
-        <v>800</v>
+        <v>826</v>
       </c>
       <c r="F192" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G192" s="2" t="s">
-        <v>801</v>
+        <v>829</v>
       </c>
       <c r="I192" s="2" t="s">
-        <v>803</v>
+        <v>818</v>
       </c>
       <c r="J192" s="6" t="s">
-        <v>802</v>
-      </c>
-      <c r="K192" s="26" t="s">
-        <v>909</v>
-      </c>
-      <c r="L192" s="20" t="s">
-        <v>961</v>
-      </c>
-    </row>
-    <row r="193" spans="1:12" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>964</v>
+      </c>
+      <c r="K192" s="27" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="193" spans="1:12" ht="165.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A193" s="6" t="s">
         <v>822</v>
       </c>
@@ -11926,19 +11964,19 @@
         <v>805</v>
       </c>
       <c r="D193" s="8" t="s">
-        <v>1125</v>
+        <v>1180</v>
       </c>
       <c r="E193" s="8" t="s">
-        <v>806</v>
+        <v>820</v>
       </c>
       <c r="F193" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G193" s="2" t="s">
-        <v>807</v>
+        <v>828</v>
       </c>
       <c r="I193" s="2" t="s">
-        <v>808</v>
+        <v>821</v>
       </c>
       <c r="J193" s="6" t="s">
         <v>964</v>
@@ -11946,8 +11984,11 @@
       <c r="K193" s="27" t="s">
         <v>911</v>
       </c>
-    </row>
-    <row r="194" spans="1:12" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L193" s="8" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="194" spans="1:12" ht="165.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A194" s="6" t="s">
         <v>825</v>
       </c>
@@ -11958,19 +11999,19 @@
         <v>805</v>
       </c>
       <c r="D194" s="8" t="s">
-        <v>1172</v>
+        <v>1165</v>
       </c>
       <c r="E194" s="8" t="s">
-        <v>809</v>
+        <v>823</v>
       </c>
       <c r="F194" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G194" s="2" t="s">
-        <v>811</v>
+        <v>827</v>
       </c>
       <c r="I194" s="2" t="s">
-        <v>812</v>
+        <v>824</v>
       </c>
       <c r="J194" s="6" t="s">
         <v>964</v>
@@ -11979,7 +12020,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="195" spans="1:12" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:12" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A195" s="6" t="s">
         <v>833</v>
       </c>
@@ -11990,19 +12031,19 @@
         <v>805</v>
       </c>
       <c r="D195" s="8" t="s">
-        <v>1173</v>
+        <v>1166</v>
       </c>
       <c r="E195" s="8" t="s">
-        <v>814</v>
+        <v>830</v>
       </c>
       <c r="F195" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G195" s="2" t="s">
-        <v>815</v>
+        <v>831</v>
       </c>
       <c r="I195" s="2" t="s">
-        <v>816</v>
+        <v>832</v>
       </c>
       <c r="J195" s="6" t="s">
         <v>964</v>
@@ -12011,7 +12052,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="196" spans="1:12" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:12" ht="180.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A196" s="6" t="s">
         <v>836</v>
       </c>
@@ -12022,19 +12063,19 @@
         <v>805</v>
       </c>
       <c r="D196" s="8" t="s">
-        <v>1174</v>
+        <v>1167</v>
       </c>
       <c r="E196" s="8" t="s">
-        <v>826</v>
+        <v>837</v>
       </c>
       <c r="F196" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G196" s="2" t="s">
-        <v>829</v>
+        <v>834</v>
       </c>
       <c r="I196" s="2" t="s">
-        <v>818</v>
+        <v>835</v>
       </c>
       <c r="J196" s="6" t="s">
         <v>964</v>
@@ -12043,7 +12084,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="197" spans="1:12" ht="165.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:12" ht="210.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A197" s="6" t="s">
         <v>841</v>
       </c>
@@ -12054,19 +12095,19 @@
         <v>805</v>
       </c>
       <c r="D197" s="8" t="s">
-        <v>1190</v>
+        <v>1168</v>
       </c>
       <c r="E197" s="8" t="s">
-        <v>820</v>
+        <v>838</v>
       </c>
       <c r="F197" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G197" s="2" t="s">
-        <v>828</v>
+        <v>839</v>
       </c>
       <c r="I197" s="2" t="s">
-        <v>821</v>
+        <v>840</v>
       </c>
       <c r="J197" s="6" t="s">
         <v>964</v>
@@ -12074,11 +12115,8 @@
       <c r="K197" s="27" t="s">
         <v>911</v>
       </c>
-      <c r="L197" s="8" t="s">
-        <v>962</v>
-      </c>
-    </row>
-    <row r="198" spans="1:12" ht="165.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="198" spans="1:12" ht="195.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A198" s="6" t="s">
         <v>845</v>
       </c>
@@ -12089,19 +12127,19 @@
         <v>805</v>
       </c>
       <c r="D198" s="8" t="s">
-        <v>1175</v>
+        <v>1169</v>
       </c>
       <c r="E198" s="8" t="s">
-        <v>823</v>
+        <v>842</v>
       </c>
       <c r="F198" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G198" s="2" t="s">
-        <v>827</v>
+        <v>843</v>
       </c>
       <c r="I198" s="2" t="s">
-        <v>824</v>
+        <v>844</v>
       </c>
       <c r="J198" s="6" t="s">
         <v>964</v>
@@ -12110,7 +12148,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="199" spans="1:12" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:12" ht="225.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A199" s="6" t="s">
         <v>849</v>
       </c>
@@ -12121,28 +12159,28 @@
         <v>805</v>
       </c>
       <c r="D199" s="8" t="s">
-        <v>1176</v>
+        <v>1181</v>
       </c>
       <c r="E199" s="8" t="s">
-        <v>830</v>
+        <v>846</v>
       </c>
       <c r="F199" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G199" s="2" t="s">
-        <v>831</v>
+        <v>847</v>
       </c>
       <c r="I199" s="2" t="s">
-        <v>832</v>
+        <v>848</v>
       </c>
       <c r="J199" s="6" t="s">
-        <v>964</v>
-      </c>
-      <c r="K199" s="27" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="200" spans="1:12" ht="180.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>853</v>
+      </c>
+      <c r="L199" s="20" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="200" spans="1:12" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A200" s="6" t="s">
         <v>854</v>
       </c>
@@ -12153,28 +12191,28 @@
         <v>805</v>
       </c>
       <c r="D200" s="8" t="s">
-        <v>1177</v>
+        <v>1182</v>
       </c>
       <c r="E200" s="8" t="s">
-        <v>837</v>
+        <v>850</v>
       </c>
       <c r="F200" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G200" s="2" t="s">
-        <v>834</v>
+        <v>851</v>
       </c>
       <c r="I200" s="2" t="s">
-        <v>835</v>
+        <v>852</v>
       </c>
       <c r="J200" s="6" t="s">
-        <v>964</v>
-      </c>
-      <c r="K200" s="27" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="201" spans="1:12" ht="210.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>853</v>
+      </c>
+      <c r="L200" s="20" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="201" spans="1:12" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A201" s="6" t="s">
         <v>858</v>
       </c>
@@ -12185,19 +12223,19 @@
         <v>805</v>
       </c>
       <c r="D201" s="8" t="s">
-        <v>1178</v>
+        <v>1170</v>
       </c>
       <c r="E201" s="8" t="s">
-        <v>838</v>
+        <v>855</v>
       </c>
       <c r="F201" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G201" s="2" t="s">
-        <v>839</v>
+        <v>856</v>
       </c>
       <c r="I201" s="2" t="s">
-        <v>840</v>
+        <v>857</v>
       </c>
       <c r="J201" s="6" t="s">
         <v>964</v>
@@ -12206,7 +12244,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="202" spans="1:12" ht="195.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:12" ht="165.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A202" s="6" t="s">
         <v>861</v>
       </c>
@@ -12217,19 +12255,19 @@
         <v>805</v>
       </c>
       <c r="D202" s="8" t="s">
-        <v>1179</v>
+        <v>1167</v>
       </c>
       <c r="E202" s="8" t="s">
-        <v>842</v>
+        <v>862</v>
       </c>
       <c r="F202" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G202" s="2" t="s">
-        <v>843</v>
+        <v>859</v>
       </c>
       <c r="I202" s="2" t="s">
-        <v>844</v>
+        <v>860</v>
       </c>
       <c r="J202" s="6" t="s">
         <v>964</v>
@@ -12248,29 +12286,26 @@
       <c r="C203" s="8" t="s">
         <v>805</v>
       </c>
-      <c r="D203" s="8" t="s">
-        <v>1191</v>
-      </c>
       <c r="E203" s="8" t="s">
-        <v>846</v>
+        <v>863</v>
       </c>
       <c r="F203" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G203" s="2" t="s">
-        <v>847</v>
+        <v>864</v>
       </c>
       <c r="I203" s="2" t="s">
-        <v>848</v>
-      </c>
-      <c r="J203" s="6" t="s">
-        <v>853</v>
+        <v>865</v>
+      </c>
+      <c r="K203" s="26" t="s">
+        <v>909</v>
       </c>
       <c r="L203" s="20" t="s">
-        <v>963</v>
-      </c>
-    </row>
-    <row r="204" spans="1:12" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="204" spans="1:12" ht="240.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A204" s="6" t="s">
         <v>870</v>
       </c>
@@ -12280,29 +12315,29 @@
       <c r="C204" s="8" t="s">
         <v>805</v>
       </c>
-      <c r="D204" s="8" t="s">
-        <v>1192</v>
-      </c>
       <c r="E204" s="8" t="s">
-        <v>850</v>
+        <v>867</v>
       </c>
       <c r="F204" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G204" s="2" t="s">
-        <v>851</v>
+        <v>868</v>
       </c>
       <c r="I204" s="2" t="s">
-        <v>852</v>
+        <v>869</v>
       </c>
       <c r="J204" s="6" t="s">
         <v>853</v>
       </c>
+      <c r="K204" s="26" t="s">
+        <v>909</v>
+      </c>
       <c r="L204" s="20" t="s">
-        <v>963</v>
-      </c>
-    </row>
-    <row r="205" spans="1:12" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="205" spans="1:12" ht="165.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A205" s="6" t="s">
         <v>873</v>
       </c>
@@ -12312,251 +12347,126 @@
       <c r="C205" s="8" t="s">
         <v>805</v>
       </c>
-      <c r="D205" s="8" t="s">
-        <v>1180</v>
-      </c>
       <c r="E205" s="8" t="s">
-        <v>855</v>
+        <v>820</v>
       </c>
       <c r="F205" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G205" s="2" t="s">
-        <v>856</v>
+        <v>871</v>
       </c>
       <c r="I205" s="2" t="s">
-        <v>857</v>
-      </c>
-      <c r="J205" s="6" t="s">
-        <v>964</v>
-      </c>
-      <c r="K205" s="27" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="206" spans="1:12" ht="165.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>872</v>
+      </c>
+      <c r="J205" s="8" t="s">
+        <v>966</v>
+      </c>
+      <c r="K205" s="20" t="s">
+        <v>909</v>
+      </c>
+      <c r="L205" s="20" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="206" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A206" s="6" t="s">
         <v>878</v>
       </c>
-      <c r="B206" s="10" t="s">
-        <v>735</v>
-      </c>
-      <c r="C206" s="8" t="s">
-        <v>805</v>
+      <c r="B206" s="6" t="s">
+        <v>874</v>
+      </c>
+      <c r="C206" s="6" t="s">
+        <v>874</v>
       </c>
       <c r="D206" s="8" t="s">
-        <v>1177</v>
+        <v>1171</v>
       </c>
       <c r="E206" s="8" t="s">
-        <v>862</v>
+        <v>879</v>
       </c>
       <c r="F206" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G206" s="2" t="s">
-        <v>859</v>
+        <v>880</v>
       </c>
       <c r="I206" s="2" t="s">
-        <v>860</v>
+        <v>881</v>
       </c>
       <c r="J206" s="6" t="s">
         <v>964</v>
       </c>
-      <c r="K206" s="27" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="207" spans="1:12" ht="225.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K206" s="22" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="207" spans="1:12" ht="180" x14ac:dyDescent="0.25">
       <c r="A207" s="6" t="s">
         <v>884</v>
       </c>
-      <c r="B207" s="10" t="s">
-        <v>735</v>
+      <c r="B207" s="6" t="s">
+        <v>874</v>
       </c>
       <c r="C207" s="8" t="s">
-        <v>805</v>
+        <v>875</v>
+      </c>
+      <c r="D207" s="8" t="s">
+        <v>1172</v>
       </c>
       <c r="E207" s="8" t="s">
-        <v>863</v>
+        <v>876</v>
       </c>
       <c r="F207" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G207" s="2" t="s">
-        <v>864</v>
+        <v>882</v>
       </c>
       <c r="I207" s="2" t="s">
-        <v>865</v>
-      </c>
-      <c r="K207" s="26" t="s">
-        <v>909</v>
-      </c>
-      <c r="L207" s="20" t="s">
-        <v>965</v>
-      </c>
-    </row>
-    <row r="208" spans="1:12" ht="240.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>883</v>
+      </c>
+      <c r="J207" s="6" t="s">
+        <v>964</v>
+      </c>
+      <c r="K207" s="22" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="208" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A208" s="6" t="s">
         <v>905</v>
       </c>
-      <c r="B208" s="10" t="s">
-        <v>735</v>
+      <c r="B208" s="6" t="s">
+        <v>874</v>
       </c>
       <c r="C208" s="8" t="s">
-        <v>805</v>
+        <v>885</v>
+      </c>
+      <c r="D208" s="8" t="s">
+        <v>1173</v>
       </c>
       <c r="E208" s="8" t="s">
-        <v>867</v>
+        <v>886</v>
       </c>
       <c r="F208" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G208" s="2" t="s">
-        <v>868</v>
+        <v>877</v>
       </c>
       <c r="I208" s="2" t="s">
-        <v>869</v>
+        <v>887</v>
       </c>
       <c r="J208" s="6" t="s">
-        <v>853</v>
-      </c>
-      <c r="K208" s="26" t="s">
-        <v>909</v>
-      </c>
-      <c r="L208" s="20" t="s">
-        <v>965</v>
-      </c>
-    </row>
-    <row r="209" spans="1:12" ht="165.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A209" s="6" t="s">
-        <v>906</v>
-      </c>
-      <c r="B209" s="10" t="s">
-        <v>735</v>
-      </c>
-      <c r="C209" s="8" t="s">
-        <v>805</v>
-      </c>
-      <c r="E209" s="8" t="s">
-        <v>820</v>
-      </c>
-      <c r="F209" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="G209" s="2" t="s">
-        <v>871</v>
-      </c>
-      <c r="I209" s="2" t="s">
-        <v>872</v>
-      </c>
-      <c r="J209" s="8" t="s">
-        <v>966</v>
-      </c>
-      <c r="K209" s="20" t="s">
-        <v>909</v>
-      </c>
-      <c r="L209" s="20" t="s">
-        <v>967</v>
-      </c>
-    </row>
-    <row r="210" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A210" s="6" t="s">
-        <v>907</v>
-      </c>
-      <c r="B210" s="6" t="s">
-        <v>874</v>
-      </c>
-      <c r="C210" s="6" t="s">
-        <v>874</v>
-      </c>
-      <c r="D210" s="8" t="s">
-        <v>1181</v>
-      </c>
-      <c r="E210" s="8" t="s">
-        <v>879</v>
-      </c>
-      <c r="F210" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="G210" s="2" t="s">
-        <v>880</v>
-      </c>
-      <c r="I210" s="2" t="s">
-        <v>881</v>
-      </c>
-      <c r="J210" s="6" t="s">
         <v>964</v>
       </c>
-      <c r="K210" s="22" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="211" spans="1:12" ht="180" x14ac:dyDescent="0.25">
-      <c r="A211" s="6" t="s">
-        <v>908</v>
-      </c>
-      <c r="B211" s="6" t="s">
-        <v>874</v>
-      </c>
-      <c r="C211" s="8" t="s">
-        <v>875</v>
-      </c>
-      <c r="D211" s="8" t="s">
-        <v>1182</v>
-      </c>
-      <c r="E211" s="8" t="s">
-        <v>876</v>
-      </c>
-      <c r="F211" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="G211" s="2" t="s">
-        <v>882</v>
-      </c>
-      <c r="I211" s="2" t="s">
-        <v>883</v>
-      </c>
-      <c r="J211" s="6" t="s">
-        <v>964</v>
-      </c>
-      <c r="K211" s="22" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="212" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="A212" s="6" t="s">
-        <v>917</v>
-      </c>
-      <c r="B212" s="6" t="s">
-        <v>874</v>
-      </c>
-      <c r="C212" s="8" t="s">
-        <v>885</v>
-      </c>
-      <c r="D212" s="8" t="s">
-        <v>1183</v>
-      </c>
-      <c r="E212" s="8" t="s">
-        <v>886</v>
-      </c>
-      <c r="F212" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="G212" s="2" t="s">
-        <v>877</v>
-      </c>
-      <c r="I212" s="2" t="s">
-        <v>887</v>
-      </c>
-      <c r="J212" s="6" t="s">
-        <v>964</v>
-      </c>
-      <c r="K212" s="22" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="213" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E213" s="8"/>
+      <c r="K208" s="22" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="209" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E209" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12574,17 +12484,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.85546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11.28515625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="16.85546875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="17.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="31.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="29" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="37.5703125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="26.140625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="37.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="12.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="19.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="20.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="16.85546875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="17.5703125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="31.85546875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="29.0" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="37.5703125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="26.140625" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="37.5703125" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="12.5703125" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="19.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">

--- a/Advantage Test Cases.xlsx
+++ b/Advantage Test Cases.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3948" uniqueCount="1196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3944" uniqueCount="1198">
   <si>
     <t>Test Objective</t>
   </si>
@@ -5065,12 +5065,6 @@
     <t>fA_AddRemarkforstudent'sFeedbackofView</t>
   </si>
   <si>
-    <t>fn_PreviewofPreviewLesson</t>
-  </si>
-  <si>
-    <t>fn_ViewofTeachingresources</t>
-  </si>
-  <si>
     <t>fn_ViewofLessonPlan</t>
   </si>
   <si>
@@ -5134,27 +5128,6 @@
     <t>fn_ViewAverageScoreofSelectedSubject</t>
   </si>
   <si>
-    <t>f-_ViewRespectiveSubjectsAndRecentActivitiesofAclass</t>
-  </si>
-  <si>
-    <t>f-_ViewTheRespectiveChaptersAndLessonPlansLearningResourcesofAndTest</t>
-  </si>
-  <si>
-    <t>fn_OfofOftext</t>
-  </si>
-  <si>
-    <t>fn_ViewofThelessons</t>
-  </si>
-  <si>
-    <t>fn_ViewTheUsageofThelesson</t>
-  </si>
-  <si>
-    <t>fn_ViewTheChapterofForchapter</t>
-  </si>
-  <si>
-    <t>fn_ViewAllTheAssetsAssociatedofLearningresource</t>
-  </si>
-  <si>
     <t>fn_FunctionalityToAssignofThestudents</t>
   </si>
   <si>
@@ -5281,9 +5254,6 @@
     <t>fn_DisplayPracticeTestDetails</t>
   </si>
   <si>
-    <t>fn_BookmarkTheResource</t>
-  </si>
-  <si>
     <t>fi_ForMandatoryFieldsOnAddLinkPopupWindow</t>
   </si>
   <si>
@@ -5342,14 +5312,49 @@
   </si>
   <si>
     <t>fn_ViewActivityWisePerformanceOfTheStudentofParticularlesson</t>
+  </si>
+  <si>
+    <t>fn_ViewSubjectsandCalendarofClass</t>
+  </si>
+  <si>
+    <t>fn_ViewRespectiveChaptersAndLessonPlansLearningResourcesQuesBankAndTest</t>
+  </si>
+  <si>
+    <t>fn_VisibilityofText</t>
+  </si>
+  <si>
+    <t>fn_ViewAllLessons</t>
+  </si>
+  <si>
+    <t>fn_ViewUsageListofLesson</t>
+  </si>
+  <si>
+    <t>Usage icon is disabled for every lesson, where from it will be active</t>
+  </si>
+  <si>
+    <t>fn_ViewTheChapterPlanDetails</t>
+  </si>
+  <si>
+    <t>fn_PrintChapterPlanDetails</t>
+  </si>
+  <si>
+    <t>fn_PreviewLesson</t>
+  </si>
+  <si>
+    <t>fn_ViewAllAssetsAssociatedwithLearningresource</t>
+  </si>
+  <si>
+    <t>fn_ViewallTeachingresources</t>
+  </si>
+  <si>
+    <t>fn_BookmarktheResource</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5820,25 +5825,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA209"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="B97" sqref="B97"/>
+    <sheetView tabSelected="1" topLeftCell="A107" workbookViewId="0">
+      <selection activeCell="A107" sqref="A107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="6" width="12.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="6" width="18.42578125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="6" width="16.5703125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="8" width="16.5703125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="6" width="31.85546875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="6" width="33.5703125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="42.7109375" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="25.28515625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="41.140625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" style="6" width="26.0" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" style="6" width="11.42578125" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" style="8" width="52.7109375" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="1" max="1" width="12.140625" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="18.42578125" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="16.5703125" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="16.5703125" style="8" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="31.85546875" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="33.5703125" style="6" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="42.7109375" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="25.28515625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="41.140625" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="26" style="6" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="11.42578125" style="6" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="52.7109375" style="8" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="14.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -8435,7 +8440,7 @@
         <v>347</v>
       </c>
       <c r="D83" s="8" t="s">
-        <v>1125</v>
+        <v>1123</v>
       </c>
       <c r="E83" s="8" t="s">
         <v>352</v>
@@ -8467,7 +8472,7 @@
         <v>347</v>
       </c>
       <c r="D84" s="8" t="s">
-        <v>1174</v>
+        <v>1165</v>
       </c>
       <c r="E84" s="8" t="s">
         <v>355</v>
@@ -8499,7 +8504,7 @@
         <v>347</v>
       </c>
       <c r="D85" s="8" t="s">
-        <v>1183</v>
+        <v>1173</v>
       </c>
       <c r="E85" s="8" t="s">
         <v>360</v>
@@ -8531,7 +8536,7 @@
         <v>347</v>
       </c>
       <c r="D86" s="8" t="s">
-        <v>1184</v>
+        <v>1174</v>
       </c>
       <c r="E86" s="8" t="s">
         <v>364</v>
@@ -8563,7 +8568,7 @@
         <v>368</v>
       </c>
       <c r="D87" s="8" t="s">
-        <v>1186</v>
+        <v>1176</v>
       </c>
       <c r="E87" s="8" t="s">
         <v>370</v>
@@ -8595,7 +8600,7 @@
         <v>368</v>
       </c>
       <c r="D88" s="8" t="s">
-        <v>1187</v>
+        <v>1177</v>
       </c>
       <c r="E88" s="8" t="s">
         <v>374</v>
@@ -8625,7 +8630,7 @@
         <v>377</v>
       </c>
       <c r="D89" s="8" t="s">
-        <v>1188</v>
+        <v>1178</v>
       </c>
       <c r="E89" s="8" t="s">
         <v>382</v>
@@ -8654,7 +8659,7 @@
         <v>381</v>
       </c>
       <c r="D90" s="8" t="s">
-        <v>1189</v>
+        <v>1179</v>
       </c>
       <c r="E90" s="8" t="s">
         <v>384</v>
@@ -8686,7 +8691,7 @@
         <v>381</v>
       </c>
       <c r="D91" s="8" t="s">
-        <v>1190</v>
+        <v>1180</v>
       </c>
       <c r="E91" s="8" t="s">
         <v>386</v>
@@ -8718,7 +8723,7 @@
         <v>381</v>
       </c>
       <c r="D92" s="8" t="s">
-        <v>1191</v>
+        <v>1181</v>
       </c>
       <c r="E92" s="8" t="s">
         <v>390</v>
@@ -8750,7 +8755,7 @@
         <v>381</v>
       </c>
       <c r="D93" s="8" t="s">
-        <v>1192</v>
+        <v>1182</v>
       </c>
       <c r="E93" s="8" t="s">
         <v>394</v>
@@ -8782,7 +8787,7 @@
         <v>381</v>
       </c>
       <c r="D94" s="8" t="s">
-        <v>1193</v>
+        <v>1183</v>
       </c>
       <c r="E94" s="8" t="s">
         <v>398</v>
@@ -8814,7 +8819,7 @@
         <v>381</v>
       </c>
       <c r="D95" s="8" t="s">
-        <v>1194</v>
+        <v>1184</v>
       </c>
       <c r="E95" s="8" t="s">
         <v>403</v>
@@ -8828,8 +8833,8 @@
       <c r="I95" s="2" t="s">
         <v>405</v>
       </c>
-      <c r="K95" s="6" t="s">
-        <v>911</v>
+      <c r="K95" t="s">
+        <v>1012</v>
       </c>
       <c r="L95" s="8" t="s">
         <v>976</v>
@@ -8846,7 +8851,7 @@
         <v>381</v>
       </c>
       <c r="D96" s="8" t="s">
-        <v>1195</v>
+        <v>1185</v>
       </c>
       <c r="E96" s="8" t="s">
         <v>407</v>
@@ -8863,11 +8868,11 @@
       <c r="J96" s="6" t="s">
         <v>972</v>
       </c>
-      <c r="K96" s="6" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="97" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+      <c r="K96" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A97" s="6" t="s">
         <v>415</v>
       </c>
@@ -8878,7 +8883,7 @@
         <v>414</v>
       </c>
       <c r="D97" s="8" t="s">
-        <v>1126</v>
+        <v>1186</v>
       </c>
       <c r="E97" s="8" t="s">
         <v>412</v>
@@ -8895,11 +8900,11 @@
       <c r="J97" s="6" t="s">
         <v>972</v>
       </c>
-      <c r="K97" s="6" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="98" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+      <c r="K97" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A98" s="6" t="s">
         <v>420</v>
       </c>
@@ -8910,7 +8915,7 @@
         <v>414</v>
       </c>
       <c r="D98" s="8" t="s">
-        <v>1127</v>
+        <v>1187</v>
       </c>
       <c r="E98" s="8" t="s">
         <v>416</v>
@@ -8927,8 +8932,8 @@
       <c r="J98" s="6" t="s">
         <v>972</v>
       </c>
-      <c r="K98" s="6" t="s">
-        <v>911</v>
+      <c r="K98" t="s">
+        <v>1012</v>
       </c>
     </row>
     <row r="99" spans="1:12" ht="75" x14ac:dyDescent="0.25">
@@ -8942,7 +8947,7 @@
         <v>425</v>
       </c>
       <c r="D99" s="8" t="s">
-        <v>1128</v>
+        <v>1188</v>
       </c>
       <c r="E99" s="8" t="s">
         <v>424</v>
@@ -8959,8 +8964,8 @@
       <c r="J99" s="6" t="s">
         <v>972</v>
       </c>
-      <c r="K99" s="6" t="s">
-        <v>911</v>
+      <c r="K99" t="s">
+        <v>1012</v>
       </c>
     </row>
     <row r="100" spans="1:12" ht="105" x14ac:dyDescent="0.25">
@@ -8974,7 +8979,7 @@
         <v>422</v>
       </c>
       <c r="D100" s="8" t="s">
-        <v>1129</v>
+        <v>1189</v>
       </c>
       <c r="E100" s="8" t="s">
         <v>427</v>
@@ -8991,8 +8996,8 @@
       <c r="J100" s="6" t="s">
         <v>972</v>
       </c>
-      <c r="K100" s="6" t="s">
-        <v>911</v>
+      <c r="K100" t="s">
+        <v>1012</v>
       </c>
     </row>
     <row r="101" spans="1:12" ht="135" x14ac:dyDescent="0.25">
@@ -9006,7 +9011,7 @@
         <v>422</v>
       </c>
       <c r="D101" s="8" t="s">
-        <v>1130</v>
+        <v>1190</v>
       </c>
       <c r="E101" s="8" t="s">
         <v>429</v>
@@ -9023,8 +9028,11 @@
       <c r="J101" s="6" t="s">
         <v>972</v>
       </c>
-      <c r="K101" s="6" t="s">
-        <v>911</v>
+      <c r="K101" t="s">
+        <v>1012</v>
+      </c>
+      <c r="L101" s="8" t="s">
+        <v>1191</v>
       </c>
     </row>
     <row r="102" spans="1:12" ht="195" x14ac:dyDescent="0.25">
@@ -9038,7 +9046,7 @@
         <v>422</v>
       </c>
       <c r="D102" s="8" t="s">
-        <v>1131</v>
+        <v>1192</v>
       </c>
       <c r="E102" s="8" t="s">
         <v>436</v>
@@ -9069,6 +9077,9 @@
       <c r="C103" s="8" t="s">
         <v>422</v>
       </c>
+      <c r="D103" s="8" t="s">
+        <v>1193</v>
+      </c>
       <c r="E103" s="8" t="s">
         <v>438</v>
       </c>
@@ -9096,7 +9107,7 @@
         <v>442</v>
       </c>
       <c r="D104" s="8" t="s">
-        <v>1103</v>
+        <v>1194</v>
       </c>
       <c r="E104" s="6" t="s">
         <v>443</v>
@@ -9113,8 +9124,8 @@
       <c r="J104" s="6" t="s">
         <v>972</v>
       </c>
-      <c r="K104" s="6" t="s">
-        <v>911</v>
+      <c r="K104" t="s">
+        <v>1012</v>
       </c>
     </row>
     <row r="105" spans="1:12" ht="210" x14ac:dyDescent="0.25">
@@ -9128,7 +9139,7 @@
         <v>442</v>
       </c>
       <c r="D105" s="8" t="s">
-        <v>1132</v>
+        <v>1195</v>
       </c>
       <c r="E105" s="8" t="s">
         <v>446</v>
@@ -9145,8 +9156,8 @@
       <c r="J105" s="6" t="s">
         <v>972</v>
       </c>
-      <c r="K105" s="6" t="s">
-        <v>911</v>
+      <c r="K105" t="s">
+        <v>1012</v>
       </c>
     </row>
     <row r="106" spans="1:12" ht="210" x14ac:dyDescent="0.25">
@@ -9160,7 +9171,7 @@
         <v>442</v>
       </c>
       <c r="D106" s="8" t="s">
-        <v>1104</v>
+        <v>1196</v>
       </c>
       <c r="E106" s="8" t="s">
         <v>451</v>
@@ -9177,8 +9188,8 @@
       <c r="J106" s="6" t="s">
         <v>972</v>
       </c>
-      <c r="K106" s="6" t="s">
-        <v>911</v>
+      <c r="K106" t="s">
+        <v>1012</v>
       </c>
     </row>
     <row r="107" spans="1:12" ht="210" x14ac:dyDescent="0.25">
@@ -9192,7 +9203,7 @@
         <v>442</v>
       </c>
       <c r="D107" s="8" t="s">
-        <v>1175</v>
+        <v>1197</v>
       </c>
       <c r="E107" s="8" t="s">
         <v>455</v>
@@ -9203,8 +9214,8 @@
       <c r="I107" s="2" t="s">
         <v>457</v>
       </c>
-      <c r="K107" s="6" t="s">
-        <v>911</v>
+      <c r="K107" t="s">
+        <v>1012</v>
       </c>
       <c r="L107" s="20" t="s">
         <v>975</v>
@@ -9221,7 +9232,7 @@
         <v>458</v>
       </c>
       <c r="D108" s="8" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
       <c r="E108" s="6" t="s">
         <v>460</v>
@@ -9250,7 +9261,7 @@
         <v>458</v>
       </c>
       <c r="D109" s="8" t="s">
-        <v>1106</v>
+        <v>1104</v>
       </c>
       <c r="E109" s="8" t="s">
         <v>620</v>
@@ -9279,7 +9290,7 @@
         <v>458</v>
       </c>
       <c r="D110" s="8" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
       <c r="E110" s="8" t="s">
         <v>621</v>
@@ -9308,7 +9319,7 @@
         <v>464</v>
       </c>
       <c r="D111" s="8" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
       <c r="E111" s="8" t="s">
         <v>465</v>
@@ -9337,7 +9348,7 @@
         <v>468</v>
       </c>
       <c r="D112" s="8" t="s">
-        <v>1109</v>
+        <v>1107</v>
       </c>
       <c r="E112" s="8" t="s">
         <v>471</v>
@@ -9366,7 +9377,7 @@
         <v>472</v>
       </c>
       <c r="D113" s="8" t="s">
-        <v>1133</v>
+        <v>1124</v>
       </c>
       <c r="E113" s="8" t="s">
         <v>474</v>
@@ -9395,7 +9406,7 @@
         <v>481</v>
       </c>
       <c r="D114" s="8" t="s">
-        <v>1134</v>
+        <v>1125</v>
       </c>
       <c r="E114" s="8" t="s">
         <v>424</v>
@@ -9427,7 +9438,7 @@
         <v>477</v>
       </c>
       <c r="D115" s="8" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
       <c r="E115" s="8" t="s">
         <v>478</v>
@@ -9459,7 +9470,7 @@
         <v>486</v>
       </c>
       <c r="D116" s="8" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="E116" s="8" t="s">
         <v>487</v>
@@ -9491,7 +9502,7 @@
         <v>490</v>
       </c>
       <c r="D117" s="8" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="E117" s="8" t="s">
         <v>491</v>
@@ -9523,7 +9534,7 @@
         <v>490</v>
       </c>
       <c r="D118" s="8" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
       <c r="E118" s="8" t="s">
         <v>495</v>
@@ -9590,7 +9601,7 @@
         <v>498</v>
       </c>
       <c r="D120" s="8" t="s">
-        <v>1135</v>
+        <v>1126</v>
       </c>
       <c r="E120" s="8" t="s">
         <v>505</v>
@@ -9622,7 +9633,7 @@
         <v>498</v>
       </c>
       <c r="D121" s="8" t="s">
-        <v>1176</v>
+        <v>1166</v>
       </c>
       <c r="E121" s="8" t="s">
         <v>508</v>
@@ -9658,7 +9669,7 @@
         <v>498</v>
       </c>
       <c r="D122" s="8" t="s">
-        <v>1136</v>
+        <v>1127</v>
       </c>
       <c r="E122" s="8" t="s">
         <v>513</v>
@@ -9691,7 +9702,7 @@
         <v>498</v>
       </c>
       <c r="D123" s="8" t="s">
-        <v>1185</v>
+        <v>1175</v>
       </c>
       <c r="E123" s="8" t="s">
         <v>521</v>
@@ -9759,7 +9770,7 @@
         <v>517</v>
       </c>
       <c r="D125" s="8" t="s">
-        <v>1135</v>
+        <v>1126</v>
       </c>
       <c r="E125" s="8" t="s">
         <v>525</v>
@@ -9791,7 +9802,7 @@
         <v>517</v>
       </c>
       <c r="D126" s="8" t="s">
-        <v>1137</v>
+        <v>1128</v>
       </c>
       <c r="E126" s="8" t="s">
         <v>528</v>
@@ -9824,7 +9835,7 @@
         <v>517</v>
       </c>
       <c r="D127" s="8" t="s">
-        <v>1138</v>
+        <v>1129</v>
       </c>
       <c r="E127" s="8" t="s">
         <v>533</v>
@@ -9857,7 +9868,7 @@
         <v>517</v>
       </c>
       <c r="D128" s="8" t="s">
-        <v>1139</v>
+        <v>1130</v>
       </c>
       <c r="E128" s="8" t="s">
         <v>521</v>
@@ -9922,7 +9933,7 @@
         <v>540</v>
       </c>
       <c r="D130" s="8" t="s">
-        <v>1140</v>
+        <v>1131</v>
       </c>
       <c r="E130" s="8" t="s">
         <v>548</v>
@@ -9955,7 +9966,7 @@
         <v>552</v>
       </c>
       <c r="D131" s="8" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="E131" s="8" t="s">
         <v>553</v>
@@ -9987,7 +9998,7 @@
         <v>552</v>
       </c>
       <c r="D132" s="8" t="s">
-        <v>1141</v>
+        <v>1132</v>
       </c>
       <c r="E132" s="8" t="s">
         <v>557</v>
@@ -10019,7 +10030,7 @@
         <v>561</v>
       </c>
       <c r="D133" s="8" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
       <c r="E133" s="8" t="s">
         <v>562</v>
@@ -10051,7 +10062,7 @@
         <v>561</v>
       </c>
       <c r="D134" s="8" t="s">
-        <v>1142</v>
+        <v>1133</v>
       </c>
       <c r="E134" s="8" t="s">
         <v>565</v>
@@ -10083,7 +10094,7 @@
         <v>561</v>
       </c>
       <c r="D135" s="8" t="s">
-        <v>1143</v>
+        <v>1134</v>
       </c>
       <c r="E135" s="8" t="s">
         <v>568</v>
@@ -10115,7 +10126,7 @@
         <v>561</v>
       </c>
       <c r="D136" s="8" t="s">
-        <v>1144</v>
+        <v>1135</v>
       </c>
       <c r="E136" s="8" t="s">
         <v>572</v>
@@ -10147,7 +10158,7 @@
         <v>561</v>
       </c>
       <c r="D137" s="8" t="s">
-        <v>1145</v>
+        <v>1136</v>
       </c>
       <c r="E137" s="8" t="s">
         <v>576</v>
@@ -10179,7 +10190,7 @@
         <v>581</v>
       </c>
       <c r="D138" s="8" t="s">
-        <v>1146</v>
+        <v>1137</v>
       </c>
       <c r="E138" s="6" t="s">
         <v>582</v>
@@ -10211,7 +10222,7 @@
         <v>581</v>
       </c>
       <c r="D139" s="8" t="s">
-        <v>1147</v>
+        <v>1138</v>
       </c>
       <c r="E139" s="8" t="s">
         <v>625</v>
@@ -10243,7 +10254,7 @@
         <v>581</v>
       </c>
       <c r="D140" s="8" t="s">
-        <v>1148</v>
+        <v>1139</v>
       </c>
       <c r="E140" s="8" t="s">
         <v>628</v>
@@ -10275,7 +10286,7 @@
         <v>581</v>
       </c>
       <c r="D141" s="8" t="s">
-        <v>1149</v>
+        <v>1140</v>
       </c>
       <c r="E141" s="8" t="s">
         <v>586</v>
@@ -10307,7 +10318,7 @@
         <v>594</v>
       </c>
       <c r="D142" s="8" t="s">
-        <v>1177</v>
+        <v>1167</v>
       </c>
       <c r="E142" s="8" t="s">
         <v>593</v>
@@ -10342,7 +10353,7 @@
         <v>595</v>
       </c>
       <c r="D143" s="8" t="s">
-        <v>1150</v>
+        <v>1141</v>
       </c>
       <c r="E143" s="8" t="s">
         <v>596</v>
@@ -10374,7 +10385,7 @@
         <v>595</v>
       </c>
       <c r="D144" s="8" t="s">
-        <v>1151</v>
+        <v>1142</v>
       </c>
       <c r="E144" s="8" t="s">
         <v>600</v>
@@ -10438,7 +10449,7 @@
         <v>595</v>
       </c>
       <c r="D146" s="8" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
       <c r="E146" s="8" t="s">
         <v>609</v>
@@ -10470,7 +10481,7 @@
         <v>595</v>
       </c>
       <c r="D147" s="8" t="s">
-        <v>1151</v>
+        <v>1142</v>
       </c>
       <c r="E147" s="8" t="s">
         <v>612</v>
@@ -10769,7 +10780,7 @@
         <v>665</v>
       </c>
       <c r="D157" s="8" t="s">
-        <v>1152</v>
+        <v>1143</v>
       </c>
       <c r="E157" s="8" t="s">
         <v>694</v>
@@ -10834,7 +10845,7 @@
         <v>665</v>
       </c>
       <c r="D159" s="8" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="E159" s="8" t="s">
         <v>675</v>
@@ -10866,7 +10877,7 @@
         <v>665</v>
       </c>
       <c r="D160" s="8" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
       <c r="E160" s="8" t="s">
         <v>679</v>
@@ -10898,7 +10909,7 @@
         <v>665</v>
       </c>
       <c r="D161" s="8" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="E161" s="8" t="s">
         <v>683</v>
@@ -10930,7 +10941,7 @@
         <v>665</v>
       </c>
       <c r="D162" s="8" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="E162" s="8" t="s">
         <v>687</v>
@@ -10962,7 +10973,7 @@
         <v>665</v>
       </c>
       <c r="D163" s="8" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
       <c r="E163" s="8" t="s">
         <v>691</v>
@@ -10994,7 +11005,7 @@
         <v>699</v>
       </c>
       <c r="D164" s="8" t="s">
-        <v>1178</v>
+        <v>1168</v>
       </c>
       <c r="E164" s="8" t="s">
         <v>700</v>
@@ -11023,7 +11034,7 @@
         <v>699</v>
       </c>
       <c r="D165" s="8" t="s">
-        <v>1153</v>
+        <v>1144</v>
       </c>
       <c r="E165" s="8" t="s">
         <v>704</v>
@@ -11055,7 +11066,7 @@
         <v>699</v>
       </c>
       <c r="D166" s="8" t="s">
-        <v>1120</v>
+        <v>1118</v>
       </c>
       <c r="E166" s="8" t="s">
         <v>707</v>
@@ -11087,7 +11098,7 @@
         <v>699</v>
       </c>
       <c r="D167" s="8" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="E167" s="8" t="s">
         <v>710</v>
@@ -11148,7 +11159,7 @@
         <v>713</v>
       </c>
       <c r="D169" s="8" t="s">
-        <v>1154</v>
+        <v>1145</v>
       </c>
       <c r="E169" s="8" t="s">
         <v>718</v>
@@ -11180,7 +11191,7 @@
         <v>713</v>
       </c>
       <c r="D170" s="8" t="s">
-        <v>1155</v>
+        <v>1146</v>
       </c>
       <c r="E170" s="8" t="s">
         <v>722</v>
@@ -11212,7 +11223,7 @@
         <v>713</v>
       </c>
       <c r="D171" s="8" t="s">
-        <v>1156</v>
+        <v>1147</v>
       </c>
       <c r="E171" s="8" t="s">
         <v>726</v>
@@ -11244,7 +11255,7 @@
         <v>713</v>
       </c>
       <c r="D172" s="8" t="s">
-        <v>1157</v>
+        <v>1148</v>
       </c>
       <c r="E172" s="10" t="s">
         <v>731</v>
@@ -11293,7 +11304,7 @@
         <v>735</v>
       </c>
       <c r="D173" s="8" t="s">
-        <v>1158</v>
+        <v>1149</v>
       </c>
       <c r="E173" s="14" t="s">
         <v>748</v>
@@ -11371,7 +11382,7 @@
         <v>736</v>
       </c>
       <c r="D175" s="8" t="s">
-        <v>1179</v>
+        <v>1169</v>
       </c>
       <c r="E175" s="8" t="s">
         <v>741</v>
@@ -11511,7 +11522,7 @@
         <v>753</v>
       </c>
       <c r="D179" s="8" t="s">
-        <v>1159</v>
+        <v>1150</v>
       </c>
       <c r="E179" s="8" t="s">
         <v>764</v>
@@ -11543,7 +11554,7 @@
         <v>753</v>
       </c>
       <c r="D180" s="8" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
       <c r="E180" s="8" t="s">
         <v>768</v>
@@ -11575,7 +11586,7 @@
         <v>753</v>
       </c>
       <c r="D181" s="8" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
       <c r="E181" s="8" t="s">
         <v>768</v>
@@ -11608,7 +11619,7 @@
         <v>753</v>
       </c>
       <c r="D182" s="8" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
       <c r="E182" s="8" t="s">
         <v>768</v>
@@ -11641,7 +11652,7 @@
         <v>753</v>
       </c>
       <c r="D183" s="8" t="s">
-        <v>1160</v>
+        <v>1151</v>
       </c>
       <c r="E183" s="8" t="s">
         <v>776</v>
@@ -11673,7 +11684,7 @@
         <v>779</v>
       </c>
       <c r="D184" s="8" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
       <c r="E184" s="6" t="s">
         <v>786</v>
@@ -11705,7 +11716,7 @@
         <v>784</v>
       </c>
       <c r="D185" s="8" t="s">
-        <v>1161</v>
+        <v>1152</v>
       </c>
       <c r="E185" s="6" t="s">
         <v>785</v>
@@ -11836,7 +11847,7 @@
         <v>805</v>
       </c>
       <c r="D189" s="8" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="E189" s="8" t="s">
         <v>806</v>
@@ -11868,7 +11879,7 @@
         <v>805</v>
       </c>
       <c r="D190" s="8" t="s">
-        <v>1162</v>
+        <v>1153</v>
       </c>
       <c r="E190" s="8" t="s">
         <v>809</v>
@@ -11900,7 +11911,7 @@
         <v>805</v>
       </c>
       <c r="D191" s="8" t="s">
-        <v>1163</v>
+        <v>1154</v>
       </c>
       <c r="E191" s="8" t="s">
         <v>814</v>
@@ -11932,7 +11943,7 @@
         <v>805</v>
       </c>
       <c r="D192" s="8" t="s">
-        <v>1164</v>
+        <v>1155</v>
       </c>
       <c r="E192" s="8" t="s">
         <v>826</v>
@@ -11964,7 +11975,7 @@
         <v>805</v>
       </c>
       <c r="D193" s="8" t="s">
-        <v>1180</v>
+        <v>1170</v>
       </c>
       <c r="E193" s="8" t="s">
         <v>820</v>
@@ -11999,7 +12010,7 @@
         <v>805</v>
       </c>
       <c r="D194" s="8" t="s">
-        <v>1165</v>
+        <v>1156</v>
       </c>
       <c r="E194" s="8" t="s">
         <v>823</v>
@@ -12031,7 +12042,7 @@
         <v>805</v>
       </c>
       <c r="D195" s="8" t="s">
-        <v>1166</v>
+        <v>1157</v>
       </c>
       <c r="E195" s="8" t="s">
         <v>830</v>
@@ -12063,7 +12074,7 @@
         <v>805</v>
       </c>
       <c r="D196" s="8" t="s">
-        <v>1167</v>
+        <v>1158</v>
       </c>
       <c r="E196" s="8" t="s">
         <v>837</v>
@@ -12095,7 +12106,7 @@
         <v>805</v>
       </c>
       <c r="D197" s="8" t="s">
-        <v>1168</v>
+        <v>1159</v>
       </c>
       <c r="E197" s="8" t="s">
         <v>838</v>
@@ -12127,7 +12138,7 @@
         <v>805</v>
       </c>
       <c r="D198" s="8" t="s">
-        <v>1169</v>
+        <v>1160</v>
       </c>
       <c r="E198" s="8" t="s">
         <v>842</v>
@@ -12159,7 +12170,7 @@
         <v>805</v>
       </c>
       <c r="D199" s="8" t="s">
-        <v>1181</v>
+        <v>1171</v>
       </c>
       <c r="E199" s="8" t="s">
         <v>846</v>
@@ -12191,7 +12202,7 @@
         <v>805</v>
       </c>
       <c r="D200" s="8" t="s">
-        <v>1182</v>
+        <v>1172</v>
       </c>
       <c r="E200" s="8" t="s">
         <v>850</v>
@@ -12223,7 +12234,7 @@
         <v>805</v>
       </c>
       <c r="D201" s="8" t="s">
-        <v>1170</v>
+        <v>1161</v>
       </c>
       <c r="E201" s="8" t="s">
         <v>855</v>
@@ -12255,7 +12266,7 @@
         <v>805</v>
       </c>
       <c r="D202" s="8" t="s">
-        <v>1167</v>
+        <v>1158</v>
       </c>
       <c r="E202" s="8" t="s">
         <v>862</v>
@@ -12380,7 +12391,7 @@
         <v>874</v>
       </c>
       <c r="D206" s="8" t="s">
-        <v>1171</v>
+        <v>1162</v>
       </c>
       <c r="E206" s="8" t="s">
         <v>879</v>
@@ -12412,7 +12423,7 @@
         <v>875</v>
       </c>
       <c r="D207" s="8" t="s">
-        <v>1172</v>
+        <v>1163</v>
       </c>
       <c r="E207" s="8" t="s">
         <v>876</v>
@@ -12444,7 +12455,7 @@
         <v>885</v>
       </c>
       <c r="D208" s="8" t="s">
-        <v>1173</v>
+        <v>1164</v>
       </c>
       <c r="E208" s="8" t="s">
         <v>886</v>
@@ -12484,17 +12495,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="20.85546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="11.28515625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="16.85546875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="17.5703125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="31.85546875" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="29.0" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="37.5703125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="26.140625" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="37.5703125" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="12.5703125" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="19.7109375" collapsed="true"/>
+    <col min="1" max="1" width="20.85546875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11.28515625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="16.85546875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="17.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="31.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="29" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="37.5703125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="26.140625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="37.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="12.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="19.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">

--- a/Advantage Test Cases.xlsx
+++ b/Advantage Test Cases.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3944" uniqueCount="1198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3949" uniqueCount="1202">
   <si>
     <t>Test Objective</t>
   </si>
@@ -5065,24 +5065,6 @@
     <t>fA_AddRemarkforstudent'sFeedbackofView</t>
   </si>
   <si>
-    <t>fn_ViewofLessonPlan</t>
-  </si>
-  <si>
-    <t>fn_ViewofRecommendedLesson</t>
-  </si>
-  <si>
-    <t>fn_ViewofMyLessons</t>
-  </si>
-  <si>
-    <t>fn_FunctionalityofPlanLessons</t>
-  </si>
-  <si>
-    <t>fn_FunctionalityToDeleteofMyLessons)</t>
-  </si>
-  <si>
-    <t>fi_FunctionalityofLearningResource</t>
-  </si>
-  <si>
     <t>fi_FunctionalityofLearningResources</t>
   </si>
   <si>
@@ -5128,12 +5110,6 @@
     <t>fn_ViewAverageScoreofSelectedSubject</t>
   </si>
   <si>
-    <t>fn_FunctionalityToAssignofThestudents</t>
-  </si>
-  <si>
-    <t>fi_OfofOftext</t>
-  </si>
-  <si>
     <t>fi_FunctionalityToCreateofSelectingchapter</t>
   </si>
   <si>
@@ -5348,6 +5324,42 @@
   </si>
   <si>
     <t>fn_BookmarktheResource</t>
+  </si>
+  <si>
+    <t>fn_ViewLessonPlan</t>
+  </si>
+  <si>
+    <t>fn_ViewRecommendedLesson</t>
+  </si>
+  <si>
+    <t>fn_ViewMyLessons</t>
+  </si>
+  <si>
+    <t>fn_PlanLessons</t>
+  </si>
+  <si>
+    <t>fn_DeleteMyLessons</t>
+  </si>
+  <si>
+    <t>fn_AddLessonPlan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lesson Plans-Add Plan Lessons </t>
+  </si>
+  <si>
+    <t>fn_AssignLessonToStudents</t>
+  </si>
+  <si>
+    <t>fn_VisibilityofLearningResourceText</t>
+  </si>
+  <si>
+    <t>fn_PreviewLearningResource</t>
+  </si>
+  <si>
+    <t>fn_FilterLearningResources</t>
+  </si>
+  <si>
+    <t>fn_SearchLearningResources</t>
   </si>
 </sst>
 </file>
@@ -5823,10 +5835,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA209"/>
+  <dimension ref="A1:AA210"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A107" workbookViewId="0">
-      <selection activeCell="A107" sqref="A107"/>
+    <sheetView tabSelected="1" topLeftCell="A117" workbookViewId="0">
+      <selection activeCell="D118" sqref="D118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8440,7 +8452,7 @@
         <v>347</v>
       </c>
       <c r="D83" s="8" t="s">
-        <v>1123</v>
+        <v>1117</v>
       </c>
       <c r="E83" s="8" t="s">
         <v>352</v>
@@ -8472,7 +8484,7 @@
         <v>347</v>
       </c>
       <c r="D84" s="8" t="s">
-        <v>1165</v>
+        <v>1157</v>
       </c>
       <c r="E84" s="8" t="s">
         <v>355</v>
@@ -8504,7 +8516,7 @@
         <v>347</v>
       </c>
       <c r="D85" s="8" t="s">
-        <v>1173</v>
+        <v>1165</v>
       </c>
       <c r="E85" s="8" t="s">
         <v>360</v>
@@ -8536,7 +8548,7 @@
         <v>347</v>
       </c>
       <c r="D86" s="8" t="s">
-        <v>1174</v>
+        <v>1166</v>
       </c>
       <c r="E86" s="8" t="s">
         <v>364</v>
@@ -8568,7 +8580,7 @@
         <v>368</v>
       </c>
       <c r="D87" s="8" t="s">
-        <v>1176</v>
+        <v>1168</v>
       </c>
       <c r="E87" s="8" t="s">
         <v>370</v>
@@ -8600,7 +8612,7 @@
         <v>368</v>
       </c>
       <c r="D88" s="8" t="s">
-        <v>1177</v>
+        <v>1169</v>
       </c>
       <c r="E88" s="8" t="s">
         <v>374</v>
@@ -8630,7 +8642,7 @@
         <v>377</v>
       </c>
       <c r="D89" s="8" t="s">
-        <v>1178</v>
+        <v>1170</v>
       </c>
       <c r="E89" s="8" t="s">
         <v>382</v>
@@ -8659,7 +8671,7 @@
         <v>381</v>
       </c>
       <c r="D90" s="8" t="s">
-        <v>1179</v>
+        <v>1171</v>
       </c>
       <c r="E90" s="8" t="s">
         <v>384</v>
@@ -8691,7 +8703,7 @@
         <v>381</v>
       </c>
       <c r="D91" s="8" t="s">
-        <v>1180</v>
+        <v>1172</v>
       </c>
       <c r="E91" s="8" t="s">
         <v>386</v>
@@ -8723,7 +8735,7 @@
         <v>381</v>
       </c>
       <c r="D92" s="8" t="s">
-        <v>1181</v>
+        <v>1173</v>
       </c>
       <c r="E92" s="8" t="s">
         <v>390</v>
@@ -8755,7 +8767,7 @@
         <v>381</v>
       </c>
       <c r="D93" s="8" t="s">
-        <v>1182</v>
+        <v>1174</v>
       </c>
       <c r="E93" s="8" t="s">
         <v>394</v>
@@ -8787,7 +8799,7 @@
         <v>381</v>
       </c>
       <c r="D94" s="8" t="s">
-        <v>1183</v>
+        <v>1175</v>
       </c>
       <c r="E94" s="8" t="s">
         <v>398</v>
@@ -8819,7 +8831,7 @@
         <v>381</v>
       </c>
       <c r="D95" s="8" t="s">
-        <v>1184</v>
+        <v>1176</v>
       </c>
       <c r="E95" s="8" t="s">
         <v>403</v>
@@ -8851,7 +8863,7 @@
         <v>381</v>
       </c>
       <c r="D96" s="8" t="s">
-        <v>1185</v>
+        <v>1177</v>
       </c>
       <c r="E96" s="8" t="s">
         <v>407</v>
@@ -8883,7 +8895,7 @@
         <v>414</v>
       </c>
       <c r="D97" s="8" t="s">
-        <v>1186</v>
+        <v>1178</v>
       </c>
       <c r="E97" s="8" t="s">
         <v>412</v>
@@ -8915,7 +8927,7 @@
         <v>414</v>
       </c>
       <c r="D98" s="8" t="s">
-        <v>1187</v>
+        <v>1179</v>
       </c>
       <c r="E98" s="8" t="s">
         <v>416</v>
@@ -8947,7 +8959,7 @@
         <v>425</v>
       </c>
       <c r="D99" s="8" t="s">
-        <v>1188</v>
+        <v>1180</v>
       </c>
       <c r="E99" s="8" t="s">
         <v>424</v>
@@ -8979,7 +8991,7 @@
         <v>422</v>
       </c>
       <c r="D100" s="8" t="s">
-        <v>1189</v>
+        <v>1181</v>
       </c>
       <c r="E100" s="8" t="s">
         <v>427</v>
@@ -9011,7 +9023,7 @@
         <v>422</v>
       </c>
       <c r="D101" s="8" t="s">
-        <v>1190</v>
+        <v>1182</v>
       </c>
       <c r="E101" s="8" t="s">
         <v>429</v>
@@ -9032,7 +9044,7 @@
         <v>1012</v>
       </c>
       <c r="L101" s="8" t="s">
-        <v>1191</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="102" spans="1:12" ht="195" x14ac:dyDescent="0.25">
@@ -9046,7 +9058,7 @@
         <v>422</v>
       </c>
       <c r="D102" s="8" t="s">
-        <v>1192</v>
+        <v>1184</v>
       </c>
       <c r="E102" s="8" t="s">
         <v>436</v>
@@ -9078,7 +9090,7 @@
         <v>422</v>
       </c>
       <c r="D103" s="8" t="s">
-        <v>1193</v>
+        <v>1185</v>
       </c>
       <c r="E103" s="8" t="s">
         <v>438</v>
@@ -9107,7 +9119,7 @@
         <v>442</v>
       </c>
       <c r="D104" s="8" t="s">
-        <v>1194</v>
+        <v>1186</v>
       </c>
       <c r="E104" s="6" t="s">
         <v>443</v>
@@ -9139,7 +9151,7 @@
         <v>442</v>
       </c>
       <c r="D105" s="8" t="s">
-        <v>1195</v>
+        <v>1187</v>
       </c>
       <c r="E105" s="8" t="s">
         <v>446</v>
@@ -9171,7 +9183,7 @@
         <v>442</v>
       </c>
       <c r="D106" s="8" t="s">
-        <v>1196</v>
+        <v>1188</v>
       </c>
       <c r="E106" s="8" t="s">
         <v>451</v>
@@ -9203,7 +9215,7 @@
         <v>442</v>
       </c>
       <c r="D107" s="8" t="s">
-        <v>1197</v>
+        <v>1189</v>
       </c>
       <c r="E107" s="8" t="s">
         <v>455</v>
@@ -9232,7 +9244,7 @@
         <v>458</v>
       </c>
       <c r="D108" s="8" t="s">
-        <v>1103</v>
+        <v>1190</v>
       </c>
       <c r="E108" s="6" t="s">
         <v>460</v>
@@ -9261,7 +9273,7 @@
         <v>458</v>
       </c>
       <c r="D109" s="8" t="s">
-        <v>1104</v>
+        <v>1191</v>
       </c>
       <c r="E109" s="8" t="s">
         <v>620</v>
@@ -9275,8 +9287,8 @@
       <c r="J109" s="6" t="s">
         <v>972</v>
       </c>
-      <c r="K109" s="6" t="s">
-        <v>911</v>
+      <c r="K109" t="s">
+        <v>1012</v>
       </c>
     </row>
     <row r="110" spans="1:12" ht="135" x14ac:dyDescent="0.25">
@@ -9290,7 +9302,7 @@
         <v>458</v>
       </c>
       <c r="D110" s="8" t="s">
-        <v>1105</v>
+        <v>1192</v>
       </c>
       <c r="E110" s="8" t="s">
         <v>621</v>
@@ -9304,8 +9316,8 @@
       <c r="J110" s="6" t="s">
         <v>972</v>
       </c>
-      <c r="K110" s="6" t="s">
-        <v>911</v>
+      <c r="K110" t="s">
+        <v>1012</v>
       </c>
     </row>
     <row r="111" spans="1:12" ht="150" x14ac:dyDescent="0.25">
@@ -9319,7 +9331,7 @@
         <v>464</v>
       </c>
       <c r="D111" s="8" t="s">
-        <v>1106</v>
+        <v>1193</v>
       </c>
       <c r="E111" s="8" t="s">
         <v>465</v>
@@ -9333,11 +9345,11 @@
       <c r="J111" s="6" t="s">
         <v>972</v>
       </c>
-      <c r="K111" s="6" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="112" spans="1:12" ht="150" x14ac:dyDescent="0.25">
+      <c r="K111" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A112" s="6" t="s">
         <v>480</v>
       </c>
@@ -9345,28 +9357,19 @@
         <v>411</v>
       </c>
       <c r="C112" s="8" t="s">
-        <v>468</v>
+        <v>1196</v>
       </c>
       <c r="D112" s="8" t="s">
-        <v>1107</v>
-      </c>
-      <c r="E112" s="8" t="s">
-        <v>471</v>
-      </c>
-      <c r="G112" s="2" t="s">
-        <v>469</v>
-      </c>
-      <c r="I112" s="2" t="s">
-        <v>470</v>
-      </c>
-      <c r="J112" s="6" t="s">
-        <v>972</v>
-      </c>
-      <c r="K112" s="6" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="113" spans="1:12" ht="210" x14ac:dyDescent="0.25">
+        <v>1195</v>
+      </c>
+      <c r="E112" s="8"/>
+      <c r="G112" s="2"/>
+      <c r="I112" s="2"/>
+      <c r="K112" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12" ht="150" x14ac:dyDescent="0.25">
       <c r="A113" s="6" t="s">
         <v>484</v>
       </c>
@@ -9374,28 +9377,28 @@
         <v>411</v>
       </c>
       <c r="C113" s="8" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="D113" s="8" t="s">
-        <v>1124</v>
+        <v>1194</v>
       </c>
       <c r="E113" s="8" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="I113" s="2" t="s">
-        <v>476</v>
+        <v>470</v>
+      </c>
+      <c r="J113" s="6" t="s">
+        <v>972</v>
       </c>
       <c r="K113" s="6" t="s">
         <v>911</v>
       </c>
-      <c r="L113" s="8" t="s">
-        <v>946</v>
-      </c>
-    </row>
-    <row r="114" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+    </row>
+    <row r="114" spans="1:12" ht="210" x14ac:dyDescent="0.25">
       <c r="A114" s="6" t="s">
         <v>485</v>
       </c>
@@ -9403,54 +9406,51 @@
         <v>411</v>
       </c>
       <c r="C114" s="8" t="s">
-        <v>481</v>
+        <v>472</v>
       </c>
       <c r="D114" s="8" t="s">
-        <v>1125</v>
+        <v>1197</v>
       </c>
       <c r="E114" s="8" t="s">
-        <v>424</v>
-      </c>
-      <c r="F114" s="6" t="s">
-        <v>38</v>
+        <v>474</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>418</v>
+        <v>475</v>
       </c>
       <c r="I114" s="2" t="s">
-        <v>947</v>
-      </c>
-      <c r="J114" s="6" t="s">
-        <v>972</v>
-      </c>
-      <c r="K114" s="6" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="115" spans="1:12" ht="150" x14ac:dyDescent="0.25">
+        <v>476</v>
+      </c>
+      <c r="K114" t="s">
+        <v>1012</v>
+      </c>
+      <c r="L114" s="8" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A115" s="6" t="s">
         <v>494</v>
       </c>
       <c r="B115" s="6" t="s">
         <v>411</v>
       </c>
-      <c r="C115" s="9" t="s">
-        <v>477</v>
+      <c r="C115" s="8" t="s">
+        <v>481</v>
       </c>
       <c r="D115" s="8" t="s">
-        <v>1108</v>
+        <v>1198</v>
       </c>
       <c r="E115" s="8" t="s">
-        <v>478</v>
+        <v>424</v>
       </c>
       <c r="F115" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>482</v>
+        <v>418</v>
       </c>
       <c r="I115" s="2" t="s">
-        <v>483</v>
+        <v>947</v>
       </c>
       <c r="J115" s="6" t="s">
         <v>972</v>
@@ -9459,30 +9459,30 @@
         <v>911</v>
       </c>
     </row>
-    <row r="116" spans="1:12" ht="165" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:12" ht="150" x14ac:dyDescent="0.25">
       <c r="A116" s="6" t="s">
         <v>499</v>
       </c>
       <c r="B116" s="6" t="s">
         <v>411</v>
       </c>
-      <c r="C116" s="8" t="s">
-        <v>486</v>
+      <c r="C116" s="9" t="s">
+        <v>477</v>
       </c>
       <c r="D116" s="8" t="s">
-        <v>1109</v>
+        <v>1199</v>
       </c>
       <c r="E116" s="8" t="s">
-        <v>487</v>
+        <v>478</v>
       </c>
       <c r="F116" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="I116" s="2" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="J116" s="6" t="s">
         <v>972</v>
@@ -9491,7 +9491,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="117" spans="1:12" ht="135" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:12" ht="165" x14ac:dyDescent="0.25">
       <c r="A117" s="6" t="s">
         <v>504</v>
       </c>
@@ -9499,22 +9499,22 @@
         <v>411</v>
       </c>
       <c r="C117" s="8" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="D117" s="8" t="s">
-        <v>1109</v>
+        <v>1200</v>
       </c>
       <c r="E117" s="8" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="F117" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="I117" s="2" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="J117" s="6" t="s">
         <v>972</v>
@@ -9523,7 +9523,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="118" spans="1:12" ht="150" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:12" ht="135" x14ac:dyDescent="0.25">
       <c r="A118" s="6" t="s">
         <v>509</v>
       </c>
@@ -9534,19 +9534,19 @@
         <v>490</v>
       </c>
       <c r="D118" s="8" t="s">
-        <v>1110</v>
+        <v>1201</v>
       </c>
       <c r="E118" s="8" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="F118" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="I118" s="2" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="J118" s="6" t="s">
         <v>972</v>
@@ -9555,7 +9555,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="119" spans="1:12" ht="315" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:12" ht="150" x14ac:dyDescent="0.25">
       <c r="A119" s="6" t="s">
         <v>512</v>
       </c>
@@ -9563,34 +9563,31 @@
         <v>411</v>
       </c>
       <c r="C119" s="8" t="s">
-        <v>498</v>
+        <v>490</v>
       </c>
       <c r="D119" s="8" t="s">
-        <v>999</v>
+        <v>1104</v>
       </c>
       <c r="E119" s="8" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="F119" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>501</v>
-      </c>
-      <c r="H119" s="2" t="s">
-        <v>503</v>
+        <v>496</v>
       </c>
       <c r="I119" s="2" t="s">
-        <v>502</v>
-      </c>
-      <c r="K119" s="8" t="s">
-        <v>911</v>
-      </c>
-      <c r="L119" s="20" t="s">
-        <v>948</v>
-      </c>
-    </row>
-    <row r="120" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+        <v>497</v>
+      </c>
+      <c r="J119" s="6" t="s">
+        <v>972</v>
+      </c>
+      <c r="K119" s="6" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12" ht="315" x14ac:dyDescent="0.25">
       <c r="A120" s="6" t="s">
         <v>516</v>
       </c>
@@ -9601,28 +9598,31 @@
         <v>498</v>
       </c>
       <c r="D120" s="8" t="s">
-        <v>1126</v>
+        <v>999</v>
       </c>
       <c r="E120" s="8" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="F120" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>506</v>
+        <v>501</v>
+      </c>
+      <c r="H120" s="2" t="s">
+        <v>503</v>
       </c>
       <c r="I120" s="2" t="s">
-        <v>507</v>
-      </c>
-      <c r="J120" s="6" t="s">
-        <v>972</v>
-      </c>
-      <c r="K120" s="6" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="121" spans="1:12" ht="270" x14ac:dyDescent="0.25">
+        <v>502</v>
+      </c>
+      <c r="K120" s="8" t="s">
+        <v>911</v>
+      </c>
+      <c r="L120" s="20" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A121" s="6" t="s">
         <v>524</v>
       </c>
@@ -9633,32 +9633,28 @@
         <v>498</v>
       </c>
       <c r="D121" s="8" t="s">
-        <v>1166</v>
+        <v>1118</v>
       </c>
       <c r="E121" s="8" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="F121" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>510</v>
-      </c>
-      <c r="H121" s="2"/>
+        <v>506</v>
+      </c>
       <c r="I121" s="2" t="s">
-        <v>511</v>
-      </c>
-      <c r="J121" s="8" t="s">
-        <v>972</v>
-      </c>
-      <c r="K121" s="8" t="s">
-        <v>911</v>
-      </c>
-      <c r="L121" s="8" t="s">
-        <v>974</v>
-      </c>
-    </row>
-    <row r="122" spans="1:12" ht="345" x14ac:dyDescent="0.25">
+        <v>507</v>
+      </c>
+      <c r="J121" s="6" t="s">
+        <v>972</v>
+      </c>
+      <c r="K121" s="6" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12" ht="270" x14ac:dyDescent="0.25">
       <c r="A122" s="6" t="s">
         <v>536</v>
       </c>
@@ -9669,26 +9665,29 @@
         <v>498</v>
       </c>
       <c r="D122" s="8" t="s">
-        <v>1127</v>
+        <v>1158</v>
       </c>
       <c r="E122" s="8" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="F122" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="H122" s="2"/>
       <c r="I122" s="2" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="J122" s="8" t="s">
         <v>972</v>
       </c>
       <c r="K122" s="8" t="s">
         <v>911</v>
+      </c>
+      <c r="L122" s="8" t="s">
+        <v>974</v>
       </c>
     </row>
     <row r="123" spans="1:12" ht="345" x14ac:dyDescent="0.25">
@@ -9702,29 +9701,29 @@
         <v>498</v>
       </c>
       <c r="D123" s="8" t="s">
-        <v>1175</v>
+        <v>1119</v>
       </c>
       <c r="E123" s="8" t="s">
-        <v>521</v>
+        <v>513</v>
       </c>
       <c r="F123" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>522</v>
+        <v>514</v>
       </c>
       <c r="H123" s="2"/>
       <c r="I123" s="2" t="s">
-        <v>523</v>
+        <v>515</v>
+      </c>
+      <c r="J123" s="8" t="s">
+        <v>972</v>
       </c>
       <c r="K123" s="8" t="s">
         <v>911</v>
       </c>
-      <c r="L123" s="8" t="s">
-        <v>949</v>
-      </c>
-    </row>
-    <row r="124" spans="1:12" ht="360" x14ac:dyDescent="0.25">
+    </row>
+    <row r="124" spans="1:12" ht="345" x14ac:dyDescent="0.25">
       <c r="A124" s="6" t="s">
         <v>538</v>
       </c>
@@ -9732,34 +9731,32 @@
         <v>411</v>
       </c>
       <c r="C124" s="8" t="s">
-        <v>517</v>
+        <v>498</v>
       </c>
       <c r="D124" s="8" t="s">
-        <v>999</v>
+        <v>1167</v>
       </c>
       <c r="E124" s="8" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="F124" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>531</v>
-      </c>
-      <c r="H124" s="2" t="s">
-        <v>542</v>
-      </c>
+        <v>522</v>
+      </c>
+      <c r="H124" s="2"/>
       <c r="I124" s="2" t="s">
-        <v>532</v>
-      </c>
-      <c r="K124" s="22" t="s">
-        <v>911</v>
-      </c>
-      <c r="L124" s="20" t="s">
-        <v>950</v>
-      </c>
-    </row>
-    <row r="125" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+        <v>523</v>
+      </c>
+      <c r="K124" s="8" t="s">
+        <v>911</v>
+      </c>
+      <c r="L124" s="8" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12" ht="360" x14ac:dyDescent="0.25">
       <c r="A125" s="6" t="s">
         <v>539</v>
       </c>
@@ -9770,28 +9767,31 @@
         <v>517</v>
       </c>
       <c r="D125" s="8" t="s">
-        <v>1126</v>
+        <v>999</v>
       </c>
       <c r="E125" s="8" t="s">
-        <v>525</v>
+        <v>518</v>
       </c>
       <c r="F125" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>526</v>
+        <v>531</v>
+      </c>
+      <c r="H125" s="2" t="s">
+        <v>542</v>
       </c>
       <c r="I125" s="2" t="s">
-        <v>527</v>
-      </c>
-      <c r="J125" s="6" t="s">
-        <v>972</v>
-      </c>
-      <c r="K125" s="8" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="126" spans="1:12" ht="255" x14ac:dyDescent="0.25">
+        <v>532</v>
+      </c>
+      <c r="K125" s="22" t="s">
+        <v>911</v>
+      </c>
+      <c r="L125" s="20" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A126" s="6" t="s">
         <v>541</v>
       </c>
@@ -9802,29 +9802,28 @@
         <v>517</v>
       </c>
       <c r="D126" s="8" t="s">
-        <v>1128</v>
+        <v>1118</v>
       </c>
       <c r="E126" s="8" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="F126" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>529</v>
-      </c>
-      <c r="H126" s="2"/>
+        <v>526</v>
+      </c>
       <c r="I126" s="2" t="s">
-        <v>530</v>
-      </c>
-      <c r="J126" s="8" t="s">
+        <v>527</v>
+      </c>
+      <c r="J126" s="6" t="s">
         <v>972</v>
       </c>
       <c r="K126" s="8" t="s">
         <v>911</v>
       </c>
     </row>
-    <row r="127" spans="1:12" ht="375" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:12" ht="255" x14ac:dyDescent="0.25">
       <c r="A127" s="6" t="s">
         <v>547</v>
       </c>
@@ -9835,20 +9834,20 @@
         <v>517</v>
       </c>
       <c r="D127" s="8" t="s">
-        <v>1129</v>
+        <v>1120</v>
       </c>
       <c r="E127" s="8" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="F127" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>519</v>
+        <v>529</v>
       </c>
       <c r="H127" s="2"/>
       <c r="I127" s="2" t="s">
-        <v>520</v>
+        <v>530</v>
       </c>
       <c r="J127" s="8" t="s">
         <v>972</v>
@@ -9857,7 +9856,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="128" spans="1:12" ht="360" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:12" ht="375" x14ac:dyDescent="0.25">
       <c r="A128" s="6" t="s">
         <v>551</v>
       </c>
@@ -9868,20 +9867,20 @@
         <v>517</v>
       </c>
       <c r="D128" s="8" t="s">
-        <v>1130</v>
+        <v>1121</v>
       </c>
       <c r="E128" s="8" t="s">
-        <v>521</v>
+        <v>533</v>
       </c>
       <c r="F128" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>534</v>
+        <v>519</v>
       </c>
       <c r="H128" s="2"/>
       <c r="I128" s="2" t="s">
-        <v>535</v>
+        <v>520</v>
       </c>
       <c r="J128" s="8" t="s">
         <v>972</v>
@@ -9890,7 +9889,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="129" spans="1:12" ht="375" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:12" ht="360" x14ac:dyDescent="0.25">
       <c r="A129" s="6" t="s">
         <v>556</v>
       </c>
@@ -9898,31 +9897,32 @@
         <v>411</v>
       </c>
       <c r="C129" s="8" t="s">
-        <v>540</v>
+        <v>517</v>
       </c>
       <c r="D129" s="8" t="s">
-        <v>999</v>
+        <v>1122</v>
       </c>
       <c r="E129" s="8" t="s">
-        <v>543</v>
+        <v>521</v>
       </c>
       <c r="F129" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>545</v>
-      </c>
-      <c r="H129" s="2" t="s">
-        <v>544</v>
-      </c>
+        <v>534</v>
+      </c>
+      <c r="H129" s="2"/>
       <c r="I129" s="2" t="s">
-        <v>546</v>
-      </c>
-      <c r="K129" s="20" t="s">
-        <v>951</v>
-      </c>
-    </row>
-    <row r="130" spans="1:12" ht="330" x14ac:dyDescent="0.25">
+        <v>535</v>
+      </c>
+      <c r="J129" s="8" t="s">
+        <v>972</v>
+      </c>
+      <c r="K129" s="8" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="130" spans="1:12" ht="375" x14ac:dyDescent="0.25">
       <c r="A130" s="6" t="s">
         <v>560</v>
       </c>
@@ -9933,29 +9933,28 @@
         <v>540</v>
       </c>
       <c r="D130" s="8" t="s">
-        <v>1131</v>
+        <v>999</v>
       </c>
       <c r="E130" s="8" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="F130" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>549</v>
-      </c>
-      <c r="H130" s="2"/>
+        <v>545</v>
+      </c>
+      <c r="H130" s="2" t="s">
+        <v>544</v>
+      </c>
       <c r="I130" s="2" t="s">
-        <v>550</v>
-      </c>
-      <c r="J130" s="8" t="s">
-        <v>972</v>
-      </c>
-      <c r="K130" s="8" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="131" spans="1:12" ht="165" x14ac:dyDescent="0.25">
+        <v>546</v>
+      </c>
+      <c r="K130" s="20" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12" ht="330" x14ac:dyDescent="0.25">
       <c r="A131" s="6" t="s">
         <v>566</v>
       </c>
@@ -9963,24 +9962,25 @@
         <v>411</v>
       </c>
       <c r="C131" s="8" t="s">
-        <v>552</v>
+        <v>540</v>
       </c>
       <c r="D131" s="8" t="s">
-        <v>1109</v>
+        <v>1123</v>
       </c>
       <c r="E131" s="8" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="F131" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>554</v>
-      </c>
+        <v>549</v>
+      </c>
+      <c r="H131" s="2"/>
       <c r="I131" s="2" t="s">
-        <v>555</v>
-      </c>
-      <c r="J131" s="6" t="s">
+        <v>550</v>
+      </c>
+      <c r="J131" s="8" t="s">
         <v>972</v>
       </c>
       <c r="K131" s="8" t="s">
@@ -9998,19 +9998,19 @@
         <v>552</v>
       </c>
       <c r="D132" s="8" t="s">
-        <v>1132</v>
+        <v>1103</v>
       </c>
       <c r="E132" s="8" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="F132" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="I132" s="2" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="J132" s="6" t="s">
         <v>972</v>
@@ -10019,7 +10019,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="133" spans="1:12" ht="150" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:12" ht="165" x14ac:dyDescent="0.25">
       <c r="A133" s="6" t="s">
         <v>571</v>
       </c>
@@ -10027,22 +10027,22 @@
         <v>411</v>
       </c>
       <c r="C133" s="8" t="s">
-        <v>561</v>
+        <v>552</v>
       </c>
       <c r="D133" s="8" t="s">
-        <v>1111</v>
+        <v>1124</v>
       </c>
       <c r="E133" s="8" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="F133" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="I133" s="2" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="J133" s="6" t="s">
         <v>972</v>
@@ -10051,7 +10051,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="134" spans="1:12" ht="195" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:12" ht="150" x14ac:dyDescent="0.25">
       <c r="A134" s="6" t="s">
         <v>577</v>
       </c>
@@ -10062,19 +10062,19 @@
         <v>561</v>
       </c>
       <c r="D134" s="8" t="s">
-        <v>1133</v>
+        <v>1105</v>
       </c>
       <c r="E134" s="8" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="F134" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="I134" s="2" t="s">
-        <v>952</v>
+        <v>564</v>
       </c>
       <c r="J134" s="6" t="s">
         <v>972</v>
@@ -10094,19 +10094,19 @@
         <v>561</v>
       </c>
       <c r="D135" s="8" t="s">
-        <v>1134</v>
+        <v>1125</v>
       </c>
       <c r="E135" s="8" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="F135" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="I135" s="2" t="s">
-        <v>575</v>
+        <v>952</v>
       </c>
       <c r="J135" s="6" t="s">
         <v>972</v>
@@ -10115,7 +10115,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="136" spans="1:12" ht="225" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:12" ht="195" x14ac:dyDescent="0.25">
       <c r="A136" s="6" t="s">
         <v>585</v>
       </c>
@@ -10126,19 +10126,19 @@
         <v>561</v>
       </c>
       <c r="D136" s="8" t="s">
-        <v>1135</v>
+        <v>1126</v>
       </c>
       <c r="E136" s="8" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="F136" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="I136" s="2" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="J136" s="6" t="s">
         <v>972</v>
@@ -10158,19 +10158,19 @@
         <v>561</v>
       </c>
       <c r="D137" s="8" t="s">
-        <v>1136</v>
+        <v>1127</v>
       </c>
       <c r="E137" s="8" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="F137" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="I137" s="2" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="J137" s="6" t="s">
         <v>972</v>
@@ -10179,7 +10179,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="138" spans="1:12" ht="120" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:12" ht="225" x14ac:dyDescent="0.25">
       <c r="A138" s="6" t="s">
         <v>592</v>
       </c>
@@ -10187,22 +10187,22 @@
         <v>411</v>
       </c>
       <c r="C138" s="8" t="s">
-        <v>581</v>
+        <v>561</v>
       </c>
       <c r="D138" s="8" t="s">
-        <v>1137</v>
-      </c>
-      <c r="E138" s="6" t="s">
-        <v>582</v>
+        <v>1128</v>
+      </c>
+      <c r="E138" s="8" t="s">
+        <v>576</v>
       </c>
       <c r="F138" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="I138" s="2" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="J138" s="6" t="s">
         <v>972</v>
@@ -10211,7 +10211,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="139" spans="1:12" ht="150" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:12" ht="120" x14ac:dyDescent="0.25">
       <c r="A139" s="6" t="s">
         <v>599</v>
       </c>
@@ -10222,19 +10222,19 @@
         <v>581</v>
       </c>
       <c r="D139" s="8" t="s">
-        <v>1138</v>
-      </c>
-      <c r="E139" s="8" t="s">
-        <v>625</v>
+        <v>1129</v>
+      </c>
+      <c r="E139" s="6" t="s">
+        <v>582</v>
       </c>
       <c r="F139" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>626</v>
+        <v>583</v>
       </c>
       <c r="I139" s="2" t="s">
-        <v>627</v>
+        <v>584</v>
       </c>
       <c r="J139" s="6" t="s">
         <v>972</v>
@@ -10254,19 +10254,19 @@
         <v>581</v>
       </c>
       <c r="D140" s="8" t="s">
-        <v>1139</v>
+        <v>1130</v>
       </c>
       <c r="E140" s="8" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="F140" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="I140" s="2" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="J140" s="6" t="s">
         <v>972</v>
@@ -10286,19 +10286,19 @@
         <v>581</v>
       </c>
       <c r="D141" s="8" t="s">
-        <v>1140</v>
+        <v>1131</v>
       </c>
       <c r="E141" s="8" t="s">
-        <v>586</v>
+        <v>628</v>
       </c>
       <c r="F141" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>587</v>
+        <v>629</v>
       </c>
       <c r="I141" s="2" t="s">
-        <v>588</v>
+        <v>630</v>
       </c>
       <c r="J141" s="6" t="s">
         <v>972</v>
@@ -10307,7 +10307,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="142" spans="1:12" ht="195" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:12" ht="150" x14ac:dyDescent="0.25">
       <c r="A142" s="6" t="s">
         <v>606</v>
       </c>
@@ -10315,22 +10315,22 @@
         <v>411</v>
       </c>
       <c r="C142" s="8" t="s">
-        <v>594</v>
+        <v>581</v>
       </c>
       <c r="D142" s="8" t="s">
-        <v>1167</v>
+        <v>1132</v>
       </c>
       <c r="E142" s="8" t="s">
-        <v>593</v>
+        <v>586</v>
       </c>
       <c r="F142" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="I142" s="2" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="J142" s="6" t="s">
         <v>972</v>
@@ -10338,11 +10338,8 @@
       <c r="K142" s="8" t="s">
         <v>911</v>
       </c>
-      <c r="L142" s="8" t="s">
-        <v>973</v>
-      </c>
-    </row>
-    <row r="143" spans="1:12" ht="180" x14ac:dyDescent="0.25">
+    </row>
+    <row r="143" spans="1:12" ht="195" x14ac:dyDescent="0.25">
       <c r="A143" s="6" t="s">
         <v>607</v>
       </c>
@@ -10350,22 +10347,22 @@
         <v>411</v>
       </c>
       <c r="C143" s="8" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="D143" s="8" t="s">
-        <v>1141</v>
+        <v>1159</v>
       </c>
       <c r="E143" s="8" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="F143" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>597</v>
+        <v>590</v>
       </c>
       <c r="I143" s="2" t="s">
-        <v>598</v>
+        <v>591</v>
       </c>
       <c r="J143" s="6" t="s">
         <v>972</v>
@@ -10373,8 +10370,11 @@
       <c r="K143" s="8" t="s">
         <v>911</v>
       </c>
-    </row>
-    <row r="144" spans="1:12" ht="165" x14ac:dyDescent="0.25">
+      <c r="L143" s="8" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="144" spans="1:12" ht="180" x14ac:dyDescent="0.25">
       <c r="A144" s="6" t="s">
         <v>608</v>
       </c>
@@ -10385,19 +10385,19 @@
         <v>595</v>
       </c>
       <c r="D144" s="8" t="s">
-        <v>1142</v>
+        <v>1133</v>
       </c>
       <c r="E144" s="8" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="F144" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="I144" s="2" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="J144" s="6" t="s">
         <v>972</v>
@@ -10406,7 +10406,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="145" spans="1:12" ht="330" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:12" ht="165" x14ac:dyDescent="0.25">
       <c r="A145" s="6" t="s">
         <v>624</v>
       </c>
@@ -10416,17 +10416,20 @@
       <c r="C145" s="8" t="s">
         <v>595</v>
       </c>
+      <c r="D145" s="8" t="s">
+        <v>1134</v>
+      </c>
       <c r="E145" s="8" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="F145" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>615</v>
+        <v>601</v>
       </c>
       <c r="I145" s="2" t="s">
-        <v>616</v>
+        <v>602</v>
       </c>
       <c r="J145" s="6" t="s">
         <v>972</v>
@@ -10434,11 +10437,8 @@
       <c r="K145" s="8" t="s">
         <v>911</v>
       </c>
-      <c r="L145" s="8" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="146" spans="1:12" ht="240" x14ac:dyDescent="0.25">
+    </row>
+    <row r="146" spans="1:12" ht="330" x14ac:dyDescent="0.25">
       <c r="A146" s="6" t="s">
         <v>631</v>
       </c>
@@ -10448,20 +10448,17 @@
       <c r="C146" s="8" t="s">
         <v>595</v>
       </c>
-      <c r="D146" s="8" t="s">
-        <v>1112</v>
-      </c>
       <c r="E146" s="8" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
       <c r="F146" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>610</v>
+        <v>615</v>
       </c>
       <c r="I146" s="2" t="s">
-        <v>611</v>
+        <v>616</v>
       </c>
       <c r="J146" s="6" t="s">
         <v>972</v>
@@ -10469,8 +10466,11 @@
       <c r="K146" s="8" t="s">
         <v>911</v>
       </c>
-    </row>
-    <row r="147" spans="1:12" ht="165" x14ac:dyDescent="0.25">
+      <c r="L146" s="8" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="147" spans="1:12" ht="240" x14ac:dyDescent="0.25">
       <c r="A147" s="6" t="s">
         <v>632</v>
       </c>
@@ -10481,19 +10481,19 @@
         <v>595</v>
       </c>
       <c r="D147" s="8" t="s">
-        <v>1142</v>
+        <v>1106</v>
       </c>
       <c r="E147" s="8" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="F147" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="I147" s="2" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="J147" s="6" t="s">
         <v>972</v>
@@ -10502,27 +10502,30 @@
         <v>911</v>
       </c>
     </row>
-    <row r="148" spans="1:12" ht="120" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:12" ht="165" x14ac:dyDescent="0.25">
       <c r="A148" s="6" t="s">
         <v>636</v>
       </c>
       <c r="B148" s="6" t="s">
         <v>411</v>
       </c>
-      <c r="C148" s="6" t="s">
-        <v>617</v>
-      </c>
-      <c r="E148" s="6" t="s">
-        <v>635</v>
+      <c r="C148" s="8" t="s">
+        <v>595</v>
+      </c>
+      <c r="D148" s="8" t="s">
+        <v>1134</v>
+      </c>
+      <c r="E148" s="8" t="s">
+        <v>612</v>
       </c>
       <c r="F148" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>633</v>
+        <v>613</v>
       </c>
       <c r="I148" s="2" t="s">
-        <v>634</v>
+        <v>614</v>
       </c>
       <c r="J148" s="6" t="s">
         <v>972</v>
@@ -10531,7 +10534,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="149" spans="1:12" ht="150" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:12" ht="120" x14ac:dyDescent="0.25">
       <c r="A149" s="6" t="s">
         <v>637</v>
       </c>
@@ -10541,17 +10544,17 @@
       <c r="C149" s="6" t="s">
         <v>617</v>
       </c>
-      <c r="E149" s="8" t="s">
-        <v>638</v>
+      <c r="E149" s="6" t="s">
+        <v>635</v>
       </c>
       <c r="F149" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>639</v>
+        <v>633</v>
       </c>
       <c r="I149" s="2" t="s">
-        <v>640</v>
+        <v>634</v>
       </c>
       <c r="J149" s="6" t="s">
         <v>972</v>
@@ -10570,17 +10573,17 @@
       <c r="C150" s="6" t="s">
         <v>617</v>
       </c>
-      <c r="E150" s="6" t="s">
-        <v>641</v>
+      <c r="E150" s="8" t="s">
+        <v>638</v>
       </c>
       <c r="F150" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="I150" s="2" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="J150" s="6" t="s">
         <v>972</v>
@@ -10599,17 +10602,17 @@
       <c r="C151" s="6" t="s">
         <v>617</v>
       </c>
-      <c r="E151" s="8" t="s">
-        <v>645</v>
+      <c r="E151" s="6" t="s">
+        <v>641</v>
       </c>
       <c r="F151" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="I151" s="2" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="J151" s="6" t="s">
         <v>972</v>
@@ -10618,7 +10621,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="152" spans="1:12" ht="135" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:12" ht="150" x14ac:dyDescent="0.25">
       <c r="A152" s="6" t="s">
         <v>652</v>
       </c>
@@ -10629,16 +10632,16 @@
         <v>617</v>
       </c>
       <c r="E152" s="8" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="F152" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="I152" s="2" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="J152" s="6" t="s">
         <v>972</v>
@@ -10647,7 +10650,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="153" spans="1:12" ht="150" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:12" ht="135" x14ac:dyDescent="0.25">
       <c r="A153" s="6" t="s">
         <v>656</v>
       </c>
@@ -10658,16 +10661,16 @@
         <v>617</v>
       </c>
       <c r="E153" s="8" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="F153" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="I153" s="2" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="J153" s="6" t="s">
         <v>972</v>
@@ -10687,16 +10690,16 @@
         <v>617</v>
       </c>
       <c r="E154" s="8" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="F154" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="I154" s="2" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="J154" s="6" t="s">
         <v>972</v>
@@ -10716,16 +10719,16 @@
         <v>617</v>
       </c>
       <c r="E155" s="8" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="F155" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="I155" s="2" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="J155" s="6" t="s">
         <v>972</v>
@@ -10734,7 +10737,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="156" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:12" ht="150" x14ac:dyDescent="0.25">
       <c r="A156" s="6" t="s">
         <v>670</v>
       </c>
@@ -10742,34 +10745,28 @@
         <v>411</v>
       </c>
       <c r="C156" s="6" t="s">
-        <v>665</v>
-      </c>
-      <c r="D156" s="8" t="s">
-        <v>1000</v>
+        <v>617</v>
       </c>
       <c r="E156" s="8" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="F156" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>668</v>
-      </c>
-      <c r="H156" s="8" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="I156" s="2" t="s">
-        <v>669</v>
-      </c>
-      <c r="K156" s="20" t="s">
-        <v>909</v>
-      </c>
-      <c r="L156" s="20" t="s">
-        <v>954</v>
-      </c>
-    </row>
-    <row r="157" spans="1:12" ht="195" x14ac:dyDescent="0.25">
+        <v>663</v>
+      </c>
+      <c r="J156" s="6" t="s">
+        <v>972</v>
+      </c>
+      <c r="K156" s="8" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="157" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A157" s="6" t="s">
         <v>674</v>
       </c>
@@ -10780,29 +10777,31 @@
         <v>665</v>
       </c>
       <c r="D157" s="8" t="s">
-        <v>1143</v>
+        <v>1000</v>
       </c>
       <c r="E157" s="8" t="s">
-        <v>694</v>
+        <v>666</v>
       </c>
       <c r="F157" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>695</v>
-      </c>
-      <c r="H157" s="8"/>
+        <v>668</v>
+      </c>
+      <c r="H157" s="8" t="s">
+        <v>667</v>
+      </c>
       <c r="I157" s="2" t="s">
-        <v>696</v>
-      </c>
-      <c r="J157" s="6" t="s">
-        <v>972</v>
-      </c>
-      <c r="K157" s="8" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="158" spans="1:12" ht="240" x14ac:dyDescent="0.25">
+        <v>669</v>
+      </c>
+      <c r="K157" s="20" t="s">
+        <v>909</v>
+      </c>
+      <c r="L157" s="20" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="158" spans="1:12" ht="195" x14ac:dyDescent="0.25">
       <c r="A158" s="6" t="s">
         <v>678</v>
       </c>
@@ -10812,17 +10811,21 @@
       <c r="C158" s="6" t="s">
         <v>665</v>
       </c>
+      <c r="D158" s="8" t="s">
+        <v>1135</v>
+      </c>
       <c r="E158" s="8" t="s">
-        <v>671</v>
+        <v>694</v>
       </c>
       <c r="F158" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>673</v>
-      </c>
+        <v>695</v>
+      </c>
+      <c r="H158" s="8"/>
       <c r="I158" s="2" t="s">
-        <v>672</v>
+        <v>696</v>
       </c>
       <c r="J158" s="6" t="s">
         <v>972</v>
@@ -10830,11 +10833,8 @@
       <c r="K158" s="8" t="s">
         <v>911</v>
       </c>
-      <c r="L158" s="8" t="s">
-        <v>955</v>
-      </c>
-    </row>
-    <row r="159" spans="1:12" ht="165" x14ac:dyDescent="0.25">
+    </row>
+    <row r="159" spans="1:12" ht="240" x14ac:dyDescent="0.25">
       <c r="A159" s="6" t="s">
         <v>682</v>
       </c>
@@ -10844,26 +10844,26 @@
       <c r="C159" s="6" t="s">
         <v>665</v>
       </c>
-      <c r="D159" s="8" t="s">
-        <v>1113</v>
-      </c>
       <c r="E159" s="8" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="F159" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="I159" s="2" t="s">
-        <v>677</v>
+        <v>672</v>
       </c>
       <c r="J159" s="6" t="s">
         <v>972</v>
       </c>
       <c r="K159" s="8" t="s">
         <v>911</v>
+      </c>
+      <c r="L159" s="8" t="s">
+        <v>955</v>
       </c>
     </row>
     <row r="160" spans="1:12" ht="165" x14ac:dyDescent="0.25">
@@ -10877,19 +10877,19 @@
         <v>665</v>
       </c>
       <c r="D160" s="8" t="s">
-        <v>1114</v>
+        <v>1107</v>
       </c>
       <c r="E160" s="8" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="F160" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="I160" s="2" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="J160" s="6" t="s">
         <v>972</v>
@@ -10898,7 +10898,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="161" spans="1:27" ht="315" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:27" ht="165" x14ac:dyDescent="0.25">
       <c r="A161" s="6" t="s">
         <v>690</v>
       </c>
@@ -10909,28 +10909,28 @@
         <v>665</v>
       </c>
       <c r="D161" s="8" t="s">
-        <v>1115</v>
+        <v>1108</v>
       </c>
       <c r="E161" s="8" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="F161" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="I161" s="2" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="J161" s="6" t="s">
-        <v>964</v>
+        <v>972</v>
       </c>
       <c r="K161" s="8" t="s">
         <v>911</v>
       </c>
     </row>
-    <row r="162" spans="1:27" ht="285" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:27" ht="315" x14ac:dyDescent="0.25">
       <c r="A162" s="6" t="s">
         <v>697</v>
       </c>
@@ -10941,19 +10941,19 @@
         <v>665</v>
       </c>
       <c r="D162" s="8" t="s">
-        <v>1116</v>
+        <v>1109</v>
       </c>
       <c r="E162" s="8" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="F162" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="I162" s="2" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="J162" s="6" t="s">
         <v>964</v>
@@ -10962,7 +10962,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="163" spans="1:27" ht="315" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:27" ht="285" x14ac:dyDescent="0.25">
       <c r="A163" s="6" t="s">
         <v>698</v>
       </c>
@@ -10973,19 +10973,19 @@
         <v>665</v>
       </c>
       <c r="D163" s="8" t="s">
-        <v>1117</v>
+        <v>1110</v>
       </c>
       <c r="E163" s="8" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="F163" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="I163" s="2" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="J163" s="6" t="s">
         <v>964</v>
@@ -10994,7 +10994,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="164" spans="1:27" ht="150" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:27" ht="315" x14ac:dyDescent="0.25">
       <c r="A164" s="6" t="s">
         <v>703</v>
       </c>
@@ -11002,28 +11002,31 @@
         <v>411</v>
       </c>
       <c r="C164" s="6" t="s">
-        <v>699</v>
+        <v>665</v>
       </c>
       <c r="D164" s="8" t="s">
-        <v>1168</v>
+        <v>1111</v>
       </c>
       <c r="E164" s="8" t="s">
-        <v>700</v>
+        <v>691</v>
       </c>
       <c r="F164" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>701</v>
+        <v>692</v>
       </c>
       <c r="I164" s="2" t="s">
-        <v>702</v>
-      </c>
-      <c r="L164" s="20" t="s">
-        <v>956</v>
-      </c>
-    </row>
-    <row r="165" spans="1:27" ht="180" x14ac:dyDescent="0.25">
+        <v>693</v>
+      </c>
+      <c r="J164" s="6" t="s">
+        <v>964</v>
+      </c>
+      <c r="K164" s="8" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="165" spans="1:27" ht="150" x14ac:dyDescent="0.25">
       <c r="A165" s="6" t="s">
         <v>706</v>
       </c>
@@ -11034,25 +11037,22 @@
         <v>699</v>
       </c>
       <c r="D165" s="8" t="s">
-        <v>1144</v>
+        <v>1160</v>
       </c>
       <c r="E165" s="8" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
       <c r="F165" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>957</v>
+        <v>701</v>
       </c>
       <c r="I165" s="2" t="s">
-        <v>705</v>
-      </c>
-      <c r="J165" s="6" t="s">
-        <v>964</v>
-      </c>
-      <c r="K165" s="6" t="s">
-        <v>911</v>
+        <v>702</v>
+      </c>
+      <c r="L165" s="20" t="s">
+        <v>956</v>
       </c>
     </row>
     <row r="166" spans="1:27" ht="180" x14ac:dyDescent="0.25">
@@ -11066,19 +11066,19 @@
         <v>699</v>
       </c>
       <c r="D166" s="8" t="s">
-        <v>1118</v>
+        <v>1136</v>
       </c>
       <c r="E166" s="8" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="F166" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="I166" s="2" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="J166" s="6" t="s">
         <v>964</v>
@@ -11087,7 +11087,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="167" spans="1:27" ht="225" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:27" ht="180" x14ac:dyDescent="0.25">
       <c r="A167" s="6" t="s">
         <v>712</v>
       </c>
@@ -11098,19 +11098,19 @@
         <v>699</v>
       </c>
       <c r="D167" s="8" t="s">
-        <v>1119</v>
+        <v>1112</v>
       </c>
       <c r="E167" s="8" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="F167" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="I167" s="2" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="J167" s="6" t="s">
         <v>964</v>
@@ -11127,25 +11127,28 @@
         <v>411</v>
       </c>
       <c r="C168" s="6" t="s">
-        <v>713</v>
+        <v>699</v>
+      </c>
+      <c r="D168" s="8" t="s">
+        <v>1113</v>
       </c>
       <c r="E168" s="8" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="F168" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>715</v>
+        <v>959</v>
       </c>
       <c r="I168" s="2" t="s">
-        <v>716</v>
+        <v>711</v>
       </c>
       <c r="J168" s="6" t="s">
         <v>964</v>
       </c>
-      <c r="L168" s="20" t="s">
-        <v>971</v>
+      <c r="K168" s="6" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="169" spans="1:27" ht="225" x14ac:dyDescent="0.25">
@@ -11158,29 +11161,26 @@
       <c r="C169" s="6" t="s">
         <v>713</v>
       </c>
-      <c r="D169" s="8" t="s">
-        <v>1145</v>
-      </c>
       <c r="E169" s="8" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="F169" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="I169" s="2" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
       <c r="J169" s="6" t="s">
         <v>964</v>
       </c>
-      <c r="K169" s="6" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="170" spans="1:27" ht="270" x14ac:dyDescent="0.25">
+      <c r="L169" s="20" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="170" spans="1:27" ht="225" x14ac:dyDescent="0.25">
       <c r="A170" s="6" t="s">
         <v>725</v>
       </c>
@@ -11191,19 +11191,19 @@
         <v>713</v>
       </c>
       <c r="D170" s="8" t="s">
-        <v>1146</v>
+        <v>1137</v>
       </c>
       <c r="E170" s="8" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="F170" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="I170" s="2" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
       <c r="J170" s="6" t="s">
         <v>964</v>
@@ -11212,7 +11212,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="171" spans="1:27" ht="285.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:27" ht="270" x14ac:dyDescent="0.25">
       <c r="A171" s="6" t="s">
         <v>729</v>
       </c>
@@ -11223,19 +11223,19 @@
         <v>713</v>
       </c>
       <c r="D171" s="8" t="s">
-        <v>1147</v>
+        <v>1138</v>
       </c>
       <c r="E171" s="8" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
       <c r="F171" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
       <c r="I171" s="2" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
       <c r="J171" s="6" t="s">
         <v>964</v>
@@ -11244,134 +11244,137 @@
         <v>911</v>
       </c>
     </row>
-    <row r="172" spans="1:27" ht="195.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:27" ht="285.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A172" s="6" t="s">
         <v>734</v>
       </c>
-      <c r="B172" s="10" t="s">
-        <v>730</v>
-      </c>
-      <c r="C172" s="10" t="s">
+      <c r="B172" s="6" t="s">
+        <v>411</v>
+      </c>
+      <c r="C172" s="6" t="s">
         <v>713</v>
       </c>
       <c r="D172" s="8" t="s">
-        <v>1148</v>
-      </c>
-      <c r="E172" s="10" t="s">
-        <v>731</v>
+        <v>1139</v>
+      </c>
+      <c r="E172" s="8" t="s">
+        <v>726</v>
       </c>
       <c r="F172" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="G172" s="12" t="s">
-        <v>732</v>
-      </c>
-      <c r="H172" s="11"/>
-      <c r="I172" s="12" t="s">
-        <v>733</v>
-      </c>
-      <c r="J172" s="23" t="s">
+      <c r="G172" s="2" t="s">
+        <v>727</v>
+      </c>
+      <c r="I172" s="2" t="s">
+        <v>728</v>
+      </c>
+      <c r="J172" s="6" t="s">
         <v>964</v>
       </c>
-      <c r="K172" s="23" t="s">
-        <v>911</v>
-      </c>
-      <c r="L172" s="23"/>
-      <c r="M172" s="11"/>
-      <c r="N172" s="11"/>
-      <c r="O172" s="11"/>
-      <c r="P172" s="11"/>
-      <c r="Q172" s="11"/>
-      <c r="R172" s="11"/>
-      <c r="S172" s="11"/>
-      <c r="T172" s="11"/>
-      <c r="U172" s="11"/>
-      <c r="V172" s="11"/>
-      <c r="W172" s="11"/>
-      <c r="X172" s="11"/>
-      <c r="Y172" s="11"/>
-      <c r="Z172" s="11"/>
-      <c r="AA172" s="11"/>
-    </row>
-    <row r="173" spans="1:27" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K172" s="6" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="173" spans="1:27" ht="195.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A173" s="6" t="s">
         <v>740</v>
       </c>
       <c r="B173" s="10" t="s">
-        <v>735</v>
+        <v>730</v>
       </c>
       <c r="C173" s="10" t="s">
-        <v>735</v>
+        <v>713</v>
       </c>
       <c r="D173" s="8" t="s">
-        <v>1149</v>
-      </c>
-      <c r="E173" s="14" t="s">
-        <v>748</v>
+        <v>1140</v>
+      </c>
+      <c r="E173" s="10" t="s">
+        <v>731</v>
       </c>
       <c r="F173" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="G173" s="13" t="s">
-        <v>750</v>
-      </c>
-      <c r="H173" s="16"/>
-      <c r="I173" s="15" t="s">
-        <v>749</v>
-      </c>
-      <c r="J173" s="24" t="s">
+      <c r="G173" s="12" t="s">
+        <v>732</v>
+      </c>
+      <c r="H173" s="11"/>
+      <c r="I173" s="12" t="s">
+        <v>733</v>
+      </c>
+      <c r="J173" s="23" t="s">
         <v>964</v>
       </c>
-      <c r="K173" s="24" t="s">
-        <v>911</v>
-      </c>
-      <c r="L173" s="24"/>
-      <c r="M173" s="16"/>
-      <c r="N173" s="16"/>
-      <c r="O173" s="16"/>
-      <c r="P173" s="16"/>
-      <c r="Q173" s="16"/>
-      <c r="R173" s="16"/>
-      <c r="S173" s="16"/>
-      <c r="T173" s="16"/>
-      <c r="U173" s="16"/>
-      <c r="V173" s="16"/>
-      <c r="W173" s="16"/>
-      <c r="X173" s="16"/>
-      <c r="Y173" s="16"/>
-      <c r="Z173" s="16"/>
-      <c r="AA173" s="16"/>
-    </row>
-    <row r="174" spans="1:27" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K173" s="23" t="s">
+        <v>911</v>
+      </c>
+      <c r="L173" s="23"/>
+      <c r="M173" s="11"/>
+      <c r="N173" s="11"/>
+      <c r="O173" s="11"/>
+      <c r="P173" s="11"/>
+      <c r="Q173" s="11"/>
+      <c r="R173" s="11"/>
+      <c r="S173" s="11"/>
+      <c r="T173" s="11"/>
+      <c r="U173" s="11"/>
+      <c r="V173" s="11"/>
+      <c r="W173" s="11"/>
+      <c r="X173" s="11"/>
+      <c r="Y173" s="11"/>
+      <c r="Z173" s="11"/>
+      <c r="AA173" s="11"/>
+    </row>
+    <row r="174" spans="1:27" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A174" s="6" t="s">
         <v>744</v>
       </c>
       <c r="B174" s="10" t="s">
         <v>735</v>
       </c>
-      <c r="C174" s="8" t="s">
-        <v>736</v>
-      </c>
-      <c r="E174" s="8" t="s">
-        <v>737</v>
+      <c r="C174" s="10" t="s">
+        <v>735</v>
+      </c>
+      <c r="D174" s="8" t="s">
+        <v>1141</v>
+      </c>
+      <c r="E174" s="14" t="s">
+        <v>748</v>
       </c>
       <c r="F174" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G174" s="13" t="s">
-        <v>738</v>
-      </c>
-      <c r="I174" s="13" t="s">
-        <v>739</v>
-      </c>
-      <c r="K174" s="19" t="s">
-        <v>909</v>
-      </c>
-      <c r="L174" s="20" t="s">
-        <v>970</v>
-      </c>
-    </row>
-    <row r="175" spans="1:27" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>750</v>
+      </c>
+      <c r="H174" s="16"/>
+      <c r="I174" s="15" t="s">
+        <v>749</v>
+      </c>
+      <c r="J174" s="24" t="s">
+        <v>964</v>
+      </c>
+      <c r="K174" s="24" t="s">
+        <v>911</v>
+      </c>
+      <c r="L174" s="24"/>
+      <c r="M174" s="16"/>
+      <c r="N174" s="16"/>
+      <c r="O174" s="16"/>
+      <c r="P174" s="16"/>
+      <c r="Q174" s="16"/>
+      <c r="R174" s="16"/>
+      <c r="S174" s="16"/>
+      <c r="T174" s="16"/>
+      <c r="U174" s="16"/>
+      <c r="V174" s="16"/>
+      <c r="W174" s="16"/>
+      <c r="X174" s="16"/>
+      <c r="Y174" s="16"/>
+      <c r="Z174" s="16"/>
+      <c r="AA174" s="16"/>
+    </row>
+    <row r="175" spans="1:27" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A175" s="6" t="s">
         <v>751</v>
       </c>
@@ -11381,29 +11384,23 @@
       <c r="C175" s="8" t="s">
         <v>736</v>
       </c>
-      <c r="D175" s="8" t="s">
-        <v>1169</v>
-      </c>
       <c r="E175" s="8" t="s">
-        <v>741</v>
+        <v>737</v>
       </c>
       <c r="F175" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G175" s="13" t="s">
-        <v>742</v>
+        <v>738</v>
       </c>
       <c r="I175" s="13" t="s">
-        <v>743</v>
-      </c>
-      <c r="J175" s="6" t="s">
-        <v>964</v>
-      </c>
-      <c r="K175" s="6" t="s">
-        <v>911</v>
-      </c>
-      <c r="L175" s="8" t="s">
-        <v>969</v>
+        <v>739</v>
+      </c>
+      <c r="K175" s="19" t="s">
+        <v>909</v>
+      </c>
+      <c r="L175" s="20" t="s">
+        <v>970</v>
       </c>
     </row>
     <row r="176" spans="1:27" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11417,63 +11414,63 @@
         <v>736</v>
       </c>
       <c r="D176" s="8" t="s">
-        <v>1099</v>
+        <v>1161</v>
       </c>
       <c r="E176" s="8" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
       <c r="F176" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G176" s="13" t="s">
-        <v>746</v>
+        <v>742</v>
       </c>
       <c r="I176" s="13" t="s">
-        <v>747</v>
-      </c>
-      <c r="K176" s="19" t="s">
-        <v>909</v>
-      </c>
-      <c r="L176" s="20" t="s">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="177" spans="1:12" ht="165.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>743</v>
+      </c>
+      <c r="J176" s="6" t="s">
+        <v>964</v>
+      </c>
+      <c r="K176" s="6" t="s">
+        <v>911</v>
+      </c>
+      <c r="L176" s="8" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="177" spans="1:12" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A177" s="6" t="s">
         <v>758</v>
       </c>
       <c r="B177" s="10" t="s">
         <v>735</v>
       </c>
-      <c r="C177" s="6" t="s">
-        <v>753</v>
+      <c r="C177" s="8" t="s">
+        <v>736</v>
       </c>
       <c r="D177" s="8" t="s">
-        <v>1001</v>
+        <v>1099</v>
       </c>
       <c r="E177" s="8" t="s">
-        <v>754</v>
+        <v>745</v>
       </c>
       <c r="F177" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G177" s="13" t="s">
-        <v>755</v>
-      </c>
-      <c r="H177" s="2" t="s">
-        <v>756</v>
+        <v>746</v>
       </c>
       <c r="I177" s="13" t="s">
-        <v>757</v>
-      </c>
-      <c r="J177" s="25" t="s">
-        <v>964</v>
-      </c>
-      <c r="K177" s="25" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="178" spans="1:12" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>747</v>
+      </c>
+      <c r="K177" s="19" t="s">
+        <v>909</v>
+      </c>
+      <c r="L177" s="20" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="178" spans="1:12" ht="165.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A178" s="6" t="s">
         <v>763</v>
       </c>
@@ -11484,22 +11481,22 @@
         <v>753</v>
       </c>
       <c r="D178" s="8" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="E178" s="8" t="s">
-        <v>759</v>
+        <v>754</v>
       </c>
       <c r="F178" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G178" s="13" t="s">
-        <v>761</v>
+        <v>755</v>
       </c>
       <c r="H178" s="2" t="s">
-        <v>760</v>
+        <v>756</v>
       </c>
       <c r="I178" s="13" t="s">
-        <v>762</v>
+        <v>757</v>
       </c>
       <c r="J178" s="25" t="s">
         <v>964</v>
@@ -11507,11 +11504,8 @@
       <c r="K178" s="25" t="s">
         <v>911</v>
       </c>
-      <c r="L178" s="25" t="s">
-        <v>968</v>
-      </c>
-    </row>
-    <row r="179" spans="1:12" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="179" spans="1:12" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A179" s="6" t="s">
         <v>767</v>
       </c>
@@ -11522,25 +11516,31 @@
         <v>753</v>
       </c>
       <c r="D179" s="8" t="s">
-        <v>1150</v>
+        <v>1002</v>
       </c>
       <c r="E179" s="8" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
       <c r="F179" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G179" s="13" t="s">
-        <v>765</v>
-      </c>
-      <c r="I179" s="2" t="s">
-        <v>766</v>
-      </c>
-      <c r="J179" s="6" t="s">
+        <v>761</v>
+      </c>
+      <c r="H179" s="2" t="s">
+        <v>760</v>
+      </c>
+      <c r="I179" s="13" t="s">
+        <v>762</v>
+      </c>
+      <c r="J179" s="25" t="s">
         <v>964</v>
       </c>
-      <c r="K179" s="6" t="s">
-        <v>911</v>
+      <c r="K179" s="25" t="s">
+        <v>911</v>
+      </c>
+      <c r="L179" s="25" t="s">
+        <v>968</v>
       </c>
     </row>
     <row r="180" spans="1:12" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11554,10 +11554,10 @@
         <v>753</v>
       </c>
       <c r="D180" s="8" t="s">
-        <v>1120</v>
+        <v>1142</v>
       </c>
       <c r="E180" s="8" t="s">
-        <v>768</v>
+        <v>764</v>
       </c>
       <c r="F180" s="6" t="s">
         <v>38</v>
@@ -11575,7 +11575,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="181" spans="1:12" ht="165.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:12" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A181" s="6" t="s">
         <v>772</v>
       </c>
@@ -11586,7 +11586,7 @@
         <v>753</v>
       </c>
       <c r="D181" s="8" t="s">
-        <v>1120</v>
+        <v>1114</v>
       </c>
       <c r="E181" s="8" t="s">
         <v>768</v>
@@ -11595,20 +11595,19 @@
         <v>38</v>
       </c>
       <c r="G181" s="13" t="s">
-        <v>770</v>
-      </c>
-      <c r="H181" s="2"/>
-      <c r="I181" s="13" t="s">
-        <v>771</v>
-      </c>
-      <c r="J181" s="25" t="s">
+        <v>765</v>
+      </c>
+      <c r="I181" s="2" t="s">
+        <v>766</v>
+      </c>
+      <c r="J181" s="6" t="s">
         <v>964</v>
       </c>
-      <c r="K181" s="25" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="182" spans="1:12" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K181" s="6" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="182" spans="1:12" ht="165.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A182" s="6" t="s">
         <v>775</v>
       </c>
@@ -11619,7 +11618,7 @@
         <v>753</v>
       </c>
       <c r="D182" s="8" t="s">
-        <v>1120</v>
+        <v>1114</v>
       </c>
       <c r="E182" s="8" t="s">
         <v>768</v>
@@ -11628,11 +11627,11 @@
         <v>38</v>
       </c>
       <c r="G182" s="13" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
       <c r="H182" s="2"/>
       <c r="I182" s="13" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="J182" s="25" t="s">
         <v>964</v>
@@ -11641,7 +11640,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="183" spans="1:12" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:12" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A183" s="6" t="s">
         <v>780</v>
       </c>
@@ -11652,51 +11651,52 @@
         <v>753</v>
       </c>
       <c r="D183" s="8" t="s">
-        <v>1151</v>
+        <v>1114</v>
       </c>
       <c r="E183" s="8" t="s">
-        <v>776</v>
+        <v>768</v>
       </c>
       <c r="F183" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="G183" s="2" t="s">
-        <v>777</v>
-      </c>
-      <c r="I183" s="2" t="s">
-        <v>778</v>
-      </c>
-      <c r="J183" s="6" t="s">
+      <c r="G183" s="13" t="s">
+        <v>773</v>
+      </c>
+      <c r="H183" s="2"/>
+      <c r="I183" s="13" t="s">
+        <v>774</v>
+      </c>
+      <c r="J183" s="25" t="s">
         <v>964</v>
       </c>
       <c r="K183" s="25" t="s">
         <v>911</v>
       </c>
     </row>
-    <row r="184" spans="1:12" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:12" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A184" s="6" t="s">
         <v>783</v>
       </c>
       <c r="B184" s="10" t="s">
         <v>735</v>
       </c>
-      <c r="C184" s="8" t="s">
-        <v>779</v>
+      <c r="C184" s="6" t="s">
+        <v>753</v>
       </c>
       <c r="D184" s="8" t="s">
-        <v>1121</v>
-      </c>
-      <c r="E184" s="6" t="s">
-        <v>786</v>
+        <v>1143</v>
+      </c>
+      <c r="E184" s="8" t="s">
+        <v>776</v>
       </c>
       <c r="F184" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G184" s="2" t="s">
-        <v>781</v>
+        <v>777</v>
       </c>
       <c r="I184" s="2" t="s">
-        <v>782</v>
+        <v>778</v>
       </c>
       <c r="J184" s="6" t="s">
         <v>964</v>
@@ -11705,7 +11705,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="185" spans="1:12" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:12" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A185" s="6" t="s">
         <v>789</v>
       </c>
@@ -11713,22 +11713,22 @@
         <v>735</v>
       </c>
       <c r="C185" s="8" t="s">
-        <v>784</v>
+        <v>779</v>
       </c>
       <c r="D185" s="8" t="s">
-        <v>1152</v>
+        <v>1115</v>
       </c>
       <c r="E185" s="6" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="F185" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G185" s="2" t="s">
-        <v>787</v>
+        <v>781</v>
       </c>
       <c r="I185" s="2" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="J185" s="6" t="s">
         <v>964</v>
@@ -11737,7 +11737,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="186" spans="1:12" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:12" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A186" s="6" t="s">
         <v>794</v>
       </c>
@@ -11745,31 +11745,31 @@
         <v>735</v>
       </c>
       <c r="C186" s="8" t="s">
-        <v>790</v>
+        <v>784</v>
       </c>
       <c r="D186" s="8" t="s">
-        <v>1100</v>
-      </c>
-      <c r="E186" s="8" t="s">
-        <v>791</v>
+        <v>1144</v>
+      </c>
+      <c r="E186" s="6" t="s">
+        <v>785</v>
       </c>
       <c r="F186" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G186" s="2" t="s">
-        <v>792</v>
+        <v>787</v>
       </c>
       <c r="I186" s="2" t="s">
-        <v>793</v>
-      </c>
-      <c r="K186" s="26" t="s">
-        <v>909</v>
-      </c>
-      <c r="L186" s="20" t="s">
-        <v>961</v>
-      </c>
-    </row>
-    <row r="187" spans="1:12" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>788</v>
+      </c>
+      <c r="J186" s="6" t="s">
+        <v>964</v>
+      </c>
+      <c r="K186" s="25" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="187" spans="1:12" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A187" s="6" t="s">
         <v>799</v>
       </c>
@@ -11777,22 +11777,22 @@
         <v>735</v>
       </c>
       <c r="C187" s="8" t="s">
-        <v>796</v>
+        <v>790</v>
       </c>
       <c r="D187" s="8" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="E187" s="8" t="s">
-        <v>795</v>
+        <v>791</v>
       </c>
       <c r="F187" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G187" s="2" t="s">
-        <v>798</v>
+        <v>792</v>
       </c>
       <c r="I187" s="2" t="s">
-        <v>797</v>
+        <v>793</v>
       </c>
       <c r="K187" s="26" t="s">
         <v>909</v>
@@ -11801,7 +11801,7 @@
         <v>961</v>
       </c>
     </row>
-    <row r="188" spans="1:12" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:12" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A188" s="6" t="s">
         <v>804</v>
       </c>
@@ -11812,22 +11812,19 @@
         <v>796</v>
       </c>
       <c r="D188" s="8" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="E188" s="8" t="s">
-        <v>800</v>
+        <v>795</v>
       </c>
       <c r="F188" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G188" s="2" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
       <c r="I188" s="2" t="s">
-        <v>803</v>
-      </c>
-      <c r="J188" s="6" t="s">
-        <v>802</v>
+        <v>797</v>
       </c>
       <c r="K188" s="26" t="s">
         <v>909</v>
@@ -11836,7 +11833,7 @@
         <v>961</v>
       </c>
     </row>
-    <row r="189" spans="1:12" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:12" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A189" s="6" t="s">
         <v>810</v>
       </c>
@@ -11844,28 +11841,31 @@
         <v>735</v>
       </c>
       <c r="C189" s="8" t="s">
-        <v>805</v>
+        <v>796</v>
       </c>
       <c r="D189" s="8" t="s">
-        <v>1122</v>
+        <v>1102</v>
       </c>
       <c r="E189" s="8" t="s">
-        <v>806</v>
+        <v>800</v>
       </c>
       <c r="F189" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G189" s="2" t="s">
-        <v>807</v>
+        <v>801</v>
       </c>
       <c r="I189" s="2" t="s">
-        <v>808</v>
+        <v>803</v>
       </c>
       <c r="J189" s="6" t="s">
-        <v>964</v>
-      </c>
-      <c r="K189" s="27" t="s">
-        <v>911</v>
+        <v>802</v>
+      </c>
+      <c r="K189" s="26" t="s">
+        <v>909</v>
+      </c>
+      <c r="L189" s="20" t="s">
+        <v>961</v>
       </c>
     </row>
     <row r="190" spans="1:12" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11879,19 +11879,19 @@
         <v>805</v>
       </c>
       <c r="D190" s="8" t="s">
-        <v>1153</v>
+        <v>1116</v>
       </c>
       <c r="E190" s="8" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="F190" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G190" s="2" t="s">
-        <v>811</v>
+        <v>807</v>
       </c>
       <c r="I190" s="2" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
       <c r="J190" s="6" t="s">
         <v>964</v>
@@ -11900,7 +11900,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="191" spans="1:12" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:12" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A191" s="6" t="s">
         <v>817</v>
       </c>
@@ -11911,19 +11911,19 @@
         <v>805</v>
       </c>
       <c r="D191" s="8" t="s">
-        <v>1154</v>
+        <v>1145</v>
       </c>
       <c r="E191" s="8" t="s">
-        <v>814</v>
+        <v>809</v>
       </c>
       <c r="F191" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G191" s="2" t="s">
-        <v>815</v>
+        <v>811</v>
       </c>
       <c r="I191" s="2" t="s">
-        <v>816</v>
+        <v>812</v>
       </c>
       <c r="J191" s="6" t="s">
         <v>964</v>
@@ -11932,7 +11932,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="192" spans="1:12" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:12" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A192" s="6" t="s">
         <v>819</v>
       </c>
@@ -11943,19 +11943,19 @@
         <v>805</v>
       </c>
       <c r="D192" s="8" t="s">
-        <v>1155</v>
+        <v>1146</v>
       </c>
       <c r="E192" s="8" t="s">
-        <v>826</v>
+        <v>814</v>
       </c>
       <c r="F192" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G192" s="2" t="s">
-        <v>829</v>
+        <v>815</v>
       </c>
       <c r="I192" s="2" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="J192" s="6" t="s">
         <v>964</v>
@@ -11964,7 +11964,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="193" spans="1:12" ht="165.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:12" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A193" s="6" t="s">
         <v>822</v>
       </c>
@@ -11975,28 +11975,25 @@
         <v>805</v>
       </c>
       <c r="D193" s="8" t="s">
-        <v>1170</v>
+        <v>1147</v>
       </c>
       <c r="E193" s="8" t="s">
-        <v>820</v>
+        <v>826</v>
       </c>
       <c r="F193" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G193" s="2" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="I193" s="2" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
       <c r="J193" s="6" t="s">
         <v>964</v>
       </c>
       <c r="K193" s="27" t="s">
         <v>911</v>
-      </c>
-      <c r="L193" s="8" t="s">
-        <v>962</v>
       </c>
     </row>
     <row r="194" spans="1:12" ht="165.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -12010,19 +12007,19 @@
         <v>805</v>
       </c>
       <c r="D194" s="8" t="s">
-        <v>1156</v>
+        <v>1162</v>
       </c>
       <c r="E194" s="8" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
       <c r="F194" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G194" s="2" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="I194" s="2" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="J194" s="6" t="s">
         <v>964</v>
@@ -12030,8 +12027,11 @@
       <c r="K194" s="27" t="s">
         <v>911</v>
       </c>
-    </row>
-    <row r="195" spans="1:12" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L194" s="8" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="195" spans="1:12" ht="165.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A195" s="6" t="s">
         <v>833</v>
       </c>
@@ -12042,19 +12042,19 @@
         <v>805</v>
       </c>
       <c r="D195" s="8" t="s">
-        <v>1157</v>
+        <v>1148</v>
       </c>
       <c r="E195" s="8" t="s">
-        <v>830</v>
+        <v>823</v>
       </c>
       <c r="F195" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G195" s="2" t="s">
-        <v>831</v>
+        <v>827</v>
       </c>
       <c r="I195" s="2" t="s">
-        <v>832</v>
+        <v>824</v>
       </c>
       <c r="J195" s="6" t="s">
         <v>964</v>
@@ -12063,7 +12063,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="196" spans="1:12" ht="180.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:12" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A196" s="6" t="s">
         <v>836</v>
       </c>
@@ -12074,19 +12074,19 @@
         <v>805</v>
       </c>
       <c r="D196" s="8" t="s">
-        <v>1158</v>
+        <v>1149</v>
       </c>
       <c r="E196" s="8" t="s">
-        <v>837</v>
+        <v>830</v>
       </c>
       <c r="F196" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G196" s="2" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="I196" s="2" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
       <c r="J196" s="6" t="s">
         <v>964</v>
@@ -12095,7 +12095,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="197" spans="1:12" ht="210.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:12" ht="180.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A197" s="6" t="s">
         <v>841</v>
       </c>
@@ -12106,19 +12106,19 @@
         <v>805</v>
       </c>
       <c r="D197" s="8" t="s">
-        <v>1159</v>
+        <v>1150</v>
       </c>
       <c r="E197" s="8" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="F197" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G197" s="2" t="s">
-        <v>839</v>
+        <v>834</v>
       </c>
       <c r="I197" s="2" t="s">
-        <v>840</v>
+        <v>835</v>
       </c>
       <c r="J197" s="6" t="s">
         <v>964</v>
@@ -12127,7 +12127,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="198" spans="1:12" ht="195.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:12" ht="210.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A198" s="6" t="s">
         <v>845</v>
       </c>
@@ -12138,19 +12138,19 @@
         <v>805</v>
       </c>
       <c r="D198" s="8" t="s">
-        <v>1160</v>
+        <v>1151</v>
       </c>
       <c r="E198" s="8" t="s">
-        <v>842</v>
+        <v>838</v>
       </c>
       <c r="F198" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G198" s="2" t="s">
-        <v>843</v>
+        <v>839</v>
       </c>
       <c r="I198" s="2" t="s">
-        <v>844</v>
+        <v>840</v>
       </c>
       <c r="J198" s="6" t="s">
         <v>964</v>
@@ -12159,7 +12159,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="199" spans="1:12" ht="225.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:12" ht="195.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A199" s="6" t="s">
         <v>849</v>
       </c>
@@ -12170,28 +12170,28 @@
         <v>805</v>
       </c>
       <c r="D199" s="8" t="s">
-        <v>1171</v>
+        <v>1152</v>
       </c>
       <c r="E199" s="8" t="s">
-        <v>846</v>
+        <v>842</v>
       </c>
       <c r="F199" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G199" s="2" t="s">
-        <v>847</v>
+        <v>843</v>
       </c>
       <c r="I199" s="2" t="s">
-        <v>848</v>
+        <v>844</v>
       </c>
       <c r="J199" s="6" t="s">
-        <v>853</v>
-      </c>
-      <c r="L199" s="20" t="s">
-        <v>963</v>
-      </c>
-    </row>
-    <row r="200" spans="1:12" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>964</v>
+      </c>
+      <c r="K199" s="27" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="200" spans="1:12" ht="225.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A200" s="6" t="s">
         <v>854</v>
       </c>
@@ -12202,19 +12202,19 @@
         <v>805</v>
       </c>
       <c r="D200" s="8" t="s">
-        <v>1172</v>
+        <v>1163</v>
       </c>
       <c r="E200" s="8" t="s">
-        <v>850</v>
+        <v>846</v>
       </c>
       <c r="F200" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G200" s="2" t="s">
-        <v>851</v>
+        <v>847</v>
       </c>
       <c r="I200" s="2" t="s">
-        <v>852</v>
+        <v>848</v>
       </c>
       <c r="J200" s="6" t="s">
         <v>853</v>
@@ -12234,28 +12234,28 @@
         <v>805</v>
       </c>
       <c r="D201" s="8" t="s">
-        <v>1161</v>
+        <v>1164</v>
       </c>
       <c r="E201" s="8" t="s">
-        <v>855</v>
+        <v>850</v>
       </c>
       <c r="F201" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G201" s="2" t="s">
-        <v>856</v>
+        <v>851</v>
       </c>
       <c r="I201" s="2" t="s">
-        <v>857</v>
+        <v>852</v>
       </c>
       <c r="J201" s="6" t="s">
-        <v>964</v>
-      </c>
-      <c r="K201" s="27" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="202" spans="1:12" ht="165.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>853</v>
+      </c>
+      <c r="L201" s="20" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="202" spans="1:12" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A202" s="6" t="s">
         <v>861</v>
       </c>
@@ -12266,19 +12266,19 @@
         <v>805</v>
       </c>
       <c r="D202" s="8" t="s">
-        <v>1158</v>
+        <v>1153</v>
       </c>
       <c r="E202" s="8" t="s">
-        <v>862</v>
+        <v>855</v>
       </c>
       <c r="F202" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G202" s="2" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="I202" s="2" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="J202" s="6" t="s">
         <v>964</v>
@@ -12287,7 +12287,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="203" spans="1:12" ht="225.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:12" ht="165.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A203" s="6" t="s">
         <v>866</v>
       </c>
@@ -12297,26 +12297,29 @@
       <c r="C203" s="8" t="s">
         <v>805</v>
       </c>
+      <c r="D203" s="8" t="s">
+        <v>1150</v>
+      </c>
       <c r="E203" s="8" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="F203" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G203" s="2" t="s">
-        <v>864</v>
+        <v>859</v>
       </c>
       <c r="I203" s="2" t="s">
-        <v>865</v>
-      </c>
-      <c r="K203" s="26" t="s">
-        <v>909</v>
-      </c>
-      <c r="L203" s="20" t="s">
-        <v>965</v>
-      </c>
-    </row>
-    <row r="204" spans="1:12" ht="240.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>860</v>
+      </c>
+      <c r="J203" s="6" t="s">
+        <v>964</v>
+      </c>
+      <c r="K203" s="27" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="204" spans="1:12" ht="225.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A204" s="6" t="s">
         <v>870</v>
       </c>
@@ -12327,19 +12330,16 @@
         <v>805</v>
       </c>
       <c r="E204" s="8" t="s">
-        <v>867</v>
+        <v>863</v>
       </c>
       <c r="F204" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G204" s="2" t="s">
-        <v>868</v>
+        <v>864</v>
       </c>
       <c r="I204" s="2" t="s">
-        <v>869</v>
-      </c>
-      <c r="J204" s="6" t="s">
-        <v>853</v>
+        <v>865</v>
       </c>
       <c r="K204" s="26" t="s">
         <v>909</v>
@@ -12348,7 +12348,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="205" spans="1:12" ht="165.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:12" ht="240.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A205" s="6" t="s">
         <v>873</v>
       </c>
@@ -12359,83 +12359,83 @@
         <v>805</v>
       </c>
       <c r="E205" s="8" t="s">
-        <v>820</v>
+        <v>867</v>
       </c>
       <c r="F205" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G205" s="2" t="s">
-        <v>871</v>
+        <v>868</v>
       </c>
       <c r="I205" s="2" t="s">
-        <v>872</v>
-      </c>
-      <c r="J205" s="8" t="s">
-        <v>966</v>
-      </c>
-      <c r="K205" s="20" t="s">
+        <v>869</v>
+      </c>
+      <c r="J205" s="6" t="s">
+        <v>853</v>
+      </c>
+      <c r="K205" s="26" t="s">
         <v>909</v>
       </c>
       <c r="L205" s="20" t="s">
-        <v>967</v>
-      </c>
-    </row>
-    <row r="206" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="206" spans="1:12" ht="165.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A206" s="6" t="s">
         <v>878</v>
       </c>
-      <c r="B206" s="6" t="s">
-        <v>874</v>
-      </c>
-      <c r="C206" s="6" t="s">
-        <v>874</v>
-      </c>
-      <c r="D206" s="8" t="s">
-        <v>1162</v>
+      <c r="B206" s="10" t="s">
+        <v>735</v>
+      </c>
+      <c r="C206" s="8" t="s">
+        <v>805</v>
       </c>
       <c r="E206" s="8" t="s">
-        <v>879</v>
+        <v>820</v>
       </c>
       <c r="F206" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G206" s="2" t="s">
-        <v>880</v>
+        <v>871</v>
       </c>
       <c r="I206" s="2" t="s">
-        <v>881</v>
-      </c>
-      <c r="J206" s="6" t="s">
-        <v>964</v>
-      </c>
-      <c r="K206" s="22" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="207" spans="1:12" ht="180" x14ac:dyDescent="0.25">
+        <v>872</v>
+      </c>
+      <c r="J206" s="8" t="s">
+        <v>966</v>
+      </c>
+      <c r="K206" s="20" t="s">
+        <v>909</v>
+      </c>
+      <c r="L206" s="20" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="207" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A207" s="6" t="s">
         <v>884</v>
       </c>
       <c r="B207" s="6" t="s">
         <v>874</v>
       </c>
-      <c r="C207" s="8" t="s">
-        <v>875</v>
+      <c r="C207" s="6" t="s">
+        <v>874</v>
       </c>
       <c r="D207" s="8" t="s">
-        <v>1163</v>
+        <v>1154</v>
       </c>
       <c r="E207" s="8" t="s">
-        <v>876</v>
+        <v>879</v>
       </c>
       <c r="F207" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G207" s="2" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="I207" s="2" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="J207" s="6" t="s">
         <v>964</v>
@@ -12444,7 +12444,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="208" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:12" ht="180" x14ac:dyDescent="0.25">
       <c r="A208" s="6" t="s">
         <v>905</v>
       </c>
@@ -12452,22 +12452,22 @@
         <v>874</v>
       </c>
       <c r="C208" s="8" t="s">
-        <v>885</v>
+        <v>875</v>
       </c>
       <c r="D208" s="8" t="s">
-        <v>1164</v>
+        <v>1155</v>
       </c>
       <c r="E208" s="8" t="s">
-        <v>886</v>
+        <v>876</v>
       </c>
       <c r="F208" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G208" s="2" t="s">
-        <v>877</v>
+        <v>882</v>
       </c>
       <c r="I208" s="2" t="s">
-        <v>887</v>
+        <v>883</v>
       </c>
       <c r="J208" s="6" t="s">
         <v>964</v>
@@ -12476,8 +12476,40 @@
         <v>911</v>
       </c>
     </row>
-    <row r="209" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E209" s="8"/>
+    <row r="209" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A209" s="6" t="s">
+        <v>906</v>
+      </c>
+      <c r="B209" s="6" t="s">
+        <v>874</v>
+      </c>
+      <c r="C209" s="8" t="s">
+        <v>885</v>
+      </c>
+      <c r="D209" s="8" t="s">
+        <v>1156</v>
+      </c>
+      <c r="E209" s="8" t="s">
+        <v>886</v>
+      </c>
+      <c r="F209" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G209" s="2" t="s">
+        <v>877</v>
+      </c>
+      <c r="I209" s="2" t="s">
+        <v>887</v>
+      </c>
+      <c r="J209" s="6" t="s">
+        <v>964</v>
+      </c>
+      <c r="K209" s="22" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E210" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Advantage Test Cases.xlsx
+++ b/Advantage Test Cases.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3949" uniqueCount="1202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3951" uniqueCount="1212">
   <si>
     <t>Test Objective</t>
   </si>
@@ -5068,9 +5068,6 @@
     <t>fi_FunctionalityofLearningResources</t>
   </si>
   <si>
-    <t>fi_FunctionalityToofLearningResources</t>
-  </si>
-  <si>
     <t>fi_FunctionalityofPlayContent</t>
   </si>
   <si>
@@ -5110,21 +5107,6 @@
     <t>fn_ViewAverageScoreofSelectedSubject</t>
   </si>
   <si>
-    <t>fi_FunctionalityToCreateofSelectingchapter</t>
-  </si>
-  <si>
-    <t>fi_FunctionalityofAnotherresources</t>
-  </si>
-  <si>
-    <t>fi_ForMandatoryFieldsOnofPopupwindow</t>
-  </si>
-  <si>
-    <t>fi_FunctionalityofOtherresources</t>
-  </si>
-  <si>
-    <t>fi_FunctionalityToTagMetadataofUploadedlink</t>
-  </si>
-  <si>
     <t>fi_ValidationsForMandatoryFieldsofPopupwindow</t>
   </si>
   <si>
@@ -5230,9 +5212,6 @@
     <t>fn_DisplayPracticeTestDetails</t>
   </si>
   <si>
-    <t>fi_ForMandatoryFieldsOnAddLinkPopupWindow</t>
-  </si>
-  <si>
     <t>fi_FunctionalityOfAssessmentGenerationCorrespondingToTheQuestions</t>
   </si>
   <si>
@@ -5257,9 +5236,6 @@
     <t>fn_ViewTheQuestionAnswerChoicestudentAnswerandrightReport</t>
   </si>
   <si>
-    <t>fi_FunctionalityToTagmetadataTotheuploadedSubjec</t>
-  </si>
-  <si>
     <t>fn_ViewMarkSheetofSelectedStudent</t>
   </si>
   <si>
@@ -5359,7 +5335,82 @@
     <t>fn_FilterLearningResources</t>
   </si>
   <si>
-    <t>fn_SearchLearningResources</t>
+    <t>fn_SearchLearningResource</t>
+  </si>
+  <si>
+    <t>fn_SearchInvalidLearningResources</t>
+  </si>
+  <si>
+    <t>fn_CreateLink</t>
+  </si>
+  <si>
+    <t>fn_CreatelinkWithoutSelectingchapter</t>
+  </si>
+  <si>
+    <t>fn_ValidationforMandatoryFieldsonAddLinkPopupWindow</t>
+  </si>
+  <si>
+    <t>fn_UploadAnotherresources</t>
+  </si>
+  <si>
+    <t>fn_TagmetadataToUploadedSubject</t>
+  </si>
+  <si>
+    <t>Need discussion over it
+1. after selecting metadata option window is misaligned and covered by header</t>
+  </si>
+  <si>
+    <t>fn_CreateAssignment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Learning Resources-Create Resource  </t>
+  </si>
+  <si>
+    <t>fn_CreateResource</t>
+  </si>
+  <si>
+    <t>To verify the functionality to create Resource</t>
+  </si>
+  <si>
+    <t>Name: Testing Resource
+Description: This is a testing Resource name</t>
+  </si>
+  <si>
+    <t>fn_CreateResourceWithoutSelectingchapter</t>
+  </si>
+  <si>
+    <t>fn_ValidationforMandatoryFieldsonAddResourcePopupWindow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.  On dashboard click on a Subject
+2. Select a subject for Class-Subject drop-down list 
+3. On Subjects page, click Learning Resources  tab
+4. Select a class and subject from Class-Subject drop-down list at the left top corner of the page
+5. Select a chapter on the left pane to which you wish to add a link
+6. Select Resource option from Create drop-down list
+7. Click on Upload link without entering name
+8. Enter name and click Upload link without choosing  file field
+</t>
+  </si>
+  <si>
+    <t>1.  On dashboard click on a Subject
+2. Select a subject for Class-Subject drop-down list 
+3. On Subjects page, click Learning Resources  tab
+4. Select a class and subject from Class-Subject drop-down list at the left top corner of the page
+5. Select a chapter on the left pane to which you wish to add a link
+6. Select Resource option from Create drop-down list
+7. Enter a name for the link in Name text box
+8. Set the time duration for the resource from Hours and Minutes drop-down lists
+9. Enter a brief description about the resource link in Description text box
+10. Enter a purpose for the resource link in Purpose text box
+11. Enter a valid link in Upload link text box
+12.  Click on Upload Link</t>
+  </si>
+  <si>
+    <t>fn_UploadAnotherLearningResource</t>
+  </si>
+  <si>
+    <t>After deleted loader is moving on for long time</t>
   </si>
 </sst>
 </file>
@@ -5837,8 +5888,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA210"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A117" workbookViewId="0">
-      <selection activeCell="D118" sqref="D118"/>
+    <sheetView tabSelected="1" topLeftCell="A120" workbookViewId="0">
+      <selection activeCell="A120" sqref="A120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8452,7 +8503,7 @@
         <v>347</v>
       </c>
       <c r="D83" s="8" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="E83" s="8" t="s">
         <v>352</v>
@@ -8484,7 +8535,7 @@
         <v>347</v>
       </c>
       <c r="D84" s="8" t="s">
-        <v>1157</v>
+        <v>1151</v>
       </c>
       <c r="E84" s="8" t="s">
         <v>355</v>
@@ -8516,7 +8567,7 @@
         <v>347</v>
       </c>
       <c r="D85" s="8" t="s">
-        <v>1165</v>
+        <v>1158</v>
       </c>
       <c r="E85" s="8" t="s">
         <v>360</v>
@@ -8548,7 +8599,7 @@
         <v>347</v>
       </c>
       <c r="D86" s="8" t="s">
-        <v>1166</v>
+        <v>1159</v>
       </c>
       <c r="E86" s="8" t="s">
         <v>364</v>
@@ -8580,7 +8631,7 @@
         <v>368</v>
       </c>
       <c r="D87" s="8" t="s">
-        <v>1168</v>
+        <v>1160</v>
       </c>
       <c r="E87" s="8" t="s">
         <v>370</v>
@@ -8612,7 +8663,7 @@
         <v>368</v>
       </c>
       <c r="D88" s="8" t="s">
-        <v>1169</v>
+        <v>1161</v>
       </c>
       <c r="E88" s="8" t="s">
         <v>374</v>
@@ -8642,7 +8693,7 @@
         <v>377</v>
       </c>
       <c r="D89" s="8" t="s">
-        <v>1170</v>
+        <v>1162</v>
       </c>
       <c r="E89" s="8" t="s">
         <v>382</v>
@@ -8671,7 +8722,7 @@
         <v>381</v>
       </c>
       <c r="D90" s="8" t="s">
-        <v>1171</v>
+        <v>1163</v>
       </c>
       <c r="E90" s="8" t="s">
         <v>384</v>
@@ -8703,7 +8754,7 @@
         <v>381</v>
       </c>
       <c r="D91" s="8" t="s">
-        <v>1172</v>
+        <v>1164</v>
       </c>
       <c r="E91" s="8" t="s">
         <v>386</v>
@@ -8735,7 +8786,7 @@
         <v>381</v>
       </c>
       <c r="D92" s="8" t="s">
-        <v>1173</v>
+        <v>1165</v>
       </c>
       <c r="E92" s="8" t="s">
         <v>390</v>
@@ -8767,7 +8818,7 @@
         <v>381</v>
       </c>
       <c r="D93" s="8" t="s">
-        <v>1174</v>
+        <v>1166</v>
       </c>
       <c r="E93" s="8" t="s">
         <v>394</v>
@@ -8799,7 +8850,7 @@
         <v>381</v>
       </c>
       <c r="D94" s="8" t="s">
-        <v>1175</v>
+        <v>1167</v>
       </c>
       <c r="E94" s="8" t="s">
         <v>398</v>
@@ -8831,7 +8882,7 @@
         <v>381</v>
       </c>
       <c r="D95" s="8" t="s">
-        <v>1176</v>
+        <v>1168</v>
       </c>
       <c r="E95" s="8" t="s">
         <v>403</v>
@@ -8863,7 +8914,7 @@
         <v>381</v>
       </c>
       <c r="D96" s="8" t="s">
-        <v>1177</v>
+        <v>1169</v>
       </c>
       <c r="E96" s="8" t="s">
         <v>407</v>
@@ -8895,7 +8946,7 @@
         <v>414</v>
       </c>
       <c r="D97" s="8" t="s">
-        <v>1178</v>
+        <v>1170</v>
       </c>
       <c r="E97" s="8" t="s">
         <v>412</v>
@@ -8927,7 +8978,7 @@
         <v>414</v>
       </c>
       <c r="D98" s="8" t="s">
-        <v>1179</v>
+        <v>1171</v>
       </c>
       <c r="E98" s="8" t="s">
         <v>416</v>
@@ -8959,7 +9010,7 @@
         <v>425</v>
       </c>
       <c r="D99" s="8" t="s">
-        <v>1180</v>
+        <v>1172</v>
       </c>
       <c r="E99" s="8" t="s">
         <v>424</v>
@@ -8991,7 +9042,7 @@
         <v>422</v>
       </c>
       <c r="D100" s="8" t="s">
-        <v>1181</v>
+        <v>1173</v>
       </c>
       <c r="E100" s="8" t="s">
         <v>427</v>
@@ -9023,7 +9074,7 @@
         <v>422</v>
       </c>
       <c r="D101" s="8" t="s">
-        <v>1182</v>
+        <v>1174</v>
       </c>
       <c r="E101" s="8" t="s">
         <v>429</v>
@@ -9044,7 +9095,7 @@
         <v>1012</v>
       </c>
       <c r="L101" s="8" t="s">
-        <v>1183</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="102" spans="1:12" ht="195" x14ac:dyDescent="0.25">
@@ -9058,7 +9109,7 @@
         <v>422</v>
       </c>
       <c r="D102" s="8" t="s">
-        <v>1184</v>
+        <v>1176</v>
       </c>
       <c r="E102" s="8" t="s">
         <v>436</v>
@@ -9090,7 +9141,7 @@
         <v>422</v>
       </c>
       <c r="D103" s="8" t="s">
-        <v>1185</v>
+        <v>1177</v>
       </c>
       <c r="E103" s="8" t="s">
         <v>438</v>
@@ -9119,7 +9170,7 @@
         <v>442</v>
       </c>
       <c r="D104" s="8" t="s">
-        <v>1186</v>
+        <v>1178</v>
       </c>
       <c r="E104" s="6" t="s">
         <v>443</v>
@@ -9151,7 +9202,7 @@
         <v>442</v>
       </c>
       <c r="D105" s="8" t="s">
-        <v>1187</v>
+        <v>1179</v>
       </c>
       <c r="E105" s="8" t="s">
         <v>446</v>
@@ -9183,7 +9234,7 @@
         <v>442</v>
       </c>
       <c r="D106" s="8" t="s">
-        <v>1188</v>
+        <v>1180</v>
       </c>
       <c r="E106" s="8" t="s">
         <v>451</v>
@@ -9215,7 +9266,7 @@
         <v>442</v>
       </c>
       <c r="D107" s="8" t="s">
-        <v>1189</v>
+        <v>1181</v>
       </c>
       <c r="E107" s="8" t="s">
         <v>455</v>
@@ -9244,7 +9295,7 @@
         <v>458</v>
       </c>
       <c r="D108" s="8" t="s">
-        <v>1190</v>
+        <v>1182</v>
       </c>
       <c r="E108" s="6" t="s">
         <v>460</v>
@@ -9258,8 +9309,8 @@
       <c r="J108" s="6" t="s">
         <v>972</v>
       </c>
-      <c r="K108" s="6" t="s">
-        <v>911</v>
+      <c r="K108" t="s">
+        <v>1012</v>
       </c>
     </row>
     <row r="109" spans="1:12" ht="135" x14ac:dyDescent="0.25">
@@ -9273,7 +9324,7 @@
         <v>458</v>
       </c>
       <c r="D109" s="8" t="s">
-        <v>1191</v>
+        <v>1183</v>
       </c>
       <c r="E109" s="8" t="s">
         <v>620</v>
@@ -9302,7 +9353,7 @@
         <v>458</v>
       </c>
       <c r="D110" s="8" t="s">
-        <v>1192</v>
+        <v>1184</v>
       </c>
       <c r="E110" s="8" t="s">
         <v>621</v>
@@ -9331,7 +9382,7 @@
         <v>464</v>
       </c>
       <c r="D111" s="8" t="s">
-        <v>1193</v>
+        <v>1185</v>
       </c>
       <c r="E111" s="8" t="s">
         <v>465</v>
@@ -9357,10 +9408,10 @@
         <v>411</v>
       </c>
       <c r="C112" s="8" t="s">
-        <v>1196</v>
+        <v>1188</v>
       </c>
       <c r="D112" s="8" t="s">
-        <v>1195</v>
+        <v>1187</v>
       </c>
       <c r="E112" s="8"/>
       <c r="G112" s="2"/>
@@ -9380,7 +9431,7 @@
         <v>468</v>
       </c>
       <c r="D113" s="8" t="s">
-        <v>1194</v>
+        <v>1186</v>
       </c>
       <c r="E113" s="8" t="s">
         <v>471</v>
@@ -9394,8 +9445,8 @@
       <c r="J113" s="6" t="s">
         <v>972</v>
       </c>
-      <c r="K113" s="6" t="s">
-        <v>911</v>
+      <c r="K113" t="s">
+        <v>1012</v>
       </c>
     </row>
     <row r="114" spans="1:12" ht="210" x14ac:dyDescent="0.25">
@@ -9409,7 +9460,7 @@
         <v>472</v>
       </c>
       <c r="D114" s="8" t="s">
-        <v>1197</v>
+        <v>1189</v>
       </c>
       <c r="E114" s="8" t="s">
         <v>474</v>
@@ -9438,7 +9489,7 @@
         <v>481</v>
       </c>
       <c r="D115" s="8" t="s">
-        <v>1198</v>
+        <v>1190</v>
       </c>
       <c r="E115" s="8" t="s">
         <v>424</v>
@@ -9455,8 +9506,8 @@
       <c r="J115" s="6" t="s">
         <v>972</v>
       </c>
-      <c r="K115" s="6" t="s">
-        <v>911</v>
+      <c r="K115" t="s">
+        <v>1012</v>
       </c>
     </row>
     <row r="116" spans="1:12" ht="150" x14ac:dyDescent="0.25">
@@ -9470,7 +9521,7 @@
         <v>477</v>
       </c>
       <c r="D116" s="8" t="s">
-        <v>1199</v>
+        <v>1191</v>
       </c>
       <c r="E116" s="8" t="s">
         <v>478</v>
@@ -9487,8 +9538,8 @@
       <c r="J116" s="6" t="s">
         <v>972</v>
       </c>
-      <c r="K116" s="6" t="s">
-        <v>911</v>
+      <c r="K116" t="s">
+        <v>1012</v>
       </c>
     </row>
     <row r="117" spans="1:12" ht="165" x14ac:dyDescent="0.25">
@@ -9502,7 +9553,7 @@
         <v>486</v>
       </c>
       <c r="D117" s="8" t="s">
-        <v>1200</v>
+        <v>1192</v>
       </c>
       <c r="E117" s="8" t="s">
         <v>487</v>
@@ -9534,7 +9585,7 @@
         <v>490</v>
       </c>
       <c r="D118" s="8" t="s">
-        <v>1201</v>
+        <v>1193</v>
       </c>
       <c r="E118" s="8" t="s">
         <v>491</v>
@@ -9551,8 +9602,8 @@
       <c r="J118" s="6" t="s">
         <v>972</v>
       </c>
-      <c r="K118" s="6" t="s">
-        <v>911</v>
+      <c r="K118" t="s">
+        <v>1012</v>
       </c>
     </row>
     <row r="119" spans="1:12" ht="150" x14ac:dyDescent="0.25">
@@ -9566,7 +9617,7 @@
         <v>490</v>
       </c>
       <c r="D119" s="8" t="s">
-        <v>1104</v>
+        <v>1194</v>
       </c>
       <c r="E119" s="8" t="s">
         <v>495</v>
@@ -9583,8 +9634,8 @@
       <c r="J119" s="6" t="s">
         <v>972</v>
       </c>
-      <c r="K119" s="6" t="s">
-        <v>911</v>
+      <c r="K119" t="s">
+        <v>1012</v>
       </c>
     </row>
     <row r="120" spans="1:12" ht="315" x14ac:dyDescent="0.25">
@@ -9598,7 +9649,7 @@
         <v>498</v>
       </c>
       <c r="D120" s="8" t="s">
-        <v>999</v>
+        <v>1195</v>
       </c>
       <c r="E120" s="8" t="s">
         <v>500</v>
@@ -9633,7 +9684,7 @@
         <v>498</v>
       </c>
       <c r="D121" s="8" t="s">
-        <v>1118</v>
+        <v>1196</v>
       </c>
       <c r="E121" s="8" t="s">
         <v>505</v>
@@ -9665,7 +9716,7 @@
         <v>498</v>
       </c>
       <c r="D122" s="8" t="s">
-        <v>1158</v>
+        <v>1197</v>
       </c>
       <c r="E122" s="8" t="s">
         <v>508</v>
@@ -9683,10 +9734,10 @@
       <c r="J122" s="8" t="s">
         <v>972</v>
       </c>
-      <c r="K122" s="8" t="s">
-        <v>911</v>
-      </c>
-      <c r="L122" s="8" t="s">
+      <c r="K122" t="s">
+        <v>1012</v>
+      </c>
+      <c r="L122" s="20" t="s">
         <v>974</v>
       </c>
     </row>
@@ -9701,7 +9752,7 @@
         <v>498</v>
       </c>
       <c r="D123" s="8" t="s">
-        <v>1119</v>
+        <v>1198</v>
       </c>
       <c r="E123" s="8" t="s">
         <v>513</v>
@@ -9734,7 +9785,7 @@
         <v>498</v>
       </c>
       <c r="D124" s="8" t="s">
-        <v>1167</v>
+        <v>1199</v>
       </c>
       <c r="E124" s="8" t="s">
         <v>521</v>
@@ -9752,11 +9803,11 @@
       <c r="K124" s="8" t="s">
         <v>911</v>
       </c>
-      <c r="L124" s="8" t="s">
-        <v>949</v>
-      </c>
-    </row>
-    <row r="125" spans="1:12" ht="360" x14ac:dyDescent="0.25">
+      <c r="L124" s="20" t="s">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12" ht="315" x14ac:dyDescent="0.25">
       <c r="A125" s="6" t="s">
         <v>539</v>
       </c>
@@ -9764,31 +9815,31 @@
         <v>411</v>
       </c>
       <c r="C125" s="8" t="s">
-        <v>517</v>
+        <v>1202</v>
       </c>
       <c r="D125" s="8" t="s">
-        <v>999</v>
+        <v>1203</v>
       </c>
       <c r="E125" s="8" t="s">
-        <v>518</v>
+        <v>1204</v>
       </c>
       <c r="F125" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>531</v>
+        <v>1209</v>
       </c>
       <c r="H125" s="2" t="s">
-        <v>542</v>
+        <v>1205</v>
       </c>
       <c r="I125" s="2" t="s">
-        <v>532</v>
-      </c>
-      <c r="K125" s="22" t="s">
+        <v>502</v>
+      </c>
+      <c r="K125" s="8" t="s">
         <v>911</v>
       </c>
       <c r="L125" s="20" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
     </row>
     <row r="126" spans="1:12" ht="75" x14ac:dyDescent="0.25">
@@ -9799,31 +9850,31 @@
         <v>411</v>
       </c>
       <c r="C126" s="8" t="s">
-        <v>517</v>
+        <v>498</v>
       </c>
       <c r="D126" s="8" t="s">
-        <v>1118</v>
+        <v>1206</v>
       </c>
       <c r="E126" s="8" t="s">
-        <v>525</v>
+        <v>505</v>
       </c>
       <c r="F126" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>526</v>
+        <v>506</v>
       </c>
       <c r="I126" s="2" t="s">
-        <v>527</v>
+        <v>507</v>
       </c>
       <c r="J126" s="6" t="s">
         <v>972</v>
       </c>
-      <c r="K126" s="8" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="127" spans="1:12" ht="255" x14ac:dyDescent="0.25">
+      <c r="K126" s="6" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12" ht="270" x14ac:dyDescent="0.25">
       <c r="A127" s="6" t="s">
         <v>547</v>
       </c>
@@ -9831,23 +9882,23 @@
         <v>411</v>
       </c>
       <c r="C127" s="8" t="s">
-        <v>517</v>
+        <v>498</v>
       </c>
       <c r="D127" s="8" t="s">
-        <v>1120</v>
+        <v>1207</v>
       </c>
       <c r="E127" s="8" t="s">
-        <v>528</v>
+        <v>508</v>
       </c>
       <c r="F127" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>529</v>
+        <v>1208</v>
       </c>
       <c r="H127" s="2"/>
       <c r="I127" s="2" t="s">
-        <v>530</v>
+        <v>511</v>
       </c>
       <c r="J127" s="8" t="s">
         <v>972</v>
@@ -9855,8 +9906,11 @@
       <c r="K127" s="8" t="s">
         <v>911</v>
       </c>
-    </row>
-    <row r="128" spans="1:12" ht="375" x14ac:dyDescent="0.25">
+      <c r="L127" s="20" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12" ht="345" x14ac:dyDescent="0.25">
       <c r="A128" s="6" t="s">
         <v>551</v>
       </c>
@@ -9864,23 +9918,23 @@
         <v>411</v>
       </c>
       <c r="C128" s="8" t="s">
-        <v>517</v>
+        <v>498</v>
       </c>
       <c r="D128" s="8" t="s">
-        <v>1121</v>
+        <v>1210</v>
       </c>
       <c r="E128" s="8" t="s">
-        <v>533</v>
+        <v>513</v>
       </c>
       <c r="F128" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="H128" s="2"/>
       <c r="I128" s="2" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="J128" s="8" t="s">
         <v>972</v>
@@ -9889,7 +9943,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="129" spans="1:12" ht="360" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:12" ht="345" x14ac:dyDescent="0.25">
       <c r="A129" s="6" t="s">
         <v>556</v>
       </c>
@@ -9897,10 +9951,10 @@
         <v>411</v>
       </c>
       <c r="C129" s="8" t="s">
-        <v>517</v>
+        <v>498</v>
       </c>
       <c r="D129" s="8" t="s">
-        <v>1122</v>
+        <v>1199</v>
       </c>
       <c r="E129" s="8" t="s">
         <v>521</v>
@@ -9909,17 +9963,17 @@
         <v>38</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>534</v>
+        <v>522</v>
       </c>
       <c r="H129" s="2"/>
       <c r="I129" s="2" t="s">
-        <v>535</v>
-      </c>
-      <c r="J129" s="8" t="s">
-        <v>972</v>
+        <v>523</v>
       </c>
       <c r="K129" s="8" t="s">
         <v>911</v>
+      </c>
+      <c r="L129" s="20" t="s">
+        <v>1200</v>
       </c>
     </row>
     <row r="130" spans="1:12" ht="375" x14ac:dyDescent="0.25">
@@ -9933,7 +9987,7 @@
         <v>540</v>
       </c>
       <c r="D130" s="8" t="s">
-        <v>999</v>
+        <v>1201</v>
       </c>
       <c r="E130" s="8" t="s">
         <v>543</v>
@@ -9965,7 +10019,7 @@
         <v>540</v>
       </c>
       <c r="D131" s="8" t="s">
-        <v>1123</v>
+        <v>1117</v>
       </c>
       <c r="E131" s="8" t="s">
         <v>548</v>
@@ -10018,6 +10072,9 @@
       <c r="K132" s="8" t="s">
         <v>911</v>
       </c>
+      <c r="L132" s="20" t="s">
+        <v>1211</v>
+      </c>
     </row>
     <row r="133" spans="1:12" ht="165" x14ac:dyDescent="0.25">
       <c r="A133" s="6" t="s">
@@ -10030,7 +10087,7 @@
         <v>552</v>
       </c>
       <c r="D133" s="8" t="s">
-        <v>1124</v>
+        <v>1118</v>
       </c>
       <c r="E133" s="8" t="s">
         <v>557</v>
@@ -10062,7 +10119,7 @@
         <v>561</v>
       </c>
       <c r="D134" s="8" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="E134" s="8" t="s">
         <v>562</v>
@@ -10094,7 +10151,7 @@
         <v>561</v>
       </c>
       <c r="D135" s="8" t="s">
-        <v>1125</v>
+        <v>1119</v>
       </c>
       <c r="E135" s="8" t="s">
         <v>565</v>
@@ -10126,7 +10183,7 @@
         <v>561</v>
       </c>
       <c r="D136" s="8" t="s">
-        <v>1126</v>
+        <v>1120</v>
       </c>
       <c r="E136" s="8" t="s">
         <v>568</v>
@@ -10158,7 +10215,7 @@
         <v>561</v>
       </c>
       <c r="D137" s="8" t="s">
-        <v>1127</v>
+        <v>1121</v>
       </c>
       <c r="E137" s="8" t="s">
         <v>572</v>
@@ -10190,7 +10247,7 @@
         <v>561</v>
       </c>
       <c r="D138" s="8" t="s">
-        <v>1128</v>
+        <v>1122</v>
       </c>
       <c r="E138" s="8" t="s">
         <v>576</v>
@@ -10222,7 +10279,7 @@
         <v>581</v>
       </c>
       <c r="D139" s="8" t="s">
-        <v>1129</v>
+        <v>1123</v>
       </c>
       <c r="E139" s="6" t="s">
         <v>582</v>
@@ -10254,7 +10311,7 @@
         <v>581</v>
       </c>
       <c r="D140" s="8" t="s">
-        <v>1130</v>
+        <v>1124</v>
       </c>
       <c r="E140" s="8" t="s">
         <v>625</v>
@@ -10286,7 +10343,7 @@
         <v>581</v>
       </c>
       <c r="D141" s="8" t="s">
-        <v>1131</v>
+        <v>1125</v>
       </c>
       <c r="E141" s="8" t="s">
         <v>628</v>
@@ -10318,7 +10375,7 @@
         <v>581</v>
       </c>
       <c r="D142" s="8" t="s">
-        <v>1132</v>
+        <v>1126</v>
       </c>
       <c r="E142" s="8" t="s">
         <v>586</v>
@@ -10350,7 +10407,7 @@
         <v>594</v>
       </c>
       <c r="D143" s="8" t="s">
-        <v>1159</v>
+        <v>1152</v>
       </c>
       <c r="E143" s="8" t="s">
         <v>593</v>
@@ -10385,7 +10442,7 @@
         <v>595</v>
       </c>
       <c r="D144" s="8" t="s">
-        <v>1133</v>
+        <v>1127</v>
       </c>
       <c r="E144" s="8" t="s">
         <v>596</v>
@@ -10417,7 +10474,7 @@
         <v>595</v>
       </c>
       <c r="D145" s="8" t="s">
-        <v>1134</v>
+        <v>1128</v>
       </c>
       <c r="E145" s="8" t="s">
         <v>600</v>
@@ -10481,7 +10538,7 @@
         <v>595</v>
       </c>
       <c r="D147" s="8" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="E147" s="8" t="s">
         <v>609</v>
@@ -10513,7 +10570,7 @@
         <v>595</v>
       </c>
       <c r="D148" s="8" t="s">
-        <v>1134</v>
+        <v>1128</v>
       </c>
       <c r="E148" s="8" t="s">
         <v>612</v>
@@ -10812,7 +10869,7 @@
         <v>665</v>
       </c>
       <c r="D158" s="8" t="s">
-        <v>1135</v>
+        <v>1129</v>
       </c>
       <c r="E158" s="8" t="s">
         <v>694</v>
@@ -10877,7 +10934,7 @@
         <v>665</v>
       </c>
       <c r="D160" s="8" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="E160" s="8" t="s">
         <v>675</v>
@@ -10909,7 +10966,7 @@
         <v>665</v>
       </c>
       <c r="D161" s="8" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="E161" s="8" t="s">
         <v>679</v>
@@ -10941,7 +10998,7 @@
         <v>665</v>
       </c>
       <c r="D162" s="8" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="E162" s="8" t="s">
         <v>683</v>
@@ -10973,7 +11030,7 @@
         <v>665</v>
       </c>
       <c r="D163" s="8" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="E163" s="8" t="s">
         <v>687</v>
@@ -11005,7 +11062,7 @@
         <v>665</v>
       </c>
       <c r="D164" s="8" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="E164" s="8" t="s">
         <v>691</v>
@@ -11037,7 +11094,7 @@
         <v>699</v>
       </c>
       <c r="D165" s="8" t="s">
-        <v>1160</v>
+        <v>1153</v>
       </c>
       <c r="E165" s="8" t="s">
         <v>700</v>
@@ -11066,7 +11123,7 @@
         <v>699</v>
       </c>
       <c r="D166" s="8" t="s">
-        <v>1136</v>
+        <v>1130</v>
       </c>
       <c r="E166" s="8" t="s">
         <v>704</v>
@@ -11098,7 +11155,7 @@
         <v>699</v>
       </c>
       <c r="D167" s="8" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="E167" s="8" t="s">
         <v>707</v>
@@ -11130,7 +11187,7 @@
         <v>699</v>
       </c>
       <c r="D168" s="8" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="E168" s="8" t="s">
         <v>710</v>
@@ -11191,7 +11248,7 @@
         <v>713</v>
       </c>
       <c r="D170" s="8" t="s">
-        <v>1137</v>
+        <v>1131</v>
       </c>
       <c r="E170" s="8" t="s">
         <v>718</v>
@@ -11223,7 +11280,7 @@
         <v>713</v>
       </c>
       <c r="D171" s="8" t="s">
-        <v>1138</v>
+        <v>1132</v>
       </c>
       <c r="E171" s="8" t="s">
         <v>722</v>
@@ -11255,7 +11312,7 @@
         <v>713</v>
       </c>
       <c r="D172" s="8" t="s">
-        <v>1139</v>
+        <v>1133</v>
       </c>
       <c r="E172" s="8" t="s">
         <v>726</v>
@@ -11287,7 +11344,7 @@
         <v>713</v>
       </c>
       <c r="D173" s="8" t="s">
-        <v>1140</v>
+        <v>1134</v>
       </c>
       <c r="E173" s="10" t="s">
         <v>731</v>
@@ -11336,7 +11393,7 @@
         <v>735</v>
       </c>
       <c r="D174" s="8" t="s">
-        <v>1141</v>
+        <v>1135</v>
       </c>
       <c r="E174" s="14" t="s">
         <v>748</v>
@@ -11414,7 +11471,7 @@
         <v>736</v>
       </c>
       <c r="D176" s="8" t="s">
-        <v>1161</v>
+        <v>1154</v>
       </c>
       <c r="E176" s="8" t="s">
         <v>741</v>
@@ -11554,7 +11611,7 @@
         <v>753</v>
       </c>
       <c r="D180" s="8" t="s">
-        <v>1142</v>
+        <v>1136</v>
       </c>
       <c r="E180" s="8" t="s">
         <v>764</v>
@@ -11586,7 +11643,7 @@
         <v>753</v>
       </c>
       <c r="D181" s="8" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="E181" s="8" t="s">
         <v>768</v>
@@ -11618,7 +11675,7 @@
         <v>753</v>
       </c>
       <c r="D182" s="8" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="E182" s="8" t="s">
         <v>768</v>
@@ -11651,7 +11708,7 @@
         <v>753</v>
       </c>
       <c r="D183" s="8" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="E183" s="8" t="s">
         <v>768</v>
@@ -11684,7 +11741,7 @@
         <v>753</v>
       </c>
       <c r="D184" s="8" t="s">
-        <v>1143</v>
+        <v>1137</v>
       </c>
       <c r="E184" s="8" t="s">
         <v>776</v>
@@ -11716,7 +11773,7 @@
         <v>779</v>
       </c>
       <c r="D185" s="8" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="E185" s="6" t="s">
         <v>786</v>
@@ -11748,7 +11805,7 @@
         <v>784</v>
       </c>
       <c r="D186" s="8" t="s">
-        <v>1144</v>
+        <v>1138</v>
       </c>
       <c r="E186" s="6" t="s">
         <v>785</v>
@@ -11879,7 +11936,7 @@
         <v>805</v>
       </c>
       <c r="D190" s="8" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="E190" s="8" t="s">
         <v>806</v>
@@ -11911,7 +11968,7 @@
         <v>805</v>
       </c>
       <c r="D191" s="8" t="s">
-        <v>1145</v>
+        <v>1139</v>
       </c>
       <c r="E191" s="8" t="s">
         <v>809</v>
@@ -11943,7 +12000,7 @@
         <v>805</v>
       </c>
       <c r="D192" s="8" t="s">
-        <v>1146</v>
+        <v>1140</v>
       </c>
       <c r="E192" s="8" t="s">
         <v>814</v>
@@ -11975,7 +12032,7 @@
         <v>805</v>
       </c>
       <c r="D193" s="8" t="s">
-        <v>1147</v>
+        <v>1141</v>
       </c>
       <c r="E193" s="8" t="s">
         <v>826</v>
@@ -12007,7 +12064,7 @@
         <v>805</v>
       </c>
       <c r="D194" s="8" t="s">
-        <v>1162</v>
+        <v>1155</v>
       </c>
       <c r="E194" s="8" t="s">
         <v>820</v>
@@ -12042,7 +12099,7 @@
         <v>805</v>
       </c>
       <c r="D195" s="8" t="s">
-        <v>1148</v>
+        <v>1142</v>
       </c>
       <c r="E195" s="8" t="s">
         <v>823</v>
@@ -12074,7 +12131,7 @@
         <v>805</v>
       </c>
       <c r="D196" s="8" t="s">
-        <v>1149</v>
+        <v>1143</v>
       </c>
       <c r="E196" s="8" t="s">
         <v>830</v>
@@ -12106,7 +12163,7 @@
         <v>805</v>
       </c>
       <c r="D197" s="8" t="s">
-        <v>1150</v>
+        <v>1144</v>
       </c>
       <c r="E197" s="8" t="s">
         <v>837</v>
@@ -12138,7 +12195,7 @@
         <v>805</v>
       </c>
       <c r="D198" s="8" t="s">
-        <v>1151</v>
+        <v>1145</v>
       </c>
       <c r="E198" s="8" t="s">
         <v>838</v>
@@ -12170,7 +12227,7 @@
         <v>805</v>
       </c>
       <c r="D199" s="8" t="s">
-        <v>1152</v>
+        <v>1146</v>
       </c>
       <c r="E199" s="8" t="s">
         <v>842</v>
@@ -12202,7 +12259,7 @@
         <v>805</v>
       </c>
       <c r="D200" s="8" t="s">
-        <v>1163</v>
+        <v>1156</v>
       </c>
       <c r="E200" s="8" t="s">
         <v>846</v>
@@ -12234,7 +12291,7 @@
         <v>805</v>
       </c>
       <c r="D201" s="8" t="s">
-        <v>1164</v>
+        <v>1157</v>
       </c>
       <c r="E201" s="8" t="s">
         <v>850</v>
@@ -12266,7 +12323,7 @@
         <v>805</v>
       </c>
       <c r="D202" s="8" t="s">
-        <v>1153</v>
+        <v>1147</v>
       </c>
       <c r="E202" s="8" t="s">
         <v>855</v>
@@ -12298,7 +12355,7 @@
         <v>805</v>
       </c>
       <c r="D203" s="8" t="s">
-        <v>1150</v>
+        <v>1144</v>
       </c>
       <c r="E203" s="8" t="s">
         <v>862</v>
@@ -12423,7 +12480,7 @@
         <v>874</v>
       </c>
       <c r="D207" s="8" t="s">
-        <v>1154</v>
+        <v>1148</v>
       </c>
       <c r="E207" s="8" t="s">
         <v>879</v>
@@ -12455,7 +12512,7 @@
         <v>875</v>
       </c>
       <c r="D208" s="8" t="s">
-        <v>1155</v>
+        <v>1149</v>
       </c>
       <c r="E208" s="8" t="s">
         <v>876</v>
@@ -12487,7 +12544,7 @@
         <v>885</v>
       </c>
       <c r="D209" s="8" t="s">
-        <v>1156</v>
+        <v>1150</v>
       </c>
       <c r="E209" s="8" t="s">
         <v>886</v>

--- a/Advantage Test Cases.xlsx
+++ b/Advantage Test Cases.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3951" uniqueCount="1212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3952" uniqueCount="1213">
   <si>
     <t>Test Objective</t>
   </si>
@@ -5412,12 +5412,16 @@
   <si>
     <t>After deleted loader is moving on for long time</t>
   </si>
+  <si>
+    <t>fn_TagmetadataToLearningResource</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5888,25 +5892,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA210"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A120" workbookViewId="0">
-      <selection activeCell="A120" sqref="A120"/>
+    <sheetView tabSelected="1" topLeftCell="F126" workbookViewId="0">
+      <selection activeCell="K126" sqref="K126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.140625" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="18.42578125" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="16.5703125" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="16.5703125" style="8" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="31.85546875" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="33.5703125" style="6" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="42.7109375" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="25.28515625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="41.140625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="26" style="6" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="11.42578125" style="6" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="52.7109375" style="8" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="14.28515625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="6" width="12.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="6" width="18.42578125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="6" width="16.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="8" width="16.5703125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="6" width="31.85546875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="6" width="33.5703125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="42.7109375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="25.28515625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="41.140625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="6" width="26.0" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="6" width="11.42578125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="8" width="52.7109375" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="14.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -9666,8 +9670,8 @@
       <c r="I120" s="2" t="s">
         <v>502</v>
       </c>
-      <c r="K120" s="8" t="s">
-        <v>911</v>
+      <c r="K120" t="s">
+        <v>1012</v>
       </c>
       <c r="L120" s="20" t="s">
         <v>948</v>
@@ -9701,8 +9705,8 @@
       <c r="J121" s="6" t="s">
         <v>972</v>
       </c>
-      <c r="K121" s="6" t="s">
-        <v>911</v>
+      <c r="K121" t="s">
+        <v>1012</v>
       </c>
     </row>
     <row r="122" spans="1:12" ht="270" x14ac:dyDescent="0.25">
@@ -9770,8 +9774,8 @@
       <c r="J123" s="8" t="s">
         <v>972</v>
       </c>
-      <c r="K123" s="8" t="s">
-        <v>911</v>
+      <c r="K123" t="s">
+        <v>1012</v>
       </c>
     </row>
     <row r="124" spans="1:12" ht="345" x14ac:dyDescent="0.25">
@@ -9800,8 +9804,8 @@
       <c r="I124" s="2" t="s">
         <v>523</v>
       </c>
-      <c r="K124" s="8" t="s">
-        <v>911</v>
+      <c r="K124" t="s">
+        <v>1012</v>
       </c>
       <c r="L124" s="20" t="s">
         <v>1200</v>
@@ -9835,8 +9839,8 @@
       <c r="I125" s="2" t="s">
         <v>502</v>
       </c>
-      <c r="K125" s="8" t="s">
-        <v>911</v>
+      <c r="K125" t="s">
+        <v>1012</v>
       </c>
       <c r="L125" s="20" t="s">
         <v>948</v>
@@ -9870,8 +9874,8 @@
       <c r="J126" s="6" t="s">
         <v>972</v>
       </c>
-      <c r="K126" s="6" t="s">
-        <v>911</v>
+      <c r="K126" t="s">
+        <v>1012</v>
       </c>
     </row>
     <row r="127" spans="1:12" ht="270" x14ac:dyDescent="0.25">
@@ -9903,8 +9907,8 @@
       <c r="J127" s="8" t="s">
         <v>972</v>
       </c>
-      <c r="K127" s="8" t="s">
-        <v>911</v>
+      <c r="K127" t="s">
+        <v>1012</v>
       </c>
       <c r="L127" s="20" t="s">
         <v>974</v>
@@ -9954,7 +9958,7 @@
         <v>498</v>
       </c>
       <c r="D129" s="8" t="s">
-        <v>1199</v>
+        <v>1212</v>
       </c>
       <c r="E129" s="8" t="s">
         <v>521</v>
@@ -10004,7 +10008,7 @@
       <c r="I130" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="K130" s="20" t="s">
+      <c r="L130" s="20" t="s">
         <v>951</v>
       </c>
     </row>
@@ -12584,17 +12588,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.85546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11.28515625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="16.85546875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="17.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="31.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="29" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="37.5703125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="26.140625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="37.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="12.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="19.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="20.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="16.85546875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="17.5703125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="31.85546875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="29.0" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="37.5703125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="26.140625" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="37.5703125" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="12.5703125" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="19.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">

--- a/Advantage Test Cases.xlsx
+++ b/Advantage Test Cases.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3952" uniqueCount="1213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3951" uniqueCount="1213">
   <si>
     <t>Test Objective</t>
   </si>
@@ -5065,12 +5065,6 @@
     <t>fA_AddRemarkforstudent'sFeedbackofView</t>
   </si>
   <si>
-    <t>fi_FunctionalityofLearningResources</t>
-  </si>
-  <si>
-    <t>fi_FunctionalityofPlayContent</t>
-  </si>
-  <si>
     <t>fi_ValidationsForMandatoryFieldsOnSaveAssessmentWindowofAssessmentGeneration</t>
   </si>
   <si>
@@ -5105,15 +5099,6 @@
   </si>
   <si>
     <t>fn_ViewAverageScoreofSelectedSubject</t>
-  </si>
-  <si>
-    <t>fi_ValidationsForMandatoryFieldsofPopupwindow</t>
-  </si>
-  <si>
-    <t>fi_FunctionalityToDeleteLearningResourcesByClickingOn'No'InConfirmationPopupofTotalnumber</t>
-  </si>
-  <si>
-    <t>fi_FunctionalityToofPlayedresource</t>
   </si>
   <si>
     <t>fi_FunctionalityToofLearningresource</t>
@@ -5415,13 +5400,27 @@
   <si>
     <t>fn_TagmetadataToLearningResource</t>
   </si>
+  <si>
+    <t>fn_ValidationsForMandatoryFieldsonAssignPopupwindow</t>
+  </si>
+  <si>
+    <t>fn_DeleteLearningResources</t>
+  </si>
+  <si>
+    <t>fn_DeleteResourcesByClickingOnNoInConfirmation</t>
+  </si>
+  <si>
+    <t>fn_PlayContent</t>
+  </si>
+  <si>
+    <t>fn_SavePlayedresource</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5892,25 +5891,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA210"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F126" workbookViewId="0">
-      <selection activeCell="K126" sqref="K126"/>
+    <sheetView tabSelected="1" topLeftCell="A135" workbookViewId="0">
+      <selection activeCell="A135" sqref="A135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="6" width="12.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="6" width="18.42578125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="6" width="16.5703125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="8" width="16.5703125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="6" width="31.85546875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="6" width="33.5703125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="42.7109375" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="25.28515625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="41.140625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" style="6" width="26.0" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" style="6" width="11.42578125" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" style="8" width="52.7109375" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="1" max="1" width="12.140625" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="18.42578125" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="16.5703125" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="16.5703125" style="8" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="31.85546875" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="33.5703125" style="6" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="42.7109375" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="25.28515625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="41.140625" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="26" style="6" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="11.42578125" style="6" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="52.7109375" style="8" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="14.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -8507,7 +8506,7 @@
         <v>347</v>
       </c>
       <c r="D83" s="8" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
       <c r="E83" s="8" t="s">
         <v>352</v>
@@ -8539,7 +8538,7 @@
         <v>347</v>
       </c>
       <c r="D84" s="8" t="s">
-        <v>1151</v>
+        <v>1146</v>
       </c>
       <c r="E84" s="8" t="s">
         <v>355</v>
@@ -8571,7 +8570,7 @@
         <v>347</v>
       </c>
       <c r="D85" s="8" t="s">
-        <v>1158</v>
+        <v>1153</v>
       </c>
       <c r="E85" s="8" t="s">
         <v>360</v>
@@ -8603,7 +8602,7 @@
         <v>347</v>
       </c>
       <c r="D86" s="8" t="s">
-        <v>1159</v>
+        <v>1154</v>
       </c>
       <c r="E86" s="8" t="s">
         <v>364</v>
@@ -8635,7 +8634,7 @@
         <v>368</v>
       </c>
       <c r="D87" s="8" t="s">
-        <v>1160</v>
+        <v>1155</v>
       </c>
       <c r="E87" s="8" t="s">
         <v>370</v>
@@ -8667,7 +8666,7 @@
         <v>368</v>
       </c>
       <c r="D88" s="8" t="s">
-        <v>1161</v>
+        <v>1156</v>
       </c>
       <c r="E88" s="8" t="s">
         <v>374</v>
@@ -8697,7 +8696,7 @@
         <v>377</v>
       </c>
       <c r="D89" s="8" t="s">
-        <v>1162</v>
+        <v>1157</v>
       </c>
       <c r="E89" s="8" t="s">
         <v>382</v>
@@ -8726,7 +8725,7 @@
         <v>381</v>
       </c>
       <c r="D90" s="8" t="s">
-        <v>1163</v>
+        <v>1158</v>
       </c>
       <c r="E90" s="8" t="s">
         <v>384</v>
@@ -8758,7 +8757,7 @@
         <v>381</v>
       </c>
       <c r="D91" s="8" t="s">
-        <v>1164</v>
+        <v>1159</v>
       </c>
       <c r="E91" s="8" t="s">
         <v>386</v>
@@ -8790,7 +8789,7 @@
         <v>381</v>
       </c>
       <c r="D92" s="8" t="s">
-        <v>1165</v>
+        <v>1160</v>
       </c>
       <c r="E92" s="8" t="s">
         <v>390</v>
@@ -8822,7 +8821,7 @@
         <v>381</v>
       </c>
       <c r="D93" s="8" t="s">
-        <v>1166</v>
+        <v>1161</v>
       </c>
       <c r="E93" s="8" t="s">
         <v>394</v>
@@ -8854,7 +8853,7 @@
         <v>381</v>
       </c>
       <c r="D94" s="8" t="s">
-        <v>1167</v>
+        <v>1162</v>
       </c>
       <c r="E94" s="8" t="s">
         <v>398</v>
@@ -8886,7 +8885,7 @@
         <v>381</v>
       </c>
       <c r="D95" s="8" t="s">
-        <v>1168</v>
+        <v>1163</v>
       </c>
       <c r="E95" s="8" t="s">
         <v>403</v>
@@ -8918,7 +8917,7 @@
         <v>381</v>
       </c>
       <c r="D96" s="8" t="s">
-        <v>1169</v>
+        <v>1164</v>
       </c>
       <c r="E96" s="8" t="s">
         <v>407</v>
@@ -8950,7 +8949,7 @@
         <v>414</v>
       </c>
       <c r="D97" s="8" t="s">
-        <v>1170</v>
+        <v>1165</v>
       </c>
       <c r="E97" s="8" t="s">
         <v>412</v>
@@ -8982,7 +8981,7 @@
         <v>414</v>
       </c>
       <c r="D98" s="8" t="s">
-        <v>1171</v>
+        <v>1166</v>
       </c>
       <c r="E98" s="8" t="s">
         <v>416</v>
@@ -9014,7 +9013,7 @@
         <v>425</v>
       </c>
       <c r="D99" s="8" t="s">
-        <v>1172</v>
+        <v>1167</v>
       </c>
       <c r="E99" s="8" t="s">
         <v>424</v>
@@ -9046,7 +9045,7 @@
         <v>422</v>
       </c>
       <c r="D100" s="8" t="s">
-        <v>1173</v>
+        <v>1168</v>
       </c>
       <c r="E100" s="8" t="s">
         <v>427</v>
@@ -9078,7 +9077,7 @@
         <v>422</v>
       </c>
       <c r="D101" s="8" t="s">
-        <v>1174</v>
+        <v>1169</v>
       </c>
       <c r="E101" s="8" t="s">
         <v>429</v>
@@ -9099,7 +9098,7 @@
         <v>1012</v>
       </c>
       <c r="L101" s="8" t="s">
-        <v>1175</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="102" spans="1:12" ht="195" x14ac:dyDescent="0.25">
@@ -9113,7 +9112,7 @@
         <v>422</v>
       </c>
       <c r="D102" s="8" t="s">
-        <v>1176</v>
+        <v>1171</v>
       </c>
       <c r="E102" s="8" t="s">
         <v>436</v>
@@ -9145,7 +9144,7 @@
         <v>422</v>
       </c>
       <c r="D103" s="8" t="s">
-        <v>1177</v>
+        <v>1172</v>
       </c>
       <c r="E103" s="8" t="s">
         <v>438</v>
@@ -9174,7 +9173,7 @@
         <v>442</v>
       </c>
       <c r="D104" s="8" t="s">
-        <v>1178</v>
+        <v>1173</v>
       </c>
       <c r="E104" s="6" t="s">
         <v>443</v>
@@ -9206,7 +9205,7 @@
         <v>442</v>
       </c>
       <c r="D105" s="8" t="s">
-        <v>1179</v>
+        <v>1174</v>
       </c>
       <c r="E105" s="8" t="s">
         <v>446</v>
@@ -9238,7 +9237,7 @@
         <v>442</v>
       </c>
       <c r="D106" s="8" t="s">
-        <v>1180</v>
+        <v>1175</v>
       </c>
       <c r="E106" s="8" t="s">
         <v>451</v>
@@ -9270,7 +9269,7 @@
         <v>442</v>
       </c>
       <c r="D107" s="8" t="s">
-        <v>1181</v>
+        <v>1176</v>
       </c>
       <c r="E107" s="8" t="s">
         <v>455</v>
@@ -9299,7 +9298,7 @@
         <v>458</v>
       </c>
       <c r="D108" s="8" t="s">
-        <v>1182</v>
+        <v>1177</v>
       </c>
       <c r="E108" s="6" t="s">
         <v>460</v>
@@ -9328,7 +9327,7 @@
         <v>458</v>
       </c>
       <c r="D109" s="8" t="s">
-        <v>1183</v>
+        <v>1178</v>
       </c>
       <c r="E109" s="8" t="s">
         <v>620</v>
@@ -9357,7 +9356,7 @@
         <v>458</v>
       </c>
       <c r="D110" s="8" t="s">
-        <v>1184</v>
+        <v>1179</v>
       </c>
       <c r="E110" s="8" t="s">
         <v>621</v>
@@ -9386,7 +9385,7 @@
         <v>464</v>
       </c>
       <c r="D111" s="8" t="s">
-        <v>1185</v>
+        <v>1180</v>
       </c>
       <c r="E111" s="8" t="s">
         <v>465</v>
@@ -9412,10 +9411,10 @@
         <v>411</v>
       </c>
       <c r="C112" s="8" t="s">
-        <v>1188</v>
+        <v>1183</v>
       </c>
       <c r="D112" s="8" t="s">
-        <v>1187</v>
+        <v>1182</v>
       </c>
       <c r="E112" s="8"/>
       <c r="G112" s="2"/>
@@ -9435,7 +9434,7 @@
         <v>468</v>
       </c>
       <c r="D113" s="8" t="s">
-        <v>1186</v>
+        <v>1181</v>
       </c>
       <c r="E113" s="8" t="s">
         <v>471</v>
@@ -9464,7 +9463,7 @@
         <v>472</v>
       </c>
       <c r="D114" s="8" t="s">
-        <v>1189</v>
+        <v>1184</v>
       </c>
       <c r="E114" s="8" t="s">
         <v>474</v>
@@ -9493,7 +9492,7 @@
         <v>481</v>
       </c>
       <c r="D115" s="8" t="s">
-        <v>1190</v>
+        <v>1185</v>
       </c>
       <c r="E115" s="8" t="s">
         <v>424</v>
@@ -9525,7 +9524,7 @@
         <v>477</v>
       </c>
       <c r="D116" s="8" t="s">
-        <v>1191</v>
+        <v>1186</v>
       </c>
       <c r="E116" s="8" t="s">
         <v>478</v>
@@ -9557,7 +9556,7 @@
         <v>486</v>
       </c>
       <c r="D117" s="8" t="s">
-        <v>1192</v>
+        <v>1187</v>
       </c>
       <c r="E117" s="8" t="s">
         <v>487</v>
@@ -9589,7 +9588,7 @@
         <v>490</v>
       </c>
       <c r="D118" s="8" t="s">
-        <v>1193</v>
+        <v>1188</v>
       </c>
       <c r="E118" s="8" t="s">
         <v>491</v>
@@ -9621,7 +9620,7 @@
         <v>490</v>
       </c>
       <c r="D119" s="8" t="s">
-        <v>1194</v>
+        <v>1189</v>
       </c>
       <c r="E119" s="8" t="s">
         <v>495</v>
@@ -9653,7 +9652,7 @@
         <v>498</v>
       </c>
       <c r="D120" s="8" t="s">
-        <v>1195</v>
+        <v>1190</v>
       </c>
       <c r="E120" s="8" t="s">
         <v>500</v>
@@ -9688,7 +9687,7 @@
         <v>498</v>
       </c>
       <c r="D121" s="8" t="s">
-        <v>1196</v>
+        <v>1191</v>
       </c>
       <c r="E121" s="8" t="s">
         <v>505</v>
@@ -9720,7 +9719,7 @@
         <v>498</v>
       </c>
       <c r="D122" s="8" t="s">
-        <v>1197</v>
+        <v>1192</v>
       </c>
       <c r="E122" s="8" t="s">
         <v>508</v>
@@ -9756,7 +9755,7 @@
         <v>498</v>
       </c>
       <c r="D123" s="8" t="s">
-        <v>1198</v>
+        <v>1193</v>
       </c>
       <c r="E123" s="8" t="s">
         <v>513</v>
@@ -9789,7 +9788,7 @@
         <v>498</v>
       </c>
       <c r="D124" s="8" t="s">
-        <v>1199</v>
+        <v>1194</v>
       </c>
       <c r="E124" s="8" t="s">
         <v>521</v>
@@ -9808,7 +9807,7 @@
         <v>1012</v>
       </c>
       <c r="L124" s="20" t="s">
-        <v>1200</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="125" spans="1:12" ht="315" x14ac:dyDescent="0.25">
@@ -9819,22 +9818,22 @@
         <v>411</v>
       </c>
       <c r="C125" s="8" t="s">
-        <v>1202</v>
+        <v>1197</v>
       </c>
       <c r="D125" s="8" t="s">
-        <v>1203</v>
+        <v>1198</v>
       </c>
       <c r="E125" s="8" t="s">
+        <v>1199</v>
+      </c>
+      <c r="F125" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G125" s="2" t="s">
         <v>1204</v>
       </c>
-      <c r="F125" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="G125" s="2" t="s">
-        <v>1209</v>
-      </c>
       <c r="H125" s="2" t="s">
-        <v>1205</v>
+        <v>1200</v>
       </c>
       <c r="I125" s="2" t="s">
         <v>502</v>
@@ -9857,7 +9856,7 @@
         <v>498</v>
       </c>
       <c r="D126" s="8" t="s">
-        <v>1206</v>
+        <v>1201</v>
       </c>
       <c r="E126" s="8" t="s">
         <v>505</v>
@@ -9889,7 +9888,7 @@
         <v>498</v>
       </c>
       <c r="D127" s="8" t="s">
-        <v>1207</v>
+        <v>1202</v>
       </c>
       <c r="E127" s="8" t="s">
         <v>508</v>
@@ -9898,7 +9897,7 @@
         <v>38</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>1208</v>
+        <v>1203</v>
       </c>
       <c r="H127" s="2"/>
       <c r="I127" s="2" t="s">
@@ -9925,7 +9924,7 @@
         <v>498</v>
       </c>
       <c r="D128" s="8" t="s">
-        <v>1210</v>
+        <v>1205</v>
       </c>
       <c r="E128" s="8" t="s">
         <v>513</v>
@@ -9943,8 +9942,8 @@
       <c r="J128" s="8" t="s">
         <v>972</v>
       </c>
-      <c r="K128" s="8" t="s">
-        <v>911</v>
+      <c r="K128" t="s">
+        <v>1012</v>
       </c>
     </row>
     <row r="129" spans="1:12" ht="345" x14ac:dyDescent="0.25">
@@ -9958,7 +9957,7 @@
         <v>498</v>
       </c>
       <c r="D129" s="8" t="s">
-        <v>1212</v>
+        <v>1207</v>
       </c>
       <c r="E129" s="8" t="s">
         <v>521</v>
@@ -9977,7 +9976,7 @@
         <v>911</v>
       </c>
       <c r="L129" s="20" t="s">
-        <v>1200</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="130" spans="1:12" ht="375" x14ac:dyDescent="0.25">
@@ -9991,7 +9990,7 @@
         <v>540</v>
       </c>
       <c r="D130" s="8" t="s">
-        <v>1201</v>
+        <v>1196</v>
       </c>
       <c r="E130" s="8" t="s">
         <v>543</v>
@@ -10023,7 +10022,7 @@
         <v>540</v>
       </c>
       <c r="D131" s="8" t="s">
-        <v>1117</v>
+        <v>1208</v>
       </c>
       <c r="E131" s="8" t="s">
         <v>548</v>
@@ -10041,8 +10040,8 @@
       <c r="J131" s="8" t="s">
         <v>972</v>
       </c>
-      <c r="K131" s="8" t="s">
-        <v>911</v>
+      <c r="K131" t="s">
+        <v>1012</v>
       </c>
     </row>
     <row r="132" spans="1:12" ht="165" x14ac:dyDescent="0.25">
@@ -10056,7 +10055,7 @@
         <v>552</v>
       </c>
       <c r="D132" s="8" t="s">
-        <v>1103</v>
+        <v>1209</v>
       </c>
       <c r="E132" s="8" t="s">
         <v>553</v>
@@ -10073,11 +10072,11 @@
       <c r="J132" s="6" t="s">
         <v>972</v>
       </c>
-      <c r="K132" s="8" t="s">
-        <v>911</v>
+      <c r="K132" t="s">
+        <v>1012</v>
       </c>
       <c r="L132" s="20" t="s">
-        <v>1211</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="133" spans="1:12" ht="165" x14ac:dyDescent="0.25">
@@ -10091,7 +10090,7 @@
         <v>552</v>
       </c>
       <c r="D133" s="8" t="s">
-        <v>1118</v>
+        <v>1210</v>
       </c>
       <c r="E133" s="8" t="s">
         <v>557</v>
@@ -10108,8 +10107,8 @@
       <c r="J133" s="6" t="s">
         <v>972</v>
       </c>
-      <c r="K133" s="8" t="s">
-        <v>911</v>
+      <c r="K133" t="s">
+        <v>1012</v>
       </c>
     </row>
     <row r="134" spans="1:12" ht="150" x14ac:dyDescent="0.25">
@@ -10123,7 +10122,7 @@
         <v>561</v>
       </c>
       <c r="D134" s="8" t="s">
-        <v>1104</v>
+        <v>1211</v>
       </c>
       <c r="E134" s="8" t="s">
         <v>562</v>
@@ -10140,8 +10139,8 @@
       <c r="J134" s="6" t="s">
         <v>972</v>
       </c>
-      <c r="K134" s="8" t="s">
-        <v>911</v>
+      <c r="K134" t="s">
+        <v>1012</v>
       </c>
     </row>
     <row r="135" spans="1:12" ht="195" x14ac:dyDescent="0.25">
@@ -10155,7 +10154,7 @@
         <v>561</v>
       </c>
       <c r="D135" s="8" t="s">
-        <v>1119</v>
+        <v>1212</v>
       </c>
       <c r="E135" s="8" t="s">
         <v>565</v>
@@ -10172,8 +10171,8 @@
       <c r="J135" s="6" t="s">
         <v>972</v>
       </c>
-      <c r="K135" s="8" t="s">
-        <v>911</v>
+      <c r="K135" t="s">
+        <v>1012</v>
       </c>
     </row>
     <row r="136" spans="1:12" ht="195" x14ac:dyDescent="0.25">
@@ -10187,7 +10186,7 @@
         <v>561</v>
       </c>
       <c r="D136" s="8" t="s">
-        <v>1120</v>
+        <v>1115</v>
       </c>
       <c r="E136" s="8" t="s">
         <v>568</v>
@@ -10219,7 +10218,7 @@
         <v>561</v>
       </c>
       <c r="D137" s="8" t="s">
-        <v>1121</v>
+        <v>1116</v>
       </c>
       <c r="E137" s="8" t="s">
         <v>572</v>
@@ -10251,7 +10250,7 @@
         <v>561</v>
       </c>
       <c r="D138" s="8" t="s">
-        <v>1122</v>
+        <v>1117</v>
       </c>
       <c r="E138" s="8" t="s">
         <v>576</v>
@@ -10283,7 +10282,7 @@
         <v>581</v>
       </c>
       <c r="D139" s="8" t="s">
-        <v>1123</v>
+        <v>1118</v>
       </c>
       <c r="E139" s="6" t="s">
         <v>582</v>
@@ -10315,7 +10314,7 @@
         <v>581</v>
       </c>
       <c r="D140" s="8" t="s">
-        <v>1124</v>
+        <v>1119</v>
       </c>
       <c r="E140" s="8" t="s">
         <v>625</v>
@@ -10347,7 +10346,7 @@
         <v>581</v>
       </c>
       <c r="D141" s="8" t="s">
-        <v>1125</v>
+        <v>1120</v>
       </c>
       <c r="E141" s="8" t="s">
         <v>628</v>
@@ -10379,7 +10378,7 @@
         <v>581</v>
       </c>
       <c r="D142" s="8" t="s">
-        <v>1126</v>
+        <v>1121</v>
       </c>
       <c r="E142" s="8" t="s">
         <v>586</v>
@@ -10411,7 +10410,7 @@
         <v>594</v>
       </c>
       <c r="D143" s="8" t="s">
-        <v>1152</v>
+        <v>1147</v>
       </c>
       <c r="E143" s="8" t="s">
         <v>593</v>
@@ -10446,7 +10445,7 @@
         <v>595</v>
       </c>
       <c r="D144" s="8" t="s">
-        <v>1127</v>
+        <v>1122</v>
       </c>
       <c r="E144" s="8" t="s">
         <v>596</v>
@@ -10478,7 +10477,7 @@
         <v>595</v>
       </c>
       <c r="D145" s="8" t="s">
-        <v>1128</v>
+        <v>1123</v>
       </c>
       <c r="E145" s="8" t="s">
         <v>600</v>
@@ -10542,7 +10541,7 @@
         <v>595</v>
       </c>
       <c r="D147" s="8" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
       <c r="E147" s="8" t="s">
         <v>609</v>
@@ -10574,7 +10573,7 @@
         <v>595</v>
       </c>
       <c r="D148" s="8" t="s">
-        <v>1128</v>
+        <v>1123</v>
       </c>
       <c r="E148" s="8" t="s">
         <v>612</v>
@@ -10873,7 +10872,7 @@
         <v>665</v>
       </c>
       <c r="D158" s="8" t="s">
-        <v>1129</v>
+        <v>1124</v>
       </c>
       <c r="E158" s="8" t="s">
         <v>694</v>
@@ -10938,7 +10937,7 @@
         <v>665</v>
       </c>
       <c r="D160" s="8" t="s">
-        <v>1106</v>
+        <v>1104</v>
       </c>
       <c r="E160" s="8" t="s">
         <v>675</v>
@@ -10970,7 +10969,7 @@
         <v>665</v>
       </c>
       <c r="D161" s="8" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
       <c r="E161" s="8" t="s">
         <v>679</v>
@@ -11002,7 +11001,7 @@
         <v>665</v>
       </c>
       <c r="D162" s="8" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
       <c r="E162" s="8" t="s">
         <v>683</v>
@@ -11034,7 +11033,7 @@
         <v>665</v>
       </c>
       <c r="D163" s="8" t="s">
-        <v>1109</v>
+        <v>1107</v>
       </c>
       <c r="E163" s="8" t="s">
         <v>687</v>
@@ -11066,7 +11065,7 @@
         <v>665</v>
       </c>
       <c r="D164" s="8" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
       <c r="E164" s="8" t="s">
         <v>691</v>
@@ -11098,7 +11097,7 @@
         <v>699</v>
       </c>
       <c r="D165" s="8" t="s">
-        <v>1153</v>
+        <v>1148</v>
       </c>
       <c r="E165" s="8" t="s">
         <v>700</v>
@@ -11127,7 +11126,7 @@
         <v>699</v>
       </c>
       <c r="D166" s="8" t="s">
-        <v>1130</v>
+        <v>1125</v>
       </c>
       <c r="E166" s="8" t="s">
         <v>704</v>
@@ -11159,7 +11158,7 @@
         <v>699</v>
       </c>
       <c r="D167" s="8" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="E167" s="8" t="s">
         <v>707</v>
@@ -11191,7 +11190,7 @@
         <v>699</v>
       </c>
       <c r="D168" s="8" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
       <c r="E168" s="8" t="s">
         <v>710</v>
@@ -11252,7 +11251,7 @@
         <v>713</v>
       </c>
       <c r="D170" s="8" t="s">
-        <v>1131</v>
+        <v>1126</v>
       </c>
       <c r="E170" s="8" t="s">
         <v>718</v>
@@ -11284,7 +11283,7 @@
         <v>713</v>
       </c>
       <c r="D171" s="8" t="s">
-        <v>1132</v>
+        <v>1127</v>
       </c>
       <c r="E171" s="8" t="s">
         <v>722</v>
@@ -11316,7 +11315,7 @@
         <v>713</v>
       </c>
       <c r="D172" s="8" t="s">
-        <v>1133</v>
+        <v>1128</v>
       </c>
       <c r="E172" s="8" t="s">
         <v>726</v>
@@ -11348,7 +11347,7 @@
         <v>713</v>
       </c>
       <c r="D173" s="8" t="s">
-        <v>1134</v>
+        <v>1129</v>
       </c>
       <c r="E173" s="10" t="s">
         <v>731</v>
@@ -11397,7 +11396,7 @@
         <v>735</v>
       </c>
       <c r="D174" s="8" t="s">
-        <v>1135</v>
+        <v>1130</v>
       </c>
       <c r="E174" s="14" t="s">
         <v>748</v>
@@ -11475,7 +11474,7 @@
         <v>736</v>
       </c>
       <c r="D176" s="8" t="s">
-        <v>1154</v>
+        <v>1149</v>
       </c>
       <c r="E176" s="8" t="s">
         <v>741</v>
@@ -11615,7 +11614,7 @@
         <v>753</v>
       </c>
       <c r="D180" s="8" t="s">
-        <v>1136</v>
+        <v>1131</v>
       </c>
       <c r="E180" s="8" t="s">
         <v>764</v>
@@ -11647,7 +11646,7 @@
         <v>753</v>
       </c>
       <c r="D181" s="8" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
       <c r="E181" s="8" t="s">
         <v>768</v>
@@ -11679,7 +11678,7 @@
         <v>753</v>
       </c>
       <c r="D182" s="8" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
       <c r="E182" s="8" t="s">
         <v>768</v>
@@ -11712,7 +11711,7 @@
         <v>753</v>
       </c>
       <c r="D183" s="8" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
       <c r="E183" s="8" t="s">
         <v>768</v>
@@ -11745,7 +11744,7 @@
         <v>753</v>
       </c>
       <c r="D184" s="8" t="s">
-        <v>1137</v>
+        <v>1132</v>
       </c>
       <c r="E184" s="8" t="s">
         <v>776</v>
@@ -11777,7 +11776,7 @@
         <v>779</v>
       </c>
       <c r="D185" s="8" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
       <c r="E185" s="6" t="s">
         <v>786</v>
@@ -11809,7 +11808,7 @@
         <v>784</v>
       </c>
       <c r="D186" s="8" t="s">
-        <v>1138</v>
+        <v>1133</v>
       </c>
       <c r="E186" s="6" t="s">
         <v>785</v>
@@ -11940,7 +11939,7 @@
         <v>805</v>
       </c>
       <c r="D190" s="8" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="E190" s="8" t="s">
         <v>806</v>
@@ -11972,7 +11971,7 @@
         <v>805</v>
       </c>
       <c r="D191" s="8" t="s">
-        <v>1139</v>
+        <v>1134</v>
       </c>
       <c r="E191" s="8" t="s">
         <v>809</v>
@@ -12004,7 +12003,7 @@
         <v>805</v>
       </c>
       <c r="D192" s="8" t="s">
-        <v>1140</v>
+        <v>1135</v>
       </c>
       <c r="E192" s="8" t="s">
         <v>814</v>
@@ -12036,7 +12035,7 @@
         <v>805</v>
       </c>
       <c r="D193" s="8" t="s">
-        <v>1141</v>
+        <v>1136</v>
       </c>
       <c r="E193" s="8" t="s">
         <v>826</v>
@@ -12068,7 +12067,7 @@
         <v>805</v>
       </c>
       <c r="D194" s="8" t="s">
-        <v>1155</v>
+        <v>1150</v>
       </c>
       <c r="E194" s="8" t="s">
         <v>820</v>
@@ -12103,7 +12102,7 @@
         <v>805</v>
       </c>
       <c r="D195" s="8" t="s">
-        <v>1142</v>
+        <v>1137</v>
       </c>
       <c r="E195" s="8" t="s">
         <v>823</v>
@@ -12135,7 +12134,7 @@
         <v>805</v>
       </c>
       <c r="D196" s="8" t="s">
-        <v>1143</v>
+        <v>1138</v>
       </c>
       <c r="E196" s="8" t="s">
         <v>830</v>
@@ -12167,7 +12166,7 @@
         <v>805</v>
       </c>
       <c r="D197" s="8" t="s">
-        <v>1144</v>
+        <v>1139</v>
       </c>
       <c r="E197" s="8" t="s">
         <v>837</v>
@@ -12199,7 +12198,7 @@
         <v>805</v>
       </c>
       <c r="D198" s="8" t="s">
-        <v>1145</v>
+        <v>1140</v>
       </c>
       <c r="E198" s="8" t="s">
         <v>838</v>
@@ -12231,7 +12230,7 @@
         <v>805</v>
       </c>
       <c r="D199" s="8" t="s">
-        <v>1146</v>
+        <v>1141</v>
       </c>
       <c r="E199" s="8" t="s">
         <v>842</v>
@@ -12263,7 +12262,7 @@
         <v>805</v>
       </c>
       <c r="D200" s="8" t="s">
-        <v>1156</v>
+        <v>1151</v>
       </c>
       <c r="E200" s="8" t="s">
         <v>846</v>
@@ -12295,7 +12294,7 @@
         <v>805</v>
       </c>
       <c r="D201" s="8" t="s">
-        <v>1157</v>
+        <v>1152</v>
       </c>
       <c r="E201" s="8" t="s">
         <v>850</v>
@@ -12327,7 +12326,7 @@
         <v>805</v>
       </c>
       <c r="D202" s="8" t="s">
-        <v>1147</v>
+        <v>1142</v>
       </c>
       <c r="E202" s="8" t="s">
         <v>855</v>
@@ -12359,7 +12358,7 @@
         <v>805</v>
       </c>
       <c r="D203" s="8" t="s">
-        <v>1144</v>
+        <v>1139</v>
       </c>
       <c r="E203" s="8" t="s">
         <v>862</v>
@@ -12484,7 +12483,7 @@
         <v>874</v>
       </c>
       <c r="D207" s="8" t="s">
-        <v>1148</v>
+        <v>1143</v>
       </c>
       <c r="E207" s="8" t="s">
         <v>879</v>
@@ -12516,7 +12515,7 @@
         <v>875</v>
       </c>
       <c r="D208" s="8" t="s">
-        <v>1149</v>
+        <v>1144</v>
       </c>
       <c r="E208" s="8" t="s">
         <v>876</v>
@@ -12548,7 +12547,7 @@
         <v>885</v>
       </c>
       <c r="D209" s="8" t="s">
-        <v>1150</v>
+        <v>1145</v>
       </c>
       <c r="E209" s="8" t="s">
         <v>886</v>
@@ -12588,17 +12587,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="20.85546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="11.28515625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="16.85546875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="17.5703125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="31.85546875" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="29.0" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="37.5703125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="26.140625" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="37.5703125" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="12.5703125" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="19.7109375" collapsed="true"/>
+    <col min="1" max="1" width="20.85546875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11.28515625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="16.85546875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="17.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="31.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="29" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="37.5703125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="26.140625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="37.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="12.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="19.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">

--- a/Advantage Test Cases.xlsx
+++ b/Advantage Test Cases.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3951" uniqueCount="1213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3952" uniqueCount="1215">
   <si>
     <t>Test Objective</t>
   </si>
@@ -5101,30 +5101,6 @@
     <t>fn_ViewAverageScoreofSelectedSubject</t>
   </si>
   <si>
-    <t>fi_FunctionalityToofLearningresource</t>
-  </si>
-  <si>
-    <t>fi_FunctionalityToRemoveofLearningresource</t>
-  </si>
-  <si>
-    <t>fi_FunctionalityToofLessonplayer</t>
-  </si>
-  <si>
-    <t>fi_ViewofAllquestions</t>
-  </si>
-  <si>
-    <t>fi_ViewofRecommendedquestions</t>
-  </si>
-  <si>
-    <t>fi_ViewofCreatedquestions</t>
-  </si>
-  <si>
-    <t>fi_PreviewofRespectivequestion</t>
-  </si>
-  <si>
-    <t>fi_ValidationForMandatoryFieldsofAssessmentwindow</t>
-  </si>
-  <si>
     <t>fi_CancelofAssessmentwindow</t>
   </si>
   <si>
@@ -5195,9 +5171,6 @@
   </si>
   <si>
     <t>fn_DisplayPracticeTestDetails</t>
-  </si>
-  <si>
-    <t>fi_FunctionalityOfAssessmentGenerationCorrespondingToTheQuestions</t>
   </si>
   <si>
     <t>f-_TeacherIsNotAllowedToRemoveTheTestAfterSubmissionFromTheStudent</t>
@@ -5414,6 +5387,39 @@
   </si>
   <si>
     <t>fn_SavePlayedresource</t>
+  </si>
+  <si>
+    <t>fn_BookmarkLearningresource</t>
+  </si>
+  <si>
+    <t>fn_RemoveLearningresource</t>
+  </si>
+  <si>
+    <t>fn_AddLessontoLessonplayer</t>
+  </si>
+  <si>
+    <t>fn_ViewAllquestions</t>
+  </si>
+  <si>
+    <t>fn_ViewRecommendedquestions</t>
+  </si>
+  <si>
+    <t>fn_ViewMyquestions</t>
+  </si>
+  <si>
+    <t>fn_PreviewRespectivequestion</t>
+  </si>
+  <si>
+    <t>fn_AssessmentGeneration</t>
+  </si>
+  <si>
+    <t>fn_ValidationForMandatoryFieldsonAssessmentwindow</t>
+  </si>
+  <si>
+    <t>fn_CancelAssessmentwindow</t>
+  </si>
+  <si>
+    <t>fn_RandomAssessmentGeneration</t>
   </si>
 </sst>
 </file>
@@ -5891,8 +5897,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA210"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A135" workbookViewId="0">
-      <selection activeCell="A135" sqref="A135"/>
+    <sheetView tabSelected="1" topLeftCell="A146" workbookViewId="0">
+      <selection activeCell="D146" sqref="D146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8538,7 +8544,7 @@
         <v>347</v>
       </c>
       <c r="D84" s="8" t="s">
-        <v>1146</v>
+        <v>1138</v>
       </c>
       <c r="E84" s="8" t="s">
         <v>355</v>
@@ -8570,7 +8576,7 @@
         <v>347</v>
       </c>
       <c r="D85" s="8" t="s">
-        <v>1153</v>
+        <v>1144</v>
       </c>
       <c r="E85" s="8" t="s">
         <v>360</v>
@@ -8602,7 +8608,7 @@
         <v>347</v>
       </c>
       <c r="D86" s="8" t="s">
-        <v>1154</v>
+        <v>1145</v>
       </c>
       <c r="E86" s="8" t="s">
         <v>364</v>
@@ -8634,7 +8640,7 @@
         <v>368</v>
       </c>
       <c r="D87" s="8" t="s">
-        <v>1155</v>
+        <v>1146</v>
       </c>
       <c r="E87" s="8" t="s">
         <v>370</v>
@@ -8666,7 +8672,7 @@
         <v>368</v>
       </c>
       <c r="D88" s="8" t="s">
-        <v>1156</v>
+        <v>1147</v>
       </c>
       <c r="E88" s="8" t="s">
         <v>374</v>
@@ -8696,7 +8702,7 @@
         <v>377</v>
       </c>
       <c r="D89" s="8" t="s">
-        <v>1157</v>
+        <v>1148</v>
       </c>
       <c r="E89" s="8" t="s">
         <v>382</v>
@@ -8725,7 +8731,7 @@
         <v>381</v>
       </c>
       <c r="D90" s="8" t="s">
-        <v>1158</v>
+        <v>1149</v>
       </c>
       <c r="E90" s="8" t="s">
         <v>384</v>
@@ -8757,7 +8763,7 @@
         <v>381</v>
       </c>
       <c r="D91" s="8" t="s">
-        <v>1159</v>
+        <v>1150</v>
       </c>
       <c r="E91" s="8" t="s">
         <v>386</v>
@@ -8789,7 +8795,7 @@
         <v>381</v>
       </c>
       <c r="D92" s="8" t="s">
-        <v>1160</v>
+        <v>1151</v>
       </c>
       <c r="E92" s="8" t="s">
         <v>390</v>
@@ -8821,7 +8827,7 @@
         <v>381</v>
       </c>
       <c r="D93" s="8" t="s">
-        <v>1161</v>
+        <v>1152</v>
       </c>
       <c r="E93" s="8" t="s">
         <v>394</v>
@@ -8853,7 +8859,7 @@
         <v>381</v>
       </c>
       <c r="D94" s="8" t="s">
-        <v>1162</v>
+        <v>1153</v>
       </c>
       <c r="E94" s="8" t="s">
         <v>398</v>
@@ -8885,7 +8891,7 @@
         <v>381</v>
       </c>
       <c r="D95" s="8" t="s">
-        <v>1163</v>
+        <v>1154</v>
       </c>
       <c r="E95" s="8" t="s">
         <v>403</v>
@@ -8917,7 +8923,7 @@
         <v>381</v>
       </c>
       <c r="D96" s="8" t="s">
-        <v>1164</v>
+        <v>1155</v>
       </c>
       <c r="E96" s="8" t="s">
         <v>407</v>
@@ -8949,7 +8955,7 @@
         <v>414</v>
       </c>
       <c r="D97" s="8" t="s">
-        <v>1165</v>
+        <v>1156</v>
       </c>
       <c r="E97" s="8" t="s">
         <v>412</v>
@@ -8981,7 +8987,7 @@
         <v>414</v>
       </c>
       <c r="D98" s="8" t="s">
-        <v>1166</v>
+        <v>1157</v>
       </c>
       <c r="E98" s="8" t="s">
         <v>416</v>
@@ -9013,7 +9019,7 @@
         <v>425</v>
       </c>
       <c r="D99" s="8" t="s">
-        <v>1167</v>
+        <v>1158</v>
       </c>
       <c r="E99" s="8" t="s">
         <v>424</v>
@@ -9045,7 +9051,7 @@
         <v>422</v>
       </c>
       <c r="D100" s="8" t="s">
-        <v>1168</v>
+        <v>1159</v>
       </c>
       <c r="E100" s="8" t="s">
         <v>427</v>
@@ -9077,7 +9083,7 @@
         <v>422</v>
       </c>
       <c r="D101" s="8" t="s">
-        <v>1169</v>
+        <v>1160</v>
       </c>
       <c r="E101" s="8" t="s">
         <v>429</v>
@@ -9098,7 +9104,7 @@
         <v>1012</v>
       </c>
       <c r="L101" s="8" t="s">
-        <v>1170</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="102" spans="1:12" ht="195" x14ac:dyDescent="0.25">
@@ -9112,7 +9118,7 @@
         <v>422</v>
       </c>
       <c r="D102" s="8" t="s">
-        <v>1171</v>
+        <v>1162</v>
       </c>
       <c r="E102" s="8" t="s">
         <v>436</v>
@@ -9144,7 +9150,7 @@
         <v>422</v>
       </c>
       <c r="D103" s="8" t="s">
-        <v>1172</v>
+        <v>1163</v>
       </c>
       <c r="E103" s="8" t="s">
         <v>438</v>
@@ -9173,7 +9179,7 @@
         <v>442</v>
       </c>
       <c r="D104" s="8" t="s">
-        <v>1173</v>
+        <v>1164</v>
       </c>
       <c r="E104" s="6" t="s">
         <v>443</v>
@@ -9205,7 +9211,7 @@
         <v>442</v>
       </c>
       <c r="D105" s="8" t="s">
-        <v>1174</v>
+        <v>1165</v>
       </c>
       <c r="E105" s="8" t="s">
         <v>446</v>
@@ -9237,7 +9243,7 @@
         <v>442</v>
       </c>
       <c r="D106" s="8" t="s">
-        <v>1175</v>
+        <v>1166</v>
       </c>
       <c r="E106" s="8" t="s">
         <v>451</v>
@@ -9269,7 +9275,7 @@
         <v>442</v>
       </c>
       <c r="D107" s="8" t="s">
-        <v>1176</v>
+        <v>1167</v>
       </c>
       <c r="E107" s="8" t="s">
         <v>455</v>
@@ -9298,7 +9304,7 @@
         <v>458</v>
       </c>
       <c r="D108" s="8" t="s">
-        <v>1177</v>
+        <v>1168</v>
       </c>
       <c r="E108" s="6" t="s">
         <v>460</v>
@@ -9327,7 +9333,7 @@
         <v>458</v>
       </c>
       <c r="D109" s="8" t="s">
-        <v>1178</v>
+        <v>1169</v>
       </c>
       <c r="E109" s="8" t="s">
         <v>620</v>
@@ -9356,7 +9362,7 @@
         <v>458</v>
       </c>
       <c r="D110" s="8" t="s">
-        <v>1179</v>
+        <v>1170</v>
       </c>
       <c r="E110" s="8" t="s">
         <v>621</v>
@@ -9385,7 +9391,7 @@
         <v>464</v>
       </c>
       <c r="D111" s="8" t="s">
-        <v>1180</v>
+        <v>1171</v>
       </c>
       <c r="E111" s="8" t="s">
         <v>465</v>
@@ -9411,10 +9417,10 @@
         <v>411</v>
       </c>
       <c r="C112" s="8" t="s">
-        <v>1183</v>
+        <v>1174</v>
       </c>
       <c r="D112" s="8" t="s">
-        <v>1182</v>
+        <v>1173</v>
       </c>
       <c r="E112" s="8"/>
       <c r="G112" s="2"/>
@@ -9434,7 +9440,7 @@
         <v>468</v>
       </c>
       <c r="D113" s="8" t="s">
-        <v>1181</v>
+        <v>1172</v>
       </c>
       <c r="E113" s="8" t="s">
         <v>471</v>
@@ -9463,7 +9469,7 @@
         <v>472</v>
       </c>
       <c r="D114" s="8" t="s">
-        <v>1184</v>
+        <v>1175</v>
       </c>
       <c r="E114" s="8" t="s">
         <v>474</v>
@@ -9492,7 +9498,7 @@
         <v>481</v>
       </c>
       <c r="D115" s="8" t="s">
-        <v>1185</v>
+        <v>1176</v>
       </c>
       <c r="E115" s="8" t="s">
         <v>424</v>
@@ -9524,7 +9530,7 @@
         <v>477</v>
       </c>
       <c r="D116" s="8" t="s">
-        <v>1186</v>
+        <v>1177</v>
       </c>
       <c r="E116" s="8" t="s">
         <v>478</v>
@@ -9556,7 +9562,7 @@
         <v>486</v>
       </c>
       <c r="D117" s="8" t="s">
-        <v>1187</v>
+        <v>1178</v>
       </c>
       <c r="E117" s="8" t="s">
         <v>487</v>
@@ -9588,7 +9594,7 @@
         <v>490</v>
       </c>
       <c r="D118" s="8" t="s">
-        <v>1188</v>
+        <v>1179</v>
       </c>
       <c r="E118" s="8" t="s">
         <v>491</v>
@@ -9620,7 +9626,7 @@
         <v>490</v>
       </c>
       <c r="D119" s="8" t="s">
-        <v>1189</v>
+        <v>1180</v>
       </c>
       <c r="E119" s="8" t="s">
         <v>495</v>
@@ -9652,7 +9658,7 @@
         <v>498</v>
       </c>
       <c r="D120" s="8" t="s">
-        <v>1190</v>
+        <v>1181</v>
       </c>
       <c r="E120" s="8" t="s">
         <v>500</v>
@@ -9687,7 +9693,7 @@
         <v>498</v>
       </c>
       <c r="D121" s="8" t="s">
-        <v>1191</v>
+        <v>1182</v>
       </c>
       <c r="E121" s="8" t="s">
         <v>505</v>
@@ -9719,7 +9725,7 @@
         <v>498</v>
       </c>
       <c r="D122" s="8" t="s">
-        <v>1192</v>
+        <v>1183</v>
       </c>
       <c r="E122" s="8" t="s">
         <v>508</v>
@@ -9755,7 +9761,7 @@
         <v>498</v>
       </c>
       <c r="D123" s="8" t="s">
-        <v>1193</v>
+        <v>1184</v>
       </c>
       <c r="E123" s="8" t="s">
         <v>513</v>
@@ -9788,7 +9794,7 @@
         <v>498</v>
       </c>
       <c r="D124" s="8" t="s">
-        <v>1194</v>
+        <v>1185</v>
       </c>
       <c r="E124" s="8" t="s">
         <v>521</v>
@@ -9807,7 +9813,7 @@
         <v>1012</v>
       </c>
       <c r="L124" s="20" t="s">
-        <v>1195</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="125" spans="1:12" ht="315" x14ac:dyDescent="0.25">
@@ -9818,22 +9824,22 @@
         <v>411</v>
       </c>
       <c r="C125" s="8" t="s">
-        <v>1197</v>
+        <v>1188</v>
       </c>
       <c r="D125" s="8" t="s">
-        <v>1198</v>
+        <v>1189</v>
       </c>
       <c r="E125" s="8" t="s">
-        <v>1199</v>
+        <v>1190</v>
       </c>
       <c r="F125" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>1204</v>
+        <v>1195</v>
       </c>
       <c r="H125" s="2" t="s">
-        <v>1200</v>
+        <v>1191</v>
       </c>
       <c r="I125" s="2" t="s">
         <v>502</v>
@@ -9856,7 +9862,7 @@
         <v>498</v>
       </c>
       <c r="D126" s="8" t="s">
-        <v>1201</v>
+        <v>1192</v>
       </c>
       <c r="E126" s="8" t="s">
         <v>505</v>
@@ -9888,7 +9894,7 @@
         <v>498</v>
       </c>
       <c r="D127" s="8" t="s">
-        <v>1202</v>
+        <v>1193</v>
       </c>
       <c r="E127" s="8" t="s">
         <v>508</v>
@@ -9897,7 +9903,7 @@
         <v>38</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>1203</v>
+        <v>1194</v>
       </c>
       <c r="H127" s="2"/>
       <c r="I127" s="2" t="s">
@@ -9924,7 +9930,7 @@
         <v>498</v>
       </c>
       <c r="D128" s="8" t="s">
-        <v>1205</v>
+        <v>1196</v>
       </c>
       <c r="E128" s="8" t="s">
         <v>513</v>
@@ -9957,7 +9963,7 @@
         <v>498</v>
       </c>
       <c r="D129" s="8" t="s">
-        <v>1207</v>
+        <v>1198</v>
       </c>
       <c r="E129" s="8" t="s">
         <v>521</v>
@@ -9976,7 +9982,7 @@
         <v>911</v>
       </c>
       <c r="L129" s="20" t="s">
-        <v>1195</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="130" spans="1:12" ht="375" x14ac:dyDescent="0.25">
@@ -9990,7 +9996,7 @@
         <v>540</v>
       </c>
       <c r="D130" s="8" t="s">
-        <v>1196</v>
+        <v>1187</v>
       </c>
       <c r="E130" s="8" t="s">
         <v>543</v>
@@ -10022,7 +10028,7 @@
         <v>540</v>
       </c>
       <c r="D131" s="8" t="s">
-        <v>1208</v>
+        <v>1199</v>
       </c>
       <c r="E131" s="8" t="s">
         <v>548</v>
@@ -10055,7 +10061,7 @@
         <v>552</v>
       </c>
       <c r="D132" s="8" t="s">
-        <v>1209</v>
+        <v>1200</v>
       </c>
       <c r="E132" s="8" t="s">
         <v>553</v>
@@ -10076,7 +10082,7 @@
         <v>1012</v>
       </c>
       <c r="L132" s="20" t="s">
-        <v>1206</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="133" spans="1:12" ht="165" x14ac:dyDescent="0.25">
@@ -10090,7 +10096,7 @@
         <v>552</v>
       </c>
       <c r="D133" s="8" t="s">
-        <v>1210</v>
+        <v>1201</v>
       </c>
       <c r="E133" s="8" t="s">
         <v>557</v>
@@ -10122,7 +10128,7 @@
         <v>561</v>
       </c>
       <c r="D134" s="8" t="s">
-        <v>1211</v>
+        <v>1202</v>
       </c>
       <c r="E134" s="8" t="s">
         <v>562</v>
@@ -10154,7 +10160,7 @@
         <v>561</v>
       </c>
       <c r="D135" s="8" t="s">
-        <v>1212</v>
+        <v>1203</v>
       </c>
       <c r="E135" s="8" t="s">
         <v>565</v>
@@ -10186,7 +10192,7 @@
         <v>561</v>
       </c>
       <c r="D136" s="8" t="s">
-        <v>1115</v>
+        <v>1204</v>
       </c>
       <c r="E136" s="8" t="s">
         <v>568</v>
@@ -10218,7 +10224,7 @@
         <v>561</v>
       </c>
       <c r="D137" s="8" t="s">
-        <v>1116</v>
+        <v>1205</v>
       </c>
       <c r="E137" s="8" t="s">
         <v>572</v>
@@ -10250,7 +10256,7 @@
         <v>561</v>
       </c>
       <c r="D138" s="8" t="s">
-        <v>1117</v>
+        <v>1206</v>
       </c>
       <c r="E138" s="8" t="s">
         <v>576</v>
@@ -10282,7 +10288,7 @@
         <v>581</v>
       </c>
       <c r="D139" s="8" t="s">
-        <v>1118</v>
+        <v>1207</v>
       </c>
       <c r="E139" s="6" t="s">
         <v>582</v>
@@ -10314,7 +10320,7 @@
         <v>581</v>
       </c>
       <c r="D140" s="8" t="s">
-        <v>1119</v>
+        <v>1208</v>
       </c>
       <c r="E140" s="8" t="s">
         <v>625</v>
@@ -10346,7 +10352,7 @@
         <v>581</v>
       </c>
       <c r="D141" s="8" t="s">
-        <v>1120</v>
+        <v>1209</v>
       </c>
       <c r="E141" s="8" t="s">
         <v>628</v>
@@ -10378,7 +10384,7 @@
         <v>581</v>
       </c>
       <c r="D142" s="8" t="s">
-        <v>1121</v>
+        <v>1210</v>
       </c>
       <c r="E142" s="8" t="s">
         <v>586</v>
@@ -10410,7 +10416,7 @@
         <v>594</v>
       </c>
       <c r="D143" s="8" t="s">
-        <v>1147</v>
+        <v>1211</v>
       </c>
       <c r="E143" s="8" t="s">
         <v>593</v>
@@ -10445,7 +10451,7 @@
         <v>595</v>
       </c>
       <c r="D144" s="8" t="s">
-        <v>1122</v>
+        <v>1212</v>
       </c>
       <c r="E144" s="8" t="s">
         <v>596</v>
@@ -10477,7 +10483,7 @@
         <v>595</v>
       </c>
       <c r="D145" s="8" t="s">
-        <v>1123</v>
+        <v>1213</v>
       </c>
       <c r="E145" s="8" t="s">
         <v>600</v>
@@ -10508,6 +10514,9 @@
       <c r="C146" s="8" t="s">
         <v>595</v>
       </c>
+      <c r="D146" s="8" t="s">
+        <v>1214</v>
+      </c>
       <c r="E146" s="8" t="s">
         <v>604</v>
       </c>
@@ -10573,7 +10582,7 @@
         <v>595</v>
       </c>
       <c r="D148" s="8" t="s">
-        <v>1123</v>
+        <v>1115</v>
       </c>
       <c r="E148" s="8" t="s">
         <v>612</v>
@@ -10872,7 +10881,7 @@
         <v>665</v>
       </c>
       <c r="D158" s="8" t="s">
-        <v>1124</v>
+        <v>1116</v>
       </c>
       <c r="E158" s="8" t="s">
         <v>694</v>
@@ -11097,7 +11106,7 @@
         <v>699</v>
       </c>
       <c r="D165" s="8" t="s">
-        <v>1148</v>
+        <v>1139</v>
       </c>
       <c r="E165" s="8" t="s">
         <v>700</v>
@@ -11126,7 +11135,7 @@
         <v>699</v>
       </c>
       <c r="D166" s="8" t="s">
-        <v>1125</v>
+        <v>1117</v>
       </c>
       <c r="E166" s="8" t="s">
         <v>704</v>
@@ -11251,7 +11260,7 @@
         <v>713</v>
       </c>
       <c r="D170" s="8" t="s">
-        <v>1126</v>
+        <v>1118</v>
       </c>
       <c r="E170" s="8" t="s">
         <v>718</v>
@@ -11283,7 +11292,7 @@
         <v>713</v>
       </c>
       <c r="D171" s="8" t="s">
-        <v>1127</v>
+        <v>1119</v>
       </c>
       <c r="E171" s="8" t="s">
         <v>722</v>
@@ -11315,7 +11324,7 @@
         <v>713</v>
       </c>
       <c r="D172" s="8" t="s">
-        <v>1128</v>
+        <v>1120</v>
       </c>
       <c r="E172" s="8" t="s">
         <v>726</v>
@@ -11347,7 +11356,7 @@
         <v>713</v>
       </c>
       <c r="D173" s="8" t="s">
-        <v>1129</v>
+        <v>1121</v>
       </c>
       <c r="E173" s="10" t="s">
         <v>731</v>
@@ -11396,7 +11405,7 @@
         <v>735</v>
       </c>
       <c r="D174" s="8" t="s">
-        <v>1130</v>
+        <v>1122</v>
       </c>
       <c r="E174" s="14" t="s">
         <v>748</v>
@@ -11474,7 +11483,7 @@
         <v>736</v>
       </c>
       <c r="D176" s="8" t="s">
-        <v>1149</v>
+        <v>1140</v>
       </c>
       <c r="E176" s="8" t="s">
         <v>741</v>
@@ -11614,7 +11623,7 @@
         <v>753</v>
       </c>
       <c r="D180" s="8" t="s">
-        <v>1131</v>
+        <v>1123</v>
       </c>
       <c r="E180" s="8" t="s">
         <v>764</v>
@@ -11744,7 +11753,7 @@
         <v>753</v>
       </c>
       <c r="D184" s="8" t="s">
-        <v>1132</v>
+        <v>1124</v>
       </c>
       <c r="E184" s="8" t="s">
         <v>776</v>
@@ -11808,7 +11817,7 @@
         <v>784</v>
       </c>
       <c r="D186" s="8" t="s">
-        <v>1133</v>
+        <v>1125</v>
       </c>
       <c r="E186" s="6" t="s">
         <v>785</v>
@@ -11971,7 +11980,7 @@
         <v>805</v>
       </c>
       <c r="D191" s="8" t="s">
-        <v>1134</v>
+        <v>1126</v>
       </c>
       <c r="E191" s="8" t="s">
         <v>809</v>
@@ -12003,7 +12012,7 @@
         <v>805</v>
       </c>
       <c r="D192" s="8" t="s">
-        <v>1135</v>
+        <v>1127</v>
       </c>
       <c r="E192" s="8" t="s">
         <v>814</v>
@@ -12035,7 +12044,7 @@
         <v>805</v>
       </c>
       <c r="D193" s="8" t="s">
-        <v>1136</v>
+        <v>1128</v>
       </c>
       <c r="E193" s="8" t="s">
         <v>826</v>
@@ -12067,7 +12076,7 @@
         <v>805</v>
       </c>
       <c r="D194" s="8" t="s">
-        <v>1150</v>
+        <v>1141</v>
       </c>
       <c r="E194" s="8" t="s">
         <v>820</v>
@@ -12102,7 +12111,7 @@
         <v>805</v>
       </c>
       <c r="D195" s="8" t="s">
-        <v>1137</v>
+        <v>1129</v>
       </c>
       <c r="E195" s="8" t="s">
         <v>823</v>
@@ -12134,7 +12143,7 @@
         <v>805</v>
       </c>
       <c r="D196" s="8" t="s">
-        <v>1138</v>
+        <v>1130</v>
       </c>
       <c r="E196" s="8" t="s">
         <v>830</v>
@@ -12166,7 +12175,7 @@
         <v>805</v>
       </c>
       <c r="D197" s="8" t="s">
-        <v>1139</v>
+        <v>1131</v>
       </c>
       <c r="E197" s="8" t="s">
         <v>837</v>
@@ -12198,7 +12207,7 @@
         <v>805</v>
       </c>
       <c r="D198" s="8" t="s">
-        <v>1140</v>
+        <v>1132</v>
       </c>
       <c r="E198" s="8" t="s">
         <v>838</v>
@@ -12230,7 +12239,7 @@
         <v>805</v>
       </c>
       <c r="D199" s="8" t="s">
-        <v>1141</v>
+        <v>1133</v>
       </c>
       <c r="E199" s="8" t="s">
         <v>842</v>
@@ -12262,7 +12271,7 @@
         <v>805</v>
       </c>
       <c r="D200" s="8" t="s">
-        <v>1151</v>
+        <v>1142</v>
       </c>
       <c r="E200" s="8" t="s">
         <v>846</v>
@@ -12294,7 +12303,7 @@
         <v>805</v>
       </c>
       <c r="D201" s="8" t="s">
-        <v>1152</v>
+        <v>1143</v>
       </c>
       <c r="E201" s="8" t="s">
         <v>850</v>
@@ -12326,7 +12335,7 @@
         <v>805</v>
       </c>
       <c r="D202" s="8" t="s">
-        <v>1142</v>
+        <v>1134</v>
       </c>
       <c r="E202" s="8" t="s">
         <v>855</v>
@@ -12358,7 +12367,7 @@
         <v>805</v>
       </c>
       <c r="D203" s="8" t="s">
-        <v>1139</v>
+        <v>1131</v>
       </c>
       <c r="E203" s="8" t="s">
         <v>862</v>
@@ -12483,7 +12492,7 @@
         <v>874</v>
       </c>
       <c r="D207" s="8" t="s">
-        <v>1143</v>
+        <v>1135</v>
       </c>
       <c r="E207" s="8" t="s">
         <v>879</v>
@@ -12515,7 +12524,7 @@
         <v>875</v>
       </c>
       <c r="D208" s="8" t="s">
-        <v>1144</v>
+        <v>1136</v>
       </c>
       <c r="E208" s="8" t="s">
         <v>876</v>
@@ -12547,7 +12556,7 @@
         <v>885</v>
       </c>
       <c r="D209" s="8" t="s">
-        <v>1145</v>
+        <v>1137</v>
       </c>
       <c r="E209" s="8" t="s">
         <v>886</v>

--- a/Advantage Test Cases.xlsx
+++ b/Advantage Test Cases.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3952" uniqueCount="1215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3961" uniqueCount="1227">
   <si>
     <t>Test Objective</t>
   </si>
@@ -5065,30 +5065,6 @@
     <t>fA_AddRemarkforstudent'sFeedbackofView</t>
   </si>
   <si>
-    <t>fi_ValidationsForMandatoryFieldsOnSaveAssessmentWindowofAssessmentGeneration</t>
-  </si>
-  <si>
-    <t>f-_FunctionalityofEditsection</t>
-  </si>
-  <si>
-    <t>f-_FunctionalityofDeletesection</t>
-  </si>
-  <si>
-    <t>f-_FunctionalityToSearchSpecificQuestionWithAdvancedofQuestionBank</t>
-  </si>
-  <si>
-    <t>f-_FunctionalityToSearchSpecificQuestionFromLeftofQuestionBank</t>
-  </si>
-  <si>
-    <t>f-_FunctionalityToTryoutAofQuestionBank</t>
-  </si>
-  <si>
-    <t>f-_FunctionalityToDeleteTestofNobutton</t>
-  </si>
-  <si>
-    <t>f-_TeacherIsNotAbleofRecommendedtests</t>
-  </si>
-  <si>
     <t>fv_ValidationToofTimefields</t>
   </si>
   <si>
@@ -5101,15 +5077,6 @@
     <t>fn_ViewAverageScoreofSelectedSubject</t>
   </si>
   <si>
-    <t>fi_CancelofAssessmentwindow</t>
-  </si>
-  <si>
-    <t>f-_ForofMandatoryfield</t>
-  </si>
-  <si>
-    <t>f-_FunctionalityofDeletetest</t>
-  </si>
-  <si>
     <t>f-_FunctionalityToAssignofAGroup</t>
   </si>
   <si>
@@ -5171,9 +5138,6 @@
   </si>
   <si>
     <t>fn_DisplayPracticeTestDetails</t>
-  </si>
-  <si>
-    <t>f-_TeacherIsNotAllowedToRemoveTheTestAfterSubmissionFromTheStudent</t>
   </si>
   <si>
     <t>fL_ViewLessonsPlannedForTheWeek</t>
@@ -5420,6 +5384,82 @@
   </si>
   <si>
     <t>fn_RandomAssessmentGeneration</t>
+  </si>
+  <si>
+    <t>fn_ValidationsForMandatoryFieldsOnRandomAssessmentGeneration</t>
+  </si>
+  <si>
+    <t>fn_CancelRandomAssessmentwindow</t>
+  </si>
+  <si>
+    <t>fn_ViewAllTests</t>
+  </si>
+  <si>
+    <t>fn_ViewAllRecommendedTests</t>
+  </si>
+  <si>
+    <t>fn_ViewAllMyTests</t>
+  </si>
+  <si>
+    <t>fn_SearchTest</t>
+  </si>
+  <si>
+    <t>1. No.of submissions block getting disappeared after selecting type
+2.Enhancement: Generate button shows dropdown sign, it need to remove</t>
+  </si>
+  <si>
+    <t>fn_SearchInvalidTest</t>
+  </si>
+  <si>
+    <t>fn_PreviewTest</t>
+  </si>
+  <si>
+    <t>fn_PrintTest</t>
+  </si>
+  <si>
+    <t>fn_PrintAnswerBooklet</t>
+  </si>
+  <si>
+    <t>fn_CreateTest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. after adding questions to a section , other added section does not show Add question icon
+2. While adding questions on Question Bank page, select no. of questions by checkbox and click Add to Section now it should redirect to section page, but here it let user to click again on add to section button and it doubles no of questions and showing wrong no of questions selected
+3. After added questions for default section third section gets disappeared
+4. After adding a question in any section if add question in other section then last added question checkbox is disabled with checked status and counted </t>
+  </si>
+  <si>
+    <t>fn_ValidationforMandatoryfieldinCreateTest</t>
+  </si>
+  <si>
+    <t>fn_AddMoreSections</t>
+  </si>
+  <si>
+    <t>fn_EditSection</t>
+  </si>
+  <si>
+    <t>fn_DeleteSection</t>
+  </si>
+  <si>
+    <t>fn_SearchSpecificQuestionWithAdvancedofQuestionBank</t>
+  </si>
+  <si>
+    <t>fn_SearchSpecificQuestionFromLeftofQuestionBank</t>
+  </si>
+  <si>
+    <t>fn_TryoutAQuestionBank</t>
+  </si>
+  <si>
+    <t>fn_RemoveSubmittedTest</t>
+  </si>
+  <si>
+    <t>fn_DeleteTest</t>
+  </si>
+  <si>
+    <t>fn_DeleteTestbyNobutton</t>
+  </si>
+  <si>
+    <t>fn_DeleteRecommendedTests</t>
   </si>
 </sst>
 </file>
@@ -5897,8 +5937,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA210"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A146" workbookViewId="0">
-      <selection activeCell="D146" sqref="D146"/>
+    <sheetView tabSelected="1" topLeftCell="C168" workbookViewId="0">
+      <selection activeCell="D168" sqref="D168"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8512,7 +8552,7 @@
         <v>347</v>
       </c>
       <c r="D83" s="8" t="s">
-        <v>1114</v>
+        <v>1106</v>
       </c>
       <c r="E83" s="8" t="s">
         <v>352</v>
@@ -8544,7 +8584,7 @@
         <v>347</v>
       </c>
       <c r="D84" s="8" t="s">
-        <v>1138</v>
+        <v>1127</v>
       </c>
       <c r="E84" s="8" t="s">
         <v>355</v>
@@ -8576,7 +8616,7 @@
         <v>347</v>
       </c>
       <c r="D85" s="8" t="s">
-        <v>1144</v>
+        <v>1132</v>
       </c>
       <c r="E85" s="8" t="s">
         <v>360</v>
@@ -8608,7 +8648,7 @@
         <v>347</v>
       </c>
       <c r="D86" s="8" t="s">
-        <v>1145</v>
+        <v>1133</v>
       </c>
       <c r="E86" s="8" t="s">
         <v>364</v>
@@ -8640,7 +8680,7 @@
         <v>368</v>
       </c>
       <c r="D87" s="8" t="s">
-        <v>1146</v>
+        <v>1134</v>
       </c>
       <c r="E87" s="8" t="s">
         <v>370</v>
@@ -8672,7 +8712,7 @@
         <v>368</v>
       </c>
       <c r="D88" s="8" t="s">
-        <v>1147</v>
+        <v>1135</v>
       </c>
       <c r="E88" s="8" t="s">
         <v>374</v>
@@ -8702,7 +8742,7 @@
         <v>377</v>
       </c>
       <c r="D89" s="8" t="s">
-        <v>1148</v>
+        <v>1136</v>
       </c>
       <c r="E89" s="8" t="s">
         <v>382</v>
@@ -8731,7 +8771,7 @@
         <v>381</v>
       </c>
       <c r="D90" s="8" t="s">
-        <v>1149</v>
+        <v>1137</v>
       </c>
       <c r="E90" s="8" t="s">
         <v>384</v>
@@ -8763,7 +8803,7 @@
         <v>381</v>
       </c>
       <c r="D91" s="8" t="s">
-        <v>1150</v>
+        <v>1138</v>
       </c>
       <c r="E91" s="8" t="s">
         <v>386</v>
@@ -8795,7 +8835,7 @@
         <v>381</v>
       </c>
       <c r="D92" s="8" t="s">
-        <v>1151</v>
+        <v>1139</v>
       </c>
       <c r="E92" s="8" t="s">
         <v>390</v>
@@ -8827,7 +8867,7 @@
         <v>381</v>
       </c>
       <c r="D93" s="8" t="s">
-        <v>1152</v>
+        <v>1140</v>
       </c>
       <c r="E93" s="8" t="s">
         <v>394</v>
@@ -8859,7 +8899,7 @@
         <v>381</v>
       </c>
       <c r="D94" s="8" t="s">
-        <v>1153</v>
+        <v>1141</v>
       </c>
       <c r="E94" s="8" t="s">
         <v>398</v>
@@ -8891,7 +8931,7 @@
         <v>381</v>
       </c>
       <c r="D95" s="8" t="s">
-        <v>1154</v>
+        <v>1142</v>
       </c>
       <c r="E95" s="8" t="s">
         <v>403</v>
@@ -8923,7 +8963,7 @@
         <v>381</v>
       </c>
       <c r="D96" s="8" t="s">
-        <v>1155</v>
+        <v>1143</v>
       </c>
       <c r="E96" s="8" t="s">
         <v>407</v>
@@ -8955,7 +8995,7 @@
         <v>414</v>
       </c>
       <c r="D97" s="8" t="s">
-        <v>1156</v>
+        <v>1144</v>
       </c>
       <c r="E97" s="8" t="s">
         <v>412</v>
@@ -8987,7 +9027,7 @@
         <v>414</v>
       </c>
       <c r="D98" s="8" t="s">
-        <v>1157</v>
+        <v>1145</v>
       </c>
       <c r="E98" s="8" t="s">
         <v>416</v>
@@ -9019,7 +9059,7 @@
         <v>425</v>
       </c>
       <c r="D99" s="8" t="s">
-        <v>1158</v>
+        <v>1146</v>
       </c>
       <c r="E99" s="8" t="s">
         <v>424</v>
@@ -9051,7 +9091,7 @@
         <v>422</v>
       </c>
       <c r="D100" s="8" t="s">
-        <v>1159</v>
+        <v>1147</v>
       </c>
       <c r="E100" s="8" t="s">
         <v>427</v>
@@ -9083,7 +9123,7 @@
         <v>422</v>
       </c>
       <c r="D101" s="8" t="s">
-        <v>1160</v>
+        <v>1148</v>
       </c>
       <c r="E101" s="8" t="s">
         <v>429</v>
@@ -9104,7 +9144,7 @@
         <v>1012</v>
       </c>
       <c r="L101" s="8" t="s">
-        <v>1161</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="102" spans="1:12" ht="195" x14ac:dyDescent="0.25">
@@ -9118,7 +9158,7 @@
         <v>422</v>
       </c>
       <c r="D102" s="8" t="s">
-        <v>1162</v>
+        <v>1150</v>
       </c>
       <c r="E102" s="8" t="s">
         <v>436</v>
@@ -9150,7 +9190,7 @@
         <v>422</v>
       </c>
       <c r="D103" s="8" t="s">
-        <v>1163</v>
+        <v>1151</v>
       </c>
       <c r="E103" s="8" t="s">
         <v>438</v>
@@ -9179,7 +9219,7 @@
         <v>442</v>
       </c>
       <c r="D104" s="8" t="s">
-        <v>1164</v>
+        <v>1152</v>
       </c>
       <c r="E104" s="6" t="s">
         <v>443</v>
@@ -9211,7 +9251,7 @@
         <v>442</v>
       </c>
       <c r="D105" s="8" t="s">
-        <v>1165</v>
+        <v>1153</v>
       </c>
       <c r="E105" s="8" t="s">
         <v>446</v>
@@ -9243,7 +9283,7 @@
         <v>442</v>
       </c>
       <c r="D106" s="8" t="s">
-        <v>1166</v>
+        <v>1154</v>
       </c>
       <c r="E106" s="8" t="s">
         <v>451</v>
@@ -9275,7 +9315,7 @@
         <v>442</v>
       </c>
       <c r="D107" s="8" t="s">
-        <v>1167</v>
+        <v>1155</v>
       </c>
       <c r="E107" s="8" t="s">
         <v>455</v>
@@ -9304,7 +9344,7 @@
         <v>458</v>
       </c>
       <c r="D108" s="8" t="s">
-        <v>1168</v>
+        <v>1156</v>
       </c>
       <c r="E108" s="6" t="s">
         <v>460</v>
@@ -9333,7 +9373,7 @@
         <v>458</v>
       </c>
       <c r="D109" s="8" t="s">
-        <v>1169</v>
+        <v>1157</v>
       </c>
       <c r="E109" s="8" t="s">
         <v>620</v>
@@ -9362,7 +9402,7 @@
         <v>458</v>
       </c>
       <c r="D110" s="8" t="s">
-        <v>1170</v>
+        <v>1158</v>
       </c>
       <c r="E110" s="8" t="s">
         <v>621</v>
@@ -9391,7 +9431,7 @@
         <v>464</v>
       </c>
       <c r="D111" s="8" t="s">
-        <v>1171</v>
+        <v>1159</v>
       </c>
       <c r="E111" s="8" t="s">
         <v>465</v>
@@ -9417,10 +9457,10 @@
         <v>411</v>
       </c>
       <c r="C112" s="8" t="s">
-        <v>1174</v>
+        <v>1162</v>
       </c>
       <c r="D112" s="8" t="s">
-        <v>1173</v>
+        <v>1161</v>
       </c>
       <c r="E112" s="8"/>
       <c r="G112" s="2"/>
@@ -9440,7 +9480,7 @@
         <v>468</v>
       </c>
       <c r="D113" s="8" t="s">
-        <v>1172</v>
+        <v>1160</v>
       </c>
       <c r="E113" s="8" t="s">
         <v>471</v>
@@ -9469,7 +9509,7 @@
         <v>472</v>
       </c>
       <c r="D114" s="8" t="s">
-        <v>1175</v>
+        <v>1163</v>
       </c>
       <c r="E114" s="8" t="s">
         <v>474</v>
@@ -9498,7 +9538,7 @@
         <v>481</v>
       </c>
       <c r="D115" s="8" t="s">
-        <v>1176</v>
+        <v>1164</v>
       </c>
       <c r="E115" s="8" t="s">
         <v>424</v>
@@ -9530,7 +9570,7 @@
         <v>477</v>
       </c>
       <c r="D116" s="8" t="s">
-        <v>1177</v>
+        <v>1165</v>
       </c>
       <c r="E116" s="8" t="s">
         <v>478</v>
@@ -9562,7 +9602,7 @@
         <v>486</v>
       </c>
       <c r="D117" s="8" t="s">
-        <v>1178</v>
+        <v>1166</v>
       </c>
       <c r="E117" s="8" t="s">
         <v>487</v>
@@ -9594,7 +9634,7 @@
         <v>490</v>
       </c>
       <c r="D118" s="8" t="s">
-        <v>1179</v>
+        <v>1167</v>
       </c>
       <c r="E118" s="8" t="s">
         <v>491</v>
@@ -9626,7 +9666,7 @@
         <v>490</v>
       </c>
       <c r="D119" s="8" t="s">
-        <v>1180</v>
+        <v>1168</v>
       </c>
       <c r="E119" s="8" t="s">
         <v>495</v>
@@ -9658,7 +9698,7 @@
         <v>498</v>
       </c>
       <c r="D120" s="8" t="s">
-        <v>1181</v>
+        <v>1169</v>
       </c>
       <c r="E120" s="8" t="s">
         <v>500</v>
@@ -9693,7 +9733,7 @@
         <v>498</v>
       </c>
       <c r="D121" s="8" t="s">
-        <v>1182</v>
+        <v>1170</v>
       </c>
       <c r="E121" s="8" t="s">
         <v>505</v>
@@ -9725,7 +9765,7 @@
         <v>498</v>
       </c>
       <c r="D122" s="8" t="s">
-        <v>1183</v>
+        <v>1171</v>
       </c>
       <c r="E122" s="8" t="s">
         <v>508</v>
@@ -9761,7 +9801,7 @@
         <v>498</v>
       </c>
       <c r="D123" s="8" t="s">
-        <v>1184</v>
+        <v>1172</v>
       </c>
       <c r="E123" s="8" t="s">
         <v>513</v>
@@ -9794,7 +9834,7 @@
         <v>498</v>
       </c>
       <c r="D124" s="8" t="s">
-        <v>1185</v>
+        <v>1173</v>
       </c>
       <c r="E124" s="8" t="s">
         <v>521</v>
@@ -9813,7 +9853,7 @@
         <v>1012</v>
       </c>
       <c r="L124" s="20" t="s">
-        <v>1186</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="125" spans="1:12" ht="315" x14ac:dyDescent="0.25">
@@ -9824,22 +9864,22 @@
         <v>411</v>
       </c>
       <c r="C125" s="8" t="s">
-        <v>1188</v>
+        <v>1176</v>
       </c>
       <c r="D125" s="8" t="s">
-        <v>1189</v>
+        <v>1177</v>
       </c>
       <c r="E125" s="8" t="s">
-        <v>1190</v>
+        <v>1178</v>
       </c>
       <c r="F125" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>1195</v>
+        <v>1183</v>
       </c>
       <c r="H125" s="2" t="s">
-        <v>1191</v>
+        <v>1179</v>
       </c>
       <c r="I125" s="2" t="s">
         <v>502</v>
@@ -9862,7 +9902,7 @@
         <v>498</v>
       </c>
       <c r="D126" s="8" t="s">
-        <v>1192</v>
+        <v>1180</v>
       </c>
       <c r="E126" s="8" t="s">
         <v>505</v>
@@ -9894,7 +9934,7 @@
         <v>498</v>
       </c>
       <c r="D127" s="8" t="s">
-        <v>1193</v>
+        <v>1181</v>
       </c>
       <c r="E127" s="8" t="s">
         <v>508</v>
@@ -9903,7 +9943,7 @@
         <v>38</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>1194</v>
+        <v>1182</v>
       </c>
       <c r="H127" s="2"/>
       <c r="I127" s="2" t="s">
@@ -9930,7 +9970,7 @@
         <v>498</v>
       </c>
       <c r="D128" s="8" t="s">
-        <v>1196</v>
+        <v>1184</v>
       </c>
       <c r="E128" s="8" t="s">
         <v>513</v>
@@ -9963,7 +10003,7 @@
         <v>498</v>
       </c>
       <c r="D129" s="8" t="s">
-        <v>1198</v>
+        <v>1186</v>
       </c>
       <c r="E129" s="8" t="s">
         <v>521</v>
@@ -9982,7 +10022,7 @@
         <v>911</v>
       </c>
       <c r="L129" s="20" t="s">
-        <v>1186</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="130" spans="1:12" ht="375" x14ac:dyDescent="0.25">
@@ -9996,7 +10036,7 @@
         <v>540</v>
       </c>
       <c r="D130" s="8" t="s">
-        <v>1187</v>
+        <v>1175</v>
       </c>
       <c r="E130" s="8" t="s">
         <v>543</v>
@@ -10028,7 +10068,7 @@
         <v>540</v>
       </c>
       <c r="D131" s="8" t="s">
-        <v>1199</v>
+        <v>1187</v>
       </c>
       <c r="E131" s="8" t="s">
         <v>548</v>
@@ -10061,7 +10101,7 @@
         <v>552</v>
       </c>
       <c r="D132" s="8" t="s">
-        <v>1200</v>
+        <v>1188</v>
       </c>
       <c r="E132" s="8" t="s">
         <v>553</v>
@@ -10082,7 +10122,7 @@
         <v>1012</v>
       </c>
       <c r="L132" s="20" t="s">
-        <v>1197</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="133" spans="1:12" ht="165" x14ac:dyDescent="0.25">
@@ -10096,7 +10136,7 @@
         <v>552</v>
       </c>
       <c r="D133" s="8" t="s">
-        <v>1201</v>
+        <v>1189</v>
       </c>
       <c r="E133" s="8" t="s">
         <v>557</v>
@@ -10128,7 +10168,7 @@
         <v>561</v>
       </c>
       <c r="D134" s="8" t="s">
-        <v>1202</v>
+        <v>1190</v>
       </c>
       <c r="E134" s="8" t="s">
         <v>562</v>
@@ -10160,7 +10200,7 @@
         <v>561</v>
       </c>
       <c r="D135" s="8" t="s">
-        <v>1203</v>
+        <v>1191</v>
       </c>
       <c r="E135" s="8" t="s">
         <v>565</v>
@@ -10192,7 +10232,7 @@
         <v>561</v>
       </c>
       <c r="D136" s="8" t="s">
-        <v>1204</v>
+        <v>1192</v>
       </c>
       <c r="E136" s="8" t="s">
         <v>568</v>
@@ -10209,8 +10249,8 @@
       <c r="J136" s="6" t="s">
         <v>972</v>
       </c>
-      <c r="K136" s="8" t="s">
-        <v>911</v>
+      <c r="K136" t="s">
+        <v>1012</v>
       </c>
     </row>
     <row r="137" spans="1:12" ht="225" x14ac:dyDescent="0.25">
@@ -10224,7 +10264,7 @@
         <v>561</v>
       </c>
       <c r="D137" s="8" t="s">
-        <v>1205</v>
+        <v>1193</v>
       </c>
       <c r="E137" s="8" t="s">
         <v>572</v>
@@ -10241,8 +10281,8 @@
       <c r="J137" s="6" t="s">
         <v>972</v>
       </c>
-      <c r="K137" s="8" t="s">
-        <v>911</v>
+      <c r="K137" t="s">
+        <v>1012</v>
       </c>
     </row>
     <row r="138" spans="1:12" ht="225" x14ac:dyDescent="0.25">
@@ -10256,7 +10296,7 @@
         <v>561</v>
       </c>
       <c r="D138" s="8" t="s">
-        <v>1206</v>
+        <v>1194</v>
       </c>
       <c r="E138" s="8" t="s">
         <v>576</v>
@@ -10273,8 +10313,8 @@
       <c r="J138" s="6" t="s">
         <v>972</v>
       </c>
-      <c r="K138" s="8" t="s">
-        <v>911</v>
+      <c r="K138" t="s">
+        <v>1012</v>
       </c>
     </row>
     <row r="139" spans="1:12" ht="120" x14ac:dyDescent="0.25">
@@ -10288,7 +10328,7 @@
         <v>581</v>
       </c>
       <c r="D139" s="8" t="s">
-        <v>1207</v>
+        <v>1195</v>
       </c>
       <c r="E139" s="6" t="s">
         <v>582</v>
@@ -10305,8 +10345,8 @@
       <c r="J139" s="6" t="s">
         <v>972</v>
       </c>
-      <c r="K139" s="8" t="s">
-        <v>911</v>
+      <c r="K139" t="s">
+        <v>1012</v>
       </c>
     </row>
     <row r="140" spans="1:12" ht="150" x14ac:dyDescent="0.25">
@@ -10320,7 +10360,7 @@
         <v>581</v>
       </c>
       <c r="D140" s="8" t="s">
-        <v>1208</v>
+        <v>1196</v>
       </c>
       <c r="E140" s="8" t="s">
         <v>625</v>
@@ -10337,8 +10377,8 @@
       <c r="J140" s="6" t="s">
         <v>972</v>
       </c>
-      <c r="K140" s="8" t="s">
-        <v>911</v>
+      <c r="K140" t="s">
+        <v>1012</v>
       </c>
     </row>
     <row r="141" spans="1:12" ht="150" x14ac:dyDescent="0.25">
@@ -10352,7 +10392,7 @@
         <v>581</v>
       </c>
       <c r="D141" s="8" t="s">
-        <v>1209</v>
+        <v>1197</v>
       </c>
       <c r="E141" s="8" t="s">
         <v>628</v>
@@ -10369,8 +10409,8 @@
       <c r="J141" s="6" t="s">
         <v>972</v>
       </c>
-      <c r="K141" s="8" t="s">
-        <v>911</v>
+      <c r="K141" t="s">
+        <v>1012</v>
       </c>
     </row>
     <row r="142" spans="1:12" ht="150" x14ac:dyDescent="0.25">
@@ -10384,7 +10424,7 @@
         <v>581</v>
       </c>
       <c r="D142" s="8" t="s">
-        <v>1210</v>
+        <v>1198</v>
       </c>
       <c r="E142" s="8" t="s">
         <v>586</v>
@@ -10401,8 +10441,8 @@
       <c r="J142" s="6" t="s">
         <v>972</v>
       </c>
-      <c r="K142" s="8" t="s">
-        <v>911</v>
+      <c r="K142" t="s">
+        <v>1012</v>
       </c>
     </row>
     <row r="143" spans="1:12" ht="195" x14ac:dyDescent="0.25">
@@ -10416,7 +10456,7 @@
         <v>594</v>
       </c>
       <c r="D143" s="8" t="s">
-        <v>1211</v>
+        <v>1199</v>
       </c>
       <c r="E143" s="8" t="s">
         <v>593</v>
@@ -10433,11 +10473,11 @@
       <c r="J143" s="6" t="s">
         <v>972</v>
       </c>
-      <c r="K143" s="8" t="s">
-        <v>911</v>
-      </c>
-      <c r="L143" s="8" t="s">
-        <v>973</v>
+      <c r="K143" t="s">
+        <v>1012</v>
+      </c>
+      <c r="L143" s="20" t="s">
+        <v>1209</v>
       </c>
     </row>
     <row r="144" spans="1:12" ht="180" x14ac:dyDescent="0.25">
@@ -10451,7 +10491,7 @@
         <v>595</v>
       </c>
       <c r="D144" s="8" t="s">
-        <v>1212</v>
+        <v>1200</v>
       </c>
       <c r="E144" s="8" t="s">
         <v>596</v>
@@ -10468,8 +10508,8 @@
       <c r="J144" s="6" t="s">
         <v>972</v>
       </c>
-      <c r="K144" s="8" t="s">
-        <v>911</v>
+      <c r="K144" t="s">
+        <v>1012</v>
       </c>
     </row>
     <row r="145" spans="1:12" ht="165" x14ac:dyDescent="0.25">
@@ -10483,7 +10523,7 @@
         <v>595</v>
       </c>
       <c r="D145" s="8" t="s">
-        <v>1213</v>
+        <v>1201</v>
       </c>
       <c r="E145" s="8" t="s">
         <v>600</v>
@@ -10500,8 +10540,8 @@
       <c r="J145" s="6" t="s">
         <v>972</v>
       </c>
-      <c r="K145" s="8" t="s">
-        <v>911</v>
+      <c r="K145" t="s">
+        <v>1012</v>
       </c>
     </row>
     <row r="146" spans="1:12" ht="330" x14ac:dyDescent="0.25">
@@ -10515,7 +10555,7 @@
         <v>595</v>
       </c>
       <c r="D146" s="8" t="s">
-        <v>1214</v>
+        <v>1202</v>
       </c>
       <c r="E146" s="8" t="s">
         <v>604</v>
@@ -10532,8 +10572,8 @@
       <c r="J146" s="6" t="s">
         <v>972</v>
       </c>
-      <c r="K146" s="8" t="s">
-        <v>911</v>
+      <c r="K146" t="s">
+        <v>1012</v>
       </c>
       <c r="L146" s="8" t="s">
         <v>953</v>
@@ -10550,7 +10590,7 @@
         <v>595</v>
       </c>
       <c r="D147" s="8" t="s">
-        <v>1103</v>
+        <v>1203</v>
       </c>
       <c r="E147" s="8" t="s">
         <v>609</v>
@@ -10567,8 +10607,8 @@
       <c r="J147" s="6" t="s">
         <v>972</v>
       </c>
-      <c r="K147" s="8" t="s">
-        <v>911</v>
+      <c r="K147" t="s">
+        <v>1012</v>
       </c>
     </row>
     <row r="148" spans="1:12" ht="165" x14ac:dyDescent="0.25">
@@ -10582,7 +10622,7 @@
         <v>595</v>
       </c>
       <c r="D148" s="8" t="s">
-        <v>1115</v>
+        <v>1204</v>
       </c>
       <c r="E148" s="8" t="s">
         <v>612</v>
@@ -10599,8 +10639,8 @@
       <c r="J148" s="6" t="s">
         <v>972</v>
       </c>
-      <c r="K148" s="8" t="s">
-        <v>911</v>
+      <c r="K148" t="s">
+        <v>1012</v>
       </c>
     </row>
     <row r="149" spans="1:12" ht="120" x14ac:dyDescent="0.25">
@@ -10613,6 +10653,9 @@
       <c r="C149" s="6" t="s">
         <v>617</v>
       </c>
+      <c r="D149" s="8" t="s">
+        <v>1205</v>
+      </c>
       <c r="E149" s="6" t="s">
         <v>635</v>
       </c>
@@ -10628,8 +10671,8 @@
       <c r="J149" s="6" t="s">
         <v>972</v>
       </c>
-      <c r="K149" s="8" t="s">
-        <v>911</v>
+      <c r="K149" t="s">
+        <v>1012</v>
       </c>
     </row>
     <row r="150" spans="1:12" ht="150" x14ac:dyDescent="0.25">
@@ -10642,6 +10685,9 @@
       <c r="C150" s="6" t="s">
         <v>617</v>
       </c>
+      <c r="D150" s="8" t="s">
+        <v>1206</v>
+      </c>
       <c r="E150" s="8" t="s">
         <v>638</v>
       </c>
@@ -10657,8 +10703,8 @@
       <c r="J150" s="6" t="s">
         <v>972</v>
       </c>
-      <c r="K150" s="8" t="s">
-        <v>911</v>
+      <c r="K150" t="s">
+        <v>1012</v>
       </c>
     </row>
     <row r="151" spans="1:12" ht="150" x14ac:dyDescent="0.25">
@@ -10671,6 +10717,9 @@
       <c r="C151" s="6" t="s">
         <v>617</v>
       </c>
+      <c r="D151" s="8" t="s">
+        <v>1207</v>
+      </c>
       <c r="E151" s="6" t="s">
         <v>641</v>
       </c>
@@ -10686,8 +10735,8 @@
       <c r="J151" s="6" t="s">
         <v>972</v>
       </c>
-      <c r="K151" s="8" t="s">
-        <v>911</v>
+      <c r="K151" t="s">
+        <v>1012</v>
       </c>
     </row>
     <row r="152" spans="1:12" ht="150" x14ac:dyDescent="0.25">
@@ -10700,6 +10749,9 @@
       <c r="C152" s="6" t="s">
         <v>617</v>
       </c>
+      <c r="D152" s="8" t="s">
+        <v>1208</v>
+      </c>
       <c r="E152" s="8" t="s">
         <v>645</v>
       </c>
@@ -10729,6 +10781,9 @@
       <c r="C153" s="6" t="s">
         <v>617</v>
       </c>
+      <c r="D153" s="8" t="s">
+        <v>1210</v>
+      </c>
       <c r="E153" s="8" t="s">
         <v>649</v>
       </c>
@@ -10744,8 +10799,8 @@
       <c r="J153" s="6" t="s">
         <v>972</v>
       </c>
-      <c r="K153" s="8" t="s">
-        <v>911</v>
+      <c r="K153" t="s">
+        <v>1012</v>
       </c>
     </row>
     <row r="154" spans="1:12" ht="150" x14ac:dyDescent="0.25">
@@ -10758,6 +10813,9 @@
       <c r="C154" s="6" t="s">
         <v>617</v>
       </c>
+      <c r="D154" s="8" t="s">
+        <v>1211</v>
+      </c>
       <c r="E154" s="8" t="s">
         <v>653</v>
       </c>
@@ -10773,8 +10831,8 @@
       <c r="J154" s="6" t="s">
         <v>972</v>
       </c>
-      <c r="K154" s="8" t="s">
-        <v>911</v>
+      <c r="K154" t="s">
+        <v>1012</v>
       </c>
     </row>
     <row r="155" spans="1:12" ht="150" x14ac:dyDescent="0.25">
@@ -10787,6 +10845,9 @@
       <c r="C155" s="6" t="s">
         <v>617</v>
       </c>
+      <c r="D155" s="8" t="s">
+        <v>1212</v>
+      </c>
       <c r="E155" s="8" t="s">
         <v>657</v>
       </c>
@@ -10802,8 +10863,8 @@
       <c r="J155" s="6" t="s">
         <v>972</v>
       </c>
-      <c r="K155" s="8" t="s">
-        <v>911</v>
+      <c r="K155" t="s">
+        <v>1012</v>
       </c>
     </row>
     <row r="156" spans="1:12" ht="150" x14ac:dyDescent="0.25">
@@ -10816,6 +10877,9 @@
       <c r="C156" s="6" t="s">
         <v>617</v>
       </c>
+      <c r="D156" s="8" t="s">
+        <v>1213</v>
+      </c>
       <c r="E156" s="8" t="s">
         <v>661</v>
       </c>
@@ -10831,8 +10895,8 @@
       <c r="J156" s="6" t="s">
         <v>972</v>
       </c>
-      <c r="K156" s="8" t="s">
-        <v>911</v>
+      <c r="K156" t="s">
+        <v>1012</v>
       </c>
     </row>
     <row r="157" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
@@ -10846,7 +10910,7 @@
         <v>665</v>
       </c>
       <c r="D157" s="8" t="s">
-        <v>1000</v>
+        <v>1214</v>
       </c>
       <c r="E157" s="8" t="s">
         <v>666</v>
@@ -10867,7 +10931,7 @@
         <v>909</v>
       </c>
       <c r="L157" s="20" t="s">
-        <v>954</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="158" spans="1:12" ht="195" x14ac:dyDescent="0.25">
@@ -10881,7 +10945,7 @@
         <v>665</v>
       </c>
       <c r="D158" s="8" t="s">
-        <v>1116</v>
+        <v>1216</v>
       </c>
       <c r="E158" s="8" t="s">
         <v>694</v>
@@ -10913,6 +10977,9 @@
       <c r="C159" s="6" t="s">
         <v>665</v>
       </c>
+      <c r="D159" s="8" t="s">
+        <v>1217</v>
+      </c>
       <c r="E159" s="8" t="s">
         <v>671</v>
       </c>
@@ -10946,7 +11013,7 @@
         <v>665</v>
       </c>
       <c r="D160" s="8" t="s">
-        <v>1104</v>
+        <v>1218</v>
       </c>
       <c r="E160" s="8" t="s">
         <v>675</v>
@@ -10978,7 +11045,7 @@
         <v>665</v>
       </c>
       <c r="D161" s="8" t="s">
-        <v>1105</v>
+        <v>1219</v>
       </c>
       <c r="E161" s="8" t="s">
         <v>679</v>
@@ -11010,7 +11077,7 @@
         <v>665</v>
       </c>
       <c r="D162" s="8" t="s">
-        <v>1106</v>
+        <v>1220</v>
       </c>
       <c r="E162" s="8" t="s">
         <v>683</v>
@@ -11042,7 +11109,7 @@
         <v>665</v>
       </c>
       <c r="D163" s="8" t="s">
-        <v>1107</v>
+        <v>1221</v>
       </c>
       <c r="E163" s="8" t="s">
         <v>687</v>
@@ -11074,7 +11141,7 @@
         <v>665</v>
       </c>
       <c r="D164" s="8" t="s">
-        <v>1108</v>
+        <v>1222</v>
       </c>
       <c r="E164" s="8" t="s">
         <v>691</v>
@@ -11106,7 +11173,7 @@
         <v>699</v>
       </c>
       <c r="D165" s="8" t="s">
-        <v>1139</v>
+        <v>1223</v>
       </c>
       <c r="E165" s="8" t="s">
         <v>700</v>
@@ -11135,7 +11202,7 @@
         <v>699</v>
       </c>
       <c r="D166" s="8" t="s">
-        <v>1117</v>
+        <v>1224</v>
       </c>
       <c r="E166" s="8" t="s">
         <v>704</v>
@@ -11167,7 +11234,7 @@
         <v>699</v>
       </c>
       <c r="D167" s="8" t="s">
-        <v>1109</v>
+        <v>1225</v>
       </c>
       <c r="E167" s="8" t="s">
         <v>707</v>
@@ -11199,7 +11266,7 @@
         <v>699</v>
       </c>
       <c r="D168" s="8" t="s">
-        <v>1110</v>
+        <v>1226</v>
       </c>
       <c r="E168" s="8" t="s">
         <v>710</v>
@@ -11260,7 +11327,7 @@
         <v>713</v>
       </c>
       <c r="D170" s="8" t="s">
-        <v>1118</v>
+        <v>1107</v>
       </c>
       <c r="E170" s="8" t="s">
         <v>718</v>
@@ -11292,7 +11359,7 @@
         <v>713</v>
       </c>
       <c r="D171" s="8" t="s">
-        <v>1119</v>
+        <v>1108</v>
       </c>
       <c r="E171" s="8" t="s">
         <v>722</v>
@@ -11324,7 +11391,7 @@
         <v>713</v>
       </c>
       <c r="D172" s="8" t="s">
-        <v>1120</v>
+        <v>1109</v>
       </c>
       <c r="E172" s="8" t="s">
         <v>726</v>
@@ -11356,7 +11423,7 @@
         <v>713</v>
       </c>
       <c r="D173" s="8" t="s">
-        <v>1121</v>
+        <v>1110</v>
       </c>
       <c r="E173" s="10" t="s">
         <v>731</v>
@@ -11405,7 +11472,7 @@
         <v>735</v>
       </c>
       <c r="D174" s="8" t="s">
-        <v>1122</v>
+        <v>1111</v>
       </c>
       <c r="E174" s="14" t="s">
         <v>748</v>
@@ -11483,7 +11550,7 @@
         <v>736</v>
       </c>
       <c r="D176" s="8" t="s">
-        <v>1140</v>
+        <v>1128</v>
       </c>
       <c r="E176" s="8" t="s">
         <v>741</v>
@@ -11623,7 +11690,7 @@
         <v>753</v>
       </c>
       <c r="D180" s="8" t="s">
-        <v>1123</v>
+        <v>1112</v>
       </c>
       <c r="E180" s="8" t="s">
         <v>764</v>
@@ -11655,7 +11722,7 @@
         <v>753</v>
       </c>
       <c r="D181" s="8" t="s">
-        <v>1111</v>
+        <v>1103</v>
       </c>
       <c r="E181" s="8" t="s">
         <v>768</v>
@@ -11687,7 +11754,7 @@
         <v>753</v>
       </c>
       <c r="D182" s="8" t="s">
-        <v>1111</v>
+        <v>1103</v>
       </c>
       <c r="E182" s="8" t="s">
         <v>768</v>
@@ -11720,7 +11787,7 @@
         <v>753</v>
       </c>
       <c r="D183" s="8" t="s">
-        <v>1111</v>
+        <v>1103</v>
       </c>
       <c r="E183" s="8" t="s">
         <v>768</v>
@@ -11753,7 +11820,7 @@
         <v>753</v>
       </c>
       <c r="D184" s="8" t="s">
-        <v>1124</v>
+        <v>1113</v>
       </c>
       <c r="E184" s="8" t="s">
         <v>776</v>
@@ -11785,7 +11852,7 @@
         <v>779</v>
       </c>
       <c r="D185" s="8" t="s">
-        <v>1112</v>
+        <v>1104</v>
       </c>
       <c r="E185" s="6" t="s">
         <v>786</v>
@@ -11817,7 +11884,7 @@
         <v>784</v>
       </c>
       <c r="D186" s="8" t="s">
-        <v>1125</v>
+        <v>1114</v>
       </c>
       <c r="E186" s="6" t="s">
         <v>785</v>
@@ -11948,7 +12015,7 @@
         <v>805</v>
       </c>
       <c r="D190" s="8" t="s">
-        <v>1113</v>
+        <v>1105</v>
       </c>
       <c r="E190" s="8" t="s">
         <v>806</v>
@@ -11980,7 +12047,7 @@
         <v>805</v>
       </c>
       <c r="D191" s="8" t="s">
-        <v>1126</v>
+        <v>1115</v>
       </c>
       <c r="E191" s="8" t="s">
         <v>809</v>
@@ -12012,7 +12079,7 @@
         <v>805</v>
       </c>
       <c r="D192" s="8" t="s">
-        <v>1127</v>
+        <v>1116</v>
       </c>
       <c r="E192" s="8" t="s">
         <v>814</v>
@@ -12044,7 +12111,7 @@
         <v>805</v>
       </c>
       <c r="D193" s="8" t="s">
-        <v>1128</v>
+        <v>1117</v>
       </c>
       <c r="E193" s="8" t="s">
         <v>826</v>
@@ -12076,7 +12143,7 @@
         <v>805</v>
       </c>
       <c r="D194" s="8" t="s">
-        <v>1141</v>
+        <v>1129</v>
       </c>
       <c r="E194" s="8" t="s">
         <v>820</v>
@@ -12111,7 +12178,7 @@
         <v>805</v>
       </c>
       <c r="D195" s="8" t="s">
-        <v>1129</v>
+        <v>1118</v>
       </c>
       <c r="E195" s="8" t="s">
         <v>823</v>
@@ -12143,7 +12210,7 @@
         <v>805</v>
       </c>
       <c r="D196" s="8" t="s">
-        <v>1130</v>
+        <v>1119</v>
       </c>
       <c r="E196" s="8" t="s">
         <v>830</v>
@@ -12175,7 +12242,7 @@
         <v>805</v>
       </c>
       <c r="D197" s="8" t="s">
-        <v>1131</v>
+        <v>1120</v>
       </c>
       <c r="E197" s="8" t="s">
         <v>837</v>
@@ -12207,7 +12274,7 @@
         <v>805</v>
       </c>
       <c r="D198" s="8" t="s">
-        <v>1132</v>
+        <v>1121</v>
       </c>
       <c r="E198" s="8" t="s">
         <v>838</v>
@@ -12239,7 +12306,7 @@
         <v>805</v>
       </c>
       <c r="D199" s="8" t="s">
-        <v>1133</v>
+        <v>1122</v>
       </c>
       <c r="E199" s="8" t="s">
         <v>842</v>
@@ -12271,7 +12338,7 @@
         <v>805</v>
       </c>
       <c r="D200" s="8" t="s">
-        <v>1142</v>
+        <v>1130</v>
       </c>
       <c r="E200" s="8" t="s">
         <v>846</v>
@@ -12303,7 +12370,7 @@
         <v>805</v>
       </c>
       <c r="D201" s="8" t="s">
-        <v>1143</v>
+        <v>1131</v>
       </c>
       <c r="E201" s="8" t="s">
         <v>850</v>
@@ -12335,7 +12402,7 @@
         <v>805</v>
       </c>
       <c r="D202" s="8" t="s">
-        <v>1134</v>
+        <v>1123</v>
       </c>
       <c r="E202" s="8" t="s">
         <v>855</v>
@@ -12367,7 +12434,7 @@
         <v>805</v>
       </c>
       <c r="D203" s="8" t="s">
-        <v>1131</v>
+        <v>1120</v>
       </c>
       <c r="E203" s="8" t="s">
         <v>862</v>
@@ -12492,7 +12559,7 @@
         <v>874</v>
       </c>
       <c r="D207" s="8" t="s">
-        <v>1135</v>
+        <v>1124</v>
       </c>
       <c r="E207" s="8" t="s">
         <v>879</v>
@@ -12524,7 +12591,7 @@
         <v>875</v>
       </c>
       <c r="D208" s="8" t="s">
-        <v>1136</v>
+        <v>1125</v>
       </c>
       <c r="E208" s="8" t="s">
         <v>876</v>
@@ -12556,7 +12623,7 @@
         <v>885</v>
       </c>
       <c r="D209" s="8" t="s">
-        <v>1137</v>
+        <v>1126</v>
       </c>
       <c r="E209" s="8" t="s">
         <v>886</v>

--- a/Advantage Test Cases.xlsx
+++ b/Advantage Test Cases.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3961" uniqueCount="1227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3975" uniqueCount="1231">
   <si>
     <t>Test Objective</t>
   </si>
@@ -5077,21 +5077,6 @@
     <t>fn_ViewAverageScoreofSelectedSubject</t>
   </si>
   <si>
-    <t>f-_FunctionalityToAssignofAGroup</t>
-  </si>
-  <si>
-    <t>f-_FunctionalityToAssignTestToAFutureDateofToindividuals</t>
-  </si>
-  <si>
-    <t>f-_FunctionalityToAssignTestToAFutureDateAndofAGroup</t>
-  </si>
-  <si>
-    <t>f-_StartTimeCannotBeLessThanCurrentTimeToAssignTestToAofAndtime</t>
-  </si>
-  <si>
-    <t>fd_VisibilityofOndashboard</t>
-  </si>
-  <si>
     <t>fv_ValidationsofMandatoryfields</t>
   </si>
   <si>
@@ -5461,12 +5446,42 @@
   <si>
     <t>fn_DeleteRecommendedTests</t>
   </si>
+  <si>
+    <t>fn_AssignTesttoIndividuals</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. No students found if select individuals option
+    2. 'Test assigned successfully.' popup need to be impoved 
+</t>
+  </si>
+  <si>
+    <t>fn_AssignTesttoGroup</t>
+  </si>
+  <si>
+    <t>fn_AssignTestLaterToindividuals</t>
+  </si>
+  <si>
+    <t>fn_AssignTestLaterToGroup</t>
+  </si>
+  <si>
+    <t>fn_ValidationforTimeToAssignTest</t>
+  </si>
+  <si>
+    <t>fn_VisibilityofCalendarText</t>
+  </si>
+  <si>
+    <t>Manually</t>
+  </si>
+  <si>
+    <t>No students present: Fail</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5935,27 +5950,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA210"/>
+  <dimension ref="A1:AA209"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C168" workbookViewId="0">
-      <selection activeCell="D168" sqref="D168"/>
+    <sheetView tabSelected="1" topLeftCell="F167" workbookViewId="0">
+      <selection activeCell="K167" sqref="K167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.140625" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="18.42578125" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="16.5703125" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="16.5703125" style="8" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="31.85546875" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="33.5703125" style="6" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="42.7109375" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="25.28515625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="41.140625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="26" style="6" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="11.42578125" style="6" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="52.7109375" style="8" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="14.28515625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="6" width="12.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="6" width="18.42578125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="6" width="16.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="8" width="16.5703125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="6" width="31.85546875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="6" width="33.5703125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="42.7109375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="25.28515625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="41.140625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="6" width="26.0" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="6" width="11.42578125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="8" width="52.7109375" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="14.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -8584,7 +8599,7 @@
         <v>347</v>
       </c>
       <c r="D84" s="8" t="s">
-        <v>1127</v>
+        <v>1122</v>
       </c>
       <c r="E84" s="8" t="s">
         <v>355</v>
@@ -8616,7 +8631,7 @@
         <v>347</v>
       </c>
       <c r="D85" s="8" t="s">
-        <v>1132</v>
+        <v>1127</v>
       </c>
       <c r="E85" s="8" t="s">
         <v>360</v>
@@ -8648,7 +8663,7 @@
         <v>347</v>
       </c>
       <c r="D86" s="8" t="s">
-        <v>1133</v>
+        <v>1128</v>
       </c>
       <c r="E86" s="8" t="s">
         <v>364</v>
@@ -8680,7 +8695,7 @@
         <v>368</v>
       </c>
       <c r="D87" s="8" t="s">
-        <v>1134</v>
+        <v>1129</v>
       </c>
       <c r="E87" s="8" t="s">
         <v>370</v>
@@ -8712,7 +8727,7 @@
         <v>368</v>
       </c>
       <c r="D88" s="8" t="s">
-        <v>1135</v>
+        <v>1130</v>
       </c>
       <c r="E88" s="8" t="s">
         <v>374</v>
@@ -8742,7 +8757,7 @@
         <v>377</v>
       </c>
       <c r="D89" s="8" t="s">
-        <v>1136</v>
+        <v>1131</v>
       </c>
       <c r="E89" s="8" t="s">
         <v>382</v>
@@ -8771,7 +8786,7 @@
         <v>381</v>
       </c>
       <c r="D90" s="8" t="s">
-        <v>1137</v>
+        <v>1132</v>
       </c>
       <c r="E90" s="8" t="s">
         <v>384</v>
@@ -8803,7 +8818,7 @@
         <v>381</v>
       </c>
       <c r="D91" s="8" t="s">
-        <v>1138</v>
+        <v>1133</v>
       </c>
       <c r="E91" s="8" t="s">
         <v>386</v>
@@ -8835,7 +8850,7 @@
         <v>381</v>
       </c>
       <c r="D92" s="8" t="s">
-        <v>1139</v>
+        <v>1134</v>
       </c>
       <c r="E92" s="8" t="s">
         <v>390</v>
@@ -8867,7 +8882,7 @@
         <v>381</v>
       </c>
       <c r="D93" s="8" t="s">
-        <v>1140</v>
+        <v>1135</v>
       </c>
       <c r="E93" s="8" t="s">
         <v>394</v>
@@ -8899,7 +8914,7 @@
         <v>381</v>
       </c>
       <c r="D94" s="8" t="s">
-        <v>1141</v>
+        <v>1136</v>
       </c>
       <c r="E94" s="8" t="s">
         <v>398</v>
@@ -8931,7 +8946,7 @@
         <v>381</v>
       </c>
       <c r="D95" s="8" t="s">
-        <v>1142</v>
+        <v>1137</v>
       </c>
       <c r="E95" s="8" t="s">
         <v>403</v>
@@ -8963,7 +8978,7 @@
         <v>381</v>
       </c>
       <c r="D96" s="8" t="s">
-        <v>1143</v>
+        <v>1138</v>
       </c>
       <c r="E96" s="8" t="s">
         <v>407</v>
@@ -8995,7 +9010,7 @@
         <v>414</v>
       </c>
       <c r="D97" s="8" t="s">
-        <v>1144</v>
+        <v>1139</v>
       </c>
       <c r="E97" s="8" t="s">
         <v>412</v>
@@ -9027,7 +9042,7 @@
         <v>414</v>
       </c>
       <c r="D98" s="8" t="s">
-        <v>1145</v>
+        <v>1140</v>
       </c>
       <c r="E98" s="8" t="s">
         <v>416</v>
@@ -9059,7 +9074,7 @@
         <v>425</v>
       </c>
       <c r="D99" s="8" t="s">
-        <v>1146</v>
+        <v>1141</v>
       </c>
       <c r="E99" s="8" t="s">
         <v>424</v>
@@ -9091,7 +9106,7 @@
         <v>422</v>
       </c>
       <c r="D100" s="8" t="s">
-        <v>1147</v>
+        <v>1142</v>
       </c>
       <c r="E100" s="8" t="s">
         <v>427</v>
@@ -9123,7 +9138,7 @@
         <v>422</v>
       </c>
       <c r="D101" s="8" t="s">
-        <v>1148</v>
+        <v>1143</v>
       </c>
       <c r="E101" s="8" t="s">
         <v>429</v>
@@ -9144,7 +9159,7 @@
         <v>1012</v>
       </c>
       <c r="L101" s="8" t="s">
-        <v>1149</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="102" spans="1:12" ht="195" x14ac:dyDescent="0.25">
@@ -9158,7 +9173,7 @@
         <v>422</v>
       </c>
       <c r="D102" s="8" t="s">
-        <v>1150</v>
+        <v>1145</v>
       </c>
       <c r="E102" s="8" t="s">
         <v>436</v>
@@ -9190,7 +9205,7 @@
         <v>422</v>
       </c>
       <c r="D103" s="8" t="s">
-        <v>1151</v>
+        <v>1146</v>
       </c>
       <c r="E103" s="8" t="s">
         <v>438</v>
@@ -9219,7 +9234,7 @@
         <v>442</v>
       </c>
       <c r="D104" s="8" t="s">
-        <v>1152</v>
+        <v>1147</v>
       </c>
       <c r="E104" s="6" t="s">
         <v>443</v>
@@ -9251,7 +9266,7 @@
         <v>442</v>
       </c>
       <c r="D105" s="8" t="s">
-        <v>1153</v>
+        <v>1148</v>
       </c>
       <c r="E105" s="8" t="s">
         <v>446</v>
@@ -9283,7 +9298,7 @@
         <v>442</v>
       </c>
       <c r="D106" s="8" t="s">
-        <v>1154</v>
+        <v>1149</v>
       </c>
       <c r="E106" s="8" t="s">
         <v>451</v>
@@ -9315,7 +9330,7 @@
         <v>442</v>
       </c>
       <c r="D107" s="8" t="s">
-        <v>1155</v>
+        <v>1150</v>
       </c>
       <c r="E107" s="8" t="s">
         <v>455</v>
@@ -9344,7 +9359,7 @@
         <v>458</v>
       </c>
       <c r="D108" s="8" t="s">
-        <v>1156</v>
+        <v>1151</v>
       </c>
       <c r="E108" s="6" t="s">
         <v>460</v>
@@ -9373,7 +9388,7 @@
         <v>458</v>
       </c>
       <c r="D109" s="8" t="s">
-        <v>1157</v>
+        <v>1152</v>
       </c>
       <c r="E109" s="8" t="s">
         <v>620</v>
@@ -9402,7 +9417,7 @@
         <v>458</v>
       </c>
       <c r="D110" s="8" t="s">
-        <v>1158</v>
+        <v>1153</v>
       </c>
       <c r="E110" s="8" t="s">
         <v>621</v>
@@ -9431,7 +9446,7 @@
         <v>464</v>
       </c>
       <c r="D111" s="8" t="s">
-        <v>1159</v>
+        <v>1154</v>
       </c>
       <c r="E111" s="8" t="s">
         <v>465</v>
@@ -9457,10 +9472,10 @@
         <v>411</v>
       </c>
       <c r="C112" s="8" t="s">
-        <v>1162</v>
+        <v>1157</v>
       </c>
       <c r="D112" s="8" t="s">
-        <v>1161</v>
+        <v>1156</v>
       </c>
       <c r="E112" s="8"/>
       <c r="G112" s="2"/>
@@ -9480,7 +9495,7 @@
         <v>468</v>
       </c>
       <c r="D113" s="8" t="s">
-        <v>1160</v>
+        <v>1155</v>
       </c>
       <c r="E113" s="8" t="s">
         <v>471</v>
@@ -9509,7 +9524,7 @@
         <v>472</v>
       </c>
       <c r="D114" s="8" t="s">
-        <v>1163</v>
+        <v>1158</v>
       </c>
       <c r="E114" s="8" t="s">
         <v>474</v>
@@ -9538,7 +9553,7 @@
         <v>481</v>
       </c>
       <c r="D115" s="8" t="s">
-        <v>1164</v>
+        <v>1159</v>
       </c>
       <c r="E115" s="8" t="s">
         <v>424</v>
@@ -9570,7 +9585,7 @@
         <v>477</v>
       </c>
       <c r="D116" s="8" t="s">
-        <v>1165</v>
+        <v>1160</v>
       </c>
       <c r="E116" s="8" t="s">
         <v>478</v>
@@ -9602,7 +9617,7 @@
         <v>486</v>
       </c>
       <c r="D117" s="8" t="s">
-        <v>1166</v>
+        <v>1161</v>
       </c>
       <c r="E117" s="8" t="s">
         <v>487</v>
@@ -9634,7 +9649,7 @@
         <v>490</v>
       </c>
       <c r="D118" s="8" t="s">
-        <v>1167</v>
+        <v>1162</v>
       </c>
       <c r="E118" s="8" t="s">
         <v>491</v>
@@ -9666,7 +9681,7 @@
         <v>490</v>
       </c>
       <c r="D119" s="8" t="s">
-        <v>1168</v>
+        <v>1163</v>
       </c>
       <c r="E119" s="8" t="s">
         <v>495</v>
@@ -9698,7 +9713,7 @@
         <v>498</v>
       </c>
       <c r="D120" s="8" t="s">
-        <v>1169</v>
+        <v>1164</v>
       </c>
       <c r="E120" s="8" t="s">
         <v>500</v>
@@ -9733,7 +9748,7 @@
         <v>498</v>
       </c>
       <c r="D121" s="8" t="s">
-        <v>1170</v>
+        <v>1165</v>
       </c>
       <c r="E121" s="8" t="s">
         <v>505</v>
@@ -9765,7 +9780,7 @@
         <v>498</v>
       </c>
       <c r="D122" s="8" t="s">
-        <v>1171</v>
+        <v>1166</v>
       </c>
       <c r="E122" s="8" t="s">
         <v>508</v>
@@ -9801,7 +9816,7 @@
         <v>498</v>
       </c>
       <c r="D123" s="8" t="s">
-        <v>1172</v>
+        <v>1167</v>
       </c>
       <c r="E123" s="8" t="s">
         <v>513</v>
@@ -9834,7 +9849,7 @@
         <v>498</v>
       </c>
       <c r="D124" s="8" t="s">
-        <v>1173</v>
+        <v>1168</v>
       </c>
       <c r="E124" s="8" t="s">
         <v>521</v>
@@ -9853,7 +9868,7 @@
         <v>1012</v>
       </c>
       <c r="L124" s="20" t="s">
-        <v>1174</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="125" spans="1:12" ht="315" x14ac:dyDescent="0.25">
@@ -9864,22 +9879,22 @@
         <v>411</v>
       </c>
       <c r="C125" s="8" t="s">
-        <v>1176</v>
+        <v>1171</v>
       </c>
       <c r="D125" s="8" t="s">
-        <v>1177</v>
+        <v>1172</v>
       </c>
       <c r="E125" s="8" t="s">
+        <v>1173</v>
+      </c>
+      <c r="F125" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G125" s="2" t="s">
         <v>1178</v>
       </c>
-      <c r="F125" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="G125" s="2" t="s">
-        <v>1183</v>
-      </c>
       <c r="H125" s="2" t="s">
-        <v>1179</v>
+        <v>1174</v>
       </c>
       <c r="I125" s="2" t="s">
         <v>502</v>
@@ -9902,7 +9917,7 @@
         <v>498</v>
       </c>
       <c r="D126" s="8" t="s">
-        <v>1180</v>
+        <v>1175</v>
       </c>
       <c r="E126" s="8" t="s">
         <v>505</v>
@@ -9934,7 +9949,7 @@
         <v>498</v>
       </c>
       <c r="D127" s="8" t="s">
-        <v>1181</v>
+        <v>1176</v>
       </c>
       <c r="E127" s="8" t="s">
         <v>508</v>
@@ -9943,7 +9958,7 @@
         <v>38</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>1182</v>
+        <v>1177</v>
       </c>
       <c r="H127" s="2"/>
       <c r="I127" s="2" t="s">
@@ -9970,7 +9985,7 @@
         <v>498</v>
       </c>
       <c r="D128" s="8" t="s">
-        <v>1184</v>
+        <v>1179</v>
       </c>
       <c r="E128" s="8" t="s">
         <v>513</v>
@@ -10003,7 +10018,7 @@
         <v>498</v>
       </c>
       <c r="D129" s="8" t="s">
-        <v>1186</v>
+        <v>1181</v>
       </c>
       <c r="E129" s="8" t="s">
         <v>521</v>
@@ -10022,7 +10037,7 @@
         <v>911</v>
       </c>
       <c r="L129" s="20" t="s">
-        <v>1174</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="130" spans="1:12" ht="375" x14ac:dyDescent="0.25">
@@ -10036,7 +10051,7 @@
         <v>540</v>
       </c>
       <c r="D130" s="8" t="s">
-        <v>1175</v>
+        <v>1170</v>
       </c>
       <c r="E130" s="8" t="s">
         <v>543</v>
@@ -10068,7 +10083,7 @@
         <v>540</v>
       </c>
       <c r="D131" s="8" t="s">
-        <v>1187</v>
+        <v>1182</v>
       </c>
       <c r="E131" s="8" t="s">
         <v>548</v>
@@ -10101,7 +10116,7 @@
         <v>552</v>
       </c>
       <c r="D132" s="8" t="s">
-        <v>1188</v>
+        <v>1183</v>
       </c>
       <c r="E132" s="8" t="s">
         <v>553</v>
@@ -10122,7 +10137,7 @@
         <v>1012</v>
       </c>
       <c r="L132" s="20" t="s">
-        <v>1185</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="133" spans="1:12" ht="165" x14ac:dyDescent="0.25">
@@ -10136,7 +10151,7 @@
         <v>552</v>
       </c>
       <c r="D133" s="8" t="s">
-        <v>1189</v>
+        <v>1184</v>
       </c>
       <c r="E133" s="8" t="s">
         <v>557</v>
@@ -10168,7 +10183,7 @@
         <v>561</v>
       </c>
       <c r="D134" s="8" t="s">
-        <v>1190</v>
+        <v>1185</v>
       </c>
       <c r="E134" s="8" t="s">
         <v>562</v>
@@ -10200,7 +10215,7 @@
         <v>561</v>
       </c>
       <c r="D135" s="8" t="s">
-        <v>1191</v>
+        <v>1186</v>
       </c>
       <c r="E135" s="8" t="s">
         <v>565</v>
@@ -10232,7 +10247,7 @@
         <v>561</v>
       </c>
       <c r="D136" s="8" t="s">
-        <v>1192</v>
+        <v>1187</v>
       </c>
       <c r="E136" s="8" t="s">
         <v>568</v>
@@ -10264,7 +10279,7 @@
         <v>561</v>
       </c>
       <c r="D137" s="8" t="s">
-        <v>1193</v>
+        <v>1188</v>
       </c>
       <c r="E137" s="8" t="s">
         <v>572</v>
@@ -10296,7 +10311,7 @@
         <v>561</v>
       </c>
       <c r="D138" s="8" t="s">
-        <v>1194</v>
+        <v>1189</v>
       </c>
       <c r="E138" s="8" t="s">
         <v>576</v>
@@ -10328,7 +10343,7 @@
         <v>581</v>
       </c>
       <c r="D139" s="8" t="s">
-        <v>1195</v>
+        <v>1190</v>
       </c>
       <c r="E139" s="6" t="s">
         <v>582</v>
@@ -10360,7 +10375,7 @@
         <v>581</v>
       </c>
       <c r="D140" s="8" t="s">
-        <v>1196</v>
+        <v>1191</v>
       </c>
       <c r="E140" s="8" t="s">
         <v>625</v>
@@ -10392,7 +10407,7 @@
         <v>581</v>
       </c>
       <c r="D141" s="8" t="s">
-        <v>1197</v>
+        <v>1192</v>
       </c>
       <c r="E141" s="8" t="s">
         <v>628</v>
@@ -10424,7 +10439,7 @@
         <v>581</v>
       </c>
       <c r="D142" s="8" t="s">
-        <v>1198</v>
+        <v>1193</v>
       </c>
       <c r="E142" s="8" t="s">
         <v>586</v>
@@ -10456,7 +10471,7 @@
         <v>594</v>
       </c>
       <c r="D143" s="8" t="s">
-        <v>1199</v>
+        <v>1194</v>
       </c>
       <c r="E143" s="8" t="s">
         <v>593</v>
@@ -10477,7 +10492,7 @@
         <v>1012</v>
       </c>
       <c r="L143" s="20" t="s">
-        <v>1209</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="144" spans="1:12" ht="180" x14ac:dyDescent="0.25">
@@ -10491,7 +10506,7 @@
         <v>595</v>
       </c>
       <c r="D144" s="8" t="s">
-        <v>1200</v>
+        <v>1195</v>
       </c>
       <c r="E144" s="8" t="s">
         <v>596</v>
@@ -10523,7 +10538,7 @@
         <v>595</v>
       </c>
       <c r="D145" s="8" t="s">
-        <v>1201</v>
+        <v>1196</v>
       </c>
       <c r="E145" s="8" t="s">
         <v>600</v>
@@ -10555,7 +10570,7 @@
         <v>595</v>
       </c>
       <c r="D146" s="8" t="s">
-        <v>1202</v>
+        <v>1197</v>
       </c>
       <c r="E146" s="8" t="s">
         <v>604</v>
@@ -10590,7 +10605,7 @@
         <v>595</v>
       </c>
       <c r="D147" s="8" t="s">
-        <v>1203</v>
+        <v>1198</v>
       </c>
       <c r="E147" s="8" t="s">
         <v>609</v>
@@ -10622,7 +10637,7 @@
         <v>595</v>
       </c>
       <c r="D148" s="8" t="s">
-        <v>1204</v>
+        <v>1199</v>
       </c>
       <c r="E148" s="8" t="s">
         <v>612</v>
@@ -10654,7 +10669,7 @@
         <v>617</v>
       </c>
       <c r="D149" s="8" t="s">
-        <v>1205</v>
+        <v>1200</v>
       </c>
       <c r="E149" s="6" t="s">
         <v>635</v>
@@ -10686,7 +10701,7 @@
         <v>617</v>
       </c>
       <c r="D150" s="8" t="s">
-        <v>1206</v>
+        <v>1201</v>
       </c>
       <c r="E150" s="8" t="s">
         <v>638</v>
@@ -10718,7 +10733,7 @@
         <v>617</v>
       </c>
       <c r="D151" s="8" t="s">
-        <v>1207</v>
+        <v>1202</v>
       </c>
       <c r="E151" s="6" t="s">
         <v>641</v>
@@ -10750,7 +10765,7 @@
         <v>617</v>
       </c>
       <c r="D152" s="8" t="s">
-        <v>1208</v>
+        <v>1203</v>
       </c>
       <c r="E152" s="8" t="s">
         <v>645</v>
@@ -10767,8 +10782,8 @@
       <c r="J152" s="6" t="s">
         <v>972</v>
       </c>
-      <c r="K152" s="8" t="s">
-        <v>911</v>
+      <c r="K152" t="s">
+        <v>1012</v>
       </c>
     </row>
     <row r="153" spans="1:12" ht="135" x14ac:dyDescent="0.25">
@@ -10782,7 +10797,7 @@
         <v>617</v>
       </c>
       <c r="D153" s="8" t="s">
-        <v>1210</v>
+        <v>1205</v>
       </c>
       <c r="E153" s="8" t="s">
         <v>649</v>
@@ -10814,7 +10829,7 @@
         <v>617</v>
       </c>
       <c r="D154" s="8" t="s">
-        <v>1211</v>
+        <v>1206</v>
       </c>
       <c r="E154" s="8" t="s">
         <v>653</v>
@@ -10846,7 +10861,7 @@
         <v>617</v>
       </c>
       <c r="D155" s="8" t="s">
-        <v>1212</v>
+        <v>1207</v>
       </c>
       <c r="E155" s="8" t="s">
         <v>657</v>
@@ -10878,7 +10893,7 @@
         <v>617</v>
       </c>
       <c r="D156" s="8" t="s">
-        <v>1213</v>
+        <v>1208</v>
       </c>
       <c r="E156" s="8" t="s">
         <v>661</v>
@@ -10910,7 +10925,7 @@
         <v>665</v>
       </c>
       <c r="D157" s="8" t="s">
-        <v>1214</v>
+        <v>1209</v>
       </c>
       <c r="E157" s="8" t="s">
         <v>666</v>
@@ -10931,7 +10946,7 @@
         <v>909</v>
       </c>
       <c r="L157" s="20" t="s">
-        <v>1215</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="158" spans="1:12" ht="195" x14ac:dyDescent="0.25">
@@ -10945,7 +10960,7 @@
         <v>665</v>
       </c>
       <c r="D158" s="8" t="s">
-        <v>1216</v>
+        <v>1211</v>
       </c>
       <c r="E158" s="8" t="s">
         <v>694</v>
@@ -10963,8 +10978,8 @@
       <c r="J158" s="6" t="s">
         <v>972</v>
       </c>
-      <c r="K158" s="8" t="s">
-        <v>911</v>
+      <c r="K158" t="s">
+        <v>1012</v>
       </c>
     </row>
     <row r="159" spans="1:12" ht="240" x14ac:dyDescent="0.25">
@@ -10978,7 +10993,7 @@
         <v>665</v>
       </c>
       <c r="D159" s="8" t="s">
-        <v>1217</v>
+        <v>1212</v>
       </c>
       <c r="E159" s="8" t="s">
         <v>671</v>
@@ -10995,8 +11010,8 @@
       <c r="J159" s="6" t="s">
         <v>972</v>
       </c>
-      <c r="K159" s="8" t="s">
-        <v>911</v>
+      <c r="K159" t="s">
+        <v>1012</v>
       </c>
       <c r="L159" s="8" t="s">
         <v>955</v>
@@ -11013,7 +11028,7 @@
         <v>665</v>
       </c>
       <c r="D160" s="8" t="s">
-        <v>1218</v>
+        <v>1213</v>
       </c>
       <c r="E160" s="8" t="s">
         <v>675</v>
@@ -11030,8 +11045,8 @@
       <c r="J160" s="6" t="s">
         <v>972</v>
       </c>
-      <c r="K160" s="8" t="s">
-        <v>911</v>
+      <c r="K160" t="s">
+        <v>1012</v>
       </c>
     </row>
     <row r="161" spans="1:27" ht="165" x14ac:dyDescent="0.25">
@@ -11045,7 +11060,7 @@
         <v>665</v>
       </c>
       <c r="D161" s="8" t="s">
-        <v>1219</v>
+        <v>1214</v>
       </c>
       <c r="E161" s="8" t="s">
         <v>679</v>
@@ -11062,8 +11077,8 @@
       <c r="J161" s="6" t="s">
         <v>972</v>
       </c>
-      <c r="K161" s="8" t="s">
-        <v>911</v>
+      <c r="K161" t="s">
+        <v>1012</v>
       </c>
     </row>
     <row r="162" spans="1:27" ht="315" x14ac:dyDescent="0.25">
@@ -11077,7 +11092,7 @@
         <v>665</v>
       </c>
       <c r="D162" s="8" t="s">
-        <v>1220</v>
+        <v>1215</v>
       </c>
       <c r="E162" s="8" t="s">
         <v>683</v>
@@ -11109,7 +11124,7 @@
         <v>665</v>
       </c>
       <c r="D163" s="8" t="s">
-        <v>1221</v>
+        <v>1216</v>
       </c>
       <c r="E163" s="8" t="s">
         <v>687</v>
@@ -11141,7 +11156,7 @@
         <v>665</v>
       </c>
       <c r="D164" s="8" t="s">
-        <v>1222</v>
+        <v>1217</v>
       </c>
       <c r="E164" s="8" t="s">
         <v>691</v>
@@ -11173,7 +11188,7 @@
         <v>699</v>
       </c>
       <c r="D165" s="8" t="s">
-        <v>1223</v>
+        <v>1218</v>
       </c>
       <c r="E165" s="8" t="s">
         <v>700</v>
@@ -11186,6 +11201,9 @@
       </c>
       <c r="I165" s="2" t="s">
         <v>702</v>
+      </c>
+      <c r="K165" t="s">
+        <v>1012</v>
       </c>
       <c r="L165" s="20" t="s">
         <v>956</v>
@@ -11202,7 +11220,7 @@
         <v>699</v>
       </c>
       <c r="D166" s="8" t="s">
-        <v>1224</v>
+        <v>1219</v>
       </c>
       <c r="E166" s="8" t="s">
         <v>704</v>
@@ -11219,8 +11237,8 @@
       <c r="J166" s="6" t="s">
         <v>964</v>
       </c>
-      <c r="K166" s="6" t="s">
-        <v>911</v>
+      <c r="K166" t="s">
+        <v>1012</v>
       </c>
     </row>
     <row r="167" spans="1:27" ht="180" x14ac:dyDescent="0.25">
@@ -11234,7 +11252,7 @@
         <v>699</v>
       </c>
       <c r="D167" s="8" t="s">
-        <v>1225</v>
+        <v>1220</v>
       </c>
       <c r="E167" s="8" t="s">
         <v>707</v>
@@ -11251,8 +11269,8 @@
       <c r="J167" s="6" t="s">
         <v>964</v>
       </c>
-      <c r="K167" s="6" t="s">
-        <v>911</v>
+      <c r="K167" t="s">
+        <v>1012</v>
       </c>
     </row>
     <row r="168" spans="1:27" ht="225" x14ac:dyDescent="0.25">
@@ -11266,7 +11284,7 @@
         <v>699</v>
       </c>
       <c r="D168" s="8" t="s">
-        <v>1226</v>
+        <v>1221</v>
       </c>
       <c r="E168" s="8" t="s">
         <v>710</v>
@@ -11283,8 +11301,8 @@
       <c r="J168" s="6" t="s">
         <v>964</v>
       </c>
-      <c r="K168" s="6" t="s">
-        <v>911</v>
+      <c r="K168" t="s">
+        <v>1012</v>
       </c>
     </row>
     <row r="169" spans="1:27" ht="225" x14ac:dyDescent="0.25">
@@ -11297,6 +11315,9 @@
       <c r="C169" s="6" t="s">
         <v>713</v>
       </c>
+      <c r="D169" s="8" t="s">
+        <v>1222</v>
+      </c>
       <c r="E169" s="8" t="s">
         <v>714</v>
       </c>
@@ -11312,8 +11333,11 @@
       <c r="J169" s="6" t="s">
         <v>964</v>
       </c>
+      <c r="K169" t="s">
+        <v>1230</v>
+      </c>
       <c r="L169" s="20" t="s">
-        <v>971</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="170" spans="1:27" ht="225" x14ac:dyDescent="0.25">
@@ -11327,7 +11351,7 @@
         <v>713</v>
       </c>
       <c r="D170" s="8" t="s">
-        <v>1107</v>
+        <v>1224</v>
       </c>
       <c r="E170" s="8" t="s">
         <v>718</v>
@@ -11359,7 +11383,7 @@
         <v>713</v>
       </c>
       <c r="D171" s="8" t="s">
-        <v>1108</v>
+        <v>1225</v>
       </c>
       <c r="E171" s="8" t="s">
         <v>722</v>
@@ -11391,7 +11415,7 @@
         <v>713</v>
       </c>
       <c r="D172" s="8" t="s">
-        <v>1109</v>
+        <v>1226</v>
       </c>
       <c r="E172" s="8" t="s">
         <v>726</v>
@@ -11423,7 +11447,7 @@
         <v>713</v>
       </c>
       <c r="D173" s="8" t="s">
-        <v>1110</v>
+        <v>1227</v>
       </c>
       <c r="E173" s="10" t="s">
         <v>731</v>
@@ -11472,7 +11496,7 @@
         <v>735</v>
       </c>
       <c r="D174" s="8" t="s">
-        <v>1111</v>
+        <v>1228</v>
       </c>
       <c r="E174" s="14" t="s">
         <v>748</v>
@@ -11510,103 +11534,112 @@
       <c r="Z174" s="16"/>
       <c r="AA174" s="16"/>
     </row>
-    <row r="175" spans="1:27" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:27" ht="165.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A175" s="6" t="s">
         <v>751</v>
       </c>
       <c r="B175" s="10" t="s">
         <v>735</v>
       </c>
-      <c r="C175" s="8" t="s">
-        <v>736</v>
+      <c r="C175" s="6" t="s">
+        <v>753</v>
+      </c>
+      <c r="D175" s="8" t="s">
+        <v>1001</v>
       </c>
       <c r="E175" s="8" t="s">
-        <v>737</v>
+        <v>754</v>
       </c>
       <c r="F175" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G175" s="13" t="s">
-        <v>738</v>
+        <v>755</v>
+      </c>
+      <c r="H175" s="2" t="s">
+        <v>756</v>
       </c>
       <c r="I175" s="13" t="s">
-        <v>739</v>
-      </c>
-      <c r="K175" s="19" t="s">
-        <v>909</v>
-      </c>
-      <c r="L175" s="20" t="s">
-        <v>970</v>
-      </c>
-    </row>
-    <row r="176" spans="1:27" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>757</v>
+      </c>
+      <c r="J175" s="25" t="s">
+        <v>964</v>
+      </c>
+      <c r="K175" s="25" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="176" spans="1:27" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A176" s="6" t="s">
         <v>752</v>
       </c>
       <c r="B176" s="10" t="s">
         <v>735</v>
       </c>
-      <c r="C176" s="8" t="s">
-        <v>736</v>
+      <c r="C176" s="6" t="s">
+        <v>753</v>
       </c>
       <c r="D176" s="8" t="s">
-        <v>1128</v>
+        <v>1002</v>
       </c>
       <c r="E176" s="8" t="s">
-        <v>741</v>
+        <v>759</v>
       </c>
       <c r="F176" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G176" s="13" t="s">
-        <v>742</v>
+        <v>761</v>
+      </c>
+      <c r="H176" s="2" t="s">
+        <v>760</v>
       </c>
       <c r="I176" s="13" t="s">
-        <v>743</v>
-      </c>
-      <c r="J176" s="6" t="s">
+        <v>762</v>
+      </c>
+      <c r="J176" s="25" t="s">
         <v>964</v>
       </c>
-      <c r="K176" s="6" t="s">
-        <v>911</v>
-      </c>
-      <c r="L176" s="8" t="s">
-        <v>969</v>
-      </c>
-    </row>
-    <row r="177" spans="1:12" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K176" s="25" t="s">
+        <v>911</v>
+      </c>
+      <c r="L176" s="25" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="177" spans="1:12" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A177" s="6" t="s">
         <v>758</v>
       </c>
       <c r="B177" s="10" t="s">
         <v>735</v>
       </c>
-      <c r="C177" s="8" t="s">
-        <v>736</v>
+      <c r="C177" s="6" t="s">
+        <v>753</v>
       </c>
       <c r="D177" s="8" t="s">
-        <v>1099</v>
+        <v>1107</v>
       </c>
       <c r="E177" s="8" t="s">
-        <v>745</v>
+        <v>764</v>
       </c>
       <c r="F177" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G177" s="13" t="s">
-        <v>746</v>
-      </c>
-      <c r="I177" s="13" t="s">
-        <v>747</v>
-      </c>
-      <c r="K177" s="19" t="s">
-        <v>909</v>
-      </c>
-      <c r="L177" s="20" t="s">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="178" spans="1:12" ht="165.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>765</v>
+      </c>
+      <c r="I177" s="2" t="s">
+        <v>766</v>
+      </c>
+      <c r="J177" s="6" t="s">
+        <v>964</v>
+      </c>
+      <c r="K177" s="6" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="178" spans="1:12" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A178" s="6" t="s">
         <v>763</v>
       </c>
@@ -11617,31 +11650,28 @@
         <v>753</v>
       </c>
       <c r="D178" s="8" t="s">
-        <v>1001</v>
+        <v>1103</v>
       </c>
       <c r="E178" s="8" t="s">
-        <v>754</v>
+        <v>768</v>
       </c>
       <c r="F178" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G178" s="13" t="s">
-        <v>755</v>
-      </c>
-      <c r="H178" s="2" t="s">
-        <v>756</v>
-      </c>
-      <c r="I178" s="13" t="s">
-        <v>757</v>
-      </c>
-      <c r="J178" s="25" t="s">
+        <v>765</v>
+      </c>
+      <c r="I178" s="2" t="s">
+        <v>766</v>
+      </c>
+      <c r="J178" s="6" t="s">
         <v>964</v>
       </c>
-      <c r="K178" s="25" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="179" spans="1:12" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K178" s="6" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="179" spans="1:12" ht="165.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A179" s="6" t="s">
         <v>767</v>
       </c>
@@ -11652,22 +11682,20 @@
         <v>753</v>
       </c>
       <c r="D179" s="8" t="s">
-        <v>1002</v>
+        <v>1103</v>
       </c>
       <c r="E179" s="8" t="s">
-        <v>759</v>
+        <v>768</v>
       </c>
       <c r="F179" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G179" s="13" t="s">
-        <v>761</v>
-      </c>
-      <c r="H179" s="2" t="s">
-        <v>760</v>
-      </c>
+        <v>770</v>
+      </c>
+      <c r="H179" s="2"/>
       <c r="I179" s="13" t="s">
-        <v>762</v>
+        <v>771</v>
       </c>
       <c r="J179" s="25" t="s">
         <v>964</v>
@@ -11675,11 +11703,8 @@
       <c r="K179" s="25" t="s">
         <v>911</v>
       </c>
-      <c r="L179" s="25" t="s">
-        <v>968</v>
-      </c>
-    </row>
-    <row r="180" spans="1:12" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="180" spans="1:12" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A180" s="6" t="s">
         <v>769</v>
       </c>
@@ -11690,28 +11715,29 @@
         <v>753</v>
       </c>
       <c r="D180" s="8" t="s">
-        <v>1112</v>
+        <v>1103</v>
       </c>
       <c r="E180" s="8" t="s">
-        <v>764</v>
+        <v>768</v>
       </c>
       <c r="F180" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G180" s="13" t="s">
-        <v>765</v>
-      </c>
-      <c r="I180" s="2" t="s">
-        <v>766</v>
-      </c>
-      <c r="J180" s="6" t="s">
+        <v>773</v>
+      </c>
+      <c r="H180" s="2"/>
+      <c r="I180" s="13" t="s">
+        <v>774</v>
+      </c>
+      <c r="J180" s="25" t="s">
         <v>964</v>
       </c>
-      <c r="K180" s="6" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="181" spans="1:12" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K180" s="25" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="181" spans="1:12" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A181" s="6" t="s">
         <v>772</v>
       </c>
@@ -11722,126 +11748,124 @@
         <v>753</v>
       </c>
       <c r="D181" s="8" t="s">
-        <v>1103</v>
+        <v>1108</v>
       </c>
       <c r="E181" s="8" t="s">
-        <v>768</v>
+        <v>776</v>
       </c>
       <c r="F181" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="G181" s="13" t="s">
-        <v>765</v>
+      <c r="G181" s="2" t="s">
+        <v>777</v>
       </c>
       <c r="I181" s="2" t="s">
-        <v>766</v>
+        <v>778</v>
       </c>
       <c r="J181" s="6" t="s">
         <v>964</v>
       </c>
-      <c r="K181" s="6" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="182" spans="1:12" ht="165.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K181" s="25" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="182" spans="1:12" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A182" s="6" t="s">
         <v>775</v>
       </c>
       <c r="B182" s="10" t="s">
         <v>735</v>
       </c>
-      <c r="C182" s="6" t="s">
-        <v>753</v>
+      <c r="C182" s="8" t="s">
+        <v>805</v>
       </c>
       <c r="D182" s="8" t="s">
-        <v>1103</v>
+        <v>1105</v>
       </c>
       <c r="E182" s="8" t="s">
-        <v>768</v>
+        <v>806</v>
       </c>
       <c r="F182" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="G182" s="13" t="s">
-        <v>770</v>
-      </c>
-      <c r="H182" s="2"/>
-      <c r="I182" s="13" t="s">
-        <v>771</v>
-      </c>
-      <c r="J182" s="25" t="s">
+      <c r="G182" s="2" t="s">
+        <v>807</v>
+      </c>
+      <c r="I182" s="2" t="s">
+        <v>808</v>
+      </c>
+      <c r="J182" s="6" t="s">
         <v>964</v>
       </c>
-      <c r="K182" s="25" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="183" spans="1:12" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K182" s="27" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="183" spans="1:12" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A183" s="6" t="s">
         <v>780</v>
       </c>
       <c r="B183" s="10" t="s">
         <v>735</v>
       </c>
-      <c r="C183" s="6" t="s">
-        <v>753</v>
+      <c r="C183" s="8" t="s">
+        <v>805</v>
       </c>
       <c r="D183" s="8" t="s">
-        <v>1103</v>
+        <v>1110</v>
       </c>
       <c r="E183" s="8" t="s">
-        <v>768</v>
+        <v>809</v>
       </c>
       <c r="F183" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="G183" s="13" t="s">
-        <v>773</v>
-      </c>
-      <c r="H183" s="2"/>
-      <c r="I183" s="13" t="s">
-        <v>774</v>
-      </c>
-      <c r="J183" s="25" t="s">
+      <c r="G183" s="2" t="s">
+        <v>811</v>
+      </c>
+      <c r="I183" s="2" t="s">
+        <v>812</v>
+      </c>
+      <c r="J183" s="6" t="s">
         <v>964</v>
       </c>
-      <c r="K183" s="25" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="184" spans="1:12" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K183" s="27" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="184" spans="1:12" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A184" s="6" t="s">
         <v>783</v>
       </c>
       <c r="B184" s="10" t="s">
         <v>735</v>
       </c>
-      <c r="C184" s="6" t="s">
-        <v>753</v>
+      <c r="C184" s="8" t="s">
+        <v>805</v>
       </c>
       <c r="D184" s="8" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
       <c r="E184" s="8" t="s">
-        <v>776</v>
+        <v>814</v>
       </c>
       <c r="F184" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G184" s="2" t="s">
-        <v>777</v>
+        <v>815</v>
       </c>
       <c r="I184" s="2" t="s">
-        <v>778</v>
+        <v>816</v>
       </c>
       <c r="J184" s="6" t="s">
         <v>964</v>
       </c>
-      <c r="K184" s="25" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="185" spans="1:12" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K184" s="27" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="185" spans="1:12" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A185" s="6" t="s">
         <v>789</v>
       </c>
@@ -11849,31 +11873,31 @@
         <v>735</v>
       </c>
       <c r="C185" s="8" t="s">
-        <v>779</v>
+        <v>805</v>
       </c>
       <c r="D185" s="8" t="s">
-        <v>1104</v>
-      </c>
-      <c r="E185" s="6" t="s">
-        <v>786</v>
+        <v>1112</v>
+      </c>
+      <c r="E185" s="8" t="s">
+        <v>826</v>
       </c>
       <c r="F185" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G185" s="2" t="s">
-        <v>781</v>
+        <v>829</v>
       </c>
       <c r="I185" s="2" t="s">
-        <v>782</v>
+        <v>818</v>
       </c>
       <c r="J185" s="6" t="s">
         <v>964</v>
       </c>
-      <c r="K185" s="25" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="186" spans="1:12" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K185" s="27" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="186" spans="1:12" ht="165.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A186" s="6" t="s">
         <v>794</v>
       </c>
@@ -11881,31 +11905,34 @@
         <v>735</v>
       </c>
       <c r="C186" s="8" t="s">
-        <v>784</v>
+        <v>805</v>
       </c>
       <c r="D186" s="8" t="s">
-        <v>1114</v>
-      </c>
-      <c r="E186" s="6" t="s">
-        <v>785</v>
+        <v>1124</v>
+      </c>
+      <c r="E186" s="8" t="s">
+        <v>820</v>
       </c>
       <c r="F186" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G186" s="2" t="s">
-        <v>787</v>
+        <v>828</v>
       </c>
       <c r="I186" s="2" t="s">
-        <v>788</v>
+        <v>821</v>
       </c>
       <c r="J186" s="6" t="s">
         <v>964</v>
       </c>
-      <c r="K186" s="25" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="187" spans="1:12" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K186" s="27" t="s">
+        <v>911</v>
+      </c>
+      <c r="L186" s="8" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="187" spans="1:12" ht="165.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A187" s="6" t="s">
         <v>799</v>
       </c>
@@ -11913,31 +11940,31 @@
         <v>735</v>
       </c>
       <c r="C187" s="8" t="s">
-        <v>790</v>
+        <v>805</v>
       </c>
       <c r="D187" s="8" t="s">
-        <v>1100</v>
+        <v>1113</v>
       </c>
       <c r="E187" s="8" t="s">
-        <v>791</v>
+        <v>823</v>
       </c>
       <c r="F187" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G187" s="2" t="s">
-        <v>792</v>
+        <v>827</v>
       </c>
       <c r="I187" s="2" t="s">
-        <v>793</v>
-      </c>
-      <c r="K187" s="26" t="s">
-        <v>909</v>
-      </c>
-      <c r="L187" s="20" t="s">
-        <v>961</v>
-      </c>
-    </row>
-    <row r="188" spans="1:12" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>824</v>
+      </c>
+      <c r="J187" s="6" t="s">
+        <v>964</v>
+      </c>
+      <c r="K187" s="27" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="188" spans="1:12" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A188" s="6" t="s">
         <v>804</v>
       </c>
@@ -11945,31 +11972,31 @@
         <v>735</v>
       </c>
       <c r="C188" s="8" t="s">
-        <v>796</v>
+        <v>805</v>
       </c>
       <c r="D188" s="8" t="s">
-        <v>1101</v>
+        <v>1114</v>
       </c>
       <c r="E188" s="8" t="s">
-        <v>795</v>
+        <v>830</v>
       </c>
       <c r="F188" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G188" s="2" t="s">
-        <v>798</v>
+        <v>831</v>
       </c>
       <c r="I188" s="2" t="s">
-        <v>797</v>
-      </c>
-      <c r="K188" s="26" t="s">
-        <v>909</v>
-      </c>
-      <c r="L188" s="20" t="s">
-        <v>961</v>
-      </c>
-    </row>
-    <row r="189" spans="1:12" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>832</v>
+      </c>
+      <c r="J188" s="6" t="s">
+        <v>964</v>
+      </c>
+      <c r="K188" s="27" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="189" spans="1:12" ht="180.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A189" s="6" t="s">
         <v>810</v>
       </c>
@@ -11977,34 +12004,31 @@
         <v>735</v>
       </c>
       <c r="C189" s="8" t="s">
-        <v>796</v>
+        <v>805</v>
       </c>
       <c r="D189" s="8" t="s">
-        <v>1102</v>
+        <v>1115</v>
       </c>
       <c r="E189" s="8" t="s">
-        <v>800</v>
+        <v>837</v>
       </c>
       <c r="F189" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G189" s="2" t="s">
-        <v>801</v>
+        <v>834</v>
       </c>
       <c r="I189" s="2" t="s">
-        <v>803</v>
+        <v>835</v>
       </c>
       <c r="J189" s="6" t="s">
-        <v>802</v>
-      </c>
-      <c r="K189" s="26" t="s">
-        <v>909</v>
-      </c>
-      <c r="L189" s="20" t="s">
-        <v>961</v>
-      </c>
-    </row>
-    <row r="190" spans="1:12" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>964</v>
+      </c>
+      <c r="K189" s="27" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="190" spans="1:12" ht="210.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A190" s="6" t="s">
         <v>813</v>
       </c>
@@ -12015,19 +12039,19 @@
         <v>805</v>
       </c>
       <c r="D190" s="8" t="s">
-        <v>1105</v>
+        <v>1116</v>
       </c>
       <c r="E190" s="8" t="s">
-        <v>806</v>
+        <v>838</v>
       </c>
       <c r="F190" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G190" s="2" t="s">
-        <v>807</v>
+        <v>839</v>
       </c>
       <c r="I190" s="2" t="s">
-        <v>808</v>
+        <v>840</v>
       </c>
       <c r="J190" s="6" t="s">
         <v>964</v>
@@ -12036,7 +12060,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="191" spans="1:12" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:12" ht="195.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A191" s="6" t="s">
         <v>817</v>
       </c>
@@ -12047,19 +12071,19 @@
         <v>805</v>
       </c>
       <c r="D191" s="8" t="s">
-        <v>1115</v>
+        <v>1117</v>
       </c>
       <c r="E191" s="8" t="s">
-        <v>809</v>
+        <v>842</v>
       </c>
       <c r="F191" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G191" s="2" t="s">
-        <v>811</v>
+        <v>843</v>
       </c>
       <c r="I191" s="2" t="s">
-        <v>812</v>
+        <v>844</v>
       </c>
       <c r="J191" s="6" t="s">
         <v>964</v>
@@ -12068,7 +12092,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="192" spans="1:12" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:12" ht="225.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A192" s="6" t="s">
         <v>819</v>
       </c>
@@ -12079,28 +12103,28 @@
         <v>805</v>
       </c>
       <c r="D192" s="8" t="s">
-        <v>1116</v>
+        <v>1125</v>
       </c>
       <c r="E192" s="8" t="s">
-        <v>814</v>
+        <v>846</v>
       </c>
       <c r="F192" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G192" s="2" t="s">
-        <v>815</v>
+        <v>847</v>
       </c>
       <c r="I192" s="2" t="s">
-        <v>816</v>
+        <v>848</v>
       </c>
       <c r="J192" s="6" t="s">
-        <v>964</v>
-      </c>
-      <c r="K192" s="27" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="193" spans="1:12" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>853</v>
+      </c>
+      <c r="L192" s="20" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="193" spans="1:13" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A193" s="6" t="s">
         <v>822</v>
       </c>
@@ -12111,28 +12135,28 @@
         <v>805</v>
       </c>
       <c r="D193" s="8" t="s">
-        <v>1117</v>
+        <v>1126</v>
       </c>
       <c r="E193" s="8" t="s">
-        <v>826</v>
+        <v>850</v>
       </c>
       <c r="F193" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G193" s="2" t="s">
-        <v>829</v>
+        <v>851</v>
       </c>
       <c r="I193" s="2" t="s">
-        <v>818</v>
+        <v>852</v>
       </c>
       <c r="J193" s="6" t="s">
-        <v>964</v>
-      </c>
-      <c r="K193" s="27" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="194" spans="1:12" ht="165.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>853</v>
+      </c>
+      <c r="L193" s="20" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="194" spans="1:13" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A194" s="6" t="s">
         <v>825</v>
       </c>
@@ -12143,19 +12167,19 @@
         <v>805</v>
       </c>
       <c r="D194" s="8" t="s">
-        <v>1129</v>
+        <v>1118</v>
       </c>
       <c r="E194" s="8" t="s">
-        <v>820</v>
+        <v>855</v>
       </c>
       <c r="F194" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G194" s="2" t="s">
-        <v>828</v>
+        <v>856</v>
       </c>
       <c r="I194" s="2" t="s">
-        <v>821</v>
+        <v>857</v>
       </c>
       <c r="J194" s="6" t="s">
         <v>964</v>
@@ -12163,11 +12187,8 @@
       <c r="K194" s="27" t="s">
         <v>911</v>
       </c>
-      <c r="L194" s="8" t="s">
-        <v>962</v>
-      </c>
-    </row>
-    <row r="195" spans="1:12" ht="165.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="195" spans="1:13" ht="165.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A195" s="6" t="s">
         <v>833</v>
       </c>
@@ -12178,19 +12199,19 @@
         <v>805</v>
       </c>
       <c r="D195" s="8" t="s">
-        <v>1118</v>
+        <v>1115</v>
       </c>
       <c r="E195" s="8" t="s">
-        <v>823</v>
+        <v>862</v>
       </c>
       <c r="F195" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G195" s="2" t="s">
-        <v>827</v>
+        <v>859</v>
       </c>
       <c r="I195" s="2" t="s">
-        <v>824</v>
+        <v>860</v>
       </c>
       <c r="J195" s="6" t="s">
         <v>964</v>
@@ -12199,7 +12220,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="196" spans="1:12" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:13" ht="225.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A196" s="6" t="s">
         <v>836</v>
       </c>
@@ -12209,29 +12230,26 @@
       <c r="C196" s="8" t="s">
         <v>805</v>
       </c>
-      <c r="D196" s="8" t="s">
-        <v>1119</v>
-      </c>
       <c r="E196" s="8" t="s">
-        <v>830</v>
+        <v>863</v>
       </c>
       <c r="F196" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G196" s="2" t="s">
-        <v>831</v>
+        <v>864</v>
       </c>
       <c r="I196" s="2" t="s">
-        <v>832</v>
-      </c>
-      <c r="J196" s="6" t="s">
-        <v>964</v>
-      </c>
-      <c r="K196" s="27" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="197" spans="1:12" ht="180.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>865</v>
+      </c>
+      <c r="K196" s="26" t="s">
+        <v>909</v>
+      </c>
+      <c r="L196" s="20" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="197" spans="1:13" ht="240.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A197" s="6" t="s">
         <v>841</v>
       </c>
@@ -12241,29 +12259,29 @@
       <c r="C197" s="8" t="s">
         <v>805</v>
       </c>
-      <c r="D197" s="8" t="s">
-        <v>1120</v>
-      </c>
       <c r="E197" s="8" t="s">
-        <v>837</v>
+        <v>867</v>
       </c>
       <c r="F197" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G197" s="2" t="s">
-        <v>834</v>
+        <v>868</v>
       </c>
       <c r="I197" s="2" t="s">
-        <v>835</v>
+        <v>869</v>
       </c>
       <c r="J197" s="6" t="s">
-        <v>964</v>
-      </c>
-      <c r="K197" s="27" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="198" spans="1:12" ht="210.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>853</v>
+      </c>
+      <c r="K197" s="26" t="s">
+        <v>909</v>
+      </c>
+      <c r="L197" s="20" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="198" spans="1:13" ht="165.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A198" s="6" t="s">
         <v>845</v>
       </c>
@@ -12273,125 +12291,125 @@
       <c r="C198" s="8" t="s">
         <v>805</v>
       </c>
-      <c r="D198" s="8" t="s">
-        <v>1121</v>
-      </c>
       <c r="E198" s="8" t="s">
-        <v>838</v>
+        <v>820</v>
       </c>
       <c r="F198" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G198" s="2" t="s">
-        <v>839</v>
+        <v>871</v>
       </c>
       <c r="I198" s="2" t="s">
-        <v>840</v>
-      </c>
-      <c r="J198" s="6" t="s">
-        <v>964</v>
-      </c>
-      <c r="K198" s="27" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="199" spans="1:12" ht="195.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>872</v>
+      </c>
+      <c r="J198" s="8" t="s">
+        <v>966</v>
+      </c>
+      <c r="K198" s="20" t="s">
+        <v>909</v>
+      </c>
+      <c r="L198" s="20" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="199" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A199" s="6" t="s">
         <v>849</v>
       </c>
-      <c r="B199" s="10" t="s">
-        <v>735</v>
-      </c>
-      <c r="C199" s="8" t="s">
-        <v>805</v>
+      <c r="B199" s="6" t="s">
+        <v>874</v>
+      </c>
+      <c r="C199" s="6" t="s">
+        <v>874</v>
       </c>
       <c r="D199" s="8" t="s">
-        <v>1122</v>
+        <v>1119</v>
       </c>
       <c r="E199" s="8" t="s">
-        <v>842</v>
+        <v>879</v>
       </c>
       <c r="F199" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G199" s="2" t="s">
-        <v>843</v>
+        <v>880</v>
       </c>
       <c r="I199" s="2" t="s">
-        <v>844</v>
+        <v>881</v>
       </c>
       <c r="J199" s="6" t="s">
         <v>964</v>
       </c>
-      <c r="K199" s="27" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="200" spans="1:12" ht="225.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K199" s="22" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="200" spans="1:13" ht="180" x14ac:dyDescent="0.25">
       <c r="A200" s="6" t="s">
         <v>854</v>
       </c>
-      <c r="B200" s="10" t="s">
-        <v>735</v>
+      <c r="B200" s="6" t="s">
+        <v>874</v>
       </c>
       <c r="C200" s="8" t="s">
-        <v>805</v>
+        <v>875</v>
       </c>
       <c r="D200" s="8" t="s">
-        <v>1130</v>
+        <v>1120</v>
       </c>
       <c r="E200" s="8" t="s">
-        <v>846</v>
+        <v>876</v>
       </c>
       <c r="F200" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G200" s="2" t="s">
-        <v>847</v>
+        <v>882</v>
       </c>
       <c r="I200" s="2" t="s">
-        <v>848</v>
+        <v>883</v>
       </c>
       <c r="J200" s="6" t="s">
-        <v>853</v>
-      </c>
-      <c r="L200" s="20" t="s">
-        <v>963</v>
-      </c>
-    </row>
-    <row r="201" spans="1:12" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>964</v>
+      </c>
+      <c r="K200" s="22" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="201" spans="1:13" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A201" s="6" t="s">
         <v>858</v>
       </c>
-      <c r="B201" s="10" t="s">
-        <v>735</v>
+      <c r="B201" s="6" t="s">
+        <v>874</v>
       </c>
       <c r="C201" s="8" t="s">
-        <v>805</v>
+        <v>885</v>
       </c>
       <c r="D201" s="8" t="s">
-        <v>1131</v>
+        <v>1121</v>
       </c>
       <c r="E201" s="8" t="s">
-        <v>850</v>
+        <v>886</v>
       </c>
       <c r="F201" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G201" s="2" t="s">
-        <v>851</v>
+        <v>877</v>
       </c>
       <c r="I201" s="2" t="s">
-        <v>852</v>
+        <v>887</v>
       </c>
       <c r="J201" s="6" t="s">
-        <v>853</v>
-      </c>
-      <c r="L201" s="20" t="s">
-        <v>963</v>
-      </c>
-    </row>
-    <row r="202" spans="1:12" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>964</v>
+      </c>
+      <c r="K201" s="22" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="202" spans="1:13" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A202" s="6" t="s">
         <v>861</v>
       </c>
@@ -12399,31 +12417,31 @@
         <v>735</v>
       </c>
       <c r="C202" s="8" t="s">
-        <v>805</v>
-      </c>
-      <c r="D202" s="8" t="s">
-        <v>1123</v>
+        <v>736</v>
       </c>
       <c r="E202" s="8" t="s">
-        <v>855</v>
+        <v>737</v>
       </c>
       <c r="F202" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="G202" s="2" t="s">
-        <v>856</v>
-      </c>
-      <c r="I202" s="2" t="s">
-        <v>857</v>
-      </c>
-      <c r="J202" s="6" t="s">
-        <v>964</v>
-      </c>
-      <c r="K202" s="27" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="203" spans="1:12" ht="165.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G202" s="13" t="s">
+        <v>738</v>
+      </c>
+      <c r="I202" s="13" t="s">
+        <v>739</v>
+      </c>
+      <c r="K202" s="19" t="s">
+        <v>909</v>
+      </c>
+      <c r="L202" s="20" t="s">
+        <v>970</v>
+      </c>
+      <c r="M202" t="s">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="203" spans="1:13" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A203" s="6" t="s">
         <v>866</v>
       </c>
@@ -12431,31 +12449,37 @@
         <v>735</v>
       </c>
       <c r="C203" s="8" t="s">
-        <v>805</v>
+        <v>736</v>
       </c>
       <c r="D203" s="8" t="s">
-        <v>1120</v>
+        <v>1123</v>
       </c>
       <c r="E203" s="8" t="s">
-        <v>862</v>
+        <v>741</v>
       </c>
       <c r="F203" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="G203" s="2" t="s">
-        <v>859</v>
-      </c>
-      <c r="I203" s="2" t="s">
-        <v>860</v>
+      <c r="G203" s="13" t="s">
+        <v>742</v>
+      </c>
+      <c r="I203" s="13" t="s">
+        <v>743</v>
       </c>
       <c r="J203" s="6" t="s">
         <v>964</v>
       </c>
-      <c r="K203" s="27" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="204" spans="1:12" ht="225.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K203" s="6" t="s">
+        <v>911</v>
+      </c>
+      <c r="L203" s="8" t="s">
+        <v>969</v>
+      </c>
+      <c r="M203" t="s">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="204" spans="1:13" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A204" s="6" t="s">
         <v>870</v>
       </c>
@@ -12463,28 +12487,34 @@
         <v>735</v>
       </c>
       <c r="C204" s="8" t="s">
-        <v>805</v>
+        <v>736</v>
+      </c>
+      <c r="D204" s="8" t="s">
+        <v>1099</v>
       </c>
       <c r="E204" s="8" t="s">
-        <v>863</v>
+        <v>745</v>
       </c>
       <c r="F204" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="G204" s="2" t="s">
-        <v>864</v>
-      </c>
-      <c r="I204" s="2" t="s">
-        <v>865</v>
-      </c>
-      <c r="K204" s="26" t="s">
+      <c r="G204" s="13" t="s">
+        <v>746</v>
+      </c>
+      <c r="I204" s="13" t="s">
+        <v>747</v>
+      </c>
+      <c r="K204" s="19" t="s">
         <v>909</v>
       </c>
       <c r="L204" s="20" t="s">
-        <v>965</v>
-      </c>
-    </row>
-    <row r="205" spans="1:12" ht="240.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>960</v>
+      </c>
+      <c r="M204" t="s">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="205" spans="1:13" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A205" s="6" t="s">
         <v>873</v>
       </c>
@@ -12492,31 +12522,34 @@
         <v>735</v>
       </c>
       <c r="C205" s="8" t="s">
-        <v>805</v>
-      </c>
-      <c r="E205" s="8" t="s">
-        <v>867</v>
+        <v>779</v>
+      </c>
+      <c r="D205" s="8" t="s">
+        <v>1104</v>
+      </c>
+      <c r="E205" s="6" t="s">
+        <v>786</v>
       </c>
       <c r="F205" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G205" s="2" t="s">
-        <v>868</v>
+        <v>781</v>
       </c>
       <c r="I205" s="2" t="s">
-        <v>869</v>
+        <v>782</v>
       </c>
       <c r="J205" s="6" t="s">
-        <v>853</v>
-      </c>
-      <c r="K205" s="26" t="s">
-        <v>909</v>
-      </c>
-      <c r="L205" s="20" t="s">
-        <v>965</v>
-      </c>
-    </row>
-    <row r="206" spans="1:12" ht="165.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>964</v>
+      </c>
+      <c r="K205" s="25" t="s">
+        <v>911</v>
+      </c>
+      <c r="M205" t="s">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="206" spans="1:13" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A206" s="6" t="s">
         <v>878</v>
       </c>
@@ -12524,128 +12557,140 @@
         <v>735</v>
       </c>
       <c r="C206" s="8" t="s">
-        <v>805</v>
-      </c>
-      <c r="E206" s="8" t="s">
-        <v>820</v>
+        <v>784</v>
+      </c>
+      <c r="D206" s="8" t="s">
+        <v>1109</v>
+      </c>
+      <c r="E206" s="6" t="s">
+        <v>785</v>
       </c>
       <c r="F206" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G206" s="2" t="s">
-        <v>871</v>
+        <v>787</v>
       </c>
       <c r="I206" s="2" t="s">
-        <v>872</v>
-      </c>
-      <c r="J206" s="8" t="s">
-        <v>966</v>
-      </c>
-      <c r="K206" s="20" t="s">
-        <v>909</v>
-      </c>
-      <c r="L206" s="20" t="s">
-        <v>967</v>
-      </c>
-    </row>
-    <row r="207" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+        <v>788</v>
+      </c>
+      <c r="J206" s="6" t="s">
+        <v>964</v>
+      </c>
+      <c r="K206" s="25" t="s">
+        <v>911</v>
+      </c>
+      <c r="M206" t="s">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="207" spans="1:13" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A207" s="6" t="s">
         <v>884</v>
       </c>
-      <c r="B207" s="6" t="s">
-        <v>874</v>
-      </c>
-      <c r="C207" s="6" t="s">
-        <v>874</v>
+      <c r="B207" s="10" t="s">
+        <v>735</v>
+      </c>
+      <c r="C207" s="8" t="s">
+        <v>790</v>
       </c>
       <c r="D207" s="8" t="s">
-        <v>1124</v>
+        <v>1100</v>
       </c>
       <c r="E207" s="8" t="s">
-        <v>879</v>
+        <v>791</v>
       </c>
       <c r="F207" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G207" s="2" t="s">
-        <v>880</v>
+        <v>792</v>
       </c>
       <c r="I207" s="2" t="s">
-        <v>881</v>
-      </c>
-      <c r="J207" s="6" t="s">
-        <v>964</v>
-      </c>
-      <c r="K207" s="22" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="208" spans="1:12" ht="180" x14ac:dyDescent="0.25">
+        <v>793</v>
+      </c>
+      <c r="K207" s="26" t="s">
+        <v>909</v>
+      </c>
+      <c r="L207" s="20" t="s">
+        <v>961</v>
+      </c>
+      <c r="M207" t="s">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="208" spans="1:13" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A208" s="6" t="s">
         <v>905</v>
       </c>
-      <c r="B208" s="6" t="s">
-        <v>874</v>
+      <c r="B208" s="10" t="s">
+        <v>735</v>
       </c>
       <c r="C208" s="8" t="s">
-        <v>875</v>
+        <v>796</v>
       </c>
       <c r="D208" s="8" t="s">
-        <v>1125</v>
+        <v>1101</v>
       </c>
       <c r="E208" s="8" t="s">
-        <v>876</v>
+        <v>795</v>
       </c>
       <c r="F208" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G208" s="2" t="s">
-        <v>882</v>
+        <v>798</v>
       </c>
       <c r="I208" s="2" t="s">
-        <v>883</v>
-      </c>
-      <c r="J208" s="6" t="s">
-        <v>964</v>
-      </c>
-      <c r="K208" s="22" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="209" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+        <v>797</v>
+      </c>
+      <c r="K208" s="26" t="s">
+        <v>909</v>
+      </c>
+      <c r="L208" s="20" t="s">
+        <v>961</v>
+      </c>
+      <c r="M208" t="s">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="209" spans="1:13" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A209" s="6" t="s">
         <v>906</v>
       </c>
-      <c r="B209" s="6" t="s">
-        <v>874</v>
+      <c r="B209" s="10" t="s">
+        <v>735</v>
       </c>
       <c r="C209" s="8" t="s">
-        <v>885</v>
+        <v>796</v>
       </c>
       <c r="D209" s="8" t="s">
-        <v>1126</v>
+        <v>1102</v>
       </c>
       <c r="E209" s="8" t="s">
-        <v>886</v>
+        <v>800</v>
       </c>
       <c r="F209" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G209" s="2" t="s">
-        <v>877</v>
+        <v>801</v>
       </c>
       <c r="I209" s="2" t="s">
-        <v>887</v>
+        <v>803</v>
       </c>
       <c r="J209" s="6" t="s">
-        <v>964</v>
-      </c>
-      <c r="K209" s="22" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E210" s="8"/>
+        <v>802</v>
+      </c>
+      <c r="K209" s="26" t="s">
+        <v>909</v>
+      </c>
+      <c r="L209" s="20" t="s">
+        <v>961</v>
+      </c>
+      <c r="M209" t="s">
+        <v>1229</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12663,17 +12708,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.85546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11.28515625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="16.85546875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="17.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="31.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="29" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="37.5703125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="26.140625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="37.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="12.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="19.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="20.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="16.85546875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="17.5703125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="31.85546875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="29.0" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="37.5703125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="26.140625" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="37.5703125" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="12.5703125" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="19.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">

--- a/Advantage Test Cases.xlsx
+++ b/Advantage Test Cases.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3975" uniqueCount="1231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3972" uniqueCount="1236">
   <si>
     <t>Test Objective</t>
   </si>
@@ -5065,34 +5065,13 @@
     <t>fA_AddRemarkforstudent'sFeedbackofView</t>
   </si>
   <si>
-    <t>fv_ValidationToofTimefields</t>
-  </si>
-  <si>
     <t>fP_ViewofPlannedLessons</t>
   </si>
   <si>
-    <t>fe_ManageAssignmentIsofCalendarsection</t>
-  </si>
-  <si>
     <t>fn_ViewAverageScoreofSelectedSubject</t>
   </si>
   <si>
-    <t>fv_ValidationsofMandatoryfields</t>
-  </si>
-  <si>
-    <t>fv_CancelofEventpopup</t>
-  </si>
-  <si>
     <t>ft_ViewofLessonplan</t>
-  </si>
-  <si>
-    <t>fe_ViewAllTheLessonPlansofYouTeacher)</t>
-  </si>
-  <si>
-    <t>fe_ViewAllTheofSpecifieddates</t>
-  </si>
-  <si>
-    <t>fe_ViewAllTheActivitiesOfLearningofSpecifieddates</t>
   </si>
   <si>
     <t>fe_ViewTheofStudent'slearning</t>
@@ -5475,13 +5454,51 @@
   <si>
     <t>No students present: Fail</t>
   </si>
+  <si>
+    <t>fn_AddAllDayEvent</t>
+  </si>
+  <si>
+    <t>fn_AddSpecificHourEvent</t>
+  </si>
+  <si>
+    <t>fn_ValidationsforMandatoryfields</t>
+  </si>
+  <si>
+    <t>1. On Teacher Dashboard, under Calendar section, click on Add Event
+2. Enter/Select all fields except Title and click on Save button
+3.  Enter/Select all fields except Description and click on Save button
+4. Select From Date &amp; Time greater than current date &amp; time and To Date &amp; Time less than current date &amp; time then click on Save button</t>
+  </si>
+  <si>
+    <t>fn_ValidationifFromTimeGreaterthanCurrntandTotimeLessthanCurrnt</t>
+  </si>
+  <si>
+    <t>fn_ValidationifFromTimeLessthanCurrntandTotimeGreaterthanCurrnt</t>
+  </si>
+  <si>
+    <t>fn_ValidationifToDateLessthanFromDate</t>
+  </si>
+  <si>
+    <t>fn_CancelAddEventPopup</t>
+  </si>
+  <si>
+    <t>fn_VisibilityofManageAssignments</t>
+  </si>
+  <si>
+    <t>fn_ViewAllLessonPlansbyTeacher</t>
+  </si>
+  <si>
+    <t>fn_ViewAllActivitiesforSpecifieddates</t>
+  </si>
+  <si>
+    <t>fe_ViewAllLearningMaterialsforSpecifieddates</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5952,25 +5969,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA209"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F167" workbookViewId="0">
-      <selection activeCell="K167" sqref="K167"/>
+    <sheetView tabSelected="1" topLeftCell="A182" workbookViewId="0">
+      <selection activeCell="D185" sqref="D185"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="6" width="12.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="6" width="18.42578125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="6" width="16.5703125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="8" width="16.5703125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="6" width="31.85546875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="6" width="33.5703125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="42.7109375" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="25.28515625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="41.140625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" style="6" width="26.0" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" style="6" width="11.42578125" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" style="8" width="52.7109375" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="1" max="1" width="12.140625" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="18.42578125" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="16.5703125" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="16.5703125" style="8" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="31.85546875" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="33.5703125" style="6" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="42.7109375" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="25.28515625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="41.140625" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="26" style="6" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="11.42578125" style="6" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="52.7109375" style="8" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="14.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -8567,7 +8584,7 @@
         <v>347</v>
       </c>
       <c r="D83" s="8" t="s">
-        <v>1106</v>
+        <v>1104</v>
       </c>
       <c r="E83" s="8" t="s">
         <v>352</v>
@@ -8599,7 +8616,7 @@
         <v>347</v>
       </c>
       <c r="D84" s="8" t="s">
-        <v>1122</v>
+        <v>1115</v>
       </c>
       <c r="E84" s="8" t="s">
         <v>355</v>
@@ -8631,7 +8648,7 @@
         <v>347</v>
       </c>
       <c r="D85" s="8" t="s">
-        <v>1127</v>
+        <v>1120</v>
       </c>
       <c r="E85" s="8" t="s">
         <v>360</v>
@@ -8663,7 +8680,7 @@
         <v>347</v>
       </c>
       <c r="D86" s="8" t="s">
-        <v>1128</v>
+        <v>1121</v>
       </c>
       <c r="E86" s="8" t="s">
         <v>364</v>
@@ -8695,7 +8712,7 @@
         <v>368</v>
       </c>
       <c r="D87" s="8" t="s">
-        <v>1129</v>
+        <v>1122</v>
       </c>
       <c r="E87" s="8" t="s">
         <v>370</v>
@@ -8727,7 +8744,7 @@
         <v>368</v>
       </c>
       <c r="D88" s="8" t="s">
-        <v>1130</v>
+        <v>1123</v>
       </c>
       <c r="E88" s="8" t="s">
         <v>374</v>
@@ -8757,7 +8774,7 @@
         <v>377</v>
       </c>
       <c r="D89" s="8" t="s">
-        <v>1131</v>
+        <v>1124</v>
       </c>
       <c r="E89" s="8" t="s">
         <v>382</v>
@@ -8786,7 +8803,7 @@
         <v>381</v>
       </c>
       <c r="D90" s="8" t="s">
-        <v>1132</v>
+        <v>1125</v>
       </c>
       <c r="E90" s="8" t="s">
         <v>384</v>
@@ -8818,7 +8835,7 @@
         <v>381</v>
       </c>
       <c r="D91" s="8" t="s">
-        <v>1133</v>
+        <v>1126</v>
       </c>
       <c r="E91" s="8" t="s">
         <v>386</v>
@@ -8850,7 +8867,7 @@
         <v>381</v>
       </c>
       <c r="D92" s="8" t="s">
-        <v>1134</v>
+        <v>1127</v>
       </c>
       <c r="E92" s="8" t="s">
         <v>390</v>
@@ -8882,7 +8899,7 @@
         <v>381</v>
       </c>
       <c r="D93" s="8" t="s">
-        <v>1135</v>
+        <v>1128</v>
       </c>
       <c r="E93" s="8" t="s">
         <v>394</v>
@@ -8914,7 +8931,7 @@
         <v>381</v>
       </c>
       <c r="D94" s="8" t="s">
-        <v>1136</v>
+        <v>1129</v>
       </c>
       <c r="E94" s="8" t="s">
         <v>398</v>
@@ -8946,7 +8963,7 @@
         <v>381</v>
       </c>
       <c r="D95" s="8" t="s">
-        <v>1137</v>
+        <v>1130</v>
       </c>
       <c r="E95" s="8" t="s">
         <v>403</v>
@@ -8978,7 +8995,7 @@
         <v>381</v>
       </c>
       <c r="D96" s="8" t="s">
-        <v>1138</v>
+        <v>1131</v>
       </c>
       <c r="E96" s="8" t="s">
         <v>407</v>
@@ -9010,7 +9027,7 @@
         <v>414</v>
       </c>
       <c r="D97" s="8" t="s">
-        <v>1139</v>
+        <v>1132</v>
       </c>
       <c r="E97" s="8" t="s">
         <v>412</v>
@@ -9042,7 +9059,7 @@
         <v>414</v>
       </c>
       <c r="D98" s="8" t="s">
-        <v>1140</v>
+        <v>1133</v>
       </c>
       <c r="E98" s="8" t="s">
         <v>416</v>
@@ -9074,7 +9091,7 @@
         <v>425</v>
       </c>
       <c r="D99" s="8" t="s">
-        <v>1141</v>
+        <v>1134</v>
       </c>
       <c r="E99" s="8" t="s">
         <v>424</v>
@@ -9106,7 +9123,7 @@
         <v>422</v>
       </c>
       <c r="D100" s="8" t="s">
-        <v>1142</v>
+        <v>1135</v>
       </c>
       <c r="E100" s="8" t="s">
         <v>427</v>
@@ -9138,7 +9155,7 @@
         <v>422</v>
       </c>
       <c r="D101" s="8" t="s">
-        <v>1143</v>
+        <v>1136</v>
       </c>
       <c r="E101" s="8" t="s">
         <v>429</v>
@@ -9159,7 +9176,7 @@
         <v>1012</v>
       </c>
       <c r="L101" s="8" t="s">
-        <v>1144</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="102" spans="1:12" ht="195" x14ac:dyDescent="0.25">
@@ -9173,7 +9190,7 @@
         <v>422</v>
       </c>
       <c r="D102" s="8" t="s">
-        <v>1145</v>
+        <v>1138</v>
       </c>
       <c r="E102" s="8" t="s">
         <v>436</v>
@@ -9205,7 +9222,7 @@
         <v>422</v>
       </c>
       <c r="D103" s="8" t="s">
-        <v>1146</v>
+        <v>1139</v>
       </c>
       <c r="E103" s="8" t="s">
         <v>438</v>
@@ -9234,7 +9251,7 @@
         <v>442</v>
       </c>
       <c r="D104" s="8" t="s">
-        <v>1147</v>
+        <v>1140</v>
       </c>
       <c r="E104" s="6" t="s">
         <v>443</v>
@@ -9266,7 +9283,7 @@
         <v>442</v>
       </c>
       <c r="D105" s="8" t="s">
-        <v>1148</v>
+        <v>1141</v>
       </c>
       <c r="E105" s="8" t="s">
         <v>446</v>
@@ -9298,7 +9315,7 @@
         <v>442</v>
       </c>
       <c r="D106" s="8" t="s">
-        <v>1149</v>
+        <v>1142</v>
       </c>
       <c r="E106" s="8" t="s">
         <v>451</v>
@@ -9330,7 +9347,7 @@
         <v>442</v>
       </c>
       <c r="D107" s="8" t="s">
-        <v>1150</v>
+        <v>1143</v>
       </c>
       <c r="E107" s="8" t="s">
         <v>455</v>
@@ -9359,7 +9376,7 @@
         <v>458</v>
       </c>
       <c r="D108" s="8" t="s">
-        <v>1151</v>
+        <v>1144</v>
       </c>
       <c r="E108" s="6" t="s">
         <v>460</v>
@@ -9388,7 +9405,7 @@
         <v>458</v>
       </c>
       <c r="D109" s="8" t="s">
-        <v>1152</v>
+        <v>1145</v>
       </c>
       <c r="E109" s="8" t="s">
         <v>620</v>
@@ -9417,7 +9434,7 @@
         <v>458</v>
       </c>
       <c r="D110" s="8" t="s">
-        <v>1153</v>
+        <v>1146</v>
       </c>
       <c r="E110" s="8" t="s">
         <v>621</v>
@@ -9446,7 +9463,7 @@
         <v>464</v>
       </c>
       <c r="D111" s="8" t="s">
-        <v>1154</v>
+        <v>1147</v>
       </c>
       <c r="E111" s="8" t="s">
         <v>465</v>
@@ -9472,10 +9489,10 @@
         <v>411</v>
       </c>
       <c r="C112" s="8" t="s">
-        <v>1157</v>
+        <v>1150</v>
       </c>
       <c r="D112" s="8" t="s">
-        <v>1156</v>
+        <v>1149</v>
       </c>
       <c r="E112" s="8"/>
       <c r="G112" s="2"/>
@@ -9495,7 +9512,7 @@
         <v>468</v>
       </c>
       <c r="D113" s="8" t="s">
-        <v>1155</v>
+        <v>1148</v>
       </c>
       <c r="E113" s="8" t="s">
         <v>471</v>
@@ -9524,7 +9541,7 @@
         <v>472</v>
       </c>
       <c r="D114" s="8" t="s">
-        <v>1158</v>
+        <v>1151</v>
       </c>
       <c r="E114" s="8" t="s">
         <v>474</v>
@@ -9553,7 +9570,7 @@
         <v>481</v>
       </c>
       <c r="D115" s="8" t="s">
-        <v>1159</v>
+        <v>1152</v>
       </c>
       <c r="E115" s="8" t="s">
         <v>424</v>
@@ -9585,7 +9602,7 @@
         <v>477</v>
       </c>
       <c r="D116" s="8" t="s">
-        <v>1160</v>
+        <v>1153</v>
       </c>
       <c r="E116" s="8" t="s">
         <v>478</v>
@@ -9617,7 +9634,7 @@
         <v>486</v>
       </c>
       <c r="D117" s="8" t="s">
-        <v>1161</v>
+        <v>1154</v>
       </c>
       <c r="E117" s="8" t="s">
         <v>487</v>
@@ -9649,7 +9666,7 @@
         <v>490</v>
       </c>
       <c r="D118" s="8" t="s">
-        <v>1162</v>
+        <v>1155</v>
       </c>
       <c r="E118" s="8" t="s">
         <v>491</v>
@@ -9681,7 +9698,7 @@
         <v>490</v>
       </c>
       <c r="D119" s="8" t="s">
-        <v>1163</v>
+        <v>1156</v>
       </c>
       <c r="E119" s="8" t="s">
         <v>495</v>
@@ -9713,7 +9730,7 @@
         <v>498</v>
       </c>
       <c r="D120" s="8" t="s">
-        <v>1164</v>
+        <v>1157</v>
       </c>
       <c r="E120" s="8" t="s">
         <v>500</v>
@@ -9748,7 +9765,7 @@
         <v>498</v>
       </c>
       <c r="D121" s="8" t="s">
-        <v>1165</v>
+        <v>1158</v>
       </c>
       <c r="E121" s="8" t="s">
         <v>505</v>
@@ -9780,7 +9797,7 @@
         <v>498</v>
       </c>
       <c r="D122" s="8" t="s">
-        <v>1166</v>
+        <v>1159</v>
       </c>
       <c r="E122" s="8" t="s">
         <v>508</v>
@@ -9816,7 +9833,7 @@
         <v>498</v>
       </c>
       <c r="D123" s="8" t="s">
-        <v>1167</v>
+        <v>1160</v>
       </c>
       <c r="E123" s="8" t="s">
         <v>513</v>
@@ -9849,7 +9866,7 @@
         <v>498</v>
       </c>
       <c r="D124" s="8" t="s">
-        <v>1168</v>
+        <v>1161</v>
       </c>
       <c r="E124" s="8" t="s">
         <v>521</v>
@@ -9868,7 +9885,7 @@
         <v>1012</v>
       </c>
       <c r="L124" s="20" t="s">
-        <v>1169</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="125" spans="1:12" ht="315" x14ac:dyDescent="0.25">
@@ -9879,22 +9896,22 @@
         <v>411</v>
       </c>
       <c r="C125" s="8" t="s">
+        <v>1164</v>
+      </c>
+      <c r="D125" s="8" t="s">
+        <v>1165</v>
+      </c>
+      <c r="E125" s="8" t="s">
+        <v>1166</v>
+      </c>
+      <c r="F125" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G125" s="2" t="s">
         <v>1171</v>
       </c>
-      <c r="D125" s="8" t="s">
-        <v>1172</v>
-      </c>
-      <c r="E125" s="8" t="s">
-        <v>1173</v>
-      </c>
-      <c r="F125" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="G125" s="2" t="s">
-        <v>1178</v>
-      </c>
       <c r="H125" s="2" t="s">
-        <v>1174</v>
+        <v>1167</v>
       </c>
       <c r="I125" s="2" t="s">
         <v>502</v>
@@ -9917,7 +9934,7 @@
         <v>498</v>
       </c>
       <c r="D126" s="8" t="s">
-        <v>1175</v>
+        <v>1168</v>
       </c>
       <c r="E126" s="8" t="s">
         <v>505</v>
@@ -9949,7 +9966,7 @@
         <v>498</v>
       </c>
       <c r="D127" s="8" t="s">
-        <v>1176</v>
+        <v>1169</v>
       </c>
       <c r="E127" s="8" t="s">
         <v>508</v>
@@ -9958,7 +9975,7 @@
         <v>38</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>1177</v>
+        <v>1170</v>
       </c>
       <c r="H127" s="2"/>
       <c r="I127" s="2" t="s">
@@ -9985,7 +10002,7 @@
         <v>498</v>
       </c>
       <c r="D128" s="8" t="s">
-        <v>1179</v>
+        <v>1172</v>
       </c>
       <c r="E128" s="8" t="s">
         <v>513</v>
@@ -10018,7 +10035,7 @@
         <v>498</v>
       </c>
       <c r="D129" s="8" t="s">
-        <v>1181</v>
+        <v>1174</v>
       </c>
       <c r="E129" s="8" t="s">
         <v>521</v>
@@ -10037,7 +10054,7 @@
         <v>911</v>
       </c>
       <c r="L129" s="20" t="s">
-        <v>1169</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="130" spans="1:12" ht="375" x14ac:dyDescent="0.25">
@@ -10051,7 +10068,7 @@
         <v>540</v>
       </c>
       <c r="D130" s="8" t="s">
-        <v>1170</v>
+        <v>1163</v>
       </c>
       <c r="E130" s="8" t="s">
         <v>543</v>
@@ -10083,7 +10100,7 @@
         <v>540</v>
       </c>
       <c r="D131" s="8" t="s">
-        <v>1182</v>
+        <v>1175</v>
       </c>
       <c r="E131" s="8" t="s">
         <v>548</v>
@@ -10116,7 +10133,7 @@
         <v>552</v>
       </c>
       <c r="D132" s="8" t="s">
-        <v>1183</v>
+        <v>1176</v>
       </c>
       <c r="E132" s="8" t="s">
         <v>553</v>
@@ -10137,7 +10154,7 @@
         <v>1012</v>
       </c>
       <c r="L132" s="20" t="s">
-        <v>1180</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="133" spans="1:12" ht="165" x14ac:dyDescent="0.25">
@@ -10151,7 +10168,7 @@
         <v>552</v>
       </c>
       <c r="D133" s="8" t="s">
-        <v>1184</v>
+        <v>1177</v>
       </c>
       <c r="E133" s="8" t="s">
         <v>557</v>
@@ -10183,7 +10200,7 @@
         <v>561</v>
       </c>
       <c r="D134" s="8" t="s">
-        <v>1185</v>
+        <v>1178</v>
       </c>
       <c r="E134" s="8" t="s">
         <v>562</v>
@@ -10215,7 +10232,7 @@
         <v>561</v>
       </c>
       <c r="D135" s="8" t="s">
-        <v>1186</v>
+        <v>1179</v>
       </c>
       <c r="E135" s="8" t="s">
         <v>565</v>
@@ -10247,7 +10264,7 @@
         <v>561</v>
       </c>
       <c r="D136" s="8" t="s">
-        <v>1187</v>
+        <v>1180</v>
       </c>
       <c r="E136" s="8" t="s">
         <v>568</v>
@@ -10279,7 +10296,7 @@
         <v>561</v>
       </c>
       <c r="D137" s="8" t="s">
-        <v>1188</v>
+        <v>1181</v>
       </c>
       <c r="E137" s="8" t="s">
         <v>572</v>
@@ -10311,7 +10328,7 @@
         <v>561</v>
       </c>
       <c r="D138" s="8" t="s">
-        <v>1189</v>
+        <v>1182</v>
       </c>
       <c r="E138" s="8" t="s">
         <v>576</v>
@@ -10343,7 +10360,7 @@
         <v>581</v>
       </c>
       <c r="D139" s="8" t="s">
-        <v>1190</v>
+        <v>1183</v>
       </c>
       <c r="E139" s="6" t="s">
         <v>582</v>
@@ -10375,7 +10392,7 @@
         <v>581</v>
       </c>
       <c r="D140" s="8" t="s">
-        <v>1191</v>
+        <v>1184</v>
       </c>
       <c r="E140" s="8" t="s">
         <v>625</v>
@@ -10407,7 +10424,7 @@
         <v>581</v>
       </c>
       <c r="D141" s="8" t="s">
-        <v>1192</v>
+        <v>1185</v>
       </c>
       <c r="E141" s="8" t="s">
         <v>628</v>
@@ -10439,7 +10456,7 @@
         <v>581</v>
       </c>
       <c r="D142" s="8" t="s">
-        <v>1193</v>
+        <v>1186</v>
       </c>
       <c r="E142" s="8" t="s">
         <v>586</v>
@@ -10471,7 +10488,7 @@
         <v>594</v>
       </c>
       <c r="D143" s="8" t="s">
-        <v>1194</v>
+        <v>1187</v>
       </c>
       <c r="E143" s="8" t="s">
         <v>593</v>
@@ -10492,7 +10509,7 @@
         <v>1012</v>
       </c>
       <c r="L143" s="20" t="s">
-        <v>1204</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="144" spans="1:12" ht="180" x14ac:dyDescent="0.25">
@@ -10506,7 +10523,7 @@
         <v>595</v>
       </c>
       <c r="D144" s="8" t="s">
-        <v>1195</v>
+        <v>1188</v>
       </c>
       <c r="E144" s="8" t="s">
         <v>596</v>
@@ -10538,7 +10555,7 @@
         <v>595</v>
       </c>
       <c r="D145" s="8" t="s">
-        <v>1196</v>
+        <v>1189</v>
       </c>
       <c r="E145" s="8" t="s">
         <v>600</v>
@@ -10570,7 +10587,7 @@
         <v>595</v>
       </c>
       <c r="D146" s="8" t="s">
-        <v>1197</v>
+        <v>1190</v>
       </c>
       <c r="E146" s="8" t="s">
         <v>604</v>
@@ -10605,7 +10622,7 @@
         <v>595</v>
       </c>
       <c r="D147" s="8" t="s">
-        <v>1198</v>
+        <v>1191</v>
       </c>
       <c r="E147" s="8" t="s">
         <v>609</v>
@@ -10637,7 +10654,7 @@
         <v>595</v>
       </c>
       <c r="D148" s="8" t="s">
-        <v>1199</v>
+        <v>1192</v>
       </c>
       <c r="E148" s="8" t="s">
         <v>612</v>
@@ -10669,7 +10686,7 @@
         <v>617</v>
       </c>
       <c r="D149" s="8" t="s">
-        <v>1200</v>
+        <v>1193</v>
       </c>
       <c r="E149" s="6" t="s">
         <v>635</v>
@@ -10701,7 +10718,7 @@
         <v>617</v>
       </c>
       <c r="D150" s="8" t="s">
-        <v>1201</v>
+        <v>1194</v>
       </c>
       <c r="E150" s="8" t="s">
         <v>638</v>
@@ -10733,7 +10750,7 @@
         <v>617</v>
       </c>
       <c r="D151" s="8" t="s">
-        <v>1202</v>
+        <v>1195</v>
       </c>
       <c r="E151" s="6" t="s">
         <v>641</v>
@@ -10765,7 +10782,7 @@
         <v>617</v>
       </c>
       <c r="D152" s="8" t="s">
-        <v>1203</v>
+        <v>1196</v>
       </c>
       <c r="E152" s="8" t="s">
         <v>645</v>
@@ -10797,7 +10814,7 @@
         <v>617</v>
       </c>
       <c r="D153" s="8" t="s">
-        <v>1205</v>
+        <v>1198</v>
       </c>
       <c r="E153" s="8" t="s">
         <v>649</v>
@@ -10829,7 +10846,7 @@
         <v>617</v>
       </c>
       <c r="D154" s="8" t="s">
-        <v>1206</v>
+        <v>1199</v>
       </c>
       <c r="E154" s="8" t="s">
         <v>653</v>
@@ -10861,7 +10878,7 @@
         <v>617</v>
       </c>
       <c r="D155" s="8" t="s">
-        <v>1207</v>
+        <v>1200</v>
       </c>
       <c r="E155" s="8" t="s">
         <v>657</v>
@@ -10893,7 +10910,7 @@
         <v>617</v>
       </c>
       <c r="D156" s="8" t="s">
-        <v>1208</v>
+        <v>1201</v>
       </c>
       <c r="E156" s="8" t="s">
         <v>661</v>
@@ -10925,7 +10942,7 @@
         <v>665</v>
       </c>
       <c r="D157" s="8" t="s">
-        <v>1209</v>
+        <v>1202</v>
       </c>
       <c r="E157" s="8" t="s">
         <v>666</v>
@@ -10942,11 +10959,11 @@
       <c r="I157" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="K157" s="20" t="s">
-        <v>909</v>
+      <c r="K157" t="s">
+        <v>1012</v>
       </c>
       <c r="L157" s="20" t="s">
-        <v>1210</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="158" spans="1:12" ht="195" x14ac:dyDescent="0.25">
@@ -10960,7 +10977,7 @@
         <v>665</v>
       </c>
       <c r="D158" s="8" t="s">
-        <v>1211</v>
+        <v>1204</v>
       </c>
       <c r="E158" s="8" t="s">
         <v>694</v>
@@ -10993,7 +11010,7 @@
         <v>665</v>
       </c>
       <c r="D159" s="8" t="s">
-        <v>1212</v>
+        <v>1205</v>
       </c>
       <c r="E159" s="8" t="s">
         <v>671</v>
@@ -11028,7 +11045,7 @@
         <v>665</v>
       </c>
       <c r="D160" s="8" t="s">
-        <v>1213</v>
+        <v>1206</v>
       </c>
       <c r="E160" s="8" t="s">
         <v>675</v>
@@ -11060,7 +11077,7 @@
         <v>665</v>
       </c>
       <c r="D161" s="8" t="s">
-        <v>1214</v>
+        <v>1207</v>
       </c>
       <c r="E161" s="8" t="s">
         <v>679</v>
@@ -11092,7 +11109,7 @@
         <v>665</v>
       </c>
       <c r="D162" s="8" t="s">
-        <v>1215</v>
+        <v>1208</v>
       </c>
       <c r="E162" s="8" t="s">
         <v>683</v>
@@ -11109,8 +11126,8 @@
       <c r="J162" s="6" t="s">
         <v>964</v>
       </c>
-      <c r="K162" s="8" t="s">
-        <v>911</v>
+      <c r="K162" t="s">
+        <v>1012</v>
       </c>
     </row>
     <row r="163" spans="1:27" ht="285" x14ac:dyDescent="0.25">
@@ -11124,7 +11141,7 @@
         <v>665</v>
       </c>
       <c r="D163" s="8" t="s">
-        <v>1216</v>
+        <v>1209</v>
       </c>
       <c r="E163" s="8" t="s">
         <v>687</v>
@@ -11141,8 +11158,8 @@
       <c r="J163" s="6" t="s">
         <v>964</v>
       </c>
-      <c r="K163" s="8" t="s">
-        <v>911</v>
+      <c r="K163" t="s">
+        <v>1012</v>
       </c>
     </row>
     <row r="164" spans="1:27" ht="315" x14ac:dyDescent="0.25">
@@ -11156,7 +11173,7 @@
         <v>665</v>
       </c>
       <c r="D164" s="8" t="s">
-        <v>1217</v>
+        <v>1210</v>
       </c>
       <c r="E164" s="8" t="s">
         <v>691</v>
@@ -11173,8 +11190,8 @@
       <c r="J164" s="6" t="s">
         <v>964</v>
       </c>
-      <c r="K164" s="8" t="s">
-        <v>911</v>
+      <c r="K164" t="s">
+        <v>1012</v>
       </c>
     </row>
     <row r="165" spans="1:27" ht="150" x14ac:dyDescent="0.25">
@@ -11188,7 +11205,7 @@
         <v>699</v>
       </c>
       <c r="D165" s="8" t="s">
-        <v>1218</v>
+        <v>1211</v>
       </c>
       <c r="E165" s="8" t="s">
         <v>700</v>
@@ -11220,7 +11237,7 @@
         <v>699</v>
       </c>
       <c r="D166" s="8" t="s">
-        <v>1219</v>
+        <v>1212</v>
       </c>
       <c r="E166" s="8" t="s">
         <v>704</v>
@@ -11252,7 +11269,7 @@
         <v>699</v>
       </c>
       <c r="D167" s="8" t="s">
-        <v>1220</v>
+        <v>1213</v>
       </c>
       <c r="E167" s="8" t="s">
         <v>707</v>
@@ -11284,7 +11301,7 @@
         <v>699</v>
       </c>
       <c r="D168" s="8" t="s">
-        <v>1221</v>
+        <v>1214</v>
       </c>
       <c r="E168" s="8" t="s">
         <v>710</v>
@@ -11316,7 +11333,7 @@
         <v>713</v>
       </c>
       <c r="D169" s="8" t="s">
-        <v>1222</v>
+        <v>1215</v>
       </c>
       <c r="E169" s="8" t="s">
         <v>714</v>
@@ -11334,10 +11351,10 @@
         <v>964</v>
       </c>
       <c r="K169" t="s">
-        <v>1230</v>
+        <v>1223</v>
       </c>
       <c r="L169" s="20" t="s">
-        <v>1223</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="170" spans="1:27" ht="225" x14ac:dyDescent="0.25">
@@ -11351,7 +11368,7 @@
         <v>713</v>
       </c>
       <c r="D170" s="8" t="s">
-        <v>1224</v>
+        <v>1217</v>
       </c>
       <c r="E170" s="8" t="s">
         <v>718</v>
@@ -11368,8 +11385,8 @@
       <c r="J170" s="6" t="s">
         <v>964</v>
       </c>
-      <c r="K170" s="6" t="s">
-        <v>911</v>
+      <c r="K170" t="s">
+        <v>1012</v>
       </c>
     </row>
     <row r="171" spans="1:27" ht="270" x14ac:dyDescent="0.25">
@@ -11383,7 +11400,7 @@
         <v>713</v>
       </c>
       <c r="D171" s="8" t="s">
-        <v>1225</v>
+        <v>1218</v>
       </c>
       <c r="E171" s="8" t="s">
         <v>722</v>
@@ -11400,8 +11417,8 @@
       <c r="J171" s="6" t="s">
         <v>964</v>
       </c>
-      <c r="K171" s="6" t="s">
-        <v>911</v>
+      <c r="K171" t="s">
+        <v>1223</v>
       </c>
     </row>
     <row r="172" spans="1:27" ht="285.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11415,7 +11432,7 @@
         <v>713</v>
       </c>
       <c r="D172" s="8" t="s">
-        <v>1226</v>
+        <v>1219</v>
       </c>
       <c r="E172" s="8" t="s">
         <v>726</v>
@@ -11432,8 +11449,8 @@
       <c r="J172" s="6" t="s">
         <v>964</v>
       </c>
-      <c r="K172" s="6" t="s">
-        <v>911</v>
+      <c r="K172" t="s">
+        <v>1012</v>
       </c>
     </row>
     <row r="173" spans="1:27" ht="195.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11447,7 +11464,7 @@
         <v>713</v>
       </c>
       <c r="D173" s="8" t="s">
-        <v>1227</v>
+        <v>1220</v>
       </c>
       <c r="E173" s="10" t="s">
         <v>731</v>
@@ -11465,8 +11482,8 @@
       <c r="J173" s="23" t="s">
         <v>964</v>
       </c>
-      <c r="K173" s="23" t="s">
-        <v>911</v>
+      <c r="K173" t="s">
+        <v>1012</v>
       </c>
       <c r="L173" s="23"/>
       <c r="M173" s="11"/>
@@ -11496,7 +11513,7 @@
         <v>735</v>
       </c>
       <c r="D174" s="8" t="s">
-        <v>1228</v>
+        <v>1221</v>
       </c>
       <c r="E174" s="14" t="s">
         <v>748</v>
@@ -11545,7 +11562,7 @@
         <v>753</v>
       </c>
       <c r="D175" s="8" t="s">
-        <v>1001</v>
+        <v>1224</v>
       </c>
       <c r="E175" s="8" t="s">
         <v>754</v>
@@ -11580,7 +11597,7 @@
         <v>753</v>
       </c>
       <c r="D176" s="8" t="s">
-        <v>1002</v>
+        <v>1225</v>
       </c>
       <c r="E176" s="8" t="s">
         <v>759</v>
@@ -11618,7 +11635,7 @@
         <v>753</v>
       </c>
       <c r="D177" s="8" t="s">
-        <v>1107</v>
+        <v>1226</v>
       </c>
       <c r="E177" s="8" t="s">
         <v>764</v>
@@ -11639,7 +11656,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="178" spans="1:12" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:12" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A178" s="6" t="s">
         <v>763</v>
       </c>
@@ -11650,7 +11667,7 @@
         <v>753</v>
       </c>
       <c r="D178" s="8" t="s">
-        <v>1103</v>
+        <v>1228</v>
       </c>
       <c r="E178" s="8" t="s">
         <v>768</v>
@@ -11659,7 +11676,7 @@
         <v>38</v>
       </c>
       <c r="G178" s="13" t="s">
-        <v>765</v>
+        <v>1227</v>
       </c>
       <c r="I178" s="2" t="s">
         <v>766</v>
@@ -11682,7 +11699,7 @@
         <v>753</v>
       </c>
       <c r="D179" s="8" t="s">
-        <v>1103</v>
+        <v>1229</v>
       </c>
       <c r="E179" s="8" t="s">
         <v>768</v>
@@ -11715,7 +11732,7 @@
         <v>753</v>
       </c>
       <c r="D180" s="8" t="s">
-        <v>1103</v>
+        <v>1230</v>
       </c>
       <c r="E180" s="8" t="s">
         <v>768</v>
@@ -11748,7 +11765,7 @@
         <v>753</v>
       </c>
       <c r="D181" s="8" t="s">
-        <v>1108</v>
+        <v>1231</v>
       </c>
       <c r="E181" s="8" t="s">
         <v>776</v>
@@ -11780,7 +11797,7 @@
         <v>805</v>
       </c>
       <c r="D182" s="8" t="s">
-        <v>1105</v>
+        <v>1232</v>
       </c>
       <c r="E182" s="8" t="s">
         <v>806</v>
@@ -11801,7 +11818,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="183" spans="1:12" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A183" s="6" t="s">
         <v>780</v>
       </c>
@@ -11812,7 +11829,7 @@
         <v>805</v>
       </c>
       <c r="D183" s="8" t="s">
-        <v>1110</v>
+        <v>1233</v>
       </c>
       <c r="E183" s="8" t="s">
         <v>809</v>
@@ -11844,7 +11861,7 @@
         <v>805</v>
       </c>
       <c r="D184" s="8" t="s">
-        <v>1111</v>
+        <v>1234</v>
       </c>
       <c r="E184" s="8" t="s">
         <v>814</v>
@@ -11876,7 +11893,7 @@
         <v>805</v>
       </c>
       <c r="D185" s="8" t="s">
-        <v>1112</v>
+        <v>1235</v>
       </c>
       <c r="E185" s="8" t="s">
         <v>826</v>
@@ -11908,7 +11925,7 @@
         <v>805</v>
       </c>
       <c r="D186" s="8" t="s">
-        <v>1124</v>
+        <v>1117</v>
       </c>
       <c r="E186" s="8" t="s">
         <v>820</v>
@@ -11943,7 +11960,7 @@
         <v>805</v>
       </c>
       <c r="D187" s="8" t="s">
-        <v>1113</v>
+        <v>1106</v>
       </c>
       <c r="E187" s="8" t="s">
         <v>823</v>
@@ -11975,7 +11992,7 @@
         <v>805</v>
       </c>
       <c r="D188" s="8" t="s">
-        <v>1114</v>
+        <v>1107</v>
       </c>
       <c r="E188" s="8" t="s">
         <v>830</v>
@@ -12007,7 +12024,7 @@
         <v>805</v>
       </c>
       <c r="D189" s="8" t="s">
-        <v>1115</v>
+        <v>1108</v>
       </c>
       <c r="E189" s="8" t="s">
         <v>837</v>
@@ -12039,7 +12056,7 @@
         <v>805</v>
       </c>
       <c r="D190" s="8" t="s">
-        <v>1116</v>
+        <v>1109</v>
       </c>
       <c r="E190" s="8" t="s">
         <v>838</v>
@@ -12071,7 +12088,7 @@
         <v>805</v>
       </c>
       <c r="D191" s="8" t="s">
-        <v>1117</v>
+        <v>1110</v>
       </c>
       <c r="E191" s="8" t="s">
         <v>842</v>
@@ -12103,7 +12120,7 @@
         <v>805</v>
       </c>
       <c r="D192" s="8" t="s">
-        <v>1125</v>
+        <v>1118</v>
       </c>
       <c r="E192" s="8" t="s">
         <v>846</v>
@@ -12135,7 +12152,7 @@
         <v>805</v>
       </c>
       <c r="D193" s="8" t="s">
-        <v>1126</v>
+        <v>1119</v>
       </c>
       <c r="E193" s="8" t="s">
         <v>850</v>
@@ -12167,7 +12184,7 @@
         <v>805</v>
       </c>
       <c r="D194" s="8" t="s">
-        <v>1118</v>
+        <v>1111</v>
       </c>
       <c r="E194" s="8" t="s">
         <v>855</v>
@@ -12199,7 +12216,7 @@
         <v>805</v>
       </c>
       <c r="D195" s="8" t="s">
-        <v>1115</v>
+        <v>1108</v>
       </c>
       <c r="E195" s="8" t="s">
         <v>862</v>
@@ -12324,7 +12341,7 @@
         <v>874</v>
       </c>
       <c r="D199" s="8" t="s">
-        <v>1119</v>
+        <v>1112</v>
       </c>
       <c r="E199" s="8" t="s">
         <v>879</v>
@@ -12356,7 +12373,7 @@
         <v>875</v>
       </c>
       <c r="D200" s="8" t="s">
-        <v>1120</v>
+        <v>1113</v>
       </c>
       <c r="E200" s="8" t="s">
         <v>876</v>
@@ -12388,7 +12405,7 @@
         <v>885</v>
       </c>
       <c r="D201" s="8" t="s">
-        <v>1121</v>
+        <v>1114</v>
       </c>
       <c r="E201" s="8" t="s">
         <v>886</v>
@@ -12438,7 +12455,7 @@
         <v>970</v>
       </c>
       <c r="M202" t="s">
-        <v>1229</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="203" spans="1:13" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -12452,7 +12469,7 @@
         <v>736</v>
       </c>
       <c r="D203" s="8" t="s">
-        <v>1123</v>
+        <v>1116</v>
       </c>
       <c r="E203" s="8" t="s">
         <v>741</v>
@@ -12476,7 +12493,7 @@
         <v>969</v>
       </c>
       <c r="M203" t="s">
-        <v>1229</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="204" spans="1:13" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -12511,7 +12528,7 @@
         <v>960</v>
       </c>
       <c r="M204" t="s">
-        <v>1229</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="205" spans="1:13" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -12525,7 +12542,7 @@
         <v>779</v>
       </c>
       <c r="D205" s="8" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="E205" s="6" t="s">
         <v>786</v>
@@ -12546,7 +12563,7 @@
         <v>911</v>
       </c>
       <c r="M205" t="s">
-        <v>1229</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="206" spans="1:13" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -12560,7 +12577,7 @@
         <v>784</v>
       </c>
       <c r="D206" s="8" t="s">
-        <v>1109</v>
+        <v>1105</v>
       </c>
       <c r="E206" s="6" t="s">
         <v>785</v>
@@ -12581,7 +12598,7 @@
         <v>911</v>
       </c>
       <c r="M206" t="s">
-        <v>1229</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="207" spans="1:13" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -12616,7 +12633,7 @@
         <v>961</v>
       </c>
       <c r="M207" t="s">
-        <v>1229</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="208" spans="1:13" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -12651,7 +12668,7 @@
         <v>961</v>
       </c>
       <c r="M208" t="s">
-        <v>1229</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="209" spans="1:13" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -12689,7 +12706,7 @@
         <v>961</v>
       </c>
       <c r="M209" t="s">
-        <v>1229</v>
+        <v>1222</v>
       </c>
     </row>
   </sheetData>
@@ -12708,17 +12725,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="20.85546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="11.28515625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="16.85546875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="17.5703125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="31.85546875" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="29.0" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="37.5703125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="26.140625" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="37.5703125" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="12.5703125" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="19.7109375" collapsed="true"/>
+    <col min="1" max="1" width="20.85546875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11.28515625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="16.85546875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="17.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="31.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="29" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="37.5703125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="26.140625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="37.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="12.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="19.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">

--- a/Advantage Test Cases.xlsx
+++ b/Advantage Test Cases.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3972" uniqueCount="1236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3974" uniqueCount="1239">
   <si>
     <t>Test Objective</t>
   </si>
@@ -5074,24 +5074,6 @@
     <t>ft_ViewofLessonplan</t>
   </si>
   <si>
-    <t>fe_ViewTheofStudent'slearning</t>
-  </si>
-  <si>
-    <t>fe_ViewAllTheTestsWithinofDaterange</t>
-  </si>
-  <si>
-    <t>fe_ViewofSubmissiondetails</t>
-  </si>
-  <si>
-    <t>fe_SaveRemarkFeedbackForTheofTestactivity)</t>
-  </si>
-  <si>
-    <t>fe_ViewofTestreport</t>
-  </si>
-  <si>
-    <t>fe_ViewAllTheAssignmentsWithinofDaterange</t>
-  </si>
-  <si>
     <t>f _MarksEntryLinkofInheader</t>
   </si>
   <si>
@@ -5105,15 +5087,6 @@
   </si>
   <si>
     <t>fL_ViewLessonsPlannedForTheWeek</t>
-  </si>
-  <si>
-    <t>fe_ViewTheStudentResourceMarkingReport</t>
-  </si>
-  <si>
-    <t>fe_EvaluateTheRespectiveTest</t>
-  </si>
-  <si>
-    <t>fe_UploadingWorksheet</t>
   </si>
   <si>
     <t>fn_ViewOverallPerformanceandStudentSubmissionStatusReport</t>
@@ -5491,7 +5464,43 @@
     <t>fn_ViewAllActivitiesforSpecifieddates</t>
   </si>
   <si>
-    <t>fe_ViewAllLearningMaterialsforSpecifieddates</t>
+    <t>fn_ViewAllLearningMaterialsforSpecifieddates</t>
+  </si>
+  <si>
+    <t>fn_ViewStudentResourceMarkingReport</t>
+  </si>
+  <si>
+    <t>fn_ViewStudentsLearning</t>
+  </si>
+  <si>
+    <t>fn_ViewTestsforSpecifiedDaterange</t>
+  </si>
+  <si>
+    <t>fn_ViewStudentSubmissiondetails</t>
+  </si>
+  <si>
+    <t>fn_SaveRemarkFeedbackofTest</t>
+  </si>
+  <si>
+    <t>fn_ViewTestReport</t>
+  </si>
+  <si>
+    <t>fn_EvaluateRespectiveTest</t>
+  </si>
+  <si>
+    <t>fn_UploadingWorksheet</t>
+  </si>
+  <si>
+    <t>fn_ViewAssignmentsWithinSpecifiedDaterange</t>
+  </si>
+  <si>
+    <t>fn_ViewAssignmentSubmissionDetails</t>
+  </si>
+  <si>
+    <t>fn_ViewAssignmentSubmissionsandResponses</t>
+  </si>
+  <si>
+    <t>fn_DownloadAssignmentSubmittedResources</t>
   </si>
 </sst>
 </file>
@@ -5969,8 +5978,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA209"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A182" workbookViewId="0">
-      <selection activeCell="D185" sqref="D185"/>
+    <sheetView tabSelected="1" topLeftCell="A197" workbookViewId="0">
+      <selection activeCell="D197" sqref="D197"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8616,7 +8625,7 @@
         <v>347</v>
       </c>
       <c r="D84" s="8" t="s">
-        <v>1115</v>
+        <v>1109</v>
       </c>
       <c r="E84" s="8" t="s">
         <v>355</v>
@@ -8648,7 +8657,7 @@
         <v>347</v>
       </c>
       <c r="D85" s="8" t="s">
-        <v>1120</v>
+        <v>1111</v>
       </c>
       <c r="E85" s="8" t="s">
         <v>360</v>
@@ -8680,7 +8689,7 @@
         <v>347</v>
       </c>
       <c r="D86" s="8" t="s">
-        <v>1121</v>
+        <v>1112</v>
       </c>
       <c r="E86" s="8" t="s">
         <v>364</v>
@@ -8712,7 +8721,7 @@
         <v>368</v>
       </c>
       <c r="D87" s="8" t="s">
-        <v>1122</v>
+        <v>1113</v>
       </c>
       <c r="E87" s="8" t="s">
         <v>370</v>
@@ -8744,7 +8753,7 @@
         <v>368</v>
       </c>
       <c r="D88" s="8" t="s">
-        <v>1123</v>
+        <v>1114</v>
       </c>
       <c r="E88" s="8" t="s">
         <v>374</v>
@@ -8774,7 +8783,7 @@
         <v>377</v>
       </c>
       <c r="D89" s="8" t="s">
-        <v>1124</v>
+        <v>1115</v>
       </c>
       <c r="E89" s="8" t="s">
         <v>382</v>
@@ -8803,7 +8812,7 @@
         <v>381</v>
       </c>
       <c r="D90" s="8" t="s">
-        <v>1125</v>
+        <v>1116</v>
       </c>
       <c r="E90" s="8" t="s">
         <v>384</v>
@@ -8835,7 +8844,7 @@
         <v>381</v>
       </c>
       <c r="D91" s="8" t="s">
-        <v>1126</v>
+        <v>1117</v>
       </c>
       <c r="E91" s="8" t="s">
         <v>386</v>
@@ -8867,7 +8876,7 @@
         <v>381</v>
       </c>
       <c r="D92" s="8" t="s">
-        <v>1127</v>
+        <v>1118</v>
       </c>
       <c r="E92" s="8" t="s">
         <v>390</v>
@@ -8899,7 +8908,7 @@
         <v>381</v>
       </c>
       <c r="D93" s="8" t="s">
-        <v>1128</v>
+        <v>1119</v>
       </c>
       <c r="E93" s="8" t="s">
         <v>394</v>
@@ -8931,7 +8940,7 @@
         <v>381</v>
       </c>
       <c r="D94" s="8" t="s">
-        <v>1129</v>
+        <v>1120</v>
       </c>
       <c r="E94" s="8" t="s">
         <v>398</v>
@@ -8963,7 +8972,7 @@
         <v>381</v>
       </c>
       <c r="D95" s="8" t="s">
-        <v>1130</v>
+        <v>1121</v>
       </c>
       <c r="E95" s="8" t="s">
         <v>403</v>
@@ -8995,7 +9004,7 @@
         <v>381</v>
       </c>
       <c r="D96" s="8" t="s">
-        <v>1131</v>
+        <v>1122</v>
       </c>
       <c r="E96" s="8" t="s">
         <v>407</v>
@@ -9027,7 +9036,7 @@
         <v>414</v>
       </c>
       <c r="D97" s="8" t="s">
-        <v>1132</v>
+        <v>1123</v>
       </c>
       <c r="E97" s="8" t="s">
         <v>412</v>
@@ -9059,7 +9068,7 @@
         <v>414</v>
       </c>
       <c r="D98" s="8" t="s">
-        <v>1133</v>
+        <v>1124</v>
       </c>
       <c r="E98" s="8" t="s">
         <v>416</v>
@@ -9091,7 +9100,7 @@
         <v>425</v>
       </c>
       <c r="D99" s="8" t="s">
-        <v>1134</v>
+        <v>1125</v>
       </c>
       <c r="E99" s="8" t="s">
         <v>424</v>
@@ -9123,7 +9132,7 @@
         <v>422</v>
       </c>
       <c r="D100" s="8" t="s">
-        <v>1135</v>
+        <v>1126</v>
       </c>
       <c r="E100" s="8" t="s">
         <v>427</v>
@@ -9155,7 +9164,7 @@
         <v>422</v>
       </c>
       <c r="D101" s="8" t="s">
-        <v>1136</v>
+        <v>1127</v>
       </c>
       <c r="E101" s="8" t="s">
         <v>429</v>
@@ -9176,7 +9185,7 @@
         <v>1012</v>
       </c>
       <c r="L101" s="8" t="s">
-        <v>1137</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="102" spans="1:12" ht="195" x14ac:dyDescent="0.25">
@@ -9190,7 +9199,7 @@
         <v>422</v>
       </c>
       <c r="D102" s="8" t="s">
-        <v>1138</v>
+        <v>1129</v>
       </c>
       <c r="E102" s="8" t="s">
         <v>436</v>
@@ -9222,7 +9231,7 @@
         <v>422</v>
       </c>
       <c r="D103" s="8" t="s">
-        <v>1139</v>
+        <v>1130</v>
       </c>
       <c r="E103" s="8" t="s">
         <v>438</v>
@@ -9251,7 +9260,7 @@
         <v>442</v>
       </c>
       <c r="D104" s="8" t="s">
-        <v>1140</v>
+        <v>1131</v>
       </c>
       <c r="E104" s="6" t="s">
         <v>443</v>
@@ -9283,7 +9292,7 @@
         <v>442</v>
       </c>
       <c r="D105" s="8" t="s">
-        <v>1141</v>
+        <v>1132</v>
       </c>
       <c r="E105" s="8" t="s">
         <v>446</v>
@@ -9315,7 +9324,7 @@
         <v>442</v>
       </c>
       <c r="D106" s="8" t="s">
-        <v>1142</v>
+        <v>1133</v>
       </c>
       <c r="E106" s="8" t="s">
         <v>451</v>
@@ -9347,7 +9356,7 @@
         <v>442</v>
       </c>
       <c r="D107" s="8" t="s">
-        <v>1143</v>
+        <v>1134</v>
       </c>
       <c r="E107" s="8" t="s">
         <v>455</v>
@@ -9376,7 +9385,7 @@
         <v>458</v>
       </c>
       <c r="D108" s="8" t="s">
-        <v>1144</v>
+        <v>1135</v>
       </c>
       <c r="E108" s="6" t="s">
         <v>460</v>
@@ -9405,7 +9414,7 @@
         <v>458</v>
       </c>
       <c r="D109" s="8" t="s">
-        <v>1145</v>
+        <v>1136</v>
       </c>
       <c r="E109" s="8" t="s">
         <v>620</v>
@@ -9434,7 +9443,7 @@
         <v>458</v>
       </c>
       <c r="D110" s="8" t="s">
-        <v>1146</v>
+        <v>1137</v>
       </c>
       <c r="E110" s="8" t="s">
         <v>621</v>
@@ -9463,7 +9472,7 @@
         <v>464</v>
       </c>
       <c r="D111" s="8" t="s">
-        <v>1147</v>
+        <v>1138</v>
       </c>
       <c r="E111" s="8" t="s">
         <v>465</v>
@@ -9489,10 +9498,10 @@
         <v>411</v>
       </c>
       <c r="C112" s="8" t="s">
-        <v>1150</v>
+        <v>1141</v>
       </c>
       <c r="D112" s="8" t="s">
-        <v>1149</v>
+        <v>1140</v>
       </c>
       <c r="E112" s="8"/>
       <c r="G112" s="2"/>
@@ -9512,7 +9521,7 @@
         <v>468</v>
       </c>
       <c r="D113" s="8" t="s">
-        <v>1148</v>
+        <v>1139</v>
       </c>
       <c r="E113" s="8" t="s">
         <v>471</v>
@@ -9541,7 +9550,7 @@
         <v>472</v>
       </c>
       <c r="D114" s="8" t="s">
-        <v>1151</v>
+        <v>1142</v>
       </c>
       <c r="E114" s="8" t="s">
         <v>474</v>
@@ -9570,7 +9579,7 @@
         <v>481</v>
       </c>
       <c r="D115" s="8" t="s">
-        <v>1152</v>
+        <v>1143</v>
       </c>
       <c r="E115" s="8" t="s">
         <v>424</v>
@@ -9602,7 +9611,7 @@
         <v>477</v>
       </c>
       <c r="D116" s="8" t="s">
-        <v>1153</v>
+        <v>1144</v>
       </c>
       <c r="E116" s="8" t="s">
         <v>478</v>
@@ -9634,7 +9643,7 @@
         <v>486</v>
       </c>
       <c r="D117" s="8" t="s">
-        <v>1154</v>
+        <v>1145</v>
       </c>
       <c r="E117" s="8" t="s">
         <v>487</v>
@@ -9666,7 +9675,7 @@
         <v>490</v>
       </c>
       <c r="D118" s="8" t="s">
-        <v>1155</v>
+        <v>1146</v>
       </c>
       <c r="E118" s="8" t="s">
         <v>491</v>
@@ -9698,7 +9707,7 @@
         <v>490</v>
       </c>
       <c r="D119" s="8" t="s">
-        <v>1156</v>
+        <v>1147</v>
       </c>
       <c r="E119" s="8" t="s">
         <v>495</v>
@@ -9730,7 +9739,7 @@
         <v>498</v>
       </c>
       <c r="D120" s="8" t="s">
-        <v>1157</v>
+        <v>1148</v>
       </c>
       <c r="E120" s="8" t="s">
         <v>500</v>
@@ -9765,7 +9774,7 @@
         <v>498</v>
       </c>
       <c r="D121" s="8" t="s">
-        <v>1158</v>
+        <v>1149</v>
       </c>
       <c r="E121" s="8" t="s">
         <v>505</v>
@@ -9797,7 +9806,7 @@
         <v>498</v>
       </c>
       <c r="D122" s="8" t="s">
-        <v>1159</v>
+        <v>1150</v>
       </c>
       <c r="E122" s="8" t="s">
         <v>508</v>
@@ -9833,7 +9842,7 @@
         <v>498</v>
       </c>
       <c r="D123" s="8" t="s">
-        <v>1160</v>
+        <v>1151</v>
       </c>
       <c r="E123" s="8" t="s">
         <v>513</v>
@@ -9866,7 +9875,7 @@
         <v>498</v>
       </c>
       <c r="D124" s="8" t="s">
-        <v>1161</v>
+        <v>1152</v>
       </c>
       <c r="E124" s="8" t="s">
         <v>521</v>
@@ -9885,7 +9894,7 @@
         <v>1012</v>
       </c>
       <c r="L124" s="20" t="s">
-        <v>1162</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="125" spans="1:12" ht="315" x14ac:dyDescent="0.25">
@@ -9896,22 +9905,22 @@
         <v>411</v>
       </c>
       <c r="C125" s="8" t="s">
-        <v>1164</v>
+        <v>1155</v>
       </c>
       <c r="D125" s="8" t="s">
-        <v>1165</v>
+        <v>1156</v>
       </c>
       <c r="E125" s="8" t="s">
-        <v>1166</v>
+        <v>1157</v>
       </c>
       <c r="F125" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>1171</v>
+        <v>1162</v>
       </c>
       <c r="H125" s="2" t="s">
-        <v>1167</v>
+        <v>1158</v>
       </c>
       <c r="I125" s="2" t="s">
         <v>502</v>
@@ -9934,7 +9943,7 @@
         <v>498</v>
       </c>
       <c r="D126" s="8" t="s">
-        <v>1168</v>
+        <v>1159</v>
       </c>
       <c r="E126" s="8" t="s">
         <v>505</v>
@@ -9966,7 +9975,7 @@
         <v>498</v>
       </c>
       <c r="D127" s="8" t="s">
-        <v>1169</v>
+        <v>1160</v>
       </c>
       <c r="E127" s="8" t="s">
         <v>508</v>
@@ -9975,7 +9984,7 @@
         <v>38</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>1170</v>
+        <v>1161</v>
       </c>
       <c r="H127" s="2"/>
       <c r="I127" s="2" t="s">
@@ -10002,7 +10011,7 @@
         <v>498</v>
       </c>
       <c r="D128" s="8" t="s">
-        <v>1172</v>
+        <v>1163</v>
       </c>
       <c r="E128" s="8" t="s">
         <v>513</v>
@@ -10035,7 +10044,7 @@
         <v>498</v>
       </c>
       <c r="D129" s="8" t="s">
-        <v>1174</v>
+        <v>1165</v>
       </c>
       <c r="E129" s="8" t="s">
         <v>521</v>
@@ -10054,7 +10063,7 @@
         <v>911</v>
       </c>
       <c r="L129" s="20" t="s">
-        <v>1162</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="130" spans="1:12" ht="375" x14ac:dyDescent="0.25">
@@ -10068,7 +10077,7 @@
         <v>540</v>
       </c>
       <c r="D130" s="8" t="s">
-        <v>1163</v>
+        <v>1154</v>
       </c>
       <c r="E130" s="8" t="s">
         <v>543</v>
@@ -10100,7 +10109,7 @@
         <v>540</v>
       </c>
       <c r="D131" s="8" t="s">
-        <v>1175</v>
+        <v>1166</v>
       </c>
       <c r="E131" s="8" t="s">
         <v>548</v>
@@ -10133,7 +10142,7 @@
         <v>552</v>
       </c>
       <c r="D132" s="8" t="s">
-        <v>1176</v>
+        <v>1167</v>
       </c>
       <c r="E132" s="8" t="s">
         <v>553</v>
@@ -10154,7 +10163,7 @@
         <v>1012</v>
       </c>
       <c r="L132" s="20" t="s">
-        <v>1173</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="133" spans="1:12" ht="165" x14ac:dyDescent="0.25">
@@ -10168,7 +10177,7 @@
         <v>552</v>
       </c>
       <c r="D133" s="8" t="s">
-        <v>1177</v>
+        <v>1168</v>
       </c>
       <c r="E133" s="8" t="s">
         <v>557</v>
@@ -10200,7 +10209,7 @@
         <v>561</v>
       </c>
       <c r="D134" s="8" t="s">
-        <v>1178</v>
+        <v>1169</v>
       </c>
       <c r="E134" s="8" t="s">
         <v>562</v>
@@ -10232,7 +10241,7 @@
         <v>561</v>
       </c>
       <c r="D135" s="8" t="s">
-        <v>1179</v>
+        <v>1170</v>
       </c>
       <c r="E135" s="8" t="s">
         <v>565</v>
@@ -10264,7 +10273,7 @@
         <v>561</v>
       </c>
       <c r="D136" s="8" t="s">
-        <v>1180</v>
+        <v>1171</v>
       </c>
       <c r="E136" s="8" t="s">
         <v>568</v>
@@ -10296,7 +10305,7 @@
         <v>561</v>
       </c>
       <c r="D137" s="8" t="s">
-        <v>1181</v>
+        <v>1172</v>
       </c>
       <c r="E137" s="8" t="s">
         <v>572</v>
@@ -10328,7 +10337,7 @@
         <v>561</v>
       </c>
       <c r="D138" s="8" t="s">
-        <v>1182</v>
+        <v>1173</v>
       </c>
       <c r="E138" s="8" t="s">
         <v>576</v>
@@ -10360,7 +10369,7 @@
         <v>581</v>
       </c>
       <c r="D139" s="8" t="s">
-        <v>1183</v>
+        <v>1174</v>
       </c>
       <c r="E139" s="6" t="s">
         <v>582</v>
@@ -10392,7 +10401,7 @@
         <v>581</v>
       </c>
       <c r="D140" s="8" t="s">
-        <v>1184</v>
+        <v>1175</v>
       </c>
       <c r="E140" s="8" t="s">
         <v>625</v>
@@ -10424,7 +10433,7 @@
         <v>581</v>
       </c>
       <c r="D141" s="8" t="s">
-        <v>1185</v>
+        <v>1176</v>
       </c>
       <c r="E141" s="8" t="s">
         <v>628</v>
@@ -10456,7 +10465,7 @@
         <v>581</v>
       </c>
       <c r="D142" s="8" t="s">
-        <v>1186</v>
+        <v>1177</v>
       </c>
       <c r="E142" s="8" t="s">
         <v>586</v>
@@ -10488,7 +10497,7 @@
         <v>594</v>
       </c>
       <c r="D143" s="8" t="s">
-        <v>1187</v>
+        <v>1178</v>
       </c>
       <c r="E143" s="8" t="s">
         <v>593</v>
@@ -10509,7 +10518,7 @@
         <v>1012</v>
       </c>
       <c r="L143" s="20" t="s">
-        <v>1197</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="144" spans="1:12" ht="180" x14ac:dyDescent="0.25">
@@ -10523,7 +10532,7 @@
         <v>595</v>
       </c>
       <c r="D144" s="8" t="s">
-        <v>1188</v>
+        <v>1179</v>
       </c>
       <c r="E144" s="8" t="s">
         <v>596</v>
@@ -10555,7 +10564,7 @@
         <v>595</v>
       </c>
       <c r="D145" s="8" t="s">
-        <v>1189</v>
+        <v>1180</v>
       </c>
       <c r="E145" s="8" t="s">
         <v>600</v>
@@ -10587,7 +10596,7 @@
         <v>595</v>
       </c>
       <c r="D146" s="8" t="s">
-        <v>1190</v>
+        <v>1181</v>
       </c>
       <c r="E146" s="8" t="s">
         <v>604</v>
@@ -10622,7 +10631,7 @@
         <v>595</v>
       </c>
       <c r="D147" s="8" t="s">
-        <v>1191</v>
+        <v>1182</v>
       </c>
       <c r="E147" s="8" t="s">
         <v>609</v>
@@ -10654,7 +10663,7 @@
         <v>595</v>
       </c>
       <c r="D148" s="8" t="s">
-        <v>1192</v>
+        <v>1183</v>
       </c>
       <c r="E148" s="8" t="s">
         <v>612</v>
@@ -10686,7 +10695,7 @@
         <v>617</v>
       </c>
       <c r="D149" s="8" t="s">
-        <v>1193</v>
+        <v>1184</v>
       </c>
       <c r="E149" s="6" t="s">
         <v>635</v>
@@ -10718,7 +10727,7 @@
         <v>617</v>
       </c>
       <c r="D150" s="8" t="s">
-        <v>1194</v>
+        <v>1185</v>
       </c>
       <c r="E150" s="8" t="s">
         <v>638</v>
@@ -10750,7 +10759,7 @@
         <v>617</v>
       </c>
       <c r="D151" s="8" t="s">
-        <v>1195</v>
+        <v>1186</v>
       </c>
       <c r="E151" s="6" t="s">
         <v>641</v>
@@ -10782,7 +10791,7 @@
         <v>617</v>
       </c>
       <c r="D152" s="8" t="s">
-        <v>1196</v>
+        <v>1187</v>
       </c>
       <c r="E152" s="8" t="s">
         <v>645</v>
@@ -10814,7 +10823,7 @@
         <v>617</v>
       </c>
       <c r="D153" s="8" t="s">
-        <v>1198</v>
+        <v>1189</v>
       </c>
       <c r="E153" s="8" t="s">
         <v>649</v>
@@ -10846,7 +10855,7 @@
         <v>617</v>
       </c>
       <c r="D154" s="8" t="s">
-        <v>1199</v>
+        <v>1190</v>
       </c>
       <c r="E154" s="8" t="s">
         <v>653</v>
@@ -10878,7 +10887,7 @@
         <v>617</v>
       </c>
       <c r="D155" s="8" t="s">
-        <v>1200</v>
+        <v>1191</v>
       </c>
       <c r="E155" s="8" t="s">
         <v>657</v>
@@ -10910,7 +10919,7 @@
         <v>617</v>
       </c>
       <c r="D156" s="8" t="s">
-        <v>1201</v>
+        <v>1192</v>
       </c>
       <c r="E156" s="8" t="s">
         <v>661</v>
@@ -10942,7 +10951,7 @@
         <v>665</v>
       </c>
       <c r="D157" s="8" t="s">
-        <v>1202</v>
+        <v>1193</v>
       </c>
       <c r="E157" s="8" t="s">
         <v>666</v>
@@ -10963,7 +10972,7 @@
         <v>1012</v>
       </c>
       <c r="L157" s="20" t="s">
-        <v>1203</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="158" spans="1:12" ht="195" x14ac:dyDescent="0.25">
@@ -10977,7 +10986,7 @@
         <v>665</v>
       </c>
       <c r="D158" s="8" t="s">
-        <v>1204</v>
+        <v>1195</v>
       </c>
       <c r="E158" s="8" t="s">
         <v>694</v>
@@ -11010,7 +11019,7 @@
         <v>665</v>
       </c>
       <c r="D159" s="8" t="s">
-        <v>1205</v>
+        <v>1196</v>
       </c>
       <c r="E159" s="8" t="s">
         <v>671</v>
@@ -11045,7 +11054,7 @@
         <v>665</v>
       </c>
       <c r="D160" s="8" t="s">
-        <v>1206</v>
+        <v>1197</v>
       </c>
       <c r="E160" s="8" t="s">
         <v>675</v>
@@ -11077,7 +11086,7 @@
         <v>665</v>
       </c>
       <c r="D161" s="8" t="s">
-        <v>1207</v>
+        <v>1198</v>
       </c>
       <c r="E161" s="8" t="s">
         <v>679</v>
@@ -11109,7 +11118,7 @@
         <v>665</v>
       </c>
       <c r="D162" s="8" t="s">
-        <v>1208</v>
+        <v>1199</v>
       </c>
       <c r="E162" s="8" t="s">
         <v>683</v>
@@ -11141,7 +11150,7 @@
         <v>665</v>
       </c>
       <c r="D163" s="8" t="s">
-        <v>1209</v>
+        <v>1200</v>
       </c>
       <c r="E163" s="8" t="s">
         <v>687</v>
@@ -11173,7 +11182,7 @@
         <v>665</v>
       </c>
       <c r="D164" s="8" t="s">
-        <v>1210</v>
+        <v>1201</v>
       </c>
       <c r="E164" s="8" t="s">
         <v>691</v>
@@ -11205,7 +11214,7 @@
         <v>699</v>
       </c>
       <c r="D165" s="8" t="s">
-        <v>1211</v>
+        <v>1202</v>
       </c>
       <c r="E165" s="8" t="s">
         <v>700</v>
@@ -11237,7 +11246,7 @@
         <v>699</v>
       </c>
       <c r="D166" s="8" t="s">
-        <v>1212</v>
+        <v>1203</v>
       </c>
       <c r="E166" s="8" t="s">
         <v>704</v>
@@ -11269,7 +11278,7 @@
         <v>699</v>
       </c>
       <c r="D167" s="8" t="s">
-        <v>1213</v>
+        <v>1204</v>
       </c>
       <c r="E167" s="8" t="s">
         <v>707</v>
@@ -11301,7 +11310,7 @@
         <v>699</v>
       </c>
       <c r="D168" s="8" t="s">
-        <v>1214</v>
+        <v>1205</v>
       </c>
       <c r="E168" s="8" t="s">
         <v>710</v>
@@ -11333,7 +11342,7 @@
         <v>713</v>
       </c>
       <c r="D169" s="8" t="s">
-        <v>1215</v>
+        <v>1206</v>
       </c>
       <c r="E169" s="8" t="s">
         <v>714</v>
@@ -11351,10 +11360,10 @@
         <v>964</v>
       </c>
       <c r="K169" t="s">
-        <v>1223</v>
+        <v>1214</v>
       </c>
       <c r="L169" s="20" t="s">
-        <v>1216</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="170" spans="1:27" ht="225" x14ac:dyDescent="0.25">
@@ -11368,7 +11377,7 @@
         <v>713</v>
       </c>
       <c r="D170" s="8" t="s">
-        <v>1217</v>
+        <v>1208</v>
       </c>
       <c r="E170" s="8" t="s">
         <v>718</v>
@@ -11400,7 +11409,7 @@
         <v>713</v>
       </c>
       <c r="D171" s="8" t="s">
-        <v>1218</v>
+        <v>1209</v>
       </c>
       <c r="E171" s="8" t="s">
         <v>722</v>
@@ -11418,7 +11427,7 @@
         <v>964</v>
       </c>
       <c r="K171" t="s">
-        <v>1223</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="172" spans="1:27" ht="285.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11432,7 +11441,7 @@
         <v>713</v>
       </c>
       <c r="D172" s="8" t="s">
-        <v>1219</v>
+        <v>1210</v>
       </c>
       <c r="E172" s="8" t="s">
         <v>726</v>
@@ -11464,7 +11473,7 @@
         <v>713</v>
       </c>
       <c r="D173" s="8" t="s">
-        <v>1220</v>
+        <v>1211</v>
       </c>
       <c r="E173" s="10" t="s">
         <v>731</v>
@@ -11513,7 +11522,7 @@
         <v>735</v>
       </c>
       <c r="D174" s="8" t="s">
-        <v>1221</v>
+        <v>1212</v>
       </c>
       <c r="E174" s="14" t="s">
         <v>748</v>
@@ -11531,8 +11540,8 @@
       <c r="J174" s="24" t="s">
         <v>964</v>
       </c>
-      <c r="K174" s="24" t="s">
-        <v>911</v>
+      <c r="K174" t="s">
+        <v>1012</v>
       </c>
       <c r="L174" s="24"/>
       <c r="M174" s="16"/>
@@ -11562,7 +11571,7 @@
         <v>753</v>
       </c>
       <c r="D175" s="8" t="s">
-        <v>1224</v>
+        <v>1215</v>
       </c>
       <c r="E175" s="8" t="s">
         <v>754</v>
@@ -11582,8 +11591,8 @@
       <c r="J175" s="25" t="s">
         <v>964</v>
       </c>
-      <c r="K175" s="25" t="s">
-        <v>911</v>
+      <c r="K175" t="s">
+        <v>1012</v>
       </c>
     </row>
     <row r="176" spans="1:27" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11597,7 +11606,7 @@
         <v>753</v>
       </c>
       <c r="D176" s="8" t="s">
-        <v>1225</v>
+        <v>1216</v>
       </c>
       <c r="E176" s="8" t="s">
         <v>759</v>
@@ -11635,7 +11644,7 @@
         <v>753</v>
       </c>
       <c r="D177" s="8" t="s">
-        <v>1226</v>
+        <v>1217</v>
       </c>
       <c r="E177" s="8" t="s">
         <v>764</v>
@@ -11667,7 +11676,7 @@
         <v>753</v>
       </c>
       <c r="D178" s="8" t="s">
-        <v>1228</v>
+        <v>1219</v>
       </c>
       <c r="E178" s="8" t="s">
         <v>768</v>
@@ -11676,7 +11685,7 @@
         <v>38</v>
       </c>
       <c r="G178" s="13" t="s">
-        <v>1227</v>
+        <v>1218</v>
       </c>
       <c r="I178" s="2" t="s">
         <v>766</v>
@@ -11699,7 +11708,7 @@
         <v>753</v>
       </c>
       <c r="D179" s="8" t="s">
-        <v>1229</v>
+        <v>1220</v>
       </c>
       <c r="E179" s="8" t="s">
         <v>768</v>
@@ -11732,7 +11741,7 @@
         <v>753</v>
       </c>
       <c r="D180" s="8" t="s">
-        <v>1230</v>
+        <v>1221</v>
       </c>
       <c r="E180" s="8" t="s">
         <v>768</v>
@@ -11765,7 +11774,7 @@
         <v>753</v>
       </c>
       <c r="D181" s="8" t="s">
-        <v>1231</v>
+        <v>1222</v>
       </c>
       <c r="E181" s="8" t="s">
         <v>776</v>
@@ -11797,7 +11806,7 @@
         <v>805</v>
       </c>
       <c r="D182" s="8" t="s">
-        <v>1232</v>
+        <v>1223</v>
       </c>
       <c r="E182" s="8" t="s">
         <v>806</v>
@@ -11829,7 +11838,7 @@
         <v>805</v>
       </c>
       <c r="D183" s="8" t="s">
-        <v>1233</v>
+        <v>1224</v>
       </c>
       <c r="E183" s="8" t="s">
         <v>809</v>
@@ -11861,7 +11870,7 @@
         <v>805</v>
       </c>
       <c r="D184" s="8" t="s">
-        <v>1234</v>
+        <v>1225</v>
       </c>
       <c r="E184" s="8" t="s">
         <v>814</v>
@@ -11893,7 +11902,7 @@
         <v>805</v>
       </c>
       <c r="D185" s="8" t="s">
-        <v>1235</v>
+        <v>1226</v>
       </c>
       <c r="E185" s="8" t="s">
         <v>826</v>
@@ -11925,7 +11934,7 @@
         <v>805</v>
       </c>
       <c r="D186" s="8" t="s">
-        <v>1117</v>
+        <v>1227</v>
       </c>
       <c r="E186" s="8" t="s">
         <v>820</v>
@@ -11960,7 +11969,7 @@
         <v>805</v>
       </c>
       <c r="D187" s="8" t="s">
-        <v>1106</v>
+        <v>1228</v>
       </c>
       <c r="E187" s="8" t="s">
         <v>823</v>
@@ -11992,7 +12001,7 @@
         <v>805</v>
       </c>
       <c r="D188" s="8" t="s">
-        <v>1107</v>
+        <v>1229</v>
       </c>
       <c r="E188" s="8" t="s">
         <v>830</v>
@@ -12024,7 +12033,7 @@
         <v>805</v>
       </c>
       <c r="D189" s="8" t="s">
-        <v>1108</v>
+        <v>1230</v>
       </c>
       <c r="E189" s="8" t="s">
         <v>837</v>
@@ -12056,7 +12065,7 @@
         <v>805</v>
       </c>
       <c r="D190" s="8" t="s">
-        <v>1109</v>
+        <v>1231</v>
       </c>
       <c r="E190" s="8" t="s">
         <v>838</v>
@@ -12088,7 +12097,7 @@
         <v>805</v>
       </c>
       <c r="D191" s="8" t="s">
-        <v>1110</v>
+        <v>1232</v>
       </c>
       <c r="E191" s="8" t="s">
         <v>842</v>
@@ -12120,7 +12129,7 @@
         <v>805</v>
       </c>
       <c r="D192" s="8" t="s">
-        <v>1118</v>
+        <v>1233</v>
       </c>
       <c r="E192" s="8" t="s">
         <v>846</v>
@@ -12152,7 +12161,7 @@
         <v>805</v>
       </c>
       <c r="D193" s="8" t="s">
-        <v>1119</v>
+        <v>1234</v>
       </c>
       <c r="E193" s="8" t="s">
         <v>850</v>
@@ -12184,7 +12193,7 @@
         <v>805</v>
       </c>
       <c r="D194" s="8" t="s">
-        <v>1111</v>
+        <v>1235</v>
       </c>
       <c r="E194" s="8" t="s">
         <v>855</v>
@@ -12216,7 +12225,7 @@
         <v>805</v>
       </c>
       <c r="D195" s="8" t="s">
-        <v>1108</v>
+        <v>1236</v>
       </c>
       <c r="E195" s="8" t="s">
         <v>862</v>
@@ -12247,6 +12256,9 @@
       <c r="C196" s="8" t="s">
         <v>805</v>
       </c>
+      <c r="D196" s="8" t="s">
+        <v>1237</v>
+      </c>
       <c r="E196" s="8" t="s">
         <v>863</v>
       </c>
@@ -12276,6 +12288,9 @@
       <c r="C197" s="8" t="s">
         <v>805</v>
       </c>
+      <c r="D197" s="8" t="s">
+        <v>1238</v>
+      </c>
       <c r="E197" s="8" t="s">
         <v>867</v>
       </c>
@@ -12341,7 +12356,7 @@
         <v>874</v>
       </c>
       <c r="D199" s="8" t="s">
-        <v>1112</v>
+        <v>1106</v>
       </c>
       <c r="E199" s="8" t="s">
         <v>879</v>
@@ -12373,7 +12388,7 @@
         <v>875</v>
       </c>
       <c r="D200" s="8" t="s">
-        <v>1113</v>
+        <v>1107</v>
       </c>
       <c r="E200" s="8" t="s">
         <v>876</v>
@@ -12405,7 +12420,7 @@
         <v>885</v>
       </c>
       <c r="D201" s="8" t="s">
-        <v>1114</v>
+        <v>1108</v>
       </c>
       <c r="E201" s="8" t="s">
         <v>886</v>
@@ -12455,7 +12470,7 @@
         <v>970</v>
       </c>
       <c r="M202" t="s">
-        <v>1222</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="203" spans="1:13" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -12469,7 +12484,7 @@
         <v>736</v>
       </c>
       <c r="D203" s="8" t="s">
-        <v>1116</v>
+        <v>1110</v>
       </c>
       <c r="E203" s="8" t="s">
         <v>741</v>
@@ -12493,7 +12508,7 @@
         <v>969</v>
       </c>
       <c r="M203" t="s">
-        <v>1222</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="204" spans="1:13" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -12528,7 +12543,7 @@
         <v>960</v>
       </c>
       <c r="M204" t="s">
-        <v>1222</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="205" spans="1:13" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -12563,7 +12578,7 @@
         <v>911</v>
       </c>
       <c r="M205" t="s">
-        <v>1222</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="206" spans="1:13" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -12598,7 +12613,7 @@
         <v>911</v>
       </c>
       <c r="M206" t="s">
-        <v>1222</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="207" spans="1:13" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -12633,7 +12648,7 @@
         <v>961</v>
       </c>
       <c r="M207" t="s">
-        <v>1222</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="208" spans="1:13" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -12668,7 +12683,7 @@
         <v>961</v>
       </c>
       <c r="M208" t="s">
-        <v>1222</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="209" spans="1:13" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -12706,7 +12721,7 @@
         <v>961</v>
       </c>
       <c r="M209" t="s">
-        <v>1222</v>
+        <v>1213</v>
       </c>
     </row>
   </sheetData>

--- a/Advantage Test Cases.xlsx
+++ b/Advantage Test Cases.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3974" uniqueCount="1239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3976" uniqueCount="1240">
   <si>
     <t>Test Objective</t>
   </si>
@@ -5074,12 +5074,6 @@
     <t>ft_ViewofLessonplan</t>
   </si>
   <si>
-    <t>f _MarksEntryLinkofInheader</t>
-  </si>
-  <si>
-    <t>f _FunctionalityToGradeStudentsOnReadingSkillsWritingSkillsSpeakingSkillsAndListeningSkillsAndAlsoToEnterTheMarksScoredInofTermtest</t>
-  </si>
-  <si>
     <t>f _MarksEntryFeatureIsEnabledOnlyofClassteacher</t>
   </si>
   <si>
@@ -5501,6 +5495,15 @@
   </si>
   <si>
     <t>fn_DownloadAssignmentSubmittedResources</t>
+  </si>
+  <si>
+    <t>fn_StudentAssignmentMarkingReport</t>
+  </si>
+  <si>
+    <t>fn_VisibilityofMarksEntryLink</t>
+  </si>
+  <si>
+    <t>fn_GradeStudents</t>
   </si>
 </sst>
 </file>
@@ -5978,8 +5981,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA209"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A197" workbookViewId="0">
-      <selection activeCell="D197" sqref="D197"/>
+    <sheetView tabSelected="1" topLeftCell="F199" workbookViewId="0">
+      <selection activeCell="K200" sqref="K200"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8625,7 +8628,7 @@
         <v>347</v>
       </c>
       <c r="D84" s="8" t="s">
-        <v>1109</v>
+        <v>1107</v>
       </c>
       <c r="E84" s="8" t="s">
         <v>355</v>
@@ -8657,7 +8660,7 @@
         <v>347</v>
       </c>
       <c r="D85" s="8" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="E85" s="8" t="s">
         <v>360</v>
@@ -8689,7 +8692,7 @@
         <v>347</v>
       </c>
       <c r="D86" s="8" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
       <c r="E86" s="8" t="s">
         <v>364</v>
@@ -8721,7 +8724,7 @@
         <v>368</v>
       </c>
       <c r="D87" s="8" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
       <c r="E87" s="8" t="s">
         <v>370</v>
@@ -8753,7 +8756,7 @@
         <v>368</v>
       </c>
       <c r="D88" s="8" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
       <c r="E88" s="8" t="s">
         <v>374</v>
@@ -8783,7 +8786,7 @@
         <v>377</v>
       </c>
       <c r="D89" s="8" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="E89" s="8" t="s">
         <v>382</v>
@@ -8812,7 +8815,7 @@
         <v>381</v>
       </c>
       <c r="D90" s="8" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
       <c r="E90" s="8" t="s">
         <v>384</v>
@@ -8844,7 +8847,7 @@
         <v>381</v>
       </c>
       <c r="D91" s="8" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="E91" s="8" t="s">
         <v>386</v>
@@ -8876,7 +8879,7 @@
         <v>381</v>
       </c>
       <c r="D92" s="8" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="E92" s="8" t="s">
         <v>390</v>
@@ -8908,7 +8911,7 @@
         <v>381</v>
       </c>
       <c r="D93" s="8" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
       <c r="E93" s="8" t="s">
         <v>394</v>
@@ -8940,7 +8943,7 @@
         <v>381</v>
       </c>
       <c r="D94" s="8" t="s">
-        <v>1120</v>
+        <v>1118</v>
       </c>
       <c r="E94" s="8" t="s">
         <v>398</v>
@@ -8972,7 +8975,7 @@
         <v>381</v>
       </c>
       <c r="D95" s="8" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="E95" s="8" t="s">
         <v>403</v>
@@ -9004,7 +9007,7 @@
         <v>381</v>
       </c>
       <c r="D96" s="8" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
       <c r="E96" s="8" t="s">
         <v>407</v>
@@ -9036,7 +9039,7 @@
         <v>414</v>
       </c>
       <c r="D97" s="8" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
       <c r="E97" s="8" t="s">
         <v>412</v>
@@ -9068,7 +9071,7 @@
         <v>414</v>
       </c>
       <c r="D98" s="8" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="E98" s="8" t="s">
         <v>416</v>
@@ -9100,7 +9103,7 @@
         <v>425</v>
       </c>
       <c r="D99" s="8" t="s">
-        <v>1125</v>
+        <v>1123</v>
       </c>
       <c r="E99" s="8" t="s">
         <v>424</v>
@@ -9132,7 +9135,7 @@
         <v>422</v>
       </c>
       <c r="D100" s="8" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
       <c r="E100" s="8" t="s">
         <v>427</v>
@@ -9164,7 +9167,7 @@
         <v>422</v>
       </c>
       <c r="D101" s="8" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="E101" s="8" t="s">
         <v>429</v>
@@ -9185,7 +9188,7 @@
         <v>1012</v>
       </c>
       <c r="L101" s="8" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="102" spans="1:12" ht="195" x14ac:dyDescent="0.25">
@@ -9199,7 +9202,7 @@
         <v>422</v>
       </c>
       <c r="D102" s="8" t="s">
-        <v>1129</v>
+        <v>1127</v>
       </c>
       <c r="E102" s="8" t="s">
         <v>436</v>
@@ -9231,7 +9234,7 @@
         <v>422</v>
       </c>
       <c r="D103" s="8" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
       <c r="E103" s="8" t="s">
         <v>438</v>
@@ -9260,7 +9263,7 @@
         <v>442</v>
       </c>
       <c r="D104" s="8" t="s">
-        <v>1131</v>
+        <v>1129</v>
       </c>
       <c r="E104" s="6" t="s">
         <v>443</v>
@@ -9292,7 +9295,7 @@
         <v>442</v>
       </c>
       <c r="D105" s="8" t="s">
-        <v>1132</v>
+        <v>1130</v>
       </c>
       <c r="E105" s="8" t="s">
         <v>446</v>
@@ -9324,7 +9327,7 @@
         <v>442</v>
       </c>
       <c r="D106" s="8" t="s">
-        <v>1133</v>
+        <v>1131</v>
       </c>
       <c r="E106" s="8" t="s">
         <v>451</v>
@@ -9356,7 +9359,7 @@
         <v>442</v>
       </c>
       <c r="D107" s="8" t="s">
-        <v>1134</v>
+        <v>1132</v>
       </c>
       <c r="E107" s="8" t="s">
         <v>455</v>
@@ -9385,7 +9388,7 @@
         <v>458</v>
       </c>
       <c r="D108" s="8" t="s">
-        <v>1135</v>
+        <v>1133</v>
       </c>
       <c r="E108" s="6" t="s">
         <v>460</v>
@@ -9414,7 +9417,7 @@
         <v>458</v>
       </c>
       <c r="D109" s="8" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
       <c r="E109" s="8" t="s">
         <v>620</v>
@@ -9443,7 +9446,7 @@
         <v>458</v>
       </c>
       <c r="D110" s="8" t="s">
-        <v>1137</v>
+        <v>1135</v>
       </c>
       <c r="E110" s="8" t="s">
         <v>621</v>
@@ -9472,7 +9475,7 @@
         <v>464</v>
       </c>
       <c r="D111" s="8" t="s">
-        <v>1138</v>
+        <v>1136</v>
       </c>
       <c r="E111" s="8" t="s">
         <v>465</v>
@@ -9498,10 +9501,10 @@
         <v>411</v>
       </c>
       <c r="C112" s="8" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
       <c r="D112" s="8" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
       <c r="E112" s="8"/>
       <c r="G112" s="2"/>
@@ -9521,7 +9524,7 @@
         <v>468</v>
       </c>
       <c r="D113" s="8" t="s">
-        <v>1139</v>
+        <v>1137</v>
       </c>
       <c r="E113" s="8" t="s">
         <v>471</v>
@@ -9550,7 +9553,7 @@
         <v>472</v>
       </c>
       <c r="D114" s="8" t="s">
-        <v>1142</v>
+        <v>1140</v>
       </c>
       <c r="E114" s="8" t="s">
         <v>474</v>
@@ -9579,7 +9582,7 @@
         <v>481</v>
       </c>
       <c r="D115" s="8" t="s">
-        <v>1143</v>
+        <v>1141</v>
       </c>
       <c r="E115" s="8" t="s">
         <v>424</v>
@@ -9611,7 +9614,7 @@
         <v>477</v>
       </c>
       <c r="D116" s="8" t="s">
-        <v>1144</v>
+        <v>1142</v>
       </c>
       <c r="E116" s="8" t="s">
         <v>478</v>
@@ -9643,7 +9646,7 @@
         <v>486</v>
       </c>
       <c r="D117" s="8" t="s">
-        <v>1145</v>
+        <v>1143</v>
       </c>
       <c r="E117" s="8" t="s">
         <v>487</v>
@@ -9675,7 +9678,7 @@
         <v>490</v>
       </c>
       <c r="D118" s="8" t="s">
-        <v>1146</v>
+        <v>1144</v>
       </c>
       <c r="E118" s="8" t="s">
         <v>491</v>
@@ -9707,7 +9710,7 @@
         <v>490</v>
       </c>
       <c r="D119" s="8" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
       <c r="E119" s="8" t="s">
         <v>495</v>
@@ -9739,7 +9742,7 @@
         <v>498</v>
       </c>
       <c r="D120" s="8" t="s">
-        <v>1148</v>
+        <v>1146</v>
       </c>
       <c r="E120" s="8" t="s">
         <v>500</v>
@@ -9774,7 +9777,7 @@
         <v>498</v>
       </c>
       <c r="D121" s="8" t="s">
-        <v>1149</v>
+        <v>1147</v>
       </c>
       <c r="E121" s="8" t="s">
         <v>505</v>
@@ -9806,7 +9809,7 @@
         <v>498</v>
       </c>
       <c r="D122" s="8" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
       <c r="E122" s="8" t="s">
         <v>508</v>
@@ -9842,7 +9845,7 @@
         <v>498</v>
       </c>
       <c r="D123" s="8" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
       <c r="E123" s="8" t="s">
         <v>513</v>
@@ -9875,7 +9878,7 @@
         <v>498</v>
       </c>
       <c r="D124" s="8" t="s">
-        <v>1152</v>
+        <v>1150</v>
       </c>
       <c r="E124" s="8" t="s">
         <v>521</v>
@@ -9894,7 +9897,7 @@
         <v>1012</v>
       </c>
       <c r="L124" s="20" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="125" spans="1:12" ht="315" x14ac:dyDescent="0.25">
@@ -9905,22 +9908,22 @@
         <v>411</v>
       </c>
       <c r="C125" s="8" t="s">
+        <v>1153</v>
+      </c>
+      <c r="D125" s="8" t="s">
+        <v>1154</v>
+      </c>
+      <c r="E125" s="8" t="s">
         <v>1155</v>
       </c>
-      <c r="D125" s="8" t="s">
+      <c r="F125" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G125" s="2" t="s">
+        <v>1160</v>
+      </c>
+      <c r="H125" s="2" t="s">
         <v>1156</v>
-      </c>
-      <c r="E125" s="8" t="s">
-        <v>1157</v>
-      </c>
-      <c r="F125" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="G125" s="2" t="s">
-        <v>1162</v>
-      </c>
-      <c r="H125" s="2" t="s">
-        <v>1158</v>
       </c>
       <c r="I125" s="2" t="s">
         <v>502</v>
@@ -9943,7 +9946,7 @@
         <v>498</v>
       </c>
       <c r="D126" s="8" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="E126" s="8" t="s">
         <v>505</v>
@@ -9975,7 +9978,7 @@
         <v>498</v>
       </c>
       <c r="D127" s="8" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
       <c r="E127" s="8" t="s">
         <v>508</v>
@@ -9984,7 +9987,7 @@
         <v>38</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
       <c r="H127" s="2"/>
       <c r="I127" s="2" t="s">
@@ -10011,7 +10014,7 @@
         <v>498</v>
       </c>
       <c r="D128" s="8" t="s">
-        <v>1163</v>
+        <v>1161</v>
       </c>
       <c r="E128" s="8" t="s">
         <v>513</v>
@@ -10044,7 +10047,7 @@
         <v>498</v>
       </c>
       <c r="D129" s="8" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="E129" s="8" t="s">
         <v>521</v>
@@ -10063,7 +10066,7 @@
         <v>911</v>
       </c>
       <c r="L129" s="20" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="130" spans="1:12" ht="375" x14ac:dyDescent="0.25">
@@ -10077,7 +10080,7 @@
         <v>540</v>
       </c>
       <c r="D130" s="8" t="s">
-        <v>1154</v>
+        <v>1152</v>
       </c>
       <c r="E130" s="8" t="s">
         <v>543</v>
@@ -10109,7 +10112,7 @@
         <v>540</v>
       </c>
       <c r="D131" s="8" t="s">
-        <v>1166</v>
+        <v>1164</v>
       </c>
       <c r="E131" s="8" t="s">
         <v>548</v>
@@ -10142,7 +10145,7 @@
         <v>552</v>
       </c>
       <c r="D132" s="8" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
       <c r="E132" s="8" t="s">
         <v>553</v>
@@ -10163,7 +10166,7 @@
         <v>1012</v>
       </c>
       <c r="L132" s="20" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="133" spans="1:12" ht="165" x14ac:dyDescent="0.25">
@@ -10177,7 +10180,7 @@
         <v>552</v>
       </c>
       <c r="D133" s="8" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
       <c r="E133" s="8" t="s">
         <v>557</v>
@@ -10209,7 +10212,7 @@
         <v>561</v>
       </c>
       <c r="D134" s="8" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
       <c r="E134" s="8" t="s">
         <v>562</v>
@@ -10241,7 +10244,7 @@
         <v>561</v>
       </c>
       <c r="D135" s="8" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
       <c r="E135" s="8" t="s">
         <v>565</v>
@@ -10273,7 +10276,7 @@
         <v>561</v>
       </c>
       <c r="D136" s="8" t="s">
-        <v>1171</v>
+        <v>1169</v>
       </c>
       <c r="E136" s="8" t="s">
         <v>568</v>
@@ -10305,7 +10308,7 @@
         <v>561</v>
       </c>
       <c r="D137" s="8" t="s">
-        <v>1172</v>
+        <v>1170</v>
       </c>
       <c r="E137" s="8" t="s">
         <v>572</v>
@@ -10337,7 +10340,7 @@
         <v>561</v>
       </c>
       <c r="D138" s="8" t="s">
-        <v>1173</v>
+        <v>1171</v>
       </c>
       <c r="E138" s="8" t="s">
         <v>576</v>
@@ -10369,7 +10372,7 @@
         <v>581</v>
       </c>
       <c r="D139" s="8" t="s">
-        <v>1174</v>
+        <v>1172</v>
       </c>
       <c r="E139" s="6" t="s">
         <v>582</v>
@@ -10401,7 +10404,7 @@
         <v>581</v>
       </c>
       <c r="D140" s="8" t="s">
-        <v>1175</v>
+        <v>1173</v>
       </c>
       <c r="E140" s="8" t="s">
         <v>625</v>
@@ -10433,7 +10436,7 @@
         <v>581</v>
       </c>
       <c r="D141" s="8" t="s">
-        <v>1176</v>
+        <v>1174</v>
       </c>
       <c r="E141" s="8" t="s">
         <v>628</v>
@@ -10465,7 +10468,7 @@
         <v>581</v>
       </c>
       <c r="D142" s="8" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
       <c r="E142" s="8" t="s">
         <v>586</v>
@@ -10497,7 +10500,7 @@
         <v>594</v>
       </c>
       <c r="D143" s="8" t="s">
-        <v>1178</v>
+        <v>1176</v>
       </c>
       <c r="E143" s="8" t="s">
         <v>593</v>
@@ -10518,7 +10521,7 @@
         <v>1012</v>
       </c>
       <c r="L143" s="20" t="s">
-        <v>1188</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="144" spans="1:12" ht="180" x14ac:dyDescent="0.25">
@@ -10532,7 +10535,7 @@
         <v>595</v>
       </c>
       <c r="D144" s="8" t="s">
-        <v>1179</v>
+        <v>1177</v>
       </c>
       <c r="E144" s="8" t="s">
         <v>596</v>
@@ -10564,7 +10567,7 @@
         <v>595</v>
       </c>
       <c r="D145" s="8" t="s">
-        <v>1180</v>
+        <v>1178</v>
       </c>
       <c r="E145" s="8" t="s">
         <v>600</v>
@@ -10596,7 +10599,7 @@
         <v>595</v>
       </c>
       <c r="D146" s="8" t="s">
-        <v>1181</v>
+        <v>1179</v>
       </c>
       <c r="E146" s="8" t="s">
         <v>604</v>
@@ -10631,7 +10634,7 @@
         <v>595</v>
       </c>
       <c r="D147" s="8" t="s">
-        <v>1182</v>
+        <v>1180</v>
       </c>
       <c r="E147" s="8" t="s">
         <v>609</v>
@@ -10663,7 +10666,7 @@
         <v>595</v>
       </c>
       <c r="D148" s="8" t="s">
-        <v>1183</v>
+        <v>1181</v>
       </c>
       <c r="E148" s="8" t="s">
         <v>612</v>
@@ -10695,7 +10698,7 @@
         <v>617</v>
       </c>
       <c r="D149" s="8" t="s">
-        <v>1184</v>
+        <v>1182</v>
       </c>
       <c r="E149" s="6" t="s">
         <v>635</v>
@@ -10727,7 +10730,7 @@
         <v>617</v>
       </c>
       <c r="D150" s="8" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
       <c r="E150" s="8" t="s">
         <v>638</v>
@@ -10759,7 +10762,7 @@
         <v>617</v>
       </c>
       <c r="D151" s="8" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="E151" s="6" t="s">
         <v>641</v>
@@ -10791,7 +10794,7 @@
         <v>617</v>
       </c>
       <c r="D152" s="8" t="s">
-        <v>1187</v>
+        <v>1185</v>
       </c>
       <c r="E152" s="8" t="s">
         <v>645</v>
@@ -10823,7 +10826,7 @@
         <v>617</v>
       </c>
       <c r="D153" s="8" t="s">
-        <v>1189</v>
+        <v>1187</v>
       </c>
       <c r="E153" s="8" t="s">
         <v>649</v>
@@ -10855,7 +10858,7 @@
         <v>617</v>
       </c>
       <c r="D154" s="8" t="s">
-        <v>1190</v>
+        <v>1188</v>
       </c>
       <c r="E154" s="8" t="s">
         <v>653</v>
@@ -10887,7 +10890,7 @@
         <v>617</v>
       </c>
       <c r="D155" s="8" t="s">
-        <v>1191</v>
+        <v>1189</v>
       </c>
       <c r="E155" s="8" t="s">
         <v>657</v>
@@ -10919,7 +10922,7 @@
         <v>617</v>
       </c>
       <c r="D156" s="8" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
       <c r="E156" s="8" t="s">
         <v>661</v>
@@ -10951,7 +10954,7 @@
         <v>665</v>
       </c>
       <c r="D157" s="8" t="s">
-        <v>1193</v>
+        <v>1191</v>
       </c>
       <c r="E157" s="8" t="s">
         <v>666</v>
@@ -10972,7 +10975,7 @@
         <v>1012</v>
       </c>
       <c r="L157" s="20" t="s">
-        <v>1194</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="158" spans="1:12" ht="195" x14ac:dyDescent="0.25">
@@ -10986,7 +10989,7 @@
         <v>665</v>
       </c>
       <c r="D158" s="8" t="s">
-        <v>1195</v>
+        <v>1193</v>
       </c>
       <c r="E158" s="8" t="s">
         <v>694</v>
@@ -11019,7 +11022,7 @@
         <v>665</v>
       </c>
       <c r="D159" s="8" t="s">
-        <v>1196</v>
+        <v>1194</v>
       </c>
       <c r="E159" s="8" t="s">
         <v>671</v>
@@ -11054,7 +11057,7 @@
         <v>665</v>
       </c>
       <c r="D160" s="8" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="E160" s="8" t="s">
         <v>675</v>
@@ -11086,7 +11089,7 @@
         <v>665</v>
       </c>
       <c r="D161" s="8" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
       <c r="E161" s="8" t="s">
         <v>679</v>
@@ -11118,7 +11121,7 @@
         <v>665</v>
       </c>
       <c r="D162" s="8" t="s">
-        <v>1199</v>
+        <v>1197</v>
       </c>
       <c r="E162" s="8" t="s">
         <v>683</v>
@@ -11150,7 +11153,7 @@
         <v>665</v>
       </c>
       <c r="D163" s="8" t="s">
-        <v>1200</v>
+        <v>1198</v>
       </c>
       <c r="E163" s="8" t="s">
         <v>687</v>
@@ -11182,7 +11185,7 @@
         <v>665</v>
       </c>
       <c r="D164" s="8" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
       <c r="E164" s="8" t="s">
         <v>691</v>
@@ -11214,7 +11217,7 @@
         <v>699</v>
       </c>
       <c r="D165" s="8" t="s">
-        <v>1202</v>
+        <v>1200</v>
       </c>
       <c r="E165" s="8" t="s">
         <v>700</v>
@@ -11246,7 +11249,7 @@
         <v>699</v>
       </c>
       <c r="D166" s="8" t="s">
-        <v>1203</v>
+        <v>1201</v>
       </c>
       <c r="E166" s="8" t="s">
         <v>704</v>
@@ -11278,7 +11281,7 @@
         <v>699</v>
       </c>
       <c r="D167" s="8" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="E167" s="8" t="s">
         <v>707</v>
@@ -11310,7 +11313,7 @@
         <v>699</v>
       </c>
       <c r="D168" s="8" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="E168" s="8" t="s">
         <v>710</v>
@@ -11342,7 +11345,7 @@
         <v>713</v>
       </c>
       <c r="D169" s="8" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
       <c r="E169" s="8" t="s">
         <v>714</v>
@@ -11360,10 +11363,10 @@
         <v>964</v>
       </c>
       <c r="K169" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
       <c r="L169" s="20" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="170" spans="1:27" ht="225" x14ac:dyDescent="0.25">
@@ -11377,7 +11380,7 @@
         <v>713</v>
       </c>
       <c r="D170" s="8" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="E170" s="8" t="s">
         <v>718</v>
@@ -11409,7 +11412,7 @@
         <v>713</v>
       </c>
       <c r="D171" s="8" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
       <c r="E171" s="8" t="s">
         <v>722</v>
@@ -11427,7 +11430,7 @@
         <v>964</v>
       </c>
       <c r="K171" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="172" spans="1:27" ht="285.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11441,7 +11444,7 @@
         <v>713</v>
       </c>
       <c r="D172" s="8" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
       <c r="E172" s="8" t="s">
         <v>726</v>
@@ -11473,7 +11476,7 @@
         <v>713</v>
       </c>
       <c r="D173" s="8" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
       <c r="E173" s="10" t="s">
         <v>731</v>
@@ -11522,7 +11525,7 @@
         <v>735</v>
       </c>
       <c r="D174" s="8" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
       <c r="E174" s="14" t="s">
         <v>748</v>
@@ -11571,7 +11574,7 @@
         <v>753</v>
       </c>
       <c r="D175" s="8" t="s">
-        <v>1215</v>
+        <v>1213</v>
       </c>
       <c r="E175" s="8" t="s">
         <v>754</v>
@@ -11606,7 +11609,7 @@
         <v>753</v>
       </c>
       <c r="D176" s="8" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="E176" s="8" t="s">
         <v>759</v>
@@ -11626,8 +11629,8 @@
       <c r="J176" s="25" t="s">
         <v>964</v>
       </c>
-      <c r="K176" s="25" t="s">
-        <v>911</v>
+      <c r="K176" t="s">
+        <v>1012</v>
       </c>
       <c r="L176" s="25" t="s">
         <v>968</v>
@@ -11644,7 +11647,7 @@
         <v>753</v>
       </c>
       <c r="D177" s="8" t="s">
-        <v>1217</v>
+        <v>1215</v>
       </c>
       <c r="E177" s="8" t="s">
         <v>764</v>
@@ -11661,8 +11664,8 @@
       <c r="J177" s="6" t="s">
         <v>964</v>
       </c>
-      <c r="K177" s="6" t="s">
-        <v>911</v>
+      <c r="K177" t="s">
+        <v>1012</v>
       </c>
     </row>
     <row r="178" spans="1:12" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11676,7 +11679,7 @@
         <v>753</v>
       </c>
       <c r="D178" s="8" t="s">
-        <v>1219</v>
+        <v>1217</v>
       </c>
       <c r="E178" s="8" t="s">
         <v>768</v>
@@ -11685,7 +11688,7 @@
         <v>38</v>
       </c>
       <c r="G178" s="13" t="s">
-        <v>1218</v>
+        <v>1216</v>
       </c>
       <c r="I178" s="2" t="s">
         <v>766</v>
@@ -11693,8 +11696,8 @@
       <c r="J178" s="6" t="s">
         <v>964</v>
       </c>
-      <c r="K178" s="6" t="s">
-        <v>911</v>
+      <c r="K178" t="s">
+        <v>1012</v>
       </c>
     </row>
     <row r="179" spans="1:12" ht="165.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11708,7 +11711,7 @@
         <v>753</v>
       </c>
       <c r="D179" s="8" t="s">
-        <v>1220</v>
+        <v>1218</v>
       </c>
       <c r="E179" s="8" t="s">
         <v>768</v>
@@ -11726,8 +11729,8 @@
       <c r="J179" s="25" t="s">
         <v>964</v>
       </c>
-      <c r="K179" s="25" t="s">
-        <v>911</v>
+      <c r="K179" t="s">
+        <v>1012</v>
       </c>
     </row>
     <row r="180" spans="1:12" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11741,7 +11744,7 @@
         <v>753</v>
       </c>
       <c r="D180" s="8" t="s">
-        <v>1221</v>
+        <v>1219</v>
       </c>
       <c r="E180" s="8" t="s">
         <v>768</v>
@@ -11759,8 +11762,8 @@
       <c r="J180" s="25" t="s">
         <v>964</v>
       </c>
-      <c r="K180" s="25" t="s">
-        <v>911</v>
+      <c r="K180" t="s">
+        <v>1012</v>
       </c>
     </row>
     <row r="181" spans="1:12" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11774,7 +11777,7 @@
         <v>753</v>
       </c>
       <c r="D181" s="8" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
       <c r="E181" s="8" t="s">
         <v>776</v>
@@ -11791,8 +11794,8 @@
       <c r="J181" s="6" t="s">
         <v>964</v>
       </c>
-      <c r="K181" s="25" t="s">
-        <v>911</v>
+      <c r="K181" t="s">
+        <v>1012</v>
       </c>
     </row>
     <row r="182" spans="1:12" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11806,7 +11809,7 @@
         <v>805</v>
       </c>
       <c r="D182" s="8" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="E182" s="8" t="s">
         <v>806</v>
@@ -11823,8 +11826,8 @@
       <c r="J182" s="6" t="s">
         <v>964</v>
       </c>
-      <c r="K182" s="27" t="s">
-        <v>911</v>
+      <c r="K182" t="s">
+        <v>1012</v>
       </c>
     </row>
     <row r="183" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11838,7 +11841,7 @@
         <v>805</v>
       </c>
       <c r="D183" s="8" t="s">
-        <v>1224</v>
+        <v>1222</v>
       </c>
       <c r="E183" s="8" t="s">
         <v>809</v>
@@ -11855,8 +11858,8 @@
       <c r="J183" s="6" t="s">
         <v>964</v>
       </c>
-      <c r="K183" s="27" t="s">
-        <v>911</v>
+      <c r="K183" t="s">
+        <v>1012</v>
       </c>
     </row>
     <row r="184" spans="1:12" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11870,7 +11873,7 @@
         <v>805</v>
       </c>
       <c r="D184" s="8" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="E184" s="8" t="s">
         <v>814</v>
@@ -11887,8 +11890,8 @@
       <c r="J184" s="6" t="s">
         <v>964</v>
       </c>
-      <c r="K184" s="27" t="s">
-        <v>911</v>
+      <c r="K184" t="s">
+        <v>1012</v>
       </c>
     </row>
     <row r="185" spans="1:12" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11902,7 +11905,7 @@
         <v>805</v>
       </c>
       <c r="D185" s="8" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
       <c r="E185" s="8" t="s">
         <v>826</v>
@@ -11919,8 +11922,8 @@
       <c r="J185" s="6" t="s">
         <v>964</v>
       </c>
-      <c r="K185" s="27" t="s">
-        <v>911</v>
+      <c r="K185" t="s">
+        <v>1012</v>
       </c>
     </row>
     <row r="186" spans="1:12" ht="165.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11934,7 +11937,7 @@
         <v>805</v>
       </c>
       <c r="D186" s="8" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
       <c r="E186" s="8" t="s">
         <v>820</v>
@@ -11951,8 +11954,8 @@
       <c r="J186" s="6" t="s">
         <v>964</v>
       </c>
-      <c r="K186" s="27" t="s">
-        <v>911</v>
+      <c r="K186" t="s">
+        <v>1012</v>
       </c>
       <c r="L186" s="8" t="s">
         <v>962</v>
@@ -11969,7 +11972,7 @@
         <v>805</v>
       </c>
       <c r="D187" s="8" t="s">
-        <v>1228</v>
+        <v>1226</v>
       </c>
       <c r="E187" s="8" t="s">
         <v>823</v>
@@ -11986,8 +11989,8 @@
       <c r="J187" s="6" t="s">
         <v>964</v>
       </c>
-      <c r="K187" s="27" t="s">
-        <v>911</v>
+      <c r="K187" t="s">
+        <v>1012</v>
       </c>
     </row>
     <row r="188" spans="1:12" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -12001,7 +12004,7 @@
         <v>805</v>
       </c>
       <c r="D188" s="8" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
       <c r="E188" s="8" t="s">
         <v>830</v>
@@ -12018,8 +12021,8 @@
       <c r="J188" s="6" t="s">
         <v>964</v>
       </c>
-      <c r="K188" s="27" t="s">
-        <v>911</v>
+      <c r="K188" t="s">
+        <v>1012</v>
       </c>
     </row>
     <row r="189" spans="1:12" ht="180.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -12033,7 +12036,7 @@
         <v>805</v>
       </c>
       <c r="D189" s="8" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
       <c r="E189" s="8" t="s">
         <v>837</v>
@@ -12050,8 +12053,8 @@
       <c r="J189" s="6" t="s">
         <v>964</v>
       </c>
-      <c r="K189" s="27" t="s">
-        <v>911</v>
+      <c r="K189" t="s">
+        <v>1012</v>
       </c>
     </row>
     <row r="190" spans="1:12" ht="210.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -12065,7 +12068,7 @@
         <v>805</v>
       </c>
       <c r="D190" s="8" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
       <c r="E190" s="8" t="s">
         <v>838</v>
@@ -12082,8 +12085,8 @@
       <c r="J190" s="6" t="s">
         <v>964</v>
       </c>
-      <c r="K190" s="27" t="s">
-        <v>911</v>
+      <c r="K190" t="s">
+        <v>1012</v>
       </c>
     </row>
     <row r="191" spans="1:12" ht="195.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -12097,7 +12100,7 @@
         <v>805</v>
       </c>
       <c r="D191" s="8" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
       <c r="E191" s="8" t="s">
         <v>842</v>
@@ -12114,8 +12117,8 @@
       <c r="J191" s="6" t="s">
         <v>964</v>
       </c>
-      <c r="K191" s="27" t="s">
-        <v>911</v>
+      <c r="K191" t="s">
+        <v>1012</v>
       </c>
     </row>
     <row r="192" spans="1:12" ht="225.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -12129,7 +12132,7 @@
         <v>805</v>
       </c>
       <c r="D192" s="8" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="E192" s="8" t="s">
         <v>846</v>
@@ -12161,7 +12164,7 @@
         <v>805</v>
       </c>
       <c r="D193" s="8" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="E193" s="8" t="s">
         <v>850</v>
@@ -12193,7 +12196,7 @@
         <v>805</v>
       </c>
       <c r="D194" s="8" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="E194" s="8" t="s">
         <v>855</v>
@@ -12210,8 +12213,8 @@
       <c r="J194" s="6" t="s">
         <v>964</v>
       </c>
-      <c r="K194" s="27" t="s">
-        <v>911</v>
+      <c r="K194" t="s">
+        <v>1012</v>
       </c>
     </row>
     <row r="195" spans="1:13" ht="165.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -12225,7 +12228,7 @@
         <v>805</v>
       </c>
       <c r="D195" s="8" t="s">
-        <v>1236</v>
+        <v>1234</v>
       </c>
       <c r="E195" s="8" t="s">
         <v>862</v>
@@ -12242,8 +12245,8 @@
       <c r="J195" s="6" t="s">
         <v>964</v>
       </c>
-      <c r="K195" s="27" t="s">
-        <v>911</v>
+      <c r="K195" t="s">
+        <v>1012</v>
       </c>
     </row>
     <row r="196" spans="1:13" ht="225.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -12257,7 +12260,7 @@
         <v>805</v>
       </c>
       <c r="D196" s="8" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
       <c r="E196" s="8" t="s">
         <v>863</v>
@@ -12289,7 +12292,7 @@
         <v>805</v>
       </c>
       <c r="D197" s="8" t="s">
-        <v>1238</v>
+        <v>1236</v>
       </c>
       <c r="E197" s="8" t="s">
         <v>867</v>
@@ -12323,6 +12326,9 @@
       <c r="C198" s="8" t="s">
         <v>805</v>
       </c>
+      <c r="D198" s="8" t="s">
+        <v>1237</v>
+      </c>
       <c r="E198" s="8" t="s">
         <v>820</v>
       </c>
@@ -12345,7 +12351,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="199" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A199" s="6" t="s">
         <v>849</v>
       </c>
@@ -12356,7 +12362,7 @@
         <v>874</v>
       </c>
       <c r="D199" s="8" t="s">
-        <v>1106</v>
+        <v>1238</v>
       </c>
       <c r="E199" s="8" t="s">
         <v>879</v>
@@ -12373,8 +12379,8 @@
       <c r="J199" s="6" t="s">
         <v>964</v>
       </c>
-      <c r="K199" s="22" t="s">
-        <v>911</v>
+      <c r="K199" t="s">
+        <v>1012</v>
       </c>
     </row>
     <row r="200" spans="1:13" ht="180" x14ac:dyDescent="0.25">
@@ -12388,7 +12394,7 @@
         <v>875</v>
       </c>
       <c r="D200" s="8" t="s">
-        <v>1107</v>
+        <v>1239</v>
       </c>
       <c r="E200" s="8" t="s">
         <v>876</v>
@@ -12405,8 +12411,8 @@
       <c r="J200" s="6" t="s">
         <v>964</v>
       </c>
-      <c r="K200" s="22" t="s">
-        <v>911</v>
+      <c r="K200" t="s">
+        <v>1012</v>
       </c>
     </row>
     <row r="201" spans="1:13" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -12420,7 +12426,7 @@
         <v>885</v>
       </c>
       <c r="D201" s="8" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
       <c r="E201" s="8" t="s">
         <v>886</v>
@@ -12439,6 +12445,9 @@
       </c>
       <c r="K201" s="22" t="s">
         <v>911</v>
+      </c>
+      <c r="M201" t="s">
+        <v>1211</v>
       </c>
     </row>
     <row r="202" spans="1:13" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -12470,7 +12479,7 @@
         <v>970</v>
       </c>
       <c r="M202" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="203" spans="1:13" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -12484,7 +12493,7 @@
         <v>736</v>
       </c>
       <c r="D203" s="8" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
       <c r="E203" s="8" t="s">
         <v>741</v>
@@ -12508,7 +12517,7 @@
         <v>969</v>
       </c>
       <c r="M203" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="204" spans="1:13" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -12543,7 +12552,7 @@
         <v>960</v>
       </c>
       <c r="M204" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="205" spans="1:13" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -12578,7 +12587,7 @@
         <v>911</v>
       </c>
       <c r="M205" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="206" spans="1:13" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -12613,7 +12622,7 @@
         <v>911</v>
       </c>
       <c r="M206" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="207" spans="1:13" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -12648,7 +12657,7 @@
         <v>961</v>
       </c>
       <c r="M207" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="208" spans="1:13" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -12683,7 +12692,7 @@
         <v>961</v>
       </c>
       <c r="M208" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="209" spans="1:13" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -12721,7 +12730,7 @@
         <v>961</v>
       </c>
       <c r="M209" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
     </row>
   </sheetData>

--- a/Advantage Test Cases.xlsx
+++ b/Advantage Test Cases.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3976" uniqueCount="1240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3978" uniqueCount="1242">
   <si>
     <t>Test Objective</t>
   </si>
@@ -5505,12 +5505,20 @@
   <si>
     <t>fn_GradeStudents</t>
   </si>
+  <si>
+    <t>https://203.129.242.98/OxfordAdvantageUAT/Reports/AdminStudentReport.aspx?ar=1&amp;classid=RKQ80oM78lg=</t>
+  </si>
+  <si>
+    <t>1. Changing on Academic year in dropdown  loader moving continue and nothing happens
+2. Practice Test details window not getting opened and direct overall performance is coming</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5547,6 +5555,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -5590,10 +5606,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -5675,8 +5692,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -5981,25 +6000,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA209"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F199" workbookViewId="0">
-      <selection activeCell="K200" sqref="K200"/>
+    <sheetView tabSelected="1" topLeftCell="H65" workbookViewId="0">
+      <selection activeCell="K65" sqref="K65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.140625" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="18.42578125" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="16.5703125" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="16.5703125" style="8" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="31.85546875" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="33.5703125" style="6" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="42.7109375" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="25.28515625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="41.140625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="26" style="6" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="11.42578125" style="6" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="52.7109375" style="8" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="14.28515625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="6" width="12.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="6" width="18.42578125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="6" width="16.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="8" width="16.5703125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="6" width="31.85546875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="6" width="33.5703125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="42.7109375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="25.28515625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="41.140625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="6" width="26.0" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="6" width="11.42578125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="8" width="52.7109375" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="14.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -8710,7 +8729,10 @@
         <v>909</v>
       </c>
       <c r="L86" s="20" t="s">
-        <v>940</v>
+        <v>1241</v>
+      </c>
+      <c r="M86" s="29" t="s">
+        <v>1240</v>
       </c>
     </row>
     <row r="87" spans="1:13" ht="90" x14ac:dyDescent="0.25">
@@ -12734,8 +12756,11 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="M86" r:id="rId3"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -12749,17 +12774,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.85546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11.28515625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="16.85546875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="17.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="31.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="29" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="37.5703125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="26.140625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="37.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="12.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="19.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="20.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="16.85546875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="17.5703125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="31.85546875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="29.0" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="37.5703125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="26.140625" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="37.5703125" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="12.5703125" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="19.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">

--- a/Advantage Test Cases.xlsx
+++ b/Advantage Test Cases.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3978" uniqueCount="1242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3979" uniqueCount="1242">
   <si>
     <t>Test Objective</t>
   </si>
@@ -5517,8 +5517,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="7">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6000,25 +5999,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA209"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H65" workbookViewId="0">
-      <selection activeCell="K65" sqref="K65"/>
+    <sheetView tabSelected="1" topLeftCell="G208" workbookViewId="0">
+      <selection activeCell="G211" sqref="G211"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="6" width="12.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="6" width="18.42578125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="6" width="16.5703125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="8" width="16.5703125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="6" width="31.85546875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="6" width="33.5703125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="42.7109375" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="25.28515625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="41.140625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" style="6" width="26.0" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" style="6" width="11.42578125" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" style="8" width="52.7109375" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="1" max="1" width="12.140625" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="18.42578125" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="16.5703125" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="16.5703125" style="8" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="31.85546875" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="33.5703125" style="6" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="42.7109375" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="25.28515625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="41.140625" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="26" style="6" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="11.42578125" style="6" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="52.7109375" style="8" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="14.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -6115,7 +6114,9 @@
       <c r="J6" s="6" t="s">
         <v>972</v>
       </c>
-      <c r="K6"/>
+      <c r="K6" t="s">
+        <v>1012</v>
+      </c>
     </row>
     <row r="7" spans="1:12" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
@@ -6145,7 +6146,9 @@
       <c r="J7" s="6" t="s">
         <v>972</v>
       </c>
-      <c r="K7"/>
+      <c r="K7" t="s">
+        <v>1012</v>
+      </c>
     </row>
     <row r="8" spans="1:12" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
@@ -12757,7 +12760,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="M86" r:id="rId3"/>
+    <hyperlink ref="M86" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -12774,17 +12777,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="20.85546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="11.28515625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="16.85546875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="17.5703125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="31.85546875" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="29.0" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="37.5703125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="26.140625" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="37.5703125" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="12.5703125" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="19.7109375" collapsed="true"/>
+    <col min="1" max="1" width="20.85546875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11.28515625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="16.85546875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="17.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="31.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="29" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="37.5703125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="26.140625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="37.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="12.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="19.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">

--- a/Advantage Test Cases.xlsx
+++ b/Advantage Test Cases.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4169" uniqueCount="1183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4170" uniqueCount="1189">
   <si>
     <t>Test Objective</t>
   </si>
@@ -5198,6 +5198,24 @@
   </si>
   <si>
     <t>No students are coming in select users section</t>
+  </si>
+  <si>
+    <t>fn_MarksEntryFeatureIsEnabledOnlyofClassteacher</t>
+  </si>
+  <si>
+    <t>fn_ViewLessonPlanForMonth</t>
+  </si>
+  <si>
+    <t>fn_ViewLessonPlanForWeek</t>
+  </si>
+  <si>
+    <t>fn_ViewLessonPlanForDay</t>
+  </si>
+  <si>
+    <t>fn_ViewPlannedLesson</t>
+  </si>
+  <si>
+    <t>fn_ViewofLessonplan</t>
   </si>
 </sst>
 </file>
@@ -12456,8 +12474,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA205"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H32" workbookViewId="0">
-      <selection activeCell="K34" sqref="K34"/>
+    <sheetView tabSelected="1" topLeftCell="F33" workbookViewId="0">
+      <selection activeCell="J34" sqref="J34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13681,7 +13699,7 @@
         <v>924</v>
       </c>
       <c r="K37" t="s">
-        <v>952</v>
+        <v>959</v>
       </c>
       <c r="L37" s="8" t="s">
         <v>936</v>
@@ -13716,7 +13734,7 @@
         <v>924</v>
       </c>
       <c r="K38" t="s">
-        <v>952</v>
+        <v>959</v>
       </c>
     </row>
     <row r="39" spans="1:13" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -18882,7 +18900,7 @@
         <v>862</v>
       </c>
       <c r="D197" s="8" t="s">
-        <v>1046</v>
+        <v>1183</v>
       </c>
       <c r="E197" s="8" t="s">
         <v>863</v>
@@ -18916,6 +18934,9 @@
       <c r="C198" s="8" t="s">
         <v>713</v>
       </c>
+      <c r="D198" s="8" t="s">
+        <v>1184</v>
+      </c>
       <c r="E198" s="8" t="s">
         <v>714</v>
       </c>
@@ -18949,7 +18970,7 @@
         <v>713</v>
       </c>
       <c r="D199" s="8" t="s">
-        <v>1048</v>
+        <v>1186</v>
       </c>
       <c r="E199" s="8" t="s">
         <v>718</v>
@@ -18987,7 +19008,7 @@
         <v>713</v>
       </c>
       <c r="D200" s="8" t="s">
-        <v>1039</v>
+        <v>1185</v>
       </c>
       <c r="E200" s="8" t="s">
         <v>722</v>
@@ -19022,7 +19043,7 @@
         <v>756</v>
       </c>
       <c r="D201" s="8" t="s">
-        <v>1043</v>
+        <v>1187</v>
       </c>
       <c r="E201" s="6" t="s">
         <v>763</v>
@@ -19057,7 +19078,7 @@
         <v>761</v>
       </c>
       <c r="D202" s="8" t="s">
-        <v>1045</v>
+        <v>1188</v>
       </c>
       <c r="E202" s="6" t="s">
         <v>762</v>

--- a/Advantage Test Cases.xlsx
+++ b/Advantage Test Cases.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4170" uniqueCount="1189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4181" uniqueCount="1189">
   <si>
     <t>Test Objective</t>
   </si>
@@ -5222,7 +5222,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5701,25 +5702,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA209"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="H148" workbookViewId="0">
+      <selection activeCell="K148" sqref="K148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.140625" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="18.42578125" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="16.5703125" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="16.5703125" style="8" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="31.85546875" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="33.5703125" style="6" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="42.7109375" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="25.28515625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="41.140625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="26" style="6" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="11.42578125" style="6" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="52.7109375" style="8" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="14.28515625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="6" width="12.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="6" width="18.42578125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="6" width="16.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="8" width="16.5703125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="6" width="31.85546875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="6" width="33.5703125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="42.7109375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="25.28515625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="41.140625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="6" width="26.0" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="6" width="11.42578125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="8" width="52.7109375" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="14.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -9764,7 +9765,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="129" spans="1:12" ht="345" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:14" ht="345" x14ac:dyDescent="0.25">
       <c r="A129" s="6" t="s">
         <v>533</v>
       </c>
@@ -9797,7 +9798,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="130" spans="1:12" ht="375" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:14" ht="375" x14ac:dyDescent="0.25">
       <c r="A130" s="6" t="s">
         <v>537</v>
       </c>
@@ -9829,7 +9830,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="131" spans="1:12" ht="330" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:14" ht="330" x14ac:dyDescent="0.25">
       <c r="A131" s="6" t="s">
         <v>543</v>
       </c>
@@ -9862,7 +9863,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="132" spans="1:12" ht="165" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:14" ht="165" x14ac:dyDescent="0.25">
       <c r="A132" s="6" t="s">
         <v>546</v>
       </c>
@@ -9896,8 +9897,11 @@
       <c r="L132" s="20" t="s">
         <v>1102</v>
       </c>
-    </row>
-    <row r="133" spans="1:12" ht="165" x14ac:dyDescent="0.25">
+      <c r="N132" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="133" spans="1:14" ht="165" x14ac:dyDescent="0.25">
       <c r="A133" s="6" t="s">
         <v>548</v>
       </c>
@@ -9929,7 +9933,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="134" spans="1:12" ht="150" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:14" ht="150" x14ac:dyDescent="0.25">
       <c r="A134" s="6" t="s">
         <v>554</v>
       </c>
@@ -9961,7 +9965,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="135" spans="1:12" ht="195" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:14" ht="195" x14ac:dyDescent="0.25">
       <c r="A135" s="6" t="s">
         <v>557</v>
       </c>
@@ -9993,7 +9997,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="136" spans="1:12" ht="195" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:14" ht="195" x14ac:dyDescent="0.25">
       <c r="A136" s="6" t="s">
         <v>562</v>
       </c>
@@ -10025,7 +10029,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="137" spans="1:12" ht="225" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:14" ht="225" x14ac:dyDescent="0.25">
       <c r="A137" s="6" t="s">
         <v>566</v>
       </c>
@@ -10057,7 +10061,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="138" spans="1:12" ht="225" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:14" ht="225" x14ac:dyDescent="0.25">
       <c r="A138" s="6" t="s">
         <v>569</v>
       </c>
@@ -10089,7 +10093,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="139" spans="1:12" ht="120" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:14" ht="120" x14ac:dyDescent="0.25">
       <c r="A139" s="6" t="s">
         <v>576</v>
       </c>
@@ -10121,7 +10125,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="140" spans="1:12" ht="150" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:14" ht="150" x14ac:dyDescent="0.25">
       <c r="A140" s="6" t="s">
         <v>580</v>
       </c>
@@ -10153,7 +10157,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="141" spans="1:12" ht="150" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:14" ht="150" x14ac:dyDescent="0.25">
       <c r="A141" s="6" t="s">
         <v>582</v>
       </c>
@@ -10185,7 +10189,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="142" spans="1:12" ht="150" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:14" ht="150" x14ac:dyDescent="0.25">
       <c r="A142" s="6" t="s">
         <v>583</v>
       </c>
@@ -10217,7 +10221,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="143" spans="1:12" ht="195" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:14" ht="195" x14ac:dyDescent="0.25">
       <c r="A143" s="6" t="s">
         <v>584</v>
       </c>
@@ -10252,7 +10256,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="144" spans="1:12" ht="180" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:14" ht="180" x14ac:dyDescent="0.25">
       <c r="A144" s="6" t="s">
         <v>585</v>
       </c>
@@ -12463,7 +12467,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="M86" r:id="rId1"/>
+    <hyperlink ref="M86" r:id="rId12"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -12474,25 +12478,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA205"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F33" workbookViewId="0">
-      <selection activeCell="J34" sqref="J34"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="A196" sqref="A196"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.140625" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="18.42578125" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="16.5703125" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="16.5703125" style="8" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="31.85546875" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="33.5703125" style="6" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="42.7109375" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="25.28515625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="41.140625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="26" style="6" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="11.42578125" style="6" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="52.7109375" style="8" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="14.28515625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="6" width="12.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="6" width="18.42578125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="6" width="16.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="8" width="16.5703125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="6" width="31.85546875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="6" width="33.5703125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="42.7109375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="25.28515625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="41.140625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="6" width="26.0" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="6" width="11.42578125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="8" width="52.7109375" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="14.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="1" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12629,7 +12633,9 @@
       <c r="J4" s="6" t="s">
         <v>924</v>
       </c>
-      <c r="K4"/>
+      <c r="K4" t="s">
+        <v>952</v>
+      </c>
     </row>
     <row r="5" spans="1:12" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
@@ -12662,7 +12668,9 @@
       <c r="J5" s="20" t="s">
         <v>940</v>
       </c>
-      <c r="K5"/>
+      <c r="K5" t="s">
+        <v>952</v>
+      </c>
       <c r="L5" s="19"/>
     </row>
     <row r="6" spans="1:12" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12696,7 +12704,9 @@
       <c r="J6" s="8" t="s">
         <v>869</v>
       </c>
-      <c r="K6"/>
+      <c r="K6" t="s">
+        <v>959</v>
+      </c>
     </row>
     <row r="7" spans="1:12" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
@@ -12727,7 +12737,9 @@
       <c r="J7" s="6" t="s">
         <v>924</v>
       </c>
-      <c r="K7"/>
+      <c r="K7" t="s">
+        <v>952</v>
+      </c>
     </row>
     <row r="8" spans="1:12" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
@@ -12756,6 +12768,9 @@
       </c>
       <c r="J8" s="6" t="s">
         <v>924</v>
+      </c>
+      <c r="K8" t="s">
+        <v>952</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -19212,7 +19227,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="M82" r:id="rId1"/>
+    <hyperlink ref="M82" r:id="rId11"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Advantage Test Cases.xlsx
+++ b/Advantage Test Cases.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4181" uniqueCount="1189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4186" uniqueCount="1190">
   <si>
     <t>Test Objective</t>
   </si>
@@ -5216,6 +5216,10 @@
   </si>
   <si>
     <t>fn_ViewofLessonplan</t>
+  </si>
+  <si>
+    <t>1. No.of submissions block getting disappeared after selecting type
+2.Enhancement: Generate button shows dropdown sign, it needed to remove</t>
   </si>
 </sst>
 </file>
@@ -5702,8 +5706,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA209"/>
   <sheetViews>
-    <sheetView topLeftCell="H148" workbookViewId="0">
-      <selection activeCell="K148" sqref="K148"/>
+    <sheetView topLeftCell="A84" workbookViewId="0">
+      <selection activeCell="A209" sqref="A209"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12478,8 +12482,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA205"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="A196" sqref="A196"/>
+    <sheetView tabSelected="1" topLeftCell="H192" workbookViewId="0">
+      <selection activeCell="L193" sqref="L193"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13486,7 +13490,7 @@
         <v>924</v>
       </c>
       <c r="K30" t="s">
-        <v>952</v>
+        <v>959</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -17010,7 +17014,7 @@
         <v>952</v>
       </c>
       <c r="L139" s="20" t="s">
-        <v>1126</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="140" spans="1:12" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -17432,7 +17436,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="153" spans="1:12" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:12" ht="162.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="6" t="s">
         <v>651</v>
       </c>
